--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="9675" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="9615" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -19,8 +19,96 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Roman Shilin</author>
+  </authors>
+  <commentList>
+    <comment ref="BD16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Roman Shilin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+отказался</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FL16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Roman Shilin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+отказался</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="HI16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Roman Shilin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+отказался</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="39">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -143,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +241,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -193,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -215,6 +336,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,19 +610,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FX22" sqref="FX22:FY22"/>
+      <pane xSplit="1" topLeftCell="GZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HJ25" sqref="HJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,70 +7914,109 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FL16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM16" t="s">
+      <c r="BD16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="FL16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="HN16" s="4" t="s">
@@ -7863,19 +8025,19 @@
       <c r="HO16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="HP16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HQ16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HR16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HS16" t="s">
-        <v>13</v>
-      </c>
-      <c r="HT16" t="s">
+      <c r="HP16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8100,11 +8262,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8112,9 +8269,15 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -332,12 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,8 +621,8 @@
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HJ25" sqref="HJ25"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CE5" sqref="BS5:CE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,395 +633,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="11" t="s">
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="11" t="s">
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="12" t="s">
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12" t="s">
+      <c r="DS1" s="14"/>
+      <c r="DT1" s="14"/>
+      <c r="DU1" s="14"/>
+      <c r="DV1" s="14"/>
+      <c r="DW1" s="14"/>
+      <c r="DX1" s="14"/>
+      <c r="DY1" s="14"/>
+      <c r="DZ1" s="14"/>
+      <c r="EA1" s="14"/>
+      <c r="EB1" s="14"/>
+      <c r="EC1" s="14"/>
+      <c r="ED1" s="14"/>
+      <c r="EE1" s="14"/>
+      <c r="EF1" s="14"/>
+      <c r="EG1" s="14"/>
+      <c r="EH1" s="14"/>
+      <c r="EI1" s="14"/>
+      <c r="EJ1" s="14"/>
+      <c r="EK1" s="14"/>
+      <c r="EL1" s="14"/>
+      <c r="EM1" s="14"/>
+      <c r="EN1" s="14"/>
+      <c r="EO1" s="14"/>
+      <c r="EP1" s="14"/>
+      <c r="EQ1" s="14"/>
+      <c r="ER1" s="14"/>
+      <c r="ES1" s="14"/>
+      <c r="ET1" s="14"/>
+      <c r="EU1" s="14"/>
+      <c r="EV1" s="14"/>
+      <c r="EW1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12" t="s">
+      <c r="EX1" s="14"/>
+      <c r="EY1" s="14"/>
+      <c r="EZ1" s="14"/>
+      <c r="FA1" s="14"/>
+      <c r="FB1" s="14"/>
+      <c r="FC1" s="14"/>
+      <c r="FD1" s="14"/>
+      <c r="FE1" s="14"/>
+      <c r="FF1" s="14"/>
+      <c r="FG1" s="14"/>
+      <c r="FH1" s="14"/>
+      <c r="FI1" s="14"/>
+      <c r="FJ1" s="14"/>
+      <c r="FK1" s="14"/>
+      <c r="FL1" s="14"/>
+      <c r="FM1" s="14"/>
+      <c r="FN1" s="14"/>
+      <c r="FO1" s="14"/>
+      <c r="FP1" s="14"/>
+      <c r="FQ1" s="14"/>
+      <c r="FR1" s="14"/>
+      <c r="FS1" s="14"/>
+      <c r="FT1" s="14"/>
+      <c r="FU1" s="14"/>
+      <c r="FV1" s="14"/>
+      <c r="FW1" s="14"/>
+      <c r="FX1" s="14"/>
+      <c r="FY1" s="14"/>
+      <c r="FZ1" s="14"/>
+      <c r="GA1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="11" t="s">
+      <c r="GB1" s="14"/>
+      <c r="GC1" s="14"/>
+      <c r="GD1" s="14"/>
+      <c r="GE1" s="14"/>
+      <c r="GF1" s="14"/>
+      <c r="GG1" s="14"/>
+      <c r="GH1" s="14"/>
+      <c r="GI1" s="14"/>
+      <c r="GJ1" s="14"/>
+      <c r="GK1" s="14"/>
+      <c r="GL1" s="14"/>
+      <c r="GM1" s="14"/>
+      <c r="GN1" s="14"/>
+      <c r="GO1" s="14"/>
+      <c r="GP1" s="14"/>
+      <c r="GQ1" s="14"/>
+      <c r="GR1" s="14"/>
+      <c r="GS1" s="14"/>
+      <c r="GT1" s="14"/>
+      <c r="GU1" s="14"/>
+      <c r="GV1" s="14"/>
+      <c r="GW1" s="14"/>
+      <c r="GX1" s="14"/>
+      <c r="GY1" s="14"/>
+      <c r="GZ1" s="14"/>
+      <c r="HA1" s="14"/>
+      <c r="HB1" s="14"/>
+      <c r="HC1" s="14"/>
+      <c r="HD1" s="14"/>
+      <c r="HE1" s="14"/>
+      <c r="HF1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="11"/>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="11"/>
-      <c r="HY1" s="11"/>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="12" t="s">
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
-      <c r="IU1" s="12"/>
-      <c r="IV1" s="12"/>
-      <c r="IW1" s="12"/>
-      <c r="IX1" s="12"/>
-      <c r="IY1" s="12"/>
-      <c r="IZ1" s="12"/>
-      <c r="JA1" s="12"/>
-      <c r="JB1" s="12"/>
-      <c r="JC1" s="12"/>
-      <c r="JD1" s="12"/>
-      <c r="JE1" s="12"/>
-      <c r="JF1" s="12"/>
-      <c r="JG1" s="12"/>
-      <c r="JH1" s="12"/>
-      <c r="JI1" s="12"/>
-      <c r="JJ1" s="12"/>
-      <c r="JK1" s="12"/>
-      <c r="JL1" s="12"/>
-      <c r="JM1" s="12"/>
-      <c r="JN1" s="12"/>
-      <c r="JO1" s="11" t="s">
+      <c r="IL1" s="14"/>
+      <c r="IM1" s="14"/>
+      <c r="IN1" s="14"/>
+      <c r="IO1" s="14"/>
+      <c r="IP1" s="14"/>
+      <c r="IQ1" s="14"/>
+      <c r="IR1" s="14"/>
+      <c r="IS1" s="14"/>
+      <c r="IT1" s="14"/>
+      <c r="IU1" s="14"/>
+      <c r="IV1" s="14"/>
+      <c r="IW1" s="14"/>
+      <c r="IX1" s="14"/>
+      <c r="IY1" s="14"/>
+      <c r="IZ1" s="14"/>
+      <c r="JA1" s="14"/>
+      <c r="JB1" s="14"/>
+      <c r="JC1" s="14"/>
+      <c r="JD1" s="14"/>
+      <c r="JE1" s="14"/>
+      <c r="JF1" s="14"/>
+      <c r="JG1" s="14"/>
+      <c r="JH1" s="14"/>
+      <c r="JI1" s="14"/>
+      <c r="JJ1" s="14"/>
+      <c r="JK1" s="14"/>
+      <c r="JL1" s="14"/>
+      <c r="JM1" s="14"/>
+      <c r="JN1" s="14"/>
+      <c r="JO1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="11"/>
-      <c r="KA1" s="11"/>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="11"/>
-      <c r="KS1" s="11"/>
-      <c r="KT1" s="11" t="s">
+      <c r="JP1" s="13"/>
+      <c r="JQ1" s="13"/>
+      <c r="JR1" s="13"/>
+      <c r="JS1" s="13"/>
+      <c r="JT1" s="13"/>
+      <c r="JU1" s="13"/>
+      <c r="JV1" s="13"/>
+      <c r="JW1" s="13"/>
+      <c r="JX1" s="13"/>
+      <c r="JY1" s="13"/>
+      <c r="JZ1" s="13"/>
+      <c r="KA1" s="13"/>
+      <c r="KB1" s="13"/>
+      <c r="KC1" s="13"/>
+      <c r="KD1" s="13"/>
+      <c r="KE1" s="13"/>
+      <c r="KF1" s="13"/>
+      <c r="KG1" s="13"/>
+      <c r="KH1" s="13"/>
+      <c r="KI1" s="13"/>
+      <c r="KJ1" s="13"/>
+      <c r="KK1" s="13"/>
+      <c r="KL1" s="13"/>
+      <c r="KM1" s="13"/>
+      <c r="KN1" s="13"/>
+      <c r="KO1" s="13"/>
+      <c r="KP1" s="13"/>
+      <c r="KQ1" s="13"/>
+      <c r="KR1" s="13"/>
+      <c r="KS1" s="13"/>
+      <c r="KT1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="11"/>
-      <c r="KV1" s="11"/>
-      <c r="KW1" s="11"/>
-      <c r="KX1" s="11"/>
-      <c r="KY1" s="11"/>
-      <c r="KZ1" s="11"/>
-      <c r="LA1" s="11"/>
-      <c r="LB1" s="11"/>
-      <c r="LC1" s="11"/>
-      <c r="LD1" s="11"/>
-      <c r="LE1" s="11"/>
-      <c r="LF1" s="11"/>
-      <c r="LG1" s="11"/>
-      <c r="LH1" s="11"/>
-      <c r="LI1" s="11"/>
-      <c r="LJ1" s="11"/>
-      <c r="LK1" s="11"/>
-      <c r="LL1" s="11"/>
-      <c r="LM1" s="11"/>
-      <c r="LN1" s="11"/>
-      <c r="LO1" s="11"/>
-      <c r="LP1" s="11"/>
-      <c r="LQ1" s="11"/>
-      <c r="LR1" s="11"/>
-      <c r="LS1" s="11"/>
-      <c r="LT1" s="11"/>
-      <c r="LU1" s="11"/>
-      <c r="LV1" s="11"/>
-      <c r="LW1" s="11"/>
-      <c r="LX1" s="11" t="s">
+      <c r="KU1" s="13"/>
+      <c r="KV1" s="13"/>
+      <c r="KW1" s="13"/>
+      <c r="KX1" s="13"/>
+      <c r="KY1" s="13"/>
+      <c r="KZ1" s="13"/>
+      <c r="LA1" s="13"/>
+      <c r="LB1" s="13"/>
+      <c r="LC1" s="13"/>
+      <c r="LD1" s="13"/>
+      <c r="LE1" s="13"/>
+      <c r="LF1" s="13"/>
+      <c r="LG1" s="13"/>
+      <c r="LH1" s="13"/>
+      <c r="LI1" s="13"/>
+      <c r="LJ1" s="13"/>
+      <c r="LK1" s="13"/>
+      <c r="LL1" s="13"/>
+      <c r="LM1" s="13"/>
+      <c r="LN1" s="13"/>
+      <c r="LO1" s="13"/>
+      <c r="LP1" s="13"/>
+      <c r="LQ1" s="13"/>
+      <c r="LR1" s="13"/>
+      <c r="LS1" s="13"/>
+      <c r="LT1" s="13"/>
+      <c r="LU1" s="13"/>
+      <c r="LV1" s="13"/>
+      <c r="LW1" s="13"/>
+      <c r="LX1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="11"/>
-      <c r="LZ1" s="11"/>
-      <c r="MA1" s="11"/>
-      <c r="MB1" s="11"/>
-      <c r="MC1" s="11"/>
-      <c r="MD1" s="11"/>
-      <c r="ME1" s="11"/>
-      <c r="MF1" s="11"/>
-      <c r="MG1" s="11"/>
-      <c r="MH1" s="11"/>
-      <c r="MI1" s="11"/>
-      <c r="MJ1" s="11"/>
-      <c r="MK1" s="11"/>
-      <c r="ML1" s="11"/>
-      <c r="MM1" s="11"/>
-      <c r="MN1" s="11"/>
-      <c r="MO1" s="11"/>
-      <c r="MP1" s="11"/>
-      <c r="MQ1" s="11"/>
-      <c r="MR1" s="11"/>
-      <c r="MS1" s="11"/>
-      <c r="MT1" s="11"/>
-      <c r="MU1" s="11"/>
-      <c r="MV1" s="11"/>
-      <c r="MW1" s="11"/>
-      <c r="MX1" s="11"/>
-      <c r="MY1" s="11"/>
-      <c r="MZ1" s="11"/>
-      <c r="NA1" s="11"/>
-      <c r="NB1" s="11"/>
+      <c r="LY1" s="13"/>
+      <c r="LZ1" s="13"/>
+      <c r="MA1" s="13"/>
+      <c r="MB1" s="13"/>
+      <c r="MC1" s="13"/>
+      <c r="MD1" s="13"/>
+      <c r="ME1" s="13"/>
+      <c r="MF1" s="13"/>
+      <c r="MG1" s="13"/>
+      <c r="MH1" s="13"/>
+      <c r="MI1" s="13"/>
+      <c r="MJ1" s="13"/>
+      <c r="MK1" s="13"/>
+      <c r="ML1" s="13"/>
+      <c r="MM1" s="13"/>
+      <c r="MN1" s="13"/>
+      <c r="MO1" s="13"/>
+      <c r="MP1" s="13"/>
+      <c r="MQ1" s="13"/>
+      <c r="MR1" s="13"/>
+      <c r="MS1" s="13"/>
+      <c r="MT1" s="13"/>
+      <c r="MU1" s="13"/>
+      <c r="MV1" s="13"/>
+      <c r="MW1" s="13"/>
+      <c r="MX1" s="13"/>
+      <c r="MY1" s="13"/>
+      <c r="MZ1" s="13"/>
+      <c r="NA1" s="13"/>
+      <c r="NB1" s="13"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -7914,109 +7914,109 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BY16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CA16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CD16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CF16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CG16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="FL16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM16" s="13" t="s">
+      <c r="BD16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="FL16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="HN16" s="4" t="s">
@@ -8262,6 +8262,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8269,11 +8274,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -26,32 +26,6 @@
   </authors>
   <commentList>
     <comment ref="BD16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Roman Shilin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-отказался</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="FL16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="39">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -231,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +246,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -314,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -333,7 +298,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,8 +585,8 @@
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CE5" sqref="BS5:CE5"/>
+      <pane xSplit="1" topLeftCell="GI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HE20" sqref="HE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,395 +597,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="13" t="s">
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="13" t="s">
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="14" t="s">
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="12"/>
+      <c r="CX1" s="12"/>
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="12"/>
+      <c r="DC1" s="12"/>
+      <c r="DD1" s="12"/>
+      <c r="DE1" s="12"/>
+      <c r="DF1" s="12"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12"/>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="12"/>
+      <c r="DN1" s="12"/>
+      <c r="DO1" s="12"/>
+      <c r="DP1" s="12"/>
+      <c r="DQ1" s="12"/>
+      <c r="DR1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14" t="s">
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14" t="s">
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="13" t="s">
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="14" t="s">
+      <c r="HG1" s="12"/>
+      <c r="HH1" s="12"/>
+      <c r="HI1" s="12"/>
+      <c r="HJ1" s="12"/>
+      <c r="HK1" s="12"/>
+      <c r="HL1" s="12"/>
+      <c r="HM1" s="12"/>
+      <c r="HN1" s="12"/>
+      <c r="HO1" s="12"/>
+      <c r="HP1" s="12"/>
+      <c r="HQ1" s="12"/>
+      <c r="HR1" s="12"/>
+      <c r="HS1" s="12"/>
+      <c r="HT1" s="12"/>
+      <c r="HU1" s="12"/>
+      <c r="HV1" s="12"/>
+      <c r="HW1" s="12"/>
+      <c r="HX1" s="12"/>
+      <c r="HY1" s="12"/>
+      <c r="HZ1" s="12"/>
+      <c r="IA1" s="12"/>
+      <c r="IB1" s="12"/>
+      <c r="IC1" s="12"/>
+      <c r="ID1" s="12"/>
+      <c r="IE1" s="12"/>
+      <c r="IF1" s="12"/>
+      <c r="IG1" s="12"/>
+      <c r="IH1" s="12"/>
+      <c r="II1" s="12"/>
+      <c r="IJ1" s="12"/>
+      <c r="IK1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="13" t="s">
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+      <c r="IW1" s="13"/>
+      <c r="IX1" s="13"/>
+      <c r="IY1" s="13"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="13"/>
+      <c r="JB1" s="13"/>
+      <c r="JC1" s="13"/>
+      <c r="JD1" s="13"/>
+      <c r="JE1" s="13"/>
+      <c r="JF1" s="13"/>
+      <c r="JG1" s="13"/>
+      <c r="JH1" s="13"/>
+      <c r="JI1" s="13"/>
+      <c r="JJ1" s="13"/>
+      <c r="JK1" s="13"/>
+      <c r="JL1" s="13"/>
+      <c r="JM1" s="13"/>
+      <c r="JN1" s="13"/>
+      <c r="JO1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="13"/>
-      <c r="JQ1" s="13"/>
-      <c r="JR1" s="13"/>
-      <c r="JS1" s="13"/>
-      <c r="JT1" s="13"/>
-      <c r="JU1" s="13"/>
-      <c r="JV1" s="13"/>
-      <c r="JW1" s="13"/>
-      <c r="JX1" s="13"/>
-      <c r="JY1" s="13"/>
-      <c r="JZ1" s="13"/>
-      <c r="KA1" s="13"/>
-      <c r="KB1" s="13"/>
-      <c r="KC1" s="13"/>
-      <c r="KD1" s="13"/>
-      <c r="KE1" s="13"/>
-      <c r="KF1" s="13"/>
-      <c r="KG1" s="13"/>
-      <c r="KH1" s="13"/>
-      <c r="KI1" s="13"/>
-      <c r="KJ1" s="13"/>
-      <c r="KK1" s="13"/>
-      <c r="KL1" s="13"/>
-      <c r="KM1" s="13"/>
-      <c r="KN1" s="13"/>
-      <c r="KO1" s="13"/>
-      <c r="KP1" s="13"/>
-      <c r="KQ1" s="13"/>
-      <c r="KR1" s="13"/>
-      <c r="KS1" s="13"/>
-      <c r="KT1" s="13" t="s">
+      <c r="JP1" s="12"/>
+      <c r="JQ1" s="12"/>
+      <c r="JR1" s="12"/>
+      <c r="JS1" s="12"/>
+      <c r="JT1" s="12"/>
+      <c r="JU1" s="12"/>
+      <c r="JV1" s="12"/>
+      <c r="JW1" s="12"/>
+      <c r="JX1" s="12"/>
+      <c r="JY1" s="12"/>
+      <c r="JZ1" s="12"/>
+      <c r="KA1" s="12"/>
+      <c r="KB1" s="12"/>
+      <c r="KC1" s="12"/>
+      <c r="KD1" s="12"/>
+      <c r="KE1" s="12"/>
+      <c r="KF1" s="12"/>
+      <c r="KG1" s="12"/>
+      <c r="KH1" s="12"/>
+      <c r="KI1" s="12"/>
+      <c r="KJ1" s="12"/>
+      <c r="KK1" s="12"/>
+      <c r="KL1" s="12"/>
+      <c r="KM1" s="12"/>
+      <c r="KN1" s="12"/>
+      <c r="KO1" s="12"/>
+      <c r="KP1" s="12"/>
+      <c r="KQ1" s="12"/>
+      <c r="KR1" s="12"/>
+      <c r="KS1" s="12"/>
+      <c r="KT1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="13"/>
-      <c r="KV1" s="13"/>
-      <c r="KW1" s="13"/>
-      <c r="KX1" s="13"/>
-      <c r="KY1" s="13"/>
-      <c r="KZ1" s="13"/>
-      <c r="LA1" s="13"/>
-      <c r="LB1" s="13"/>
-      <c r="LC1" s="13"/>
-      <c r="LD1" s="13"/>
-      <c r="LE1" s="13"/>
-      <c r="LF1" s="13"/>
-      <c r="LG1" s="13"/>
-      <c r="LH1" s="13"/>
-      <c r="LI1" s="13"/>
-      <c r="LJ1" s="13"/>
-      <c r="LK1" s="13"/>
-      <c r="LL1" s="13"/>
-      <c r="LM1" s="13"/>
-      <c r="LN1" s="13"/>
-      <c r="LO1" s="13"/>
-      <c r="LP1" s="13"/>
-      <c r="LQ1" s="13"/>
-      <c r="LR1" s="13"/>
-      <c r="LS1" s="13"/>
-      <c r="LT1" s="13"/>
-      <c r="LU1" s="13"/>
-      <c r="LV1" s="13"/>
-      <c r="LW1" s="13"/>
-      <c r="LX1" s="13" t="s">
+      <c r="KU1" s="12"/>
+      <c r="KV1" s="12"/>
+      <c r="KW1" s="12"/>
+      <c r="KX1" s="12"/>
+      <c r="KY1" s="12"/>
+      <c r="KZ1" s="12"/>
+      <c r="LA1" s="12"/>
+      <c r="LB1" s="12"/>
+      <c r="LC1" s="12"/>
+      <c r="LD1" s="12"/>
+      <c r="LE1" s="12"/>
+      <c r="LF1" s="12"/>
+      <c r="LG1" s="12"/>
+      <c r="LH1" s="12"/>
+      <c r="LI1" s="12"/>
+      <c r="LJ1" s="12"/>
+      <c r="LK1" s="12"/>
+      <c r="LL1" s="12"/>
+      <c r="LM1" s="12"/>
+      <c r="LN1" s="12"/>
+      <c r="LO1" s="12"/>
+      <c r="LP1" s="12"/>
+      <c r="LQ1" s="12"/>
+      <c r="LR1" s="12"/>
+      <c r="LS1" s="12"/>
+      <c r="LT1" s="12"/>
+      <c r="LU1" s="12"/>
+      <c r="LV1" s="12"/>
+      <c r="LW1" s="12"/>
+      <c r="LX1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="13"/>
-      <c r="LZ1" s="13"/>
-      <c r="MA1" s="13"/>
-      <c r="MB1" s="13"/>
-      <c r="MC1" s="13"/>
-      <c r="MD1" s="13"/>
-      <c r="ME1" s="13"/>
-      <c r="MF1" s="13"/>
-      <c r="MG1" s="13"/>
-      <c r="MH1" s="13"/>
-      <c r="MI1" s="13"/>
-      <c r="MJ1" s="13"/>
-      <c r="MK1" s="13"/>
-      <c r="ML1" s="13"/>
-      <c r="MM1" s="13"/>
-      <c r="MN1" s="13"/>
-      <c r="MO1" s="13"/>
-      <c r="MP1" s="13"/>
-      <c r="MQ1" s="13"/>
-      <c r="MR1" s="13"/>
-      <c r="MS1" s="13"/>
-      <c r="MT1" s="13"/>
-      <c r="MU1" s="13"/>
-      <c r="MV1" s="13"/>
-      <c r="MW1" s="13"/>
-      <c r="MX1" s="13"/>
-      <c r="MY1" s="13"/>
-      <c r="MZ1" s="13"/>
-      <c r="NA1" s="13"/>
-      <c r="NB1" s="13"/>
+      <c r="LY1" s="12"/>
+      <c r="LZ1" s="12"/>
+      <c r="MA1" s="12"/>
+      <c r="MB1" s="12"/>
+      <c r="MC1" s="12"/>
+      <c r="MD1" s="12"/>
+      <c r="ME1" s="12"/>
+      <c r="MF1" s="12"/>
+      <c r="MG1" s="12"/>
+      <c r="MH1" s="12"/>
+      <c r="MI1" s="12"/>
+      <c r="MJ1" s="12"/>
+      <c r="MK1" s="12"/>
+      <c r="ML1" s="12"/>
+      <c r="MM1" s="12"/>
+      <c r="MN1" s="12"/>
+      <c r="MO1" s="12"/>
+      <c r="MP1" s="12"/>
+      <c r="MQ1" s="12"/>
+      <c r="MR1" s="12"/>
+      <c r="MS1" s="12"/>
+      <c r="MT1" s="12"/>
+      <c r="MU1" s="12"/>
+      <c r="MV1" s="12"/>
+      <c r="MW1" s="12"/>
+      <c r="MX1" s="12"/>
+      <c r="MY1" s="12"/>
+      <c r="MZ1" s="12"/>
+      <c r="NA1" s="12"/>
+      <c r="NB1" s="12"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -7968,40 +7932,46 @@
       <c r="CZ16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="FL16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW16" s="11" t="s">
+      <c r="FL16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FX16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="HI16" s="11" t="s">
@@ -8191,67 +8161,67 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="BD23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BW23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX23" s="9" t="s">
+      <c r="BD23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX23" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8262,11 +8232,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8274,6 +8239,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="39">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +246,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -302,6 +315,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,8 +600,8 @@
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HE20" sqref="HE20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,10 +8026,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:356" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:356" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="CG17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD17" s="15"/>
+      <c r="DE17" s="15"/>
+      <c r="DF17" s="15"/>
+      <c r="DG17" s="15"/>
+      <c r="DH17" s="15"/>
+      <c r="DI17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN17" s="15"/>
+      <c r="DO17" s="15"/>
+      <c r="ER17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="ES17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="EU17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="EV17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="FA17" s="15"/>
+      <c r="FB17" s="15"/>
+      <c r="FC17" s="15"/>
+      <c r="FD17" s="15"/>
+      <c r="FE17" s="15"/>
+      <c r="FF17" s="15"/>
+      <c r="FG17" s="15"/>
+      <c r="FH17" s="15"/>
+      <c r="FI17" s="15"/>
+      <c r="FJ17" s="15"/>
+      <c r="FK17" s="15"/>
     </row>
     <row r="18" spans="1:356" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -8232,6 +8325,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8239,11 +8337,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="39">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +253,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -311,12 +326,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,8 +619,8 @@
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
+      <pane xSplit="1" topLeftCell="CQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB23" sqref="DB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,395 +631,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="12" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="12" t="s">
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14"/>
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="13" t="s">
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CT1" s="14"/>
+      <c r="CU1" s="14"/>
+      <c r="CV1" s="14"/>
+      <c r="CW1" s="14"/>
+      <c r="CX1" s="14"/>
+      <c r="CY1" s="14"/>
+      <c r="CZ1" s="14"/>
+      <c r="DA1" s="14"/>
+      <c r="DB1" s="14"/>
+      <c r="DC1" s="14"/>
+      <c r="DD1" s="14"/>
+      <c r="DE1" s="14"/>
+      <c r="DF1" s="14"/>
+      <c r="DG1" s="14"/>
+      <c r="DH1" s="14"/>
+      <c r="DI1" s="14"/>
+      <c r="DJ1" s="14"/>
+      <c r="DK1" s="14"/>
+      <c r="DL1" s="14"/>
+      <c r="DM1" s="14"/>
+      <c r="DN1" s="14"/>
+      <c r="DO1" s="14"/>
+      <c r="DP1" s="14"/>
+      <c r="DQ1" s="14"/>
+      <c r="DR1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13" t="s">
+      <c r="DS1" s="15"/>
+      <c r="DT1" s="15"/>
+      <c r="DU1" s="15"/>
+      <c r="DV1" s="15"/>
+      <c r="DW1" s="15"/>
+      <c r="DX1" s="15"/>
+      <c r="DY1" s="15"/>
+      <c r="DZ1" s="15"/>
+      <c r="EA1" s="15"/>
+      <c r="EB1" s="15"/>
+      <c r="EC1" s="15"/>
+      <c r="ED1" s="15"/>
+      <c r="EE1" s="15"/>
+      <c r="EF1" s="15"/>
+      <c r="EG1" s="15"/>
+      <c r="EH1" s="15"/>
+      <c r="EI1" s="15"/>
+      <c r="EJ1" s="15"/>
+      <c r="EK1" s="15"/>
+      <c r="EL1" s="15"/>
+      <c r="EM1" s="15"/>
+      <c r="EN1" s="15"/>
+      <c r="EO1" s="15"/>
+      <c r="EP1" s="15"/>
+      <c r="EQ1" s="15"/>
+      <c r="ER1" s="15"/>
+      <c r="ES1" s="15"/>
+      <c r="ET1" s="15"/>
+      <c r="EU1" s="15"/>
+      <c r="EV1" s="15"/>
+      <c r="EW1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13" t="s">
+      <c r="EX1" s="15"/>
+      <c r="EY1" s="15"/>
+      <c r="EZ1" s="15"/>
+      <c r="FA1" s="15"/>
+      <c r="FB1" s="15"/>
+      <c r="FC1" s="15"/>
+      <c r="FD1" s="15"/>
+      <c r="FE1" s="15"/>
+      <c r="FF1" s="15"/>
+      <c r="FG1" s="15"/>
+      <c r="FH1" s="15"/>
+      <c r="FI1" s="15"/>
+      <c r="FJ1" s="15"/>
+      <c r="FK1" s="15"/>
+      <c r="FL1" s="15"/>
+      <c r="FM1" s="15"/>
+      <c r="FN1" s="15"/>
+      <c r="FO1" s="15"/>
+      <c r="FP1" s="15"/>
+      <c r="FQ1" s="15"/>
+      <c r="FR1" s="15"/>
+      <c r="FS1" s="15"/>
+      <c r="FT1" s="15"/>
+      <c r="FU1" s="15"/>
+      <c r="FV1" s="15"/>
+      <c r="FW1" s="15"/>
+      <c r="FX1" s="15"/>
+      <c r="FY1" s="15"/>
+      <c r="FZ1" s="15"/>
+      <c r="GA1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="12" t="s">
+      <c r="GB1" s="15"/>
+      <c r="GC1" s="15"/>
+      <c r="GD1" s="15"/>
+      <c r="GE1" s="15"/>
+      <c r="GF1" s="15"/>
+      <c r="GG1" s="15"/>
+      <c r="GH1" s="15"/>
+      <c r="GI1" s="15"/>
+      <c r="GJ1" s="15"/>
+      <c r="GK1" s="15"/>
+      <c r="GL1" s="15"/>
+      <c r="GM1" s="15"/>
+      <c r="GN1" s="15"/>
+      <c r="GO1" s="15"/>
+      <c r="GP1" s="15"/>
+      <c r="GQ1" s="15"/>
+      <c r="GR1" s="15"/>
+      <c r="GS1" s="15"/>
+      <c r="GT1" s="15"/>
+      <c r="GU1" s="15"/>
+      <c r="GV1" s="15"/>
+      <c r="GW1" s="15"/>
+      <c r="GX1" s="15"/>
+      <c r="GY1" s="15"/>
+      <c r="GZ1" s="15"/>
+      <c r="HA1" s="15"/>
+      <c r="HB1" s="15"/>
+      <c r="HC1" s="15"/>
+      <c r="HD1" s="15"/>
+      <c r="HE1" s="15"/>
+      <c r="HF1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="13" t="s">
+      <c r="HG1" s="14"/>
+      <c r="HH1" s="14"/>
+      <c r="HI1" s="14"/>
+      <c r="HJ1" s="14"/>
+      <c r="HK1" s="14"/>
+      <c r="HL1" s="14"/>
+      <c r="HM1" s="14"/>
+      <c r="HN1" s="14"/>
+      <c r="HO1" s="14"/>
+      <c r="HP1" s="14"/>
+      <c r="HQ1" s="14"/>
+      <c r="HR1" s="14"/>
+      <c r="HS1" s="14"/>
+      <c r="HT1" s="14"/>
+      <c r="HU1" s="14"/>
+      <c r="HV1" s="14"/>
+      <c r="HW1" s="14"/>
+      <c r="HX1" s="14"/>
+      <c r="HY1" s="14"/>
+      <c r="HZ1" s="14"/>
+      <c r="IA1" s="14"/>
+      <c r="IB1" s="14"/>
+      <c r="IC1" s="14"/>
+      <c r="ID1" s="14"/>
+      <c r="IE1" s="14"/>
+      <c r="IF1" s="14"/>
+      <c r="IG1" s="14"/>
+      <c r="IH1" s="14"/>
+      <c r="II1" s="14"/>
+      <c r="IJ1" s="14"/>
+      <c r="IK1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
-      <c r="IW1" s="13"/>
-      <c r="IX1" s="13"/>
-      <c r="IY1" s="13"/>
-      <c r="IZ1" s="13"/>
-      <c r="JA1" s="13"/>
-      <c r="JB1" s="13"/>
-      <c r="JC1" s="13"/>
-      <c r="JD1" s="13"/>
-      <c r="JE1" s="13"/>
-      <c r="JF1" s="13"/>
-      <c r="JG1" s="13"/>
-      <c r="JH1" s="13"/>
-      <c r="JI1" s="13"/>
-      <c r="JJ1" s="13"/>
-      <c r="JK1" s="13"/>
-      <c r="JL1" s="13"/>
-      <c r="JM1" s="13"/>
-      <c r="JN1" s="13"/>
-      <c r="JO1" s="12" t="s">
+      <c r="IL1" s="15"/>
+      <c r="IM1" s="15"/>
+      <c r="IN1" s="15"/>
+      <c r="IO1" s="15"/>
+      <c r="IP1" s="15"/>
+      <c r="IQ1" s="15"/>
+      <c r="IR1" s="15"/>
+      <c r="IS1" s="15"/>
+      <c r="IT1" s="15"/>
+      <c r="IU1" s="15"/>
+      <c r="IV1" s="15"/>
+      <c r="IW1" s="15"/>
+      <c r="IX1" s="15"/>
+      <c r="IY1" s="15"/>
+      <c r="IZ1" s="15"/>
+      <c r="JA1" s="15"/>
+      <c r="JB1" s="15"/>
+      <c r="JC1" s="15"/>
+      <c r="JD1" s="15"/>
+      <c r="JE1" s="15"/>
+      <c r="JF1" s="15"/>
+      <c r="JG1" s="15"/>
+      <c r="JH1" s="15"/>
+      <c r="JI1" s="15"/>
+      <c r="JJ1" s="15"/>
+      <c r="JK1" s="15"/>
+      <c r="JL1" s="15"/>
+      <c r="JM1" s="15"/>
+      <c r="JN1" s="15"/>
+      <c r="JO1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="12"/>
-      <c r="JQ1" s="12"/>
-      <c r="JR1" s="12"/>
-      <c r="JS1" s="12"/>
-      <c r="JT1" s="12"/>
-      <c r="JU1" s="12"/>
-      <c r="JV1" s="12"/>
-      <c r="JW1" s="12"/>
-      <c r="JX1" s="12"/>
-      <c r="JY1" s="12"/>
-      <c r="JZ1" s="12"/>
-      <c r="KA1" s="12"/>
-      <c r="KB1" s="12"/>
-      <c r="KC1" s="12"/>
-      <c r="KD1" s="12"/>
-      <c r="KE1" s="12"/>
-      <c r="KF1" s="12"/>
-      <c r="KG1" s="12"/>
-      <c r="KH1" s="12"/>
-      <c r="KI1" s="12"/>
-      <c r="KJ1" s="12"/>
-      <c r="KK1" s="12"/>
-      <c r="KL1" s="12"/>
-      <c r="KM1" s="12"/>
-      <c r="KN1" s="12"/>
-      <c r="KO1" s="12"/>
-      <c r="KP1" s="12"/>
-      <c r="KQ1" s="12"/>
-      <c r="KR1" s="12"/>
-      <c r="KS1" s="12"/>
-      <c r="KT1" s="12" t="s">
+      <c r="JP1" s="14"/>
+      <c r="JQ1" s="14"/>
+      <c r="JR1" s="14"/>
+      <c r="JS1" s="14"/>
+      <c r="JT1" s="14"/>
+      <c r="JU1" s="14"/>
+      <c r="JV1" s="14"/>
+      <c r="JW1" s="14"/>
+      <c r="JX1" s="14"/>
+      <c r="JY1" s="14"/>
+      <c r="JZ1" s="14"/>
+      <c r="KA1" s="14"/>
+      <c r="KB1" s="14"/>
+      <c r="KC1" s="14"/>
+      <c r="KD1" s="14"/>
+      <c r="KE1" s="14"/>
+      <c r="KF1" s="14"/>
+      <c r="KG1" s="14"/>
+      <c r="KH1" s="14"/>
+      <c r="KI1" s="14"/>
+      <c r="KJ1" s="14"/>
+      <c r="KK1" s="14"/>
+      <c r="KL1" s="14"/>
+      <c r="KM1" s="14"/>
+      <c r="KN1" s="14"/>
+      <c r="KO1" s="14"/>
+      <c r="KP1" s="14"/>
+      <c r="KQ1" s="14"/>
+      <c r="KR1" s="14"/>
+      <c r="KS1" s="14"/>
+      <c r="KT1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="12"/>
-      <c r="KV1" s="12"/>
-      <c r="KW1" s="12"/>
-      <c r="KX1" s="12"/>
-      <c r="KY1" s="12"/>
-      <c r="KZ1" s="12"/>
-      <c r="LA1" s="12"/>
-      <c r="LB1" s="12"/>
-      <c r="LC1" s="12"/>
-      <c r="LD1" s="12"/>
-      <c r="LE1" s="12"/>
-      <c r="LF1" s="12"/>
-      <c r="LG1" s="12"/>
-      <c r="LH1" s="12"/>
-      <c r="LI1" s="12"/>
-      <c r="LJ1" s="12"/>
-      <c r="LK1" s="12"/>
-      <c r="LL1" s="12"/>
-      <c r="LM1" s="12"/>
-      <c r="LN1" s="12"/>
-      <c r="LO1" s="12"/>
-      <c r="LP1" s="12"/>
-      <c r="LQ1" s="12"/>
-      <c r="LR1" s="12"/>
-      <c r="LS1" s="12"/>
-      <c r="LT1" s="12"/>
-      <c r="LU1" s="12"/>
-      <c r="LV1" s="12"/>
-      <c r="LW1" s="12"/>
-      <c r="LX1" s="12" t="s">
+      <c r="KU1" s="14"/>
+      <c r="KV1" s="14"/>
+      <c r="KW1" s="14"/>
+      <c r="KX1" s="14"/>
+      <c r="KY1" s="14"/>
+      <c r="KZ1" s="14"/>
+      <c r="LA1" s="14"/>
+      <c r="LB1" s="14"/>
+      <c r="LC1" s="14"/>
+      <c r="LD1" s="14"/>
+      <c r="LE1" s="14"/>
+      <c r="LF1" s="14"/>
+      <c r="LG1" s="14"/>
+      <c r="LH1" s="14"/>
+      <c r="LI1" s="14"/>
+      <c r="LJ1" s="14"/>
+      <c r="LK1" s="14"/>
+      <c r="LL1" s="14"/>
+      <c r="LM1" s="14"/>
+      <c r="LN1" s="14"/>
+      <c r="LO1" s="14"/>
+      <c r="LP1" s="14"/>
+      <c r="LQ1" s="14"/>
+      <c r="LR1" s="14"/>
+      <c r="LS1" s="14"/>
+      <c r="LT1" s="14"/>
+      <c r="LU1" s="14"/>
+      <c r="LV1" s="14"/>
+      <c r="LW1" s="14"/>
+      <c r="LX1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="12"/>
-      <c r="LZ1" s="12"/>
-      <c r="MA1" s="12"/>
-      <c r="MB1" s="12"/>
-      <c r="MC1" s="12"/>
-      <c r="MD1" s="12"/>
-      <c r="ME1" s="12"/>
-      <c r="MF1" s="12"/>
-      <c r="MG1" s="12"/>
-      <c r="MH1" s="12"/>
-      <c r="MI1" s="12"/>
-      <c r="MJ1" s="12"/>
-      <c r="MK1" s="12"/>
-      <c r="ML1" s="12"/>
-      <c r="MM1" s="12"/>
-      <c r="MN1" s="12"/>
-      <c r="MO1" s="12"/>
-      <c r="MP1" s="12"/>
-      <c r="MQ1" s="12"/>
-      <c r="MR1" s="12"/>
-      <c r="MS1" s="12"/>
-      <c r="MT1" s="12"/>
-      <c r="MU1" s="12"/>
-      <c r="MV1" s="12"/>
-      <c r="MW1" s="12"/>
-      <c r="MX1" s="12"/>
-      <c r="MY1" s="12"/>
-      <c r="MZ1" s="12"/>
-      <c r="NA1" s="12"/>
-      <c r="NB1" s="12"/>
+      <c r="LY1" s="14"/>
+      <c r="LZ1" s="14"/>
+      <c r="MA1" s="14"/>
+      <c r="MB1" s="14"/>
+      <c r="MC1" s="14"/>
+      <c r="MD1" s="14"/>
+      <c r="ME1" s="14"/>
+      <c r="MF1" s="14"/>
+      <c r="MG1" s="14"/>
+      <c r="MH1" s="14"/>
+      <c r="MI1" s="14"/>
+      <c r="MJ1" s="14"/>
+      <c r="MK1" s="14"/>
+      <c r="ML1" s="14"/>
+      <c r="MM1" s="14"/>
+      <c r="MN1" s="14"/>
+      <c r="MO1" s="14"/>
+      <c r="MP1" s="14"/>
+      <c r="MQ1" s="14"/>
+      <c r="MR1" s="14"/>
+      <c r="MS1" s="14"/>
+      <c r="MT1" s="14"/>
+      <c r="MU1" s="14"/>
+      <c r="MV1" s="14"/>
+      <c r="MW1" s="14"/>
+      <c r="MX1" s="14"/>
+      <c r="MY1" s="14"/>
+      <c r="MZ1" s="14"/>
+      <c r="NA1" s="14"/>
+      <c r="NB1" s="14"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5235,10 +5254,18 @@
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
       <c r="CW9" s="7"/>
-      <c r="CX9" s="7"/>
-      <c r="CY9" s="7"/>
-      <c r="CZ9" s="7"/>
-      <c r="DA9" s="7"/>
+      <c r="CX9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="DB9" s="7"/>
       <c r="DC9" s="7"/>
       <c r="DD9" s="7"/>
@@ -7908,43 +7935,43 @@
       <c r="BH16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="CN16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CR16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CS16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CT16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ16" s="9" t="s">
+      <c r="CN16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="FL16" t="s">
@@ -8026,88 +8053,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:356" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:356" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="CG17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD17" s="15"/>
-      <c r="DE17" s="15"/>
-      <c r="DF17" s="15"/>
-      <c r="DG17" s="15"/>
-      <c r="DH17" s="15"/>
-      <c r="DI17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DJ17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DL17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DM17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN17" s="15"/>
-      <c r="DO17" s="15"/>
-      <c r="ER17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="ET17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="EU17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="EV17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="FA17" s="15"/>
-      <c r="FB17" s="15"/>
-      <c r="FC17" s="15"/>
-      <c r="FD17" s="15"/>
-      <c r="FE17" s="15"/>
-      <c r="FF17" s="15"/>
-      <c r="FG17" s="15"/>
-      <c r="FH17" s="15"/>
-      <c r="FI17" s="15"/>
-      <c r="FJ17" s="15"/>
-      <c r="FK17" s="15"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="CG17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD17" s="13"/>
+      <c r="DE17" s="13"/>
+      <c r="DF17" s="13"/>
+      <c r="DG17" s="13"/>
+      <c r="DH17" s="13"/>
+      <c r="DI17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN17" s="13"/>
+      <c r="DO17" s="13"/>
+      <c r="ER17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="ES17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="EU17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="EV17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FA17" s="13"/>
+      <c r="FB17" s="13"/>
+      <c r="FC17" s="13"/>
+      <c r="FD17" s="13"/>
+      <c r="FE17" s="13"/>
+      <c r="FF17" s="13"/>
+      <c r="FG17" s="13"/>
+      <c r="FH17" s="13"/>
+      <c r="FI17" s="13"/>
+      <c r="FJ17" s="13"/>
+      <c r="FK17" s="13"/>
     </row>
     <row r="18" spans="1:356" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -8317,6 +8344,9 @@
       <c r="BX23" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="CX23" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:356" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -8325,11 +8355,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8337,6 +8362,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -328,14 +328,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,8 +622,8 @@
   <dimension ref="A1:PC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB23" sqref="DB23"/>
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW22" sqref="CW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,395 +634,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="14" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="14" t="s">
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="19"/>
+      <c r="CN1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="15" t="s">
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="15"/>
-      <c r="DT1" s="15"/>
-      <c r="DU1" s="15"/>
-      <c r="DV1" s="15"/>
-      <c r="DW1" s="15"/>
-      <c r="DX1" s="15"/>
-      <c r="DY1" s="15"/>
-      <c r="DZ1" s="15"/>
-      <c r="EA1" s="15"/>
-      <c r="EB1" s="15"/>
-      <c r="EC1" s="15"/>
-      <c r="ED1" s="15"/>
-      <c r="EE1" s="15"/>
-      <c r="EF1" s="15"/>
-      <c r="EG1" s="15"/>
-      <c r="EH1" s="15"/>
-      <c r="EI1" s="15"/>
-      <c r="EJ1" s="15"/>
-      <c r="EK1" s="15"/>
-      <c r="EL1" s="15"/>
-      <c r="EM1" s="15"/>
-      <c r="EN1" s="15"/>
-      <c r="EO1" s="15"/>
-      <c r="EP1" s="15"/>
-      <c r="EQ1" s="15"/>
-      <c r="ER1" s="15"/>
-      <c r="ES1" s="15"/>
-      <c r="ET1" s="15"/>
-      <c r="EU1" s="15"/>
-      <c r="EV1" s="15"/>
-      <c r="EW1" s="15" t="s">
+      <c r="DS1" s="19"/>
+      <c r="DT1" s="19"/>
+      <c r="DU1" s="19"/>
+      <c r="DV1" s="19"/>
+      <c r="DW1" s="19"/>
+      <c r="DX1" s="19"/>
+      <c r="DY1" s="19"/>
+      <c r="DZ1" s="19"/>
+      <c r="EA1" s="19"/>
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19"/>
+      <c r="EF1" s="19"/>
+      <c r="EG1" s="19"/>
+      <c r="EH1" s="19"/>
+      <c r="EI1" s="19"/>
+      <c r="EJ1" s="19"/>
+      <c r="EK1" s="19"/>
+      <c r="EL1" s="19"/>
+      <c r="EM1" s="19"/>
+      <c r="EN1" s="19"/>
+      <c r="EO1" s="19"/>
+      <c r="EP1" s="19"/>
+      <c r="EQ1" s="19"/>
+      <c r="ER1" s="19"/>
+      <c r="ES1" s="19"/>
+      <c r="ET1" s="19"/>
+      <c r="EU1" s="19"/>
+      <c r="EV1" s="19"/>
+      <c r="EW1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="15"/>
-      <c r="EY1" s="15"/>
-      <c r="EZ1" s="15"/>
-      <c r="FA1" s="15"/>
-      <c r="FB1" s="15"/>
-      <c r="FC1" s="15"/>
-      <c r="FD1" s="15"/>
-      <c r="FE1" s="15"/>
-      <c r="FF1" s="15"/>
-      <c r="FG1" s="15"/>
-      <c r="FH1" s="15"/>
-      <c r="FI1" s="15"/>
-      <c r="FJ1" s="15"/>
-      <c r="FK1" s="15"/>
-      <c r="FL1" s="15"/>
-      <c r="FM1" s="15"/>
-      <c r="FN1" s="15"/>
-      <c r="FO1" s="15"/>
-      <c r="FP1" s="15"/>
-      <c r="FQ1" s="15"/>
-      <c r="FR1" s="15"/>
-      <c r="FS1" s="15"/>
-      <c r="FT1" s="15"/>
-      <c r="FU1" s="15"/>
-      <c r="FV1" s="15"/>
-      <c r="FW1" s="15"/>
-      <c r="FX1" s="15"/>
-      <c r="FY1" s="15"/>
-      <c r="FZ1" s="15"/>
-      <c r="GA1" s="15" t="s">
+      <c r="EX1" s="19"/>
+      <c r="EY1" s="19"/>
+      <c r="EZ1" s="19"/>
+      <c r="FA1" s="19"/>
+      <c r="FB1" s="19"/>
+      <c r="FC1" s="19"/>
+      <c r="FD1" s="19"/>
+      <c r="FE1" s="19"/>
+      <c r="FF1" s="19"/>
+      <c r="FG1" s="19"/>
+      <c r="FH1" s="19"/>
+      <c r="FI1" s="19"/>
+      <c r="FJ1" s="19"/>
+      <c r="FK1" s="19"/>
+      <c r="FL1" s="19"/>
+      <c r="FM1" s="19"/>
+      <c r="FN1" s="19"/>
+      <c r="FO1" s="19"/>
+      <c r="FP1" s="19"/>
+      <c r="FQ1" s="19"/>
+      <c r="FR1" s="19"/>
+      <c r="FS1" s="19"/>
+      <c r="FT1" s="19"/>
+      <c r="FU1" s="19"/>
+      <c r="FV1" s="19"/>
+      <c r="FW1" s="19"/>
+      <c r="FX1" s="19"/>
+      <c r="FY1" s="19"/>
+      <c r="FZ1" s="19"/>
+      <c r="GA1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="15"/>
-      <c r="GC1" s="15"/>
-      <c r="GD1" s="15"/>
-      <c r="GE1" s="15"/>
-      <c r="GF1" s="15"/>
-      <c r="GG1" s="15"/>
-      <c r="GH1" s="15"/>
-      <c r="GI1" s="15"/>
-      <c r="GJ1" s="15"/>
-      <c r="GK1" s="15"/>
-      <c r="GL1" s="15"/>
-      <c r="GM1" s="15"/>
-      <c r="GN1" s="15"/>
-      <c r="GO1" s="15"/>
-      <c r="GP1" s="15"/>
-      <c r="GQ1" s="15"/>
-      <c r="GR1" s="15"/>
-      <c r="GS1" s="15"/>
-      <c r="GT1" s="15"/>
-      <c r="GU1" s="15"/>
-      <c r="GV1" s="15"/>
-      <c r="GW1" s="15"/>
-      <c r="GX1" s="15"/>
-      <c r="GY1" s="15"/>
-      <c r="GZ1" s="15"/>
-      <c r="HA1" s="15"/>
-      <c r="HB1" s="15"/>
-      <c r="HC1" s="15"/>
-      <c r="HD1" s="15"/>
-      <c r="HE1" s="15"/>
-      <c r="HF1" s="14" t="s">
+      <c r="GB1" s="19"/>
+      <c r="GC1" s="19"/>
+      <c r="GD1" s="19"/>
+      <c r="GE1" s="19"/>
+      <c r="GF1" s="19"/>
+      <c r="GG1" s="19"/>
+      <c r="GH1" s="19"/>
+      <c r="GI1" s="19"/>
+      <c r="GJ1" s="19"/>
+      <c r="GK1" s="19"/>
+      <c r="GL1" s="19"/>
+      <c r="GM1" s="19"/>
+      <c r="GN1" s="19"/>
+      <c r="GO1" s="19"/>
+      <c r="GP1" s="19"/>
+      <c r="GQ1" s="19"/>
+      <c r="GR1" s="19"/>
+      <c r="GS1" s="19"/>
+      <c r="GT1" s="19"/>
+      <c r="GU1" s="19"/>
+      <c r="GV1" s="19"/>
+      <c r="GW1" s="19"/>
+      <c r="GX1" s="19"/>
+      <c r="GY1" s="19"/>
+      <c r="GZ1" s="19"/>
+      <c r="HA1" s="19"/>
+      <c r="HB1" s="19"/>
+      <c r="HC1" s="19"/>
+      <c r="HD1" s="19"/>
+      <c r="HE1" s="19"/>
+      <c r="HF1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="15" t="s">
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="15"/>
-      <c r="IM1" s="15"/>
-      <c r="IN1" s="15"/>
-      <c r="IO1" s="15"/>
-      <c r="IP1" s="15"/>
-      <c r="IQ1" s="15"/>
-      <c r="IR1" s="15"/>
-      <c r="IS1" s="15"/>
-      <c r="IT1" s="15"/>
-      <c r="IU1" s="15"/>
-      <c r="IV1" s="15"/>
-      <c r="IW1" s="15"/>
-      <c r="IX1" s="15"/>
-      <c r="IY1" s="15"/>
-      <c r="IZ1" s="15"/>
-      <c r="JA1" s="15"/>
-      <c r="JB1" s="15"/>
-      <c r="JC1" s="15"/>
-      <c r="JD1" s="15"/>
-      <c r="JE1" s="15"/>
-      <c r="JF1" s="15"/>
-      <c r="JG1" s="15"/>
-      <c r="JH1" s="15"/>
-      <c r="JI1" s="15"/>
-      <c r="JJ1" s="15"/>
-      <c r="JK1" s="15"/>
-      <c r="JL1" s="15"/>
-      <c r="JM1" s="15"/>
-      <c r="JN1" s="15"/>
-      <c r="JO1" s="14" t="s">
+      <c r="IL1" s="19"/>
+      <c r="IM1" s="19"/>
+      <c r="IN1" s="19"/>
+      <c r="IO1" s="19"/>
+      <c r="IP1" s="19"/>
+      <c r="IQ1" s="19"/>
+      <c r="IR1" s="19"/>
+      <c r="IS1" s="19"/>
+      <c r="IT1" s="19"/>
+      <c r="IU1" s="19"/>
+      <c r="IV1" s="19"/>
+      <c r="IW1" s="19"/>
+      <c r="IX1" s="19"/>
+      <c r="IY1" s="19"/>
+      <c r="IZ1" s="19"/>
+      <c r="JA1" s="19"/>
+      <c r="JB1" s="19"/>
+      <c r="JC1" s="19"/>
+      <c r="JD1" s="19"/>
+      <c r="JE1" s="19"/>
+      <c r="JF1" s="19"/>
+      <c r="JG1" s="19"/>
+      <c r="JH1" s="19"/>
+      <c r="JI1" s="19"/>
+      <c r="JJ1" s="19"/>
+      <c r="JK1" s="19"/>
+      <c r="JL1" s="19"/>
+      <c r="JM1" s="19"/>
+      <c r="JN1" s="19"/>
+      <c r="JO1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14" t="s">
+      <c r="JP1" s="18"/>
+      <c r="JQ1" s="18"/>
+      <c r="JR1" s="18"/>
+      <c r="JS1" s="18"/>
+      <c r="JT1" s="18"/>
+      <c r="JU1" s="18"/>
+      <c r="JV1" s="18"/>
+      <c r="JW1" s="18"/>
+      <c r="JX1" s="18"/>
+      <c r="JY1" s="18"/>
+      <c r="JZ1" s="18"/>
+      <c r="KA1" s="18"/>
+      <c r="KB1" s="18"/>
+      <c r="KC1" s="18"/>
+      <c r="KD1" s="18"/>
+      <c r="KE1" s="18"/>
+      <c r="KF1" s="18"/>
+      <c r="KG1" s="18"/>
+      <c r="KH1" s="18"/>
+      <c r="KI1" s="18"/>
+      <c r="KJ1" s="18"/>
+      <c r="KK1" s="18"/>
+      <c r="KL1" s="18"/>
+      <c r="KM1" s="18"/>
+      <c r="KN1" s="18"/>
+      <c r="KO1" s="18"/>
+      <c r="KP1" s="18"/>
+      <c r="KQ1" s="18"/>
+      <c r="KR1" s="18"/>
+      <c r="KS1" s="18"/>
+      <c r="KT1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14" t="s">
+      <c r="KU1" s="18"/>
+      <c r="KV1" s="18"/>
+      <c r="KW1" s="18"/>
+      <c r="KX1" s="18"/>
+      <c r="KY1" s="18"/>
+      <c r="KZ1" s="18"/>
+      <c r="LA1" s="18"/>
+      <c r="LB1" s="18"/>
+      <c r="LC1" s="18"/>
+      <c r="LD1" s="18"/>
+      <c r="LE1" s="18"/>
+      <c r="LF1" s="18"/>
+      <c r="LG1" s="18"/>
+      <c r="LH1" s="18"/>
+      <c r="LI1" s="18"/>
+      <c r="LJ1" s="18"/>
+      <c r="LK1" s="18"/>
+      <c r="LL1" s="18"/>
+      <c r="LM1" s="18"/>
+      <c r="LN1" s="18"/>
+      <c r="LO1" s="18"/>
+      <c r="LP1" s="18"/>
+      <c r="LQ1" s="18"/>
+      <c r="LR1" s="18"/>
+      <c r="LS1" s="18"/>
+      <c r="LT1" s="18"/>
+      <c r="LU1" s="18"/>
+      <c r="LV1" s="18"/>
+      <c r="LW1" s="18"/>
+      <c r="LX1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
+      <c r="LY1" s="18"/>
+      <c r="LZ1" s="18"/>
+      <c r="MA1" s="18"/>
+      <c r="MB1" s="18"/>
+      <c r="MC1" s="18"/>
+      <c r="MD1" s="18"/>
+      <c r="ME1" s="18"/>
+      <c r="MF1" s="18"/>
+      <c r="MG1" s="18"/>
+      <c r="MH1" s="18"/>
+      <c r="MI1" s="18"/>
+      <c r="MJ1" s="18"/>
+      <c r="MK1" s="18"/>
+      <c r="ML1" s="18"/>
+      <c r="MM1" s="18"/>
+      <c r="MN1" s="18"/>
+      <c r="MO1" s="18"/>
+      <c r="MP1" s="18"/>
+      <c r="MQ1" s="18"/>
+      <c r="MR1" s="18"/>
+      <c r="MS1" s="18"/>
+      <c r="MT1" s="18"/>
+      <c r="MU1" s="18"/>
+      <c r="MV1" s="18"/>
+      <c r="MW1" s="18"/>
+      <c r="MX1" s="18"/>
+      <c r="MY1" s="18"/>
+      <c r="MZ1" s="18"/>
+      <c r="NA1" s="18"/>
+      <c r="NB1" s="18"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5254,13 +5257,13 @@
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
       <c r="CW9" s="7"/>
-      <c r="CX9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ9" s="9" t="s">
+      <c r="CX9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="DA9" s="8" t="s">
@@ -7935,28 +7938,7 @@
       <c r="BH16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="CN16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CR16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="CS16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="CT16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU16" s="18" t="s">
+      <c r="CU16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="CV16" s="16" t="s">
@@ -7972,6 +7954,27 @@
         <v>13</v>
       </c>
       <c r="CZ16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="FL16" t="s">
@@ -8344,7 +8347,7 @@
       <c r="BX23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="CX23" s="16" t="s">
+      <c r="CX23" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8355,6 +8358,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8362,11 +8370,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -25,7 +25,7 @@
     <author>Roman Shilin</author>
   </authors>
   <commentList>
-    <comment ref="BD16" authorId="0">
+    <comment ref="BD20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HI16" authorId="0">
+    <comment ref="HI20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="43">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Ноздрачев Глеб</t>
+  </si>
+  <si>
+    <t>Александр Жебко</t>
+  </si>
+  <si>
+    <t>Алексей Радзишевский</t>
+  </si>
+  <si>
+    <t>Владимир Коcтенко</t>
+  </si>
+  <si>
+    <t>Александр Власюк</t>
   </si>
 </sst>
 </file>
@@ -332,13 +344,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC24"/>
+  <dimension ref="A1:PC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW22" sqref="CW22"/>
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB18" sqref="DB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,395 +646,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="18" t="s">
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="19"/>
-      <c r="CN1" s="18" t="s">
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="19" t="s">
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="21"/>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="19"/>
-      <c r="DT1" s="19"/>
-      <c r="DU1" s="19"/>
-      <c r="DV1" s="19"/>
-      <c r="DW1" s="19"/>
-      <c r="DX1" s="19"/>
-      <c r="DY1" s="19"/>
-      <c r="DZ1" s="19"/>
-      <c r="EA1" s="19"/>
-      <c r="EB1" s="19"/>
-      <c r="EC1" s="19"/>
-      <c r="ED1" s="19"/>
-      <c r="EE1" s="19"/>
-      <c r="EF1" s="19"/>
-      <c r="EG1" s="19"/>
-      <c r="EH1" s="19"/>
-      <c r="EI1" s="19"/>
-      <c r="EJ1" s="19"/>
-      <c r="EK1" s="19"/>
-      <c r="EL1" s="19"/>
-      <c r="EM1" s="19"/>
-      <c r="EN1" s="19"/>
-      <c r="EO1" s="19"/>
-      <c r="EP1" s="19"/>
-      <c r="EQ1" s="19"/>
-      <c r="ER1" s="19"/>
-      <c r="ES1" s="19"/>
-      <c r="ET1" s="19"/>
-      <c r="EU1" s="19"/>
-      <c r="EV1" s="19"/>
-      <c r="EW1" s="19" t="s">
+      <c r="DS1" s="22"/>
+      <c r="DT1" s="22"/>
+      <c r="DU1" s="22"/>
+      <c r="DV1" s="22"/>
+      <c r="DW1" s="22"/>
+      <c r="DX1" s="22"/>
+      <c r="DY1" s="22"/>
+      <c r="DZ1" s="22"/>
+      <c r="EA1" s="22"/>
+      <c r="EB1" s="22"/>
+      <c r="EC1" s="22"/>
+      <c r="ED1" s="22"/>
+      <c r="EE1" s="22"/>
+      <c r="EF1" s="22"/>
+      <c r="EG1" s="22"/>
+      <c r="EH1" s="22"/>
+      <c r="EI1" s="22"/>
+      <c r="EJ1" s="22"/>
+      <c r="EK1" s="22"/>
+      <c r="EL1" s="22"/>
+      <c r="EM1" s="22"/>
+      <c r="EN1" s="22"/>
+      <c r="EO1" s="22"/>
+      <c r="EP1" s="22"/>
+      <c r="EQ1" s="22"/>
+      <c r="ER1" s="22"/>
+      <c r="ES1" s="22"/>
+      <c r="ET1" s="22"/>
+      <c r="EU1" s="22"/>
+      <c r="EV1" s="22"/>
+      <c r="EW1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="19"/>
-      <c r="EY1" s="19"/>
-      <c r="EZ1" s="19"/>
-      <c r="FA1" s="19"/>
-      <c r="FB1" s="19"/>
-      <c r="FC1" s="19"/>
-      <c r="FD1" s="19"/>
-      <c r="FE1" s="19"/>
-      <c r="FF1" s="19"/>
-      <c r="FG1" s="19"/>
-      <c r="FH1" s="19"/>
-      <c r="FI1" s="19"/>
-      <c r="FJ1" s="19"/>
-      <c r="FK1" s="19"/>
-      <c r="FL1" s="19"/>
-      <c r="FM1" s="19"/>
-      <c r="FN1" s="19"/>
-      <c r="FO1" s="19"/>
-      <c r="FP1" s="19"/>
-      <c r="FQ1" s="19"/>
-      <c r="FR1" s="19"/>
-      <c r="FS1" s="19"/>
-      <c r="FT1" s="19"/>
-      <c r="FU1" s="19"/>
-      <c r="FV1" s="19"/>
-      <c r="FW1" s="19"/>
-      <c r="FX1" s="19"/>
-      <c r="FY1" s="19"/>
-      <c r="FZ1" s="19"/>
-      <c r="GA1" s="19" t="s">
+      <c r="EX1" s="22"/>
+      <c r="EY1" s="22"/>
+      <c r="EZ1" s="22"/>
+      <c r="FA1" s="22"/>
+      <c r="FB1" s="22"/>
+      <c r="FC1" s="22"/>
+      <c r="FD1" s="22"/>
+      <c r="FE1" s="22"/>
+      <c r="FF1" s="22"/>
+      <c r="FG1" s="22"/>
+      <c r="FH1" s="22"/>
+      <c r="FI1" s="22"/>
+      <c r="FJ1" s="22"/>
+      <c r="FK1" s="22"/>
+      <c r="FL1" s="22"/>
+      <c r="FM1" s="22"/>
+      <c r="FN1" s="22"/>
+      <c r="FO1" s="22"/>
+      <c r="FP1" s="22"/>
+      <c r="FQ1" s="22"/>
+      <c r="FR1" s="22"/>
+      <c r="FS1" s="22"/>
+      <c r="FT1" s="22"/>
+      <c r="FU1" s="22"/>
+      <c r="FV1" s="22"/>
+      <c r="FW1" s="22"/>
+      <c r="FX1" s="22"/>
+      <c r="FY1" s="22"/>
+      <c r="FZ1" s="22"/>
+      <c r="GA1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="19"/>
-      <c r="GC1" s="19"/>
-      <c r="GD1" s="19"/>
-      <c r="GE1" s="19"/>
-      <c r="GF1" s="19"/>
-      <c r="GG1" s="19"/>
-      <c r="GH1" s="19"/>
-      <c r="GI1" s="19"/>
-      <c r="GJ1" s="19"/>
-      <c r="GK1" s="19"/>
-      <c r="GL1" s="19"/>
-      <c r="GM1" s="19"/>
-      <c r="GN1" s="19"/>
-      <c r="GO1" s="19"/>
-      <c r="GP1" s="19"/>
-      <c r="GQ1" s="19"/>
-      <c r="GR1" s="19"/>
-      <c r="GS1" s="19"/>
-      <c r="GT1" s="19"/>
-      <c r="GU1" s="19"/>
-      <c r="GV1" s="19"/>
-      <c r="GW1" s="19"/>
-      <c r="GX1" s="19"/>
-      <c r="GY1" s="19"/>
-      <c r="GZ1" s="19"/>
-      <c r="HA1" s="19"/>
-      <c r="HB1" s="19"/>
-      <c r="HC1" s="19"/>
-      <c r="HD1" s="19"/>
-      <c r="HE1" s="19"/>
-      <c r="HF1" s="18" t="s">
+      <c r="GB1" s="22"/>
+      <c r="GC1" s="22"/>
+      <c r="GD1" s="22"/>
+      <c r="GE1" s="22"/>
+      <c r="GF1" s="22"/>
+      <c r="GG1" s="22"/>
+      <c r="GH1" s="22"/>
+      <c r="GI1" s="22"/>
+      <c r="GJ1" s="22"/>
+      <c r="GK1" s="22"/>
+      <c r="GL1" s="22"/>
+      <c r="GM1" s="22"/>
+      <c r="GN1" s="22"/>
+      <c r="GO1" s="22"/>
+      <c r="GP1" s="22"/>
+      <c r="GQ1" s="22"/>
+      <c r="GR1" s="22"/>
+      <c r="GS1" s="22"/>
+      <c r="GT1" s="22"/>
+      <c r="GU1" s="22"/>
+      <c r="GV1" s="22"/>
+      <c r="GW1" s="22"/>
+      <c r="GX1" s="22"/>
+      <c r="GY1" s="22"/>
+      <c r="GZ1" s="22"/>
+      <c r="HA1" s="22"/>
+      <c r="HB1" s="22"/>
+      <c r="HC1" s="22"/>
+      <c r="HD1" s="22"/>
+      <c r="HE1" s="22"/>
+      <c r="HF1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
-      <c r="HK1" s="18"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="18"/>
-      <c r="HN1" s="18"/>
-      <c r="HO1" s="18"/>
-      <c r="HP1" s="18"/>
-      <c r="HQ1" s="18"/>
-      <c r="HR1" s="18"/>
-      <c r="HS1" s="18"/>
-      <c r="HT1" s="18"/>
-      <c r="HU1" s="18"/>
-      <c r="HV1" s="18"/>
-      <c r="HW1" s="18"/>
-      <c r="HX1" s="18"/>
-      <c r="HY1" s="18"/>
-      <c r="HZ1" s="18"/>
-      <c r="IA1" s="18"/>
-      <c r="IB1" s="18"/>
-      <c r="IC1" s="18"/>
-      <c r="ID1" s="18"/>
-      <c r="IE1" s="18"/>
-      <c r="IF1" s="18"/>
-      <c r="IG1" s="18"/>
-      <c r="IH1" s="18"/>
-      <c r="II1" s="18"/>
-      <c r="IJ1" s="18"/>
-      <c r="IK1" s="19" t="s">
+      <c r="HG1" s="21"/>
+      <c r="HH1" s="21"/>
+      <c r="HI1" s="21"/>
+      <c r="HJ1" s="21"/>
+      <c r="HK1" s="21"/>
+      <c r="HL1" s="21"/>
+      <c r="HM1" s="21"/>
+      <c r="HN1" s="21"/>
+      <c r="HO1" s="21"/>
+      <c r="HP1" s="21"/>
+      <c r="HQ1" s="21"/>
+      <c r="HR1" s="21"/>
+      <c r="HS1" s="21"/>
+      <c r="HT1" s="21"/>
+      <c r="HU1" s="21"/>
+      <c r="HV1" s="21"/>
+      <c r="HW1" s="21"/>
+      <c r="HX1" s="21"/>
+      <c r="HY1" s="21"/>
+      <c r="HZ1" s="21"/>
+      <c r="IA1" s="21"/>
+      <c r="IB1" s="21"/>
+      <c r="IC1" s="21"/>
+      <c r="ID1" s="21"/>
+      <c r="IE1" s="21"/>
+      <c r="IF1" s="21"/>
+      <c r="IG1" s="21"/>
+      <c r="IH1" s="21"/>
+      <c r="II1" s="21"/>
+      <c r="IJ1" s="21"/>
+      <c r="IK1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="19"/>
-      <c r="IM1" s="19"/>
-      <c r="IN1" s="19"/>
-      <c r="IO1" s="19"/>
-      <c r="IP1" s="19"/>
-      <c r="IQ1" s="19"/>
-      <c r="IR1" s="19"/>
-      <c r="IS1" s="19"/>
-      <c r="IT1" s="19"/>
-      <c r="IU1" s="19"/>
-      <c r="IV1" s="19"/>
-      <c r="IW1" s="19"/>
-      <c r="IX1" s="19"/>
-      <c r="IY1" s="19"/>
-      <c r="IZ1" s="19"/>
-      <c r="JA1" s="19"/>
-      <c r="JB1" s="19"/>
-      <c r="JC1" s="19"/>
-      <c r="JD1" s="19"/>
-      <c r="JE1" s="19"/>
-      <c r="JF1" s="19"/>
-      <c r="JG1" s="19"/>
-      <c r="JH1" s="19"/>
-      <c r="JI1" s="19"/>
-      <c r="JJ1" s="19"/>
-      <c r="JK1" s="19"/>
-      <c r="JL1" s="19"/>
-      <c r="JM1" s="19"/>
-      <c r="JN1" s="19"/>
-      <c r="JO1" s="18" t="s">
+      <c r="IL1" s="22"/>
+      <c r="IM1" s="22"/>
+      <c r="IN1" s="22"/>
+      <c r="IO1" s="22"/>
+      <c r="IP1" s="22"/>
+      <c r="IQ1" s="22"/>
+      <c r="IR1" s="22"/>
+      <c r="IS1" s="22"/>
+      <c r="IT1" s="22"/>
+      <c r="IU1" s="22"/>
+      <c r="IV1" s="22"/>
+      <c r="IW1" s="22"/>
+      <c r="IX1" s="22"/>
+      <c r="IY1" s="22"/>
+      <c r="IZ1" s="22"/>
+      <c r="JA1" s="22"/>
+      <c r="JB1" s="22"/>
+      <c r="JC1" s="22"/>
+      <c r="JD1" s="22"/>
+      <c r="JE1" s="22"/>
+      <c r="JF1" s="22"/>
+      <c r="JG1" s="22"/>
+      <c r="JH1" s="22"/>
+      <c r="JI1" s="22"/>
+      <c r="JJ1" s="22"/>
+      <c r="JK1" s="22"/>
+      <c r="JL1" s="22"/>
+      <c r="JM1" s="22"/>
+      <c r="JN1" s="22"/>
+      <c r="JO1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="18"/>
-      <c r="JQ1" s="18"/>
-      <c r="JR1" s="18"/>
-      <c r="JS1" s="18"/>
-      <c r="JT1" s="18"/>
-      <c r="JU1" s="18"/>
-      <c r="JV1" s="18"/>
-      <c r="JW1" s="18"/>
-      <c r="JX1" s="18"/>
-      <c r="JY1" s="18"/>
-      <c r="JZ1" s="18"/>
-      <c r="KA1" s="18"/>
-      <c r="KB1" s="18"/>
-      <c r="KC1" s="18"/>
-      <c r="KD1" s="18"/>
-      <c r="KE1" s="18"/>
-      <c r="KF1" s="18"/>
-      <c r="KG1" s="18"/>
-      <c r="KH1" s="18"/>
-      <c r="KI1" s="18"/>
-      <c r="KJ1" s="18"/>
-      <c r="KK1" s="18"/>
-      <c r="KL1" s="18"/>
-      <c r="KM1" s="18"/>
-      <c r="KN1" s="18"/>
-      <c r="KO1" s="18"/>
-      <c r="KP1" s="18"/>
-      <c r="KQ1" s="18"/>
-      <c r="KR1" s="18"/>
-      <c r="KS1" s="18"/>
-      <c r="KT1" s="18" t="s">
+      <c r="JP1" s="21"/>
+      <c r="JQ1" s="21"/>
+      <c r="JR1" s="21"/>
+      <c r="JS1" s="21"/>
+      <c r="JT1" s="21"/>
+      <c r="JU1" s="21"/>
+      <c r="JV1" s="21"/>
+      <c r="JW1" s="21"/>
+      <c r="JX1" s="21"/>
+      <c r="JY1" s="21"/>
+      <c r="JZ1" s="21"/>
+      <c r="KA1" s="21"/>
+      <c r="KB1" s="21"/>
+      <c r="KC1" s="21"/>
+      <c r="KD1" s="21"/>
+      <c r="KE1" s="21"/>
+      <c r="KF1" s="21"/>
+      <c r="KG1" s="21"/>
+      <c r="KH1" s="21"/>
+      <c r="KI1" s="21"/>
+      <c r="KJ1" s="21"/>
+      <c r="KK1" s="21"/>
+      <c r="KL1" s="21"/>
+      <c r="KM1" s="21"/>
+      <c r="KN1" s="21"/>
+      <c r="KO1" s="21"/>
+      <c r="KP1" s="21"/>
+      <c r="KQ1" s="21"/>
+      <c r="KR1" s="21"/>
+      <c r="KS1" s="21"/>
+      <c r="KT1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="18"/>
-      <c r="KV1" s="18"/>
-      <c r="KW1" s="18"/>
-      <c r="KX1" s="18"/>
-      <c r="KY1" s="18"/>
-      <c r="KZ1" s="18"/>
-      <c r="LA1" s="18"/>
-      <c r="LB1" s="18"/>
-      <c r="LC1" s="18"/>
-      <c r="LD1" s="18"/>
-      <c r="LE1" s="18"/>
-      <c r="LF1" s="18"/>
-      <c r="LG1" s="18"/>
-      <c r="LH1" s="18"/>
-      <c r="LI1" s="18"/>
-      <c r="LJ1" s="18"/>
-      <c r="LK1" s="18"/>
-      <c r="LL1" s="18"/>
-      <c r="LM1" s="18"/>
-      <c r="LN1" s="18"/>
-      <c r="LO1" s="18"/>
-      <c r="LP1" s="18"/>
-      <c r="LQ1" s="18"/>
-      <c r="LR1" s="18"/>
-      <c r="LS1" s="18"/>
-      <c r="LT1" s="18"/>
-      <c r="LU1" s="18"/>
-      <c r="LV1" s="18"/>
-      <c r="LW1" s="18"/>
-      <c r="LX1" s="18" t="s">
+      <c r="KU1" s="21"/>
+      <c r="KV1" s="21"/>
+      <c r="KW1" s="21"/>
+      <c r="KX1" s="21"/>
+      <c r="KY1" s="21"/>
+      <c r="KZ1" s="21"/>
+      <c r="LA1" s="21"/>
+      <c r="LB1" s="21"/>
+      <c r="LC1" s="21"/>
+      <c r="LD1" s="21"/>
+      <c r="LE1" s="21"/>
+      <c r="LF1" s="21"/>
+      <c r="LG1" s="21"/>
+      <c r="LH1" s="21"/>
+      <c r="LI1" s="21"/>
+      <c r="LJ1" s="21"/>
+      <c r="LK1" s="21"/>
+      <c r="LL1" s="21"/>
+      <c r="LM1" s="21"/>
+      <c r="LN1" s="21"/>
+      <c r="LO1" s="21"/>
+      <c r="LP1" s="21"/>
+      <c r="LQ1" s="21"/>
+      <c r="LR1" s="21"/>
+      <c r="LS1" s="21"/>
+      <c r="LT1" s="21"/>
+      <c r="LU1" s="21"/>
+      <c r="LV1" s="21"/>
+      <c r="LW1" s="21"/>
+      <c r="LX1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="18"/>
-      <c r="LZ1" s="18"/>
-      <c r="MA1" s="18"/>
-      <c r="MB1" s="18"/>
-      <c r="MC1" s="18"/>
-      <c r="MD1" s="18"/>
-      <c r="ME1" s="18"/>
-      <c r="MF1" s="18"/>
-      <c r="MG1" s="18"/>
-      <c r="MH1" s="18"/>
-      <c r="MI1" s="18"/>
-      <c r="MJ1" s="18"/>
-      <c r="MK1" s="18"/>
-      <c r="ML1" s="18"/>
-      <c r="MM1" s="18"/>
-      <c r="MN1" s="18"/>
-      <c r="MO1" s="18"/>
-      <c r="MP1" s="18"/>
-      <c r="MQ1" s="18"/>
-      <c r="MR1" s="18"/>
-      <c r="MS1" s="18"/>
-      <c r="MT1" s="18"/>
-      <c r="MU1" s="18"/>
-      <c r="MV1" s="18"/>
-      <c r="MW1" s="18"/>
-      <c r="MX1" s="18"/>
-      <c r="MY1" s="18"/>
-      <c r="MZ1" s="18"/>
-      <c r="NA1" s="18"/>
-      <c r="NB1" s="18"/>
+      <c r="LY1" s="21"/>
+      <c r="LZ1" s="21"/>
+      <c r="MA1" s="21"/>
+      <c r="MB1" s="21"/>
+      <c r="MC1" s="21"/>
+      <c r="MD1" s="21"/>
+      <c r="ME1" s="21"/>
+      <c r="MF1" s="21"/>
+      <c r="MG1" s="21"/>
+      <c r="MH1" s="21"/>
+      <c r="MI1" s="21"/>
+      <c r="MJ1" s="21"/>
+      <c r="MK1" s="21"/>
+      <c r="ML1" s="21"/>
+      <c r="MM1" s="21"/>
+      <c r="MN1" s="21"/>
+      <c r="MO1" s="21"/>
+      <c r="MP1" s="21"/>
+      <c r="MQ1" s="21"/>
+      <c r="MR1" s="21"/>
+      <c r="MS1" s="21"/>
+      <c r="MT1" s="21"/>
+      <c r="MU1" s="21"/>
+      <c r="MV1" s="21"/>
+      <c r="MW1" s="21"/>
+      <c r="MX1" s="21"/>
+      <c r="MY1" s="21"/>
+      <c r="MZ1" s="21"/>
+      <c r="NA1" s="21"/>
+      <c r="NB1" s="21"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3736,19 +3748,39 @@
       <c r="CU5" s="7"/>
       <c r="CV5" s="7"/>
       <c r="CW5" s="7"/>
-      <c r="CX5" s="7"/>
-      <c r="CY5" s="7"/>
-      <c r="CZ5" s="7"/>
-      <c r="DA5" s="7"/>
-      <c r="DB5" s="7"/>
-      <c r="DC5" s="7"/>
-      <c r="DD5" s="7"/>
-      <c r="DE5" s="7"/>
-      <c r="DF5" s="7"/>
-      <c r="DG5" s="7"/>
-      <c r="DH5" s="7"/>
-      <c r="DI5" s="7"/>
-      <c r="DJ5" s="7"/>
+      <c r="CX5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="DK5" s="7"/>
       <c r="DL5" s="7"/>
       <c r="DM5" s="7"/>
@@ -5257,13 +5289,13 @@
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
       <c r="CW9" s="7"/>
-      <c r="CX9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ9" s="22" t="s">
+      <c r="CX9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="DA9" s="8" t="s">
@@ -7552,7 +7584,9 @@
       <c r="NB14" s="1"/>
     </row>
     <row r="15" spans="1:419" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -7919,450 +7953,1919 @@
       <c r="NA15" s="7"/>
       <c r="NB15" s="7"/>
     </row>
-    <row r="16" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:419" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
+      <c r="DE16" s="1"/>
+      <c r="DF16" s="1"/>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1"/>
+      <c r="DI16" s="1"/>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1"/>
+      <c r="DL16" s="1"/>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1"/>
+      <c r="DO16" s="1"/>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="1"/>
+      <c r="DR16" s="1"/>
+      <c r="DS16" s="1"/>
+      <c r="DT16" s="1"/>
+      <c r="DU16" s="1"/>
+      <c r="DV16" s="1"/>
+      <c r="DW16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
+      <c r="ES16" s="1"/>
+      <c r="ET16" s="1"/>
+      <c r="EU16" s="1"/>
+      <c r="EV16" s="1"/>
+      <c r="EW16" s="1"/>
+      <c r="EX16" s="1"/>
+      <c r="EY16" s="1"/>
+      <c r="EZ16" s="1"/>
+      <c r="FA16" s="1"/>
+      <c r="FB16" s="1"/>
+      <c r="FC16" s="1"/>
+      <c r="FD16" s="1"/>
+      <c r="FE16" s="1"/>
+      <c r="FF16" s="1"/>
+      <c r="FG16" s="1"/>
+      <c r="FH16" s="1"/>
+      <c r="FI16" s="1"/>
+      <c r="FJ16" s="1"/>
+      <c r="FK16" s="1"/>
+      <c r="FL16" s="1"/>
+      <c r="FM16" s="1"/>
+      <c r="FN16" s="1"/>
+      <c r="FO16" s="1"/>
+      <c r="FP16" s="1"/>
+      <c r="FQ16" s="1"/>
+      <c r="FR16" s="1"/>
+      <c r="FS16" s="1"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" s="1"/>
+      <c r="FW16" s="1"/>
+      <c r="FX16" s="1"/>
+      <c r="FY16" s="1"/>
+      <c r="FZ16" s="1"/>
+      <c r="GA16" s="1"/>
+      <c r="GB16" s="1"/>
+      <c r="GC16" s="1"/>
+      <c r="GD16" s="1"/>
+      <c r="GE16" s="1"/>
+      <c r="GF16" s="1"/>
+      <c r="GG16" s="1"/>
+      <c r="GH16" s="1"/>
+      <c r="GI16" s="1"/>
+      <c r="GJ16" s="1"/>
+      <c r="GK16" s="1"/>
+      <c r="GL16" s="1"/>
+      <c r="GM16" s="1"/>
+      <c r="GN16" s="1"/>
+      <c r="GO16" s="1"/>
+      <c r="GP16" s="1"/>
+      <c r="GQ16" s="1"/>
+      <c r="GR16" s="1"/>
+      <c r="GS16" s="1"/>
+      <c r="GT16" s="1"/>
+      <c r="GU16" s="1"/>
+      <c r="GV16" s="1"/>
+      <c r="GW16" s="1"/>
+      <c r="GX16" s="1"/>
+      <c r="GY16" s="1"/>
+      <c r="GZ16" s="1"/>
+      <c r="HA16" s="1"/>
+      <c r="HB16" s="1"/>
+      <c r="HC16" s="1"/>
+      <c r="HD16" s="1"/>
+      <c r="HE16" s="1"/>
+      <c r="HF16" s="1"/>
+      <c r="HG16" s="1"/>
+      <c r="HH16" s="1"/>
+      <c r="HI16" s="1"/>
+      <c r="HJ16" s="1"/>
+      <c r="HK16" s="1"/>
+      <c r="HL16" s="1"/>
+      <c r="HM16" s="1"/>
+      <c r="HN16" s="1"/>
+      <c r="HO16" s="1"/>
+      <c r="HP16" s="1"/>
+      <c r="HQ16" s="1"/>
+      <c r="HR16" s="1"/>
+      <c r="HS16" s="1"/>
+      <c r="HT16" s="1"/>
+      <c r="HU16" s="1"/>
+      <c r="HV16" s="1"/>
+      <c r="HW16" s="1"/>
+      <c r="HX16" s="1"/>
+      <c r="HY16" s="1"/>
+      <c r="HZ16" s="1"/>
+      <c r="IA16" s="1"/>
+      <c r="IB16" s="1"/>
+      <c r="IC16" s="1"/>
+      <c r="ID16" s="1"/>
+      <c r="IE16" s="1"/>
+      <c r="IF16" s="1"/>
+      <c r="IG16" s="1"/>
+      <c r="IH16" s="1"/>
+      <c r="II16" s="1"/>
+      <c r="IJ16" s="1"/>
+      <c r="IK16" s="1"/>
+      <c r="IL16" s="1"/>
+      <c r="IM16" s="1"/>
+      <c r="IN16" s="1"/>
+      <c r="IO16" s="1"/>
+      <c r="IP16" s="1"/>
+      <c r="IQ16" s="1"/>
+      <c r="IR16" s="1"/>
+      <c r="IS16" s="1"/>
+      <c r="IT16" s="1"/>
+      <c r="IU16" s="1"/>
+      <c r="IV16" s="1"/>
+      <c r="IW16" s="1"/>
+      <c r="IX16" s="1"/>
+      <c r="IY16" s="1"/>
+      <c r="IZ16" s="1"/>
+      <c r="JA16" s="1"/>
+      <c r="JB16" s="1"/>
+      <c r="JC16" s="1"/>
+      <c r="JD16" s="1"/>
+      <c r="JE16" s="1"/>
+      <c r="JF16" s="1"/>
+      <c r="JG16" s="1"/>
+      <c r="JH16" s="1"/>
+      <c r="JI16" s="1"/>
+      <c r="JJ16" s="1"/>
+      <c r="JK16" s="1"/>
+      <c r="JL16" s="1"/>
+      <c r="JM16" s="1"/>
+      <c r="JN16" s="1"/>
+      <c r="JO16" s="1"/>
+      <c r="JP16" s="1"/>
+      <c r="JQ16" s="1"/>
+      <c r="JR16" s="1"/>
+      <c r="JS16" s="1"/>
+      <c r="JT16" s="1"/>
+      <c r="JU16" s="1"/>
+      <c r="JV16" s="1"/>
+      <c r="JW16" s="1"/>
+      <c r="JX16" s="1"/>
+      <c r="JY16" s="1"/>
+      <c r="JZ16" s="1"/>
+      <c r="KA16" s="1"/>
+      <c r="KB16" s="1"/>
+      <c r="KC16" s="1"/>
+      <c r="KD16" s="1"/>
+      <c r="KE16" s="1"/>
+      <c r="KF16" s="1"/>
+      <c r="KG16" s="1"/>
+      <c r="KH16" s="1"/>
+      <c r="KI16" s="1"/>
+      <c r="KJ16" s="1"/>
+      <c r="KK16" s="1"/>
+      <c r="KL16" s="1"/>
+      <c r="KM16" s="1"/>
+      <c r="KN16" s="1"/>
+      <c r="KO16" s="1"/>
+      <c r="KP16" s="1"/>
+      <c r="KQ16" s="1"/>
+      <c r="KR16" s="1"/>
+      <c r="KS16" s="1"/>
+      <c r="KT16" s="1"/>
+      <c r="KU16" s="1"/>
+      <c r="KV16" s="1"/>
+      <c r="KW16" s="1"/>
+      <c r="KX16" s="1"/>
+      <c r="KY16" s="1"/>
+      <c r="KZ16" s="1"/>
+      <c r="LA16" s="1"/>
+      <c r="LB16" s="1"/>
+      <c r="LC16" s="1"/>
+      <c r="LD16" s="1"/>
+      <c r="LE16" s="1"/>
+      <c r="LF16" s="1"/>
+      <c r="LG16" s="1"/>
+      <c r="LH16" s="1"/>
+      <c r="LI16" s="1"/>
+      <c r="LJ16" s="1"/>
+      <c r="LK16" s="1"/>
+      <c r="LL16" s="1"/>
+      <c r="LM16" s="1"/>
+      <c r="LN16" s="1"/>
+      <c r="LO16" s="1"/>
+      <c r="LP16" s="1"/>
+      <c r="LQ16" s="1"/>
+      <c r="LR16" s="1"/>
+      <c r="LS16" s="1"/>
+      <c r="LT16" s="1"/>
+      <c r="LU16" s="1"/>
+      <c r="LV16" s="1"/>
+      <c r="LW16" s="1"/>
+      <c r="LX16" s="1"/>
+      <c r="LY16" s="1"/>
+      <c r="LZ16" s="1"/>
+      <c r="MA16" s="1"/>
+      <c r="MB16" s="1"/>
+      <c r="MC16" s="1"/>
+      <c r="MD16" s="1"/>
+      <c r="ME16" s="1"/>
+      <c r="MF16" s="1"/>
+      <c r="MG16" s="1"/>
+      <c r="MH16" s="1"/>
+      <c r="MI16" s="1"/>
+      <c r="MJ16" s="1"/>
+      <c r="MK16" s="1"/>
+      <c r="ML16" s="1"/>
+      <c r="MM16" s="1"/>
+      <c r="MN16" s="1"/>
+      <c r="MO16" s="1"/>
+      <c r="MP16" s="1"/>
+      <c r="MQ16" s="1"/>
+      <c r="MR16" s="1"/>
+      <c r="MS16" s="1"/>
+      <c r="MT16" s="1"/>
+      <c r="MU16" s="1"/>
+      <c r="MV16" s="1"/>
+      <c r="MW16" s="1"/>
+      <c r="MX16" s="1"/>
+      <c r="MY16" s="1"/>
+      <c r="MZ16" s="1"/>
+      <c r="NA16" s="1"/>
+      <c r="NB16" s="1"/>
+    </row>
+    <row r="17" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7"/>
+      <c r="CJ17" s="7"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="7"/>
+      <c r="CM17" s="7"/>
+      <c r="CN17" s="7"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="7"/>
+      <c r="CQ17" s="7"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
+      <c r="DD17" s="7"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="7"/>
+      <c r="DG17" s="7"/>
+      <c r="DH17" s="7"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="7"/>
+      <c r="DK17" s="7"/>
+      <c r="DL17" s="7"/>
+      <c r="DM17" s="7"/>
+      <c r="DN17" s="7"/>
+      <c r="DO17" s="7"/>
+      <c r="DP17" s="7"/>
+      <c r="DQ17" s="7"/>
+      <c r="DR17" s="7"/>
+      <c r="DS17" s="7"/>
+      <c r="DT17" s="7"/>
+      <c r="DU17" s="7"/>
+      <c r="DV17" s="7"/>
+      <c r="DW17" s="7"/>
+      <c r="DX17" s="7"/>
+      <c r="DY17" s="7"/>
+      <c r="DZ17" s="7"/>
+      <c r="EA17" s="7"/>
+      <c r="EB17" s="7"/>
+      <c r="EC17" s="7"/>
+      <c r="ED17" s="7"/>
+      <c r="EE17" s="7"/>
+      <c r="EF17" s="7"/>
+      <c r="EG17" s="7"/>
+      <c r="EH17" s="7"/>
+      <c r="EI17" s="7"/>
+      <c r="EJ17" s="7"/>
+      <c r="EK17" s="7"/>
+      <c r="EL17" s="7"/>
+      <c r="EM17" s="7"/>
+      <c r="EN17" s="7"/>
+      <c r="EO17" s="7"/>
+      <c r="EP17" s="7"/>
+      <c r="EQ17" s="7"/>
+      <c r="ER17" s="7"/>
+      <c r="ES17" s="7"/>
+      <c r="ET17" s="7"/>
+      <c r="EU17" s="7"/>
+      <c r="EV17" s="7"/>
+      <c r="EW17" s="7"/>
+      <c r="EX17" s="7"/>
+      <c r="EY17" s="7"/>
+      <c r="EZ17" s="7"/>
+      <c r="FA17" s="7"/>
+      <c r="FB17" s="7"/>
+      <c r="FC17" s="7"/>
+      <c r="FD17" s="7"/>
+      <c r="FE17" s="7"/>
+      <c r="FF17" s="7"/>
+      <c r="FG17" s="7"/>
+      <c r="FH17" s="7"/>
+      <c r="FI17" s="7"/>
+      <c r="FJ17" s="7"/>
+      <c r="FK17" s="7"/>
+      <c r="FL17" s="7"/>
+      <c r="FM17" s="7"/>
+      <c r="FN17" s="7"/>
+      <c r="FO17" s="7"/>
+      <c r="FP17" s="7"/>
+      <c r="FQ17" s="7"/>
+      <c r="FR17" s="7"/>
+      <c r="FS17" s="7"/>
+      <c r="FT17" s="7"/>
+      <c r="FU17" s="7"/>
+      <c r="FV17" s="7"/>
+      <c r="FW17" s="7"/>
+      <c r="FX17" s="7"/>
+      <c r="FY17" s="7"/>
+      <c r="FZ17" s="7"/>
+      <c r="GA17" s="7"/>
+      <c r="GB17" s="7"/>
+      <c r="GC17" s="7"/>
+      <c r="GD17" s="7"/>
+      <c r="GE17" s="7"/>
+      <c r="GF17" s="7"/>
+      <c r="GG17" s="7"/>
+      <c r="GH17" s="7"/>
+      <c r="GI17" s="7"/>
+      <c r="GJ17" s="7"/>
+      <c r="GK17" s="7"/>
+      <c r="GL17" s="7"/>
+      <c r="GM17" s="7"/>
+      <c r="GN17" s="7"/>
+      <c r="GO17" s="7"/>
+      <c r="GP17" s="7"/>
+      <c r="GQ17" s="7"/>
+      <c r="GR17" s="7"/>
+      <c r="GS17" s="7"/>
+      <c r="GT17" s="7"/>
+      <c r="GU17" s="7"/>
+      <c r="GV17" s="7"/>
+      <c r="GW17" s="7"/>
+      <c r="GX17" s="7"/>
+      <c r="GY17" s="7"/>
+      <c r="GZ17" s="7"/>
+      <c r="HA17" s="7"/>
+      <c r="HB17" s="7"/>
+      <c r="HC17" s="7"/>
+      <c r="HD17" s="7"/>
+      <c r="HE17" s="7"/>
+      <c r="HF17" s="7"/>
+      <c r="HG17" s="7"/>
+      <c r="HH17" s="7"/>
+      <c r="HI17" s="7"/>
+      <c r="HJ17" s="7"/>
+      <c r="HK17" s="7"/>
+      <c r="HL17" s="7"/>
+      <c r="HM17" s="7"/>
+      <c r="HN17" s="7"/>
+      <c r="HO17" s="7"/>
+      <c r="HP17" s="7"/>
+      <c r="HQ17" s="7"/>
+      <c r="HR17" s="7"/>
+      <c r="HS17" s="7"/>
+      <c r="HT17" s="7"/>
+      <c r="HU17" s="7"/>
+      <c r="HV17" s="7"/>
+      <c r="HW17" s="7"/>
+      <c r="HX17" s="7"/>
+      <c r="HY17" s="7"/>
+      <c r="HZ17" s="7"/>
+      <c r="IA17" s="7"/>
+      <c r="IB17" s="7"/>
+      <c r="IC17" s="7"/>
+      <c r="ID17" s="7"/>
+      <c r="IE17" s="7"/>
+      <c r="IF17" s="7"/>
+      <c r="IG17" s="7"/>
+      <c r="IH17" s="7"/>
+      <c r="II17" s="7"/>
+      <c r="IJ17" s="7"/>
+      <c r="IK17" s="7"/>
+      <c r="IL17" s="7"/>
+      <c r="IM17" s="7"/>
+      <c r="IN17" s="7"/>
+      <c r="IO17" s="7"/>
+      <c r="IP17" s="7"/>
+      <c r="IQ17" s="7"/>
+      <c r="IR17" s="7"/>
+      <c r="IS17" s="7"/>
+      <c r="IT17" s="7"/>
+      <c r="IU17" s="7"/>
+      <c r="IV17" s="7"/>
+      <c r="IW17" s="7"/>
+      <c r="IX17" s="7"/>
+      <c r="IY17" s="7"/>
+      <c r="IZ17" s="7"/>
+      <c r="JA17" s="7"/>
+      <c r="JB17" s="7"/>
+      <c r="JC17" s="7"/>
+      <c r="JD17" s="7"/>
+      <c r="JE17" s="7"/>
+      <c r="JF17" s="7"/>
+      <c r="JG17" s="7"/>
+      <c r="JH17" s="7"/>
+      <c r="JI17" s="7"/>
+      <c r="JJ17" s="7"/>
+      <c r="JK17" s="7"/>
+      <c r="JL17" s="7"/>
+      <c r="JM17" s="7"/>
+      <c r="JN17" s="7"/>
+      <c r="JO17" s="7"/>
+      <c r="JP17" s="7"/>
+      <c r="JQ17" s="7"/>
+      <c r="JR17" s="7"/>
+      <c r="JS17" s="7"/>
+      <c r="JT17" s="7"/>
+      <c r="JU17" s="7"/>
+      <c r="JV17" s="7"/>
+      <c r="JW17" s="7"/>
+      <c r="JX17" s="7"/>
+      <c r="JY17" s="7"/>
+      <c r="JZ17" s="7"/>
+      <c r="KA17" s="7"/>
+      <c r="KB17" s="7"/>
+      <c r="KC17" s="7"/>
+      <c r="KD17" s="7"/>
+      <c r="KE17" s="7"/>
+      <c r="KF17" s="7"/>
+      <c r="KG17" s="7"/>
+      <c r="KH17" s="7"/>
+      <c r="KI17" s="7"/>
+      <c r="KJ17" s="7"/>
+      <c r="KK17" s="7"/>
+      <c r="KL17" s="7"/>
+      <c r="KM17" s="7"/>
+      <c r="KN17" s="7"/>
+      <c r="KO17" s="7"/>
+      <c r="KP17" s="7"/>
+      <c r="KQ17" s="7"/>
+      <c r="KR17" s="7"/>
+      <c r="KS17" s="7"/>
+      <c r="KT17" s="7"/>
+      <c r="KU17" s="7"/>
+      <c r="KV17" s="7"/>
+      <c r="KW17" s="7"/>
+      <c r="KX17" s="7"/>
+      <c r="KY17" s="7"/>
+      <c r="KZ17" s="7"/>
+      <c r="LA17" s="7"/>
+      <c r="LB17" s="7"/>
+      <c r="LC17" s="7"/>
+      <c r="LD17" s="7"/>
+      <c r="LE17" s="7"/>
+      <c r="LF17" s="7"/>
+      <c r="LG17" s="7"/>
+      <c r="LH17" s="7"/>
+      <c r="LI17" s="7"/>
+      <c r="LJ17" s="7"/>
+      <c r="LK17" s="7"/>
+      <c r="LL17" s="7"/>
+      <c r="LM17" s="7"/>
+      <c r="LN17" s="7"/>
+      <c r="LO17" s="7"/>
+      <c r="LP17" s="7"/>
+      <c r="LQ17" s="7"/>
+      <c r="LR17" s="7"/>
+      <c r="LS17" s="7"/>
+      <c r="LT17" s="7"/>
+      <c r="LU17" s="7"/>
+      <c r="LV17" s="7"/>
+      <c r="LW17" s="7"/>
+      <c r="LX17" s="7"/>
+      <c r="LY17" s="7"/>
+      <c r="LZ17" s="7"/>
+      <c r="MA17" s="7"/>
+      <c r="MB17" s="7"/>
+      <c r="MC17" s="7"/>
+      <c r="MD17" s="7"/>
+      <c r="ME17" s="7"/>
+      <c r="MF17" s="7"/>
+      <c r="MG17" s="7"/>
+      <c r="MH17" s="7"/>
+      <c r="MI17" s="7"/>
+      <c r="MJ17" s="7"/>
+      <c r="MK17" s="7"/>
+      <c r="ML17" s="7"/>
+      <c r="MM17" s="7"/>
+      <c r="MN17" s="7"/>
+      <c r="MO17" s="7"/>
+      <c r="MP17" s="7"/>
+      <c r="MQ17" s="7"/>
+      <c r="MR17" s="7"/>
+      <c r="MS17" s="7"/>
+      <c r="MT17" s="7"/>
+      <c r="MU17" s="7"/>
+      <c r="MV17" s="7"/>
+      <c r="MW17" s="7"/>
+      <c r="MX17" s="7"/>
+      <c r="MY17" s="7"/>
+      <c r="MZ17" s="7"/>
+      <c r="NA17" s="7"/>
+      <c r="NB17" s="7"/>
+    </row>
+    <row r="18" spans="1:366" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DB18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1"/>
+      <c r="DI18" s="1"/>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1"/>
+      <c r="DL18" s="1"/>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1"/>
+      <c r="DO18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+      <c r="DV18" s="1"/>
+      <c r="DW18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
+      <c r="ES18" s="1"/>
+      <c r="ET18" s="1"/>
+      <c r="EU18" s="1"/>
+      <c r="EV18" s="1"/>
+      <c r="EW18" s="1"/>
+      <c r="EX18" s="1"/>
+      <c r="EY18" s="1"/>
+      <c r="EZ18" s="1"/>
+      <c r="FA18" s="1"/>
+      <c r="FB18" s="1"/>
+      <c r="FC18" s="1"/>
+      <c r="FD18" s="1"/>
+      <c r="FE18" s="1"/>
+      <c r="FF18" s="1"/>
+      <c r="FG18" s="1"/>
+      <c r="FH18" s="1"/>
+      <c r="FI18" s="1"/>
+      <c r="FJ18" s="1"/>
+      <c r="FK18" s="1"/>
+      <c r="FL18" s="1"/>
+      <c r="FM18" s="1"/>
+      <c r="FN18" s="1"/>
+      <c r="FO18" s="1"/>
+      <c r="FP18" s="1"/>
+      <c r="FQ18" s="1"/>
+      <c r="FR18" s="1"/>
+      <c r="FS18" s="1"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" s="1"/>
+      <c r="FW18" s="1"/>
+      <c r="FX18" s="1"/>
+      <c r="FY18" s="1"/>
+      <c r="FZ18" s="1"/>
+      <c r="GA18" s="1"/>
+      <c r="GB18" s="1"/>
+      <c r="GC18" s="1"/>
+      <c r="GD18" s="1"/>
+      <c r="GE18" s="1"/>
+      <c r="GF18" s="1"/>
+      <c r="GG18" s="1"/>
+      <c r="GH18" s="1"/>
+      <c r="GI18" s="1"/>
+      <c r="GJ18" s="1"/>
+      <c r="GK18" s="1"/>
+      <c r="GL18" s="1"/>
+      <c r="GM18" s="1"/>
+      <c r="GN18" s="1"/>
+      <c r="GO18" s="1"/>
+      <c r="GP18" s="1"/>
+      <c r="GQ18" s="1"/>
+      <c r="GR18" s="1"/>
+      <c r="GS18" s="1"/>
+      <c r="GT18" s="1"/>
+      <c r="GU18" s="1"/>
+      <c r="GV18" s="1"/>
+      <c r="GW18" s="1"/>
+      <c r="GX18" s="1"/>
+      <c r="GY18" s="1"/>
+      <c r="GZ18" s="1"/>
+      <c r="HA18" s="1"/>
+      <c r="HB18" s="1"/>
+      <c r="HC18" s="1"/>
+      <c r="HD18" s="1"/>
+      <c r="HE18" s="1"/>
+      <c r="HF18" s="1"/>
+      <c r="HG18" s="1"/>
+      <c r="HH18" s="1"/>
+      <c r="HI18" s="1"/>
+      <c r="HJ18" s="1"/>
+      <c r="HK18" s="1"/>
+      <c r="HL18" s="1"/>
+      <c r="HM18" s="1"/>
+      <c r="HN18" s="1"/>
+      <c r="HO18" s="1"/>
+      <c r="HP18" s="1"/>
+      <c r="HQ18" s="1"/>
+      <c r="HR18" s="1"/>
+      <c r="HS18" s="1"/>
+      <c r="HT18" s="1"/>
+      <c r="HU18" s="1"/>
+      <c r="HV18" s="1"/>
+      <c r="HW18" s="1"/>
+      <c r="HX18" s="1"/>
+      <c r="HY18" s="1"/>
+      <c r="HZ18" s="1"/>
+      <c r="IA18" s="1"/>
+      <c r="IB18" s="1"/>
+      <c r="IC18" s="1"/>
+      <c r="ID18" s="1"/>
+      <c r="IE18" s="1"/>
+      <c r="IF18" s="1"/>
+      <c r="IG18" s="1"/>
+      <c r="IH18" s="1"/>
+      <c r="II18" s="1"/>
+      <c r="IJ18" s="1"/>
+      <c r="IK18" s="1"/>
+      <c r="IL18" s="1"/>
+      <c r="IM18" s="1"/>
+      <c r="IN18" s="1"/>
+      <c r="IO18" s="1"/>
+      <c r="IP18" s="1"/>
+      <c r="IQ18" s="1"/>
+      <c r="IR18" s="1"/>
+      <c r="IS18" s="1"/>
+      <c r="IT18" s="1"/>
+      <c r="IU18" s="1"/>
+      <c r="IV18" s="1"/>
+      <c r="IW18" s="1"/>
+      <c r="IX18" s="1"/>
+      <c r="IY18" s="1"/>
+      <c r="IZ18" s="1"/>
+      <c r="JA18" s="1"/>
+      <c r="JB18" s="1"/>
+      <c r="JC18" s="1"/>
+      <c r="JD18" s="1"/>
+      <c r="JE18" s="1"/>
+      <c r="JF18" s="1"/>
+      <c r="JG18" s="1"/>
+      <c r="JH18" s="1"/>
+      <c r="JI18" s="1"/>
+      <c r="JJ18" s="1"/>
+      <c r="JK18" s="1"/>
+      <c r="JL18" s="1"/>
+      <c r="JM18" s="1"/>
+      <c r="JN18" s="1"/>
+      <c r="JO18" s="1"/>
+      <c r="JP18" s="1"/>
+      <c r="JQ18" s="1"/>
+      <c r="JR18" s="1"/>
+      <c r="JS18" s="1"/>
+      <c r="JT18" s="1"/>
+      <c r="JU18" s="1"/>
+      <c r="JV18" s="1"/>
+      <c r="JW18" s="1"/>
+      <c r="JX18" s="1"/>
+      <c r="JY18" s="1"/>
+      <c r="JZ18" s="1"/>
+      <c r="KA18" s="1"/>
+      <c r="KB18" s="1"/>
+      <c r="KC18" s="1"/>
+      <c r="KD18" s="1"/>
+      <c r="KE18" s="1"/>
+      <c r="KF18" s="1"/>
+      <c r="KG18" s="1"/>
+      <c r="KH18" s="1"/>
+      <c r="KI18" s="1"/>
+      <c r="KJ18" s="1"/>
+      <c r="KK18" s="1"/>
+      <c r="KL18" s="1"/>
+      <c r="KM18" s="1"/>
+      <c r="KN18" s="1"/>
+      <c r="KO18" s="1"/>
+      <c r="KP18" s="1"/>
+      <c r="KQ18" s="1"/>
+      <c r="KR18" s="1"/>
+      <c r="KS18" s="1"/>
+      <c r="KT18" s="1"/>
+      <c r="KU18" s="1"/>
+      <c r="KV18" s="1"/>
+      <c r="KW18" s="1"/>
+      <c r="KX18" s="1"/>
+      <c r="KY18" s="1"/>
+      <c r="KZ18" s="1"/>
+      <c r="LA18" s="1"/>
+      <c r="LB18" s="1"/>
+      <c r="LC18" s="1"/>
+      <c r="LD18" s="1"/>
+      <c r="LE18" s="1"/>
+      <c r="LF18" s="1"/>
+      <c r="LG18" s="1"/>
+      <c r="LH18" s="1"/>
+      <c r="LI18" s="1"/>
+      <c r="LJ18" s="1"/>
+      <c r="LK18" s="1"/>
+      <c r="LL18" s="1"/>
+      <c r="LM18" s="1"/>
+      <c r="LN18" s="1"/>
+      <c r="LO18" s="1"/>
+      <c r="LP18" s="1"/>
+      <c r="LQ18" s="1"/>
+      <c r="LR18" s="1"/>
+      <c r="LS18" s="1"/>
+      <c r="LT18" s="1"/>
+      <c r="LU18" s="1"/>
+      <c r="LV18" s="1"/>
+      <c r="LW18" s="1"/>
+      <c r="LX18" s="1"/>
+      <c r="LY18" s="1"/>
+      <c r="LZ18" s="1"/>
+      <c r="MA18" s="1"/>
+      <c r="MB18" s="1"/>
+      <c r="MC18" s="1"/>
+      <c r="MD18" s="1"/>
+      <c r="ME18" s="1"/>
+      <c r="MF18" s="1"/>
+      <c r="MG18" s="1"/>
+      <c r="MH18" s="1"/>
+      <c r="MI18" s="1"/>
+      <c r="MJ18" s="1"/>
+      <c r="MK18" s="1"/>
+      <c r="ML18" s="1"/>
+      <c r="MM18" s="1"/>
+      <c r="MN18" s="1"/>
+      <c r="MO18" s="1"/>
+      <c r="MP18" s="1"/>
+      <c r="MQ18" s="1"/>
+      <c r="MR18" s="1"/>
+      <c r="MS18" s="1"/>
+      <c r="MT18" s="1"/>
+      <c r="MU18" s="1"/>
+      <c r="MV18" s="1"/>
+      <c r="MW18" s="1"/>
+      <c r="MX18" s="1"/>
+      <c r="MY18" s="1"/>
+      <c r="MZ18" s="1"/>
+      <c r="NA18" s="1"/>
+      <c r="NB18" s="1"/>
+    </row>
+    <row r="19" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="7"/>
+      <c r="DL19" s="7"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="7"/>
+      <c r="EE19" s="7"/>
+      <c r="EF19" s="7"/>
+      <c r="EG19" s="7"/>
+      <c r="EH19" s="7"/>
+      <c r="EI19" s="7"/>
+      <c r="EJ19" s="7"/>
+      <c r="EK19" s="7"/>
+      <c r="EL19" s="7"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="7"/>
+      <c r="EO19" s="7"/>
+      <c r="EP19" s="7"/>
+      <c r="EQ19" s="7"/>
+      <c r="ER19" s="7"/>
+      <c r="ES19" s="7"/>
+      <c r="ET19" s="7"/>
+      <c r="EU19" s="7"/>
+      <c r="EV19" s="7"/>
+      <c r="EW19" s="7"/>
+      <c r="EX19" s="7"/>
+      <c r="EY19" s="7"/>
+      <c r="EZ19" s="7"/>
+      <c r="FA19" s="7"/>
+      <c r="FB19" s="7"/>
+      <c r="FC19" s="7"/>
+      <c r="FD19" s="7"/>
+      <c r="FE19" s="7"/>
+      <c r="FF19" s="7"/>
+      <c r="FG19" s="7"/>
+      <c r="FH19" s="7"/>
+      <c r="FI19" s="7"/>
+      <c r="FJ19" s="7"/>
+      <c r="FK19" s="7"/>
+      <c r="FL19" s="7"/>
+      <c r="FM19" s="7"/>
+      <c r="FN19" s="7"/>
+      <c r="FO19" s="7"/>
+      <c r="FP19" s="7"/>
+      <c r="FQ19" s="7"/>
+      <c r="FR19" s="7"/>
+      <c r="FS19" s="7"/>
+      <c r="FT19" s="7"/>
+      <c r="FU19" s="7"/>
+      <c r="FV19" s="7"/>
+      <c r="FW19" s="7"/>
+      <c r="FX19" s="7"/>
+      <c r="FY19" s="7"/>
+      <c r="FZ19" s="7"/>
+      <c r="GA19" s="7"/>
+      <c r="GB19" s="7"/>
+      <c r="GC19" s="7"/>
+      <c r="GD19" s="7"/>
+      <c r="GE19" s="7"/>
+      <c r="GF19" s="7"/>
+      <c r="GG19" s="7"/>
+      <c r="GH19" s="7"/>
+      <c r="GI19" s="7"/>
+      <c r="GJ19" s="7"/>
+      <c r="GK19" s="7"/>
+      <c r="GL19" s="7"/>
+      <c r="GM19" s="7"/>
+      <c r="GN19" s="7"/>
+      <c r="GO19" s="7"/>
+      <c r="GP19" s="7"/>
+      <c r="GQ19" s="7"/>
+      <c r="GR19" s="7"/>
+      <c r="GS19" s="7"/>
+      <c r="GT19" s="7"/>
+      <c r="GU19" s="7"/>
+      <c r="GV19" s="7"/>
+      <c r="GW19" s="7"/>
+      <c r="GX19" s="7"/>
+      <c r="GY19" s="7"/>
+      <c r="GZ19" s="7"/>
+      <c r="HA19" s="7"/>
+      <c r="HB19" s="7"/>
+      <c r="HC19" s="7"/>
+      <c r="HD19" s="7"/>
+      <c r="HE19" s="7"/>
+      <c r="HF19" s="7"/>
+      <c r="HG19" s="7"/>
+      <c r="HH19" s="7"/>
+      <c r="HI19" s="7"/>
+      <c r="HJ19" s="7"/>
+      <c r="HK19" s="7"/>
+      <c r="HL19" s="7"/>
+      <c r="HM19" s="7"/>
+      <c r="HN19" s="7"/>
+      <c r="HO19" s="7"/>
+      <c r="HP19" s="7"/>
+      <c r="HQ19" s="7"/>
+      <c r="HR19" s="7"/>
+      <c r="HS19" s="7"/>
+      <c r="HT19" s="7"/>
+      <c r="HU19" s="7"/>
+      <c r="HV19" s="7"/>
+      <c r="HW19" s="7"/>
+      <c r="HX19" s="7"/>
+      <c r="HY19" s="7"/>
+      <c r="HZ19" s="7"/>
+      <c r="IA19" s="7"/>
+      <c r="IB19" s="7"/>
+      <c r="IC19" s="7"/>
+      <c r="ID19" s="7"/>
+      <c r="IE19" s="7"/>
+      <c r="IF19" s="7"/>
+      <c r="IG19" s="7"/>
+      <c r="IH19" s="7"/>
+      <c r="II19" s="7"/>
+      <c r="IJ19" s="7"/>
+      <c r="IK19" s="7"/>
+      <c r="IL19" s="7"/>
+      <c r="IM19" s="7"/>
+      <c r="IN19" s="7"/>
+      <c r="IO19" s="7"/>
+      <c r="IP19" s="7"/>
+      <c r="IQ19" s="7"/>
+      <c r="IR19" s="7"/>
+      <c r="IS19" s="7"/>
+      <c r="IT19" s="7"/>
+      <c r="IU19" s="7"/>
+      <c r="IV19" s="7"/>
+      <c r="IW19" s="7"/>
+      <c r="IX19" s="7"/>
+      <c r="IY19" s="7"/>
+      <c r="IZ19" s="7"/>
+      <c r="JA19" s="7"/>
+      <c r="JB19" s="7"/>
+      <c r="JC19" s="7"/>
+      <c r="JD19" s="7"/>
+      <c r="JE19" s="7"/>
+      <c r="JF19" s="7"/>
+      <c r="JG19" s="7"/>
+      <c r="JH19" s="7"/>
+      <c r="JI19" s="7"/>
+      <c r="JJ19" s="7"/>
+      <c r="JK19" s="7"/>
+      <c r="JL19" s="7"/>
+      <c r="JM19" s="7"/>
+      <c r="JN19" s="7"/>
+      <c r="JO19" s="7"/>
+      <c r="JP19" s="7"/>
+      <c r="JQ19" s="7"/>
+      <c r="JR19" s="7"/>
+      <c r="JS19" s="7"/>
+      <c r="JT19" s="7"/>
+      <c r="JU19" s="7"/>
+      <c r="JV19" s="7"/>
+      <c r="JW19" s="7"/>
+      <c r="JX19" s="7"/>
+      <c r="JY19" s="7"/>
+      <c r="JZ19" s="7"/>
+      <c r="KA19" s="7"/>
+      <c r="KB19" s="7"/>
+      <c r="KC19" s="7"/>
+      <c r="KD19" s="7"/>
+      <c r="KE19" s="7"/>
+      <c r="KF19" s="7"/>
+      <c r="KG19" s="7"/>
+      <c r="KH19" s="7"/>
+      <c r="KI19" s="7"/>
+      <c r="KJ19" s="7"/>
+      <c r="KK19" s="7"/>
+      <c r="KL19" s="7"/>
+      <c r="KM19" s="7"/>
+      <c r="KN19" s="7"/>
+      <c r="KO19" s="7"/>
+      <c r="KP19" s="7"/>
+      <c r="KQ19" s="7"/>
+      <c r="KR19" s="7"/>
+      <c r="KS19" s="7"/>
+      <c r="KT19" s="7"/>
+      <c r="KU19" s="7"/>
+      <c r="KV19" s="7"/>
+      <c r="KW19" s="7"/>
+      <c r="KX19" s="7"/>
+      <c r="KY19" s="7"/>
+      <c r="KZ19" s="7"/>
+      <c r="LA19" s="7"/>
+      <c r="LB19" s="7"/>
+      <c r="LC19" s="7"/>
+      <c r="LD19" s="7"/>
+      <c r="LE19" s="7"/>
+      <c r="LF19" s="7"/>
+      <c r="LG19" s="7"/>
+      <c r="LH19" s="7"/>
+      <c r="LI19" s="7"/>
+      <c r="LJ19" s="7"/>
+      <c r="LK19" s="7"/>
+      <c r="LL19" s="7"/>
+      <c r="LM19" s="7"/>
+      <c r="LN19" s="7"/>
+      <c r="LO19" s="7"/>
+      <c r="LP19" s="7"/>
+      <c r="LQ19" s="7"/>
+      <c r="LR19" s="7"/>
+      <c r="LS19" s="7"/>
+      <c r="LT19" s="7"/>
+      <c r="LU19" s="7"/>
+      <c r="LV19" s="7"/>
+      <c r="LW19" s="7"/>
+      <c r="LX19" s="7"/>
+      <c r="LY19" s="7"/>
+      <c r="LZ19" s="7"/>
+      <c r="MA19" s="7"/>
+      <c r="MB19" s="7"/>
+      <c r="MC19" s="7"/>
+      <c r="MD19" s="7"/>
+      <c r="ME19" s="7"/>
+      <c r="MF19" s="7"/>
+      <c r="MG19" s="7"/>
+      <c r="MH19" s="7"/>
+      <c r="MI19" s="7"/>
+      <c r="MJ19" s="7"/>
+      <c r="MK19" s="7"/>
+      <c r="ML19" s="7"/>
+      <c r="MM19" s="7"/>
+      <c r="MN19" s="7"/>
+      <c r="MO19" s="7"/>
+      <c r="MP19" s="7"/>
+      <c r="MQ19" s="7"/>
+      <c r="MR19" s="7"/>
+      <c r="MS19" s="7"/>
+      <c r="MT19" s="7"/>
+      <c r="MU19" s="7"/>
+      <c r="MV19" s="7"/>
+      <c r="MW19" s="7"/>
+      <c r="MX19" s="7"/>
+      <c r="MY19" s="7"/>
+      <c r="MZ19" s="7"/>
+      <c r="NA19" s="7"/>
+      <c r="NB19" s="7"/>
+    </row>
+    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DB16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DC16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DE16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="FL16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW16" t="s">
-        <v>13</v>
-      </c>
-      <c r="FX16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HN16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HP16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HQ16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HR16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HS16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HT16" s="2" t="s">
+      <c r="BD20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="FL20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FX20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HP20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:356" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="21" spans="1:366" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="CG17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD17" s="13"/>
-      <c r="DE17" s="13"/>
-      <c r="DF17" s="13"/>
-      <c r="DG17" s="13"/>
-      <c r="DH17" s="13"/>
-      <c r="DI17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DJ17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DL17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DM17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN17" s="13"/>
-      <c r="DO17" s="13"/>
-      <c r="ER17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="ET17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="EU17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="EV17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FA17" s="13"/>
-      <c r="FB17" s="13"/>
-      <c r="FC17" s="13"/>
-      <c r="FD17" s="13"/>
-      <c r="FE17" s="13"/>
-      <c r="FF17" s="13"/>
-      <c r="FG17" s="13"/>
-      <c r="FH17" s="13"/>
-      <c r="FI17" s="13"/>
-      <c r="FJ17" s="13"/>
-      <c r="FK17" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="CG21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD21" s="13"/>
+      <c r="DE21" s="13"/>
+      <c r="DF21" s="13"/>
+      <c r="DG21" s="13"/>
+      <c r="DH21" s="13"/>
+      <c r="DI21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN21" s="13"/>
+      <c r="DO21" s="13"/>
+      <c r="ER21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="ES21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="EU21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="EV21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FA21" s="13"/>
+      <c r="FB21" s="13"/>
+      <c r="FC21" s="13"/>
+      <c r="FD21" s="13"/>
+      <c r="FE21" s="13"/>
+      <c r="FF21" s="13"/>
+      <c r="FG21" s="13"/>
+      <c r="FH21" s="13"/>
+      <c r="FI21" s="13"/>
+      <c r="FJ21" s="13"/>
+      <c r="FK21" s="13"/>
     </row>
-    <row r="18" spans="1:356" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:356" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:356" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="FL22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW22" t="s">
-        <v>13</v>
-      </c>
-      <c r="FX22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HB22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HC22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HD22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HE22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HF22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HG22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM22" t="s">
-        <v>13</v>
-      </c>
-      <c r="HN22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="ME22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MF22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MG22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MH22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MI22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MJ22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MK22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="ML22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MM22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MN22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MO22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MP22" t="s">
-        <v>13</v>
-      </c>
-      <c r="MQ22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR22" s="4" t="s">
+      <c r="FL26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FX26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM26" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="ME26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MF26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MG26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MH26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MI26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MJ26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="MK26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="ML26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MM26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MN26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MO26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MP26" t="s">
+        <v>13</v>
+      </c>
+      <c r="MQ26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:356" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="BD23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BN23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BW23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX23" s="14" t="s">
+      <c r="BD27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX27" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:356" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -8370,6 +9873,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +306,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -319,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -341,16 +347,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -623,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,407 +644,489 @@
   <dimension ref="A1:PC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB18" sqref="DB18"/>
+      <pane xSplit="1" topLeftCell="LE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="MX2" activeCellId="15" sqref="IW1:IX1048576 JD1:JE1048576 JK1:JL1048576 JR1:JS1048576 JY1:JZ1048576 KF1:KG1048576 KM1:KN1048576 KT1:KU1048576 LA1:LB1048576 LH1:LI1048576 LO1:LP1048576 LV1:LW1048576 MC1:MD1048576 MJ1:MK1048576 MQ1:MR1048576 MX1:MY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="366" width="3.7109375" customWidth="1"/>
+    <col min="2" max="81" width="3.7109375" customWidth="1"/>
+    <col min="82" max="83" width="3.7109375" style="22" customWidth="1"/>
+    <col min="84" max="88" width="3.7109375" customWidth="1"/>
+    <col min="89" max="90" width="3.7109375" style="22" customWidth="1"/>
+    <col min="91" max="95" width="3.7109375" customWidth="1"/>
+    <col min="96" max="97" width="3.7109375" style="22" customWidth="1"/>
+    <col min="98" max="102" width="3.7109375" customWidth="1"/>
+    <col min="103" max="104" width="3.7109375" style="22" customWidth="1"/>
+    <col min="105" max="109" width="3.7109375" customWidth="1"/>
+    <col min="110" max="111" width="3.7109375" style="22" customWidth="1"/>
+    <col min="112" max="116" width="3.7109375" customWidth="1"/>
+    <col min="117" max="118" width="3.7109375" style="22" customWidth="1"/>
+    <col min="119" max="123" width="3.7109375" customWidth="1"/>
+    <col min="124" max="125" width="3.7109375" style="22" customWidth="1"/>
+    <col min="126" max="130" width="3.7109375" customWidth="1"/>
+    <col min="131" max="132" width="3.7109375" style="22" customWidth="1"/>
+    <col min="133" max="137" width="3.7109375" customWidth="1"/>
+    <col min="138" max="139" width="3.7109375" style="22" customWidth="1"/>
+    <col min="140" max="144" width="3.7109375" customWidth="1"/>
+    <col min="145" max="146" width="3.7109375" style="22" customWidth="1"/>
+    <col min="147" max="151" width="3.7109375" customWidth="1"/>
+    <col min="152" max="153" width="3.7109375" style="22" customWidth="1"/>
+    <col min="154" max="158" width="3.7109375" customWidth="1"/>
+    <col min="159" max="160" width="3.7109375" style="22" customWidth="1"/>
+    <col min="161" max="165" width="3.7109375" customWidth="1"/>
+    <col min="166" max="167" width="3.7109375" style="22" customWidth="1"/>
+    <col min="168" max="172" width="3.7109375" customWidth="1"/>
+    <col min="173" max="174" width="3.7109375" style="22" customWidth="1"/>
+    <col min="175" max="179" width="3.7109375" customWidth="1"/>
+    <col min="180" max="181" width="3.7109375" style="22" customWidth="1"/>
+    <col min="182" max="186" width="3.7109375" customWidth="1"/>
+    <col min="187" max="188" width="3.7109375" style="22" customWidth="1"/>
+    <col min="189" max="193" width="3.7109375" customWidth="1"/>
+    <col min="194" max="195" width="3.7109375" style="22" customWidth="1"/>
+    <col min="196" max="200" width="3.7109375" customWidth="1"/>
+    <col min="201" max="202" width="3.7109375" style="22" customWidth="1"/>
+    <col min="203" max="207" width="3.7109375" customWidth="1"/>
+    <col min="208" max="209" width="3.7109375" style="22" customWidth="1"/>
+    <col min="210" max="214" width="3.7109375" customWidth="1"/>
+    <col min="215" max="216" width="3.7109375" style="22" customWidth="1"/>
+    <col min="217" max="221" width="3.7109375" customWidth="1"/>
+    <col min="222" max="223" width="3.7109375" style="22" customWidth="1"/>
+    <col min="224" max="228" width="3.7109375" customWidth="1"/>
+    <col min="229" max="230" width="3.7109375" style="22" customWidth="1"/>
+    <col min="231" max="235" width="3.7109375" customWidth="1"/>
+    <col min="236" max="237" width="3.7109375" style="22" customWidth="1"/>
+    <col min="238" max="242" width="3.7109375" customWidth="1"/>
+    <col min="243" max="244" width="3.7109375" style="22" customWidth="1"/>
+    <col min="245" max="249" width="3.7109375" customWidth="1"/>
+    <col min="250" max="251" width="3.7109375" style="22" customWidth="1"/>
+    <col min="252" max="256" width="3.7109375" customWidth="1"/>
+    <col min="257" max="258" width="3.7109375" style="22" customWidth="1"/>
+    <col min="259" max="263" width="3.7109375" customWidth="1"/>
+    <col min="264" max="265" width="3.7109375" style="22" customWidth="1"/>
+    <col min="266" max="270" width="3.7109375" customWidth="1"/>
+    <col min="271" max="272" width="3.7109375" style="22" customWidth="1"/>
+    <col min="273" max="277" width="3.7109375" customWidth="1"/>
+    <col min="278" max="279" width="3.7109375" style="22" customWidth="1"/>
+    <col min="280" max="284" width="3.7109375" customWidth="1"/>
+    <col min="285" max="286" width="3.7109375" style="22" customWidth="1"/>
+    <col min="287" max="291" width="3.7109375" customWidth="1"/>
+    <col min="292" max="293" width="3.7109375" style="22" customWidth="1"/>
+    <col min="294" max="298" width="3.7109375" customWidth="1"/>
+    <col min="299" max="300" width="3.7109375" style="22" customWidth="1"/>
+    <col min="301" max="305" width="3.7109375" customWidth="1"/>
+    <col min="306" max="307" width="3.7109375" style="22" customWidth="1"/>
+    <col min="308" max="312" width="3.7109375" customWidth="1"/>
+    <col min="313" max="314" width="3.7109375" style="22" customWidth="1"/>
+    <col min="315" max="319" width="3.7109375" customWidth="1"/>
+    <col min="320" max="321" width="3.7109375" style="22" customWidth="1"/>
+    <col min="322" max="326" width="3.7109375" customWidth="1"/>
+    <col min="327" max="328" width="3.7109375" style="22" customWidth="1"/>
+    <col min="329" max="333" width="3.7109375" customWidth="1"/>
+    <col min="334" max="335" width="3.7109375" style="22" customWidth="1"/>
+    <col min="336" max="340" width="3.7109375" customWidth="1"/>
+    <col min="341" max="342" width="3.7109375" style="22" customWidth="1"/>
+    <col min="343" max="347" width="3.7109375" customWidth="1"/>
+    <col min="348" max="349" width="3.7109375" style="22" customWidth="1"/>
+    <col min="350" max="354" width="3.7109375" customWidth="1"/>
+    <col min="355" max="356" width="3.7109375" style="22" customWidth="1"/>
+    <col min="357" max="361" width="3.7109375" customWidth="1"/>
+    <col min="362" max="363" width="3.7109375" style="22" customWidth="1"/>
+    <col min="364" max="366" width="3.7109375" customWidth="1"/>
     <col min="368" max="368" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="21" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="22"/>
-      <c r="CN1" s="21" t="s">
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="19"/>
+      <c r="CN1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="21"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="21"/>
-      <c r="CU1" s="21"/>
-      <c r="CV1" s="21"/>
-      <c r="CW1" s="21"/>
-      <c r="CX1" s="21"/>
-      <c r="CY1" s="21"/>
-      <c r="CZ1" s="21"/>
-      <c r="DA1" s="21"/>
-      <c r="DB1" s="21"/>
-      <c r="DC1" s="21"/>
-      <c r="DD1" s="21"/>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21"/>
-      <c r="DG1" s="21"/>
-      <c r="DH1" s="21"/>
-      <c r="DI1" s="21"/>
-      <c r="DJ1" s="21"/>
-      <c r="DK1" s="21"/>
-      <c r="DL1" s="21"/>
-      <c r="DM1" s="21"/>
-      <c r="DN1" s="21"/>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="21"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="22" t="s">
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="22"/>
-      <c r="DT1" s="22"/>
-      <c r="DU1" s="22"/>
-      <c r="DV1" s="22"/>
-      <c r="DW1" s="22"/>
-      <c r="DX1" s="22"/>
-      <c r="DY1" s="22"/>
-      <c r="DZ1" s="22"/>
-      <c r="EA1" s="22"/>
-      <c r="EB1" s="22"/>
-      <c r="EC1" s="22"/>
-      <c r="ED1" s="22"/>
-      <c r="EE1" s="22"/>
-      <c r="EF1" s="22"/>
-      <c r="EG1" s="22"/>
-      <c r="EH1" s="22"/>
-      <c r="EI1" s="22"/>
-      <c r="EJ1" s="22"/>
-      <c r="EK1" s="22"/>
-      <c r="EL1" s="22"/>
-      <c r="EM1" s="22"/>
-      <c r="EN1" s="22"/>
-      <c r="EO1" s="22"/>
-      <c r="EP1" s="22"/>
-      <c r="EQ1" s="22"/>
-      <c r="ER1" s="22"/>
-      <c r="ES1" s="22"/>
-      <c r="ET1" s="22"/>
-      <c r="EU1" s="22"/>
-      <c r="EV1" s="22"/>
-      <c r="EW1" s="22" t="s">
+      <c r="DS1" s="19"/>
+      <c r="DT1" s="19"/>
+      <c r="DU1" s="19"/>
+      <c r="DV1" s="19"/>
+      <c r="DW1" s="19"/>
+      <c r="DX1" s="19"/>
+      <c r="DY1" s="19"/>
+      <c r="DZ1" s="19"/>
+      <c r="EA1" s="19"/>
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19"/>
+      <c r="EF1" s="19"/>
+      <c r="EG1" s="19"/>
+      <c r="EH1" s="19"/>
+      <c r="EI1" s="19"/>
+      <c r="EJ1" s="19"/>
+      <c r="EK1" s="19"/>
+      <c r="EL1" s="19"/>
+      <c r="EM1" s="19"/>
+      <c r="EN1" s="19"/>
+      <c r="EO1" s="19"/>
+      <c r="EP1" s="19"/>
+      <c r="EQ1" s="19"/>
+      <c r="ER1" s="19"/>
+      <c r="ES1" s="19"/>
+      <c r="ET1" s="19"/>
+      <c r="EU1" s="19"/>
+      <c r="EV1" s="19"/>
+      <c r="EW1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="22"/>
-      <c r="EY1" s="22"/>
-      <c r="EZ1" s="22"/>
-      <c r="FA1" s="22"/>
-      <c r="FB1" s="22"/>
-      <c r="FC1" s="22"/>
-      <c r="FD1" s="22"/>
-      <c r="FE1" s="22"/>
-      <c r="FF1" s="22"/>
-      <c r="FG1" s="22"/>
-      <c r="FH1" s="22"/>
-      <c r="FI1" s="22"/>
-      <c r="FJ1" s="22"/>
-      <c r="FK1" s="22"/>
-      <c r="FL1" s="22"/>
-      <c r="FM1" s="22"/>
-      <c r="FN1" s="22"/>
-      <c r="FO1" s="22"/>
-      <c r="FP1" s="22"/>
-      <c r="FQ1" s="22"/>
-      <c r="FR1" s="22"/>
-      <c r="FS1" s="22"/>
-      <c r="FT1" s="22"/>
-      <c r="FU1" s="22"/>
-      <c r="FV1" s="22"/>
-      <c r="FW1" s="22"/>
-      <c r="FX1" s="22"/>
-      <c r="FY1" s="22"/>
-      <c r="FZ1" s="22"/>
-      <c r="GA1" s="22" t="s">
+      <c r="EX1" s="19"/>
+      <c r="EY1" s="19"/>
+      <c r="EZ1" s="19"/>
+      <c r="FA1" s="19"/>
+      <c r="FB1" s="19"/>
+      <c r="FC1" s="19"/>
+      <c r="FD1" s="19"/>
+      <c r="FE1" s="19"/>
+      <c r="FF1" s="19"/>
+      <c r="FG1" s="19"/>
+      <c r="FH1" s="19"/>
+      <c r="FI1" s="19"/>
+      <c r="FJ1" s="19"/>
+      <c r="FK1" s="19"/>
+      <c r="FL1" s="19"/>
+      <c r="FM1" s="19"/>
+      <c r="FN1" s="19"/>
+      <c r="FO1" s="19"/>
+      <c r="FP1" s="19"/>
+      <c r="FQ1" s="19"/>
+      <c r="FR1" s="19"/>
+      <c r="FS1" s="19"/>
+      <c r="FT1" s="19"/>
+      <c r="FU1" s="19"/>
+      <c r="FV1" s="19"/>
+      <c r="FW1" s="19"/>
+      <c r="FX1" s="19"/>
+      <c r="FY1" s="19"/>
+      <c r="FZ1" s="19"/>
+      <c r="GA1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="22"/>
-      <c r="GC1" s="22"/>
-      <c r="GD1" s="22"/>
-      <c r="GE1" s="22"/>
-      <c r="GF1" s="22"/>
-      <c r="GG1" s="22"/>
-      <c r="GH1" s="22"/>
-      <c r="GI1" s="22"/>
-      <c r="GJ1" s="22"/>
-      <c r="GK1" s="22"/>
-      <c r="GL1" s="22"/>
-      <c r="GM1" s="22"/>
-      <c r="GN1" s="22"/>
-      <c r="GO1" s="22"/>
-      <c r="GP1" s="22"/>
-      <c r="GQ1" s="22"/>
-      <c r="GR1" s="22"/>
-      <c r="GS1" s="22"/>
-      <c r="GT1" s="22"/>
-      <c r="GU1" s="22"/>
-      <c r="GV1" s="22"/>
-      <c r="GW1" s="22"/>
-      <c r="GX1" s="22"/>
-      <c r="GY1" s="22"/>
-      <c r="GZ1" s="22"/>
-      <c r="HA1" s="22"/>
-      <c r="HB1" s="22"/>
-      <c r="HC1" s="22"/>
-      <c r="HD1" s="22"/>
-      <c r="HE1" s="22"/>
-      <c r="HF1" s="21" t="s">
+      <c r="GB1" s="19"/>
+      <c r="GC1" s="19"/>
+      <c r="GD1" s="19"/>
+      <c r="GE1" s="19"/>
+      <c r="GF1" s="19"/>
+      <c r="GG1" s="19"/>
+      <c r="GH1" s="19"/>
+      <c r="GI1" s="19"/>
+      <c r="GJ1" s="19"/>
+      <c r="GK1" s="19"/>
+      <c r="GL1" s="19"/>
+      <c r="GM1" s="19"/>
+      <c r="GN1" s="19"/>
+      <c r="GO1" s="19"/>
+      <c r="GP1" s="19"/>
+      <c r="GQ1" s="19"/>
+      <c r="GR1" s="19"/>
+      <c r="GS1" s="19"/>
+      <c r="GT1" s="19"/>
+      <c r="GU1" s="19"/>
+      <c r="GV1" s="19"/>
+      <c r="GW1" s="19"/>
+      <c r="GX1" s="19"/>
+      <c r="GY1" s="19"/>
+      <c r="GZ1" s="19"/>
+      <c r="HA1" s="19"/>
+      <c r="HB1" s="19"/>
+      <c r="HC1" s="19"/>
+      <c r="HD1" s="19"/>
+      <c r="HE1" s="19"/>
+      <c r="HF1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="21"/>
-      <c r="HH1" s="21"/>
-      <c r="HI1" s="21"/>
-      <c r="HJ1" s="21"/>
-      <c r="HK1" s="21"/>
-      <c r="HL1" s="21"/>
-      <c r="HM1" s="21"/>
-      <c r="HN1" s="21"/>
-      <c r="HO1" s="21"/>
-      <c r="HP1" s="21"/>
-      <c r="HQ1" s="21"/>
-      <c r="HR1" s="21"/>
-      <c r="HS1" s="21"/>
-      <c r="HT1" s="21"/>
-      <c r="HU1" s="21"/>
-      <c r="HV1" s="21"/>
-      <c r="HW1" s="21"/>
-      <c r="HX1" s="21"/>
-      <c r="HY1" s="21"/>
-      <c r="HZ1" s="21"/>
-      <c r="IA1" s="21"/>
-      <c r="IB1" s="21"/>
-      <c r="IC1" s="21"/>
-      <c r="ID1" s="21"/>
-      <c r="IE1" s="21"/>
-      <c r="IF1" s="21"/>
-      <c r="IG1" s="21"/>
-      <c r="IH1" s="21"/>
-      <c r="II1" s="21"/>
-      <c r="IJ1" s="21"/>
-      <c r="IK1" s="22" t="s">
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="22"/>
-      <c r="IM1" s="22"/>
-      <c r="IN1" s="22"/>
-      <c r="IO1" s="22"/>
-      <c r="IP1" s="22"/>
-      <c r="IQ1" s="22"/>
-      <c r="IR1" s="22"/>
-      <c r="IS1" s="22"/>
-      <c r="IT1" s="22"/>
-      <c r="IU1" s="22"/>
-      <c r="IV1" s="22"/>
-      <c r="IW1" s="22"/>
-      <c r="IX1" s="22"/>
-      <c r="IY1" s="22"/>
-      <c r="IZ1" s="22"/>
-      <c r="JA1" s="22"/>
-      <c r="JB1" s="22"/>
-      <c r="JC1" s="22"/>
-      <c r="JD1" s="22"/>
-      <c r="JE1" s="22"/>
-      <c r="JF1" s="22"/>
-      <c r="JG1" s="22"/>
-      <c r="JH1" s="22"/>
-      <c r="JI1" s="22"/>
-      <c r="JJ1" s="22"/>
-      <c r="JK1" s="22"/>
-      <c r="JL1" s="22"/>
-      <c r="JM1" s="22"/>
-      <c r="JN1" s="22"/>
-      <c r="JO1" s="21" t="s">
+      <c r="IL1" s="19"/>
+      <c r="IM1" s="19"/>
+      <c r="IN1" s="19"/>
+      <c r="IO1" s="19"/>
+      <c r="IP1" s="19"/>
+      <c r="IQ1" s="19"/>
+      <c r="IR1" s="19"/>
+      <c r="IS1" s="19"/>
+      <c r="IT1" s="19"/>
+      <c r="IU1" s="19"/>
+      <c r="IV1" s="19"/>
+      <c r="IW1" s="19"/>
+      <c r="IX1" s="19"/>
+      <c r="IY1" s="19"/>
+      <c r="IZ1" s="19"/>
+      <c r="JA1" s="19"/>
+      <c r="JB1" s="19"/>
+      <c r="JC1" s="19"/>
+      <c r="JD1" s="19"/>
+      <c r="JE1" s="19"/>
+      <c r="JF1" s="19"/>
+      <c r="JG1" s="19"/>
+      <c r="JH1" s="19"/>
+      <c r="JI1" s="19"/>
+      <c r="JJ1" s="19"/>
+      <c r="JK1" s="19"/>
+      <c r="JL1" s="19"/>
+      <c r="JM1" s="19"/>
+      <c r="JN1" s="19"/>
+      <c r="JO1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="21"/>
-      <c r="JQ1" s="21"/>
-      <c r="JR1" s="21"/>
-      <c r="JS1" s="21"/>
-      <c r="JT1" s="21"/>
-      <c r="JU1" s="21"/>
-      <c r="JV1" s="21"/>
-      <c r="JW1" s="21"/>
-      <c r="JX1" s="21"/>
-      <c r="JY1" s="21"/>
-      <c r="JZ1" s="21"/>
-      <c r="KA1" s="21"/>
-      <c r="KB1" s="21"/>
-      <c r="KC1" s="21"/>
-      <c r="KD1" s="21"/>
-      <c r="KE1" s="21"/>
-      <c r="KF1" s="21"/>
-      <c r="KG1" s="21"/>
-      <c r="KH1" s="21"/>
-      <c r="KI1" s="21"/>
-      <c r="KJ1" s="21"/>
-      <c r="KK1" s="21"/>
-      <c r="KL1" s="21"/>
-      <c r="KM1" s="21"/>
-      <c r="KN1" s="21"/>
-      <c r="KO1" s="21"/>
-      <c r="KP1" s="21"/>
-      <c r="KQ1" s="21"/>
-      <c r="KR1" s="21"/>
-      <c r="KS1" s="21"/>
-      <c r="KT1" s="21" t="s">
+      <c r="JP1" s="18"/>
+      <c r="JQ1" s="18"/>
+      <c r="JR1" s="18"/>
+      <c r="JS1" s="18"/>
+      <c r="JT1" s="18"/>
+      <c r="JU1" s="18"/>
+      <c r="JV1" s="18"/>
+      <c r="JW1" s="18"/>
+      <c r="JX1" s="18"/>
+      <c r="JY1" s="18"/>
+      <c r="JZ1" s="18"/>
+      <c r="KA1" s="18"/>
+      <c r="KB1" s="18"/>
+      <c r="KC1" s="18"/>
+      <c r="KD1" s="18"/>
+      <c r="KE1" s="18"/>
+      <c r="KF1" s="18"/>
+      <c r="KG1" s="18"/>
+      <c r="KH1" s="18"/>
+      <c r="KI1" s="18"/>
+      <c r="KJ1" s="18"/>
+      <c r="KK1" s="18"/>
+      <c r="KL1" s="18"/>
+      <c r="KM1" s="18"/>
+      <c r="KN1" s="18"/>
+      <c r="KO1" s="18"/>
+      <c r="KP1" s="18"/>
+      <c r="KQ1" s="18"/>
+      <c r="KR1" s="18"/>
+      <c r="KS1" s="18"/>
+      <c r="KT1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="21"/>
-      <c r="KV1" s="21"/>
-      <c r="KW1" s="21"/>
-      <c r="KX1" s="21"/>
-      <c r="KY1" s="21"/>
-      <c r="KZ1" s="21"/>
-      <c r="LA1" s="21"/>
-      <c r="LB1" s="21"/>
-      <c r="LC1" s="21"/>
-      <c r="LD1" s="21"/>
-      <c r="LE1" s="21"/>
-      <c r="LF1" s="21"/>
-      <c r="LG1" s="21"/>
-      <c r="LH1" s="21"/>
-      <c r="LI1" s="21"/>
-      <c r="LJ1" s="21"/>
-      <c r="LK1" s="21"/>
-      <c r="LL1" s="21"/>
-      <c r="LM1" s="21"/>
-      <c r="LN1" s="21"/>
-      <c r="LO1" s="21"/>
-      <c r="LP1" s="21"/>
-      <c r="LQ1" s="21"/>
-      <c r="LR1" s="21"/>
-      <c r="LS1" s="21"/>
-      <c r="LT1" s="21"/>
-      <c r="LU1" s="21"/>
-      <c r="LV1" s="21"/>
-      <c r="LW1" s="21"/>
-      <c r="LX1" s="21" t="s">
+      <c r="KU1" s="18"/>
+      <c r="KV1" s="18"/>
+      <c r="KW1" s="18"/>
+      <c r="KX1" s="18"/>
+      <c r="KY1" s="18"/>
+      <c r="KZ1" s="18"/>
+      <c r="LA1" s="18"/>
+      <c r="LB1" s="18"/>
+      <c r="LC1" s="18"/>
+      <c r="LD1" s="18"/>
+      <c r="LE1" s="18"/>
+      <c r="LF1" s="18"/>
+      <c r="LG1" s="18"/>
+      <c r="LH1" s="18"/>
+      <c r="LI1" s="18"/>
+      <c r="LJ1" s="18"/>
+      <c r="LK1" s="18"/>
+      <c r="LL1" s="18"/>
+      <c r="LM1" s="18"/>
+      <c r="LN1" s="18"/>
+      <c r="LO1" s="18"/>
+      <c r="LP1" s="18"/>
+      <c r="LQ1" s="18"/>
+      <c r="LR1" s="18"/>
+      <c r="LS1" s="18"/>
+      <c r="LT1" s="18"/>
+      <c r="LU1" s="18"/>
+      <c r="LV1" s="18"/>
+      <c r="LW1" s="18"/>
+      <c r="LX1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="21"/>
-      <c r="LZ1" s="21"/>
-      <c r="MA1" s="21"/>
-      <c r="MB1" s="21"/>
-      <c r="MC1" s="21"/>
-      <c r="MD1" s="21"/>
-      <c r="ME1" s="21"/>
-      <c r="MF1" s="21"/>
-      <c r="MG1" s="21"/>
-      <c r="MH1" s="21"/>
-      <c r="MI1" s="21"/>
-      <c r="MJ1" s="21"/>
-      <c r="MK1" s="21"/>
-      <c r="ML1" s="21"/>
-      <c r="MM1" s="21"/>
-      <c r="MN1" s="21"/>
-      <c r="MO1" s="21"/>
-      <c r="MP1" s="21"/>
-      <c r="MQ1" s="21"/>
-      <c r="MR1" s="21"/>
-      <c r="MS1" s="21"/>
-      <c r="MT1" s="21"/>
-      <c r="MU1" s="21"/>
-      <c r="MV1" s="21"/>
-      <c r="MW1" s="21"/>
-      <c r="MX1" s="21"/>
-      <c r="MY1" s="21"/>
-      <c r="MZ1" s="21"/>
-      <c r="NA1" s="21"/>
-      <c r="NB1" s="21"/>
+      <c r="LY1" s="18"/>
+      <c r="LZ1" s="18"/>
+      <c r="MA1" s="18"/>
+      <c r="MB1" s="18"/>
+      <c r="MC1" s="18"/>
+      <c r="MD1" s="18"/>
+      <c r="ME1" s="18"/>
+      <c r="MF1" s="18"/>
+      <c r="MG1" s="18"/>
+      <c r="MH1" s="18"/>
+      <c r="MI1" s="18"/>
+      <c r="MJ1" s="18"/>
+      <c r="MK1" s="18"/>
+      <c r="ML1" s="18"/>
+      <c r="MM1" s="18"/>
+      <c r="MN1" s="18"/>
+      <c r="MO1" s="18"/>
+      <c r="MP1" s="18"/>
+      <c r="MQ1" s="18"/>
+      <c r="MR1" s="18"/>
+      <c r="MS1" s="18"/>
+      <c r="MT1" s="18"/>
+      <c r="MU1" s="18"/>
+      <c r="MV1" s="18"/>
+      <c r="MW1" s="18"/>
+      <c r="MX1" s="18"/>
+      <c r="MY1" s="18"/>
+      <c r="MZ1" s="18"/>
+      <c r="NA1" s="18"/>
+      <c r="NB1" s="18"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1277,10 +1369,10 @@
       <c r="CC2" t="s">
         <v>20</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CD2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CE2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="CF2" t="s">
@@ -1298,10 +1390,10 @@
       <c r="CJ2" t="s">
         <v>20</v>
       </c>
-      <c r="CK2" s="4" t="s">
+      <c r="CK2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="CL2" s="4" t="s">
+      <c r="CL2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="CM2" t="s">
@@ -1319,10 +1411,10 @@
       <c r="CQ2" t="s">
         <v>20</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="CR2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="CS2" s="4" t="s">
+      <c r="CS2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="CT2" t="s">
@@ -1340,10 +1432,10 @@
       <c r="CX2" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="4" t="s">
+      <c r="CY2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="CZ2" s="4" t="s">
+      <c r="CZ2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="DA2" t="s">
@@ -1361,10 +1453,10 @@
       <c r="DE2" t="s">
         <v>20</v>
       </c>
-      <c r="DF2" s="4" t="s">
+      <c r="DF2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="DG2" s="4" t="s">
+      <c r="DG2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="DH2" t="s">
@@ -1382,10 +1474,10 @@
       <c r="DL2" t="s">
         <v>20</v>
       </c>
-      <c r="DM2" s="4" t="s">
+      <c r="DM2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="DN2" s="4" t="s">
+      <c r="DN2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="DO2" t="s">
@@ -1403,10 +1495,10 @@
       <c r="DS2" t="s">
         <v>20</v>
       </c>
-      <c r="DT2" s="4" t="s">
+      <c r="DT2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="DU2" s="4" t="s">
+      <c r="DU2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="DV2" t="s">
@@ -1424,10 +1516,10 @@
       <c r="DZ2" t="s">
         <v>20</v>
       </c>
-      <c r="EA2" s="4" t="s">
+      <c r="EA2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="EB2" s="4" t="s">
+      <c r="EB2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="EC2" t="s">
@@ -1445,10 +1537,10 @@
       <c r="EG2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" s="4" t="s">
+      <c r="EH2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" s="4" t="s">
+      <c r="EI2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="EJ2" t="s">
@@ -1466,10 +1558,10 @@
       <c r="EN2" t="s">
         <v>20</v>
       </c>
-      <c r="EO2" s="4" t="s">
+      <c r="EO2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="EP2" s="4" t="s">
+      <c r="EP2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="EQ2" t="s">
@@ -1487,10 +1579,10 @@
       <c r="EU2" t="s">
         <v>20</v>
       </c>
-      <c r="EV2" s="4" t="s">
+      <c r="EV2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="EW2" s="4" t="s">
+      <c r="EW2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="EX2" t="s">
@@ -1508,10 +1600,10 @@
       <c r="FB2" t="s">
         <v>20</v>
       </c>
-      <c r="FC2" s="4" t="s">
+      <c r="FC2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="FD2" s="4" t="s">
+      <c r="FD2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="FE2" t="s">
@@ -1529,10 +1621,10 @@
       <c r="FI2" t="s">
         <v>20</v>
       </c>
-      <c r="FJ2" s="4" t="s">
+      <c r="FJ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="FK2" s="4" t="s">
+      <c r="FK2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="FL2" t="s">
@@ -1550,10 +1642,10 @@
       <c r="FP2" t="s">
         <v>20</v>
       </c>
-      <c r="FQ2" s="4" t="s">
+      <c r="FQ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="FR2" s="4" t="s">
+      <c r="FR2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="FS2" t="s">
@@ -1571,10 +1663,10 @@
       <c r="FW2" t="s">
         <v>20</v>
       </c>
-      <c r="FX2" s="4" t="s">
+      <c r="FX2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="FY2" s="4" t="s">
+      <c r="FY2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="FZ2" t="s">
@@ -1592,10 +1684,10 @@
       <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" s="4" t="s">
+      <c r="GE2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" s="4" t="s">
+      <c r="GF2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="GG2" t="s">
@@ -1613,10 +1705,10 @@
       <c r="GK2" t="s">
         <v>20</v>
       </c>
-      <c r="GL2" s="4" t="s">
+      <c r="GL2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="GM2" s="4" t="s">
+      <c r="GM2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="GN2" t="s">
@@ -1634,10 +1726,10 @@
       <c r="GR2" t="s">
         <v>20</v>
       </c>
-      <c r="GS2" s="4" t="s">
+      <c r="GS2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="GT2" s="4" t="s">
+      <c r="GT2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="GU2" t="s">
@@ -1655,10 +1747,10 @@
       <c r="GY2" t="s">
         <v>20</v>
       </c>
-      <c r="GZ2" s="4" t="s">
+      <c r="GZ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="HA2" s="4" t="s">
+      <c r="HA2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="HB2" t="s">
@@ -1676,10 +1768,10 @@
       <c r="HF2" t="s">
         <v>20</v>
       </c>
-      <c r="HG2" s="4" t="s">
+      <c r="HG2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="HH2" s="4" t="s">
+      <c r="HH2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="HI2" t="s">
@@ -1697,10 +1789,10 @@
       <c r="HM2" t="s">
         <v>20</v>
       </c>
-      <c r="HN2" s="4" t="s">
+      <c r="HN2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="HO2" s="4" t="s">
+      <c r="HO2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="HP2" t="s">
@@ -1718,10 +1810,10 @@
       <c r="HT2" t="s">
         <v>20</v>
       </c>
-      <c r="HU2" s="4" t="s">
+      <c r="HU2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="HV2" s="4" t="s">
+      <c r="HV2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="HW2" t="s">
@@ -1739,10 +1831,10 @@
       <c r="IA2" t="s">
         <v>20</v>
       </c>
-      <c r="IB2" s="4" t="s">
+      <c r="IB2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="IC2" s="4" t="s">
+      <c r="IC2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="ID2" t="s">
@@ -1760,10 +1852,10 @@
       <c r="IH2" t="s">
         <v>20</v>
       </c>
-      <c r="II2" s="4" t="s">
+      <c r="II2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="IJ2" s="4" t="s">
+      <c r="IJ2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="IK2" t="s">
@@ -1781,10 +1873,10 @@
       <c r="IO2" t="s">
         <v>20</v>
       </c>
-      <c r="IP2" s="4" t="s">
+      <c r="IP2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="IQ2" s="4" t="s">
+      <c r="IQ2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="IR2" t="s">
@@ -1802,10 +1894,10 @@
       <c r="IV2" t="s">
         <v>20</v>
       </c>
-      <c r="IW2" s="4" t="s">
+      <c r="IW2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="IX2" s="4" t="s">
+      <c r="IX2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="IY2" t="s">
@@ -1823,10 +1915,10 @@
       <c r="JC2" t="s">
         <v>20</v>
       </c>
-      <c r="JD2" s="4" t="s">
+      <c r="JD2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JE2" s="4" t="s">
+      <c r="JE2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="JF2" t="s">
@@ -1844,10 +1936,10 @@
       <c r="JJ2" t="s">
         <v>20</v>
       </c>
-      <c r="JK2" s="4" t="s">
+      <c r="JK2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JL2" s="4" t="s">
+      <c r="JL2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="JM2" t="s">
@@ -1865,10 +1957,10 @@
       <c r="JQ2" t="s">
         <v>20</v>
       </c>
-      <c r="JR2" s="4" t="s">
+      <c r="JR2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JS2" s="4" t="s">
+      <c r="JS2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="JT2" t="s">
@@ -1886,10 +1978,10 @@
       <c r="JX2" t="s">
         <v>20</v>
       </c>
-      <c r="JY2" s="4" t="s">
+      <c r="JY2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JZ2" s="4" t="s">
+      <c r="JZ2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="KA2" t="s">
@@ -1907,10 +1999,10 @@
       <c r="KE2" t="s">
         <v>20</v>
       </c>
-      <c r="KF2" s="4" t="s">
+      <c r="KF2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="KG2" s="4" t="s">
+      <c r="KG2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="KH2" t="s">
@@ -1928,10 +2020,10 @@
       <c r="KL2" t="s">
         <v>20</v>
       </c>
-      <c r="KM2" s="4" t="s">
+      <c r="KM2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="KN2" s="4" t="s">
+      <c r="KN2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="KO2" t="s">
@@ -1949,10 +2041,10 @@
       <c r="KS2" t="s">
         <v>20</v>
       </c>
-      <c r="KT2" s="4" t="s">
+      <c r="KT2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="KU2" s="4" t="s">
+      <c r="KU2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="KV2" t="s">
@@ -1970,10 +2062,10 @@
       <c r="KZ2" t="s">
         <v>20</v>
       </c>
-      <c r="LA2" s="4" t="s">
+      <c r="LA2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="LB2" s="4" t="s">
+      <c r="LB2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="LC2" t="s">
@@ -1991,10 +2083,10 @@
       <c r="LG2" t="s">
         <v>20</v>
       </c>
-      <c r="LH2" s="4" t="s">
+      <c r="LH2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="LI2" s="4" t="s">
+      <c r="LI2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="LJ2" t="s">
@@ -2012,10 +2104,10 @@
       <c r="LN2" t="s">
         <v>20</v>
       </c>
-      <c r="LO2" s="4" t="s">
+      <c r="LO2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="LP2" s="4" t="s">
+      <c r="LP2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="LQ2" t="s">
@@ -2033,10 +2125,10 @@
       <c r="LU2" t="s">
         <v>20</v>
       </c>
-      <c r="LV2" s="4" t="s">
+      <c r="LV2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="LW2" s="4" t="s">
+      <c r="LW2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="LX2" t="s">
@@ -2054,10 +2146,10 @@
       <c r="MB2" t="s">
         <v>20</v>
       </c>
-      <c r="MC2" s="4" t="s">
+      <c r="MC2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="MD2" s="4" t="s">
+      <c r="MD2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="ME2" t="s">
@@ -2075,10 +2167,10 @@
       <c r="MI2" t="s">
         <v>20</v>
       </c>
-      <c r="MJ2" s="4" t="s">
+      <c r="MJ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="MK2" s="4" t="s">
+      <c r="MK2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="ML2" t="s">
@@ -2096,10 +2188,10 @@
       <c r="MP2" t="s">
         <v>20</v>
       </c>
-      <c r="MQ2" s="4" t="s">
+      <c r="MQ2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="MR2" s="4" t="s">
+      <c r="MR2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="MS2" t="s">
@@ -2117,10 +2209,10 @@
       <c r="MW2" t="s">
         <v>20</v>
       </c>
-      <c r="MX2" s="4" t="s">
+      <c r="MX2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="MY2" s="4" t="s">
+      <c r="MY2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="MZ2" t="s">
@@ -2390,10 +2482,10 @@
       <c r="CC3" s="1">
         <v>41719</v>
       </c>
-      <c r="CD3" s="1">
+      <c r="CD3" s="21">
         <v>41720</v>
       </c>
-      <c r="CE3" s="1">
+      <c r="CE3" s="21">
         <v>41721</v>
       </c>
       <c r="CF3" s="1">
@@ -2411,10 +2503,10 @@
       <c r="CJ3" s="1">
         <v>41726</v>
       </c>
-      <c r="CK3" s="1">
+      <c r="CK3" s="21">
         <v>41727</v>
       </c>
-      <c r="CL3" s="1">
+      <c r="CL3" s="21">
         <v>41728</v>
       </c>
       <c r="CM3" s="1">
@@ -2432,10 +2524,10 @@
       <c r="CQ3" s="1">
         <v>41733</v>
       </c>
-      <c r="CR3" s="1">
+      <c r="CR3" s="21">
         <v>41734</v>
       </c>
-      <c r="CS3" s="1">
+      <c r="CS3" s="21">
         <v>41735</v>
       </c>
       <c r="CT3" s="1">
@@ -2453,10 +2545,10 @@
       <c r="CX3" s="1">
         <v>41740</v>
       </c>
-      <c r="CY3" s="1">
+      <c r="CY3" s="21">
         <v>41741</v>
       </c>
-      <c r="CZ3" s="1">
+      <c r="CZ3" s="21">
         <v>41742</v>
       </c>
       <c r="DA3" s="1">
@@ -2474,10 +2566,10 @@
       <c r="DE3" s="1">
         <v>41747</v>
       </c>
-      <c r="DF3" s="1">
+      <c r="DF3" s="21">
         <v>41748</v>
       </c>
-      <c r="DG3" s="1">
+      <c r="DG3" s="21">
         <v>41749</v>
       </c>
       <c r="DH3" s="1">
@@ -2495,10 +2587,10 @@
       <c r="DL3" s="1">
         <v>41754</v>
       </c>
-      <c r="DM3" s="1">
+      <c r="DM3" s="21">
         <v>41755</v>
       </c>
-      <c r="DN3" s="1">
+      <c r="DN3" s="21">
         <v>41756</v>
       </c>
       <c r="DO3" s="1">
@@ -2516,10 +2608,10 @@
       <c r="DS3" s="1">
         <v>41761</v>
       </c>
-      <c r="DT3" s="1">
+      <c r="DT3" s="21">
         <v>41762</v>
       </c>
-      <c r="DU3" s="1">
+      <c r="DU3" s="21">
         <v>41763</v>
       </c>
       <c r="DV3" s="1">
@@ -2537,10 +2629,10 @@
       <c r="DZ3" s="1">
         <v>41768</v>
       </c>
-      <c r="EA3" s="1">
+      <c r="EA3" s="21">
         <v>41769</v>
       </c>
-      <c r="EB3" s="1">
+      <c r="EB3" s="21">
         <v>41770</v>
       </c>
       <c r="EC3" s="1">
@@ -2558,10 +2650,10 @@
       <c r="EG3" s="1">
         <v>41775</v>
       </c>
-      <c r="EH3" s="1">
+      <c r="EH3" s="21">
         <v>41776</v>
       </c>
-      <c r="EI3" s="1">
+      <c r="EI3" s="21">
         <v>41777</v>
       </c>
       <c r="EJ3" s="1">
@@ -2579,10 +2671,10 @@
       <c r="EN3" s="1">
         <v>41782</v>
       </c>
-      <c r="EO3" s="1">
+      <c r="EO3" s="21">
         <v>41783</v>
       </c>
-      <c r="EP3" s="1">
+      <c r="EP3" s="21">
         <v>41784</v>
       </c>
       <c r="EQ3" s="1">
@@ -2600,10 +2692,10 @@
       <c r="EU3" s="1">
         <v>41789</v>
       </c>
-      <c r="EV3" s="1">
+      <c r="EV3" s="21">
         <v>41790</v>
       </c>
-      <c r="EW3" s="1">
+      <c r="EW3" s="21">
         <v>41791</v>
       </c>
       <c r="EX3" s="1">
@@ -2621,10 +2713,10 @@
       <c r="FB3" s="1">
         <v>41796</v>
       </c>
-      <c r="FC3" s="1">
+      <c r="FC3" s="21">
         <v>41797</v>
       </c>
-      <c r="FD3" s="1">
+      <c r="FD3" s="21">
         <v>41798</v>
       </c>
       <c r="FE3" s="1">
@@ -2642,10 +2734,10 @@
       <c r="FI3" s="1">
         <v>41803</v>
       </c>
-      <c r="FJ3" s="1">
+      <c r="FJ3" s="21">
         <v>41804</v>
       </c>
-      <c r="FK3" s="1">
+      <c r="FK3" s="21">
         <v>41805</v>
       </c>
       <c r="FL3" s="1">
@@ -2663,10 +2755,10 @@
       <c r="FP3" s="1">
         <v>41810</v>
       </c>
-      <c r="FQ3" s="1">
+      <c r="FQ3" s="21">
         <v>41811</v>
       </c>
-      <c r="FR3" s="1">
+      <c r="FR3" s="21">
         <v>41812</v>
       </c>
       <c r="FS3" s="1">
@@ -2684,10 +2776,10 @@
       <c r="FW3" s="1">
         <v>41817</v>
       </c>
-      <c r="FX3" s="1">
+      <c r="FX3" s="21">
         <v>41818</v>
       </c>
-      <c r="FY3" s="1">
+      <c r="FY3" s="21">
         <v>41819</v>
       </c>
       <c r="FZ3" s="1">
@@ -2705,10 +2797,10 @@
       <c r="GD3" s="1">
         <v>41824</v>
       </c>
-      <c r="GE3" s="1">
+      <c r="GE3" s="21">
         <v>41825</v>
       </c>
-      <c r="GF3" s="1">
+      <c r="GF3" s="21">
         <v>41826</v>
       </c>
       <c r="GG3" s="1">
@@ -2726,10 +2818,10 @@
       <c r="GK3" s="1">
         <v>41831</v>
       </c>
-      <c r="GL3" s="1">
+      <c r="GL3" s="21">
         <v>41832</v>
       </c>
-      <c r="GM3" s="1">
+      <c r="GM3" s="21">
         <v>41833</v>
       </c>
       <c r="GN3" s="1">
@@ -2747,10 +2839,10 @@
       <c r="GR3" s="1">
         <v>41838</v>
       </c>
-      <c r="GS3" s="1">
+      <c r="GS3" s="21">
         <v>41839</v>
       </c>
-      <c r="GT3" s="1">
+      <c r="GT3" s="21">
         <v>41840</v>
       </c>
       <c r="GU3" s="1">
@@ -2768,10 +2860,10 @@
       <c r="GY3" s="1">
         <v>41845</v>
       </c>
-      <c r="GZ3" s="1">
+      <c r="GZ3" s="21">
         <v>41846</v>
       </c>
-      <c r="HA3" s="1">
+      <c r="HA3" s="21">
         <v>41847</v>
       </c>
       <c r="HB3" s="1">
@@ -2789,10 +2881,10 @@
       <c r="HF3" s="1">
         <v>41852</v>
       </c>
-      <c r="HG3" s="1">
+      <c r="HG3" s="21">
         <v>41853</v>
       </c>
-      <c r="HH3" s="1">
+      <c r="HH3" s="21">
         <v>41854</v>
       </c>
       <c r="HI3" s="1">
@@ -2810,10 +2902,10 @@
       <c r="HM3" s="1">
         <v>41859</v>
       </c>
-      <c r="HN3" s="1">
+      <c r="HN3" s="21">
         <v>41860</v>
       </c>
-      <c r="HO3" s="1">
+      <c r="HO3" s="21">
         <v>41861</v>
       </c>
       <c r="HP3" s="1">
@@ -2831,10 +2923,10 @@
       <c r="HT3" s="1">
         <v>41866</v>
       </c>
-      <c r="HU3" s="1">
+      <c r="HU3" s="21">
         <v>41867</v>
       </c>
-      <c r="HV3" s="1">
+      <c r="HV3" s="21">
         <v>41868</v>
       </c>
       <c r="HW3" s="1">
@@ -2852,10 +2944,10 @@
       <c r="IA3" s="1">
         <v>41873</v>
       </c>
-      <c r="IB3" s="1">
+      <c r="IB3" s="21">
         <v>41874</v>
       </c>
-      <c r="IC3" s="1">
+      <c r="IC3" s="21">
         <v>41875</v>
       </c>
       <c r="ID3" s="1">
@@ -2873,10 +2965,10 @@
       <c r="IH3" s="1">
         <v>41880</v>
       </c>
-      <c r="II3" s="1">
+      <c r="II3" s="21">
         <v>41881</v>
       </c>
-      <c r="IJ3" s="1">
+      <c r="IJ3" s="21">
         <v>41882</v>
       </c>
       <c r="IK3" s="1">
@@ -2894,10 +2986,10 @@
       <c r="IO3" s="1">
         <v>41887</v>
       </c>
-      <c r="IP3" s="1">
+      <c r="IP3" s="21">
         <v>41888</v>
       </c>
-      <c r="IQ3" s="1">
+      <c r="IQ3" s="21">
         <v>41889</v>
       </c>
       <c r="IR3" s="1">
@@ -2915,10 +3007,10 @@
       <c r="IV3" s="1">
         <v>41894</v>
       </c>
-      <c r="IW3" s="1">
+      <c r="IW3" s="21">
         <v>41895</v>
       </c>
-      <c r="IX3" s="1">
+      <c r="IX3" s="21">
         <v>41896</v>
       </c>
       <c r="IY3" s="1">
@@ -2936,10 +3028,10 @@
       <c r="JC3" s="1">
         <v>41901</v>
       </c>
-      <c r="JD3" s="1">
+      <c r="JD3" s="21">
         <v>41902</v>
       </c>
-      <c r="JE3" s="1">
+      <c r="JE3" s="21">
         <v>41903</v>
       </c>
       <c r="JF3" s="1">
@@ -2957,10 +3049,10 @@
       <c r="JJ3" s="1">
         <v>41908</v>
       </c>
-      <c r="JK3" s="1">
+      <c r="JK3" s="21">
         <v>41909</v>
       </c>
-      <c r="JL3" s="1">
+      <c r="JL3" s="21">
         <v>41910</v>
       </c>
       <c r="JM3" s="1">
@@ -2978,10 +3070,10 @@
       <c r="JQ3" s="1">
         <v>41915</v>
       </c>
-      <c r="JR3" s="1">
+      <c r="JR3" s="21">
         <v>41916</v>
       </c>
-      <c r="JS3" s="1">
+      <c r="JS3" s="21">
         <v>41917</v>
       </c>
       <c r="JT3" s="1">
@@ -2999,10 +3091,10 @@
       <c r="JX3" s="1">
         <v>41922</v>
       </c>
-      <c r="JY3" s="1">
+      <c r="JY3" s="21">
         <v>41923</v>
       </c>
-      <c r="JZ3" s="1">
+      <c r="JZ3" s="21">
         <v>41924</v>
       </c>
       <c r="KA3" s="1">
@@ -3020,10 +3112,10 @@
       <c r="KE3" s="1">
         <v>41929</v>
       </c>
-      <c r="KF3" s="1">
+      <c r="KF3" s="21">
         <v>41930</v>
       </c>
-      <c r="KG3" s="1">
+      <c r="KG3" s="21">
         <v>41931</v>
       </c>
       <c r="KH3" s="1">
@@ -3041,10 +3133,10 @@
       <c r="KL3" s="1">
         <v>41936</v>
       </c>
-      <c r="KM3" s="1">
+      <c r="KM3" s="21">
         <v>41937</v>
       </c>
-      <c r="KN3" s="1">
+      <c r="KN3" s="21">
         <v>41938</v>
       </c>
       <c r="KO3" s="1">
@@ -3062,10 +3154,10 @@
       <c r="KS3" s="1">
         <v>41943</v>
       </c>
-      <c r="KT3" s="1">
+      <c r="KT3" s="21">
         <v>41944</v>
       </c>
-      <c r="KU3" s="1">
+      <c r="KU3" s="21">
         <v>41945</v>
       </c>
       <c r="KV3" s="1">
@@ -3083,10 +3175,10 @@
       <c r="KZ3" s="1">
         <v>41950</v>
       </c>
-      <c r="LA3" s="1">
+      <c r="LA3" s="21">
         <v>41951</v>
       </c>
-      <c r="LB3" s="1">
+      <c r="LB3" s="21">
         <v>41952</v>
       </c>
       <c r="LC3" s="1">
@@ -3104,10 +3196,10 @@
       <c r="LG3" s="1">
         <v>41957</v>
       </c>
-      <c r="LH3" s="1">
+      <c r="LH3" s="21">
         <v>41958</v>
       </c>
-      <c r="LI3" s="1">
+      <c r="LI3" s="21">
         <v>41959</v>
       </c>
       <c r="LJ3" s="1">
@@ -3125,10 +3217,10 @@
       <c r="LN3" s="1">
         <v>41964</v>
       </c>
-      <c r="LO3" s="1">
+      <c r="LO3" s="21">
         <v>41965</v>
       </c>
-      <c r="LP3" s="1">
+      <c r="LP3" s="21">
         <v>41966</v>
       </c>
       <c r="LQ3" s="1">
@@ -3146,10 +3238,10 @@
       <c r="LU3" s="1">
         <v>41971</v>
       </c>
-      <c r="LV3" s="1">
+      <c r="LV3" s="21">
         <v>41972</v>
       </c>
-      <c r="LW3" s="1">
+      <c r="LW3" s="21">
         <v>41973</v>
       </c>
       <c r="LX3" s="1">
@@ -3167,10 +3259,10 @@
       <c r="MB3" s="1">
         <v>41978</v>
       </c>
-      <c r="MC3" s="1">
+      <c r="MC3" s="21">
         <v>41979</v>
       </c>
-      <c r="MD3" s="1">
+      <c r="MD3" s="21">
         <v>41980</v>
       </c>
       <c r="ME3" s="1">
@@ -3188,10 +3280,10 @@
       <c r="MI3" s="1">
         <v>41985</v>
       </c>
-      <c r="MJ3" s="1">
+      <c r="MJ3" s="21">
         <v>41986</v>
       </c>
-      <c r="MK3" s="1">
+      <c r="MK3" s="21">
         <v>41987</v>
       </c>
       <c r="ML3" s="1">
@@ -3209,10 +3301,10 @@
       <c r="MP3" s="1">
         <v>41992</v>
       </c>
-      <c r="MQ3" s="1">
+      <c r="MQ3" s="21">
         <v>41993</v>
       </c>
-      <c r="MR3" s="1">
+      <c r="MR3" s="21">
         <v>41994</v>
       </c>
       <c r="MS3" s="1">
@@ -3230,10 +3322,10 @@
       <c r="MW3" s="1">
         <v>41999</v>
       </c>
-      <c r="MX3" s="1">
+      <c r="MX3" s="21">
         <v>42000</v>
       </c>
-      <c r="MY3" s="1">
+      <c r="MY3" s="21">
         <v>42001</v>
       </c>
       <c r="MZ3" s="1">
@@ -3330,288 +3422,288 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
+      <c r="CD4" s="21"/>
+      <c r="CE4" s="21"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
+      <c r="CK4" s="21"/>
+      <c r="CL4" s="21"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1"/>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
+      <c r="CR4" s="21"/>
+      <c r="CS4" s="21"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
       <c r="CX4" s="1"/>
-      <c r="CY4" s="1"/>
-      <c r="CZ4" s="1"/>
+      <c r="CY4" s="21"/>
+      <c r="CZ4" s="21"/>
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
       <c r="DD4" s="1"/>
       <c r="DE4" s="1"/>
-      <c r="DF4" s="1"/>
-      <c r="DG4" s="1"/>
+      <c r="DF4" s="21"/>
+      <c r="DG4" s="21"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="1"/>
-      <c r="DN4" s="1"/>
+      <c r="DM4" s="21"/>
+      <c r="DN4" s="21"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
       <c r="DR4" s="1"/>
       <c r="DS4" s="1"/>
-      <c r="DT4" s="1"/>
-      <c r="DU4" s="1"/>
+      <c r="DT4" s="21"/>
+      <c r="DU4" s="21"/>
       <c r="DV4" s="1"/>
       <c r="DW4" s="1"/>
       <c r="DX4" s="1"/>
       <c r="DY4" s="1"/>
       <c r="DZ4" s="1"/>
-      <c r="EA4" s="1"/>
-      <c r="EB4" s="1"/>
+      <c r="EA4" s="21"/>
+      <c r="EB4" s="21"/>
       <c r="EC4" s="1"/>
       <c r="ED4" s="1"/>
       <c r="EE4" s="1"/>
       <c r="EF4" s="1"/>
       <c r="EG4" s="1"/>
-      <c r="EH4" s="1"/>
-      <c r="EI4" s="1"/>
+      <c r="EH4" s="21"/>
+      <c r="EI4" s="21"/>
       <c r="EJ4" s="1"/>
       <c r="EK4" s="1"/>
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="1"/>
-      <c r="EP4" s="1"/>
+      <c r="EO4" s="21"/>
+      <c r="EP4" s="21"/>
       <c r="EQ4" s="1"/>
       <c r="ER4" s="1"/>
       <c r="ES4" s="1"/>
       <c r="ET4" s="1"/>
       <c r="EU4" s="1"/>
-      <c r="EV4" s="1"/>
-      <c r="EW4" s="1"/>
+      <c r="EV4" s="21"/>
+      <c r="EW4" s="21"/>
       <c r="EX4" s="1"/>
       <c r="EY4" s="1"/>
       <c r="EZ4" s="1"/>
       <c r="FA4" s="1"/>
       <c r="FB4" s="1"/>
-      <c r="FC4" s="1"/>
-      <c r="FD4" s="1"/>
+      <c r="FC4" s="21"/>
+      <c r="FD4" s="21"/>
       <c r="FE4" s="1"/>
       <c r="FF4" s="1"/>
       <c r="FG4" s="1"/>
       <c r="FH4" s="1"/>
       <c r="FI4" s="1"/>
-      <c r="FJ4" s="1"/>
-      <c r="FK4" s="1"/>
+      <c r="FJ4" s="21"/>
+      <c r="FK4" s="21"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
       <c r="FN4" s="1"/>
       <c r="FO4" s="1"/>
       <c r="FP4" s="1"/>
-      <c r="FQ4" s="1"/>
-      <c r="FR4" s="1"/>
+      <c r="FQ4" s="21"/>
+      <c r="FR4" s="21"/>
       <c r="FS4" s="1"/>
       <c r="FT4" s="1"/>
       <c r="FU4" s="1"/>
       <c r="FV4" s="1"/>
       <c r="FW4" s="1"/>
-      <c r="FX4" s="1"/>
-      <c r="FY4" s="1"/>
+      <c r="FX4" s="21"/>
+      <c r="FY4" s="21"/>
       <c r="FZ4" s="1"/>
       <c r="GA4" s="1"/>
       <c r="GB4" s="1"/>
       <c r="GC4" s="1"/>
       <c r="GD4" s="1"/>
-      <c r="GE4" s="1"/>
-      <c r="GF4" s="1"/>
+      <c r="GE4" s="21"/>
+      <c r="GF4" s="21"/>
       <c r="GG4" s="1"/>
       <c r="GH4" s="1"/>
       <c r="GI4" s="1"/>
       <c r="GJ4" s="1"/>
       <c r="GK4" s="1"/>
-      <c r="GL4" s="1"/>
-      <c r="GM4" s="1"/>
+      <c r="GL4" s="21"/>
+      <c r="GM4" s="21"/>
       <c r="GN4" s="1"/>
       <c r="GO4" s="1"/>
       <c r="GP4" s="1"/>
       <c r="GQ4" s="1"/>
       <c r="GR4" s="1"/>
-      <c r="GS4" s="1"/>
-      <c r="GT4" s="1"/>
+      <c r="GS4" s="21"/>
+      <c r="GT4" s="21"/>
       <c r="GU4" s="1"/>
       <c r="GV4" s="1"/>
       <c r="GW4" s="1"/>
       <c r="GX4" s="1"/>
       <c r="GY4" s="1"/>
-      <c r="GZ4" s="1"/>
-      <c r="HA4" s="1"/>
+      <c r="GZ4" s="21"/>
+      <c r="HA4" s="21"/>
       <c r="HB4" s="1"/>
       <c r="HC4" s="1"/>
       <c r="HD4" s="1"/>
       <c r="HE4" s="1"/>
       <c r="HF4" s="1"/>
-      <c r="HG4" s="1"/>
-      <c r="HH4" s="1"/>
+      <c r="HG4" s="21"/>
+      <c r="HH4" s="21"/>
       <c r="HI4" s="1"/>
       <c r="HJ4" s="1"/>
       <c r="HK4" s="1"/>
       <c r="HL4" s="1"/>
       <c r="HM4" s="1"/>
-      <c r="HN4" s="1"/>
-      <c r="HO4" s="1"/>
+      <c r="HN4" s="21"/>
+      <c r="HO4" s="21"/>
       <c r="HP4" s="1"/>
       <c r="HQ4" s="1"/>
       <c r="HR4" s="1"/>
       <c r="HS4" s="1"/>
       <c r="HT4" s="1"/>
-      <c r="HU4" s="1"/>
-      <c r="HV4" s="1"/>
+      <c r="HU4" s="21"/>
+      <c r="HV4" s="21"/>
       <c r="HW4" s="1"/>
       <c r="HX4" s="1"/>
       <c r="HY4" s="1"/>
       <c r="HZ4" s="1"/>
       <c r="IA4" s="1"/>
-      <c r="IB4" s="1"/>
-      <c r="IC4" s="1"/>
+      <c r="IB4" s="21"/>
+      <c r="IC4" s="21"/>
       <c r="ID4" s="1"/>
       <c r="IE4" s="1"/>
       <c r="IF4" s="1"/>
       <c r="IG4" s="1"/>
       <c r="IH4" s="1"/>
-      <c r="II4" s="1"/>
-      <c r="IJ4" s="1"/>
+      <c r="II4" s="21"/>
+      <c r="IJ4" s="21"/>
       <c r="IK4" s="1"/>
       <c r="IL4" s="1"/>
       <c r="IM4" s="1"/>
       <c r="IN4" s="1"/>
       <c r="IO4" s="1"/>
-      <c r="IP4" s="1"/>
-      <c r="IQ4" s="1"/>
+      <c r="IP4" s="21"/>
+      <c r="IQ4" s="21"/>
       <c r="IR4" s="1"/>
       <c r="IS4" s="1"/>
       <c r="IT4" s="1"/>
       <c r="IU4" s="1"/>
       <c r="IV4" s="1"/>
-      <c r="IW4" s="1"/>
-      <c r="IX4" s="1"/>
+      <c r="IW4" s="21"/>
+      <c r="IX4" s="21"/>
       <c r="IY4" s="1"/>
       <c r="IZ4" s="1"/>
       <c r="JA4" s="1"/>
       <c r="JB4" s="1"/>
       <c r="JC4" s="1"/>
-      <c r="JD4" s="1"/>
-      <c r="JE4" s="1"/>
+      <c r="JD4" s="21"/>
+      <c r="JE4" s="21"/>
       <c r="JF4" s="1"/>
       <c r="JG4" s="1"/>
       <c r="JH4" s="1"/>
       <c r="JI4" s="1"/>
       <c r="JJ4" s="1"/>
-      <c r="JK4" s="1"/>
-      <c r="JL4" s="1"/>
+      <c r="JK4" s="21"/>
+      <c r="JL4" s="21"/>
       <c r="JM4" s="1"/>
       <c r="JN4" s="1"/>
       <c r="JO4" s="1"/>
       <c r="JP4" s="1"/>
       <c r="JQ4" s="1"/>
-      <c r="JR4" s="1"/>
-      <c r="JS4" s="1"/>
+      <c r="JR4" s="21"/>
+      <c r="JS4" s="21"/>
       <c r="JT4" s="1"/>
       <c r="JU4" s="1"/>
       <c r="JV4" s="1"/>
       <c r="JW4" s="1"/>
       <c r="JX4" s="1"/>
-      <c r="JY4" s="1"/>
-      <c r="JZ4" s="1"/>
+      <c r="JY4" s="21"/>
+      <c r="JZ4" s="21"/>
       <c r="KA4" s="1"/>
       <c r="KB4" s="1"/>
       <c r="KC4" s="1"/>
       <c r="KD4" s="1"/>
       <c r="KE4" s="1"/>
-      <c r="KF4" s="1"/>
-      <c r="KG4" s="1"/>
+      <c r="KF4" s="21"/>
+      <c r="KG4" s="21"/>
       <c r="KH4" s="1"/>
       <c r="KI4" s="1"/>
       <c r="KJ4" s="1"/>
       <c r="KK4" s="1"/>
       <c r="KL4" s="1"/>
-      <c r="KM4" s="1"/>
-      <c r="KN4" s="1"/>
+      <c r="KM4" s="21"/>
+      <c r="KN4" s="21"/>
       <c r="KO4" s="1"/>
       <c r="KP4" s="1"/>
       <c r="KQ4" s="1"/>
       <c r="KR4" s="1"/>
       <c r="KS4" s="1"/>
-      <c r="KT4" s="1"/>
-      <c r="KU4" s="1"/>
+      <c r="KT4" s="21"/>
+      <c r="KU4" s="21"/>
       <c r="KV4" s="1"/>
       <c r="KW4" s="1"/>
       <c r="KX4" s="1"/>
       <c r="KY4" s="1"/>
       <c r="KZ4" s="1"/>
-      <c r="LA4" s="1"/>
-      <c r="LB4" s="1"/>
+      <c r="LA4" s="21"/>
+      <c r="LB4" s="21"/>
       <c r="LC4" s="1"/>
       <c r="LD4" s="1"/>
       <c r="LE4" s="1"/>
       <c r="LF4" s="1"/>
       <c r="LG4" s="1"/>
-      <c r="LH4" s="1"/>
-      <c r="LI4" s="1"/>
+      <c r="LH4" s="21"/>
+      <c r="LI4" s="21"/>
       <c r="LJ4" s="1"/>
       <c r="LK4" s="1"/>
       <c r="LL4" s="1"/>
       <c r="LM4" s="1"/>
       <c r="LN4" s="1"/>
-      <c r="LO4" s="1"/>
-      <c r="LP4" s="1"/>
+      <c r="LO4" s="21"/>
+      <c r="LP4" s="21"/>
       <c r="LQ4" s="1"/>
       <c r="LR4" s="1"/>
       <c r="LS4" s="1"/>
       <c r="LT4" s="1"/>
       <c r="LU4" s="1"/>
-      <c r="LV4" s="1"/>
-      <c r="LW4" s="1"/>
+      <c r="LV4" s="21"/>
+      <c r="LW4" s="21"/>
       <c r="LX4" s="1"/>
       <c r="LY4" s="1"/>
       <c r="LZ4" s="1"/>
       <c r="MA4" s="1"/>
       <c r="MB4" s="1"/>
-      <c r="MC4" s="1"/>
-      <c r="MD4" s="1"/>
+      <c r="MC4" s="21"/>
+      <c r="MD4" s="21"/>
       <c r="ME4" s="1"/>
       <c r="MF4" s="1"/>
       <c r="MG4" s="1"/>
       <c r="MH4" s="1"/>
       <c r="MI4" s="1"/>
-      <c r="MJ4" s="1"/>
-      <c r="MK4" s="1"/>
+      <c r="MJ4" s="21"/>
+      <c r="MK4" s="21"/>
       <c r="ML4" s="1"/>
       <c r="MM4" s="1"/>
       <c r="MN4" s="1"/>
       <c r="MO4" s="1"/>
       <c r="MP4" s="1"/>
-      <c r="MQ4" s="1"/>
-      <c r="MR4" s="1"/>
+      <c r="MQ4" s="21"/>
+      <c r="MR4" s="21"/>
       <c r="MS4" s="1"/>
       <c r="MT4" s="1"/>
       <c r="MU4" s="1"/>
       <c r="MV4" s="1"/>
       <c r="MW4" s="1"/>
-      <c r="MX4" s="1"/>
-      <c r="MY4" s="1"/>
+      <c r="MX4" s="21"/>
+      <c r="MY4" s="21"/>
       <c r="MZ4" s="1"/>
       <c r="NA4" s="1"/>
       <c r="NB4" s="1"/>
@@ -3724,10 +3816,10 @@
       <c r="CC5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE5" s="9" t="s">
+      <c r="CD5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="CF5" s="7"/>
@@ -3735,26 +3827,26 @@
       <c r="CH5" s="7"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
-      <c r="CK5" s="7"/>
-      <c r="CL5" s="7"/>
+      <c r="CK5" s="21"/>
+      <c r="CL5" s="21"/>
       <c r="CM5" s="7"/>
       <c r="CN5" s="7"/>
       <c r="CO5" s="7"/>
       <c r="CP5" s="7"/>
       <c r="CQ5" s="7"/>
-      <c r="CR5" s="7"/>
-      <c r="CS5" s="7"/>
+      <c r="CR5" s="21"/>
+      <c r="CS5" s="21"/>
       <c r="CT5" s="7"/>
       <c r="CU5" s="7"/>
       <c r="CV5" s="7"/>
       <c r="CW5" s="7"/>
-      <c r="CX5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ5" s="20" t="s">
+      <c r="CX5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="DA5" s="8" t="s">
@@ -3772,10 +3864,10 @@
       <c r="DE5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DF5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG5" s="9" t="s">
+      <c r="DF5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="DH5" s="8" t="s">
@@ -3783,253 +3875,253 @@
       </c>
       <c r="DK5" s="7"/>
       <c r="DL5" s="7"/>
-      <c r="DM5" s="7"/>
-      <c r="DN5" s="7"/>
+      <c r="DM5" s="21"/>
+      <c r="DN5" s="21"/>
       <c r="DO5" s="7"/>
       <c r="DP5" s="7"/>
       <c r="DQ5" s="7"/>
       <c r="DR5" s="7"/>
       <c r="DS5" s="7"/>
-      <c r="DT5" s="7"/>
-      <c r="DU5" s="7"/>
+      <c r="DT5" s="21"/>
+      <c r="DU5" s="21"/>
       <c r="DV5" s="7"/>
       <c r="DW5" s="7"/>
       <c r="DX5" s="7"/>
       <c r="DY5" s="7"/>
       <c r="DZ5" s="7"/>
-      <c r="EA5" s="7"/>
-      <c r="EB5" s="7"/>
+      <c r="EA5" s="21"/>
+      <c r="EB5" s="21"/>
       <c r="EC5" s="7"/>
       <c r="ED5" s="7"/>
       <c r="EE5" s="7"/>
       <c r="EF5" s="7"/>
       <c r="EG5" s="7"/>
-      <c r="EH5" s="7"/>
-      <c r="EI5" s="7"/>
+      <c r="EH5" s="21"/>
+      <c r="EI5" s="21"/>
       <c r="EJ5" s="7"/>
       <c r="EK5" s="7"/>
       <c r="EL5" s="7"/>
       <c r="EM5" s="7"/>
       <c r="EN5" s="7"/>
-      <c r="EO5" s="7"/>
-      <c r="EP5" s="7"/>
+      <c r="EO5" s="21"/>
+      <c r="EP5" s="21"/>
       <c r="EQ5" s="7"/>
       <c r="ER5" s="7"/>
       <c r="ES5" s="7"/>
       <c r="ET5" s="7"/>
       <c r="EU5" s="7"/>
-      <c r="EV5" s="7"/>
-      <c r="EW5" s="7"/>
+      <c r="EV5" s="21"/>
+      <c r="EW5" s="21"/>
       <c r="EX5" s="7"/>
       <c r="EY5" s="7"/>
       <c r="EZ5" s="7"/>
       <c r="FA5" s="7"/>
       <c r="FB5" s="7"/>
-      <c r="FC5" s="7"/>
-      <c r="FD5" s="7"/>
+      <c r="FC5" s="21"/>
+      <c r="FD5" s="21"/>
       <c r="FE5" s="7"/>
       <c r="FF5" s="7"/>
       <c r="FG5" s="7"/>
       <c r="FH5" s="7"/>
       <c r="FI5" s="7"/>
-      <c r="FJ5" s="7"/>
-      <c r="FK5" s="7"/>
+      <c r="FJ5" s="21"/>
+      <c r="FK5" s="21"/>
       <c r="FL5" s="7"/>
       <c r="FM5" s="7"/>
       <c r="FN5" s="7"/>
       <c r="FO5" s="7"/>
       <c r="FP5" s="7"/>
-      <c r="FQ5" s="7"/>
-      <c r="FR5" s="7"/>
+      <c r="FQ5" s="21"/>
+      <c r="FR5" s="21"/>
       <c r="FS5" s="7"/>
       <c r="FT5" s="7"/>
       <c r="FU5" s="7"/>
       <c r="FV5" s="7"/>
       <c r="FW5" s="7"/>
-      <c r="FX5" s="7"/>
-      <c r="FY5" s="7"/>
+      <c r="FX5" s="21"/>
+      <c r="FY5" s="21"/>
       <c r="FZ5" s="7"/>
       <c r="GA5" s="7"/>
       <c r="GB5" s="7"/>
       <c r="GC5" s="7"/>
       <c r="GD5" s="7"/>
-      <c r="GE5" s="7"/>
-      <c r="GF5" s="7"/>
+      <c r="GE5" s="21"/>
+      <c r="GF5" s="21"/>
       <c r="GG5" s="7"/>
       <c r="GH5" s="7"/>
       <c r="GI5" s="7"/>
       <c r="GJ5" s="7"/>
       <c r="GK5" s="7"/>
-      <c r="GL5" s="7"/>
-      <c r="GM5" s="7"/>
+      <c r="GL5" s="21"/>
+      <c r="GM5" s="21"/>
       <c r="GN5" s="7"/>
       <c r="GO5" s="7"/>
       <c r="GP5" s="7"/>
       <c r="GQ5" s="7"/>
       <c r="GR5" s="7"/>
-      <c r="GS5" s="7"/>
-      <c r="GT5" s="7"/>
+      <c r="GS5" s="21"/>
+      <c r="GT5" s="21"/>
       <c r="GU5" s="7"/>
       <c r="GV5" s="7"/>
       <c r="GW5" s="7"/>
       <c r="GX5" s="7"/>
       <c r="GY5" s="7"/>
-      <c r="GZ5" s="7"/>
-      <c r="HA5" s="7"/>
+      <c r="GZ5" s="21"/>
+      <c r="HA5" s="21"/>
       <c r="HB5" s="7"/>
       <c r="HC5" s="7"/>
       <c r="HD5" s="7"/>
       <c r="HE5" s="7"/>
       <c r="HF5" s="7"/>
-      <c r="HG5" s="7"/>
-      <c r="HH5" s="7"/>
+      <c r="HG5" s="21"/>
+      <c r="HH5" s="21"/>
       <c r="HI5" s="7"/>
       <c r="HJ5" s="7"/>
       <c r="HK5" s="7"/>
       <c r="HL5" s="7"/>
       <c r="HM5" s="7"/>
-      <c r="HN5" s="7"/>
-      <c r="HO5" s="7"/>
+      <c r="HN5" s="21"/>
+      <c r="HO5" s="21"/>
       <c r="HP5" s="7"/>
       <c r="HQ5" s="7"/>
       <c r="HR5" s="7"/>
       <c r="HS5" s="7"/>
       <c r="HT5" s="7"/>
-      <c r="HU5" s="7"/>
-      <c r="HV5" s="7"/>
+      <c r="HU5" s="21"/>
+      <c r="HV5" s="21"/>
       <c r="HW5" s="7"/>
       <c r="HX5" s="7"/>
       <c r="HY5" s="7"/>
       <c r="HZ5" s="7"/>
       <c r="IA5" s="7"/>
-      <c r="IB5" s="7"/>
-      <c r="IC5" s="7"/>
+      <c r="IB5" s="21"/>
+      <c r="IC5" s="21"/>
       <c r="ID5" s="7"/>
       <c r="IE5" s="7"/>
       <c r="IF5" s="7"/>
       <c r="IG5" s="7"/>
       <c r="IH5" s="7"/>
-      <c r="II5" s="7"/>
-      <c r="IJ5" s="7"/>
+      <c r="II5" s="21"/>
+      <c r="IJ5" s="21"/>
       <c r="IK5" s="7"/>
       <c r="IL5" s="7"/>
       <c r="IM5" s="7"/>
       <c r="IN5" s="7"/>
       <c r="IO5" s="7"/>
-      <c r="IP5" s="7"/>
-      <c r="IQ5" s="7"/>
+      <c r="IP5" s="21"/>
+      <c r="IQ5" s="21"/>
       <c r="IR5" s="7"/>
       <c r="IS5" s="7"/>
       <c r="IT5" s="7"/>
       <c r="IU5" s="7"/>
       <c r="IV5" s="7"/>
-      <c r="IW5" s="7"/>
-      <c r="IX5" s="7"/>
+      <c r="IW5" s="21"/>
+      <c r="IX5" s="21"/>
       <c r="IY5" s="7"/>
       <c r="IZ5" s="7"/>
       <c r="JA5" s="7"/>
       <c r="JB5" s="7"/>
       <c r="JC5" s="7"/>
-      <c r="JD5" s="7"/>
-      <c r="JE5" s="7"/>
+      <c r="JD5" s="21"/>
+      <c r="JE5" s="21"/>
       <c r="JF5" s="7"/>
       <c r="JG5" s="7"/>
       <c r="JH5" s="7"/>
       <c r="JI5" s="7"/>
       <c r="JJ5" s="7"/>
-      <c r="JK5" s="7"/>
-      <c r="JL5" s="7"/>
+      <c r="JK5" s="21"/>
+      <c r="JL5" s="21"/>
       <c r="JM5" s="7"/>
       <c r="JN5" s="7"/>
       <c r="JO5" s="7"/>
       <c r="JP5" s="7"/>
       <c r="JQ5" s="7"/>
-      <c r="JR5" s="7"/>
-      <c r="JS5" s="7"/>
+      <c r="JR5" s="21"/>
+      <c r="JS5" s="21"/>
       <c r="JT5" s="7"/>
       <c r="JU5" s="7"/>
       <c r="JV5" s="7"/>
       <c r="JW5" s="7"/>
       <c r="JX5" s="7"/>
-      <c r="JY5" s="7"/>
-      <c r="JZ5" s="7"/>
+      <c r="JY5" s="21"/>
+      <c r="JZ5" s="21"/>
       <c r="KA5" s="7"/>
       <c r="KB5" s="7"/>
       <c r="KC5" s="7"/>
       <c r="KD5" s="7"/>
       <c r="KE5" s="7"/>
-      <c r="KF5" s="7"/>
-      <c r="KG5" s="7"/>
+      <c r="KF5" s="21"/>
+      <c r="KG5" s="21"/>
       <c r="KH5" s="7"/>
       <c r="KI5" s="7"/>
       <c r="KJ5" s="7"/>
       <c r="KK5" s="7"/>
       <c r="KL5" s="7"/>
-      <c r="KM5" s="7"/>
-      <c r="KN5" s="7"/>
+      <c r="KM5" s="21"/>
+      <c r="KN5" s="21"/>
       <c r="KO5" s="7"/>
       <c r="KP5" s="7"/>
       <c r="KQ5" s="7"/>
       <c r="KR5" s="7"/>
       <c r="KS5" s="7"/>
-      <c r="KT5" s="7"/>
-      <c r="KU5" s="7"/>
+      <c r="KT5" s="21"/>
+      <c r="KU5" s="21"/>
       <c r="KV5" s="7"/>
       <c r="KW5" s="7"/>
       <c r="KX5" s="7"/>
       <c r="KY5" s="7"/>
       <c r="KZ5" s="7"/>
-      <c r="LA5" s="7"/>
-      <c r="LB5" s="7"/>
+      <c r="LA5" s="21"/>
+      <c r="LB5" s="21"/>
       <c r="LC5" s="7"/>
       <c r="LD5" s="7"/>
       <c r="LE5" s="7"/>
       <c r="LF5" s="7"/>
       <c r="LG5" s="7"/>
-      <c r="LH5" s="7"/>
-      <c r="LI5" s="7"/>
+      <c r="LH5" s="21"/>
+      <c r="LI5" s="21"/>
       <c r="LJ5" s="7"/>
       <c r="LK5" s="7"/>
       <c r="LL5" s="7"/>
       <c r="LM5" s="7"/>
       <c r="LN5" s="7"/>
-      <c r="LO5" s="7"/>
-      <c r="LP5" s="7"/>
+      <c r="LO5" s="21"/>
+      <c r="LP5" s="21"/>
       <c r="LQ5" s="7"/>
       <c r="LR5" s="7"/>
       <c r="LS5" s="7"/>
       <c r="LT5" s="7"/>
       <c r="LU5" s="7"/>
-      <c r="LV5" s="7"/>
-      <c r="LW5" s="7"/>
+      <c r="LV5" s="21"/>
+      <c r="LW5" s="21"/>
       <c r="LX5" s="7"/>
       <c r="LY5" s="7"/>
       <c r="LZ5" s="7"/>
       <c r="MA5" s="7"/>
       <c r="MB5" s="7"/>
-      <c r="MC5" s="7"/>
-      <c r="MD5" s="7"/>
+      <c r="MC5" s="21"/>
+      <c r="MD5" s="21"/>
       <c r="ME5" s="7"/>
       <c r="MF5" s="7"/>
       <c r="MG5" s="7"/>
       <c r="MH5" s="7"/>
       <c r="MI5" s="7"/>
-      <c r="MJ5" s="7"/>
-      <c r="MK5" s="7"/>
+      <c r="MJ5" s="21"/>
+      <c r="MK5" s="21"/>
       <c r="ML5" s="7"/>
       <c r="MM5" s="7"/>
       <c r="MN5" s="7"/>
       <c r="MO5" s="7"/>
       <c r="MP5" s="7"/>
-      <c r="MQ5" s="7"/>
-      <c r="MR5" s="7"/>
+      <c r="MQ5" s="21"/>
+      <c r="MR5" s="21"/>
       <c r="MS5" s="7"/>
       <c r="MT5" s="7"/>
       <c r="MU5" s="7"/>
       <c r="MV5" s="7"/>
       <c r="MW5" s="7"/>
-      <c r="MX5" s="7"/>
-      <c r="MY5" s="7"/>
+      <c r="MX5" s="21"/>
+      <c r="MY5" s="21"/>
       <c r="MZ5" s="7"/>
       <c r="NA5" s="7"/>
       <c r="NB5" s="7"/>
@@ -4120,288 +4212,288 @@
       <c r="CA6" s="1"/>
       <c r="CB6" s="1"/>
       <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1"/>
-      <c r="CR6" s="1"/>
-      <c r="CS6" s="1"/>
+      <c r="CR6" s="21"/>
+      <c r="CS6" s="21"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
       <c r="CW6" s="1"/>
       <c r="CX6" s="1"/>
-      <c r="CY6" s="1"/>
-      <c r="CZ6" s="1"/>
+      <c r="CY6" s="21"/>
+      <c r="CZ6" s="21"/>
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
       <c r="DD6" s="1"/>
       <c r="DE6" s="1"/>
-      <c r="DF6" s="1"/>
-      <c r="DG6" s="1"/>
+      <c r="DF6" s="21"/>
+      <c r="DG6" s="21"/>
       <c r="DH6" s="1"/>
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="1"/>
       <c r="DL6" s="1"/>
-      <c r="DM6" s="1"/>
-      <c r="DN6" s="1"/>
+      <c r="DM6" s="21"/>
+      <c r="DN6" s="21"/>
       <c r="DO6" s="1"/>
       <c r="DP6" s="1"/>
       <c r="DQ6" s="1"/>
       <c r="DR6" s="1"/>
       <c r="DS6" s="1"/>
-      <c r="DT6" s="1"/>
-      <c r="DU6" s="1"/>
+      <c r="DT6" s="21"/>
+      <c r="DU6" s="21"/>
       <c r="DV6" s="1"/>
       <c r="DW6" s="1"/>
       <c r="DX6" s="1"/>
       <c r="DY6" s="1"/>
       <c r="DZ6" s="1"/>
-      <c r="EA6" s="1"/>
-      <c r="EB6" s="1"/>
+      <c r="EA6" s="21"/>
+      <c r="EB6" s="21"/>
       <c r="EC6" s="1"/>
       <c r="ED6" s="1"/>
       <c r="EE6" s="1"/>
       <c r="EF6" s="1"/>
       <c r="EG6" s="1"/>
-      <c r="EH6" s="1"/>
-      <c r="EI6" s="1"/>
+      <c r="EH6" s="21"/>
+      <c r="EI6" s="21"/>
       <c r="EJ6" s="1"/>
       <c r="EK6" s="1"/>
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="1"/>
-      <c r="EP6" s="1"/>
+      <c r="EO6" s="21"/>
+      <c r="EP6" s="21"/>
       <c r="EQ6" s="1"/>
       <c r="ER6" s="1"/>
       <c r="ES6" s="1"/>
       <c r="ET6" s="1"/>
       <c r="EU6" s="1"/>
-      <c r="EV6" s="1"/>
-      <c r="EW6" s="1"/>
+      <c r="EV6" s="21"/>
+      <c r="EW6" s="21"/>
       <c r="EX6" s="1"/>
       <c r="EY6" s="1"/>
       <c r="EZ6" s="1"/>
       <c r="FA6" s="1"/>
       <c r="FB6" s="1"/>
-      <c r="FC6" s="1"/>
-      <c r="FD6" s="1"/>
+      <c r="FC6" s="21"/>
+      <c r="FD6" s="21"/>
       <c r="FE6" s="1"/>
       <c r="FF6" s="1"/>
       <c r="FG6" s="1"/>
       <c r="FH6" s="1"/>
       <c r="FI6" s="1"/>
-      <c r="FJ6" s="1"/>
-      <c r="FK6" s="1"/>
+      <c r="FJ6" s="21"/>
+      <c r="FK6" s="21"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
       <c r="FN6" s="1"/>
       <c r="FO6" s="1"/>
       <c r="FP6" s="1"/>
-      <c r="FQ6" s="1"/>
-      <c r="FR6" s="1"/>
+      <c r="FQ6" s="21"/>
+      <c r="FR6" s="21"/>
       <c r="FS6" s="1"/>
       <c r="FT6" s="1"/>
       <c r="FU6" s="1"/>
       <c r="FV6" s="1"/>
       <c r="FW6" s="1"/>
-      <c r="FX6" s="1"/>
-      <c r="FY6" s="1"/>
+      <c r="FX6" s="21"/>
+      <c r="FY6" s="21"/>
       <c r="FZ6" s="1"/>
       <c r="GA6" s="1"/>
       <c r="GB6" s="1"/>
       <c r="GC6" s="1"/>
       <c r="GD6" s="1"/>
-      <c r="GE6" s="1"/>
-      <c r="GF6" s="1"/>
+      <c r="GE6" s="21"/>
+      <c r="GF6" s="21"/>
       <c r="GG6" s="1"/>
       <c r="GH6" s="1"/>
       <c r="GI6" s="1"/>
       <c r="GJ6" s="1"/>
       <c r="GK6" s="1"/>
-      <c r="GL6" s="1"/>
-      <c r="GM6" s="1"/>
+      <c r="GL6" s="21"/>
+      <c r="GM6" s="21"/>
       <c r="GN6" s="1"/>
       <c r="GO6" s="1"/>
       <c r="GP6" s="1"/>
       <c r="GQ6" s="1"/>
       <c r="GR6" s="1"/>
-      <c r="GS6" s="1"/>
-      <c r="GT6" s="1"/>
+      <c r="GS6" s="21"/>
+      <c r="GT6" s="21"/>
       <c r="GU6" s="1"/>
       <c r="GV6" s="1"/>
       <c r="GW6" s="1"/>
       <c r="GX6" s="1"/>
       <c r="GY6" s="1"/>
-      <c r="GZ6" s="1"/>
-      <c r="HA6" s="1"/>
+      <c r="GZ6" s="21"/>
+      <c r="HA6" s="21"/>
       <c r="HB6" s="1"/>
       <c r="HC6" s="1"/>
       <c r="HD6" s="1"/>
       <c r="HE6" s="1"/>
       <c r="HF6" s="1"/>
-      <c r="HG6" s="1"/>
-      <c r="HH6" s="1"/>
+      <c r="HG6" s="21"/>
+      <c r="HH6" s="21"/>
       <c r="HI6" s="1"/>
       <c r="HJ6" s="1"/>
       <c r="HK6" s="1"/>
       <c r="HL6" s="1"/>
       <c r="HM6" s="1"/>
-      <c r="HN6" s="1"/>
-      <c r="HO6" s="1"/>
+      <c r="HN6" s="21"/>
+      <c r="HO6" s="21"/>
       <c r="HP6" s="1"/>
       <c r="HQ6" s="1"/>
       <c r="HR6" s="1"/>
       <c r="HS6" s="1"/>
       <c r="HT6" s="1"/>
-      <c r="HU6" s="1"/>
-      <c r="HV6" s="1"/>
+      <c r="HU6" s="21"/>
+      <c r="HV6" s="21"/>
       <c r="HW6" s="1"/>
       <c r="HX6" s="1"/>
       <c r="HY6" s="1"/>
       <c r="HZ6" s="1"/>
       <c r="IA6" s="1"/>
-      <c r="IB6" s="1"/>
-      <c r="IC6" s="1"/>
+      <c r="IB6" s="21"/>
+      <c r="IC6" s="21"/>
       <c r="ID6" s="1"/>
       <c r="IE6" s="1"/>
       <c r="IF6" s="1"/>
       <c r="IG6" s="1"/>
       <c r="IH6" s="1"/>
-      <c r="II6" s="1"/>
-      <c r="IJ6" s="1"/>
+      <c r="II6" s="21"/>
+      <c r="IJ6" s="21"/>
       <c r="IK6" s="1"/>
       <c r="IL6" s="1"/>
       <c r="IM6" s="1"/>
       <c r="IN6" s="1"/>
       <c r="IO6" s="1"/>
-      <c r="IP6" s="1"/>
-      <c r="IQ6" s="1"/>
+      <c r="IP6" s="21"/>
+      <c r="IQ6" s="21"/>
       <c r="IR6" s="1"/>
       <c r="IS6" s="1"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
-      <c r="IW6" s="1"/>
-      <c r="IX6" s="1"/>
+      <c r="IW6" s="21"/>
+      <c r="IX6" s="21"/>
       <c r="IY6" s="1"/>
       <c r="IZ6" s="1"/>
       <c r="JA6" s="1"/>
       <c r="JB6" s="1"/>
       <c r="JC6" s="1"/>
-      <c r="JD6" s="1"/>
-      <c r="JE6" s="1"/>
+      <c r="JD6" s="21"/>
+      <c r="JE6" s="21"/>
       <c r="JF6" s="1"/>
       <c r="JG6" s="1"/>
       <c r="JH6" s="1"/>
       <c r="JI6" s="1"/>
       <c r="JJ6" s="1"/>
-      <c r="JK6" s="1"/>
-      <c r="JL6" s="1"/>
+      <c r="JK6" s="21"/>
+      <c r="JL6" s="21"/>
       <c r="JM6" s="1"/>
       <c r="JN6" s="1"/>
       <c r="JO6" s="1"/>
       <c r="JP6" s="1"/>
       <c r="JQ6" s="1"/>
-      <c r="JR6" s="1"/>
-      <c r="JS6" s="1"/>
+      <c r="JR6" s="21"/>
+      <c r="JS6" s="21"/>
       <c r="JT6" s="1"/>
       <c r="JU6" s="1"/>
       <c r="JV6" s="1"/>
       <c r="JW6" s="1"/>
       <c r="JX6" s="1"/>
-      <c r="JY6" s="1"/>
-      <c r="JZ6" s="1"/>
+      <c r="JY6" s="21"/>
+      <c r="JZ6" s="21"/>
       <c r="KA6" s="1"/>
       <c r="KB6" s="1"/>
       <c r="KC6" s="1"/>
       <c r="KD6" s="1"/>
       <c r="KE6" s="1"/>
-      <c r="KF6" s="1"/>
-      <c r="KG6" s="1"/>
+      <c r="KF6" s="21"/>
+      <c r="KG6" s="21"/>
       <c r="KH6" s="1"/>
       <c r="KI6" s="1"/>
       <c r="KJ6" s="1"/>
       <c r="KK6" s="1"/>
       <c r="KL6" s="1"/>
-      <c r="KM6" s="1"/>
-      <c r="KN6" s="1"/>
+      <c r="KM6" s="21"/>
+      <c r="KN6" s="21"/>
       <c r="KO6" s="1"/>
       <c r="KP6" s="1"/>
       <c r="KQ6" s="1"/>
       <c r="KR6" s="1"/>
       <c r="KS6" s="1"/>
-      <c r="KT6" s="1"/>
-      <c r="KU6" s="1"/>
+      <c r="KT6" s="21"/>
+      <c r="KU6" s="21"/>
       <c r="KV6" s="1"/>
       <c r="KW6" s="1"/>
       <c r="KX6" s="1"/>
       <c r="KY6" s="1"/>
       <c r="KZ6" s="1"/>
-      <c r="LA6" s="1"/>
-      <c r="LB6" s="1"/>
+      <c r="LA6" s="21"/>
+      <c r="LB6" s="21"/>
       <c r="LC6" s="1"/>
       <c r="LD6" s="1"/>
       <c r="LE6" s="1"/>
       <c r="LF6" s="1"/>
       <c r="LG6" s="1"/>
-      <c r="LH6" s="1"/>
-      <c r="LI6" s="1"/>
+      <c r="LH6" s="21"/>
+      <c r="LI6" s="21"/>
       <c r="LJ6" s="1"/>
       <c r="LK6" s="1"/>
       <c r="LL6" s="1"/>
       <c r="LM6" s="1"/>
       <c r="LN6" s="1"/>
-      <c r="LO6" s="1"/>
-      <c r="LP6" s="1"/>
+      <c r="LO6" s="21"/>
+      <c r="LP6" s="21"/>
       <c r="LQ6" s="1"/>
       <c r="LR6" s="1"/>
       <c r="LS6" s="1"/>
       <c r="LT6" s="1"/>
       <c r="LU6" s="1"/>
-      <c r="LV6" s="1"/>
-      <c r="LW6" s="1"/>
+      <c r="LV6" s="21"/>
+      <c r="LW6" s="21"/>
       <c r="LX6" s="1"/>
       <c r="LY6" s="1"/>
       <c r="LZ6" s="1"/>
       <c r="MA6" s="1"/>
       <c r="MB6" s="1"/>
-      <c r="MC6" s="1"/>
-      <c r="MD6" s="1"/>
+      <c r="MC6" s="21"/>
+      <c r="MD6" s="21"/>
       <c r="ME6" s="1"/>
       <c r="MF6" s="1"/>
       <c r="MG6" s="1"/>
       <c r="MH6" s="1"/>
       <c r="MI6" s="1"/>
-      <c r="MJ6" s="1"/>
-      <c r="MK6" s="1"/>
+      <c r="MJ6" s="21"/>
+      <c r="MK6" s="21"/>
       <c r="ML6" s="1"/>
       <c r="MM6" s="1"/>
       <c r="MN6" s="1"/>
       <c r="MO6" s="1"/>
       <c r="MP6" s="1"/>
-      <c r="MQ6" s="1"/>
-      <c r="MR6" s="1"/>
+      <c r="MQ6" s="21"/>
+      <c r="MR6" s="21"/>
       <c r="MS6" s="1"/>
       <c r="MT6" s="1"/>
       <c r="MU6" s="1"/>
       <c r="MV6" s="1"/>
       <c r="MW6" s="1"/>
-      <c r="MX6" s="1"/>
-      <c r="MY6" s="1"/>
+      <c r="MX6" s="21"/>
+      <c r="MY6" s="21"/>
       <c r="MZ6" s="1"/>
       <c r="NA6" s="1"/>
       <c r="NB6" s="1"/>
@@ -4493,43 +4585,43 @@
       <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
-      <c r="CD7" s="7"/>
-      <c r="CE7" s="7"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
       <c r="CF7" s="7"/>
       <c r="CG7" s="7"/>
       <c r="CH7" s="7"/>
       <c r="CI7" s="7"/>
       <c r="CJ7" s="7"/>
-      <c r="CK7" s="7"/>
-      <c r="CL7" s="7"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
       <c r="CM7" s="7"/>
       <c r="CN7" s="7"/>
       <c r="CO7" s="7"/>
       <c r="CP7" s="7"/>
       <c r="CQ7" s="7"/>
-      <c r="CR7" s="7"/>
-      <c r="CS7" s="7"/>
+      <c r="CR7" s="21"/>
+      <c r="CS7" s="21"/>
       <c r="CT7" s="7"/>
       <c r="CU7" s="7"/>
       <c r="CV7" s="7"/>
       <c r="CW7" s="7"/>
       <c r="CX7" s="7"/>
-      <c r="CY7" s="7"/>
-      <c r="CZ7" s="7"/>
+      <c r="CY7" s="21"/>
+      <c r="CZ7" s="21"/>
       <c r="DA7" s="7"/>
       <c r="DB7" s="7"/>
       <c r="DC7" s="7"/>
       <c r="DD7" s="7"/>
       <c r="DE7" s="7"/>
-      <c r="DF7" s="7"/>
-      <c r="DG7" s="7"/>
+      <c r="DF7" s="21"/>
+      <c r="DG7" s="21"/>
       <c r="DH7" s="7"/>
       <c r="DI7" s="7"/>
       <c r="DJ7" s="7"/>
       <c r="DK7" s="7"/>
       <c r="DL7" s="7"/>
-      <c r="DM7" s="7"/>
-      <c r="DN7" s="7"/>
+      <c r="DM7" s="21"/>
+      <c r="DN7" s="21"/>
       <c r="DO7" s="8" t="s">
         <v>13</v>
       </c>
@@ -4545,10 +4637,10 @@
       <c r="DS7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DT7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="DU7" s="9" t="s">
+      <c r="DT7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DU7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="DV7" s="8" t="s">
@@ -4566,241 +4658,241 @@
       <c r="DZ7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="EA7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="EB7" s="7"/>
+      <c r="EA7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="EB7" s="21"/>
       <c r="EC7" s="7"/>
       <c r="ED7" s="7"/>
       <c r="EE7" s="7"/>
       <c r="EF7" s="7"/>
       <c r="EG7" s="7"/>
-      <c r="EH7" s="7"/>
-      <c r="EI7" s="7"/>
+      <c r="EH7" s="21"/>
+      <c r="EI7" s="21"/>
       <c r="EJ7" s="7"/>
       <c r="EK7" s="7"/>
       <c r="EL7" s="7"/>
       <c r="EM7" s="7"/>
       <c r="EN7" s="7"/>
-      <c r="EO7" s="7"/>
-      <c r="EP7" s="7"/>
+      <c r="EO7" s="21"/>
+      <c r="EP7" s="21"/>
       <c r="EQ7" s="7"/>
       <c r="ER7" s="7"/>
       <c r="ES7" s="7"/>
       <c r="ET7" s="7"/>
       <c r="EU7" s="7"/>
-      <c r="EV7" s="7"/>
-      <c r="EW7" s="7"/>
+      <c r="EV7" s="21"/>
+      <c r="EW7" s="21"/>
       <c r="EX7" s="7"/>
       <c r="EY7" s="7"/>
       <c r="EZ7" s="7"/>
       <c r="FA7" s="7"/>
       <c r="FB7" s="7"/>
-      <c r="FC7" s="7"/>
-      <c r="FD7" s="7"/>
+      <c r="FC7" s="21"/>
+      <c r="FD7" s="21"/>
       <c r="FE7" s="7"/>
       <c r="FF7" s="7"/>
       <c r="FG7" s="7"/>
       <c r="FH7" s="7"/>
       <c r="FI7" s="7"/>
-      <c r="FJ7" s="7"/>
-      <c r="FK7" s="7"/>
+      <c r="FJ7" s="21"/>
+      <c r="FK7" s="21"/>
       <c r="FL7" s="7"/>
       <c r="FM7" s="7"/>
       <c r="FN7" s="7"/>
       <c r="FO7" s="7"/>
       <c r="FP7" s="7"/>
-      <c r="FQ7" s="7"/>
-      <c r="FR7" s="7"/>
+      <c r="FQ7" s="21"/>
+      <c r="FR7" s="21"/>
       <c r="FS7" s="7"/>
       <c r="FT7" s="7"/>
       <c r="FU7" s="7"/>
       <c r="FV7" s="7"/>
       <c r="FW7" s="7"/>
-      <c r="FX7" s="7"/>
-      <c r="FY7" s="7"/>
+      <c r="FX7" s="21"/>
+      <c r="FY7" s="21"/>
       <c r="FZ7" s="7"/>
       <c r="GA7" s="7"/>
       <c r="GB7" s="7"/>
       <c r="GC7" s="7"/>
       <c r="GD7" s="7"/>
-      <c r="GE7" s="7"/>
-      <c r="GF7" s="7"/>
+      <c r="GE7" s="21"/>
+      <c r="GF7" s="21"/>
       <c r="GG7" s="7"/>
       <c r="GH7" s="7"/>
       <c r="GI7" s="7"/>
       <c r="GJ7" s="7"/>
       <c r="GK7" s="7"/>
-      <c r="GL7" s="7"/>
-      <c r="GM7" s="7"/>
+      <c r="GL7" s="21"/>
+      <c r="GM7" s="21"/>
       <c r="GN7" s="7"/>
       <c r="GO7" s="7"/>
       <c r="GP7" s="7"/>
       <c r="GQ7" s="7"/>
       <c r="GR7" s="7"/>
-      <c r="GS7" s="7"/>
-      <c r="GT7" s="7"/>
+      <c r="GS7" s="21"/>
+      <c r="GT7" s="21"/>
       <c r="GU7" s="7"/>
       <c r="GV7" s="7"/>
       <c r="GW7" s="7"/>
       <c r="GX7" s="7"/>
       <c r="GY7" s="7"/>
-      <c r="GZ7" s="7"/>
-      <c r="HA7" s="7"/>
+      <c r="GZ7" s="21"/>
+      <c r="HA7" s="21"/>
       <c r="HB7" s="7"/>
       <c r="HC7" s="7"/>
       <c r="HD7" s="7"/>
       <c r="HE7" s="7"/>
       <c r="HF7" s="7"/>
-      <c r="HG7" s="7"/>
-      <c r="HH7" s="7"/>
+      <c r="HG7" s="21"/>
+      <c r="HH7" s="21"/>
       <c r="HI7" s="7"/>
       <c r="HJ7" s="7"/>
       <c r="HK7" s="7"/>
       <c r="HL7" s="7"/>
       <c r="HM7" s="7"/>
-      <c r="HN7" s="7"/>
-      <c r="HO7" s="7"/>
+      <c r="HN7" s="21"/>
+      <c r="HO7" s="21"/>
       <c r="HP7" s="7"/>
       <c r="HQ7" s="7"/>
       <c r="HR7" s="7"/>
       <c r="HS7" s="7"/>
       <c r="HT7" s="7"/>
-      <c r="HU7" s="7"/>
-      <c r="HV7" s="7"/>
+      <c r="HU7" s="21"/>
+      <c r="HV7" s="21"/>
       <c r="HW7" s="7"/>
       <c r="HX7" s="7"/>
       <c r="HY7" s="7"/>
       <c r="HZ7" s="7"/>
       <c r="IA7" s="7"/>
-      <c r="IB7" s="7"/>
-      <c r="IC7" s="7"/>
+      <c r="IB7" s="21"/>
+      <c r="IC7" s="21"/>
       <c r="ID7" s="7"/>
       <c r="IE7" s="7"/>
       <c r="IF7" s="7"/>
       <c r="IG7" s="7"/>
       <c r="IH7" s="7"/>
-      <c r="II7" s="7"/>
-      <c r="IJ7" s="7"/>
+      <c r="II7" s="21"/>
+      <c r="IJ7" s="21"/>
       <c r="IK7" s="7"/>
       <c r="IL7" s="7"/>
       <c r="IM7" s="7"/>
       <c r="IN7" s="7"/>
       <c r="IO7" s="7"/>
-      <c r="IP7" s="7"/>
-      <c r="IQ7" s="7"/>
+      <c r="IP7" s="21"/>
+      <c r="IQ7" s="21"/>
       <c r="IR7" s="7"/>
       <c r="IS7" s="7"/>
       <c r="IT7" s="7"/>
       <c r="IU7" s="7"/>
       <c r="IV7" s="7"/>
-      <c r="IW7" s="7"/>
-      <c r="IX7" s="7"/>
+      <c r="IW7" s="21"/>
+      <c r="IX7" s="21"/>
       <c r="IY7" s="7"/>
       <c r="IZ7" s="7"/>
       <c r="JA7" s="7"/>
       <c r="JB7" s="7"/>
       <c r="JC7" s="7"/>
-      <c r="JD7" s="7"/>
-      <c r="JE7" s="7"/>
+      <c r="JD7" s="21"/>
+      <c r="JE7" s="21"/>
       <c r="JF7" s="7"/>
       <c r="JG7" s="7"/>
       <c r="JH7" s="7"/>
       <c r="JI7" s="7"/>
       <c r="JJ7" s="7"/>
-      <c r="JK7" s="7"/>
-      <c r="JL7" s="7"/>
+      <c r="JK7" s="21"/>
+      <c r="JL7" s="21"/>
       <c r="JM7" s="7"/>
       <c r="JN7" s="7"/>
       <c r="JO7" s="7"/>
       <c r="JP7" s="7"/>
       <c r="JQ7" s="7"/>
-      <c r="JR7" s="7"/>
-      <c r="JS7" s="7"/>
+      <c r="JR7" s="21"/>
+      <c r="JS7" s="21"/>
       <c r="JT7" s="7"/>
       <c r="JU7" s="7"/>
       <c r="JV7" s="7"/>
       <c r="JW7" s="7"/>
       <c r="JX7" s="7"/>
-      <c r="JY7" s="7"/>
-      <c r="JZ7" s="7"/>
+      <c r="JY7" s="21"/>
+      <c r="JZ7" s="21"/>
       <c r="KA7" s="7"/>
       <c r="KB7" s="7"/>
       <c r="KC7" s="7"/>
       <c r="KD7" s="7"/>
       <c r="KE7" s="7"/>
-      <c r="KF7" s="7"/>
-      <c r="KG7" s="7"/>
+      <c r="KF7" s="21"/>
+      <c r="KG7" s="21"/>
       <c r="KH7" s="7"/>
       <c r="KI7" s="7"/>
       <c r="KJ7" s="7"/>
       <c r="KK7" s="7"/>
       <c r="KL7" s="7"/>
-      <c r="KM7" s="7"/>
-      <c r="KN7" s="7"/>
+      <c r="KM7" s="21"/>
+      <c r="KN7" s="21"/>
       <c r="KO7" s="7"/>
       <c r="KP7" s="7"/>
       <c r="KQ7" s="7"/>
       <c r="KR7" s="7"/>
       <c r="KS7" s="7"/>
-      <c r="KT7" s="7"/>
-      <c r="KU7" s="7"/>
+      <c r="KT7" s="21"/>
+      <c r="KU7" s="21"/>
       <c r="KV7" s="7"/>
       <c r="KW7" s="7"/>
       <c r="KX7" s="7"/>
       <c r="KY7" s="7"/>
       <c r="KZ7" s="7"/>
-      <c r="LA7" s="7"/>
-      <c r="LB7" s="7"/>
+      <c r="LA7" s="21"/>
+      <c r="LB7" s="21"/>
       <c r="LC7" s="7"/>
       <c r="LD7" s="7"/>
       <c r="LE7" s="7"/>
       <c r="LF7" s="7"/>
       <c r="LG7" s="7"/>
-      <c r="LH7" s="7"/>
-      <c r="LI7" s="7"/>
+      <c r="LH7" s="21"/>
+      <c r="LI7" s="21"/>
       <c r="LJ7" s="7"/>
       <c r="LK7" s="7"/>
       <c r="LL7" s="7"/>
       <c r="LM7" s="7"/>
       <c r="LN7" s="7"/>
-      <c r="LO7" s="7"/>
-      <c r="LP7" s="7"/>
+      <c r="LO7" s="21"/>
+      <c r="LP7" s="21"/>
       <c r="LQ7" s="7"/>
       <c r="LR7" s="7"/>
       <c r="LS7" s="7"/>
       <c r="LT7" s="7"/>
       <c r="LU7" s="7"/>
-      <c r="LV7" s="7"/>
-      <c r="LW7" s="7"/>
+      <c r="LV7" s="21"/>
+      <c r="LW7" s="21"/>
       <c r="LX7" s="7"/>
       <c r="LY7" s="7"/>
       <c r="LZ7" s="7"/>
       <c r="MA7" s="7"/>
       <c r="MB7" s="7"/>
-      <c r="MC7" s="7"/>
-      <c r="MD7" s="7"/>
+      <c r="MC7" s="21"/>
+      <c r="MD7" s="21"/>
       <c r="ME7" s="7"/>
       <c r="MF7" s="7"/>
       <c r="MG7" s="7"/>
       <c r="MH7" s="7"/>
       <c r="MI7" s="7"/>
-      <c r="MJ7" s="7"/>
-      <c r="MK7" s="7"/>
+      <c r="MJ7" s="21"/>
+      <c r="MK7" s="21"/>
       <c r="ML7" s="7"/>
       <c r="MM7" s="7"/>
       <c r="MN7" s="7"/>
       <c r="MO7" s="7"/>
       <c r="MP7" s="7"/>
-      <c r="MQ7" s="7"/>
-      <c r="MR7" s="7"/>
+      <c r="MQ7" s="21"/>
+      <c r="MR7" s="21"/>
       <c r="MS7" s="7"/>
       <c r="MT7" s="7"/>
       <c r="MU7" s="7"/>
       <c r="MV7" s="7"/>
       <c r="MW7" s="7"/>
-      <c r="MX7" s="7"/>
-      <c r="MY7" s="7"/>
+      <c r="MX7" s="21"/>
+      <c r="MY7" s="21"/>
       <c r="MZ7" s="7"/>
       <c r="NA7" s="7"/>
       <c r="NB7" s="7"/>
@@ -4899,288 +4991,288 @@
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
+      <c r="CK8" s="21"/>
+      <c r="CL8" s="21"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1"/>
       <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
+      <c r="CR8" s="21"/>
+      <c r="CS8" s="21"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
       <c r="CW8" s="1"/>
       <c r="CX8" s="1"/>
-      <c r="CY8" s="1"/>
-      <c r="CZ8" s="1"/>
+      <c r="CY8" s="21"/>
+      <c r="CZ8" s="21"/>
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
       <c r="DD8" s="1"/>
       <c r="DE8" s="1"/>
-      <c r="DF8" s="1"/>
-      <c r="DG8" s="1"/>
+      <c r="DF8" s="21"/>
+      <c r="DG8" s="21"/>
       <c r="DH8" s="1"/>
       <c r="DI8" s="1"/>
       <c r="DJ8" s="1"/>
       <c r="DK8" s="1"/>
       <c r="DL8" s="1"/>
-      <c r="DM8" s="1"/>
-      <c r="DN8" s="1"/>
+      <c r="DM8" s="21"/>
+      <c r="DN8" s="21"/>
       <c r="DO8" s="1"/>
       <c r="DP8" s="1"/>
       <c r="DQ8" s="1"/>
       <c r="DR8" s="1"/>
       <c r="DS8" s="1"/>
-      <c r="DT8" s="1"/>
-      <c r="DU8" s="1"/>
+      <c r="DT8" s="21"/>
+      <c r="DU8" s="21"/>
       <c r="DV8" s="1"/>
       <c r="DW8" s="1"/>
       <c r="DX8" s="1"/>
       <c r="DY8" s="1"/>
       <c r="DZ8" s="1"/>
-      <c r="EA8" s="1"/>
-      <c r="EB8" s="1"/>
+      <c r="EA8" s="21"/>
+      <c r="EB8" s="21"/>
       <c r="EC8" s="1"/>
       <c r="ED8" s="1"/>
       <c r="EE8" s="1"/>
       <c r="EF8" s="1"/>
       <c r="EG8" s="1"/>
-      <c r="EH8" s="1"/>
-      <c r="EI8" s="1"/>
+      <c r="EH8" s="21"/>
+      <c r="EI8" s="21"/>
       <c r="EJ8" s="1"/>
       <c r="EK8" s="1"/>
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
-      <c r="EP8" s="1"/>
+      <c r="EO8" s="21"/>
+      <c r="EP8" s="21"/>
       <c r="EQ8" s="1"/>
       <c r="ER8" s="1"/>
       <c r="ES8" s="1"/>
       <c r="ET8" s="1"/>
       <c r="EU8" s="1"/>
-      <c r="EV8" s="1"/>
-      <c r="EW8" s="1"/>
+      <c r="EV8" s="21"/>
+      <c r="EW8" s="21"/>
       <c r="EX8" s="1"/>
       <c r="EY8" s="1"/>
       <c r="EZ8" s="1"/>
       <c r="FA8" s="1"/>
       <c r="FB8" s="1"/>
-      <c r="FC8" s="1"/>
-      <c r="FD8" s="1"/>
+      <c r="FC8" s="21"/>
+      <c r="FD8" s="21"/>
       <c r="FE8" s="1"/>
       <c r="FF8" s="1"/>
       <c r="FG8" s="1"/>
       <c r="FH8" s="1"/>
       <c r="FI8" s="1"/>
-      <c r="FJ8" s="1"/>
-      <c r="FK8" s="1"/>
+      <c r="FJ8" s="21"/>
+      <c r="FK8" s="21"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
       <c r="FN8" s="1"/>
       <c r="FO8" s="1"/>
       <c r="FP8" s="1"/>
-      <c r="FQ8" s="1"/>
-      <c r="FR8" s="1"/>
+      <c r="FQ8" s="21"/>
+      <c r="FR8" s="21"/>
       <c r="FS8" s="1"/>
       <c r="FT8" s="1"/>
       <c r="FU8" s="1"/>
       <c r="FV8" s="1"/>
       <c r="FW8" s="1"/>
-      <c r="FX8" s="1"/>
-      <c r="FY8" s="1"/>
+      <c r="FX8" s="21"/>
+      <c r="FY8" s="21"/>
       <c r="FZ8" s="1"/>
       <c r="GA8" s="1"/>
       <c r="GB8" s="1"/>
       <c r="GC8" s="1"/>
       <c r="GD8" s="1"/>
-      <c r="GE8" s="1"/>
-      <c r="GF8" s="1"/>
+      <c r="GE8" s="21"/>
+      <c r="GF8" s="21"/>
       <c r="GG8" s="1"/>
       <c r="GH8" s="1"/>
       <c r="GI8" s="1"/>
       <c r="GJ8" s="1"/>
       <c r="GK8" s="1"/>
-      <c r="GL8" s="1"/>
-      <c r="GM8" s="1"/>
+      <c r="GL8" s="21"/>
+      <c r="GM8" s="21"/>
       <c r="GN8" s="1"/>
       <c r="GO8" s="1"/>
       <c r="GP8" s="1"/>
       <c r="GQ8" s="1"/>
       <c r="GR8" s="1"/>
-      <c r="GS8" s="1"/>
-      <c r="GT8" s="1"/>
+      <c r="GS8" s="21"/>
+      <c r="GT8" s="21"/>
       <c r="GU8" s="1"/>
       <c r="GV8" s="1"/>
       <c r="GW8" s="1"/>
       <c r="GX8" s="1"/>
       <c r="GY8" s="1"/>
-      <c r="GZ8" s="1"/>
-      <c r="HA8" s="1"/>
+      <c r="GZ8" s="21"/>
+      <c r="HA8" s="21"/>
       <c r="HB8" s="1"/>
       <c r="HC8" s="1"/>
       <c r="HD8" s="1"/>
       <c r="HE8" s="1"/>
       <c r="HF8" s="1"/>
-      <c r="HG8" s="1"/>
-      <c r="HH8" s="1"/>
+      <c r="HG8" s="21"/>
+      <c r="HH8" s="21"/>
       <c r="HI8" s="1"/>
       <c r="HJ8" s="1"/>
       <c r="HK8" s="1"/>
       <c r="HL8" s="1"/>
       <c r="HM8" s="1"/>
-      <c r="HN8" s="1"/>
-      <c r="HO8" s="1"/>
+      <c r="HN8" s="21"/>
+      <c r="HO8" s="21"/>
       <c r="HP8" s="1"/>
       <c r="HQ8" s="1"/>
       <c r="HR8" s="1"/>
       <c r="HS8" s="1"/>
       <c r="HT8" s="1"/>
-      <c r="HU8" s="1"/>
-      <c r="HV8" s="1"/>
+      <c r="HU8" s="21"/>
+      <c r="HV8" s="21"/>
       <c r="HW8" s="1"/>
       <c r="HX8" s="1"/>
       <c r="HY8" s="1"/>
       <c r="HZ8" s="1"/>
       <c r="IA8" s="1"/>
-      <c r="IB8" s="1"/>
-      <c r="IC8" s="1"/>
+      <c r="IB8" s="21"/>
+      <c r="IC8" s="21"/>
       <c r="ID8" s="1"/>
       <c r="IE8" s="1"/>
       <c r="IF8" s="1"/>
       <c r="IG8" s="1"/>
       <c r="IH8" s="1"/>
-      <c r="II8" s="1"/>
-      <c r="IJ8" s="1"/>
+      <c r="II8" s="21"/>
+      <c r="IJ8" s="21"/>
       <c r="IK8" s="1"/>
       <c r="IL8" s="1"/>
       <c r="IM8" s="1"/>
       <c r="IN8" s="1"/>
       <c r="IO8" s="1"/>
-      <c r="IP8" s="1"/>
-      <c r="IQ8" s="1"/>
+      <c r="IP8" s="21"/>
+      <c r="IQ8" s="21"/>
       <c r="IR8" s="1"/>
       <c r="IS8" s="1"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
-      <c r="IW8" s="1"/>
-      <c r="IX8" s="1"/>
+      <c r="IW8" s="21"/>
+      <c r="IX8" s="21"/>
       <c r="IY8" s="1"/>
       <c r="IZ8" s="1"/>
       <c r="JA8" s="1"/>
       <c r="JB8" s="1"/>
       <c r="JC8" s="1"/>
-      <c r="JD8" s="1"/>
-      <c r="JE8" s="1"/>
+      <c r="JD8" s="21"/>
+      <c r="JE8" s="21"/>
       <c r="JF8" s="1"/>
       <c r="JG8" s="1"/>
       <c r="JH8" s="1"/>
       <c r="JI8" s="1"/>
       <c r="JJ8" s="1"/>
-      <c r="JK8" s="1"/>
-      <c r="JL8" s="1"/>
+      <c r="JK8" s="21"/>
+      <c r="JL8" s="21"/>
       <c r="JM8" s="1"/>
       <c r="JN8" s="1"/>
       <c r="JO8" s="1"/>
       <c r="JP8" s="1"/>
       <c r="JQ8" s="1"/>
-      <c r="JR8" s="1"/>
-      <c r="JS8" s="1"/>
+      <c r="JR8" s="21"/>
+      <c r="JS8" s="21"/>
       <c r="JT8" s="1"/>
       <c r="JU8" s="1"/>
       <c r="JV8" s="1"/>
       <c r="JW8" s="1"/>
       <c r="JX8" s="1"/>
-      <c r="JY8" s="1"/>
-      <c r="JZ8" s="1"/>
+      <c r="JY8" s="21"/>
+      <c r="JZ8" s="21"/>
       <c r="KA8" s="1"/>
       <c r="KB8" s="1"/>
       <c r="KC8" s="1"/>
       <c r="KD8" s="1"/>
       <c r="KE8" s="1"/>
-      <c r="KF8" s="1"/>
-      <c r="KG8" s="1"/>
+      <c r="KF8" s="21"/>
+      <c r="KG8" s="21"/>
       <c r="KH8" s="1"/>
       <c r="KI8" s="1"/>
       <c r="KJ8" s="1"/>
       <c r="KK8" s="1"/>
       <c r="KL8" s="1"/>
-      <c r="KM8" s="1"/>
-      <c r="KN8" s="1"/>
+      <c r="KM8" s="21"/>
+      <c r="KN8" s="21"/>
       <c r="KO8" s="1"/>
       <c r="KP8" s="1"/>
       <c r="KQ8" s="1"/>
       <c r="KR8" s="1"/>
       <c r="KS8" s="1"/>
-      <c r="KT8" s="1"/>
-      <c r="KU8" s="1"/>
+      <c r="KT8" s="21"/>
+      <c r="KU8" s="21"/>
       <c r="KV8" s="1"/>
       <c r="KW8" s="1"/>
       <c r="KX8" s="1"/>
       <c r="KY8" s="1"/>
       <c r="KZ8" s="1"/>
-      <c r="LA8" s="1"/>
-      <c r="LB8" s="1"/>
+      <c r="LA8" s="21"/>
+      <c r="LB8" s="21"/>
       <c r="LC8" s="1"/>
       <c r="LD8" s="1"/>
       <c r="LE8" s="1"/>
       <c r="LF8" s="1"/>
       <c r="LG8" s="1"/>
-      <c r="LH8" s="1"/>
-      <c r="LI8" s="1"/>
+      <c r="LH8" s="21"/>
+      <c r="LI8" s="21"/>
       <c r="LJ8" s="1"/>
       <c r="LK8" s="1"/>
       <c r="LL8" s="1"/>
       <c r="LM8" s="1"/>
       <c r="LN8" s="1"/>
-      <c r="LO8" s="1"/>
-      <c r="LP8" s="1"/>
+      <c r="LO8" s="21"/>
+      <c r="LP8" s="21"/>
       <c r="LQ8" s="1"/>
       <c r="LR8" s="1"/>
       <c r="LS8" s="1"/>
       <c r="LT8" s="1"/>
       <c r="LU8" s="1"/>
-      <c r="LV8" s="1"/>
-      <c r="LW8" s="1"/>
+      <c r="LV8" s="21"/>
+      <c r="LW8" s="21"/>
       <c r="LX8" s="1"/>
       <c r="LY8" s="1"/>
       <c r="LZ8" s="1"/>
       <c r="MA8" s="1"/>
       <c r="MB8" s="1"/>
-      <c r="MC8" s="1"/>
-      <c r="MD8" s="1"/>
+      <c r="MC8" s="21"/>
+      <c r="MD8" s="21"/>
       <c r="ME8" s="1"/>
       <c r="MF8" s="1"/>
       <c r="MG8" s="1"/>
       <c r="MH8" s="1"/>
       <c r="MI8" s="1"/>
-      <c r="MJ8" s="1"/>
-      <c r="MK8" s="1"/>
+      <c r="MJ8" s="21"/>
+      <c r="MK8" s="21"/>
       <c r="ML8" s="1"/>
       <c r="MM8" s="1"/>
       <c r="MN8" s="1"/>
       <c r="MO8" s="1"/>
       <c r="MP8" s="1"/>
-      <c r="MQ8" s="1"/>
-      <c r="MR8" s="1"/>
+      <c r="MQ8" s="21"/>
+      <c r="MR8" s="21"/>
       <c r="MS8" s="1"/>
       <c r="MT8" s="1"/>
       <c r="MU8" s="1"/>
       <c r="MV8" s="1"/>
       <c r="MW8" s="1"/>
-      <c r="MX8" s="1"/>
-      <c r="MY8" s="1"/>
+      <c r="MX8" s="21"/>
+      <c r="MY8" s="21"/>
       <c r="MZ8" s="1"/>
       <c r="NA8" s="1"/>
       <c r="NB8" s="1"/>
@@ -5269,33 +5361,33 @@
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7"/>
-      <c r="CD9" s="7"/>
-      <c r="CE9" s="7"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="21"/>
       <c r="CF9" s="7"/>
       <c r="CG9" s="7"/>
       <c r="CH9" s="7"/>
       <c r="CI9" s="7"/>
       <c r="CJ9" s="7"/>
-      <c r="CK9" s="7"/>
-      <c r="CL9" s="7"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21"/>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
       <c r="CO9" s="7"/>
       <c r="CP9" s="7"/>
       <c r="CQ9" s="7"/>
-      <c r="CR9" s="7"/>
-      <c r="CS9" s="7"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
       <c r="CT9" s="7"/>
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
       <c r="CW9" s="7"/>
-      <c r="CX9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ9" s="20" t="s">
+      <c r="CX9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="DA9" s="8" t="s">
@@ -5305,43 +5397,43 @@
       <c r="DC9" s="7"/>
       <c r="DD9" s="7"/>
       <c r="DE9" s="7"/>
-      <c r="DF9" s="7"/>
-      <c r="DG9" s="7"/>
+      <c r="DF9" s="21"/>
+      <c r="DG9" s="21"/>
       <c r="DH9" s="7"/>
       <c r="DI9" s="7"/>
       <c r="DJ9" s="7"/>
       <c r="DK9" s="7"/>
       <c r="DL9" s="7"/>
-      <c r="DM9" s="7"/>
-      <c r="DN9" s="7"/>
+      <c r="DM9" s="21"/>
+      <c r="DN9" s="21"/>
       <c r="DO9" s="7"/>
       <c r="DP9" s="7"/>
       <c r="DQ9" s="7"/>
       <c r="DR9" s="7"/>
       <c r="DS9" s="7"/>
-      <c r="DT9" s="7"/>
-      <c r="DU9" s="7"/>
+      <c r="DT9" s="21"/>
+      <c r="DU9" s="21"/>
       <c r="DV9" s="7"/>
       <c r="DW9" s="7"/>
       <c r="DX9" s="7"/>
       <c r="DY9" s="7"/>
       <c r="DZ9" s="7"/>
-      <c r="EA9" s="7"/>
-      <c r="EB9" s="7"/>
+      <c r="EA9" s="21"/>
+      <c r="EB9" s="21"/>
       <c r="EC9" s="7"/>
       <c r="ED9" s="7"/>
       <c r="EE9" s="7"/>
       <c r="EF9" s="7"/>
       <c r="EG9" s="7"/>
-      <c r="EH9" s="7"/>
-      <c r="EI9" s="7"/>
+      <c r="EH9" s="21"/>
+      <c r="EI9" s="21"/>
       <c r="EJ9" s="7"/>
       <c r="EK9" s="7"/>
       <c r="EL9" s="7"/>
       <c r="EM9" s="7"/>
       <c r="EN9" s="7"/>
-      <c r="EO9" s="7"/>
-      <c r="EP9" s="7"/>
+      <c r="EO9" s="21"/>
+      <c r="EP9" s="21"/>
       <c r="EQ9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5357,10 +5449,10 @@
       <c r="EU9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="EV9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="EW9" s="9" t="s">
+      <c r="EV9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="EW9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="EX9" s="8" t="s">
@@ -5378,10 +5470,10 @@
       <c r="FB9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="FC9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="FD9" s="9" t="s">
+      <c r="FC9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FD9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="FE9" s="7"/>
@@ -5389,204 +5481,204 @@
       <c r="FG9" s="7"/>
       <c r="FH9" s="7"/>
       <c r="FI9" s="7"/>
-      <c r="FJ9" s="7"/>
-      <c r="FK9" s="7"/>
+      <c r="FJ9" s="21"/>
+      <c r="FK9" s="21"/>
       <c r="FL9" s="7"/>
       <c r="FM9" s="7"/>
       <c r="FN9" s="7"/>
       <c r="FO9" s="7"/>
       <c r="FP9" s="7"/>
-      <c r="FQ9" s="7"/>
-      <c r="FR9" s="7"/>
+      <c r="FQ9" s="21"/>
+      <c r="FR9" s="21"/>
       <c r="FS9" s="7"/>
       <c r="FT9" s="7"/>
       <c r="FU9" s="7"/>
       <c r="FV9" s="7"/>
       <c r="FW9" s="7"/>
-      <c r="FX9" s="7"/>
-      <c r="FY9" s="7"/>
+      <c r="FX9" s="21"/>
+      <c r="FY9" s="21"/>
       <c r="FZ9" s="7"/>
       <c r="GA9" s="7"/>
       <c r="GB9" s="7"/>
       <c r="GC9" s="7"/>
       <c r="GD9" s="7"/>
-      <c r="GE9" s="7"/>
-      <c r="GF9" s="7"/>
+      <c r="GE9" s="21"/>
+      <c r="GF9" s="21"/>
       <c r="GG9" s="7"/>
       <c r="GH9" s="7"/>
       <c r="GI9" s="7"/>
       <c r="GJ9" s="7"/>
       <c r="GK9" s="7"/>
-      <c r="GL9" s="7"/>
-      <c r="GM9" s="7"/>
+      <c r="GL9" s="21"/>
+      <c r="GM9" s="21"/>
       <c r="GN9" s="7"/>
       <c r="GO9" s="7"/>
       <c r="GP9" s="7"/>
       <c r="GQ9" s="7"/>
       <c r="GR9" s="7"/>
-      <c r="GS9" s="7"/>
-      <c r="GT9" s="7"/>
+      <c r="GS9" s="21"/>
+      <c r="GT9" s="21"/>
       <c r="GU9" s="7"/>
       <c r="GV9" s="7"/>
       <c r="GW9" s="7"/>
       <c r="GX9" s="7"/>
       <c r="GY9" s="7"/>
-      <c r="GZ9" s="7"/>
-      <c r="HA9" s="7"/>
+      <c r="GZ9" s="21"/>
+      <c r="HA9" s="21"/>
       <c r="HB9" s="7"/>
       <c r="HC9" s="7"/>
       <c r="HD9" s="7"/>
       <c r="HE9" s="7"/>
       <c r="HF9" s="7"/>
-      <c r="HG9" s="7"/>
-      <c r="HH9" s="7"/>
+      <c r="HG9" s="21"/>
+      <c r="HH9" s="21"/>
       <c r="HI9" s="7"/>
       <c r="HJ9" s="7"/>
       <c r="HK9" s="7"/>
       <c r="HL9" s="7"/>
       <c r="HM9" s="7"/>
-      <c r="HN9" s="7"/>
-      <c r="HO9" s="7"/>
+      <c r="HN9" s="21"/>
+      <c r="HO9" s="21"/>
       <c r="HP9" s="7"/>
       <c r="HQ9" s="7"/>
       <c r="HR9" s="7"/>
       <c r="HS9" s="7"/>
       <c r="HT9" s="7"/>
-      <c r="HU9" s="7"/>
-      <c r="HV9" s="7"/>
+      <c r="HU9" s="21"/>
+      <c r="HV9" s="21"/>
       <c r="HW9" s="7"/>
       <c r="HX9" s="7"/>
       <c r="HY9" s="7"/>
       <c r="HZ9" s="7"/>
       <c r="IA9" s="7"/>
-      <c r="IB9" s="7"/>
-      <c r="IC9" s="7"/>
+      <c r="IB9" s="21"/>
+      <c r="IC9" s="21"/>
       <c r="ID9" s="7"/>
       <c r="IE9" s="7"/>
       <c r="IF9" s="7"/>
       <c r="IG9" s="7"/>
       <c r="IH9" s="7"/>
-      <c r="II9" s="7"/>
-      <c r="IJ9" s="7"/>
+      <c r="II9" s="21"/>
+      <c r="IJ9" s="21"/>
       <c r="IK9" s="7"/>
       <c r="IL9" s="7"/>
       <c r="IM9" s="7"/>
       <c r="IN9" s="7"/>
       <c r="IO9" s="7"/>
-      <c r="IP9" s="7"/>
-      <c r="IQ9" s="7"/>
+      <c r="IP9" s="21"/>
+      <c r="IQ9" s="21"/>
       <c r="IR9" s="7"/>
       <c r="IS9" s="7"/>
       <c r="IT9" s="7"/>
       <c r="IU9" s="7"/>
       <c r="IV9" s="7"/>
-      <c r="IW9" s="7"/>
-      <c r="IX9" s="7"/>
+      <c r="IW9" s="21"/>
+      <c r="IX9" s="21"/>
       <c r="IY9" s="7"/>
       <c r="IZ9" s="7"/>
       <c r="JA9" s="7"/>
       <c r="JB9" s="7"/>
       <c r="JC9" s="7"/>
-      <c r="JD9" s="7"/>
-      <c r="JE9" s="7"/>
+      <c r="JD9" s="21"/>
+      <c r="JE9" s="21"/>
       <c r="JF9" s="7"/>
       <c r="JG9" s="7"/>
       <c r="JH9" s="7"/>
       <c r="JI9" s="7"/>
       <c r="JJ9" s="7"/>
-      <c r="JK9" s="7"/>
-      <c r="JL9" s="7"/>
+      <c r="JK9" s="21"/>
+      <c r="JL9" s="21"/>
       <c r="JM9" s="7"/>
       <c r="JN9" s="7"/>
       <c r="JO9" s="7"/>
       <c r="JP9" s="7"/>
       <c r="JQ9" s="7"/>
-      <c r="JR9" s="7"/>
-      <c r="JS9" s="7"/>
+      <c r="JR9" s="21"/>
+      <c r="JS9" s="21"/>
       <c r="JT9" s="7"/>
       <c r="JU9" s="7"/>
       <c r="JV9" s="7"/>
       <c r="JW9" s="7"/>
       <c r="JX9" s="7"/>
-      <c r="JY9" s="7"/>
-      <c r="JZ9" s="7"/>
+      <c r="JY9" s="21"/>
+      <c r="JZ9" s="21"/>
       <c r="KA9" s="7"/>
       <c r="KB9" s="7"/>
       <c r="KC9" s="7"/>
       <c r="KD9" s="7"/>
       <c r="KE9" s="7"/>
-      <c r="KF9" s="7"/>
-      <c r="KG9" s="7"/>
+      <c r="KF9" s="21"/>
+      <c r="KG9" s="21"/>
       <c r="KH9" s="7"/>
       <c r="KI9" s="7"/>
       <c r="KJ9" s="7"/>
       <c r="KK9" s="7"/>
       <c r="KL9" s="7"/>
-      <c r="KM9" s="7"/>
-      <c r="KN9" s="7"/>
+      <c r="KM9" s="21"/>
+      <c r="KN9" s="21"/>
       <c r="KO9" s="7"/>
       <c r="KP9" s="7"/>
       <c r="KQ9" s="7"/>
       <c r="KR9" s="7"/>
       <c r="KS9" s="7"/>
-      <c r="KT9" s="7"/>
-      <c r="KU9" s="7"/>
+      <c r="KT9" s="21"/>
+      <c r="KU9" s="21"/>
       <c r="KV9" s="7"/>
       <c r="KW9" s="7"/>
       <c r="KX9" s="7"/>
       <c r="KY9" s="7"/>
       <c r="KZ9" s="7"/>
-      <c r="LA9" s="7"/>
-      <c r="LB9" s="7"/>
+      <c r="LA9" s="21"/>
+      <c r="LB9" s="21"/>
       <c r="LC9" s="7"/>
       <c r="LD9" s="7"/>
       <c r="LE9" s="7"/>
       <c r="LF9" s="7"/>
       <c r="LG9" s="7"/>
-      <c r="LH9" s="7"/>
-      <c r="LI9" s="7"/>
+      <c r="LH9" s="21"/>
+      <c r="LI9" s="21"/>
       <c r="LJ9" s="7"/>
       <c r="LK9" s="7"/>
       <c r="LL9" s="7"/>
       <c r="LM9" s="7"/>
       <c r="LN9" s="7"/>
-      <c r="LO9" s="7"/>
-      <c r="LP9" s="7"/>
+      <c r="LO9" s="21"/>
+      <c r="LP9" s="21"/>
       <c r="LQ9" s="7"/>
       <c r="LR9" s="7"/>
       <c r="LS9" s="7"/>
       <c r="LT9" s="7"/>
       <c r="LU9" s="7"/>
-      <c r="LV9" s="7"/>
-      <c r="LW9" s="7"/>
+      <c r="LV9" s="21"/>
+      <c r="LW9" s="21"/>
       <c r="LX9" s="7"/>
       <c r="LY9" s="7"/>
       <c r="LZ9" s="7"/>
       <c r="MA9" s="7"/>
       <c r="MB9" s="7"/>
-      <c r="MC9" s="7"/>
-      <c r="MD9" s="7"/>
+      <c r="MC9" s="21"/>
+      <c r="MD9" s="21"/>
       <c r="ME9" s="7"/>
       <c r="MF9" s="7"/>
       <c r="MG9" s="7"/>
       <c r="MH9" s="7"/>
       <c r="MI9" s="7"/>
-      <c r="MJ9" s="7"/>
-      <c r="MK9" s="7"/>
+      <c r="MJ9" s="21"/>
+      <c r="MK9" s="21"/>
       <c r="ML9" s="7"/>
       <c r="MM9" s="7"/>
       <c r="MN9" s="7"/>
       <c r="MO9" s="7"/>
       <c r="MP9" s="7"/>
-      <c r="MQ9" s="7"/>
-      <c r="MR9" s="7"/>
+      <c r="MQ9" s="21"/>
+      <c r="MR9" s="21"/>
       <c r="MS9" s="7"/>
       <c r="MT9" s="7"/>
       <c r="MU9" s="7"/>
       <c r="MV9" s="7"/>
       <c r="MW9" s="7"/>
-      <c r="MX9" s="7"/>
-      <c r="MY9" s="7"/>
+      <c r="MX9" s="21"/>
+      <c r="MY9" s="21"/>
       <c r="MZ9" s="7"/>
       <c r="NA9" s="7"/>
       <c r="NB9" s="7"/>
@@ -5675,288 +5767,288 @@
       <c r="CA10" s="1"/>
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
       <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
       <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
+      <c r="CR10" s="21"/>
+      <c r="CS10" s="21"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
       <c r="CX10" s="1"/>
-      <c r="CY10" s="1"/>
-      <c r="CZ10" s="1"/>
+      <c r="CY10" s="21"/>
+      <c r="CZ10" s="21"/>
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
       <c r="DC10" s="1"/>
       <c r="DD10" s="1"/>
       <c r="DE10" s="1"/>
-      <c r="DF10" s="1"/>
-      <c r="DG10" s="1"/>
+      <c r="DF10" s="21"/>
+      <c r="DG10" s="21"/>
       <c r="DH10" s="1"/>
       <c r="DI10" s="1"/>
       <c r="DJ10" s="1"/>
       <c r="DK10" s="1"/>
       <c r="DL10" s="1"/>
-      <c r="DM10" s="1"/>
-      <c r="DN10" s="1"/>
+      <c r="DM10" s="21"/>
+      <c r="DN10" s="21"/>
       <c r="DO10" s="1"/>
       <c r="DP10" s="1"/>
       <c r="DQ10" s="1"/>
       <c r="DR10" s="1"/>
       <c r="DS10" s="1"/>
-      <c r="DT10" s="1"/>
-      <c r="DU10" s="1"/>
+      <c r="DT10" s="21"/>
+      <c r="DU10" s="21"/>
       <c r="DV10" s="1"/>
       <c r="DW10" s="1"/>
       <c r="DX10" s="1"/>
       <c r="DY10" s="1"/>
       <c r="DZ10" s="1"/>
-      <c r="EA10" s="1"/>
-      <c r="EB10" s="1"/>
+      <c r="EA10" s="21"/>
+      <c r="EB10" s="21"/>
       <c r="EC10" s="1"/>
       <c r="ED10" s="1"/>
       <c r="EE10" s="1"/>
       <c r="EF10" s="1"/>
       <c r="EG10" s="1"/>
-      <c r="EH10" s="1"/>
-      <c r="EI10" s="1"/>
+      <c r="EH10" s="21"/>
+      <c r="EI10" s="21"/>
       <c r="EJ10" s="1"/>
       <c r="EK10" s="1"/>
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EP10" s="1"/>
+      <c r="EO10" s="21"/>
+      <c r="EP10" s="21"/>
       <c r="EQ10" s="1"/>
       <c r="ER10" s="1"/>
       <c r="ES10" s="1"/>
       <c r="ET10" s="1"/>
       <c r="EU10" s="1"/>
-      <c r="EV10" s="1"/>
-      <c r="EW10" s="1"/>
+      <c r="EV10" s="21"/>
+      <c r="EW10" s="21"/>
       <c r="EX10" s="1"/>
       <c r="EY10" s="1"/>
       <c r="EZ10" s="1"/>
       <c r="FA10" s="1"/>
       <c r="FB10" s="1"/>
-      <c r="FC10" s="1"/>
-      <c r="FD10" s="1"/>
+      <c r="FC10" s="21"/>
+      <c r="FD10" s="21"/>
       <c r="FE10" s="1"/>
       <c r="FF10" s="1"/>
       <c r="FG10" s="1"/>
       <c r="FH10" s="1"/>
       <c r="FI10" s="1"/>
-      <c r="FJ10" s="1"/>
-      <c r="FK10" s="1"/>
+      <c r="FJ10" s="21"/>
+      <c r="FK10" s="21"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
       <c r="FN10" s="1"/>
       <c r="FO10" s="1"/>
       <c r="FP10" s="1"/>
-      <c r="FQ10" s="1"/>
-      <c r="FR10" s="1"/>
+      <c r="FQ10" s="21"/>
+      <c r="FR10" s="21"/>
       <c r="FS10" s="1"/>
       <c r="FT10" s="1"/>
       <c r="FU10" s="1"/>
       <c r="FV10" s="1"/>
       <c r="FW10" s="1"/>
-      <c r="FX10" s="1"/>
-      <c r="FY10" s="1"/>
+      <c r="FX10" s="21"/>
+      <c r="FY10" s="21"/>
       <c r="FZ10" s="1"/>
       <c r="GA10" s="1"/>
       <c r="GB10" s="1"/>
       <c r="GC10" s="1"/>
       <c r="GD10" s="1"/>
-      <c r="GE10" s="1"/>
-      <c r="GF10" s="1"/>
+      <c r="GE10" s="21"/>
+      <c r="GF10" s="21"/>
       <c r="GG10" s="1"/>
       <c r="GH10" s="1"/>
       <c r="GI10" s="1"/>
       <c r="GJ10" s="1"/>
       <c r="GK10" s="1"/>
-      <c r="GL10" s="1"/>
-      <c r="GM10" s="1"/>
+      <c r="GL10" s="21"/>
+      <c r="GM10" s="21"/>
       <c r="GN10" s="1"/>
       <c r="GO10" s="1"/>
       <c r="GP10" s="1"/>
       <c r="GQ10" s="1"/>
       <c r="GR10" s="1"/>
-      <c r="GS10" s="1"/>
-      <c r="GT10" s="1"/>
+      <c r="GS10" s="21"/>
+      <c r="GT10" s="21"/>
       <c r="GU10" s="1"/>
       <c r="GV10" s="1"/>
       <c r="GW10" s="1"/>
       <c r="GX10" s="1"/>
       <c r="GY10" s="1"/>
-      <c r="GZ10" s="1"/>
-      <c r="HA10" s="1"/>
+      <c r="GZ10" s="21"/>
+      <c r="HA10" s="21"/>
       <c r="HB10" s="1"/>
       <c r="HC10" s="1"/>
       <c r="HD10" s="1"/>
       <c r="HE10" s="1"/>
       <c r="HF10" s="1"/>
-      <c r="HG10" s="1"/>
-      <c r="HH10" s="1"/>
+      <c r="HG10" s="21"/>
+      <c r="HH10" s="21"/>
       <c r="HI10" s="1"/>
       <c r="HJ10" s="1"/>
       <c r="HK10" s="1"/>
       <c r="HL10" s="1"/>
       <c r="HM10" s="1"/>
-      <c r="HN10" s="1"/>
-      <c r="HO10" s="1"/>
+      <c r="HN10" s="21"/>
+      <c r="HO10" s="21"/>
       <c r="HP10" s="1"/>
       <c r="HQ10" s="1"/>
       <c r="HR10" s="1"/>
       <c r="HS10" s="1"/>
       <c r="HT10" s="1"/>
-      <c r="HU10" s="1"/>
-      <c r="HV10" s="1"/>
+      <c r="HU10" s="21"/>
+      <c r="HV10" s="21"/>
       <c r="HW10" s="1"/>
       <c r="HX10" s="1"/>
       <c r="HY10" s="1"/>
       <c r="HZ10" s="1"/>
       <c r="IA10" s="1"/>
-      <c r="IB10" s="1"/>
-      <c r="IC10" s="1"/>
+      <c r="IB10" s="21"/>
+      <c r="IC10" s="21"/>
       <c r="ID10" s="1"/>
       <c r="IE10" s="1"/>
       <c r="IF10" s="1"/>
       <c r="IG10" s="1"/>
       <c r="IH10" s="1"/>
-      <c r="II10" s="1"/>
-      <c r="IJ10" s="1"/>
+      <c r="II10" s="21"/>
+      <c r="IJ10" s="21"/>
       <c r="IK10" s="1"/>
       <c r="IL10" s="1"/>
       <c r="IM10" s="1"/>
       <c r="IN10" s="1"/>
       <c r="IO10" s="1"/>
-      <c r="IP10" s="1"/>
-      <c r="IQ10" s="1"/>
+      <c r="IP10" s="21"/>
+      <c r="IQ10" s="21"/>
       <c r="IR10" s="1"/>
       <c r="IS10" s="1"/>
       <c r="IT10" s="1"/>
       <c r="IU10" s="1"/>
       <c r="IV10" s="1"/>
-      <c r="IW10" s="1"/>
-      <c r="IX10" s="1"/>
+      <c r="IW10" s="21"/>
+      <c r="IX10" s="21"/>
       <c r="IY10" s="1"/>
       <c r="IZ10" s="1"/>
       <c r="JA10" s="1"/>
       <c r="JB10" s="1"/>
       <c r="JC10" s="1"/>
-      <c r="JD10" s="1"/>
-      <c r="JE10" s="1"/>
+      <c r="JD10" s="21"/>
+      <c r="JE10" s="21"/>
       <c r="JF10" s="1"/>
       <c r="JG10" s="1"/>
       <c r="JH10" s="1"/>
       <c r="JI10" s="1"/>
       <c r="JJ10" s="1"/>
-      <c r="JK10" s="1"/>
-      <c r="JL10" s="1"/>
+      <c r="JK10" s="21"/>
+      <c r="JL10" s="21"/>
       <c r="JM10" s="1"/>
       <c r="JN10" s="1"/>
       <c r="JO10" s="1"/>
       <c r="JP10" s="1"/>
       <c r="JQ10" s="1"/>
-      <c r="JR10" s="1"/>
-      <c r="JS10" s="1"/>
+      <c r="JR10" s="21"/>
+      <c r="JS10" s="21"/>
       <c r="JT10" s="1"/>
       <c r="JU10" s="1"/>
       <c r="JV10" s="1"/>
       <c r="JW10" s="1"/>
       <c r="JX10" s="1"/>
-      <c r="JY10" s="1"/>
-      <c r="JZ10" s="1"/>
+      <c r="JY10" s="21"/>
+      <c r="JZ10" s="21"/>
       <c r="KA10" s="1"/>
       <c r="KB10" s="1"/>
       <c r="KC10" s="1"/>
       <c r="KD10" s="1"/>
       <c r="KE10" s="1"/>
-      <c r="KF10" s="1"/>
-      <c r="KG10" s="1"/>
+      <c r="KF10" s="21"/>
+      <c r="KG10" s="21"/>
       <c r="KH10" s="1"/>
       <c r="KI10" s="1"/>
       <c r="KJ10" s="1"/>
       <c r="KK10" s="1"/>
       <c r="KL10" s="1"/>
-      <c r="KM10" s="1"/>
-      <c r="KN10" s="1"/>
+      <c r="KM10" s="21"/>
+      <c r="KN10" s="21"/>
       <c r="KO10" s="1"/>
       <c r="KP10" s="1"/>
       <c r="KQ10" s="1"/>
       <c r="KR10" s="1"/>
       <c r="KS10" s="1"/>
-      <c r="KT10" s="1"/>
-      <c r="KU10" s="1"/>
+      <c r="KT10" s="21"/>
+      <c r="KU10" s="21"/>
       <c r="KV10" s="1"/>
       <c r="KW10" s="1"/>
       <c r="KX10" s="1"/>
       <c r="KY10" s="1"/>
       <c r="KZ10" s="1"/>
-      <c r="LA10" s="1"/>
-      <c r="LB10" s="1"/>
+      <c r="LA10" s="21"/>
+      <c r="LB10" s="21"/>
       <c r="LC10" s="1"/>
       <c r="LD10" s="1"/>
       <c r="LE10" s="1"/>
       <c r="LF10" s="1"/>
       <c r="LG10" s="1"/>
-      <c r="LH10" s="1"/>
-      <c r="LI10" s="1"/>
+      <c r="LH10" s="21"/>
+      <c r="LI10" s="21"/>
       <c r="LJ10" s="1"/>
       <c r="LK10" s="1"/>
       <c r="LL10" s="1"/>
       <c r="LM10" s="1"/>
       <c r="LN10" s="1"/>
-      <c r="LO10" s="1"/>
-      <c r="LP10" s="1"/>
+      <c r="LO10" s="21"/>
+      <c r="LP10" s="21"/>
       <c r="LQ10" s="1"/>
       <c r="LR10" s="1"/>
       <c r="LS10" s="1"/>
       <c r="LT10" s="1"/>
       <c r="LU10" s="1"/>
-      <c r="LV10" s="1"/>
-      <c r="LW10" s="1"/>
+      <c r="LV10" s="21"/>
+      <c r="LW10" s="21"/>
       <c r="LX10" s="1"/>
       <c r="LY10" s="1"/>
       <c r="LZ10" s="1"/>
       <c r="MA10" s="1"/>
       <c r="MB10" s="1"/>
-      <c r="MC10" s="1"/>
-      <c r="MD10" s="1"/>
+      <c r="MC10" s="21"/>
+      <c r="MD10" s="21"/>
       <c r="ME10" s="1"/>
       <c r="MF10" s="1"/>
       <c r="MG10" s="1"/>
       <c r="MH10" s="1"/>
       <c r="MI10" s="1"/>
-      <c r="MJ10" s="1"/>
-      <c r="MK10" s="1"/>
+      <c r="MJ10" s="21"/>
+      <c r="MK10" s="21"/>
       <c r="ML10" s="1"/>
       <c r="MM10" s="1"/>
       <c r="MN10" s="1"/>
       <c r="MO10" s="1"/>
       <c r="MP10" s="1"/>
-      <c r="MQ10" s="1"/>
-      <c r="MR10" s="1"/>
+      <c r="MQ10" s="21"/>
+      <c r="MR10" s="21"/>
       <c r="MS10" s="1"/>
       <c r="MT10" s="1"/>
       <c r="MU10" s="1"/>
       <c r="MV10" s="1"/>
       <c r="MW10" s="1"/>
-      <c r="MX10" s="1"/>
-      <c r="MY10" s="1"/>
+      <c r="MX10" s="21"/>
+      <c r="MY10" s="21"/>
       <c r="MZ10" s="1"/>
       <c r="NA10" s="1"/>
       <c r="NB10" s="1"/>
@@ -6045,29 +6137,29 @@
       <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
       <c r="CC11" s="7"/>
-      <c r="CD11" s="7"/>
-      <c r="CE11" s="7"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
       <c r="CF11" s="7"/>
       <c r="CG11" s="7"/>
       <c r="CH11" s="7"/>
       <c r="CI11" s="7"/>
       <c r="CJ11" s="7"/>
-      <c r="CK11" s="7"/>
-      <c r="CL11" s="7"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
       <c r="CM11" s="7"/>
       <c r="CN11" s="7"/>
       <c r="CO11" s="7"/>
       <c r="CP11" s="7"/>
       <c r="CQ11" s="7"/>
-      <c r="CR11" s="7"/>
-      <c r="CS11" s="7"/>
+      <c r="CR11" s="21"/>
+      <c r="CS11" s="21"/>
       <c r="CT11" s="7"/>
       <c r="CU11" s="7"/>
       <c r="CV11" s="7"/>
       <c r="CW11" s="7"/>
       <c r="CX11" s="7"/>
-      <c r="CY11" s="7"/>
-      <c r="CZ11" s="7"/>
+      <c r="CY11" s="21"/>
+      <c r="CZ11" s="21"/>
       <c r="DA11" s="7"/>
       <c r="DB11" s="7"/>
       <c r="DC11" s="7"/>
@@ -6075,22 +6167,22 @@
       <c r="DE11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DF11" s="7"/>
-      <c r="DG11" s="7"/>
+      <c r="DF11" s="21"/>
+      <c r="DG11" s="21"/>
       <c r="DH11" s="7"/>
       <c r="DI11" s="7"/>
       <c r="DJ11" s="7"/>
       <c r="DK11" s="7"/>
       <c r="DL11" s="7"/>
-      <c r="DM11" s="7"/>
-      <c r="DN11" s="7"/>
+      <c r="DM11" s="21"/>
+      <c r="DN11" s="21"/>
       <c r="DO11" s="7"/>
       <c r="DP11" s="7"/>
       <c r="DQ11" s="7"/>
       <c r="DR11" s="7"/>
       <c r="DS11" s="7"/>
-      <c r="DT11" s="7"/>
-      <c r="DU11" s="7"/>
+      <c r="DT11" s="21"/>
+      <c r="DU11" s="21"/>
       <c r="DV11" s="8" t="s">
         <v>13</v>
       </c>
@@ -6104,57 +6196,57 @@
         <v>13</v>
       </c>
       <c r="DZ11" s="7"/>
-      <c r="EA11" s="7"/>
-      <c r="EB11" s="7"/>
+      <c r="EA11" s="21"/>
+      <c r="EB11" s="21"/>
       <c r="EC11" s="7"/>
       <c r="ED11" s="7"/>
       <c r="EE11" s="7"/>
       <c r="EF11" s="7"/>
       <c r="EG11" s="7"/>
-      <c r="EH11" s="7"/>
-      <c r="EI11" s="7"/>
+      <c r="EH11" s="21"/>
+      <c r="EI11" s="21"/>
       <c r="EJ11" s="7"/>
       <c r="EK11" s="7"/>
       <c r="EL11" s="7"/>
       <c r="EM11" s="7"/>
       <c r="EN11" s="7"/>
-      <c r="EO11" s="7"/>
-      <c r="EP11" s="7"/>
+      <c r="EO11" s="21"/>
+      <c r="EP11" s="21"/>
       <c r="EQ11" s="7"/>
       <c r="ER11" s="7"/>
       <c r="ES11" s="7"/>
       <c r="ET11" s="7"/>
       <c r="EU11" s="7"/>
-      <c r="EV11" s="7"/>
-      <c r="EW11" s="7"/>
+      <c r="EV11" s="21"/>
+      <c r="EW11" s="21"/>
       <c r="EX11" s="7"/>
       <c r="EY11" s="7"/>
       <c r="EZ11" s="7"/>
       <c r="FA11" s="7"/>
       <c r="FB11" s="7"/>
-      <c r="FC11" s="7"/>
-      <c r="FD11" s="7"/>
+      <c r="FC11" s="21"/>
+      <c r="FD11" s="21"/>
       <c r="FE11" s="7"/>
       <c r="FF11" s="7"/>
       <c r="FG11" s="7"/>
       <c r="FH11" s="7"/>
       <c r="FI11" s="7"/>
-      <c r="FJ11" s="7"/>
-      <c r="FK11" s="7"/>
+      <c r="FJ11" s="21"/>
+      <c r="FK11" s="21"/>
       <c r="FL11" s="7"/>
       <c r="FM11" s="7"/>
       <c r="FN11" s="7"/>
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
-      <c r="FQ11" s="7"/>
-      <c r="FR11" s="7"/>
+      <c r="FQ11" s="21"/>
+      <c r="FR11" s="21"/>
       <c r="FS11" s="7"/>
       <c r="FT11" s="7"/>
       <c r="FU11" s="7"/>
       <c r="FV11" s="7"/>
       <c r="FW11" s="7"/>
-      <c r="FX11" s="7"/>
-      <c r="FY11" s="7"/>
+      <c r="FX11" s="21"/>
+      <c r="FY11" s="21"/>
       <c r="FZ11" s="7"/>
       <c r="GA11" s="8" t="s">
         <v>13</v>
@@ -6168,10 +6260,10 @@
       <c r="GD11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="GE11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="GF11" s="9" t="s">
+      <c r="GE11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="GF11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="GG11" s="8" t="s">
@@ -6185,64 +6277,64 @@
       </c>
       <c r="GJ11" s="7"/>
       <c r="GK11" s="7"/>
-      <c r="GL11" s="7"/>
-      <c r="GM11" s="7"/>
+      <c r="GL11" s="21"/>
+      <c r="GM11" s="21"/>
       <c r="GN11" s="7"/>
       <c r="GO11" s="7"/>
       <c r="GP11" s="7"/>
       <c r="GQ11" s="7"/>
       <c r="GR11" s="7"/>
-      <c r="GS11" s="7"/>
-      <c r="GT11" s="7"/>
+      <c r="GS11" s="21"/>
+      <c r="GT11" s="21"/>
       <c r="GU11" s="7"/>
       <c r="GV11" s="7"/>
       <c r="GW11" s="7"/>
       <c r="GX11" s="7"/>
       <c r="GY11" s="7"/>
-      <c r="GZ11" s="7"/>
-      <c r="HA11" s="7"/>
+      <c r="GZ11" s="21"/>
+      <c r="HA11" s="21"/>
       <c r="HB11" s="7"/>
       <c r="HC11" s="7"/>
       <c r="HD11" s="7"/>
       <c r="HE11" s="7"/>
       <c r="HF11" s="7"/>
-      <c r="HG11" s="7"/>
-      <c r="HH11" s="7"/>
+      <c r="HG11" s="21"/>
+      <c r="HH11" s="21"/>
       <c r="HI11" s="7"/>
       <c r="HJ11" s="7"/>
       <c r="HK11" s="7"/>
       <c r="HL11" s="7"/>
       <c r="HM11" s="7"/>
-      <c r="HN11" s="7"/>
-      <c r="HO11" s="7"/>
+      <c r="HN11" s="21"/>
+      <c r="HO11" s="21"/>
       <c r="HP11" s="7"/>
       <c r="HQ11" s="7"/>
       <c r="HR11" s="7"/>
       <c r="HS11" s="7"/>
       <c r="HT11" s="7"/>
-      <c r="HU11" s="7"/>
-      <c r="HV11" s="7"/>
+      <c r="HU11" s="21"/>
+      <c r="HV11" s="21"/>
       <c r="HW11" s="7"/>
       <c r="HX11" s="7"/>
       <c r="HY11" s="7"/>
       <c r="HZ11" s="7"/>
       <c r="IA11" s="7"/>
-      <c r="IB11" s="7"/>
-      <c r="IC11" s="7"/>
+      <c r="IB11" s="21"/>
+      <c r="IC11" s="21"/>
       <c r="ID11" s="7"/>
       <c r="IE11" s="7"/>
       <c r="IF11" s="7"/>
       <c r="IG11" s="7"/>
       <c r="IH11" s="7"/>
-      <c r="II11" s="7"/>
-      <c r="IJ11" s="7"/>
+      <c r="II11" s="21"/>
+      <c r="IJ11" s="21"/>
       <c r="IK11" s="7"/>
       <c r="IL11" s="7"/>
       <c r="IM11" s="7"/>
       <c r="IN11" s="7"/>
       <c r="IO11" s="7"/>
-      <c r="IP11" s="7"/>
-      <c r="IQ11" s="7"/>
+      <c r="IP11" s="21"/>
+      <c r="IQ11" s="21"/>
       <c r="IR11" s="8" t="s">
         <v>13</v>
       </c>
@@ -6258,10 +6350,10 @@
       <c r="IV11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="IW11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="IX11" s="4" t="s">
+      <c r="IW11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="IX11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="IY11" s="7"/>
@@ -6269,106 +6361,106 @@
       <c r="JA11" s="7"/>
       <c r="JB11" s="7"/>
       <c r="JC11" s="7"/>
-      <c r="JD11" s="7"/>
-      <c r="JE11" s="7"/>
+      <c r="JD11" s="21"/>
+      <c r="JE11" s="21"/>
       <c r="JF11" s="7"/>
       <c r="JG11" s="7"/>
       <c r="JH11" s="7"/>
       <c r="JI11" s="7"/>
       <c r="JJ11" s="7"/>
-      <c r="JK11" s="7"/>
-      <c r="JL11" s="7"/>
+      <c r="JK11" s="21"/>
+      <c r="JL11" s="21"/>
       <c r="JM11" s="7"/>
       <c r="JN11" s="7"/>
       <c r="JO11" s="7"/>
       <c r="JP11" s="7"/>
       <c r="JQ11" s="7"/>
-      <c r="JR11" s="7"/>
-      <c r="JS11" s="7"/>
+      <c r="JR11" s="21"/>
+      <c r="JS11" s="21"/>
       <c r="JT11" s="7"/>
       <c r="JU11" s="7"/>
       <c r="JV11" s="7"/>
       <c r="JW11" s="7"/>
       <c r="JX11" s="7"/>
-      <c r="JY11" s="7"/>
-      <c r="JZ11" s="7"/>
+      <c r="JY11" s="21"/>
+      <c r="JZ11" s="21"/>
       <c r="KA11" s="7"/>
       <c r="KB11" s="7"/>
       <c r="KC11" s="7"/>
       <c r="KD11" s="7"/>
       <c r="KE11" s="7"/>
-      <c r="KF11" s="7"/>
-      <c r="KG11" s="7"/>
+      <c r="KF11" s="21"/>
+      <c r="KG11" s="21"/>
       <c r="KH11" s="7"/>
       <c r="KI11" s="7"/>
       <c r="KJ11" s="7"/>
       <c r="KK11" s="7"/>
       <c r="KL11" s="7"/>
-      <c r="KM11" s="7"/>
-      <c r="KN11" s="7"/>
+      <c r="KM11" s="21"/>
+      <c r="KN11" s="21"/>
       <c r="KO11" s="7"/>
       <c r="KP11" s="7"/>
       <c r="KQ11" s="7"/>
       <c r="KR11" s="7"/>
       <c r="KS11" s="7"/>
-      <c r="KT11" s="7"/>
-      <c r="KU11" s="7"/>
+      <c r="KT11" s="21"/>
+      <c r="KU11" s="21"/>
       <c r="KV11" s="7"/>
       <c r="KW11" s="7"/>
       <c r="KX11" s="7"/>
       <c r="KY11" s="7"/>
       <c r="KZ11" s="7"/>
-      <c r="LA11" s="7"/>
-      <c r="LB11" s="7"/>
+      <c r="LA11" s="21"/>
+      <c r="LB11" s="21"/>
       <c r="LC11" s="7"/>
       <c r="LD11" s="7"/>
       <c r="LE11" s="7"/>
       <c r="LF11" s="7"/>
       <c r="LG11" s="7"/>
-      <c r="LH11" s="7"/>
-      <c r="LI11" s="7"/>
+      <c r="LH11" s="21"/>
+      <c r="LI11" s="21"/>
       <c r="LJ11" s="7"/>
       <c r="LK11" s="7"/>
       <c r="LL11" s="7"/>
       <c r="LM11" s="7"/>
       <c r="LN11" s="7"/>
-      <c r="LO11" s="7"/>
-      <c r="LP11" s="7"/>
+      <c r="LO11" s="21"/>
+      <c r="LP11" s="21"/>
       <c r="LQ11" s="7"/>
       <c r="LR11" s="7"/>
       <c r="LS11" s="7"/>
       <c r="LT11" s="7"/>
       <c r="LU11" s="7"/>
-      <c r="LV11" s="7"/>
-      <c r="LW11" s="7"/>
+      <c r="LV11" s="21"/>
+      <c r="LW11" s="21"/>
       <c r="LX11" s="7"/>
       <c r="LY11" s="7"/>
       <c r="LZ11" s="7"/>
       <c r="MA11" s="7"/>
       <c r="MB11" s="7"/>
-      <c r="MC11" s="7"/>
-      <c r="MD11" s="7"/>
+      <c r="MC11" s="21"/>
+      <c r="MD11" s="21"/>
       <c r="ME11" s="7"/>
       <c r="MF11" s="7"/>
       <c r="MG11" s="7"/>
       <c r="MH11" s="7"/>
       <c r="MI11" s="7"/>
-      <c r="MJ11" s="7"/>
-      <c r="MK11" s="7"/>
+      <c r="MJ11" s="21"/>
+      <c r="MK11" s="21"/>
       <c r="ML11" s="7"/>
       <c r="MM11" s="7"/>
       <c r="MN11" s="7"/>
       <c r="MO11" s="7"/>
       <c r="MP11" s="7"/>
-      <c r="MQ11" s="7"/>
-      <c r="MR11" s="7"/>
+      <c r="MQ11" s="21"/>
+      <c r="MR11" s="21"/>
       <c r="MS11" s="7"/>
       <c r="MT11" s="7"/>
       <c r="MU11" s="7"/>
       <c r="MV11" s="7"/>
       <c r="MW11" s="7"/>
-      <c r="MX11" s="7"/>
-      <c r="MY11" s="7"/>
+      <c r="MX11" s="21"/>
+      <c r="MY11" s="21"/>
       <c r="MZ11" s="7"/>
       <c r="NA11" s="7"/>
       <c r="NB11" s="8" t="s">
@@ -6459,155 +6551,155 @@
       <c r="CA12" s="1"/>
       <c r="CB12" s="1"/>
       <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
       <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
+      <c r="CR12" s="21"/>
+      <c r="CS12" s="21"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
       <c r="CW12" s="1"/>
       <c r="CX12" s="1"/>
-      <c r="CY12" s="1"/>
-      <c r="CZ12" s="1"/>
+      <c r="CY12" s="21"/>
+      <c r="CZ12" s="21"/>
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
       <c r="DD12" s="1"/>
       <c r="DE12" s="1"/>
-      <c r="DF12" s="1"/>
-      <c r="DG12" s="1"/>
+      <c r="DF12" s="21"/>
+      <c r="DG12" s="21"/>
       <c r="DH12" s="1"/>
       <c r="DI12" s="1"/>
       <c r="DJ12" s="1"/>
       <c r="DK12" s="1"/>
       <c r="DL12" s="1"/>
-      <c r="DM12" s="1"/>
-      <c r="DN12" s="1"/>
+      <c r="DM12" s="21"/>
+      <c r="DN12" s="21"/>
       <c r="DO12" s="1"/>
       <c r="DP12" s="1"/>
       <c r="DQ12" s="1"/>
       <c r="DR12" s="1"/>
       <c r="DS12" s="1"/>
-      <c r="DT12" s="1"/>
-      <c r="DU12" s="1"/>
+      <c r="DT12" s="21"/>
+      <c r="DU12" s="21"/>
       <c r="DV12" s="1"/>
       <c r="DW12" s="1"/>
       <c r="DX12" s="1"/>
       <c r="DY12" s="1"/>
       <c r="DZ12" s="1"/>
-      <c r="EA12" s="1"/>
-      <c r="EB12" s="1"/>
+      <c r="EA12" s="21"/>
+      <c r="EB12" s="21"/>
       <c r="EC12" s="1"/>
       <c r="ED12" s="1"/>
       <c r="EE12" s="1"/>
       <c r="EF12" s="1"/>
       <c r="EG12" s="1"/>
-      <c r="EH12" s="1"/>
-      <c r="EI12" s="1"/>
+      <c r="EH12" s="21"/>
+      <c r="EI12" s="21"/>
       <c r="EJ12" s="1"/>
       <c r="EK12" s="1"/>
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
-      <c r="EP12" s="1"/>
+      <c r="EO12" s="21"/>
+      <c r="EP12" s="21"/>
       <c r="EQ12" s="1"/>
       <c r="ER12" s="1"/>
       <c r="ES12" s="1"/>
       <c r="ET12" s="1"/>
       <c r="EU12" s="1"/>
-      <c r="EV12" s="1"/>
-      <c r="EW12" s="1"/>
+      <c r="EV12" s="21"/>
+      <c r="EW12" s="21"/>
       <c r="EX12" s="1"/>
       <c r="EY12" s="1"/>
       <c r="EZ12" s="1"/>
       <c r="FA12" s="1"/>
       <c r="FB12" s="1"/>
-      <c r="FC12" s="1"/>
-      <c r="FD12" s="1"/>
+      <c r="FC12" s="21"/>
+      <c r="FD12" s="21"/>
       <c r="FE12" s="1"/>
       <c r="FF12" s="1"/>
       <c r="FG12" s="1"/>
       <c r="FH12" s="1"/>
       <c r="FI12" s="1"/>
-      <c r="FJ12" s="1"/>
-      <c r="FK12" s="1"/>
+      <c r="FJ12" s="21"/>
+      <c r="FK12" s="21"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
       <c r="FN12" s="1"/>
       <c r="FO12" s="1"/>
       <c r="FP12" s="1"/>
-      <c r="FQ12" s="1"/>
-      <c r="FR12" s="1"/>
+      <c r="FQ12" s="21"/>
+      <c r="FR12" s="21"/>
       <c r="FS12" s="1"/>
       <c r="FT12" s="1"/>
       <c r="FU12" s="1"/>
       <c r="FV12" s="1"/>
       <c r="FW12" s="1"/>
-      <c r="FX12" s="1"/>
-      <c r="FY12" s="1"/>
+      <c r="FX12" s="21"/>
+      <c r="FY12" s="21"/>
       <c r="FZ12" s="1"/>
       <c r="GA12" s="1"/>
       <c r="GB12" s="1"/>
       <c r="GC12" s="1"/>
       <c r="GD12" s="1"/>
-      <c r="GE12" s="1"/>
-      <c r="GF12" s="1"/>
+      <c r="GE12" s="21"/>
+      <c r="GF12" s="21"/>
       <c r="GG12" s="1"/>
       <c r="GH12" s="1"/>
       <c r="GI12" s="1"/>
       <c r="GJ12" s="1"/>
       <c r="GK12" s="1"/>
-      <c r="GL12" s="1"/>
-      <c r="GM12" s="1"/>
+      <c r="GL12" s="21"/>
+      <c r="GM12" s="21"/>
       <c r="GN12" s="1"/>
       <c r="GO12" s="1"/>
       <c r="GP12" s="1"/>
       <c r="GQ12" s="1"/>
       <c r="GR12" s="1"/>
-      <c r="GS12" s="1"/>
-      <c r="GT12" s="1"/>
+      <c r="GS12" s="21"/>
+      <c r="GT12" s="21"/>
       <c r="GU12" s="1"/>
       <c r="GV12" s="1"/>
       <c r="GW12" s="1"/>
       <c r="GX12" s="1"/>
       <c r="GY12" s="1"/>
-      <c r="GZ12" s="1"/>
-      <c r="HA12" s="1"/>
+      <c r="GZ12" s="21"/>
+      <c r="HA12" s="21"/>
       <c r="HB12" s="1"/>
       <c r="HC12" s="1"/>
       <c r="HD12" s="1"/>
       <c r="HE12" s="1"/>
       <c r="HF12" s="1"/>
-      <c r="HG12" s="1"/>
-      <c r="HH12" s="1"/>
+      <c r="HG12" s="21"/>
+      <c r="HH12" s="21"/>
       <c r="HI12" s="1"/>
       <c r="HJ12" s="1"/>
       <c r="HK12" s="1"/>
       <c r="HL12" s="1"/>
       <c r="HM12" s="1"/>
-      <c r="HN12" s="1"/>
-      <c r="HO12" s="1"/>
+      <c r="HN12" s="21"/>
+      <c r="HO12" s="21"/>
       <c r="HP12" s="1"/>
       <c r="HQ12" s="1"/>
       <c r="HR12" s="1"/>
       <c r="HS12" s="1"/>
       <c r="HT12" s="1"/>
-      <c r="HU12" s="1"/>
-      <c r="HV12" s="1"/>
+      <c r="HU12" s="21"/>
+      <c r="HV12" s="21"/>
       <c r="HW12" t="s">
         <v>13</v>
       </c>
@@ -6623,10 +6715,10 @@
       <c r="IA12" t="s">
         <v>13</v>
       </c>
-      <c r="IB12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="IC12" s="4" t="s">
+      <c r="IB12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="ID12" t="s">
@@ -6644,10 +6736,10 @@
       <c r="IH12" t="s">
         <v>13</v>
       </c>
-      <c r="II12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="IJ12" s="4" t="s">
+      <c r="II12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="IK12" s="1"/>
@@ -6655,106 +6747,106 @@
       <c r="IM12" s="1"/>
       <c r="IN12" s="1"/>
       <c r="IO12" s="1"/>
-      <c r="IP12" s="1"/>
-      <c r="IQ12" s="1"/>
+      <c r="IP12" s="21"/>
+      <c r="IQ12" s="21"/>
       <c r="IR12" s="1"/>
       <c r="IS12" s="1"/>
       <c r="IT12" s="1"/>
       <c r="IU12" s="1"/>
       <c r="IV12" s="1"/>
-      <c r="IW12" s="1"/>
-      <c r="IX12" s="1"/>
+      <c r="IW12" s="21"/>
+      <c r="IX12" s="21"/>
       <c r="IY12" s="1"/>
       <c r="IZ12" s="1"/>
       <c r="JA12" s="1"/>
       <c r="JB12" s="1"/>
       <c r="JC12" s="1"/>
-      <c r="JD12" s="1"/>
-      <c r="JE12" s="1"/>
+      <c r="JD12" s="21"/>
+      <c r="JE12" s="21"/>
       <c r="JF12" s="1"/>
       <c r="JG12" s="1"/>
       <c r="JH12" s="1"/>
       <c r="JI12" s="1"/>
       <c r="JJ12" s="1"/>
-      <c r="JK12" s="1"/>
-      <c r="JL12" s="1"/>
+      <c r="JK12" s="21"/>
+      <c r="JL12" s="21"/>
       <c r="JM12" s="1"/>
       <c r="JN12" s="1"/>
       <c r="JO12" s="1"/>
       <c r="JP12" s="1"/>
       <c r="JQ12" s="1"/>
-      <c r="JR12" s="1"/>
-      <c r="JS12" s="1"/>
+      <c r="JR12" s="21"/>
+      <c r="JS12" s="21"/>
       <c r="JT12" s="1"/>
       <c r="JU12" s="1"/>
       <c r="JV12" s="1"/>
       <c r="JW12" s="1"/>
       <c r="JX12" s="1"/>
-      <c r="JY12" s="1"/>
-      <c r="JZ12" s="1"/>
+      <c r="JY12" s="21"/>
+      <c r="JZ12" s="21"/>
       <c r="KA12" s="1"/>
       <c r="KB12" s="1"/>
       <c r="KC12" s="1"/>
       <c r="KD12" s="1"/>
       <c r="KE12" s="1"/>
-      <c r="KF12" s="1"/>
-      <c r="KG12" s="1"/>
+      <c r="KF12" s="21"/>
+      <c r="KG12" s="21"/>
       <c r="KH12" s="1"/>
       <c r="KI12" s="1"/>
       <c r="KJ12" s="1"/>
       <c r="KK12" s="1"/>
       <c r="KL12" s="1"/>
-      <c r="KM12" s="1"/>
-      <c r="KN12" s="1"/>
+      <c r="KM12" s="21"/>
+      <c r="KN12" s="21"/>
       <c r="KO12" s="1"/>
       <c r="KP12" s="1"/>
       <c r="KQ12" s="1"/>
       <c r="KR12" s="1"/>
       <c r="KS12" s="1"/>
-      <c r="KT12" s="1"/>
-      <c r="KU12" s="1"/>
+      <c r="KT12" s="21"/>
+      <c r="KU12" s="21"/>
       <c r="KV12" s="1"/>
       <c r="KW12" s="1"/>
       <c r="KX12" s="1"/>
       <c r="KY12" s="1"/>
       <c r="KZ12" s="1"/>
-      <c r="LA12" s="1"/>
-      <c r="LB12" s="1"/>
+      <c r="LA12" s="21"/>
+      <c r="LB12" s="21"/>
       <c r="LC12" s="1"/>
       <c r="LD12" s="1"/>
       <c r="LE12" s="1"/>
       <c r="LF12" s="1"/>
       <c r="LG12" s="1"/>
-      <c r="LH12" s="1"/>
-      <c r="LI12" s="1"/>
+      <c r="LH12" s="21"/>
+      <c r="LI12" s="21"/>
       <c r="LJ12" s="1"/>
       <c r="LK12" s="1"/>
       <c r="LL12" s="1"/>
       <c r="LM12" s="1"/>
       <c r="LN12" s="1"/>
-      <c r="LO12" s="1"/>
-      <c r="LP12" s="1"/>
+      <c r="LO12" s="21"/>
+      <c r="LP12" s="21"/>
       <c r="LQ12" s="1"/>
       <c r="LR12" s="1"/>
       <c r="LS12" s="1"/>
       <c r="LT12" s="1"/>
       <c r="LU12" s="1"/>
-      <c r="LV12" s="1"/>
-      <c r="LW12" s="1"/>
+      <c r="LV12" s="21"/>
+      <c r="LW12" s="21"/>
       <c r="LX12" s="1"/>
       <c r="LY12" s="1"/>
       <c r="LZ12" s="1"/>
       <c r="MA12" s="1"/>
       <c r="MB12" s="1"/>
-      <c r="MC12" s="1"/>
-      <c r="MD12" s="1"/>
+      <c r="MC12" s="21"/>
+      <c r="MD12" s="21"/>
       <c r="ME12" s="1"/>
       <c r="MF12" s="1"/>
       <c r="MG12" s="1"/>
       <c r="MH12" s="1"/>
       <c r="MI12" s="1"/>
-      <c r="MJ12" s="1"/>
-      <c r="MK12" s="1"/>
+      <c r="MJ12" s="21"/>
+      <c r="MK12" s="21"/>
       <c r="ML12" t="s">
         <v>13</v>
       </c>
@@ -6770,10 +6862,10 @@
       <c r="MP12" t="s">
         <v>13</v>
       </c>
-      <c r="MQ12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR12" s="4" t="s">
+      <c r="MQ12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="MS12" t="s">
@@ -6791,10 +6883,10 @@
       <c r="MW12" t="s">
         <v>13</v>
       </c>
-      <c r="MX12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MY12" s="4" t="s">
+      <c r="MX12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="MY12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="MZ12" s="1"/>
@@ -6885,8 +6977,8 @@
       <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
-      <c r="CD13" s="7"/>
-      <c r="CE13" s="7"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="21"/>
       <c r="CF13" s="8" t="s">
         <v>13</v>
       </c>
@@ -6902,10 +6994,10 @@
       <c r="CJ13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CK13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL13" s="9" t="s">
+      <c r="CK13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="CM13" s="7"/>
@@ -6913,183 +7005,183 @@
       <c r="CO13" s="7"/>
       <c r="CP13" s="7"/>
       <c r="CQ13" s="7"/>
-      <c r="CR13" s="7"/>
-      <c r="CS13" s="7"/>
+      <c r="CR13" s="21"/>
+      <c r="CS13" s="21"/>
       <c r="CT13" s="7"/>
       <c r="CU13" s="7"/>
       <c r="CV13" s="7"/>
       <c r="CW13" s="7"/>
       <c r="CX13" s="7"/>
-      <c r="CY13" s="7"/>
-      <c r="CZ13" s="7"/>
+      <c r="CY13" s="21"/>
+      <c r="CZ13" s="21"/>
       <c r="DA13" s="7"/>
       <c r="DB13" s="7"/>
       <c r="DC13" s="7"/>
       <c r="DD13" s="7"/>
       <c r="DE13" s="7"/>
-      <c r="DF13" s="7"/>
-      <c r="DG13" s="7"/>
+      <c r="DF13" s="21"/>
+      <c r="DG13" s="21"/>
       <c r="DH13" s="7"/>
       <c r="DI13" s="7"/>
       <c r="DJ13" s="7"/>
       <c r="DK13" s="7"/>
       <c r="DL13" s="7"/>
-      <c r="DM13" s="7"/>
-      <c r="DN13" s="7"/>
+      <c r="DM13" s="21"/>
+      <c r="DN13" s="21"/>
       <c r="DO13" s="7"/>
       <c r="DP13" s="7"/>
       <c r="DQ13" s="7"/>
       <c r="DR13" s="7"/>
       <c r="DS13" s="7"/>
-      <c r="DT13" s="7"/>
-      <c r="DU13" s="7"/>
+      <c r="DT13" s="21"/>
+      <c r="DU13" s="21"/>
       <c r="DV13" s="7"/>
       <c r="DW13" s="7"/>
       <c r="DX13" s="7"/>
       <c r="DY13" s="7"/>
       <c r="DZ13" s="7"/>
-      <c r="EA13" s="7"/>
-      <c r="EB13" s="7"/>
+      <c r="EA13" s="21"/>
+      <c r="EB13" s="21"/>
       <c r="EC13" s="7"/>
       <c r="ED13" s="7"/>
       <c r="EE13" s="7"/>
       <c r="EF13" s="7"/>
       <c r="EG13" s="7"/>
-      <c r="EH13" s="7"/>
-      <c r="EI13" s="7"/>
+      <c r="EH13" s="21"/>
+      <c r="EI13" s="21"/>
       <c r="EJ13" s="7"/>
       <c r="EK13" s="7"/>
       <c r="EL13" s="7"/>
       <c r="EM13" s="7"/>
       <c r="EN13" s="7"/>
-      <c r="EO13" s="7"/>
-      <c r="EP13" s="7"/>
+      <c r="EO13" s="21"/>
+      <c r="EP13" s="21"/>
       <c r="EQ13" s="7"/>
       <c r="ER13" s="7"/>
       <c r="ES13" s="7"/>
       <c r="ET13" s="7"/>
       <c r="EU13" s="7"/>
-      <c r="EV13" s="7"/>
-      <c r="EW13" s="7"/>
+      <c r="EV13" s="21"/>
+      <c r="EW13" s="21"/>
       <c r="EX13" s="7"/>
       <c r="EY13" s="7"/>
       <c r="EZ13" s="7"/>
       <c r="FA13" s="7"/>
       <c r="FB13" s="7"/>
-      <c r="FC13" s="7"/>
-      <c r="FD13" s="7"/>
+      <c r="FC13" s="21"/>
+      <c r="FD13" s="21"/>
       <c r="FE13" s="7"/>
       <c r="FF13" s="7"/>
       <c r="FG13" s="7"/>
       <c r="FH13" s="7"/>
       <c r="FI13" s="7"/>
-      <c r="FJ13" s="7"/>
-      <c r="FK13" s="7"/>
+      <c r="FJ13" s="21"/>
+      <c r="FK13" s="21"/>
       <c r="FL13" s="7"/>
       <c r="FM13" s="7"/>
       <c r="FN13" s="7"/>
       <c r="FO13" s="7"/>
       <c r="FP13" s="7"/>
-      <c r="FQ13" s="7"/>
-      <c r="FR13" s="7"/>
+      <c r="FQ13" s="21"/>
+      <c r="FR13" s="21"/>
       <c r="FS13" s="7"/>
       <c r="FT13" s="7"/>
       <c r="FU13" s="7"/>
       <c r="FV13" s="7"/>
       <c r="FW13" s="7"/>
-      <c r="FX13" s="7"/>
-      <c r="FY13" s="7"/>
+      <c r="FX13" s="21"/>
+      <c r="FY13" s="21"/>
       <c r="FZ13" s="7"/>
       <c r="GA13" s="7"/>
       <c r="GB13" s="7"/>
       <c r="GC13" s="7"/>
       <c r="GD13" s="7"/>
-      <c r="GE13" s="7"/>
-      <c r="GF13" s="7"/>
+      <c r="GE13" s="21"/>
+      <c r="GF13" s="21"/>
       <c r="GG13" s="7"/>
       <c r="GH13" s="7"/>
       <c r="GI13" s="7"/>
       <c r="GJ13" s="7"/>
       <c r="GK13" s="7"/>
-      <c r="GL13" s="7"/>
-      <c r="GM13" s="7"/>
+      <c r="GL13" s="21"/>
+      <c r="GM13" s="21"/>
       <c r="GN13" s="7"/>
       <c r="GO13" s="7"/>
       <c r="GP13" s="7"/>
       <c r="GQ13" s="7"/>
       <c r="GR13" s="7"/>
-      <c r="GS13" s="7"/>
-      <c r="GT13" s="7"/>
+      <c r="GS13" s="21"/>
+      <c r="GT13" s="21"/>
       <c r="GU13" s="7"/>
       <c r="GV13" s="7"/>
       <c r="GW13" s="7"/>
       <c r="GX13" s="7"/>
       <c r="GY13" s="7"/>
-      <c r="GZ13" s="7"/>
-      <c r="HA13" s="7"/>
+      <c r="GZ13" s="21"/>
+      <c r="HA13" s="21"/>
       <c r="HB13" s="7"/>
       <c r="HC13" s="7"/>
       <c r="HD13" s="7"/>
       <c r="HE13" s="7"/>
       <c r="HF13" s="7"/>
-      <c r="HG13" s="7"/>
-      <c r="HH13" s="7"/>
+      <c r="HG13" s="21"/>
+      <c r="HH13" s="21"/>
       <c r="HI13" s="7"/>
       <c r="HJ13" s="7"/>
       <c r="HK13" s="7"/>
       <c r="HL13" s="7"/>
       <c r="HM13" s="7"/>
-      <c r="HN13" s="7"/>
-      <c r="HO13" s="7"/>
+      <c r="HN13" s="21"/>
+      <c r="HO13" s="21"/>
       <c r="HP13" s="7"/>
       <c r="HQ13" s="7"/>
       <c r="HR13" s="7"/>
       <c r="HS13" s="7"/>
       <c r="HT13" s="7"/>
-      <c r="HU13" s="7"/>
-      <c r="HV13" s="7"/>
+      <c r="HU13" s="21"/>
+      <c r="HV13" s="21"/>
       <c r="HW13" s="7"/>
       <c r="HX13" s="7"/>
       <c r="HY13" s="7"/>
       <c r="HZ13" s="7"/>
       <c r="IA13" s="7"/>
-      <c r="IB13" s="7"/>
-      <c r="IC13" s="7"/>
+      <c r="IB13" s="21"/>
+      <c r="IC13" s="21"/>
       <c r="ID13" s="7"/>
       <c r="IE13" s="7"/>
       <c r="IF13" s="7"/>
       <c r="IG13" s="7"/>
       <c r="IH13" s="7"/>
-      <c r="II13" s="7"/>
-      <c r="IJ13" s="7"/>
+      <c r="II13" s="21"/>
+      <c r="IJ13" s="21"/>
       <c r="IK13" s="7"/>
       <c r="IL13" s="7"/>
       <c r="IM13" s="7"/>
       <c r="IN13" s="7"/>
       <c r="IO13" s="7"/>
-      <c r="IP13" s="7"/>
-      <c r="IQ13" s="7"/>
+      <c r="IP13" s="21"/>
+      <c r="IQ13" s="21"/>
       <c r="IR13" s="7"/>
       <c r="IS13" s="7"/>
       <c r="IT13" s="7"/>
       <c r="IU13" s="7"/>
       <c r="IV13" s="7"/>
-      <c r="IW13" s="7"/>
-      <c r="IX13" s="7"/>
+      <c r="IW13" s="21"/>
+      <c r="IX13" s="21"/>
       <c r="IY13" s="7"/>
       <c r="IZ13" s="7"/>
       <c r="JA13" s="7"/>
       <c r="JB13" s="7"/>
       <c r="JC13" s="7"/>
-      <c r="JD13" s="7"/>
-      <c r="JE13" s="7"/>
+      <c r="JD13" s="21"/>
+      <c r="JE13" s="21"/>
       <c r="JF13" s="7"/>
       <c r="JG13" s="7"/>
       <c r="JH13" s="7"/>
       <c r="JI13" s="7"/>
       <c r="JJ13" s="7"/>
-      <c r="JK13" s="7"/>
-      <c r="JL13" s="7"/>
+      <c r="JK13" s="21"/>
+      <c r="JL13" s="21"/>
       <c r="JM13" s="8" t="s">
         <v>13</v>
       </c>
@@ -7105,10 +7197,10 @@
       <c r="JQ13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="JR13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="JS13" s="9" t="s">
+      <c r="JR13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="JS13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="JT13" s="8" t="s">
@@ -7126,10 +7218,10 @@
       <c r="JX13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="JY13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="JZ13" s="4" t="s">
+      <c r="JY13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="JZ13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="KA13" s="7"/>
@@ -7137,78 +7229,78 @@
       <c r="KC13" s="7"/>
       <c r="KD13" s="7"/>
       <c r="KE13" s="7"/>
-      <c r="KF13" s="7"/>
-      <c r="KG13" s="7"/>
+      <c r="KF13" s="21"/>
+      <c r="KG13" s="21"/>
       <c r="KH13" s="7"/>
       <c r="KI13" s="7"/>
       <c r="KJ13" s="7"/>
       <c r="KK13" s="7"/>
       <c r="KL13" s="7"/>
-      <c r="KM13" s="7"/>
-      <c r="KN13" s="7"/>
+      <c r="KM13" s="21"/>
+      <c r="KN13" s="21"/>
       <c r="KO13" s="7"/>
       <c r="KP13" s="7"/>
       <c r="KQ13" s="7"/>
       <c r="KR13" s="7"/>
       <c r="KS13" s="7"/>
-      <c r="KT13" s="7"/>
-      <c r="KU13" s="7"/>
+      <c r="KT13" s="21"/>
+      <c r="KU13" s="21"/>
       <c r="KV13" s="7"/>
       <c r="KW13" s="7"/>
       <c r="KX13" s="7"/>
       <c r="KY13" s="7"/>
       <c r="KZ13" s="7"/>
-      <c r="LA13" s="7"/>
-      <c r="LB13" s="7"/>
+      <c r="LA13" s="21"/>
+      <c r="LB13" s="21"/>
       <c r="LC13" s="7"/>
       <c r="LD13" s="7"/>
       <c r="LE13" s="7"/>
       <c r="LF13" s="7"/>
       <c r="LG13" s="7"/>
-      <c r="LH13" s="7"/>
-      <c r="LI13" s="7"/>
+      <c r="LH13" s="21"/>
+      <c r="LI13" s="21"/>
       <c r="LJ13" s="7"/>
       <c r="LK13" s="7"/>
       <c r="LL13" s="7"/>
       <c r="LM13" s="7"/>
       <c r="LN13" s="7"/>
-      <c r="LO13" s="7"/>
-      <c r="LP13" s="7"/>
+      <c r="LO13" s="21"/>
+      <c r="LP13" s="21"/>
       <c r="LQ13" s="7"/>
       <c r="LR13" s="7"/>
       <c r="LS13" s="7"/>
       <c r="LT13" s="7"/>
       <c r="LU13" s="7"/>
-      <c r="LV13" s="7"/>
-      <c r="LW13" s="7"/>
+      <c r="LV13" s="21"/>
+      <c r="LW13" s="21"/>
       <c r="LX13" s="7"/>
       <c r="LY13" s="7"/>
       <c r="LZ13" s="7"/>
       <c r="MA13" s="7"/>
       <c r="MB13" s="7"/>
-      <c r="MC13" s="7"/>
-      <c r="MD13" s="7"/>
+      <c r="MC13" s="21"/>
+      <c r="MD13" s="21"/>
       <c r="ME13" s="7"/>
       <c r="MF13" s="7"/>
       <c r="MG13" s="7"/>
       <c r="MH13" s="7"/>
       <c r="MI13" s="7"/>
-      <c r="MJ13" s="7"/>
-      <c r="MK13" s="7"/>
+      <c r="MJ13" s="21"/>
+      <c r="MK13" s="21"/>
       <c r="ML13" s="7"/>
       <c r="MM13" s="7"/>
       <c r="MN13" s="7"/>
       <c r="MO13" s="7"/>
       <c r="MP13" s="7"/>
-      <c r="MQ13" s="7"/>
-      <c r="MR13" s="7"/>
+      <c r="MQ13" s="21"/>
+      <c r="MR13" s="21"/>
       <c r="MS13" s="7"/>
       <c r="MT13" s="7"/>
       <c r="MU13" s="7"/>
       <c r="MV13" s="7"/>
       <c r="MW13" s="7"/>
-      <c r="MX13" s="7"/>
-      <c r="MY13" s="7"/>
+      <c r="MX13" s="21"/>
+      <c r="MY13" s="21"/>
       <c r="MZ13" s="7"/>
       <c r="NA13" s="7"/>
       <c r="NB13" s="7"/>
@@ -7297,288 +7389,288 @@
       <c r="CA14" s="1"/>
       <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
       <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
       <c r="CO14" s="1"/>
       <c r="CP14" s="1"/>
       <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
+      <c r="CR14" s="21"/>
+      <c r="CS14" s="21"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
       <c r="CW14" s="1"/>
       <c r="CX14" s="1"/>
-      <c r="CY14" s="1"/>
-      <c r="CZ14" s="1"/>
+      <c r="CY14" s="21"/>
+      <c r="CZ14" s="21"/>
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
       <c r="DD14" s="1"/>
       <c r="DE14" s="1"/>
-      <c r="DF14" s="1"/>
-      <c r="DG14" s="1"/>
+      <c r="DF14" s="21"/>
+      <c r="DG14" s="21"/>
       <c r="DH14" s="1"/>
       <c r="DI14" s="1"/>
       <c r="DJ14" s="1"/>
       <c r="DK14" s="1"/>
       <c r="DL14" s="1"/>
-      <c r="DM14" s="1"/>
-      <c r="DN14" s="1"/>
+      <c r="DM14" s="21"/>
+      <c r="DN14" s="21"/>
       <c r="DO14" s="1"/>
       <c r="DP14" s="1"/>
       <c r="DQ14" s="1"/>
       <c r="DR14" s="1"/>
       <c r="DS14" s="1"/>
-      <c r="DT14" s="1"/>
-      <c r="DU14" s="1"/>
+      <c r="DT14" s="21"/>
+      <c r="DU14" s="21"/>
       <c r="DV14" s="1"/>
       <c r="DW14" s="1"/>
       <c r="DX14" s="1"/>
       <c r="DY14" s="1"/>
       <c r="DZ14" s="1"/>
-      <c r="EA14" s="1"/>
-      <c r="EB14" s="1"/>
+      <c r="EA14" s="21"/>
+      <c r="EB14" s="21"/>
       <c r="EC14" s="1"/>
       <c r="ED14" s="1"/>
       <c r="EE14" s="1"/>
       <c r="EF14" s="1"/>
       <c r="EG14" s="1"/>
-      <c r="EH14" s="1"/>
-      <c r="EI14" s="1"/>
+      <c r="EH14" s="21"/>
+      <c r="EI14" s="21"/>
       <c r="EJ14" s="1"/>
       <c r="EK14" s="1"/>
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
-      <c r="EP14" s="1"/>
+      <c r="EO14" s="21"/>
+      <c r="EP14" s="21"/>
       <c r="EQ14" s="1"/>
       <c r="ER14" s="1"/>
       <c r="ES14" s="1"/>
       <c r="ET14" s="1"/>
       <c r="EU14" s="1"/>
-      <c r="EV14" s="1"/>
-      <c r="EW14" s="1"/>
+      <c r="EV14" s="21"/>
+      <c r="EW14" s="21"/>
       <c r="EX14" s="1"/>
       <c r="EY14" s="1"/>
       <c r="EZ14" s="1"/>
       <c r="FA14" s="1"/>
       <c r="FB14" s="1"/>
-      <c r="FC14" s="1"/>
-      <c r="FD14" s="1"/>
+      <c r="FC14" s="21"/>
+      <c r="FD14" s="21"/>
       <c r="FE14" s="1"/>
       <c r="FF14" s="1"/>
       <c r="FG14" s="1"/>
       <c r="FH14" s="1"/>
       <c r="FI14" s="1"/>
-      <c r="FJ14" s="1"/>
-      <c r="FK14" s="1"/>
+      <c r="FJ14" s="21"/>
+      <c r="FK14" s="21"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
       <c r="FN14" s="1"/>
       <c r="FO14" s="1"/>
       <c r="FP14" s="1"/>
-      <c r="FQ14" s="1"/>
-      <c r="FR14" s="1"/>
+      <c r="FQ14" s="21"/>
+      <c r="FR14" s="21"/>
       <c r="FS14" s="1"/>
       <c r="FT14" s="1"/>
       <c r="FU14" s="1"/>
       <c r="FV14" s="1"/>
       <c r="FW14" s="1"/>
-      <c r="FX14" s="1"/>
-      <c r="FY14" s="1"/>
+      <c r="FX14" s="21"/>
+      <c r="FY14" s="21"/>
       <c r="FZ14" s="1"/>
       <c r="GA14" s="1"/>
       <c r="GB14" s="1"/>
       <c r="GC14" s="1"/>
       <c r="GD14" s="1"/>
-      <c r="GE14" s="1"/>
-      <c r="GF14" s="1"/>
+      <c r="GE14" s="21"/>
+      <c r="GF14" s="21"/>
       <c r="GG14" s="1"/>
       <c r="GH14" s="1"/>
       <c r="GI14" s="1"/>
       <c r="GJ14" s="1"/>
       <c r="GK14" s="1"/>
-      <c r="GL14" s="1"/>
-      <c r="GM14" s="1"/>
+      <c r="GL14" s="21"/>
+      <c r="GM14" s="21"/>
       <c r="GN14" s="1"/>
       <c r="GO14" s="1"/>
       <c r="GP14" s="1"/>
       <c r="GQ14" s="1"/>
       <c r="GR14" s="1"/>
-      <c r="GS14" s="1"/>
-      <c r="GT14" s="1"/>
+      <c r="GS14" s="21"/>
+      <c r="GT14" s="21"/>
       <c r="GU14" s="1"/>
       <c r="GV14" s="1"/>
       <c r="GW14" s="1"/>
       <c r="GX14" s="1"/>
       <c r="GY14" s="1"/>
-      <c r="GZ14" s="1"/>
-      <c r="HA14" s="1"/>
+      <c r="GZ14" s="21"/>
+      <c r="HA14" s="21"/>
       <c r="HB14" s="1"/>
       <c r="HC14" s="1"/>
       <c r="HD14" s="1"/>
       <c r="HE14" s="1"/>
       <c r="HF14" s="1"/>
-      <c r="HG14" s="1"/>
-      <c r="HH14" s="1"/>
+      <c r="HG14" s="21"/>
+      <c r="HH14" s="21"/>
       <c r="HI14" s="1"/>
       <c r="HJ14" s="1"/>
       <c r="HK14" s="1"/>
       <c r="HL14" s="1"/>
       <c r="HM14" s="1"/>
-      <c r="HN14" s="1"/>
-      <c r="HO14" s="1"/>
+      <c r="HN14" s="21"/>
+      <c r="HO14" s="21"/>
       <c r="HP14" s="1"/>
       <c r="HQ14" s="1"/>
       <c r="HR14" s="1"/>
       <c r="HS14" s="1"/>
       <c r="HT14" s="1"/>
-      <c r="HU14" s="1"/>
-      <c r="HV14" s="1"/>
+      <c r="HU14" s="21"/>
+      <c r="HV14" s="21"/>
       <c r="HW14" s="1"/>
       <c r="HX14" s="1"/>
       <c r="HY14" s="1"/>
       <c r="HZ14" s="1"/>
       <c r="IA14" s="1"/>
-      <c r="IB14" s="1"/>
-      <c r="IC14" s="1"/>
+      <c r="IB14" s="21"/>
+      <c r="IC14" s="21"/>
       <c r="ID14" s="1"/>
       <c r="IE14" s="1"/>
       <c r="IF14" s="1"/>
       <c r="IG14" s="1"/>
       <c r="IH14" s="1"/>
-      <c r="II14" s="1"/>
-      <c r="IJ14" s="1"/>
+      <c r="II14" s="21"/>
+      <c r="IJ14" s="21"/>
       <c r="IK14" s="1"/>
       <c r="IL14" s="1"/>
       <c r="IM14" s="1"/>
       <c r="IN14" s="1"/>
       <c r="IO14" s="1"/>
-      <c r="IP14" s="1"/>
-      <c r="IQ14" s="1"/>
+      <c r="IP14" s="21"/>
+      <c r="IQ14" s="21"/>
       <c r="IR14" s="1"/>
       <c r="IS14" s="1"/>
       <c r="IT14" s="1"/>
       <c r="IU14" s="1"/>
       <c r="IV14" s="1"/>
-      <c r="IW14" s="1"/>
-      <c r="IX14" s="1"/>
+      <c r="IW14" s="21"/>
+      <c r="IX14" s="21"/>
       <c r="IY14" s="1"/>
       <c r="IZ14" s="1"/>
       <c r="JA14" s="1"/>
       <c r="JB14" s="1"/>
       <c r="JC14" s="1"/>
-      <c r="JD14" s="1"/>
-      <c r="JE14" s="1"/>
+      <c r="JD14" s="21"/>
+      <c r="JE14" s="21"/>
       <c r="JF14" s="1"/>
       <c r="JG14" s="1"/>
       <c r="JH14" s="1"/>
       <c r="JI14" s="1"/>
       <c r="JJ14" s="1"/>
-      <c r="JK14" s="1"/>
-      <c r="JL14" s="1"/>
+      <c r="JK14" s="21"/>
+      <c r="JL14" s="21"/>
       <c r="JM14" s="1"/>
       <c r="JN14" s="1"/>
       <c r="JO14" s="1"/>
       <c r="JP14" s="1"/>
       <c r="JQ14" s="1"/>
-      <c r="JR14" s="1"/>
-      <c r="JS14" s="1"/>
+      <c r="JR14" s="21"/>
+      <c r="JS14" s="21"/>
       <c r="JT14" s="1"/>
       <c r="JU14" s="1"/>
       <c r="JV14" s="1"/>
       <c r="JW14" s="1"/>
       <c r="JX14" s="1"/>
-      <c r="JY14" s="1"/>
-      <c r="JZ14" s="1"/>
+      <c r="JY14" s="21"/>
+      <c r="JZ14" s="21"/>
       <c r="KA14" s="1"/>
       <c r="KB14" s="1"/>
       <c r="KC14" s="1"/>
       <c r="KD14" s="1"/>
       <c r="KE14" s="1"/>
-      <c r="KF14" s="1"/>
-      <c r="KG14" s="1"/>
+      <c r="KF14" s="21"/>
+      <c r="KG14" s="21"/>
       <c r="KH14" s="1"/>
       <c r="KI14" s="1"/>
       <c r="KJ14" s="1"/>
       <c r="KK14" s="1"/>
       <c r="KL14" s="1"/>
-      <c r="KM14" s="1"/>
-      <c r="KN14" s="1"/>
+      <c r="KM14" s="21"/>
+      <c r="KN14" s="21"/>
       <c r="KO14" s="1"/>
       <c r="KP14" s="1"/>
       <c r="KQ14" s="1"/>
       <c r="KR14" s="1"/>
       <c r="KS14" s="1"/>
-      <c r="KT14" s="1"/>
-      <c r="KU14" s="1"/>
+      <c r="KT14" s="21"/>
+      <c r="KU14" s="21"/>
       <c r="KV14" s="1"/>
       <c r="KW14" s="1"/>
       <c r="KX14" s="1"/>
       <c r="KY14" s="1"/>
       <c r="KZ14" s="1"/>
-      <c r="LA14" s="1"/>
-      <c r="LB14" s="1"/>
+      <c r="LA14" s="21"/>
+      <c r="LB14" s="21"/>
       <c r="LC14" s="1"/>
       <c r="LD14" s="1"/>
       <c r="LE14" s="1"/>
       <c r="LF14" s="1"/>
       <c r="LG14" s="1"/>
-      <c r="LH14" s="1"/>
-      <c r="LI14" s="1"/>
+      <c r="LH14" s="21"/>
+      <c r="LI14" s="21"/>
       <c r="LJ14" s="1"/>
       <c r="LK14" s="1"/>
       <c r="LL14" s="1"/>
       <c r="LM14" s="1"/>
       <c r="LN14" s="1"/>
-      <c r="LO14" s="1"/>
-      <c r="LP14" s="1"/>
+      <c r="LO14" s="21"/>
+      <c r="LP14" s="21"/>
       <c r="LQ14" s="1"/>
       <c r="LR14" s="1"/>
       <c r="LS14" s="1"/>
       <c r="LT14" s="1"/>
       <c r="LU14" s="1"/>
-      <c r="LV14" s="1"/>
-      <c r="LW14" s="1"/>
+      <c r="LV14" s="21"/>
+      <c r="LW14" s="21"/>
       <c r="LX14" s="1"/>
       <c r="LY14" s="1"/>
       <c r="LZ14" s="1"/>
       <c r="MA14" s="1"/>
       <c r="MB14" s="1"/>
-      <c r="MC14" s="1"/>
-      <c r="MD14" s="1"/>
+      <c r="MC14" s="21"/>
+      <c r="MD14" s="21"/>
       <c r="ME14" s="1"/>
       <c r="MF14" s="1"/>
       <c r="MG14" s="1"/>
       <c r="MH14" s="1"/>
       <c r="MI14" s="1"/>
-      <c r="MJ14" s="1"/>
-      <c r="MK14" s="1"/>
+      <c r="MJ14" s="21"/>
+      <c r="MK14" s="21"/>
       <c r="ML14" s="1"/>
       <c r="MM14" s="1"/>
       <c r="MN14" s="1"/>
       <c r="MO14" s="1"/>
       <c r="MP14" s="1"/>
-      <c r="MQ14" s="1"/>
-      <c r="MR14" s="1"/>
+      <c r="MQ14" s="21"/>
+      <c r="MR14" s="21"/>
       <c r="MS14" s="1"/>
       <c r="MT14" s="1"/>
       <c r="MU14" s="1"/>
       <c r="MV14" s="1"/>
       <c r="MW14" s="1"/>
-      <c r="MX14" s="1"/>
-      <c r="MY14" s="1"/>
+      <c r="MX14" s="21"/>
+      <c r="MY14" s="21"/>
       <c r="MZ14" s="1"/>
       <c r="NA14" s="1"/>
       <c r="NB14" s="1"/>
@@ -7667,288 +7759,288 @@
       <c r="CA15" s="7"/>
       <c r="CB15" s="7"/>
       <c r="CC15" s="7"/>
-      <c r="CD15" s="7"/>
-      <c r="CE15" s="7"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="21"/>
       <c r="CF15" s="7"/>
       <c r="CG15" s="7"/>
       <c r="CH15" s="7"/>
       <c r="CI15" s="7"/>
       <c r="CJ15" s="7"/>
-      <c r="CK15" s="7"/>
-      <c r="CL15" s="7"/>
+      <c r="CK15" s="21"/>
+      <c r="CL15" s="21"/>
       <c r="CM15" s="7"/>
       <c r="CN15" s="7"/>
       <c r="CO15" s="7"/>
       <c r="CP15" s="7"/>
       <c r="CQ15" s="7"/>
-      <c r="CR15" s="7"/>
-      <c r="CS15" s="7"/>
+      <c r="CR15" s="21"/>
+      <c r="CS15" s="21"/>
       <c r="CT15" s="7"/>
       <c r="CU15" s="7"/>
       <c r="CV15" s="7"/>
       <c r="CW15" s="7"/>
       <c r="CX15" s="7"/>
-      <c r="CY15" s="7"/>
-      <c r="CZ15" s="7"/>
+      <c r="CY15" s="21"/>
+      <c r="CZ15" s="21"/>
       <c r="DA15" s="7"/>
       <c r="DB15" s="7"/>
       <c r="DC15" s="7"/>
       <c r="DD15" s="7"/>
       <c r="DE15" s="7"/>
-      <c r="DF15" s="7"/>
-      <c r="DG15" s="7"/>
+      <c r="DF15" s="21"/>
+      <c r="DG15" s="21"/>
       <c r="DH15" s="7"/>
       <c r="DI15" s="7"/>
       <c r="DJ15" s="7"/>
       <c r="DK15" s="7"/>
       <c r="DL15" s="7"/>
-      <c r="DM15" s="7"/>
-      <c r="DN15" s="7"/>
+      <c r="DM15" s="21"/>
+      <c r="DN15" s="21"/>
       <c r="DO15" s="7"/>
       <c r="DP15" s="7"/>
       <c r="DQ15" s="7"/>
       <c r="DR15" s="7"/>
       <c r="DS15" s="7"/>
-      <c r="DT15" s="7"/>
-      <c r="DU15" s="7"/>
+      <c r="DT15" s="21"/>
+      <c r="DU15" s="21"/>
       <c r="DV15" s="7"/>
       <c r="DW15" s="7"/>
       <c r="DX15" s="7"/>
       <c r="DY15" s="7"/>
       <c r="DZ15" s="7"/>
-      <c r="EA15" s="7"/>
-      <c r="EB15" s="7"/>
+      <c r="EA15" s="21"/>
+      <c r="EB15" s="21"/>
       <c r="EC15" s="7"/>
       <c r="ED15" s="7"/>
       <c r="EE15" s="7"/>
       <c r="EF15" s="7"/>
       <c r="EG15" s="7"/>
-      <c r="EH15" s="7"/>
-      <c r="EI15" s="7"/>
+      <c r="EH15" s="21"/>
+      <c r="EI15" s="21"/>
       <c r="EJ15" s="7"/>
       <c r="EK15" s="7"/>
       <c r="EL15" s="7"/>
       <c r="EM15" s="7"/>
       <c r="EN15" s="7"/>
-      <c r="EO15" s="7"/>
-      <c r="EP15" s="7"/>
+      <c r="EO15" s="21"/>
+      <c r="EP15" s="21"/>
       <c r="EQ15" s="7"/>
       <c r="ER15" s="7"/>
       <c r="ES15" s="7"/>
       <c r="ET15" s="7"/>
       <c r="EU15" s="7"/>
-      <c r="EV15" s="7"/>
-      <c r="EW15" s="7"/>
+      <c r="EV15" s="21"/>
+      <c r="EW15" s="21"/>
       <c r="EX15" s="7"/>
       <c r="EY15" s="7"/>
       <c r="EZ15" s="7"/>
       <c r="FA15" s="7"/>
       <c r="FB15" s="7"/>
-      <c r="FC15" s="7"/>
-      <c r="FD15" s="7"/>
+      <c r="FC15" s="21"/>
+      <c r="FD15" s="21"/>
       <c r="FE15" s="7"/>
       <c r="FF15" s="7"/>
       <c r="FG15" s="7"/>
       <c r="FH15" s="7"/>
       <c r="FI15" s="7"/>
-      <c r="FJ15" s="7"/>
-      <c r="FK15" s="7"/>
+      <c r="FJ15" s="21"/>
+      <c r="FK15" s="21"/>
       <c r="FL15" s="7"/>
       <c r="FM15" s="7"/>
       <c r="FN15" s="7"/>
       <c r="FO15" s="7"/>
       <c r="FP15" s="7"/>
-      <c r="FQ15" s="7"/>
-      <c r="FR15" s="7"/>
+      <c r="FQ15" s="21"/>
+      <c r="FR15" s="21"/>
       <c r="FS15" s="7"/>
       <c r="FT15" s="7"/>
       <c r="FU15" s="7"/>
       <c r="FV15" s="7"/>
       <c r="FW15" s="7"/>
-      <c r="FX15" s="7"/>
-      <c r="FY15" s="7"/>
+      <c r="FX15" s="21"/>
+      <c r="FY15" s="21"/>
       <c r="FZ15" s="7"/>
       <c r="GA15" s="7"/>
       <c r="GB15" s="7"/>
       <c r="GC15" s="7"/>
       <c r="GD15" s="7"/>
-      <c r="GE15" s="7"/>
-      <c r="GF15" s="7"/>
+      <c r="GE15" s="21"/>
+      <c r="GF15" s="21"/>
       <c r="GG15" s="7"/>
       <c r="GH15" s="7"/>
       <c r="GI15" s="7"/>
       <c r="GJ15" s="7"/>
       <c r="GK15" s="7"/>
-      <c r="GL15" s="7"/>
-      <c r="GM15" s="7"/>
+      <c r="GL15" s="21"/>
+      <c r="GM15" s="21"/>
       <c r="GN15" s="7"/>
       <c r="GO15" s="7"/>
       <c r="GP15" s="7"/>
       <c r="GQ15" s="7"/>
       <c r="GR15" s="7"/>
-      <c r="GS15" s="7"/>
-      <c r="GT15" s="7"/>
+      <c r="GS15" s="21"/>
+      <c r="GT15" s="21"/>
       <c r="GU15" s="7"/>
       <c r="GV15" s="7"/>
       <c r="GW15" s="7"/>
       <c r="GX15" s="7"/>
       <c r="GY15" s="7"/>
-      <c r="GZ15" s="7"/>
-      <c r="HA15" s="7"/>
+      <c r="GZ15" s="21"/>
+      <c r="HA15" s="21"/>
       <c r="HB15" s="7"/>
       <c r="HC15" s="7"/>
       <c r="HD15" s="7"/>
       <c r="HE15" s="7"/>
       <c r="HF15" s="7"/>
-      <c r="HG15" s="7"/>
-      <c r="HH15" s="7"/>
+      <c r="HG15" s="21"/>
+      <c r="HH15" s="21"/>
       <c r="HI15" s="7"/>
       <c r="HJ15" s="7"/>
       <c r="HK15" s="7"/>
       <c r="HL15" s="7"/>
       <c r="HM15" s="7"/>
-      <c r="HN15" s="7"/>
-      <c r="HO15" s="7"/>
+      <c r="HN15" s="21"/>
+      <c r="HO15" s="21"/>
       <c r="HP15" s="7"/>
       <c r="HQ15" s="7"/>
       <c r="HR15" s="7"/>
       <c r="HS15" s="7"/>
       <c r="HT15" s="7"/>
-      <c r="HU15" s="7"/>
-      <c r="HV15" s="7"/>
+      <c r="HU15" s="21"/>
+      <c r="HV15" s="21"/>
       <c r="HW15" s="7"/>
       <c r="HX15" s="7"/>
       <c r="HY15" s="7"/>
       <c r="HZ15" s="7"/>
       <c r="IA15" s="7"/>
-      <c r="IB15" s="7"/>
-      <c r="IC15" s="7"/>
+      <c r="IB15" s="21"/>
+      <c r="IC15" s="21"/>
       <c r="ID15" s="7"/>
       <c r="IE15" s="7"/>
       <c r="IF15" s="7"/>
       <c r="IG15" s="7"/>
       <c r="IH15" s="7"/>
-      <c r="II15" s="7"/>
-      <c r="IJ15" s="7"/>
+      <c r="II15" s="21"/>
+      <c r="IJ15" s="21"/>
       <c r="IK15" s="7"/>
       <c r="IL15" s="7"/>
       <c r="IM15" s="7"/>
       <c r="IN15" s="7"/>
       <c r="IO15" s="7"/>
-      <c r="IP15" s="7"/>
-      <c r="IQ15" s="7"/>
+      <c r="IP15" s="21"/>
+      <c r="IQ15" s="21"/>
       <c r="IR15" s="7"/>
       <c r="IS15" s="7"/>
       <c r="IT15" s="7"/>
       <c r="IU15" s="7"/>
       <c r="IV15" s="7"/>
-      <c r="IW15" s="7"/>
-      <c r="IX15" s="7"/>
+      <c r="IW15" s="21"/>
+      <c r="IX15" s="21"/>
       <c r="IY15" s="7"/>
       <c r="IZ15" s="7"/>
       <c r="JA15" s="7"/>
       <c r="JB15" s="7"/>
       <c r="JC15" s="7"/>
-      <c r="JD15" s="7"/>
-      <c r="JE15" s="7"/>
+      <c r="JD15" s="21"/>
+      <c r="JE15" s="21"/>
       <c r="JF15" s="7"/>
       <c r="JG15" s="7"/>
       <c r="JH15" s="7"/>
       <c r="JI15" s="7"/>
       <c r="JJ15" s="7"/>
-      <c r="JK15" s="7"/>
-      <c r="JL15" s="7"/>
+      <c r="JK15" s="21"/>
+      <c r="JL15" s="21"/>
       <c r="JM15" s="7"/>
       <c r="JN15" s="7"/>
       <c r="JO15" s="7"/>
       <c r="JP15" s="7"/>
       <c r="JQ15" s="7"/>
-      <c r="JR15" s="7"/>
-      <c r="JS15" s="7"/>
+      <c r="JR15" s="21"/>
+      <c r="JS15" s="21"/>
       <c r="JT15" s="7"/>
       <c r="JU15" s="7"/>
       <c r="JV15" s="7"/>
       <c r="JW15" s="7"/>
       <c r="JX15" s="7"/>
-      <c r="JY15" s="7"/>
-      <c r="JZ15" s="7"/>
+      <c r="JY15" s="21"/>
+      <c r="JZ15" s="21"/>
       <c r="KA15" s="7"/>
       <c r="KB15" s="7"/>
       <c r="KC15" s="7"/>
       <c r="KD15" s="7"/>
       <c r="KE15" s="7"/>
-      <c r="KF15" s="7"/>
-      <c r="KG15" s="7"/>
+      <c r="KF15" s="21"/>
+      <c r="KG15" s="21"/>
       <c r="KH15" s="7"/>
       <c r="KI15" s="7"/>
       <c r="KJ15" s="7"/>
       <c r="KK15" s="7"/>
       <c r="KL15" s="7"/>
-      <c r="KM15" s="7"/>
-      <c r="KN15" s="7"/>
+      <c r="KM15" s="21"/>
+      <c r="KN15" s="21"/>
       <c r="KO15" s="7"/>
       <c r="KP15" s="7"/>
       <c r="KQ15" s="7"/>
       <c r="KR15" s="7"/>
       <c r="KS15" s="7"/>
-      <c r="KT15" s="7"/>
-      <c r="KU15" s="7"/>
+      <c r="KT15" s="21"/>
+      <c r="KU15" s="21"/>
       <c r="KV15" s="7"/>
       <c r="KW15" s="7"/>
       <c r="KX15" s="7"/>
       <c r="KY15" s="7"/>
       <c r="KZ15" s="7"/>
-      <c r="LA15" s="7"/>
-      <c r="LB15" s="7"/>
+      <c r="LA15" s="21"/>
+      <c r="LB15" s="21"/>
       <c r="LC15" s="7"/>
       <c r="LD15" s="7"/>
       <c r="LE15" s="7"/>
       <c r="LF15" s="7"/>
       <c r="LG15" s="7"/>
-      <c r="LH15" s="7"/>
-      <c r="LI15" s="7"/>
+      <c r="LH15" s="21"/>
+      <c r="LI15" s="21"/>
       <c r="LJ15" s="7"/>
       <c r="LK15" s="7"/>
       <c r="LL15" s="7"/>
       <c r="LM15" s="7"/>
       <c r="LN15" s="7"/>
-      <c r="LO15" s="7"/>
-      <c r="LP15" s="7"/>
+      <c r="LO15" s="21"/>
+      <c r="LP15" s="21"/>
       <c r="LQ15" s="7"/>
       <c r="LR15" s="7"/>
       <c r="LS15" s="7"/>
       <c r="LT15" s="7"/>
       <c r="LU15" s="7"/>
-      <c r="LV15" s="7"/>
-      <c r="LW15" s="7"/>
+      <c r="LV15" s="21"/>
+      <c r="LW15" s="21"/>
       <c r="LX15" s="7"/>
       <c r="LY15" s="7"/>
       <c r="LZ15" s="7"/>
       <c r="MA15" s="7"/>
       <c r="MB15" s="7"/>
-      <c r="MC15" s="7"/>
-      <c r="MD15" s="7"/>
+      <c r="MC15" s="21"/>
+      <c r="MD15" s="21"/>
       <c r="ME15" s="7"/>
       <c r="MF15" s="7"/>
       <c r="MG15" s="7"/>
       <c r="MH15" s="7"/>
       <c r="MI15" s="7"/>
-      <c r="MJ15" s="7"/>
-      <c r="MK15" s="7"/>
+      <c r="MJ15" s="21"/>
+      <c r="MK15" s="21"/>
       <c r="ML15" s="7"/>
       <c r="MM15" s="7"/>
       <c r="MN15" s="7"/>
       <c r="MO15" s="7"/>
       <c r="MP15" s="7"/>
-      <c r="MQ15" s="7"/>
-      <c r="MR15" s="7"/>
+      <c r="MQ15" s="21"/>
+      <c r="MR15" s="21"/>
       <c r="MS15" s="7"/>
       <c r="MT15" s="7"/>
       <c r="MU15" s="7"/>
       <c r="MV15" s="7"/>
       <c r="MW15" s="7"/>
-      <c r="MX15" s="7"/>
-      <c r="MY15" s="7"/>
+      <c r="MX15" s="21"/>
+      <c r="MY15" s="21"/>
       <c r="MZ15" s="7"/>
       <c r="NA15" s="7"/>
       <c r="NB15" s="7"/>
@@ -8037,288 +8129,288 @@
       <c r="CA16" s="1"/>
       <c r="CB16" s="1"/>
       <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
+      <c r="CD16" s="21"/>
+      <c r="CE16" s="21"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
       <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
+      <c r="CK16" s="21"/>
+      <c r="CL16" s="21"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
       <c r="CO16" s="1"/>
       <c r="CP16" s="1"/>
       <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
       <c r="CW16" s="1"/>
       <c r="CX16" s="1"/>
-      <c r="CY16" s="1"/>
-      <c r="CZ16" s="1"/>
+      <c r="CY16" s="21"/>
+      <c r="CZ16" s="21"/>
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
       <c r="DD16" s="1"/>
       <c r="DE16" s="1"/>
-      <c r="DF16" s="1"/>
-      <c r="DG16" s="1"/>
+      <c r="DF16" s="21"/>
+      <c r="DG16" s="21"/>
       <c r="DH16" s="1"/>
       <c r="DI16" s="1"/>
       <c r="DJ16" s="1"/>
       <c r="DK16" s="1"/>
       <c r="DL16" s="1"/>
-      <c r="DM16" s="1"/>
-      <c r="DN16" s="1"/>
+      <c r="DM16" s="21"/>
+      <c r="DN16" s="21"/>
       <c r="DO16" s="1"/>
       <c r="DP16" s="1"/>
       <c r="DQ16" s="1"/>
       <c r="DR16" s="1"/>
       <c r="DS16" s="1"/>
-      <c r="DT16" s="1"/>
-      <c r="DU16" s="1"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
       <c r="DV16" s="1"/>
       <c r="DW16" s="1"/>
       <c r="DX16" s="1"/>
       <c r="DY16" s="1"/>
       <c r="DZ16" s="1"/>
-      <c r="EA16" s="1"/>
-      <c r="EB16" s="1"/>
+      <c r="EA16" s="21"/>
+      <c r="EB16" s="21"/>
       <c r="EC16" s="1"/>
       <c r="ED16" s="1"/>
       <c r="EE16" s="1"/>
       <c r="EF16" s="1"/>
       <c r="EG16" s="1"/>
-      <c r="EH16" s="1"/>
-      <c r="EI16" s="1"/>
+      <c r="EH16" s="21"/>
+      <c r="EI16" s="21"/>
       <c r="EJ16" s="1"/>
       <c r="EK16" s="1"/>
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="1"/>
-      <c r="EP16" s="1"/>
+      <c r="EO16" s="21"/>
+      <c r="EP16" s="21"/>
       <c r="EQ16" s="1"/>
       <c r="ER16" s="1"/>
       <c r="ES16" s="1"/>
       <c r="ET16" s="1"/>
       <c r="EU16" s="1"/>
-      <c r="EV16" s="1"/>
-      <c r="EW16" s="1"/>
+      <c r="EV16" s="21"/>
+      <c r="EW16" s="21"/>
       <c r="EX16" s="1"/>
       <c r="EY16" s="1"/>
       <c r="EZ16" s="1"/>
       <c r="FA16" s="1"/>
       <c r="FB16" s="1"/>
-      <c r="FC16" s="1"/>
-      <c r="FD16" s="1"/>
+      <c r="FC16" s="21"/>
+      <c r="FD16" s="21"/>
       <c r="FE16" s="1"/>
       <c r="FF16" s="1"/>
       <c r="FG16" s="1"/>
       <c r="FH16" s="1"/>
       <c r="FI16" s="1"/>
-      <c r="FJ16" s="1"/>
-      <c r="FK16" s="1"/>
+      <c r="FJ16" s="21"/>
+      <c r="FK16" s="21"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
       <c r="FN16" s="1"/>
       <c r="FO16" s="1"/>
       <c r="FP16" s="1"/>
-      <c r="FQ16" s="1"/>
-      <c r="FR16" s="1"/>
+      <c r="FQ16" s="21"/>
+      <c r="FR16" s="21"/>
       <c r="FS16" s="1"/>
       <c r="FT16" s="1"/>
       <c r="FU16" s="1"/>
       <c r="FV16" s="1"/>
       <c r="FW16" s="1"/>
-      <c r="FX16" s="1"/>
-      <c r="FY16" s="1"/>
+      <c r="FX16" s="21"/>
+      <c r="FY16" s="21"/>
       <c r="FZ16" s="1"/>
       <c r="GA16" s="1"/>
       <c r="GB16" s="1"/>
       <c r="GC16" s="1"/>
       <c r="GD16" s="1"/>
-      <c r="GE16" s="1"/>
-      <c r="GF16" s="1"/>
+      <c r="GE16" s="21"/>
+      <c r="GF16" s="21"/>
       <c r="GG16" s="1"/>
       <c r="GH16" s="1"/>
       <c r="GI16" s="1"/>
       <c r="GJ16" s="1"/>
       <c r="GK16" s="1"/>
-      <c r="GL16" s="1"/>
-      <c r="GM16" s="1"/>
+      <c r="GL16" s="21"/>
+      <c r="GM16" s="21"/>
       <c r="GN16" s="1"/>
       <c r="GO16" s="1"/>
       <c r="GP16" s="1"/>
       <c r="GQ16" s="1"/>
       <c r="GR16" s="1"/>
-      <c r="GS16" s="1"/>
-      <c r="GT16" s="1"/>
+      <c r="GS16" s="21"/>
+      <c r="GT16" s="21"/>
       <c r="GU16" s="1"/>
       <c r="GV16" s="1"/>
       <c r="GW16" s="1"/>
       <c r="GX16" s="1"/>
       <c r="GY16" s="1"/>
-      <c r="GZ16" s="1"/>
-      <c r="HA16" s="1"/>
+      <c r="GZ16" s="21"/>
+      <c r="HA16" s="21"/>
       <c r="HB16" s="1"/>
       <c r="HC16" s="1"/>
       <c r="HD16" s="1"/>
       <c r="HE16" s="1"/>
       <c r="HF16" s="1"/>
-      <c r="HG16" s="1"/>
-      <c r="HH16" s="1"/>
+      <c r="HG16" s="21"/>
+      <c r="HH16" s="21"/>
       <c r="HI16" s="1"/>
       <c r="HJ16" s="1"/>
       <c r="HK16" s="1"/>
       <c r="HL16" s="1"/>
       <c r="HM16" s="1"/>
-      <c r="HN16" s="1"/>
-      <c r="HO16" s="1"/>
+      <c r="HN16" s="21"/>
+      <c r="HO16" s="21"/>
       <c r="HP16" s="1"/>
       <c r="HQ16" s="1"/>
       <c r="HR16" s="1"/>
       <c r="HS16" s="1"/>
       <c r="HT16" s="1"/>
-      <c r="HU16" s="1"/>
-      <c r="HV16" s="1"/>
+      <c r="HU16" s="21"/>
+      <c r="HV16" s="21"/>
       <c r="HW16" s="1"/>
       <c r="HX16" s="1"/>
       <c r="HY16" s="1"/>
       <c r="HZ16" s="1"/>
       <c r="IA16" s="1"/>
-      <c r="IB16" s="1"/>
-      <c r="IC16" s="1"/>
+      <c r="IB16" s="21"/>
+      <c r="IC16" s="21"/>
       <c r="ID16" s="1"/>
       <c r="IE16" s="1"/>
       <c r="IF16" s="1"/>
       <c r="IG16" s="1"/>
       <c r="IH16" s="1"/>
-      <c r="II16" s="1"/>
-      <c r="IJ16" s="1"/>
+      <c r="II16" s="21"/>
+      <c r="IJ16" s="21"/>
       <c r="IK16" s="1"/>
       <c r="IL16" s="1"/>
       <c r="IM16" s="1"/>
       <c r="IN16" s="1"/>
       <c r="IO16" s="1"/>
-      <c r="IP16" s="1"/>
-      <c r="IQ16" s="1"/>
+      <c r="IP16" s="21"/>
+      <c r="IQ16" s="21"/>
       <c r="IR16" s="1"/>
       <c r="IS16" s="1"/>
       <c r="IT16" s="1"/>
       <c r="IU16" s="1"/>
       <c r="IV16" s="1"/>
-      <c r="IW16" s="1"/>
-      <c r="IX16" s="1"/>
+      <c r="IW16" s="21"/>
+      <c r="IX16" s="21"/>
       <c r="IY16" s="1"/>
       <c r="IZ16" s="1"/>
       <c r="JA16" s="1"/>
       <c r="JB16" s="1"/>
       <c r="JC16" s="1"/>
-      <c r="JD16" s="1"/>
-      <c r="JE16" s="1"/>
+      <c r="JD16" s="21"/>
+      <c r="JE16" s="21"/>
       <c r="JF16" s="1"/>
       <c r="JG16" s="1"/>
       <c r="JH16" s="1"/>
       <c r="JI16" s="1"/>
       <c r="JJ16" s="1"/>
-      <c r="JK16" s="1"/>
-      <c r="JL16" s="1"/>
+      <c r="JK16" s="21"/>
+      <c r="JL16" s="21"/>
       <c r="JM16" s="1"/>
       <c r="JN16" s="1"/>
       <c r="JO16" s="1"/>
       <c r="JP16" s="1"/>
       <c r="JQ16" s="1"/>
-      <c r="JR16" s="1"/>
-      <c r="JS16" s="1"/>
+      <c r="JR16" s="21"/>
+      <c r="JS16" s="21"/>
       <c r="JT16" s="1"/>
       <c r="JU16" s="1"/>
       <c r="JV16" s="1"/>
       <c r="JW16" s="1"/>
       <c r="JX16" s="1"/>
-      <c r="JY16" s="1"/>
-      <c r="JZ16" s="1"/>
+      <c r="JY16" s="21"/>
+      <c r="JZ16" s="21"/>
       <c r="KA16" s="1"/>
       <c r="KB16" s="1"/>
       <c r="KC16" s="1"/>
       <c r="KD16" s="1"/>
       <c r="KE16" s="1"/>
-      <c r="KF16" s="1"/>
-      <c r="KG16" s="1"/>
+      <c r="KF16" s="21"/>
+      <c r="KG16" s="21"/>
       <c r="KH16" s="1"/>
       <c r="KI16" s="1"/>
       <c r="KJ16" s="1"/>
       <c r="KK16" s="1"/>
       <c r="KL16" s="1"/>
-      <c r="KM16" s="1"/>
-      <c r="KN16" s="1"/>
+      <c r="KM16" s="21"/>
+      <c r="KN16" s="21"/>
       <c r="KO16" s="1"/>
       <c r="KP16" s="1"/>
       <c r="KQ16" s="1"/>
       <c r="KR16" s="1"/>
       <c r="KS16" s="1"/>
-      <c r="KT16" s="1"/>
-      <c r="KU16" s="1"/>
+      <c r="KT16" s="21"/>
+      <c r="KU16" s="21"/>
       <c r="KV16" s="1"/>
       <c r="KW16" s="1"/>
       <c r="KX16" s="1"/>
       <c r="KY16" s="1"/>
       <c r="KZ16" s="1"/>
-      <c r="LA16" s="1"/>
-      <c r="LB16" s="1"/>
+      <c r="LA16" s="21"/>
+      <c r="LB16" s="21"/>
       <c r="LC16" s="1"/>
       <c r="LD16" s="1"/>
       <c r="LE16" s="1"/>
       <c r="LF16" s="1"/>
       <c r="LG16" s="1"/>
-      <c r="LH16" s="1"/>
-      <c r="LI16" s="1"/>
+      <c r="LH16" s="21"/>
+      <c r="LI16" s="21"/>
       <c r="LJ16" s="1"/>
       <c r="LK16" s="1"/>
       <c r="LL16" s="1"/>
       <c r="LM16" s="1"/>
       <c r="LN16" s="1"/>
-      <c r="LO16" s="1"/>
-      <c r="LP16" s="1"/>
+      <c r="LO16" s="21"/>
+      <c r="LP16" s="21"/>
       <c r="LQ16" s="1"/>
       <c r="LR16" s="1"/>
       <c r="LS16" s="1"/>
       <c r="LT16" s="1"/>
       <c r="LU16" s="1"/>
-      <c r="LV16" s="1"/>
-      <c r="LW16" s="1"/>
+      <c r="LV16" s="21"/>
+      <c r="LW16" s="21"/>
       <c r="LX16" s="1"/>
       <c r="LY16" s="1"/>
       <c r="LZ16" s="1"/>
       <c r="MA16" s="1"/>
       <c r="MB16" s="1"/>
-      <c r="MC16" s="1"/>
-      <c r="MD16" s="1"/>
+      <c r="MC16" s="21"/>
+      <c r="MD16" s="21"/>
       <c r="ME16" s="1"/>
       <c r="MF16" s="1"/>
       <c r="MG16" s="1"/>
       <c r="MH16" s="1"/>
       <c r="MI16" s="1"/>
-      <c r="MJ16" s="1"/>
-      <c r="MK16" s="1"/>
+      <c r="MJ16" s="21"/>
+      <c r="MK16" s="21"/>
       <c r="ML16" s="1"/>
       <c r="MM16" s="1"/>
       <c r="MN16" s="1"/>
       <c r="MO16" s="1"/>
       <c r="MP16" s="1"/>
-      <c r="MQ16" s="1"/>
-      <c r="MR16" s="1"/>
+      <c r="MQ16" s="21"/>
+      <c r="MR16" s="21"/>
       <c r="MS16" s="1"/>
       <c r="MT16" s="1"/>
       <c r="MU16" s="1"/>
       <c r="MV16" s="1"/>
       <c r="MW16" s="1"/>
-      <c r="MX16" s="1"/>
-      <c r="MY16" s="1"/>
+      <c r="MX16" s="21"/>
+      <c r="MY16" s="21"/>
       <c r="MZ16" s="1"/>
       <c r="NA16" s="1"/>
       <c r="NB16" s="1"/>
@@ -8407,288 +8499,288 @@
       <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
       <c r="CC17" s="7"/>
-      <c r="CD17" s="7"/>
-      <c r="CE17" s="7"/>
+      <c r="CD17" s="21"/>
+      <c r="CE17" s="21"/>
       <c r="CF17" s="7"/>
       <c r="CG17" s="7"/>
       <c r="CH17" s="7"/>
       <c r="CI17" s="7"/>
       <c r="CJ17" s="7"/>
-      <c r="CK17" s="7"/>
-      <c r="CL17" s="7"/>
+      <c r="CK17" s="21"/>
+      <c r="CL17" s="21"/>
       <c r="CM17" s="7"/>
       <c r="CN17" s="7"/>
       <c r="CO17" s="7"/>
       <c r="CP17" s="7"/>
       <c r="CQ17" s="7"/>
-      <c r="CR17" s="7"/>
-      <c r="CS17" s="7"/>
+      <c r="CR17" s="21"/>
+      <c r="CS17" s="21"/>
       <c r="CT17" s="7"/>
       <c r="CU17" s="7"/>
       <c r="CV17" s="7"/>
       <c r="CW17" s="7"/>
       <c r="CX17" s="7"/>
-      <c r="CY17" s="7"/>
-      <c r="CZ17" s="7"/>
+      <c r="CY17" s="21"/>
+      <c r="CZ17" s="21"/>
       <c r="DA17" s="7"/>
       <c r="DB17" s="7"/>
       <c r="DC17" s="7"/>
       <c r="DD17" s="7"/>
       <c r="DE17" s="7"/>
-      <c r="DF17" s="7"/>
-      <c r="DG17" s="7"/>
+      <c r="DF17" s="21"/>
+      <c r="DG17" s="21"/>
       <c r="DH17" s="7"/>
       <c r="DI17" s="7"/>
       <c r="DJ17" s="7"/>
       <c r="DK17" s="7"/>
       <c r="DL17" s="7"/>
-      <c r="DM17" s="7"/>
-      <c r="DN17" s="7"/>
+      <c r="DM17" s="21"/>
+      <c r="DN17" s="21"/>
       <c r="DO17" s="7"/>
       <c r="DP17" s="7"/>
       <c r="DQ17" s="7"/>
       <c r="DR17" s="7"/>
       <c r="DS17" s="7"/>
-      <c r="DT17" s="7"/>
-      <c r="DU17" s="7"/>
+      <c r="DT17" s="21"/>
+      <c r="DU17" s="21"/>
       <c r="DV17" s="7"/>
       <c r="DW17" s="7"/>
       <c r="DX17" s="7"/>
       <c r="DY17" s="7"/>
       <c r="DZ17" s="7"/>
-      <c r="EA17" s="7"/>
-      <c r="EB17" s="7"/>
+      <c r="EA17" s="21"/>
+      <c r="EB17" s="21"/>
       <c r="EC17" s="7"/>
       <c r="ED17" s="7"/>
       <c r="EE17" s="7"/>
       <c r="EF17" s="7"/>
       <c r="EG17" s="7"/>
-      <c r="EH17" s="7"/>
-      <c r="EI17" s="7"/>
+      <c r="EH17" s="21"/>
+      <c r="EI17" s="21"/>
       <c r="EJ17" s="7"/>
       <c r="EK17" s="7"/>
       <c r="EL17" s="7"/>
       <c r="EM17" s="7"/>
       <c r="EN17" s="7"/>
-      <c r="EO17" s="7"/>
-      <c r="EP17" s="7"/>
+      <c r="EO17" s="21"/>
+      <c r="EP17" s="21"/>
       <c r="EQ17" s="7"/>
       <c r="ER17" s="7"/>
       <c r="ES17" s="7"/>
       <c r="ET17" s="7"/>
       <c r="EU17" s="7"/>
-      <c r="EV17" s="7"/>
-      <c r="EW17" s="7"/>
+      <c r="EV17" s="21"/>
+      <c r="EW17" s="21"/>
       <c r="EX17" s="7"/>
       <c r="EY17" s="7"/>
       <c r="EZ17" s="7"/>
       <c r="FA17" s="7"/>
       <c r="FB17" s="7"/>
-      <c r="FC17" s="7"/>
-      <c r="FD17" s="7"/>
+      <c r="FC17" s="21"/>
+      <c r="FD17" s="21"/>
       <c r="FE17" s="7"/>
       <c r="FF17" s="7"/>
       <c r="FG17" s="7"/>
       <c r="FH17" s="7"/>
       <c r="FI17" s="7"/>
-      <c r="FJ17" s="7"/>
-      <c r="FK17" s="7"/>
+      <c r="FJ17" s="21"/>
+      <c r="FK17" s="21"/>
       <c r="FL17" s="7"/>
       <c r="FM17" s="7"/>
       <c r="FN17" s="7"/>
       <c r="FO17" s="7"/>
       <c r="FP17" s="7"/>
-      <c r="FQ17" s="7"/>
-      <c r="FR17" s="7"/>
+      <c r="FQ17" s="21"/>
+      <c r="FR17" s="21"/>
       <c r="FS17" s="7"/>
       <c r="FT17" s="7"/>
       <c r="FU17" s="7"/>
       <c r="FV17" s="7"/>
       <c r="FW17" s="7"/>
-      <c r="FX17" s="7"/>
-      <c r="FY17" s="7"/>
+      <c r="FX17" s="21"/>
+      <c r="FY17" s="21"/>
       <c r="FZ17" s="7"/>
       <c r="GA17" s="7"/>
       <c r="GB17" s="7"/>
       <c r="GC17" s="7"/>
       <c r="GD17" s="7"/>
-      <c r="GE17" s="7"/>
-      <c r="GF17" s="7"/>
+      <c r="GE17" s="21"/>
+      <c r="GF17" s="21"/>
       <c r="GG17" s="7"/>
       <c r="GH17" s="7"/>
       <c r="GI17" s="7"/>
       <c r="GJ17" s="7"/>
       <c r="GK17" s="7"/>
-      <c r="GL17" s="7"/>
-      <c r="GM17" s="7"/>
+      <c r="GL17" s="21"/>
+      <c r="GM17" s="21"/>
       <c r="GN17" s="7"/>
       <c r="GO17" s="7"/>
       <c r="GP17" s="7"/>
       <c r="GQ17" s="7"/>
       <c r="GR17" s="7"/>
-      <c r="GS17" s="7"/>
-      <c r="GT17" s="7"/>
+      <c r="GS17" s="21"/>
+      <c r="GT17" s="21"/>
       <c r="GU17" s="7"/>
       <c r="GV17" s="7"/>
       <c r="GW17" s="7"/>
       <c r="GX17" s="7"/>
       <c r="GY17" s="7"/>
-      <c r="GZ17" s="7"/>
-      <c r="HA17" s="7"/>
+      <c r="GZ17" s="21"/>
+      <c r="HA17" s="21"/>
       <c r="HB17" s="7"/>
       <c r="HC17" s="7"/>
       <c r="HD17" s="7"/>
       <c r="HE17" s="7"/>
       <c r="HF17" s="7"/>
-      <c r="HG17" s="7"/>
-      <c r="HH17" s="7"/>
+      <c r="HG17" s="21"/>
+      <c r="HH17" s="21"/>
       <c r="HI17" s="7"/>
       <c r="HJ17" s="7"/>
       <c r="HK17" s="7"/>
       <c r="HL17" s="7"/>
       <c r="HM17" s="7"/>
-      <c r="HN17" s="7"/>
-      <c r="HO17" s="7"/>
+      <c r="HN17" s="21"/>
+      <c r="HO17" s="21"/>
       <c r="HP17" s="7"/>
       <c r="HQ17" s="7"/>
       <c r="HR17" s="7"/>
       <c r="HS17" s="7"/>
       <c r="HT17" s="7"/>
-      <c r="HU17" s="7"/>
-      <c r="HV17" s="7"/>
+      <c r="HU17" s="21"/>
+      <c r="HV17" s="21"/>
       <c r="HW17" s="7"/>
       <c r="HX17" s="7"/>
       <c r="HY17" s="7"/>
       <c r="HZ17" s="7"/>
       <c r="IA17" s="7"/>
-      <c r="IB17" s="7"/>
-      <c r="IC17" s="7"/>
+      <c r="IB17" s="21"/>
+      <c r="IC17" s="21"/>
       <c r="ID17" s="7"/>
       <c r="IE17" s="7"/>
       <c r="IF17" s="7"/>
       <c r="IG17" s="7"/>
       <c r="IH17" s="7"/>
-      <c r="II17" s="7"/>
-      <c r="IJ17" s="7"/>
+      <c r="II17" s="21"/>
+      <c r="IJ17" s="21"/>
       <c r="IK17" s="7"/>
       <c r="IL17" s="7"/>
       <c r="IM17" s="7"/>
       <c r="IN17" s="7"/>
       <c r="IO17" s="7"/>
-      <c r="IP17" s="7"/>
-      <c r="IQ17" s="7"/>
+      <c r="IP17" s="21"/>
+      <c r="IQ17" s="21"/>
       <c r="IR17" s="7"/>
       <c r="IS17" s="7"/>
       <c r="IT17" s="7"/>
       <c r="IU17" s="7"/>
       <c r="IV17" s="7"/>
-      <c r="IW17" s="7"/>
-      <c r="IX17" s="7"/>
+      <c r="IW17" s="21"/>
+      <c r="IX17" s="21"/>
       <c r="IY17" s="7"/>
       <c r="IZ17" s="7"/>
       <c r="JA17" s="7"/>
       <c r="JB17" s="7"/>
       <c r="JC17" s="7"/>
-      <c r="JD17" s="7"/>
-      <c r="JE17" s="7"/>
+      <c r="JD17" s="21"/>
+      <c r="JE17" s="21"/>
       <c r="JF17" s="7"/>
       <c r="JG17" s="7"/>
       <c r="JH17" s="7"/>
       <c r="JI17" s="7"/>
       <c r="JJ17" s="7"/>
-      <c r="JK17" s="7"/>
-      <c r="JL17" s="7"/>
+      <c r="JK17" s="21"/>
+      <c r="JL17" s="21"/>
       <c r="JM17" s="7"/>
       <c r="JN17" s="7"/>
       <c r="JO17" s="7"/>
       <c r="JP17" s="7"/>
       <c r="JQ17" s="7"/>
-      <c r="JR17" s="7"/>
-      <c r="JS17" s="7"/>
+      <c r="JR17" s="21"/>
+      <c r="JS17" s="21"/>
       <c r="JT17" s="7"/>
       <c r="JU17" s="7"/>
       <c r="JV17" s="7"/>
       <c r="JW17" s="7"/>
       <c r="JX17" s="7"/>
-      <c r="JY17" s="7"/>
-      <c r="JZ17" s="7"/>
+      <c r="JY17" s="21"/>
+      <c r="JZ17" s="21"/>
       <c r="KA17" s="7"/>
       <c r="KB17" s="7"/>
       <c r="KC17" s="7"/>
       <c r="KD17" s="7"/>
       <c r="KE17" s="7"/>
-      <c r="KF17" s="7"/>
-      <c r="KG17" s="7"/>
+      <c r="KF17" s="21"/>
+      <c r="KG17" s="21"/>
       <c r="KH17" s="7"/>
       <c r="KI17" s="7"/>
       <c r="KJ17" s="7"/>
       <c r="KK17" s="7"/>
       <c r="KL17" s="7"/>
-      <c r="KM17" s="7"/>
-      <c r="KN17" s="7"/>
+      <c r="KM17" s="21"/>
+      <c r="KN17" s="21"/>
       <c r="KO17" s="7"/>
       <c r="KP17" s="7"/>
       <c r="KQ17" s="7"/>
       <c r="KR17" s="7"/>
       <c r="KS17" s="7"/>
-      <c r="KT17" s="7"/>
-      <c r="KU17" s="7"/>
+      <c r="KT17" s="21"/>
+      <c r="KU17" s="21"/>
       <c r="KV17" s="7"/>
       <c r="KW17" s="7"/>
       <c r="KX17" s="7"/>
       <c r="KY17" s="7"/>
       <c r="KZ17" s="7"/>
-      <c r="LA17" s="7"/>
-      <c r="LB17" s="7"/>
+      <c r="LA17" s="21"/>
+      <c r="LB17" s="21"/>
       <c r="LC17" s="7"/>
       <c r="LD17" s="7"/>
       <c r="LE17" s="7"/>
       <c r="LF17" s="7"/>
       <c r="LG17" s="7"/>
-      <c r="LH17" s="7"/>
-      <c r="LI17" s="7"/>
+      <c r="LH17" s="21"/>
+      <c r="LI17" s="21"/>
       <c r="LJ17" s="7"/>
       <c r="LK17" s="7"/>
       <c r="LL17" s="7"/>
       <c r="LM17" s="7"/>
       <c r="LN17" s="7"/>
-      <c r="LO17" s="7"/>
-      <c r="LP17" s="7"/>
+      <c r="LO17" s="21"/>
+      <c r="LP17" s="21"/>
       <c r="LQ17" s="7"/>
       <c r="LR17" s="7"/>
       <c r="LS17" s="7"/>
       <c r="LT17" s="7"/>
       <c r="LU17" s="7"/>
-      <c r="LV17" s="7"/>
-      <c r="LW17" s="7"/>
+      <c r="LV17" s="21"/>
+      <c r="LW17" s="21"/>
       <c r="LX17" s="7"/>
       <c r="LY17" s="7"/>
       <c r="LZ17" s="7"/>
       <c r="MA17" s="7"/>
       <c r="MB17" s="7"/>
-      <c r="MC17" s="7"/>
-      <c r="MD17" s="7"/>
+      <c r="MC17" s="21"/>
+      <c r="MD17" s="21"/>
       <c r="ME17" s="7"/>
       <c r="MF17" s="7"/>
       <c r="MG17" s="7"/>
       <c r="MH17" s="7"/>
       <c r="MI17" s="7"/>
-      <c r="MJ17" s="7"/>
-      <c r="MK17" s="7"/>
+      <c r="MJ17" s="21"/>
+      <c r="MK17" s="21"/>
       <c r="ML17" s="7"/>
       <c r="MM17" s="7"/>
       <c r="MN17" s="7"/>
       <c r="MO17" s="7"/>
       <c r="MP17" s="7"/>
-      <c r="MQ17" s="7"/>
-      <c r="MR17" s="7"/>
+      <c r="MQ17" s="21"/>
+      <c r="MR17" s="21"/>
       <c r="MS17" s="7"/>
       <c r="MT17" s="7"/>
       <c r="MU17" s="7"/>
       <c r="MV17" s="7"/>
       <c r="MW17" s="7"/>
-      <c r="MX17" s="7"/>
-      <c r="MY17" s="7"/>
+      <c r="MX17" s="21"/>
+      <c r="MY17" s="21"/>
       <c r="MZ17" s="7"/>
       <c r="NA17" s="7"/>
       <c r="NB17" s="7"/>
@@ -8776,288 +8868,288 @@
       <c r="CA18" s="1"/>
       <c r="CB18" s="1"/>
       <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
+      <c r="CD18" s="21"/>
+      <c r="CE18" s="21"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
+      <c r="CK18" s="21"/>
+      <c r="CL18" s="21"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
       <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
+      <c r="CR18" s="21"/>
+      <c r="CS18" s="21"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
       <c r="CW18" s="1"/>
       <c r="CX18" s="1"/>
-      <c r="CY18" s="1"/>
-      <c r="CZ18" s="1"/>
+      <c r="CY18" s="21"/>
+      <c r="CZ18" s="21"/>
       <c r="DB18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="DC18" s="1"/>
       <c r="DD18" s="1"/>
       <c r="DE18" s="1"/>
-      <c r="DF18" s="1"/>
-      <c r="DG18" s="1"/>
+      <c r="DF18" s="21"/>
+      <c r="DG18" s="21"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
       <c r="DJ18" s="1"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
-      <c r="DM18" s="1"/>
-      <c r="DN18" s="1"/>
+      <c r="DM18" s="21"/>
+      <c r="DN18" s="21"/>
       <c r="DO18" s="1"/>
       <c r="DP18" s="1"/>
       <c r="DQ18" s="1"/>
       <c r="DR18" s="1"/>
       <c r="DS18" s="1"/>
-      <c r="DT18" s="1"/>
-      <c r="DU18" s="1"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
       <c r="DV18" s="1"/>
       <c r="DW18" s="1"/>
       <c r="DX18" s="1"/>
       <c r="DY18" s="1"/>
       <c r="DZ18" s="1"/>
-      <c r="EA18" s="1"/>
-      <c r="EB18" s="1"/>
+      <c r="EA18" s="21"/>
+      <c r="EB18" s="21"/>
       <c r="EC18" s="1"/>
       <c r="ED18" s="1"/>
       <c r="EE18" s="1"/>
       <c r="EF18" s="1"/>
       <c r="EG18" s="1"/>
-      <c r="EH18" s="1"/>
-      <c r="EI18" s="1"/>
+      <c r="EH18" s="21"/>
+      <c r="EI18" s="21"/>
       <c r="EJ18" s="1"/>
       <c r="EK18" s="1"/>
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="1"/>
-      <c r="EP18" s="1"/>
+      <c r="EO18" s="21"/>
+      <c r="EP18" s="21"/>
       <c r="EQ18" s="1"/>
       <c r="ER18" s="1"/>
       <c r="ES18" s="1"/>
       <c r="ET18" s="1"/>
       <c r="EU18" s="1"/>
-      <c r="EV18" s="1"/>
-      <c r="EW18" s="1"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="21"/>
       <c r="EX18" s="1"/>
       <c r="EY18" s="1"/>
       <c r="EZ18" s="1"/>
       <c r="FA18" s="1"/>
       <c r="FB18" s="1"/>
-      <c r="FC18" s="1"/>
-      <c r="FD18" s="1"/>
+      <c r="FC18" s="21"/>
+      <c r="FD18" s="21"/>
       <c r="FE18" s="1"/>
       <c r="FF18" s="1"/>
       <c r="FG18" s="1"/>
       <c r="FH18" s="1"/>
       <c r="FI18" s="1"/>
-      <c r="FJ18" s="1"/>
-      <c r="FK18" s="1"/>
+      <c r="FJ18" s="21"/>
+      <c r="FK18" s="21"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
       <c r="FN18" s="1"/>
       <c r="FO18" s="1"/>
       <c r="FP18" s="1"/>
-      <c r="FQ18" s="1"/>
-      <c r="FR18" s="1"/>
+      <c r="FQ18" s="21"/>
+      <c r="FR18" s="21"/>
       <c r="FS18" s="1"/>
       <c r="FT18" s="1"/>
       <c r="FU18" s="1"/>
       <c r="FV18" s="1"/>
       <c r="FW18" s="1"/>
-      <c r="FX18" s="1"/>
-      <c r="FY18" s="1"/>
+      <c r="FX18" s="21"/>
+      <c r="FY18" s="21"/>
       <c r="FZ18" s="1"/>
       <c r="GA18" s="1"/>
       <c r="GB18" s="1"/>
       <c r="GC18" s="1"/>
       <c r="GD18" s="1"/>
-      <c r="GE18" s="1"/>
-      <c r="GF18" s="1"/>
+      <c r="GE18" s="21"/>
+      <c r="GF18" s="21"/>
       <c r="GG18" s="1"/>
       <c r="GH18" s="1"/>
       <c r="GI18" s="1"/>
       <c r="GJ18" s="1"/>
       <c r="GK18" s="1"/>
-      <c r="GL18" s="1"/>
-      <c r="GM18" s="1"/>
+      <c r="GL18" s="21"/>
+      <c r="GM18" s="21"/>
       <c r="GN18" s="1"/>
       <c r="GO18" s="1"/>
       <c r="GP18" s="1"/>
       <c r="GQ18" s="1"/>
       <c r="GR18" s="1"/>
-      <c r="GS18" s="1"/>
-      <c r="GT18" s="1"/>
+      <c r="GS18" s="21"/>
+      <c r="GT18" s="21"/>
       <c r="GU18" s="1"/>
       <c r="GV18" s="1"/>
       <c r="GW18" s="1"/>
       <c r="GX18" s="1"/>
       <c r="GY18" s="1"/>
-      <c r="GZ18" s="1"/>
-      <c r="HA18" s="1"/>
+      <c r="GZ18" s="21"/>
+      <c r="HA18" s="21"/>
       <c r="HB18" s="1"/>
       <c r="HC18" s="1"/>
       <c r="HD18" s="1"/>
       <c r="HE18" s="1"/>
       <c r="HF18" s="1"/>
-      <c r="HG18" s="1"/>
-      <c r="HH18" s="1"/>
+      <c r="HG18" s="21"/>
+      <c r="HH18" s="21"/>
       <c r="HI18" s="1"/>
       <c r="HJ18" s="1"/>
       <c r="HK18" s="1"/>
       <c r="HL18" s="1"/>
       <c r="HM18" s="1"/>
-      <c r="HN18" s="1"/>
-      <c r="HO18" s="1"/>
+      <c r="HN18" s="21"/>
+      <c r="HO18" s="21"/>
       <c r="HP18" s="1"/>
       <c r="HQ18" s="1"/>
       <c r="HR18" s="1"/>
       <c r="HS18" s="1"/>
       <c r="HT18" s="1"/>
-      <c r="HU18" s="1"/>
-      <c r="HV18" s="1"/>
+      <c r="HU18" s="21"/>
+      <c r="HV18" s="21"/>
       <c r="HW18" s="1"/>
       <c r="HX18" s="1"/>
       <c r="HY18" s="1"/>
       <c r="HZ18" s="1"/>
       <c r="IA18" s="1"/>
-      <c r="IB18" s="1"/>
-      <c r="IC18" s="1"/>
+      <c r="IB18" s="21"/>
+      <c r="IC18" s="21"/>
       <c r="ID18" s="1"/>
       <c r="IE18" s="1"/>
       <c r="IF18" s="1"/>
       <c r="IG18" s="1"/>
       <c r="IH18" s="1"/>
-      <c r="II18" s="1"/>
-      <c r="IJ18" s="1"/>
+      <c r="II18" s="21"/>
+      <c r="IJ18" s="21"/>
       <c r="IK18" s="1"/>
       <c r="IL18" s="1"/>
       <c r="IM18" s="1"/>
       <c r="IN18" s="1"/>
       <c r="IO18" s="1"/>
-      <c r="IP18" s="1"/>
-      <c r="IQ18" s="1"/>
+      <c r="IP18" s="21"/>
+      <c r="IQ18" s="21"/>
       <c r="IR18" s="1"/>
       <c r="IS18" s="1"/>
       <c r="IT18" s="1"/>
       <c r="IU18" s="1"/>
       <c r="IV18" s="1"/>
-      <c r="IW18" s="1"/>
-      <c r="IX18" s="1"/>
+      <c r="IW18" s="21"/>
+      <c r="IX18" s="21"/>
       <c r="IY18" s="1"/>
       <c r="IZ18" s="1"/>
       <c r="JA18" s="1"/>
       <c r="JB18" s="1"/>
       <c r="JC18" s="1"/>
-      <c r="JD18" s="1"/>
-      <c r="JE18" s="1"/>
+      <c r="JD18" s="21"/>
+      <c r="JE18" s="21"/>
       <c r="JF18" s="1"/>
       <c r="JG18" s="1"/>
       <c r="JH18" s="1"/>
       <c r="JI18" s="1"/>
       <c r="JJ18" s="1"/>
-      <c r="JK18" s="1"/>
-      <c r="JL18" s="1"/>
+      <c r="JK18" s="21"/>
+      <c r="JL18" s="21"/>
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
       <c r="JO18" s="1"/>
       <c r="JP18" s="1"/>
       <c r="JQ18" s="1"/>
-      <c r="JR18" s="1"/>
-      <c r="JS18" s="1"/>
+      <c r="JR18" s="21"/>
+      <c r="JS18" s="21"/>
       <c r="JT18" s="1"/>
       <c r="JU18" s="1"/>
       <c r="JV18" s="1"/>
       <c r="JW18" s="1"/>
       <c r="JX18" s="1"/>
-      <c r="JY18" s="1"/>
-      <c r="JZ18" s="1"/>
+      <c r="JY18" s="21"/>
+      <c r="JZ18" s="21"/>
       <c r="KA18" s="1"/>
       <c r="KB18" s="1"/>
       <c r="KC18" s="1"/>
       <c r="KD18" s="1"/>
       <c r="KE18" s="1"/>
-      <c r="KF18" s="1"/>
-      <c r="KG18" s="1"/>
+      <c r="KF18" s="21"/>
+      <c r="KG18" s="21"/>
       <c r="KH18" s="1"/>
       <c r="KI18" s="1"/>
       <c r="KJ18" s="1"/>
       <c r="KK18" s="1"/>
       <c r="KL18" s="1"/>
-      <c r="KM18" s="1"/>
-      <c r="KN18" s="1"/>
+      <c r="KM18" s="21"/>
+      <c r="KN18" s="21"/>
       <c r="KO18" s="1"/>
       <c r="KP18" s="1"/>
       <c r="KQ18" s="1"/>
       <c r="KR18" s="1"/>
       <c r="KS18" s="1"/>
-      <c r="KT18" s="1"/>
-      <c r="KU18" s="1"/>
+      <c r="KT18" s="21"/>
+      <c r="KU18" s="21"/>
       <c r="KV18" s="1"/>
       <c r="KW18" s="1"/>
       <c r="KX18" s="1"/>
       <c r="KY18" s="1"/>
       <c r="KZ18" s="1"/>
-      <c r="LA18" s="1"/>
-      <c r="LB18" s="1"/>
+      <c r="LA18" s="21"/>
+      <c r="LB18" s="21"/>
       <c r="LC18" s="1"/>
       <c r="LD18" s="1"/>
       <c r="LE18" s="1"/>
       <c r="LF18" s="1"/>
       <c r="LG18" s="1"/>
-      <c r="LH18" s="1"/>
-      <c r="LI18" s="1"/>
+      <c r="LH18" s="21"/>
+      <c r="LI18" s="21"/>
       <c r="LJ18" s="1"/>
       <c r="LK18" s="1"/>
       <c r="LL18" s="1"/>
       <c r="LM18" s="1"/>
       <c r="LN18" s="1"/>
-      <c r="LO18" s="1"/>
-      <c r="LP18" s="1"/>
+      <c r="LO18" s="21"/>
+      <c r="LP18" s="21"/>
       <c r="LQ18" s="1"/>
       <c r="LR18" s="1"/>
       <c r="LS18" s="1"/>
       <c r="LT18" s="1"/>
       <c r="LU18" s="1"/>
-      <c r="LV18" s="1"/>
-      <c r="LW18" s="1"/>
+      <c r="LV18" s="21"/>
+      <c r="LW18" s="21"/>
       <c r="LX18" s="1"/>
       <c r="LY18" s="1"/>
       <c r="LZ18" s="1"/>
       <c r="MA18" s="1"/>
       <c r="MB18" s="1"/>
-      <c r="MC18" s="1"/>
-      <c r="MD18" s="1"/>
+      <c r="MC18" s="21"/>
+      <c r="MD18" s="21"/>
       <c r="ME18" s="1"/>
       <c r="MF18" s="1"/>
       <c r="MG18" s="1"/>
       <c r="MH18" s="1"/>
       <c r="MI18" s="1"/>
-      <c r="MJ18" s="1"/>
-      <c r="MK18" s="1"/>
+      <c r="MJ18" s="21"/>
+      <c r="MK18" s="21"/>
       <c r="ML18" s="1"/>
       <c r="MM18" s="1"/>
       <c r="MN18" s="1"/>
       <c r="MO18" s="1"/>
       <c r="MP18" s="1"/>
-      <c r="MQ18" s="1"/>
-      <c r="MR18" s="1"/>
+      <c r="MQ18" s="21"/>
+      <c r="MR18" s="21"/>
       <c r="MS18" s="1"/>
       <c r="MT18" s="1"/>
       <c r="MU18" s="1"/>
       <c r="MV18" s="1"/>
       <c r="MW18" s="1"/>
-      <c r="MX18" s="1"/>
-      <c r="MY18" s="1"/>
+      <c r="MX18" s="21"/>
+      <c r="MY18" s="21"/>
       <c r="MZ18" s="1"/>
       <c r="NA18" s="1"/>
       <c r="NB18" s="1"/>
@@ -9144,288 +9236,288 @@
       <c r="CA19" s="7"/>
       <c r="CB19" s="7"/>
       <c r="CC19" s="7"/>
-      <c r="CD19" s="7"/>
-      <c r="CE19" s="7"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
       <c r="CF19" s="7"/>
       <c r="CG19" s="7"/>
       <c r="CH19" s="7"/>
       <c r="CI19" s="7"/>
       <c r="CJ19" s="7"/>
-      <c r="CK19" s="7"/>
-      <c r="CL19" s="7"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
       <c r="CO19" s="7"/>
       <c r="CP19" s="7"/>
       <c r="CQ19" s="7"/>
-      <c r="CR19" s="7"/>
-      <c r="CS19" s="7"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
       <c r="CT19" s="7"/>
       <c r="CU19" s="7"/>
       <c r="CV19" s="7"/>
       <c r="CW19" s="7"/>
       <c r="CX19" s="7"/>
-      <c r="CY19" s="7"/>
-      <c r="CZ19" s="7"/>
+      <c r="CY19" s="21"/>
+      <c r="CZ19" s="21"/>
       <c r="DA19" s="7"/>
       <c r="DB19" s="7"/>
       <c r="DC19" s="7"/>
       <c r="DD19" s="7"/>
       <c r="DE19" s="7"/>
-      <c r="DF19" s="7"/>
-      <c r="DG19" s="7"/>
+      <c r="DF19" s="21"/>
+      <c r="DG19" s="21"/>
       <c r="DH19" s="7"/>
       <c r="DI19" s="7"/>
       <c r="DJ19" s="7"/>
       <c r="DK19" s="7"/>
       <c r="DL19" s="7"/>
-      <c r="DM19" s="7"/>
-      <c r="DN19" s="7"/>
+      <c r="DM19" s="21"/>
+      <c r="DN19" s="21"/>
       <c r="DO19" s="7"/>
       <c r="DP19" s="7"/>
       <c r="DQ19" s="7"/>
       <c r="DR19" s="7"/>
       <c r="DS19" s="7"/>
-      <c r="DT19" s="7"/>
-      <c r="DU19" s="7"/>
+      <c r="DT19" s="21"/>
+      <c r="DU19" s="21"/>
       <c r="DV19" s="7"/>
       <c r="DW19" s="7"/>
       <c r="DX19" s="7"/>
       <c r="DY19" s="7"/>
       <c r="DZ19" s="7"/>
-      <c r="EA19" s="7"/>
-      <c r="EB19" s="7"/>
+      <c r="EA19" s="21"/>
+      <c r="EB19" s="21"/>
       <c r="EC19" s="7"/>
       <c r="ED19" s="7"/>
       <c r="EE19" s="7"/>
       <c r="EF19" s="7"/>
       <c r="EG19" s="7"/>
-      <c r="EH19" s="7"/>
-      <c r="EI19" s="7"/>
+      <c r="EH19" s="21"/>
+      <c r="EI19" s="21"/>
       <c r="EJ19" s="7"/>
       <c r="EK19" s="7"/>
       <c r="EL19" s="7"/>
       <c r="EM19" s="7"/>
       <c r="EN19" s="7"/>
-      <c r="EO19" s="7"/>
-      <c r="EP19" s="7"/>
+      <c r="EO19" s="21"/>
+      <c r="EP19" s="21"/>
       <c r="EQ19" s="7"/>
       <c r="ER19" s="7"/>
       <c r="ES19" s="7"/>
       <c r="ET19" s="7"/>
       <c r="EU19" s="7"/>
-      <c r="EV19" s="7"/>
-      <c r="EW19" s="7"/>
+      <c r="EV19" s="21"/>
+      <c r="EW19" s="21"/>
       <c r="EX19" s="7"/>
       <c r="EY19" s="7"/>
       <c r="EZ19" s="7"/>
       <c r="FA19" s="7"/>
       <c r="FB19" s="7"/>
-      <c r="FC19" s="7"/>
-      <c r="FD19" s="7"/>
+      <c r="FC19" s="21"/>
+      <c r="FD19" s="21"/>
       <c r="FE19" s="7"/>
       <c r="FF19" s="7"/>
       <c r="FG19" s="7"/>
       <c r="FH19" s="7"/>
       <c r="FI19" s="7"/>
-      <c r="FJ19" s="7"/>
-      <c r="FK19" s="7"/>
+      <c r="FJ19" s="21"/>
+      <c r="FK19" s="21"/>
       <c r="FL19" s="7"/>
       <c r="FM19" s="7"/>
       <c r="FN19" s="7"/>
       <c r="FO19" s="7"/>
       <c r="FP19" s="7"/>
-      <c r="FQ19" s="7"/>
-      <c r="FR19" s="7"/>
+      <c r="FQ19" s="21"/>
+      <c r="FR19" s="21"/>
       <c r="FS19" s="7"/>
       <c r="FT19" s="7"/>
       <c r="FU19" s="7"/>
       <c r="FV19" s="7"/>
       <c r="FW19" s="7"/>
-      <c r="FX19" s="7"/>
-      <c r="FY19" s="7"/>
+      <c r="FX19" s="21"/>
+      <c r="FY19" s="21"/>
       <c r="FZ19" s="7"/>
       <c r="GA19" s="7"/>
       <c r="GB19" s="7"/>
       <c r="GC19" s="7"/>
       <c r="GD19" s="7"/>
-      <c r="GE19" s="7"/>
-      <c r="GF19" s="7"/>
+      <c r="GE19" s="21"/>
+      <c r="GF19" s="21"/>
       <c r="GG19" s="7"/>
       <c r="GH19" s="7"/>
       <c r="GI19" s="7"/>
       <c r="GJ19" s="7"/>
       <c r="GK19" s="7"/>
-      <c r="GL19" s="7"/>
-      <c r="GM19" s="7"/>
+      <c r="GL19" s="21"/>
+      <c r="GM19" s="21"/>
       <c r="GN19" s="7"/>
       <c r="GO19" s="7"/>
       <c r="GP19" s="7"/>
       <c r="GQ19" s="7"/>
       <c r="GR19" s="7"/>
-      <c r="GS19" s="7"/>
-      <c r="GT19" s="7"/>
+      <c r="GS19" s="21"/>
+      <c r="GT19" s="21"/>
       <c r="GU19" s="7"/>
       <c r="GV19" s="7"/>
       <c r="GW19" s="7"/>
       <c r="GX19" s="7"/>
       <c r="GY19" s="7"/>
-      <c r="GZ19" s="7"/>
-      <c r="HA19" s="7"/>
+      <c r="GZ19" s="21"/>
+      <c r="HA19" s="21"/>
       <c r="HB19" s="7"/>
       <c r="HC19" s="7"/>
       <c r="HD19" s="7"/>
       <c r="HE19" s="7"/>
       <c r="HF19" s="7"/>
-      <c r="HG19" s="7"/>
-      <c r="HH19" s="7"/>
+      <c r="HG19" s="21"/>
+      <c r="HH19" s="21"/>
       <c r="HI19" s="7"/>
       <c r="HJ19" s="7"/>
       <c r="HK19" s="7"/>
       <c r="HL19" s="7"/>
       <c r="HM19" s="7"/>
-      <c r="HN19" s="7"/>
-      <c r="HO19" s="7"/>
+      <c r="HN19" s="21"/>
+      <c r="HO19" s="21"/>
       <c r="HP19" s="7"/>
       <c r="HQ19" s="7"/>
       <c r="HR19" s="7"/>
       <c r="HS19" s="7"/>
       <c r="HT19" s="7"/>
-      <c r="HU19" s="7"/>
-      <c r="HV19" s="7"/>
+      <c r="HU19" s="21"/>
+      <c r="HV19" s="21"/>
       <c r="HW19" s="7"/>
       <c r="HX19" s="7"/>
       <c r="HY19" s="7"/>
       <c r="HZ19" s="7"/>
       <c r="IA19" s="7"/>
-      <c r="IB19" s="7"/>
-      <c r="IC19" s="7"/>
+      <c r="IB19" s="21"/>
+      <c r="IC19" s="21"/>
       <c r="ID19" s="7"/>
       <c r="IE19" s="7"/>
       <c r="IF19" s="7"/>
       <c r="IG19" s="7"/>
       <c r="IH19" s="7"/>
-      <c r="II19" s="7"/>
-      <c r="IJ19" s="7"/>
+      <c r="II19" s="21"/>
+      <c r="IJ19" s="21"/>
       <c r="IK19" s="7"/>
       <c r="IL19" s="7"/>
       <c r="IM19" s="7"/>
       <c r="IN19" s="7"/>
       <c r="IO19" s="7"/>
-      <c r="IP19" s="7"/>
-      <c r="IQ19" s="7"/>
+      <c r="IP19" s="21"/>
+      <c r="IQ19" s="21"/>
       <c r="IR19" s="7"/>
       <c r="IS19" s="7"/>
       <c r="IT19" s="7"/>
       <c r="IU19" s="7"/>
       <c r="IV19" s="7"/>
-      <c r="IW19" s="7"/>
-      <c r="IX19" s="7"/>
+      <c r="IW19" s="21"/>
+      <c r="IX19" s="21"/>
       <c r="IY19" s="7"/>
       <c r="IZ19" s="7"/>
       <c r="JA19" s="7"/>
       <c r="JB19" s="7"/>
       <c r="JC19" s="7"/>
-      <c r="JD19" s="7"/>
-      <c r="JE19" s="7"/>
+      <c r="JD19" s="21"/>
+      <c r="JE19" s="21"/>
       <c r="JF19" s="7"/>
       <c r="JG19" s="7"/>
       <c r="JH19" s="7"/>
       <c r="JI19" s="7"/>
       <c r="JJ19" s="7"/>
-      <c r="JK19" s="7"/>
-      <c r="JL19" s="7"/>
+      <c r="JK19" s="21"/>
+      <c r="JL19" s="21"/>
       <c r="JM19" s="7"/>
       <c r="JN19" s="7"/>
       <c r="JO19" s="7"/>
       <c r="JP19" s="7"/>
       <c r="JQ19" s="7"/>
-      <c r="JR19" s="7"/>
-      <c r="JS19" s="7"/>
+      <c r="JR19" s="21"/>
+      <c r="JS19" s="21"/>
       <c r="JT19" s="7"/>
       <c r="JU19" s="7"/>
       <c r="JV19" s="7"/>
       <c r="JW19" s="7"/>
       <c r="JX19" s="7"/>
-      <c r="JY19" s="7"/>
-      <c r="JZ19" s="7"/>
+      <c r="JY19" s="21"/>
+      <c r="JZ19" s="21"/>
       <c r="KA19" s="7"/>
       <c r="KB19" s="7"/>
       <c r="KC19" s="7"/>
       <c r="KD19" s="7"/>
       <c r="KE19" s="7"/>
-      <c r="KF19" s="7"/>
-      <c r="KG19" s="7"/>
+      <c r="KF19" s="21"/>
+      <c r="KG19" s="21"/>
       <c r="KH19" s="7"/>
       <c r="KI19" s="7"/>
       <c r="KJ19" s="7"/>
       <c r="KK19" s="7"/>
       <c r="KL19" s="7"/>
-      <c r="KM19" s="7"/>
-      <c r="KN19" s="7"/>
+      <c r="KM19" s="21"/>
+      <c r="KN19" s="21"/>
       <c r="KO19" s="7"/>
       <c r="KP19" s="7"/>
       <c r="KQ19" s="7"/>
       <c r="KR19" s="7"/>
       <c r="KS19" s="7"/>
-      <c r="KT19" s="7"/>
-      <c r="KU19" s="7"/>
+      <c r="KT19" s="21"/>
+      <c r="KU19" s="21"/>
       <c r="KV19" s="7"/>
       <c r="KW19" s="7"/>
       <c r="KX19" s="7"/>
       <c r="KY19" s="7"/>
       <c r="KZ19" s="7"/>
-      <c r="LA19" s="7"/>
-      <c r="LB19" s="7"/>
+      <c r="LA19" s="21"/>
+      <c r="LB19" s="21"/>
       <c r="LC19" s="7"/>
       <c r="LD19" s="7"/>
       <c r="LE19" s="7"/>
       <c r="LF19" s="7"/>
       <c r="LG19" s="7"/>
-      <c r="LH19" s="7"/>
-      <c r="LI19" s="7"/>
+      <c r="LH19" s="21"/>
+      <c r="LI19" s="21"/>
       <c r="LJ19" s="7"/>
       <c r="LK19" s="7"/>
       <c r="LL19" s="7"/>
       <c r="LM19" s="7"/>
       <c r="LN19" s="7"/>
-      <c r="LO19" s="7"/>
-      <c r="LP19" s="7"/>
+      <c r="LO19" s="21"/>
+      <c r="LP19" s="21"/>
       <c r="LQ19" s="7"/>
       <c r="LR19" s="7"/>
       <c r="LS19" s="7"/>
       <c r="LT19" s="7"/>
       <c r="LU19" s="7"/>
-      <c r="LV19" s="7"/>
-      <c r="LW19" s="7"/>
+      <c r="LV19" s="21"/>
+      <c r="LW19" s="21"/>
       <c r="LX19" s="7"/>
       <c r="LY19" s="7"/>
       <c r="LZ19" s="7"/>
       <c r="MA19" s="7"/>
       <c r="MB19" s="7"/>
-      <c r="MC19" s="7"/>
-      <c r="MD19" s="7"/>
+      <c r="MC19" s="21"/>
+      <c r="MD19" s="21"/>
       <c r="ME19" s="7"/>
       <c r="MF19" s="7"/>
       <c r="MG19" s="7"/>
       <c r="MH19" s="7"/>
       <c r="MI19" s="7"/>
-      <c r="MJ19" s="7"/>
-      <c r="MK19" s="7"/>
+      <c r="MJ19" s="21"/>
+      <c r="MK19" s="21"/>
       <c r="ML19" s="7"/>
       <c r="MM19" s="7"/>
       <c r="MN19" s="7"/>
       <c r="MO19" s="7"/>
       <c r="MP19" s="7"/>
-      <c r="MQ19" s="7"/>
-      <c r="MR19" s="7"/>
+      <c r="MQ19" s="21"/>
+      <c r="MR19" s="21"/>
       <c r="MS19" s="7"/>
       <c r="MT19" s="7"/>
       <c r="MU19" s="7"/>
       <c r="MV19" s="7"/>
       <c r="MW19" s="7"/>
-      <c r="MX19" s="7"/>
-      <c r="MY19" s="7"/>
+      <c r="MX19" s="21"/>
+      <c r="MY19" s="21"/>
       <c r="MZ19" s="7"/>
       <c r="NA19" s="7"/>
       <c r="NB19" s="7"/>
@@ -9449,43 +9541,43 @@
       <c r="BH20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="CU20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DB20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DC20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DE20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG20" s="15" t="s">
+      <c r="CU20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="FL20" t="s">
@@ -9503,10 +9595,10 @@
       <c r="FP20" t="s">
         <v>13</v>
       </c>
-      <c r="FQ20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR20" s="4" t="s">
+      <c r="FQ20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="FS20" t="s">
@@ -9524,10 +9616,10 @@
       <c r="FW20" t="s">
         <v>13</v>
       </c>
-      <c r="FX20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY20" s="4" t="s">
+      <c r="FX20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="HI20" s="11" t="s">
@@ -9545,10 +9637,10 @@
       <c r="HM20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="HN20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO20" s="4" t="s">
+      <c r="HN20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="HP20" s="2" t="s">
@@ -9577,6 +9669,8 @@
       </c>
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
+      <c r="CD21" s="22"/>
+      <c r="CE21" s="22"/>
       <c r="CG21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9589,9 +9683,10 @@
       <c r="CJ21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CK21" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="CK21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL21" s="22"/>
       <c r="CN21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9601,10 +9696,14 @@
       <c r="CP21" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="CR21" s="22"/>
+      <c r="CS21" s="22"/>
+      <c r="CY21" s="22"/>
+      <c r="CZ21" s="22"/>
       <c r="DD21" s="13"/>
       <c r="DE21" s="13"/>
-      <c r="DF21" s="13"/>
-      <c r="DG21" s="13"/>
+      <c r="DF21" s="24"/>
+      <c r="DG21" s="24"/>
       <c r="DH21" s="13"/>
       <c r="DI21" s="13" t="s">
         <v>13</v>
@@ -9618,11 +9717,19 @@
       <c r="DL21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DM21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN21" s="13"/>
+      <c r="DM21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN21" s="24"/>
       <c r="DO21" s="13"/>
+      <c r="DT21" s="22"/>
+      <c r="DU21" s="22"/>
+      <c r="EA21" s="22"/>
+      <c r="EB21" s="22"/>
+      <c r="EH21" s="22"/>
+      <c r="EI21" s="22"/>
+      <c r="EO21" s="22"/>
+      <c r="EP21" s="22"/>
       <c r="ER21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9635,20 +9742,77 @@
       <c r="EU21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="EV21" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="EV21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="EW21" s="22"/>
       <c r="FA21" s="13"/>
       <c r="FB21" s="13"/>
-      <c r="FC21" s="13"/>
-      <c r="FD21" s="13"/>
+      <c r="FC21" s="24"/>
+      <c r="FD21" s="24"/>
       <c r="FE21" s="13"/>
       <c r="FF21" s="13"/>
       <c r="FG21" s="13"/>
       <c r="FH21" s="13"/>
       <c r="FI21" s="13"/>
-      <c r="FJ21" s="13"/>
-      <c r="FK21" s="13"/>
+      <c r="FJ21" s="24"/>
+      <c r="FK21" s="24"/>
+      <c r="FQ21" s="22"/>
+      <c r="FR21" s="22"/>
+      <c r="FX21" s="22"/>
+      <c r="FY21" s="22"/>
+      <c r="GE21" s="22"/>
+      <c r="GF21" s="22"/>
+      <c r="GL21" s="22"/>
+      <c r="GM21" s="22"/>
+      <c r="GS21" s="22"/>
+      <c r="GT21" s="22"/>
+      <c r="GZ21" s="22"/>
+      <c r="HA21" s="22"/>
+      <c r="HG21" s="22"/>
+      <c r="HH21" s="22"/>
+      <c r="HN21" s="22"/>
+      <c r="HO21" s="22"/>
+      <c r="HU21" s="22"/>
+      <c r="HV21" s="22"/>
+      <c r="IB21" s="22"/>
+      <c r="IC21" s="22"/>
+      <c r="II21" s="22"/>
+      <c r="IJ21" s="22"/>
+      <c r="IP21" s="22"/>
+      <c r="IQ21" s="22"/>
+      <c r="IW21" s="22"/>
+      <c r="IX21" s="22"/>
+      <c r="JD21" s="22"/>
+      <c r="JE21" s="22"/>
+      <c r="JK21" s="22"/>
+      <c r="JL21" s="22"/>
+      <c r="JR21" s="22"/>
+      <c r="JS21" s="22"/>
+      <c r="JY21" s="22"/>
+      <c r="JZ21" s="22"/>
+      <c r="KF21" s="22"/>
+      <c r="KG21" s="22"/>
+      <c r="KM21" s="22"/>
+      <c r="KN21" s="22"/>
+      <c r="KT21" s="22"/>
+      <c r="KU21" s="22"/>
+      <c r="LA21" s="22"/>
+      <c r="LB21" s="22"/>
+      <c r="LH21" s="22"/>
+      <c r="LI21" s="22"/>
+      <c r="LO21" s="22"/>
+      <c r="LP21" s="22"/>
+      <c r="LV21" s="22"/>
+      <c r="LW21" s="22"/>
+      <c r="MC21" s="22"/>
+      <c r="MD21" s="22"/>
+      <c r="MJ21" s="22"/>
+      <c r="MK21" s="22"/>
+      <c r="MQ21" s="22"/>
+      <c r="MR21" s="22"/>
+      <c r="MX21" s="22"/>
+      <c r="MY21" s="22"/>
     </row>
     <row r="22" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -9679,10 +9843,10 @@
       <c r="FP26" t="s">
         <v>13</v>
       </c>
-      <c r="FQ26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR26" s="4" t="s">
+      <c r="FQ26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="FS26" t="s">
@@ -9700,10 +9864,10 @@
       <c r="FW26" t="s">
         <v>13</v>
       </c>
-      <c r="FX26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY26" s="4" t="s">
+      <c r="FX26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="HB26" t="s">
@@ -9721,10 +9885,10 @@
       <c r="HF26" t="s">
         <v>13</v>
       </c>
-      <c r="HG26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH26" s="4" t="s">
+      <c r="HG26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="HI26" t="s">
@@ -9742,10 +9906,10 @@
       <c r="HM26" t="s">
         <v>13</v>
       </c>
-      <c r="HN26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO26" s="4" t="s">
+      <c r="HN26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="ME26" t="s">
@@ -9763,10 +9927,10 @@
       <c r="MI26" t="s">
         <v>13</v>
       </c>
-      <c r="MJ26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MK26" s="4" t="s">
+      <c r="MJ26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="MK26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="ML26" t="s">
@@ -9784,10 +9948,10 @@
       <c r="MP26" t="s">
         <v>13</v>
       </c>
-      <c r="MQ26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR26" s="4" t="s">
+      <c r="MQ26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR26" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9866,6 +10030,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -9873,11 +10042,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="47">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -212,6 +212,18 @@
   <si>
     <t>Александр Власюк</t>
   </si>
+  <si>
+    <t>Степыгин Сергей</t>
+  </si>
+  <si>
+    <t>Лякин Дмитрий</t>
+  </si>
+  <si>
+    <t>Еренцов Олег</t>
+  </si>
+  <si>
+    <t>Ларин Михаил</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -350,10 +362,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -361,6 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -633,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,492 +655,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC28"/>
+  <dimension ref="A1:PC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="LE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="MX2" activeCellId="15" sqref="IW1:IX1048576 JD1:JE1048576 JK1:JL1048576 JR1:JS1048576 JY1:JZ1048576 KF1:KG1048576 KM1:KN1048576 KT1:KU1048576 LA1:LB1048576 LH1:LI1048576 LO1:LP1048576 LV1:LW1048576 MC1:MD1048576 MJ1:MK1048576 MQ1:MR1048576 MX1:MY1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="FW13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="HT34" sqref="HT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="81" width="3.7109375" customWidth="1"/>
-    <col min="82" max="83" width="3.7109375" style="22" customWidth="1"/>
+    <col min="82" max="83" width="3.7109375" style="20" customWidth="1"/>
     <col min="84" max="88" width="3.7109375" customWidth="1"/>
-    <col min="89" max="90" width="3.7109375" style="22" customWidth="1"/>
+    <col min="89" max="90" width="3.7109375" style="20" customWidth="1"/>
     <col min="91" max="95" width="3.7109375" customWidth="1"/>
-    <col min="96" max="97" width="3.7109375" style="22" customWidth="1"/>
+    <col min="96" max="97" width="3.7109375" style="20" customWidth="1"/>
     <col min="98" max="102" width="3.7109375" customWidth="1"/>
-    <col min="103" max="104" width="3.7109375" style="22" customWidth="1"/>
+    <col min="103" max="104" width="3.7109375" style="20" customWidth="1"/>
     <col min="105" max="109" width="3.7109375" customWidth="1"/>
-    <col min="110" max="111" width="3.7109375" style="22" customWidth="1"/>
+    <col min="110" max="111" width="3.7109375" style="20" customWidth="1"/>
     <col min="112" max="116" width="3.7109375" customWidth="1"/>
-    <col min="117" max="118" width="3.7109375" style="22" customWidth="1"/>
+    <col min="117" max="118" width="3.7109375" style="20" customWidth="1"/>
     <col min="119" max="123" width="3.7109375" customWidth="1"/>
-    <col min="124" max="125" width="3.7109375" style="22" customWidth="1"/>
+    <col min="124" max="125" width="3.7109375" style="20" customWidth="1"/>
     <col min="126" max="130" width="3.7109375" customWidth="1"/>
-    <col min="131" max="132" width="3.7109375" style="22" customWidth="1"/>
+    <col min="131" max="132" width="3.7109375" style="20" customWidth="1"/>
     <col min="133" max="137" width="3.7109375" customWidth="1"/>
-    <col min="138" max="139" width="3.7109375" style="22" customWidth="1"/>
+    <col min="138" max="139" width="3.7109375" style="20" customWidth="1"/>
     <col min="140" max="144" width="3.7109375" customWidth="1"/>
-    <col min="145" max="146" width="3.7109375" style="22" customWidth="1"/>
+    <col min="145" max="146" width="3.7109375" style="20" customWidth="1"/>
     <col min="147" max="151" width="3.7109375" customWidth="1"/>
-    <col min="152" max="153" width="3.7109375" style="22" customWidth="1"/>
+    <col min="152" max="153" width="3.7109375" style="20" customWidth="1"/>
     <col min="154" max="158" width="3.7109375" customWidth="1"/>
-    <col min="159" max="160" width="3.7109375" style="22" customWidth="1"/>
-    <col min="161" max="165" width="3.7109375" customWidth="1"/>
-    <col min="166" max="167" width="3.7109375" style="22" customWidth="1"/>
+    <col min="159" max="160" width="3.7109375" style="20" customWidth="1"/>
+    <col min="161" max="163" width="3.7109375" customWidth="1"/>
+    <col min="164" max="164" width="3.7109375" style="25" customWidth="1"/>
+    <col min="165" max="165" width="3.7109375" customWidth="1"/>
+    <col min="166" max="167" width="3.7109375" style="20" customWidth="1"/>
     <col min="168" max="172" width="3.7109375" customWidth="1"/>
-    <col min="173" max="174" width="3.7109375" style="22" customWidth="1"/>
+    <col min="173" max="174" width="3.7109375" style="20" customWidth="1"/>
     <col min="175" max="179" width="3.7109375" customWidth="1"/>
-    <col min="180" max="181" width="3.7109375" style="22" customWidth="1"/>
+    <col min="180" max="181" width="3.7109375" style="20" customWidth="1"/>
     <col min="182" max="186" width="3.7109375" customWidth="1"/>
-    <col min="187" max="188" width="3.7109375" style="22" customWidth="1"/>
+    <col min="187" max="188" width="3.7109375" style="20" customWidth="1"/>
     <col min="189" max="193" width="3.7109375" customWidth="1"/>
-    <col min="194" max="195" width="3.7109375" style="22" customWidth="1"/>
+    <col min="194" max="195" width="3.7109375" style="20" customWidth="1"/>
     <col min="196" max="200" width="3.7109375" customWidth="1"/>
-    <col min="201" max="202" width="3.7109375" style="22" customWidth="1"/>
+    <col min="201" max="202" width="3.7109375" style="20" customWidth="1"/>
     <col min="203" max="207" width="3.7109375" customWidth="1"/>
-    <col min="208" max="209" width="3.7109375" style="22" customWidth="1"/>
+    <col min="208" max="209" width="3.7109375" style="20" customWidth="1"/>
     <col min="210" max="214" width="3.7109375" customWidth="1"/>
-    <col min="215" max="216" width="3.7109375" style="22" customWidth="1"/>
+    <col min="215" max="216" width="3.7109375" style="20" customWidth="1"/>
     <col min="217" max="221" width="3.7109375" customWidth="1"/>
-    <col min="222" max="223" width="3.7109375" style="22" customWidth="1"/>
+    <col min="222" max="223" width="3.7109375" style="20" customWidth="1"/>
     <col min="224" max="228" width="3.7109375" customWidth="1"/>
-    <col min="229" max="230" width="3.7109375" style="22" customWidth="1"/>
+    <col min="229" max="230" width="3.7109375" style="20" customWidth="1"/>
     <col min="231" max="235" width="3.7109375" customWidth="1"/>
-    <col min="236" max="237" width="3.7109375" style="22" customWidth="1"/>
+    <col min="236" max="237" width="3.7109375" style="20" customWidth="1"/>
     <col min="238" max="242" width="3.7109375" customWidth="1"/>
-    <col min="243" max="244" width="3.7109375" style="22" customWidth="1"/>
+    <col min="243" max="244" width="3.7109375" style="20" customWidth="1"/>
     <col min="245" max="249" width="3.7109375" customWidth="1"/>
-    <col min="250" max="251" width="3.7109375" style="22" customWidth="1"/>
+    <col min="250" max="251" width="3.7109375" style="20" customWidth="1"/>
     <col min="252" max="256" width="3.7109375" customWidth="1"/>
-    <col min="257" max="258" width="3.7109375" style="22" customWidth="1"/>
+    <col min="257" max="258" width="3.7109375" style="20" customWidth="1"/>
     <col min="259" max="263" width="3.7109375" customWidth="1"/>
-    <col min="264" max="265" width="3.7109375" style="22" customWidth="1"/>
+    <col min="264" max="265" width="3.7109375" style="20" customWidth="1"/>
     <col min="266" max="270" width="3.7109375" customWidth="1"/>
-    <col min="271" max="272" width="3.7109375" style="22" customWidth="1"/>
+    <col min="271" max="272" width="3.7109375" style="20" customWidth="1"/>
     <col min="273" max="277" width="3.7109375" customWidth="1"/>
-    <col min="278" max="279" width="3.7109375" style="22" customWidth="1"/>
+    <col min="278" max="279" width="3.7109375" style="20" customWidth="1"/>
     <col min="280" max="284" width="3.7109375" customWidth="1"/>
-    <col min="285" max="286" width="3.7109375" style="22" customWidth="1"/>
+    <col min="285" max="286" width="3.7109375" style="20" customWidth="1"/>
     <col min="287" max="291" width="3.7109375" customWidth="1"/>
-    <col min="292" max="293" width="3.7109375" style="22" customWidth="1"/>
+    <col min="292" max="293" width="3.7109375" style="20" customWidth="1"/>
     <col min="294" max="298" width="3.7109375" customWidth="1"/>
-    <col min="299" max="300" width="3.7109375" style="22" customWidth="1"/>
+    <col min="299" max="300" width="3.7109375" style="20" customWidth="1"/>
     <col min="301" max="305" width="3.7109375" customWidth="1"/>
-    <col min="306" max="307" width="3.7109375" style="22" customWidth="1"/>
+    <col min="306" max="307" width="3.7109375" style="20" customWidth="1"/>
     <col min="308" max="312" width="3.7109375" customWidth="1"/>
-    <col min="313" max="314" width="3.7109375" style="22" customWidth="1"/>
+    <col min="313" max="314" width="3.7109375" style="20" customWidth="1"/>
     <col min="315" max="319" width="3.7109375" customWidth="1"/>
-    <col min="320" max="321" width="3.7109375" style="22" customWidth="1"/>
+    <col min="320" max="321" width="3.7109375" style="20" customWidth="1"/>
     <col min="322" max="326" width="3.7109375" customWidth="1"/>
-    <col min="327" max="328" width="3.7109375" style="22" customWidth="1"/>
+    <col min="327" max="328" width="3.7109375" style="20" customWidth="1"/>
     <col min="329" max="333" width="3.7109375" customWidth="1"/>
-    <col min="334" max="335" width="3.7109375" style="22" customWidth="1"/>
+    <col min="334" max="335" width="3.7109375" style="20" customWidth="1"/>
     <col min="336" max="340" width="3.7109375" customWidth="1"/>
-    <col min="341" max="342" width="3.7109375" style="22" customWidth="1"/>
+    <col min="341" max="342" width="3.7109375" style="20" customWidth="1"/>
     <col min="343" max="347" width="3.7109375" customWidth="1"/>
-    <col min="348" max="349" width="3.7109375" style="22" customWidth="1"/>
+    <col min="348" max="349" width="3.7109375" style="20" customWidth="1"/>
     <col min="350" max="354" width="3.7109375" customWidth="1"/>
-    <col min="355" max="356" width="3.7109375" style="22" customWidth="1"/>
+    <col min="355" max="356" width="3.7109375" style="20" customWidth="1"/>
     <col min="357" max="361" width="3.7109375" customWidth="1"/>
-    <col min="362" max="363" width="3.7109375" style="22" customWidth="1"/>
+    <col min="362" max="363" width="3.7109375" style="20" customWidth="1"/>
     <col min="364" max="366" width="3.7109375" customWidth="1"/>
     <col min="368" max="368" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="18" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="19"/>
-      <c r="CN1" s="18" t="s">
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="19" t="s">
+      <c r="CO1" s="23"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
+      <c r="CY1" s="23"/>
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23"/>
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23"/>
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23"/>
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="23"/>
+      <c r="DQ1" s="23"/>
+      <c r="DR1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="19"/>
-      <c r="DT1" s="19"/>
-      <c r="DU1" s="19"/>
-      <c r="DV1" s="19"/>
-      <c r="DW1" s="19"/>
-      <c r="DX1" s="19"/>
-      <c r="DY1" s="19"/>
-      <c r="DZ1" s="19"/>
-      <c r="EA1" s="19"/>
-      <c r="EB1" s="19"/>
-      <c r="EC1" s="19"/>
-      <c r="ED1" s="19"/>
-      <c r="EE1" s="19"/>
-      <c r="EF1" s="19"/>
-      <c r="EG1" s="19"/>
-      <c r="EH1" s="19"/>
-      <c r="EI1" s="19"/>
-      <c r="EJ1" s="19"/>
-      <c r="EK1" s="19"/>
-      <c r="EL1" s="19"/>
-      <c r="EM1" s="19"/>
-      <c r="EN1" s="19"/>
-      <c r="EO1" s="19"/>
-      <c r="EP1" s="19"/>
-      <c r="EQ1" s="19"/>
-      <c r="ER1" s="19"/>
-      <c r="ES1" s="19"/>
-      <c r="ET1" s="19"/>
-      <c r="EU1" s="19"/>
-      <c r="EV1" s="19"/>
-      <c r="EW1" s="19" t="s">
+      <c r="DS1" s="24"/>
+      <c r="DT1" s="24"/>
+      <c r="DU1" s="24"/>
+      <c r="DV1" s="24"/>
+      <c r="DW1" s="24"/>
+      <c r="DX1" s="24"/>
+      <c r="DY1" s="24"/>
+      <c r="DZ1" s="24"/>
+      <c r="EA1" s="24"/>
+      <c r="EB1" s="24"/>
+      <c r="EC1" s="24"/>
+      <c r="ED1" s="24"/>
+      <c r="EE1" s="24"/>
+      <c r="EF1" s="24"/>
+      <c r="EG1" s="24"/>
+      <c r="EH1" s="24"/>
+      <c r="EI1" s="24"/>
+      <c r="EJ1" s="24"/>
+      <c r="EK1" s="24"/>
+      <c r="EL1" s="24"/>
+      <c r="EM1" s="24"/>
+      <c r="EN1" s="24"/>
+      <c r="EO1" s="24"/>
+      <c r="EP1" s="24"/>
+      <c r="EQ1" s="24"/>
+      <c r="ER1" s="24"/>
+      <c r="ES1" s="24"/>
+      <c r="ET1" s="24"/>
+      <c r="EU1" s="24"/>
+      <c r="EV1" s="24"/>
+      <c r="EW1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="19"/>
-      <c r="EY1" s="19"/>
-      <c r="EZ1" s="19"/>
-      <c r="FA1" s="19"/>
-      <c r="FB1" s="19"/>
-      <c r="FC1" s="19"/>
-      <c r="FD1" s="19"/>
-      <c r="FE1" s="19"/>
-      <c r="FF1" s="19"/>
-      <c r="FG1" s="19"/>
-      <c r="FH1" s="19"/>
-      <c r="FI1" s="19"/>
-      <c r="FJ1" s="19"/>
-      <c r="FK1" s="19"/>
-      <c r="FL1" s="19"/>
-      <c r="FM1" s="19"/>
-      <c r="FN1" s="19"/>
-      <c r="FO1" s="19"/>
-      <c r="FP1" s="19"/>
-      <c r="FQ1" s="19"/>
-      <c r="FR1" s="19"/>
-      <c r="FS1" s="19"/>
-      <c r="FT1" s="19"/>
-      <c r="FU1" s="19"/>
-      <c r="FV1" s="19"/>
-      <c r="FW1" s="19"/>
-      <c r="FX1" s="19"/>
-      <c r="FY1" s="19"/>
-      <c r="FZ1" s="19"/>
-      <c r="GA1" s="19" t="s">
+      <c r="EX1" s="24"/>
+      <c r="EY1" s="24"/>
+      <c r="EZ1" s="24"/>
+      <c r="FA1" s="24"/>
+      <c r="FB1" s="24"/>
+      <c r="FC1" s="24"/>
+      <c r="FD1" s="24"/>
+      <c r="FE1" s="24"/>
+      <c r="FF1" s="24"/>
+      <c r="FG1" s="24"/>
+      <c r="FH1" s="24"/>
+      <c r="FI1" s="24"/>
+      <c r="FJ1" s="24"/>
+      <c r="FK1" s="24"/>
+      <c r="FL1" s="24"/>
+      <c r="FM1" s="24"/>
+      <c r="FN1" s="24"/>
+      <c r="FO1" s="24"/>
+      <c r="FP1" s="24"/>
+      <c r="FQ1" s="24"/>
+      <c r="FR1" s="24"/>
+      <c r="FS1" s="24"/>
+      <c r="FT1" s="24"/>
+      <c r="FU1" s="24"/>
+      <c r="FV1" s="24"/>
+      <c r="FW1" s="24"/>
+      <c r="FX1" s="24"/>
+      <c r="FY1" s="24"/>
+      <c r="FZ1" s="24"/>
+      <c r="GA1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="19"/>
-      <c r="GC1" s="19"/>
-      <c r="GD1" s="19"/>
-      <c r="GE1" s="19"/>
-      <c r="GF1" s="19"/>
-      <c r="GG1" s="19"/>
-      <c r="GH1" s="19"/>
-      <c r="GI1" s="19"/>
-      <c r="GJ1" s="19"/>
-      <c r="GK1" s="19"/>
-      <c r="GL1" s="19"/>
-      <c r="GM1" s="19"/>
-      <c r="GN1" s="19"/>
-      <c r="GO1" s="19"/>
-      <c r="GP1" s="19"/>
-      <c r="GQ1" s="19"/>
-      <c r="GR1" s="19"/>
-      <c r="GS1" s="19"/>
-      <c r="GT1" s="19"/>
-      <c r="GU1" s="19"/>
-      <c r="GV1" s="19"/>
-      <c r="GW1" s="19"/>
-      <c r="GX1" s="19"/>
-      <c r="GY1" s="19"/>
-      <c r="GZ1" s="19"/>
-      <c r="HA1" s="19"/>
-      <c r="HB1" s="19"/>
-      <c r="HC1" s="19"/>
-      <c r="HD1" s="19"/>
-      <c r="HE1" s="19"/>
-      <c r="HF1" s="18" t="s">
+      <c r="GB1" s="24"/>
+      <c r="GC1" s="24"/>
+      <c r="GD1" s="24"/>
+      <c r="GE1" s="24"/>
+      <c r="GF1" s="24"/>
+      <c r="GG1" s="24"/>
+      <c r="GH1" s="24"/>
+      <c r="GI1" s="24"/>
+      <c r="GJ1" s="24"/>
+      <c r="GK1" s="24"/>
+      <c r="GL1" s="24"/>
+      <c r="GM1" s="24"/>
+      <c r="GN1" s="24"/>
+      <c r="GO1" s="24"/>
+      <c r="GP1" s="24"/>
+      <c r="GQ1" s="24"/>
+      <c r="GR1" s="24"/>
+      <c r="GS1" s="24"/>
+      <c r="GT1" s="24"/>
+      <c r="GU1" s="24"/>
+      <c r="GV1" s="24"/>
+      <c r="GW1" s="24"/>
+      <c r="GX1" s="24"/>
+      <c r="GY1" s="24"/>
+      <c r="GZ1" s="24"/>
+      <c r="HA1" s="24"/>
+      <c r="HB1" s="24"/>
+      <c r="HC1" s="24"/>
+      <c r="HD1" s="24"/>
+      <c r="HE1" s="24"/>
+      <c r="HF1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
-      <c r="HK1" s="18"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="18"/>
-      <c r="HN1" s="18"/>
-      <c r="HO1" s="18"/>
-      <c r="HP1" s="18"/>
-      <c r="HQ1" s="18"/>
-      <c r="HR1" s="18"/>
-      <c r="HS1" s="18"/>
-      <c r="HT1" s="18"/>
-      <c r="HU1" s="18"/>
-      <c r="HV1" s="18"/>
-      <c r="HW1" s="18"/>
-      <c r="HX1" s="18"/>
-      <c r="HY1" s="18"/>
-      <c r="HZ1" s="18"/>
-      <c r="IA1" s="18"/>
-      <c r="IB1" s="18"/>
-      <c r="IC1" s="18"/>
-      <c r="ID1" s="18"/>
-      <c r="IE1" s="18"/>
-      <c r="IF1" s="18"/>
-      <c r="IG1" s="18"/>
-      <c r="IH1" s="18"/>
-      <c r="II1" s="18"/>
-      <c r="IJ1" s="18"/>
-      <c r="IK1" s="19" t="s">
+      <c r="HG1" s="23"/>
+      <c r="HH1" s="23"/>
+      <c r="HI1" s="23"/>
+      <c r="HJ1" s="23"/>
+      <c r="HK1" s="23"/>
+      <c r="HL1" s="23"/>
+      <c r="HM1" s="23"/>
+      <c r="HN1" s="23"/>
+      <c r="HO1" s="23"/>
+      <c r="HP1" s="23"/>
+      <c r="HQ1" s="23"/>
+      <c r="HR1" s="23"/>
+      <c r="HS1" s="23"/>
+      <c r="HT1" s="23"/>
+      <c r="HU1" s="23"/>
+      <c r="HV1" s="23"/>
+      <c r="HW1" s="23"/>
+      <c r="HX1" s="23"/>
+      <c r="HY1" s="23"/>
+      <c r="HZ1" s="23"/>
+      <c r="IA1" s="23"/>
+      <c r="IB1" s="23"/>
+      <c r="IC1" s="23"/>
+      <c r="ID1" s="23"/>
+      <c r="IE1" s="23"/>
+      <c r="IF1" s="23"/>
+      <c r="IG1" s="23"/>
+      <c r="IH1" s="23"/>
+      <c r="II1" s="23"/>
+      <c r="IJ1" s="23"/>
+      <c r="IK1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="19"/>
-      <c r="IM1" s="19"/>
-      <c r="IN1" s="19"/>
-      <c r="IO1" s="19"/>
-      <c r="IP1" s="19"/>
-      <c r="IQ1" s="19"/>
-      <c r="IR1" s="19"/>
-      <c r="IS1" s="19"/>
-      <c r="IT1" s="19"/>
-      <c r="IU1" s="19"/>
-      <c r="IV1" s="19"/>
-      <c r="IW1" s="19"/>
-      <c r="IX1" s="19"/>
-      <c r="IY1" s="19"/>
-      <c r="IZ1" s="19"/>
-      <c r="JA1" s="19"/>
-      <c r="JB1" s="19"/>
-      <c r="JC1" s="19"/>
-      <c r="JD1" s="19"/>
-      <c r="JE1" s="19"/>
-      <c r="JF1" s="19"/>
-      <c r="JG1" s="19"/>
-      <c r="JH1" s="19"/>
-      <c r="JI1" s="19"/>
-      <c r="JJ1" s="19"/>
-      <c r="JK1" s="19"/>
-      <c r="JL1" s="19"/>
-      <c r="JM1" s="19"/>
-      <c r="JN1" s="19"/>
-      <c r="JO1" s="18" t="s">
+      <c r="IL1" s="24"/>
+      <c r="IM1" s="24"/>
+      <c r="IN1" s="24"/>
+      <c r="IO1" s="24"/>
+      <c r="IP1" s="24"/>
+      <c r="IQ1" s="24"/>
+      <c r="IR1" s="24"/>
+      <c r="IS1" s="24"/>
+      <c r="IT1" s="24"/>
+      <c r="IU1" s="24"/>
+      <c r="IV1" s="24"/>
+      <c r="IW1" s="24"/>
+      <c r="IX1" s="24"/>
+      <c r="IY1" s="24"/>
+      <c r="IZ1" s="24"/>
+      <c r="JA1" s="24"/>
+      <c r="JB1" s="24"/>
+      <c r="JC1" s="24"/>
+      <c r="JD1" s="24"/>
+      <c r="JE1" s="24"/>
+      <c r="JF1" s="24"/>
+      <c r="JG1" s="24"/>
+      <c r="JH1" s="24"/>
+      <c r="JI1" s="24"/>
+      <c r="JJ1" s="24"/>
+      <c r="JK1" s="24"/>
+      <c r="JL1" s="24"/>
+      <c r="JM1" s="24"/>
+      <c r="JN1" s="24"/>
+      <c r="JO1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="18"/>
-      <c r="JQ1" s="18"/>
-      <c r="JR1" s="18"/>
-      <c r="JS1" s="18"/>
-      <c r="JT1" s="18"/>
-      <c r="JU1" s="18"/>
-      <c r="JV1" s="18"/>
-      <c r="JW1" s="18"/>
-      <c r="JX1" s="18"/>
-      <c r="JY1" s="18"/>
-      <c r="JZ1" s="18"/>
-      <c r="KA1" s="18"/>
-      <c r="KB1" s="18"/>
-      <c r="KC1" s="18"/>
-      <c r="KD1" s="18"/>
-      <c r="KE1" s="18"/>
-      <c r="KF1" s="18"/>
-      <c r="KG1" s="18"/>
-      <c r="KH1" s="18"/>
-      <c r="KI1" s="18"/>
-      <c r="KJ1" s="18"/>
-      <c r="KK1" s="18"/>
-      <c r="KL1" s="18"/>
-      <c r="KM1" s="18"/>
-      <c r="KN1" s="18"/>
-      <c r="KO1" s="18"/>
-      <c r="KP1" s="18"/>
-      <c r="KQ1" s="18"/>
-      <c r="KR1" s="18"/>
-      <c r="KS1" s="18"/>
-      <c r="KT1" s="18" t="s">
+      <c r="JP1" s="23"/>
+      <c r="JQ1" s="23"/>
+      <c r="JR1" s="23"/>
+      <c r="JS1" s="23"/>
+      <c r="JT1" s="23"/>
+      <c r="JU1" s="23"/>
+      <c r="JV1" s="23"/>
+      <c r="JW1" s="23"/>
+      <c r="JX1" s="23"/>
+      <c r="JY1" s="23"/>
+      <c r="JZ1" s="23"/>
+      <c r="KA1" s="23"/>
+      <c r="KB1" s="23"/>
+      <c r="KC1" s="23"/>
+      <c r="KD1" s="23"/>
+      <c r="KE1" s="23"/>
+      <c r="KF1" s="23"/>
+      <c r="KG1" s="23"/>
+      <c r="KH1" s="23"/>
+      <c r="KI1" s="23"/>
+      <c r="KJ1" s="23"/>
+      <c r="KK1" s="23"/>
+      <c r="KL1" s="23"/>
+      <c r="KM1" s="23"/>
+      <c r="KN1" s="23"/>
+      <c r="KO1" s="23"/>
+      <c r="KP1" s="23"/>
+      <c r="KQ1" s="23"/>
+      <c r="KR1" s="23"/>
+      <c r="KS1" s="23"/>
+      <c r="KT1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="18"/>
-      <c r="KV1" s="18"/>
-      <c r="KW1" s="18"/>
-      <c r="KX1" s="18"/>
-      <c r="KY1" s="18"/>
-      <c r="KZ1" s="18"/>
-      <c r="LA1" s="18"/>
-      <c r="LB1" s="18"/>
-      <c r="LC1" s="18"/>
-      <c r="LD1" s="18"/>
-      <c r="LE1" s="18"/>
-      <c r="LF1" s="18"/>
-      <c r="LG1" s="18"/>
-      <c r="LH1" s="18"/>
-      <c r="LI1" s="18"/>
-      <c r="LJ1" s="18"/>
-      <c r="LK1" s="18"/>
-      <c r="LL1" s="18"/>
-      <c r="LM1" s="18"/>
-      <c r="LN1" s="18"/>
-      <c r="LO1" s="18"/>
-      <c r="LP1" s="18"/>
-      <c r="LQ1" s="18"/>
-      <c r="LR1" s="18"/>
-      <c r="LS1" s="18"/>
-      <c r="LT1" s="18"/>
-      <c r="LU1" s="18"/>
-      <c r="LV1" s="18"/>
-      <c r="LW1" s="18"/>
-      <c r="LX1" s="18" t="s">
+      <c r="KU1" s="23"/>
+      <c r="KV1" s="23"/>
+      <c r="KW1" s="23"/>
+      <c r="KX1" s="23"/>
+      <c r="KY1" s="23"/>
+      <c r="KZ1" s="23"/>
+      <c r="LA1" s="23"/>
+      <c r="LB1" s="23"/>
+      <c r="LC1" s="23"/>
+      <c r="LD1" s="23"/>
+      <c r="LE1" s="23"/>
+      <c r="LF1" s="23"/>
+      <c r="LG1" s="23"/>
+      <c r="LH1" s="23"/>
+      <c r="LI1" s="23"/>
+      <c r="LJ1" s="23"/>
+      <c r="LK1" s="23"/>
+      <c r="LL1" s="23"/>
+      <c r="LM1" s="23"/>
+      <c r="LN1" s="23"/>
+      <c r="LO1" s="23"/>
+      <c r="LP1" s="23"/>
+      <c r="LQ1" s="23"/>
+      <c r="LR1" s="23"/>
+      <c r="LS1" s="23"/>
+      <c r="LT1" s="23"/>
+      <c r="LU1" s="23"/>
+      <c r="LV1" s="23"/>
+      <c r="LW1" s="23"/>
+      <c r="LX1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="18"/>
-      <c r="LZ1" s="18"/>
-      <c r="MA1" s="18"/>
-      <c r="MB1" s="18"/>
-      <c r="MC1" s="18"/>
-      <c r="MD1" s="18"/>
-      <c r="ME1" s="18"/>
-      <c r="MF1" s="18"/>
-      <c r="MG1" s="18"/>
-      <c r="MH1" s="18"/>
-      <c r="MI1" s="18"/>
-      <c r="MJ1" s="18"/>
-      <c r="MK1" s="18"/>
-      <c r="ML1" s="18"/>
-      <c r="MM1" s="18"/>
-      <c r="MN1" s="18"/>
-      <c r="MO1" s="18"/>
-      <c r="MP1" s="18"/>
-      <c r="MQ1" s="18"/>
-      <c r="MR1" s="18"/>
-      <c r="MS1" s="18"/>
-      <c r="MT1" s="18"/>
-      <c r="MU1" s="18"/>
-      <c r="MV1" s="18"/>
-      <c r="MW1" s="18"/>
-      <c r="MX1" s="18"/>
-      <c r="MY1" s="18"/>
-      <c r="MZ1" s="18"/>
-      <c r="NA1" s="18"/>
-      <c r="NB1" s="18"/>
+      <c r="LY1" s="23"/>
+      <c r="LZ1" s="23"/>
+      <c r="MA1" s="23"/>
+      <c r="MB1" s="23"/>
+      <c r="MC1" s="23"/>
+      <c r="MD1" s="23"/>
+      <c r="ME1" s="23"/>
+      <c r="MF1" s="23"/>
+      <c r="MG1" s="23"/>
+      <c r="MH1" s="23"/>
+      <c r="MI1" s="23"/>
+      <c r="MJ1" s="23"/>
+      <c r="MK1" s="23"/>
+      <c r="ML1" s="23"/>
+      <c r="MM1" s="23"/>
+      <c r="MN1" s="23"/>
+      <c r="MO1" s="23"/>
+      <c r="MP1" s="23"/>
+      <c r="MQ1" s="23"/>
+      <c r="MR1" s="23"/>
+      <c r="MS1" s="23"/>
+      <c r="MT1" s="23"/>
+      <c r="MU1" s="23"/>
+      <c r="MV1" s="23"/>
+      <c r="MW1" s="23"/>
+      <c r="MX1" s="23"/>
+      <c r="MY1" s="23"/>
+      <c r="MZ1" s="23"/>
+      <c r="NA1" s="23"/>
+      <c r="NB1" s="23"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1369,10 +1387,10 @@
       <c r="CC2" t="s">
         <v>20</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CF2" t="s">
@@ -1390,10 +1408,10 @@
       <c r="CJ2" t="s">
         <v>20</v>
       </c>
-      <c r="CK2" s="20" t="s">
+      <c r="CK2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CL2" s="20" t="s">
+      <c r="CL2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CM2" t="s">
@@ -1411,10 +1429,10 @@
       <c r="CQ2" t="s">
         <v>20</v>
       </c>
-      <c r="CR2" s="20" t="s">
+      <c r="CR2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CS2" s="20" t="s">
+      <c r="CS2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CT2" t="s">
@@ -1432,10 +1450,10 @@
       <c r="CX2" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="20" t="s">
+      <c r="CY2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CZ2" s="20" t="s">
+      <c r="CZ2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="DA2" t="s">
@@ -1453,10 +1471,10 @@
       <c r="DE2" t="s">
         <v>20</v>
       </c>
-      <c r="DF2" s="20" t="s">
+      <c r="DF2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DG2" s="20" t="s">
+      <c r="DG2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="DH2" t="s">
@@ -1474,10 +1492,10 @@
       <c r="DL2" t="s">
         <v>20</v>
       </c>
-      <c r="DM2" s="20" t="s">
+      <c r="DM2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DN2" s="20" t="s">
+      <c r="DN2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="DO2" t="s">
@@ -1495,10 +1513,10 @@
       <c r="DS2" t="s">
         <v>20</v>
       </c>
-      <c r="DT2" s="20" t="s">
+      <c r="DT2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DU2" s="20" t="s">
+      <c r="DU2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="DV2" t="s">
@@ -1516,10 +1534,10 @@
       <c r="DZ2" t="s">
         <v>20</v>
       </c>
-      <c r="EA2" s="20" t="s">
+      <c r="EA2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EB2" s="20" t="s">
+      <c r="EB2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="EC2" t="s">
@@ -1537,10 +1555,10 @@
       <c r="EG2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" s="20" t="s">
+      <c r="EH2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" s="20" t="s">
+      <c r="EI2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="EJ2" t="s">
@@ -1558,10 +1576,10 @@
       <c r="EN2" t="s">
         <v>20</v>
       </c>
-      <c r="EO2" s="20" t="s">
+      <c r="EO2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EP2" s="20" t="s">
+      <c r="EP2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="EQ2" t="s">
@@ -1579,10 +1597,10 @@
       <c r="EU2" t="s">
         <v>20</v>
       </c>
-      <c r="EV2" s="20" t="s">
+      <c r="EV2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EW2" s="20" t="s">
+      <c r="EW2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="EX2" t="s">
@@ -1600,10 +1618,10 @@
       <c r="FB2" t="s">
         <v>20</v>
       </c>
-      <c r="FC2" s="20" t="s">
+      <c r="FC2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FD2" s="20" t="s">
+      <c r="FD2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="FE2" t="s">
@@ -1615,16 +1633,16 @@
       <c r="FG2" t="s">
         <v>19</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FH2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="FI2" t="s">
         <v>20</v>
       </c>
-      <c r="FJ2" s="20" t="s">
+      <c r="FJ2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FK2" s="20" t="s">
+      <c r="FK2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="FL2" t="s">
@@ -1642,10 +1660,10 @@
       <c r="FP2" t="s">
         <v>20</v>
       </c>
-      <c r="FQ2" s="20" t="s">
+      <c r="FQ2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FR2" s="20" t="s">
+      <c r="FR2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="FS2" t="s">
@@ -1663,10 +1681,10 @@
       <c r="FW2" t="s">
         <v>20</v>
       </c>
-      <c r="FX2" s="20" t="s">
+      <c r="FX2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FY2" s="20" t="s">
+      <c r="FY2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="FZ2" t="s">
@@ -1684,10 +1702,10 @@
       <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" s="20" t="s">
+      <c r="GE2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" s="20" t="s">
+      <c r="GF2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="GG2" t="s">
@@ -1705,10 +1723,10 @@
       <c r="GK2" t="s">
         <v>20</v>
       </c>
-      <c r="GL2" s="20" t="s">
+      <c r="GL2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GM2" s="20" t="s">
+      <c r="GM2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="GN2" t="s">
@@ -1726,10 +1744,10 @@
       <c r="GR2" t="s">
         <v>20</v>
       </c>
-      <c r="GS2" s="20" t="s">
+      <c r="GS2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GT2" s="20" t="s">
+      <c r="GT2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="GU2" t="s">
@@ -1747,10 +1765,10 @@
       <c r="GY2" t="s">
         <v>20</v>
       </c>
-      <c r="GZ2" s="20" t="s">
+      <c r="GZ2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HA2" s="20" t="s">
+      <c r="HA2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="HB2" t="s">
@@ -1768,10 +1786,10 @@
       <c r="HF2" t="s">
         <v>20</v>
       </c>
-      <c r="HG2" s="20" t="s">
+      <c r="HG2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HH2" s="20" t="s">
+      <c r="HH2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="HI2" t="s">
@@ -1789,10 +1807,10 @@
       <c r="HM2" t="s">
         <v>20</v>
       </c>
-      <c r="HN2" s="20" t="s">
+      <c r="HN2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HO2" s="20" t="s">
+      <c r="HO2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="HP2" t="s">
@@ -1810,10 +1828,10 @@
       <c r="HT2" t="s">
         <v>20</v>
       </c>
-      <c r="HU2" s="20" t="s">
+      <c r="HU2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HV2" s="20" t="s">
+      <c r="HV2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="HW2" t="s">
@@ -1831,10 +1849,10 @@
       <c r="IA2" t="s">
         <v>20</v>
       </c>
-      <c r="IB2" s="20" t="s">
+      <c r="IB2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="IC2" s="20" t="s">
+      <c r="IC2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="ID2" t="s">
@@ -1852,10 +1870,10 @@
       <c r="IH2" t="s">
         <v>20</v>
       </c>
-      <c r="II2" s="20" t="s">
+      <c r="II2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="IJ2" s="20" t="s">
+      <c r="IJ2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="IK2" t="s">
@@ -1873,10 +1891,10 @@
       <c r="IO2" t="s">
         <v>20</v>
       </c>
-      <c r="IP2" s="20" t="s">
+      <c r="IP2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="IQ2" s="20" t="s">
+      <c r="IQ2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="IR2" t="s">
@@ -1894,10 +1912,10 @@
       <c r="IV2" t="s">
         <v>20</v>
       </c>
-      <c r="IW2" s="20" t="s">
+      <c r="IW2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="IX2" s="20" t="s">
+      <c r="IX2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="IY2" t="s">
@@ -1915,10 +1933,10 @@
       <c r="JC2" t="s">
         <v>20</v>
       </c>
-      <c r="JD2" s="20" t="s">
+      <c r="JD2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="JE2" s="20" t="s">
+      <c r="JE2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="JF2" t="s">
@@ -1936,10 +1954,10 @@
       <c r="JJ2" t="s">
         <v>20</v>
       </c>
-      <c r="JK2" s="20" t="s">
+      <c r="JK2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="JL2" s="20" t="s">
+      <c r="JL2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="JM2" t="s">
@@ -1957,10 +1975,10 @@
       <c r="JQ2" t="s">
         <v>20</v>
       </c>
-      <c r="JR2" s="20" t="s">
+      <c r="JR2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="JS2" s="20" t="s">
+      <c r="JS2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="JT2" t="s">
@@ -1978,10 +1996,10 @@
       <c r="JX2" t="s">
         <v>20</v>
       </c>
-      <c r="JY2" s="20" t="s">
+      <c r="JY2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="JZ2" s="20" t="s">
+      <c r="JZ2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="KA2" t="s">
@@ -1999,10 +2017,10 @@
       <c r="KE2" t="s">
         <v>20</v>
       </c>
-      <c r="KF2" s="20" t="s">
+      <c r="KF2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="KG2" s="20" t="s">
+      <c r="KG2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="KH2" t="s">
@@ -2020,10 +2038,10 @@
       <c r="KL2" t="s">
         <v>20</v>
       </c>
-      <c r="KM2" s="20" t="s">
+      <c r="KM2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="KN2" s="20" t="s">
+      <c r="KN2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="KO2" t="s">
@@ -2041,10 +2059,10 @@
       <c r="KS2" t="s">
         <v>20</v>
       </c>
-      <c r="KT2" s="20" t="s">
+      <c r="KT2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="KU2" s="20" t="s">
+      <c r="KU2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="KV2" t="s">
@@ -2062,10 +2080,10 @@
       <c r="KZ2" t="s">
         <v>20</v>
       </c>
-      <c r="LA2" s="20" t="s">
+      <c r="LA2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="LB2" s="20" t="s">
+      <c r="LB2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="LC2" t="s">
@@ -2083,10 +2101,10 @@
       <c r="LG2" t="s">
         <v>20</v>
       </c>
-      <c r="LH2" s="20" t="s">
+      <c r="LH2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="LI2" s="20" t="s">
+      <c r="LI2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="LJ2" t="s">
@@ -2104,10 +2122,10 @@
       <c r="LN2" t="s">
         <v>20</v>
       </c>
-      <c r="LO2" s="20" t="s">
+      <c r="LO2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="LP2" s="20" t="s">
+      <c r="LP2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="LQ2" t="s">
@@ -2125,10 +2143,10 @@
       <c r="LU2" t="s">
         <v>20</v>
       </c>
-      <c r="LV2" s="20" t="s">
+      <c r="LV2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="LW2" s="20" t="s">
+      <c r="LW2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="LX2" t="s">
@@ -2146,10 +2164,10 @@
       <c r="MB2" t="s">
         <v>20</v>
       </c>
-      <c r="MC2" s="20" t="s">
+      <c r="MC2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="MD2" s="20" t="s">
+      <c r="MD2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="ME2" t="s">
@@ -2167,10 +2185,10 @@
       <c r="MI2" t="s">
         <v>20</v>
       </c>
-      <c r="MJ2" s="20" t="s">
+      <c r="MJ2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="MK2" s="20" t="s">
+      <c r="MK2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="ML2" t="s">
@@ -2188,10 +2206,10 @@
       <c r="MP2" t="s">
         <v>20</v>
       </c>
-      <c r="MQ2" s="20" t="s">
+      <c r="MQ2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="MR2" s="20" t="s">
+      <c r="MR2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="MS2" t="s">
@@ -2209,10 +2227,10 @@
       <c r="MW2" t="s">
         <v>20</v>
       </c>
-      <c r="MX2" s="20" t="s">
+      <c r="MX2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="MY2" s="20" t="s">
+      <c r="MY2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="MZ2" t="s">
@@ -2482,10 +2500,10 @@
       <c r="CC3" s="1">
         <v>41719</v>
       </c>
-      <c r="CD3" s="21">
+      <c r="CD3" s="19">
         <v>41720</v>
       </c>
-      <c r="CE3" s="21">
+      <c r="CE3" s="19">
         <v>41721</v>
       </c>
       <c r="CF3" s="1">
@@ -2503,10 +2521,10 @@
       <c r="CJ3" s="1">
         <v>41726</v>
       </c>
-      <c r="CK3" s="21">
+      <c r="CK3" s="19">
         <v>41727</v>
       </c>
-      <c r="CL3" s="21">
+      <c r="CL3" s="19">
         <v>41728</v>
       </c>
       <c r="CM3" s="1">
@@ -2524,10 +2542,10 @@
       <c r="CQ3" s="1">
         <v>41733</v>
       </c>
-      <c r="CR3" s="21">
+      <c r="CR3" s="19">
         <v>41734</v>
       </c>
-      <c r="CS3" s="21">
+      <c r="CS3" s="19">
         <v>41735</v>
       </c>
       <c r="CT3" s="1">
@@ -2545,10 +2563,10 @@
       <c r="CX3" s="1">
         <v>41740</v>
       </c>
-      <c r="CY3" s="21">
+      <c r="CY3" s="19">
         <v>41741</v>
       </c>
-      <c r="CZ3" s="21">
+      <c r="CZ3" s="19">
         <v>41742</v>
       </c>
       <c r="DA3" s="1">
@@ -2566,10 +2584,10 @@
       <c r="DE3" s="1">
         <v>41747</v>
       </c>
-      <c r="DF3" s="21">
+      <c r="DF3" s="19">
         <v>41748</v>
       </c>
-      <c r="DG3" s="21">
+      <c r="DG3" s="19">
         <v>41749</v>
       </c>
       <c r="DH3" s="1">
@@ -2587,10 +2605,10 @@
       <c r="DL3" s="1">
         <v>41754</v>
       </c>
-      <c r="DM3" s="21">
+      <c r="DM3" s="19">
         <v>41755</v>
       </c>
-      <c r="DN3" s="21">
+      <c r="DN3" s="19">
         <v>41756</v>
       </c>
       <c r="DO3" s="1">
@@ -2608,10 +2626,10 @@
       <c r="DS3" s="1">
         <v>41761</v>
       </c>
-      <c r="DT3" s="21">
+      <c r="DT3" s="19">
         <v>41762</v>
       </c>
-      <c r="DU3" s="21">
+      <c r="DU3" s="19">
         <v>41763</v>
       </c>
       <c r="DV3" s="1">
@@ -2629,10 +2647,10 @@
       <c r="DZ3" s="1">
         <v>41768</v>
       </c>
-      <c r="EA3" s="21">
+      <c r="EA3" s="19">
         <v>41769</v>
       </c>
-      <c r="EB3" s="21">
+      <c r="EB3" s="19">
         <v>41770</v>
       </c>
       <c r="EC3" s="1">
@@ -2650,10 +2668,10 @@
       <c r="EG3" s="1">
         <v>41775</v>
       </c>
-      <c r="EH3" s="21">
+      <c r="EH3" s="19">
         <v>41776</v>
       </c>
-      <c r="EI3" s="21">
+      <c r="EI3" s="19">
         <v>41777</v>
       </c>
       <c r="EJ3" s="1">
@@ -2671,10 +2689,10 @@
       <c r="EN3" s="1">
         <v>41782</v>
       </c>
-      <c r="EO3" s="21">
+      <c r="EO3" s="19">
         <v>41783</v>
       </c>
-      <c r="EP3" s="21">
+      <c r="EP3" s="19">
         <v>41784</v>
       </c>
       <c r="EQ3" s="1">
@@ -2692,10 +2710,10 @@
       <c r="EU3" s="1">
         <v>41789</v>
       </c>
-      <c r="EV3" s="21">
+      <c r="EV3" s="19">
         <v>41790</v>
       </c>
-      <c r="EW3" s="21">
+      <c r="EW3" s="19">
         <v>41791</v>
       </c>
       <c r="EX3" s="1">
@@ -2713,10 +2731,10 @@
       <c r="FB3" s="1">
         <v>41796</v>
       </c>
-      <c r="FC3" s="21">
+      <c r="FC3" s="19">
         <v>41797</v>
       </c>
-      <c r="FD3" s="21">
+      <c r="FD3" s="19">
         <v>41798</v>
       </c>
       <c r="FE3" s="1">
@@ -2728,16 +2746,16 @@
       <c r="FG3" s="1">
         <v>41801</v>
       </c>
-      <c r="FH3" s="1">
+      <c r="FH3" s="5">
         <v>41802</v>
       </c>
       <c r="FI3" s="1">
         <v>41803</v>
       </c>
-      <c r="FJ3" s="21">
+      <c r="FJ3" s="19">
         <v>41804</v>
       </c>
-      <c r="FK3" s="21">
+      <c r="FK3" s="19">
         <v>41805</v>
       </c>
       <c r="FL3" s="1">
@@ -2755,10 +2773,10 @@
       <c r="FP3" s="1">
         <v>41810</v>
       </c>
-      <c r="FQ3" s="21">
+      <c r="FQ3" s="19">
         <v>41811</v>
       </c>
-      <c r="FR3" s="21">
+      <c r="FR3" s="19">
         <v>41812</v>
       </c>
       <c r="FS3" s="1">
@@ -2776,10 +2794,10 @@
       <c r="FW3" s="1">
         <v>41817</v>
       </c>
-      <c r="FX3" s="21">
+      <c r="FX3" s="19">
         <v>41818</v>
       </c>
-      <c r="FY3" s="21">
+      <c r="FY3" s="19">
         <v>41819</v>
       </c>
       <c r="FZ3" s="1">
@@ -2797,10 +2815,10 @@
       <c r="GD3" s="1">
         <v>41824</v>
       </c>
-      <c r="GE3" s="21">
+      <c r="GE3" s="19">
         <v>41825</v>
       </c>
-      <c r="GF3" s="21">
+      <c r="GF3" s="19">
         <v>41826</v>
       </c>
       <c r="GG3" s="1">
@@ -2818,10 +2836,10 @@
       <c r="GK3" s="1">
         <v>41831</v>
       </c>
-      <c r="GL3" s="21">
+      <c r="GL3" s="19">
         <v>41832</v>
       </c>
-      <c r="GM3" s="21">
+      <c r="GM3" s="19">
         <v>41833</v>
       </c>
       <c r="GN3" s="1">
@@ -2839,10 +2857,10 @@
       <c r="GR3" s="1">
         <v>41838</v>
       </c>
-      <c r="GS3" s="21">
+      <c r="GS3" s="19">
         <v>41839</v>
       </c>
-      <c r="GT3" s="21">
+      <c r="GT3" s="19">
         <v>41840</v>
       </c>
       <c r="GU3" s="1">
@@ -2860,10 +2878,10 @@
       <c r="GY3" s="1">
         <v>41845</v>
       </c>
-      <c r="GZ3" s="21">
+      <c r="GZ3" s="19">
         <v>41846</v>
       </c>
-      <c r="HA3" s="21">
+      <c r="HA3" s="19">
         <v>41847</v>
       </c>
       <c r="HB3" s="1">
@@ -2881,10 +2899,10 @@
       <c r="HF3" s="1">
         <v>41852</v>
       </c>
-      <c r="HG3" s="21">
+      <c r="HG3" s="19">
         <v>41853</v>
       </c>
-      <c r="HH3" s="21">
+      <c r="HH3" s="19">
         <v>41854</v>
       </c>
       <c r="HI3" s="1">
@@ -2902,10 +2920,10 @@
       <c r="HM3" s="1">
         <v>41859</v>
       </c>
-      <c r="HN3" s="21">
+      <c r="HN3" s="19">
         <v>41860</v>
       </c>
-      <c r="HO3" s="21">
+      <c r="HO3" s="19">
         <v>41861</v>
       </c>
       <c r="HP3" s="1">
@@ -2923,10 +2941,10 @@
       <c r="HT3" s="1">
         <v>41866</v>
       </c>
-      <c r="HU3" s="21">
+      <c r="HU3" s="19">
         <v>41867</v>
       </c>
-      <c r="HV3" s="21">
+      <c r="HV3" s="19">
         <v>41868</v>
       </c>
       <c r="HW3" s="1">
@@ -2944,10 +2962,10 @@
       <c r="IA3" s="1">
         <v>41873</v>
       </c>
-      <c r="IB3" s="21">
+      <c r="IB3" s="19">
         <v>41874</v>
       </c>
-      <c r="IC3" s="21">
+      <c r="IC3" s="19">
         <v>41875</v>
       </c>
       <c r="ID3" s="1">
@@ -2965,10 +2983,10 @@
       <c r="IH3" s="1">
         <v>41880</v>
       </c>
-      <c r="II3" s="21">
+      <c r="II3" s="19">
         <v>41881</v>
       </c>
-      <c r="IJ3" s="21">
+      <c r="IJ3" s="19">
         <v>41882</v>
       </c>
       <c r="IK3" s="1">
@@ -2986,10 +3004,10 @@
       <c r="IO3" s="1">
         <v>41887</v>
       </c>
-      <c r="IP3" s="21">
+      <c r="IP3" s="19">
         <v>41888</v>
       </c>
-      <c r="IQ3" s="21">
+      <c r="IQ3" s="19">
         <v>41889</v>
       </c>
       <c r="IR3" s="1">
@@ -3007,10 +3025,10 @@
       <c r="IV3" s="1">
         <v>41894</v>
       </c>
-      <c r="IW3" s="21">
+      <c r="IW3" s="19">
         <v>41895</v>
       </c>
-      <c r="IX3" s="21">
+      <c r="IX3" s="19">
         <v>41896</v>
       </c>
       <c r="IY3" s="1">
@@ -3028,10 +3046,10 @@
       <c r="JC3" s="1">
         <v>41901</v>
       </c>
-      <c r="JD3" s="21">
+      <c r="JD3" s="19">
         <v>41902</v>
       </c>
-      <c r="JE3" s="21">
+      <c r="JE3" s="19">
         <v>41903</v>
       </c>
       <c r="JF3" s="1">
@@ -3049,10 +3067,10 @@
       <c r="JJ3" s="1">
         <v>41908</v>
       </c>
-      <c r="JK3" s="21">
+      <c r="JK3" s="19">
         <v>41909</v>
       </c>
-      <c r="JL3" s="21">
+      <c r="JL3" s="19">
         <v>41910</v>
       </c>
       <c r="JM3" s="1">
@@ -3070,10 +3088,10 @@
       <c r="JQ3" s="1">
         <v>41915</v>
       </c>
-      <c r="JR3" s="21">
+      <c r="JR3" s="19">
         <v>41916</v>
       </c>
-      <c r="JS3" s="21">
+      <c r="JS3" s="19">
         <v>41917</v>
       </c>
       <c r="JT3" s="1">
@@ -3091,10 +3109,10 @@
       <c r="JX3" s="1">
         <v>41922</v>
       </c>
-      <c r="JY3" s="21">
+      <c r="JY3" s="19">
         <v>41923</v>
       </c>
-      <c r="JZ3" s="21">
+      <c r="JZ3" s="19">
         <v>41924</v>
       </c>
       <c r="KA3" s="1">
@@ -3112,10 +3130,10 @@
       <c r="KE3" s="1">
         <v>41929</v>
       </c>
-      <c r="KF3" s="21">
+      <c r="KF3" s="19">
         <v>41930</v>
       </c>
-      <c r="KG3" s="21">
+      <c r="KG3" s="19">
         <v>41931</v>
       </c>
       <c r="KH3" s="1">
@@ -3133,10 +3151,10 @@
       <c r="KL3" s="1">
         <v>41936</v>
       </c>
-      <c r="KM3" s="21">
+      <c r="KM3" s="19">
         <v>41937</v>
       </c>
-      <c r="KN3" s="21">
+      <c r="KN3" s="19">
         <v>41938</v>
       </c>
       <c r="KO3" s="1">
@@ -3154,10 +3172,10 @@
       <c r="KS3" s="1">
         <v>41943</v>
       </c>
-      <c r="KT3" s="21">
+      <c r="KT3" s="19">
         <v>41944</v>
       </c>
-      <c r="KU3" s="21">
+      <c r="KU3" s="19">
         <v>41945</v>
       </c>
       <c r="KV3" s="1">
@@ -3175,10 +3193,10 @@
       <c r="KZ3" s="1">
         <v>41950</v>
       </c>
-      <c r="LA3" s="21">
+      <c r="LA3" s="19">
         <v>41951</v>
       </c>
-      <c r="LB3" s="21">
+      <c r="LB3" s="19">
         <v>41952</v>
       </c>
       <c r="LC3" s="1">
@@ -3196,10 +3214,10 @@
       <c r="LG3" s="1">
         <v>41957</v>
       </c>
-      <c r="LH3" s="21">
+      <c r="LH3" s="19">
         <v>41958</v>
       </c>
-      <c r="LI3" s="21">
+      <c r="LI3" s="19">
         <v>41959</v>
       </c>
       <c r="LJ3" s="1">
@@ -3217,10 +3235,10 @@
       <c r="LN3" s="1">
         <v>41964</v>
       </c>
-      <c r="LO3" s="21">
+      <c r="LO3" s="19">
         <v>41965</v>
       </c>
-      <c r="LP3" s="21">
+      <c r="LP3" s="19">
         <v>41966</v>
       </c>
       <c r="LQ3" s="1">
@@ -3238,10 +3256,10 @@
       <c r="LU3" s="1">
         <v>41971</v>
       </c>
-      <c r="LV3" s="21">
+      <c r="LV3" s="19">
         <v>41972</v>
       </c>
-      <c r="LW3" s="21">
+      <c r="LW3" s="19">
         <v>41973</v>
       </c>
       <c r="LX3" s="1">
@@ -3259,10 +3277,10 @@
       <c r="MB3" s="1">
         <v>41978</v>
       </c>
-      <c r="MC3" s="21">
+      <c r="MC3" s="19">
         <v>41979</v>
       </c>
-      <c r="MD3" s="21">
+      <c r="MD3" s="19">
         <v>41980</v>
       </c>
       <c r="ME3" s="1">
@@ -3280,10 +3298,10 @@
       <c r="MI3" s="1">
         <v>41985</v>
       </c>
-      <c r="MJ3" s="21">
+      <c r="MJ3" s="19">
         <v>41986</v>
       </c>
-      <c r="MK3" s="21">
+      <c r="MK3" s="19">
         <v>41987</v>
       </c>
       <c r="ML3" s="1">
@@ -3301,10 +3319,10 @@
       <c r="MP3" s="1">
         <v>41992</v>
       </c>
-      <c r="MQ3" s="21">
+      <c r="MQ3" s="19">
         <v>41993</v>
       </c>
-      <c r="MR3" s="21">
+      <c r="MR3" s="19">
         <v>41994</v>
       </c>
       <c r="MS3" s="1">
@@ -3322,10 +3340,10 @@
       <c r="MW3" s="1">
         <v>41999</v>
       </c>
-      <c r="MX3" s="21">
+      <c r="MX3" s="19">
         <v>42000</v>
       </c>
-      <c r="MY3" s="21">
+      <c r="MY3" s="19">
         <v>42001</v>
       </c>
       <c r="MZ3" s="1">
@@ -3422,288 +3440,288 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="21"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
-      <c r="CK4" s="21"/>
-      <c r="CL4" s="21"/>
+      <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1"/>
-      <c r="CR4" s="21"/>
-      <c r="CS4" s="21"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
       <c r="CX4" s="1"/>
-      <c r="CY4" s="21"/>
-      <c r="CZ4" s="21"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
       <c r="DD4" s="1"/>
       <c r="DE4" s="1"/>
-      <c r="DF4" s="21"/>
-      <c r="DG4" s="21"/>
+      <c r="DF4" s="19"/>
+      <c r="DG4" s="19"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="21"/>
-      <c r="DN4" s="21"/>
+      <c r="DM4" s="19"/>
+      <c r="DN4" s="19"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
       <c r="DR4" s="1"/>
       <c r="DS4" s="1"/>
-      <c r="DT4" s="21"/>
-      <c r="DU4" s="21"/>
+      <c r="DT4" s="19"/>
+      <c r="DU4" s="19"/>
       <c r="DV4" s="1"/>
       <c r="DW4" s="1"/>
       <c r="DX4" s="1"/>
       <c r="DY4" s="1"/>
       <c r="DZ4" s="1"/>
-      <c r="EA4" s="21"/>
-      <c r="EB4" s="21"/>
+      <c r="EA4" s="19"/>
+      <c r="EB4" s="19"/>
       <c r="EC4" s="1"/>
       <c r="ED4" s="1"/>
       <c r="EE4" s="1"/>
       <c r="EF4" s="1"/>
       <c r="EG4" s="1"/>
-      <c r="EH4" s="21"/>
-      <c r="EI4" s="21"/>
+      <c r="EH4" s="19"/>
+      <c r="EI4" s="19"/>
       <c r="EJ4" s="1"/>
       <c r="EK4" s="1"/>
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="21"/>
-      <c r="EP4" s="21"/>
+      <c r="EO4" s="19"/>
+      <c r="EP4" s="19"/>
       <c r="EQ4" s="1"/>
       <c r="ER4" s="1"/>
       <c r="ES4" s="1"/>
       <c r="ET4" s="1"/>
       <c r="EU4" s="1"/>
-      <c r="EV4" s="21"/>
-      <c r="EW4" s="21"/>
+      <c r="EV4" s="19"/>
+      <c r="EW4" s="19"/>
       <c r="EX4" s="1"/>
       <c r="EY4" s="1"/>
       <c r="EZ4" s="1"/>
       <c r="FA4" s="1"/>
       <c r="FB4" s="1"/>
-      <c r="FC4" s="21"/>
-      <c r="FD4" s="21"/>
+      <c r="FC4" s="19"/>
+      <c r="FD4" s="19"/>
       <c r="FE4" s="1"/>
       <c r="FF4" s="1"/>
       <c r="FG4" s="1"/>
-      <c r="FH4" s="1"/>
+      <c r="FH4" s="5"/>
       <c r="FI4" s="1"/>
-      <c r="FJ4" s="21"/>
-      <c r="FK4" s="21"/>
+      <c r="FJ4" s="19"/>
+      <c r="FK4" s="19"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
       <c r="FN4" s="1"/>
       <c r="FO4" s="1"/>
       <c r="FP4" s="1"/>
-      <c r="FQ4" s="21"/>
-      <c r="FR4" s="21"/>
+      <c r="FQ4" s="19"/>
+      <c r="FR4" s="19"/>
       <c r="FS4" s="1"/>
       <c r="FT4" s="1"/>
       <c r="FU4" s="1"/>
       <c r="FV4" s="1"/>
       <c r="FW4" s="1"/>
-      <c r="FX4" s="21"/>
-      <c r="FY4" s="21"/>
+      <c r="FX4" s="19"/>
+      <c r="FY4" s="19"/>
       <c r="FZ4" s="1"/>
       <c r="GA4" s="1"/>
       <c r="GB4" s="1"/>
       <c r="GC4" s="1"/>
       <c r="GD4" s="1"/>
-      <c r="GE4" s="21"/>
-      <c r="GF4" s="21"/>
+      <c r="GE4" s="19"/>
+      <c r="GF4" s="19"/>
       <c r="GG4" s="1"/>
       <c r="GH4" s="1"/>
       <c r="GI4" s="1"/>
       <c r="GJ4" s="1"/>
       <c r="GK4" s="1"/>
-      <c r="GL4" s="21"/>
-      <c r="GM4" s="21"/>
+      <c r="GL4" s="19"/>
+      <c r="GM4" s="19"/>
       <c r="GN4" s="1"/>
       <c r="GO4" s="1"/>
       <c r="GP4" s="1"/>
       <c r="GQ4" s="1"/>
       <c r="GR4" s="1"/>
-      <c r="GS4" s="21"/>
-      <c r="GT4" s="21"/>
+      <c r="GS4" s="19"/>
+      <c r="GT4" s="19"/>
       <c r="GU4" s="1"/>
       <c r="GV4" s="1"/>
       <c r="GW4" s="1"/>
       <c r="GX4" s="1"/>
       <c r="GY4" s="1"/>
-      <c r="GZ4" s="21"/>
-      <c r="HA4" s="21"/>
+      <c r="GZ4" s="19"/>
+      <c r="HA4" s="19"/>
       <c r="HB4" s="1"/>
       <c r="HC4" s="1"/>
       <c r="HD4" s="1"/>
       <c r="HE4" s="1"/>
       <c r="HF4" s="1"/>
-      <c r="HG4" s="21"/>
-      <c r="HH4" s="21"/>
+      <c r="HG4" s="19"/>
+      <c r="HH4" s="19"/>
       <c r="HI4" s="1"/>
       <c r="HJ4" s="1"/>
       <c r="HK4" s="1"/>
       <c r="HL4" s="1"/>
       <c r="HM4" s="1"/>
-      <c r="HN4" s="21"/>
-      <c r="HO4" s="21"/>
+      <c r="HN4" s="19"/>
+      <c r="HO4" s="19"/>
       <c r="HP4" s="1"/>
       <c r="HQ4" s="1"/>
       <c r="HR4" s="1"/>
       <c r="HS4" s="1"/>
       <c r="HT4" s="1"/>
-      <c r="HU4" s="21"/>
-      <c r="HV4" s="21"/>
+      <c r="HU4" s="19"/>
+      <c r="HV4" s="19"/>
       <c r="HW4" s="1"/>
       <c r="HX4" s="1"/>
       <c r="HY4" s="1"/>
       <c r="HZ4" s="1"/>
       <c r="IA4" s="1"/>
-      <c r="IB4" s="21"/>
-      <c r="IC4" s="21"/>
+      <c r="IB4" s="19"/>
+      <c r="IC4" s="19"/>
       <c r="ID4" s="1"/>
       <c r="IE4" s="1"/>
       <c r="IF4" s="1"/>
       <c r="IG4" s="1"/>
       <c r="IH4" s="1"/>
-      <c r="II4" s="21"/>
-      <c r="IJ4" s="21"/>
+      <c r="II4" s="19"/>
+      <c r="IJ4" s="19"/>
       <c r="IK4" s="1"/>
       <c r="IL4" s="1"/>
       <c r="IM4" s="1"/>
       <c r="IN4" s="1"/>
       <c r="IO4" s="1"/>
-      <c r="IP4" s="21"/>
-      <c r="IQ4" s="21"/>
+      <c r="IP4" s="19"/>
+      <c r="IQ4" s="19"/>
       <c r="IR4" s="1"/>
       <c r="IS4" s="1"/>
       <c r="IT4" s="1"/>
       <c r="IU4" s="1"/>
       <c r="IV4" s="1"/>
-      <c r="IW4" s="21"/>
-      <c r="IX4" s="21"/>
+      <c r="IW4" s="19"/>
+      <c r="IX4" s="19"/>
       <c r="IY4" s="1"/>
       <c r="IZ4" s="1"/>
       <c r="JA4" s="1"/>
       <c r="JB4" s="1"/>
       <c r="JC4" s="1"/>
-      <c r="JD4" s="21"/>
-      <c r="JE4" s="21"/>
+      <c r="JD4" s="19"/>
+      <c r="JE4" s="19"/>
       <c r="JF4" s="1"/>
       <c r="JG4" s="1"/>
       <c r="JH4" s="1"/>
       <c r="JI4" s="1"/>
       <c r="JJ4" s="1"/>
-      <c r="JK4" s="21"/>
-      <c r="JL4" s="21"/>
+      <c r="JK4" s="19"/>
+      <c r="JL4" s="19"/>
       <c r="JM4" s="1"/>
       <c r="JN4" s="1"/>
       <c r="JO4" s="1"/>
       <c r="JP4" s="1"/>
       <c r="JQ4" s="1"/>
-      <c r="JR4" s="21"/>
-      <c r="JS4" s="21"/>
+      <c r="JR4" s="19"/>
+      <c r="JS4" s="19"/>
       <c r="JT4" s="1"/>
       <c r="JU4" s="1"/>
       <c r="JV4" s="1"/>
       <c r="JW4" s="1"/>
       <c r="JX4" s="1"/>
-      <c r="JY4" s="21"/>
-      <c r="JZ4" s="21"/>
+      <c r="JY4" s="19"/>
+      <c r="JZ4" s="19"/>
       <c r="KA4" s="1"/>
       <c r="KB4" s="1"/>
       <c r="KC4" s="1"/>
       <c r="KD4" s="1"/>
       <c r="KE4" s="1"/>
-      <c r="KF4" s="21"/>
-      <c r="KG4" s="21"/>
+      <c r="KF4" s="19"/>
+      <c r="KG4" s="19"/>
       <c r="KH4" s="1"/>
       <c r="KI4" s="1"/>
       <c r="KJ4" s="1"/>
       <c r="KK4" s="1"/>
       <c r="KL4" s="1"/>
-      <c r="KM4" s="21"/>
-      <c r="KN4" s="21"/>
+      <c r="KM4" s="19"/>
+      <c r="KN4" s="19"/>
       <c r="KO4" s="1"/>
       <c r="KP4" s="1"/>
       <c r="KQ4" s="1"/>
       <c r="KR4" s="1"/>
       <c r="KS4" s="1"/>
-      <c r="KT4" s="21"/>
-      <c r="KU4" s="21"/>
+      <c r="KT4" s="19"/>
+      <c r="KU4" s="19"/>
       <c r="KV4" s="1"/>
       <c r="KW4" s="1"/>
       <c r="KX4" s="1"/>
       <c r="KY4" s="1"/>
       <c r="KZ4" s="1"/>
-      <c r="LA4" s="21"/>
-      <c r="LB4" s="21"/>
+      <c r="LA4" s="19"/>
+      <c r="LB4" s="19"/>
       <c r="LC4" s="1"/>
       <c r="LD4" s="1"/>
       <c r="LE4" s="1"/>
       <c r="LF4" s="1"/>
       <c r="LG4" s="1"/>
-      <c r="LH4" s="21"/>
-      <c r="LI4" s="21"/>
+      <c r="LH4" s="19"/>
+      <c r="LI4" s="19"/>
       <c r="LJ4" s="1"/>
       <c r="LK4" s="1"/>
       <c r="LL4" s="1"/>
       <c r="LM4" s="1"/>
       <c r="LN4" s="1"/>
-      <c r="LO4" s="21"/>
-      <c r="LP4" s="21"/>
+      <c r="LO4" s="19"/>
+      <c r="LP4" s="19"/>
       <c r="LQ4" s="1"/>
       <c r="LR4" s="1"/>
       <c r="LS4" s="1"/>
       <c r="LT4" s="1"/>
       <c r="LU4" s="1"/>
-      <c r="LV4" s="21"/>
-      <c r="LW4" s="21"/>
+      <c r="LV4" s="19"/>
+      <c r="LW4" s="19"/>
       <c r="LX4" s="1"/>
       <c r="LY4" s="1"/>
       <c r="LZ4" s="1"/>
       <c r="MA4" s="1"/>
       <c r="MB4" s="1"/>
-      <c r="MC4" s="21"/>
-      <c r="MD4" s="21"/>
+      <c r="MC4" s="19"/>
+      <c r="MD4" s="19"/>
       <c r="ME4" s="1"/>
       <c r="MF4" s="1"/>
       <c r="MG4" s="1"/>
       <c r="MH4" s="1"/>
       <c r="MI4" s="1"/>
-      <c r="MJ4" s="21"/>
-      <c r="MK4" s="21"/>
+      <c r="MJ4" s="19"/>
+      <c r="MK4" s="19"/>
       <c r="ML4" s="1"/>
       <c r="MM4" s="1"/>
       <c r="MN4" s="1"/>
       <c r="MO4" s="1"/>
       <c r="MP4" s="1"/>
-      <c r="MQ4" s="21"/>
-      <c r="MR4" s="21"/>
+      <c r="MQ4" s="19"/>
+      <c r="MR4" s="19"/>
       <c r="MS4" s="1"/>
       <c r="MT4" s="1"/>
       <c r="MU4" s="1"/>
       <c r="MV4" s="1"/>
       <c r="MW4" s="1"/>
-      <c r="MX4" s="21"/>
-      <c r="MY4" s="21"/>
+      <c r="MX4" s="19"/>
+      <c r="MY4" s="19"/>
       <c r="MZ4" s="1"/>
       <c r="NA4" s="1"/>
       <c r="NB4" s="1"/>
@@ -3816,10 +3834,10 @@
       <c r="CC5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CD5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE5" s="20" t="s">
+      <c r="CD5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="CF5" s="7"/>
@@ -3827,15 +3845,15 @@
       <c r="CH5" s="7"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
-      <c r="CK5" s="21"/>
-      <c r="CL5" s="21"/>
+      <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
       <c r="CM5" s="7"/>
       <c r="CN5" s="7"/>
       <c r="CO5" s="7"/>
       <c r="CP5" s="7"/>
       <c r="CQ5" s="7"/>
-      <c r="CR5" s="21"/>
-      <c r="CS5" s="21"/>
+      <c r="CR5" s="19"/>
+      <c r="CS5" s="19"/>
       <c r="CT5" s="7"/>
       <c r="CU5" s="7"/>
       <c r="CV5" s="7"/>
@@ -3843,10 +3861,10 @@
       <c r="CX5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="CY5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ5" s="23" t="s">
+      <c r="CY5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="DA5" s="8" t="s">
@@ -3864,10 +3882,10 @@
       <c r="DE5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DF5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG5" s="20" t="s">
+      <c r="DF5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="DH5" s="8" t="s">
@@ -3875,253 +3893,253 @@
       </c>
       <c r="DK5" s="7"/>
       <c r="DL5" s="7"/>
-      <c r="DM5" s="21"/>
-      <c r="DN5" s="21"/>
+      <c r="DM5" s="19"/>
+      <c r="DN5" s="19"/>
       <c r="DO5" s="7"/>
       <c r="DP5" s="7"/>
       <c r="DQ5" s="7"/>
       <c r="DR5" s="7"/>
       <c r="DS5" s="7"/>
-      <c r="DT5" s="21"/>
-      <c r="DU5" s="21"/>
+      <c r="DT5" s="19"/>
+      <c r="DU5" s="19"/>
       <c r="DV5" s="7"/>
       <c r="DW5" s="7"/>
       <c r="DX5" s="7"/>
       <c r="DY5" s="7"/>
       <c r="DZ5" s="7"/>
-      <c r="EA5" s="21"/>
-      <c r="EB5" s="21"/>
+      <c r="EA5" s="19"/>
+      <c r="EB5" s="19"/>
       <c r="EC5" s="7"/>
       <c r="ED5" s="7"/>
       <c r="EE5" s="7"/>
       <c r="EF5" s="7"/>
       <c r="EG5" s="7"/>
-      <c r="EH5" s="21"/>
-      <c r="EI5" s="21"/>
+      <c r="EH5" s="19"/>
+      <c r="EI5" s="19"/>
       <c r="EJ5" s="7"/>
       <c r="EK5" s="7"/>
       <c r="EL5" s="7"/>
       <c r="EM5" s="7"/>
       <c r="EN5" s="7"/>
-      <c r="EO5" s="21"/>
-      <c r="EP5" s="21"/>
+      <c r="EO5" s="19"/>
+      <c r="EP5" s="19"/>
       <c r="EQ5" s="7"/>
       <c r="ER5" s="7"/>
       <c r="ES5" s="7"/>
       <c r="ET5" s="7"/>
       <c r="EU5" s="7"/>
-      <c r="EV5" s="21"/>
-      <c r="EW5" s="21"/>
+      <c r="EV5" s="19"/>
+      <c r="EW5" s="19"/>
       <c r="EX5" s="7"/>
       <c r="EY5" s="7"/>
       <c r="EZ5" s="7"/>
       <c r="FA5" s="7"/>
       <c r="FB5" s="7"/>
-      <c r="FC5" s="21"/>
-      <c r="FD5" s="21"/>
+      <c r="FC5" s="19"/>
+      <c r="FD5" s="19"/>
       <c r="FE5" s="7"/>
       <c r="FF5" s="7"/>
       <c r="FG5" s="7"/>
-      <c r="FH5" s="7"/>
+      <c r="FH5" s="5"/>
       <c r="FI5" s="7"/>
-      <c r="FJ5" s="21"/>
-      <c r="FK5" s="21"/>
+      <c r="FJ5" s="19"/>
+      <c r="FK5" s="19"/>
       <c r="FL5" s="7"/>
       <c r="FM5" s="7"/>
       <c r="FN5" s="7"/>
       <c r="FO5" s="7"/>
       <c r="FP5" s="7"/>
-      <c r="FQ5" s="21"/>
-      <c r="FR5" s="21"/>
+      <c r="FQ5" s="19"/>
+      <c r="FR5" s="19"/>
       <c r="FS5" s="7"/>
       <c r="FT5" s="7"/>
       <c r="FU5" s="7"/>
       <c r="FV5" s="7"/>
       <c r="FW5" s="7"/>
-      <c r="FX5" s="21"/>
-      <c r="FY5" s="21"/>
+      <c r="FX5" s="19"/>
+      <c r="FY5" s="19"/>
       <c r="FZ5" s="7"/>
       <c r="GA5" s="7"/>
       <c r="GB5" s="7"/>
       <c r="GC5" s="7"/>
       <c r="GD5" s="7"/>
-      <c r="GE5" s="21"/>
-      <c r="GF5" s="21"/>
+      <c r="GE5" s="19"/>
+      <c r="GF5" s="19"/>
       <c r="GG5" s="7"/>
       <c r="GH5" s="7"/>
       <c r="GI5" s="7"/>
       <c r="GJ5" s="7"/>
       <c r="GK5" s="7"/>
-      <c r="GL5" s="21"/>
-      <c r="GM5" s="21"/>
+      <c r="GL5" s="19"/>
+      <c r="GM5" s="19"/>
       <c r="GN5" s="7"/>
       <c r="GO5" s="7"/>
       <c r="GP5" s="7"/>
       <c r="GQ5" s="7"/>
       <c r="GR5" s="7"/>
-      <c r="GS5" s="21"/>
-      <c r="GT5" s="21"/>
+      <c r="GS5" s="19"/>
+      <c r="GT5" s="19"/>
       <c r="GU5" s="7"/>
       <c r="GV5" s="7"/>
       <c r="GW5" s="7"/>
       <c r="GX5" s="7"/>
       <c r="GY5" s="7"/>
-      <c r="GZ5" s="21"/>
-      <c r="HA5" s="21"/>
+      <c r="GZ5" s="19"/>
+      <c r="HA5" s="19"/>
       <c r="HB5" s="7"/>
       <c r="HC5" s="7"/>
       <c r="HD5" s="7"/>
       <c r="HE5" s="7"/>
       <c r="HF5" s="7"/>
-      <c r="HG5" s="21"/>
-      <c r="HH5" s="21"/>
+      <c r="HG5" s="19"/>
+      <c r="HH5" s="19"/>
       <c r="HI5" s="7"/>
       <c r="HJ5" s="7"/>
       <c r="HK5" s="7"/>
       <c r="HL5" s="7"/>
       <c r="HM5" s="7"/>
-      <c r="HN5" s="21"/>
-      <c r="HO5" s="21"/>
+      <c r="HN5" s="19"/>
+      <c r="HO5" s="19"/>
       <c r="HP5" s="7"/>
       <c r="HQ5" s="7"/>
       <c r="HR5" s="7"/>
       <c r="HS5" s="7"/>
       <c r="HT5" s="7"/>
-      <c r="HU5" s="21"/>
-      <c r="HV5" s="21"/>
+      <c r="HU5" s="19"/>
+      <c r="HV5" s="19"/>
       <c r="HW5" s="7"/>
       <c r="HX5" s="7"/>
       <c r="HY5" s="7"/>
       <c r="HZ5" s="7"/>
       <c r="IA5" s="7"/>
-      <c r="IB5" s="21"/>
-      <c r="IC5" s="21"/>
+      <c r="IB5" s="19"/>
+      <c r="IC5" s="19"/>
       <c r="ID5" s="7"/>
       <c r="IE5" s="7"/>
       <c r="IF5" s="7"/>
       <c r="IG5" s="7"/>
       <c r="IH5" s="7"/>
-      <c r="II5" s="21"/>
-      <c r="IJ5" s="21"/>
+      <c r="II5" s="19"/>
+      <c r="IJ5" s="19"/>
       <c r="IK5" s="7"/>
       <c r="IL5" s="7"/>
       <c r="IM5" s="7"/>
       <c r="IN5" s="7"/>
       <c r="IO5" s="7"/>
-      <c r="IP5" s="21"/>
-      <c r="IQ5" s="21"/>
+      <c r="IP5" s="19"/>
+      <c r="IQ5" s="19"/>
       <c r="IR5" s="7"/>
       <c r="IS5" s="7"/>
       <c r="IT5" s="7"/>
       <c r="IU5" s="7"/>
       <c r="IV5" s="7"/>
-      <c r="IW5" s="21"/>
-      <c r="IX5" s="21"/>
+      <c r="IW5" s="19"/>
+      <c r="IX5" s="19"/>
       <c r="IY5" s="7"/>
       <c r="IZ5" s="7"/>
       <c r="JA5" s="7"/>
       <c r="JB5" s="7"/>
       <c r="JC5" s="7"/>
-      <c r="JD5" s="21"/>
-      <c r="JE5" s="21"/>
+      <c r="JD5" s="19"/>
+      <c r="JE5" s="19"/>
       <c r="JF5" s="7"/>
       <c r="JG5" s="7"/>
       <c r="JH5" s="7"/>
       <c r="JI5" s="7"/>
       <c r="JJ5" s="7"/>
-      <c r="JK5" s="21"/>
-      <c r="JL5" s="21"/>
+      <c r="JK5" s="19"/>
+      <c r="JL5" s="19"/>
       <c r="JM5" s="7"/>
       <c r="JN5" s="7"/>
       <c r="JO5" s="7"/>
       <c r="JP5" s="7"/>
       <c r="JQ5" s="7"/>
-      <c r="JR5" s="21"/>
-      <c r="JS5" s="21"/>
+      <c r="JR5" s="19"/>
+      <c r="JS5" s="19"/>
       <c r="JT5" s="7"/>
       <c r="JU5" s="7"/>
       <c r="JV5" s="7"/>
       <c r="JW5" s="7"/>
       <c r="JX5" s="7"/>
-      <c r="JY5" s="21"/>
-      <c r="JZ5" s="21"/>
+      <c r="JY5" s="19"/>
+      <c r="JZ5" s="19"/>
       <c r="KA5" s="7"/>
       <c r="KB5" s="7"/>
       <c r="KC5" s="7"/>
       <c r="KD5" s="7"/>
       <c r="KE5" s="7"/>
-      <c r="KF5" s="21"/>
-      <c r="KG5" s="21"/>
+      <c r="KF5" s="19"/>
+      <c r="KG5" s="19"/>
       <c r="KH5" s="7"/>
       <c r="KI5" s="7"/>
       <c r="KJ5" s="7"/>
       <c r="KK5" s="7"/>
       <c r="KL5" s="7"/>
-      <c r="KM5" s="21"/>
-      <c r="KN5" s="21"/>
+      <c r="KM5" s="19"/>
+      <c r="KN5" s="19"/>
       <c r="KO5" s="7"/>
       <c r="KP5" s="7"/>
       <c r="KQ5" s="7"/>
       <c r="KR5" s="7"/>
       <c r="KS5" s="7"/>
-      <c r="KT5" s="21"/>
-      <c r="KU5" s="21"/>
+      <c r="KT5" s="19"/>
+      <c r="KU5" s="19"/>
       <c r="KV5" s="7"/>
       <c r="KW5" s="7"/>
       <c r="KX5" s="7"/>
       <c r="KY5" s="7"/>
       <c r="KZ5" s="7"/>
-      <c r="LA5" s="21"/>
-      <c r="LB5" s="21"/>
+      <c r="LA5" s="19"/>
+      <c r="LB5" s="19"/>
       <c r="LC5" s="7"/>
       <c r="LD5" s="7"/>
       <c r="LE5" s="7"/>
       <c r="LF5" s="7"/>
       <c r="LG5" s="7"/>
-      <c r="LH5" s="21"/>
-      <c r="LI5" s="21"/>
+      <c r="LH5" s="19"/>
+      <c r="LI5" s="19"/>
       <c r="LJ5" s="7"/>
       <c r="LK5" s="7"/>
       <c r="LL5" s="7"/>
       <c r="LM5" s="7"/>
       <c r="LN5" s="7"/>
-      <c r="LO5" s="21"/>
-      <c r="LP5" s="21"/>
+      <c r="LO5" s="19"/>
+      <c r="LP5" s="19"/>
       <c r="LQ5" s="7"/>
       <c r="LR5" s="7"/>
       <c r="LS5" s="7"/>
       <c r="LT5" s="7"/>
       <c r="LU5" s="7"/>
-      <c r="LV5" s="21"/>
-      <c r="LW5" s="21"/>
+      <c r="LV5" s="19"/>
+      <c r="LW5" s="19"/>
       <c r="LX5" s="7"/>
       <c r="LY5" s="7"/>
       <c r="LZ5" s="7"/>
       <c r="MA5" s="7"/>
       <c r="MB5" s="7"/>
-      <c r="MC5" s="21"/>
-      <c r="MD5" s="21"/>
+      <c r="MC5" s="19"/>
+      <c r="MD5" s="19"/>
       <c r="ME5" s="7"/>
       <c r="MF5" s="7"/>
       <c r="MG5" s="7"/>
       <c r="MH5" s="7"/>
       <c r="MI5" s="7"/>
-      <c r="MJ5" s="21"/>
-      <c r="MK5" s="21"/>
+      <c r="MJ5" s="19"/>
+      <c r="MK5" s="19"/>
       <c r="ML5" s="7"/>
       <c r="MM5" s="7"/>
       <c r="MN5" s="7"/>
       <c r="MO5" s="7"/>
       <c r="MP5" s="7"/>
-      <c r="MQ5" s="21"/>
-      <c r="MR5" s="21"/>
+      <c r="MQ5" s="19"/>
+      <c r="MR5" s="19"/>
       <c r="MS5" s="7"/>
       <c r="MT5" s="7"/>
       <c r="MU5" s="7"/>
       <c r="MV5" s="7"/>
       <c r="MW5" s="7"/>
-      <c r="MX5" s="21"/>
-      <c r="MY5" s="21"/>
+      <c r="MX5" s="19"/>
+      <c r="MY5" s="19"/>
       <c r="MZ5" s="7"/>
       <c r="NA5" s="7"/>
       <c r="NB5" s="7"/>
@@ -4212,288 +4230,288 @@
       <c r="CA6" s="1"/>
       <c r="CB6" s="1"/>
       <c r="CC6" s="1"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="19"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
+      <c r="CK6" s="19"/>
+      <c r="CL6" s="19"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1"/>
-      <c r="CR6" s="21"/>
-      <c r="CS6" s="21"/>
+      <c r="CR6" s="19"/>
+      <c r="CS6" s="19"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
       <c r="CW6" s="1"/>
       <c r="CX6" s="1"/>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
+      <c r="CY6" s="19"/>
+      <c r="CZ6" s="19"/>
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
       <c r="DD6" s="1"/>
       <c r="DE6" s="1"/>
-      <c r="DF6" s="21"/>
-      <c r="DG6" s="21"/>
+      <c r="DF6" s="19"/>
+      <c r="DG6" s="19"/>
       <c r="DH6" s="1"/>
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="1"/>
       <c r="DL6" s="1"/>
-      <c r="DM6" s="21"/>
-      <c r="DN6" s="21"/>
+      <c r="DM6" s="19"/>
+      <c r="DN6" s="19"/>
       <c r="DO6" s="1"/>
       <c r="DP6" s="1"/>
       <c r="DQ6" s="1"/>
       <c r="DR6" s="1"/>
       <c r="DS6" s="1"/>
-      <c r="DT6" s="21"/>
-      <c r="DU6" s="21"/>
+      <c r="DT6" s="19"/>
+      <c r="DU6" s="19"/>
       <c r="DV6" s="1"/>
       <c r="DW6" s="1"/>
       <c r="DX6" s="1"/>
       <c r="DY6" s="1"/>
       <c r="DZ6" s="1"/>
-      <c r="EA6" s="21"/>
-      <c r="EB6" s="21"/>
+      <c r="EA6" s="19"/>
+      <c r="EB6" s="19"/>
       <c r="EC6" s="1"/>
       <c r="ED6" s="1"/>
       <c r="EE6" s="1"/>
       <c r="EF6" s="1"/>
       <c r="EG6" s="1"/>
-      <c r="EH6" s="21"/>
-      <c r="EI6" s="21"/>
+      <c r="EH6" s="19"/>
+      <c r="EI6" s="19"/>
       <c r="EJ6" s="1"/>
       <c r="EK6" s="1"/>
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="21"/>
-      <c r="EP6" s="21"/>
+      <c r="EO6" s="19"/>
+      <c r="EP6" s="19"/>
       <c r="EQ6" s="1"/>
       <c r="ER6" s="1"/>
       <c r="ES6" s="1"/>
       <c r="ET6" s="1"/>
       <c r="EU6" s="1"/>
-      <c r="EV6" s="21"/>
-      <c r="EW6" s="21"/>
+      <c r="EV6" s="19"/>
+      <c r="EW6" s="19"/>
       <c r="EX6" s="1"/>
       <c r="EY6" s="1"/>
       <c r="EZ6" s="1"/>
       <c r="FA6" s="1"/>
       <c r="FB6" s="1"/>
-      <c r="FC6" s="21"/>
-      <c r="FD6" s="21"/>
+      <c r="FC6" s="19"/>
+      <c r="FD6" s="19"/>
       <c r="FE6" s="1"/>
       <c r="FF6" s="1"/>
       <c r="FG6" s="1"/>
-      <c r="FH6" s="1"/>
+      <c r="FH6" s="5"/>
       <c r="FI6" s="1"/>
-      <c r="FJ6" s="21"/>
-      <c r="FK6" s="21"/>
+      <c r="FJ6" s="19"/>
+      <c r="FK6" s="19"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
       <c r="FN6" s="1"/>
       <c r="FO6" s="1"/>
       <c r="FP6" s="1"/>
-      <c r="FQ6" s="21"/>
-      <c r="FR6" s="21"/>
+      <c r="FQ6" s="19"/>
+      <c r="FR6" s="19"/>
       <c r="FS6" s="1"/>
       <c r="FT6" s="1"/>
       <c r="FU6" s="1"/>
       <c r="FV6" s="1"/>
       <c r="FW6" s="1"/>
-      <c r="FX6" s="21"/>
-      <c r="FY6" s="21"/>
+      <c r="FX6" s="19"/>
+      <c r="FY6" s="19"/>
       <c r="FZ6" s="1"/>
       <c r="GA6" s="1"/>
       <c r="GB6" s="1"/>
       <c r="GC6" s="1"/>
       <c r="GD6" s="1"/>
-      <c r="GE6" s="21"/>
-      <c r="GF6" s="21"/>
+      <c r="GE6" s="19"/>
+      <c r="GF6" s="19"/>
       <c r="GG6" s="1"/>
       <c r="GH6" s="1"/>
       <c r="GI6" s="1"/>
       <c r="GJ6" s="1"/>
       <c r="GK6" s="1"/>
-      <c r="GL6" s="21"/>
-      <c r="GM6" s="21"/>
+      <c r="GL6" s="19"/>
+      <c r="GM6" s="19"/>
       <c r="GN6" s="1"/>
       <c r="GO6" s="1"/>
       <c r="GP6" s="1"/>
       <c r="GQ6" s="1"/>
       <c r="GR6" s="1"/>
-      <c r="GS6" s="21"/>
-      <c r="GT6" s="21"/>
+      <c r="GS6" s="19"/>
+      <c r="GT6" s="19"/>
       <c r="GU6" s="1"/>
       <c r="GV6" s="1"/>
       <c r="GW6" s="1"/>
       <c r="GX6" s="1"/>
       <c r="GY6" s="1"/>
-      <c r="GZ6" s="21"/>
-      <c r="HA6" s="21"/>
+      <c r="GZ6" s="19"/>
+      <c r="HA6" s="19"/>
       <c r="HB6" s="1"/>
       <c r="HC6" s="1"/>
       <c r="HD6" s="1"/>
       <c r="HE6" s="1"/>
       <c r="HF6" s="1"/>
-      <c r="HG6" s="21"/>
-      <c r="HH6" s="21"/>
+      <c r="HG6" s="19"/>
+      <c r="HH6" s="19"/>
       <c r="HI6" s="1"/>
       <c r="HJ6" s="1"/>
       <c r="HK6" s="1"/>
       <c r="HL6" s="1"/>
       <c r="HM6" s="1"/>
-      <c r="HN6" s="21"/>
-      <c r="HO6" s="21"/>
+      <c r="HN6" s="19"/>
+      <c r="HO6" s="19"/>
       <c r="HP6" s="1"/>
       <c r="HQ6" s="1"/>
       <c r="HR6" s="1"/>
       <c r="HS6" s="1"/>
       <c r="HT6" s="1"/>
-      <c r="HU6" s="21"/>
-      <c r="HV6" s="21"/>
+      <c r="HU6" s="19"/>
+      <c r="HV6" s="19"/>
       <c r="HW6" s="1"/>
       <c r="HX6" s="1"/>
       <c r="HY6" s="1"/>
       <c r="HZ6" s="1"/>
       <c r="IA6" s="1"/>
-      <c r="IB6" s="21"/>
-      <c r="IC6" s="21"/>
+      <c r="IB6" s="19"/>
+      <c r="IC6" s="19"/>
       <c r="ID6" s="1"/>
       <c r="IE6" s="1"/>
       <c r="IF6" s="1"/>
       <c r="IG6" s="1"/>
       <c r="IH6" s="1"/>
-      <c r="II6" s="21"/>
-      <c r="IJ6" s="21"/>
+      <c r="II6" s="19"/>
+      <c r="IJ6" s="19"/>
       <c r="IK6" s="1"/>
       <c r="IL6" s="1"/>
       <c r="IM6" s="1"/>
       <c r="IN6" s="1"/>
       <c r="IO6" s="1"/>
-      <c r="IP6" s="21"/>
-      <c r="IQ6" s="21"/>
+      <c r="IP6" s="19"/>
+      <c r="IQ6" s="19"/>
       <c r="IR6" s="1"/>
       <c r="IS6" s="1"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
-      <c r="IW6" s="21"/>
-      <c r="IX6" s="21"/>
+      <c r="IW6" s="19"/>
+      <c r="IX6" s="19"/>
       <c r="IY6" s="1"/>
       <c r="IZ6" s="1"/>
       <c r="JA6" s="1"/>
       <c r="JB6" s="1"/>
       <c r="JC6" s="1"/>
-      <c r="JD6" s="21"/>
-      <c r="JE6" s="21"/>
+      <c r="JD6" s="19"/>
+      <c r="JE6" s="19"/>
       <c r="JF6" s="1"/>
       <c r="JG6" s="1"/>
       <c r="JH6" s="1"/>
       <c r="JI6" s="1"/>
       <c r="JJ6" s="1"/>
-      <c r="JK6" s="21"/>
-      <c r="JL6" s="21"/>
+      <c r="JK6" s="19"/>
+      <c r="JL6" s="19"/>
       <c r="JM6" s="1"/>
       <c r="JN6" s="1"/>
       <c r="JO6" s="1"/>
       <c r="JP6" s="1"/>
       <c r="JQ6" s="1"/>
-      <c r="JR6" s="21"/>
-      <c r="JS6" s="21"/>
+      <c r="JR6" s="19"/>
+      <c r="JS6" s="19"/>
       <c r="JT6" s="1"/>
       <c r="JU6" s="1"/>
       <c r="JV6" s="1"/>
       <c r="JW6" s="1"/>
       <c r="JX6" s="1"/>
-      <c r="JY6" s="21"/>
-      <c r="JZ6" s="21"/>
+      <c r="JY6" s="19"/>
+      <c r="JZ6" s="19"/>
       <c r="KA6" s="1"/>
       <c r="KB6" s="1"/>
       <c r="KC6" s="1"/>
       <c r="KD6" s="1"/>
       <c r="KE6" s="1"/>
-      <c r="KF6" s="21"/>
-      <c r="KG6" s="21"/>
+      <c r="KF6" s="19"/>
+      <c r="KG6" s="19"/>
       <c r="KH6" s="1"/>
       <c r="KI6" s="1"/>
       <c r="KJ6" s="1"/>
       <c r="KK6" s="1"/>
       <c r="KL6" s="1"/>
-      <c r="KM6" s="21"/>
-      <c r="KN6" s="21"/>
+      <c r="KM6" s="19"/>
+      <c r="KN6" s="19"/>
       <c r="KO6" s="1"/>
       <c r="KP6" s="1"/>
       <c r="KQ6" s="1"/>
       <c r="KR6" s="1"/>
       <c r="KS6" s="1"/>
-      <c r="KT6" s="21"/>
-      <c r="KU6" s="21"/>
+      <c r="KT6" s="19"/>
+      <c r="KU6" s="19"/>
       <c r="KV6" s="1"/>
       <c r="KW6" s="1"/>
       <c r="KX6" s="1"/>
       <c r="KY6" s="1"/>
       <c r="KZ6" s="1"/>
-      <c r="LA6" s="21"/>
-      <c r="LB6" s="21"/>
+      <c r="LA6" s="19"/>
+      <c r="LB6" s="19"/>
       <c r="LC6" s="1"/>
       <c r="LD6" s="1"/>
       <c r="LE6" s="1"/>
       <c r="LF6" s="1"/>
       <c r="LG6" s="1"/>
-      <c r="LH6" s="21"/>
-      <c r="LI6" s="21"/>
+      <c r="LH6" s="19"/>
+      <c r="LI6" s="19"/>
       <c r="LJ6" s="1"/>
       <c r="LK6" s="1"/>
       <c r="LL6" s="1"/>
       <c r="LM6" s="1"/>
       <c r="LN6" s="1"/>
-      <c r="LO6" s="21"/>
-      <c r="LP6" s="21"/>
+      <c r="LO6" s="19"/>
+      <c r="LP6" s="19"/>
       <c r="LQ6" s="1"/>
       <c r="LR6" s="1"/>
       <c r="LS6" s="1"/>
       <c r="LT6" s="1"/>
       <c r="LU6" s="1"/>
-      <c r="LV6" s="21"/>
-      <c r="LW6" s="21"/>
+      <c r="LV6" s="19"/>
+      <c r="LW6" s="19"/>
       <c r="LX6" s="1"/>
       <c r="LY6" s="1"/>
       <c r="LZ6" s="1"/>
       <c r="MA6" s="1"/>
       <c r="MB6" s="1"/>
-      <c r="MC6" s="21"/>
-      <c r="MD6" s="21"/>
+      <c r="MC6" s="19"/>
+      <c r="MD6" s="19"/>
       <c r="ME6" s="1"/>
       <c r="MF6" s="1"/>
       <c r="MG6" s="1"/>
       <c r="MH6" s="1"/>
       <c r="MI6" s="1"/>
-      <c r="MJ6" s="21"/>
-      <c r="MK6" s="21"/>
+      <c r="MJ6" s="19"/>
+      <c r="MK6" s="19"/>
       <c r="ML6" s="1"/>
       <c r="MM6" s="1"/>
       <c r="MN6" s="1"/>
       <c r="MO6" s="1"/>
       <c r="MP6" s="1"/>
-      <c r="MQ6" s="21"/>
-      <c r="MR6" s="21"/>
+      <c r="MQ6" s="19"/>
+      <c r="MR6" s="19"/>
       <c r="MS6" s="1"/>
       <c r="MT6" s="1"/>
       <c r="MU6" s="1"/>
       <c r="MV6" s="1"/>
       <c r="MW6" s="1"/>
-      <c r="MX6" s="21"/>
-      <c r="MY6" s="21"/>
+      <c r="MX6" s="19"/>
+      <c r="MY6" s="19"/>
       <c r="MZ6" s="1"/>
       <c r="NA6" s="1"/>
       <c r="NB6" s="1"/>
@@ -4585,43 +4603,43 @@
       <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
+      <c r="CD7" s="19"/>
+      <c r="CE7" s="19"/>
       <c r="CF7" s="7"/>
       <c r="CG7" s="7"/>
       <c r="CH7" s="7"/>
       <c r="CI7" s="7"/>
       <c r="CJ7" s="7"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
+      <c r="CK7" s="19"/>
+      <c r="CL7" s="19"/>
       <c r="CM7" s="7"/>
       <c r="CN7" s="7"/>
       <c r="CO7" s="7"/>
       <c r="CP7" s="7"/>
       <c r="CQ7" s="7"/>
-      <c r="CR7" s="21"/>
-      <c r="CS7" s="21"/>
+      <c r="CR7" s="19"/>
+      <c r="CS7" s="19"/>
       <c r="CT7" s="7"/>
       <c r="CU7" s="7"/>
       <c r="CV7" s="7"/>
       <c r="CW7" s="7"/>
       <c r="CX7" s="7"/>
-      <c r="CY7" s="21"/>
-      <c r="CZ7" s="21"/>
+      <c r="CY7" s="19"/>
+      <c r="CZ7" s="19"/>
       <c r="DA7" s="7"/>
       <c r="DB7" s="7"/>
       <c r="DC7" s="7"/>
       <c r="DD7" s="7"/>
       <c r="DE7" s="7"/>
-      <c r="DF7" s="21"/>
-      <c r="DG7" s="21"/>
+      <c r="DF7" s="19"/>
+      <c r="DG7" s="19"/>
       <c r="DH7" s="7"/>
       <c r="DI7" s="7"/>
       <c r="DJ7" s="7"/>
       <c r="DK7" s="7"/>
       <c r="DL7" s="7"/>
-      <c r="DM7" s="21"/>
-      <c r="DN7" s="21"/>
+      <c r="DM7" s="19"/>
+      <c r="DN7" s="19"/>
       <c r="DO7" s="8" t="s">
         <v>13</v>
       </c>
@@ -4637,10 +4655,10 @@
       <c r="DS7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DT7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DU7" s="20" t="s">
+      <c r="DT7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DU7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="DV7" s="8" t="s">
@@ -4658,241 +4676,241 @@
       <c r="DZ7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="EA7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="EB7" s="21"/>
+      <c r="EA7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EB7" s="19"/>
       <c r="EC7" s="7"/>
       <c r="ED7" s="7"/>
       <c r="EE7" s="7"/>
       <c r="EF7" s="7"/>
       <c r="EG7" s="7"/>
-      <c r="EH7" s="21"/>
-      <c r="EI7" s="21"/>
+      <c r="EH7" s="19"/>
+      <c r="EI7" s="19"/>
       <c r="EJ7" s="7"/>
       <c r="EK7" s="7"/>
       <c r="EL7" s="7"/>
       <c r="EM7" s="7"/>
       <c r="EN7" s="7"/>
-      <c r="EO7" s="21"/>
-      <c r="EP7" s="21"/>
+      <c r="EO7" s="19"/>
+      <c r="EP7" s="19"/>
       <c r="EQ7" s="7"/>
       <c r="ER7" s="7"/>
       <c r="ES7" s="7"/>
       <c r="ET7" s="7"/>
       <c r="EU7" s="7"/>
-      <c r="EV7" s="21"/>
-      <c r="EW7" s="21"/>
+      <c r="EV7" s="19"/>
+      <c r="EW7" s="19"/>
       <c r="EX7" s="7"/>
       <c r="EY7" s="7"/>
       <c r="EZ7" s="7"/>
       <c r="FA7" s="7"/>
       <c r="FB7" s="7"/>
-      <c r="FC7" s="21"/>
-      <c r="FD7" s="21"/>
+      <c r="FC7" s="19"/>
+      <c r="FD7" s="19"/>
       <c r="FE7" s="7"/>
       <c r="FF7" s="7"/>
       <c r="FG7" s="7"/>
-      <c r="FH7" s="7"/>
+      <c r="FH7" s="5"/>
       <c r="FI7" s="7"/>
-      <c r="FJ7" s="21"/>
-      <c r="FK7" s="21"/>
+      <c r="FJ7" s="19"/>
+      <c r="FK7" s="19"/>
       <c r="FL7" s="7"/>
       <c r="FM7" s="7"/>
       <c r="FN7" s="7"/>
       <c r="FO7" s="7"/>
       <c r="FP7" s="7"/>
-      <c r="FQ7" s="21"/>
-      <c r="FR7" s="21"/>
+      <c r="FQ7" s="19"/>
+      <c r="FR7" s="19"/>
       <c r="FS7" s="7"/>
       <c r="FT7" s="7"/>
       <c r="FU7" s="7"/>
       <c r="FV7" s="7"/>
       <c r="FW7" s="7"/>
-      <c r="FX7" s="21"/>
-      <c r="FY7" s="21"/>
+      <c r="FX7" s="19"/>
+      <c r="FY7" s="19"/>
       <c r="FZ7" s="7"/>
       <c r="GA7" s="7"/>
       <c r="GB7" s="7"/>
       <c r="GC7" s="7"/>
       <c r="GD7" s="7"/>
-      <c r="GE7" s="21"/>
-      <c r="GF7" s="21"/>
+      <c r="GE7" s="19"/>
+      <c r="GF7" s="19"/>
       <c r="GG7" s="7"/>
       <c r="GH7" s="7"/>
       <c r="GI7" s="7"/>
       <c r="GJ7" s="7"/>
       <c r="GK7" s="7"/>
-      <c r="GL7" s="21"/>
-      <c r="GM7" s="21"/>
+      <c r="GL7" s="19"/>
+      <c r="GM7" s="19"/>
       <c r="GN7" s="7"/>
       <c r="GO7" s="7"/>
       <c r="GP7" s="7"/>
       <c r="GQ7" s="7"/>
       <c r="GR7" s="7"/>
-      <c r="GS7" s="21"/>
-      <c r="GT7" s="21"/>
+      <c r="GS7" s="19"/>
+      <c r="GT7" s="19"/>
       <c r="GU7" s="7"/>
       <c r="GV7" s="7"/>
       <c r="GW7" s="7"/>
       <c r="GX7" s="7"/>
       <c r="GY7" s="7"/>
-      <c r="GZ7" s="21"/>
-      <c r="HA7" s="21"/>
+      <c r="GZ7" s="19"/>
+      <c r="HA7" s="19"/>
       <c r="HB7" s="7"/>
       <c r="HC7" s="7"/>
       <c r="HD7" s="7"/>
       <c r="HE7" s="7"/>
       <c r="HF7" s="7"/>
-      <c r="HG7" s="21"/>
-      <c r="HH7" s="21"/>
+      <c r="HG7" s="19"/>
+      <c r="HH7" s="19"/>
       <c r="HI7" s="7"/>
       <c r="HJ7" s="7"/>
       <c r="HK7" s="7"/>
       <c r="HL7" s="7"/>
       <c r="HM7" s="7"/>
-      <c r="HN7" s="21"/>
-      <c r="HO7" s="21"/>
+      <c r="HN7" s="19"/>
+      <c r="HO7" s="19"/>
       <c r="HP7" s="7"/>
       <c r="HQ7" s="7"/>
       <c r="HR7" s="7"/>
       <c r="HS7" s="7"/>
       <c r="HT7" s="7"/>
-      <c r="HU7" s="21"/>
-      <c r="HV7" s="21"/>
+      <c r="HU7" s="19"/>
+      <c r="HV7" s="19"/>
       <c r="HW7" s="7"/>
       <c r="HX7" s="7"/>
       <c r="HY7" s="7"/>
       <c r="HZ7" s="7"/>
       <c r="IA7" s="7"/>
-      <c r="IB7" s="21"/>
-      <c r="IC7" s="21"/>
+      <c r="IB7" s="19"/>
+      <c r="IC7" s="19"/>
       <c r="ID7" s="7"/>
       <c r="IE7" s="7"/>
       <c r="IF7" s="7"/>
       <c r="IG7" s="7"/>
       <c r="IH7" s="7"/>
-      <c r="II7" s="21"/>
-      <c r="IJ7" s="21"/>
+      <c r="II7" s="19"/>
+      <c r="IJ7" s="19"/>
       <c r="IK7" s="7"/>
       <c r="IL7" s="7"/>
       <c r="IM7" s="7"/>
       <c r="IN7" s="7"/>
       <c r="IO7" s="7"/>
-      <c r="IP7" s="21"/>
-      <c r="IQ7" s="21"/>
+      <c r="IP7" s="19"/>
+      <c r="IQ7" s="19"/>
       <c r="IR7" s="7"/>
       <c r="IS7" s="7"/>
       <c r="IT7" s="7"/>
       <c r="IU7" s="7"/>
       <c r="IV7" s="7"/>
-      <c r="IW7" s="21"/>
-      <c r="IX7" s="21"/>
+      <c r="IW7" s="19"/>
+      <c r="IX7" s="19"/>
       <c r="IY7" s="7"/>
       <c r="IZ7" s="7"/>
       <c r="JA7" s="7"/>
       <c r="JB7" s="7"/>
       <c r="JC7" s="7"/>
-      <c r="JD7" s="21"/>
-      <c r="JE7" s="21"/>
+      <c r="JD7" s="19"/>
+      <c r="JE7" s="19"/>
       <c r="JF7" s="7"/>
       <c r="JG7" s="7"/>
       <c r="JH7" s="7"/>
       <c r="JI7" s="7"/>
       <c r="JJ7" s="7"/>
-      <c r="JK7" s="21"/>
-      <c r="JL7" s="21"/>
+      <c r="JK7" s="19"/>
+      <c r="JL7" s="19"/>
       <c r="JM7" s="7"/>
       <c r="JN7" s="7"/>
       <c r="JO7" s="7"/>
       <c r="JP7" s="7"/>
       <c r="JQ7" s="7"/>
-      <c r="JR7" s="21"/>
-      <c r="JS7" s="21"/>
+      <c r="JR7" s="19"/>
+      <c r="JS7" s="19"/>
       <c r="JT7" s="7"/>
       <c r="JU7" s="7"/>
       <c r="JV7" s="7"/>
       <c r="JW7" s="7"/>
       <c r="JX7" s="7"/>
-      <c r="JY7" s="21"/>
-      <c r="JZ7" s="21"/>
+      <c r="JY7" s="19"/>
+      <c r="JZ7" s="19"/>
       <c r="KA7" s="7"/>
       <c r="KB7" s="7"/>
       <c r="KC7" s="7"/>
       <c r="KD7" s="7"/>
       <c r="KE7" s="7"/>
-      <c r="KF7" s="21"/>
-      <c r="KG7" s="21"/>
+      <c r="KF7" s="19"/>
+      <c r="KG7" s="19"/>
       <c r="KH7" s="7"/>
       <c r="KI7" s="7"/>
       <c r="KJ7" s="7"/>
       <c r="KK7" s="7"/>
       <c r="KL7" s="7"/>
-      <c r="KM7" s="21"/>
-      <c r="KN7" s="21"/>
+      <c r="KM7" s="19"/>
+      <c r="KN7" s="19"/>
       <c r="KO7" s="7"/>
       <c r="KP7" s="7"/>
       <c r="KQ7" s="7"/>
       <c r="KR7" s="7"/>
       <c r="KS7" s="7"/>
-      <c r="KT7" s="21"/>
-      <c r="KU7" s="21"/>
+      <c r="KT7" s="19"/>
+      <c r="KU7" s="19"/>
       <c r="KV7" s="7"/>
       <c r="KW7" s="7"/>
       <c r="KX7" s="7"/>
       <c r="KY7" s="7"/>
       <c r="KZ7" s="7"/>
-      <c r="LA7" s="21"/>
-      <c r="LB7" s="21"/>
+      <c r="LA7" s="19"/>
+      <c r="LB7" s="19"/>
       <c r="LC7" s="7"/>
       <c r="LD7" s="7"/>
       <c r="LE7" s="7"/>
       <c r="LF7" s="7"/>
       <c r="LG7" s="7"/>
-      <c r="LH7" s="21"/>
-      <c r="LI7" s="21"/>
+      <c r="LH7" s="19"/>
+      <c r="LI7" s="19"/>
       <c r="LJ7" s="7"/>
       <c r="LK7" s="7"/>
       <c r="LL7" s="7"/>
       <c r="LM7" s="7"/>
       <c r="LN7" s="7"/>
-      <c r="LO7" s="21"/>
-      <c r="LP7" s="21"/>
+      <c r="LO7" s="19"/>
+      <c r="LP7" s="19"/>
       <c r="LQ7" s="7"/>
       <c r="LR7" s="7"/>
       <c r="LS7" s="7"/>
       <c r="LT7" s="7"/>
       <c r="LU7" s="7"/>
-      <c r="LV7" s="21"/>
-      <c r="LW7" s="21"/>
+      <c r="LV7" s="19"/>
+      <c r="LW7" s="19"/>
       <c r="LX7" s="7"/>
       <c r="LY7" s="7"/>
       <c r="LZ7" s="7"/>
       <c r="MA7" s="7"/>
       <c r="MB7" s="7"/>
-      <c r="MC7" s="21"/>
-      <c r="MD7" s="21"/>
+      <c r="MC7" s="19"/>
+      <c r="MD7" s="19"/>
       <c r="ME7" s="7"/>
       <c r="MF7" s="7"/>
       <c r="MG7" s="7"/>
       <c r="MH7" s="7"/>
       <c r="MI7" s="7"/>
-      <c r="MJ7" s="21"/>
-      <c r="MK7" s="21"/>
+      <c r="MJ7" s="19"/>
+      <c r="MK7" s="19"/>
       <c r="ML7" s="7"/>
       <c r="MM7" s="7"/>
       <c r="MN7" s="7"/>
       <c r="MO7" s="7"/>
       <c r="MP7" s="7"/>
-      <c r="MQ7" s="21"/>
-      <c r="MR7" s="21"/>
+      <c r="MQ7" s="19"/>
+      <c r="MR7" s="19"/>
       <c r="MS7" s="7"/>
       <c r="MT7" s="7"/>
       <c r="MU7" s="7"/>
       <c r="MV7" s="7"/>
       <c r="MW7" s="7"/>
-      <c r="MX7" s="21"/>
-      <c r="MY7" s="21"/>
+      <c r="MX7" s="19"/>
+      <c r="MY7" s="19"/>
       <c r="MZ7" s="7"/>
       <c r="NA7" s="7"/>
       <c r="NB7" s="7"/>
@@ -4991,288 +5009,288 @@
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
-      <c r="CD8" s="21"/>
-      <c r="CE8" s="21"/>
+      <c r="CD8" s="19"/>
+      <c r="CE8" s="19"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
-      <c r="CK8" s="21"/>
-      <c r="CL8" s="21"/>
+      <c r="CK8" s="19"/>
+      <c r="CL8" s="19"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1"/>
       <c r="CQ8" s="1"/>
-      <c r="CR8" s="21"/>
-      <c r="CS8" s="21"/>
+      <c r="CR8" s="19"/>
+      <c r="CS8" s="19"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
       <c r="CW8" s="1"/>
       <c r="CX8" s="1"/>
-      <c r="CY8" s="21"/>
-      <c r="CZ8" s="21"/>
+      <c r="CY8" s="19"/>
+      <c r="CZ8" s="19"/>
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
       <c r="DD8" s="1"/>
       <c r="DE8" s="1"/>
-      <c r="DF8" s="21"/>
-      <c r="DG8" s="21"/>
+      <c r="DF8" s="19"/>
+      <c r="DG8" s="19"/>
       <c r="DH8" s="1"/>
       <c r="DI8" s="1"/>
       <c r="DJ8" s="1"/>
       <c r="DK8" s="1"/>
       <c r="DL8" s="1"/>
-      <c r="DM8" s="21"/>
-      <c r="DN8" s="21"/>
+      <c r="DM8" s="19"/>
+      <c r="DN8" s="19"/>
       <c r="DO8" s="1"/>
       <c r="DP8" s="1"/>
       <c r="DQ8" s="1"/>
       <c r="DR8" s="1"/>
       <c r="DS8" s="1"/>
-      <c r="DT8" s="21"/>
-      <c r="DU8" s="21"/>
+      <c r="DT8" s="19"/>
+      <c r="DU8" s="19"/>
       <c r="DV8" s="1"/>
       <c r="DW8" s="1"/>
       <c r="DX8" s="1"/>
       <c r="DY8" s="1"/>
       <c r="DZ8" s="1"/>
-      <c r="EA8" s="21"/>
-      <c r="EB8" s="21"/>
+      <c r="EA8" s="19"/>
+      <c r="EB8" s="19"/>
       <c r="EC8" s="1"/>
       <c r="ED8" s="1"/>
       <c r="EE8" s="1"/>
       <c r="EF8" s="1"/>
       <c r="EG8" s="1"/>
-      <c r="EH8" s="21"/>
-      <c r="EI8" s="21"/>
+      <c r="EH8" s="19"/>
+      <c r="EI8" s="19"/>
       <c r="EJ8" s="1"/>
       <c r="EK8" s="1"/>
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="21"/>
-      <c r="EP8" s="21"/>
+      <c r="EO8" s="19"/>
+      <c r="EP8" s="19"/>
       <c r="EQ8" s="1"/>
       <c r="ER8" s="1"/>
       <c r="ES8" s="1"/>
       <c r="ET8" s="1"/>
       <c r="EU8" s="1"/>
-      <c r="EV8" s="21"/>
-      <c r="EW8" s="21"/>
+      <c r="EV8" s="19"/>
+      <c r="EW8" s="19"/>
       <c r="EX8" s="1"/>
       <c r="EY8" s="1"/>
       <c r="EZ8" s="1"/>
       <c r="FA8" s="1"/>
       <c r="FB8" s="1"/>
-      <c r="FC8" s="21"/>
-      <c r="FD8" s="21"/>
+      <c r="FC8" s="19"/>
+      <c r="FD8" s="19"/>
       <c r="FE8" s="1"/>
       <c r="FF8" s="1"/>
       <c r="FG8" s="1"/>
-      <c r="FH8" s="1"/>
+      <c r="FH8" s="5"/>
       <c r="FI8" s="1"/>
-      <c r="FJ8" s="21"/>
-      <c r="FK8" s="21"/>
+      <c r="FJ8" s="19"/>
+      <c r="FK8" s="19"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
       <c r="FN8" s="1"/>
       <c r="FO8" s="1"/>
       <c r="FP8" s="1"/>
-      <c r="FQ8" s="21"/>
-      <c r="FR8" s="21"/>
+      <c r="FQ8" s="19"/>
+      <c r="FR8" s="19"/>
       <c r="FS8" s="1"/>
       <c r="FT8" s="1"/>
       <c r="FU8" s="1"/>
       <c r="FV8" s="1"/>
       <c r="FW8" s="1"/>
-      <c r="FX8" s="21"/>
-      <c r="FY8" s="21"/>
+      <c r="FX8" s="19"/>
+      <c r="FY8" s="19"/>
       <c r="FZ8" s="1"/>
       <c r="GA8" s="1"/>
       <c r="GB8" s="1"/>
       <c r="GC8" s="1"/>
       <c r="GD8" s="1"/>
-      <c r="GE8" s="21"/>
-      <c r="GF8" s="21"/>
+      <c r="GE8" s="19"/>
+      <c r="GF8" s="19"/>
       <c r="GG8" s="1"/>
       <c r="GH8" s="1"/>
       <c r="GI8" s="1"/>
       <c r="GJ8" s="1"/>
       <c r="GK8" s="1"/>
-      <c r="GL8" s="21"/>
-      <c r="GM8" s="21"/>
+      <c r="GL8" s="19"/>
+      <c r="GM8" s="19"/>
       <c r="GN8" s="1"/>
       <c r="GO8" s="1"/>
       <c r="GP8" s="1"/>
       <c r="GQ8" s="1"/>
       <c r="GR8" s="1"/>
-      <c r="GS8" s="21"/>
-      <c r="GT8" s="21"/>
+      <c r="GS8" s="19"/>
+      <c r="GT8" s="19"/>
       <c r="GU8" s="1"/>
       <c r="GV8" s="1"/>
       <c r="GW8" s="1"/>
       <c r="GX8" s="1"/>
       <c r="GY8" s="1"/>
-      <c r="GZ8" s="21"/>
-      <c r="HA8" s="21"/>
+      <c r="GZ8" s="19"/>
+      <c r="HA8" s="19"/>
       <c r="HB8" s="1"/>
       <c r="HC8" s="1"/>
       <c r="HD8" s="1"/>
       <c r="HE8" s="1"/>
       <c r="HF8" s="1"/>
-      <c r="HG8" s="21"/>
-      <c r="HH8" s="21"/>
+      <c r="HG8" s="19"/>
+      <c r="HH8" s="19"/>
       <c r="HI8" s="1"/>
       <c r="HJ8" s="1"/>
       <c r="HK8" s="1"/>
       <c r="HL8" s="1"/>
       <c r="HM8" s="1"/>
-      <c r="HN8" s="21"/>
-      <c r="HO8" s="21"/>
+      <c r="HN8" s="19"/>
+      <c r="HO8" s="19"/>
       <c r="HP8" s="1"/>
       <c r="HQ8" s="1"/>
       <c r="HR8" s="1"/>
       <c r="HS8" s="1"/>
       <c r="HT8" s="1"/>
-      <c r="HU8" s="21"/>
-      <c r="HV8" s="21"/>
+      <c r="HU8" s="19"/>
+      <c r="HV8" s="19"/>
       <c r="HW8" s="1"/>
       <c r="HX8" s="1"/>
       <c r="HY8" s="1"/>
       <c r="HZ8" s="1"/>
       <c r="IA8" s="1"/>
-      <c r="IB8" s="21"/>
-      <c r="IC8" s="21"/>
+      <c r="IB8" s="19"/>
+      <c r="IC8" s="19"/>
       <c r="ID8" s="1"/>
       <c r="IE8" s="1"/>
       <c r="IF8" s="1"/>
       <c r="IG8" s="1"/>
       <c r="IH8" s="1"/>
-      <c r="II8" s="21"/>
-      <c r="IJ8" s="21"/>
+      <c r="II8" s="19"/>
+      <c r="IJ8" s="19"/>
       <c r="IK8" s="1"/>
       <c r="IL8" s="1"/>
       <c r="IM8" s="1"/>
       <c r="IN8" s="1"/>
       <c r="IO8" s="1"/>
-      <c r="IP8" s="21"/>
-      <c r="IQ8" s="21"/>
+      <c r="IP8" s="19"/>
+      <c r="IQ8" s="19"/>
       <c r="IR8" s="1"/>
       <c r="IS8" s="1"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
-      <c r="IW8" s="21"/>
-      <c r="IX8" s="21"/>
+      <c r="IW8" s="19"/>
+      <c r="IX8" s="19"/>
       <c r="IY8" s="1"/>
       <c r="IZ8" s="1"/>
       <c r="JA8" s="1"/>
       <c r="JB8" s="1"/>
       <c r="JC8" s="1"/>
-      <c r="JD8" s="21"/>
-      <c r="JE8" s="21"/>
+      <c r="JD8" s="19"/>
+      <c r="JE8" s="19"/>
       <c r="JF8" s="1"/>
       <c r="JG8" s="1"/>
       <c r="JH8" s="1"/>
       <c r="JI8" s="1"/>
       <c r="JJ8" s="1"/>
-      <c r="JK8" s="21"/>
-      <c r="JL8" s="21"/>
+      <c r="JK8" s="19"/>
+      <c r="JL8" s="19"/>
       <c r="JM8" s="1"/>
       <c r="JN8" s="1"/>
       <c r="JO8" s="1"/>
       <c r="JP8" s="1"/>
       <c r="JQ8" s="1"/>
-      <c r="JR8" s="21"/>
-      <c r="JS8" s="21"/>
+      <c r="JR8" s="19"/>
+      <c r="JS8" s="19"/>
       <c r="JT8" s="1"/>
       <c r="JU8" s="1"/>
       <c r="JV8" s="1"/>
       <c r="JW8" s="1"/>
       <c r="JX8" s="1"/>
-      <c r="JY8" s="21"/>
-      <c r="JZ8" s="21"/>
+      <c r="JY8" s="19"/>
+      <c r="JZ8" s="19"/>
       <c r="KA8" s="1"/>
       <c r="KB8" s="1"/>
       <c r="KC8" s="1"/>
       <c r="KD8" s="1"/>
       <c r="KE8" s="1"/>
-      <c r="KF8" s="21"/>
-      <c r="KG8" s="21"/>
+      <c r="KF8" s="19"/>
+      <c r="KG8" s="19"/>
       <c r="KH8" s="1"/>
       <c r="KI8" s="1"/>
       <c r="KJ8" s="1"/>
       <c r="KK8" s="1"/>
       <c r="KL8" s="1"/>
-      <c r="KM8" s="21"/>
-      <c r="KN8" s="21"/>
+      <c r="KM8" s="19"/>
+      <c r="KN8" s="19"/>
       <c r="KO8" s="1"/>
       <c r="KP8" s="1"/>
       <c r="KQ8" s="1"/>
       <c r="KR8" s="1"/>
       <c r="KS8" s="1"/>
-      <c r="KT8" s="21"/>
-      <c r="KU8" s="21"/>
+      <c r="KT8" s="19"/>
+      <c r="KU8" s="19"/>
       <c r="KV8" s="1"/>
       <c r="KW8" s="1"/>
       <c r="KX8" s="1"/>
       <c r="KY8" s="1"/>
       <c r="KZ8" s="1"/>
-      <c r="LA8" s="21"/>
-      <c r="LB8" s="21"/>
+      <c r="LA8" s="19"/>
+      <c r="LB8" s="19"/>
       <c r="LC8" s="1"/>
       <c r="LD8" s="1"/>
       <c r="LE8" s="1"/>
       <c r="LF8" s="1"/>
       <c r="LG8" s="1"/>
-      <c r="LH8" s="21"/>
-      <c r="LI8" s="21"/>
+      <c r="LH8" s="19"/>
+      <c r="LI8" s="19"/>
       <c r="LJ8" s="1"/>
       <c r="LK8" s="1"/>
       <c r="LL8" s="1"/>
       <c r="LM8" s="1"/>
       <c r="LN8" s="1"/>
-      <c r="LO8" s="21"/>
-      <c r="LP8" s="21"/>
+      <c r="LO8" s="19"/>
+      <c r="LP8" s="19"/>
       <c r="LQ8" s="1"/>
       <c r="LR8" s="1"/>
       <c r="LS8" s="1"/>
       <c r="LT8" s="1"/>
       <c r="LU8" s="1"/>
-      <c r="LV8" s="21"/>
-      <c r="LW8" s="21"/>
+      <c r="LV8" s="19"/>
+      <c r="LW8" s="19"/>
       <c r="LX8" s="1"/>
       <c r="LY8" s="1"/>
       <c r="LZ8" s="1"/>
       <c r="MA8" s="1"/>
       <c r="MB8" s="1"/>
-      <c r="MC8" s="21"/>
-      <c r="MD8" s="21"/>
+      <c r="MC8" s="19"/>
+      <c r="MD8" s="19"/>
       <c r="ME8" s="1"/>
       <c r="MF8" s="1"/>
       <c r="MG8" s="1"/>
       <c r="MH8" s="1"/>
       <c r="MI8" s="1"/>
-      <c r="MJ8" s="21"/>
-      <c r="MK8" s="21"/>
+      <c r="MJ8" s="19"/>
+      <c r="MK8" s="19"/>
       <c r="ML8" s="1"/>
       <c r="MM8" s="1"/>
       <c r="MN8" s="1"/>
       <c r="MO8" s="1"/>
       <c r="MP8" s="1"/>
-      <c r="MQ8" s="21"/>
-      <c r="MR8" s="21"/>
+      <c r="MQ8" s="19"/>
+      <c r="MR8" s="19"/>
       <c r="MS8" s="1"/>
       <c r="MT8" s="1"/>
       <c r="MU8" s="1"/>
       <c r="MV8" s="1"/>
       <c r="MW8" s="1"/>
-      <c r="MX8" s="21"/>
-      <c r="MY8" s="21"/>
+      <c r="MX8" s="19"/>
+      <c r="MY8" s="19"/>
       <c r="MZ8" s="1"/>
       <c r="NA8" s="1"/>
       <c r="NB8" s="1"/>
@@ -5361,22 +5379,22 @@
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7"/>
-      <c r="CD9" s="21"/>
-      <c r="CE9" s="21"/>
+      <c r="CD9" s="19"/>
+      <c r="CE9" s="19"/>
       <c r="CF9" s="7"/>
       <c r="CG9" s="7"/>
       <c r="CH9" s="7"/>
       <c r="CI9" s="7"/>
       <c r="CJ9" s="7"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19"/>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
       <c r="CO9" s="7"/>
       <c r="CP9" s="7"/>
       <c r="CQ9" s="7"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
+      <c r="CR9" s="19"/>
+      <c r="CS9" s="19"/>
       <c r="CT9" s="7"/>
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
@@ -5384,10 +5402,10 @@
       <c r="CX9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="CY9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ9" s="23" t="s">
+      <c r="CY9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="DA9" s="8" t="s">
@@ -5397,43 +5415,43 @@
       <c r="DC9" s="7"/>
       <c r="DD9" s="7"/>
       <c r="DE9" s="7"/>
-      <c r="DF9" s="21"/>
-      <c r="DG9" s="21"/>
+      <c r="DF9" s="19"/>
+      <c r="DG9" s="19"/>
       <c r="DH9" s="7"/>
       <c r="DI9" s="7"/>
       <c r="DJ9" s="7"/>
       <c r="DK9" s="7"/>
       <c r="DL9" s="7"/>
-      <c r="DM9" s="21"/>
-      <c r="DN9" s="21"/>
+      <c r="DM9" s="19"/>
+      <c r="DN9" s="19"/>
       <c r="DO9" s="7"/>
       <c r="DP9" s="7"/>
       <c r="DQ9" s="7"/>
       <c r="DR9" s="7"/>
       <c r="DS9" s="7"/>
-      <c r="DT9" s="21"/>
-      <c r="DU9" s="21"/>
+      <c r="DT9" s="19"/>
+      <c r="DU9" s="19"/>
       <c r="DV9" s="7"/>
       <c r="DW9" s="7"/>
       <c r="DX9" s="7"/>
       <c r="DY9" s="7"/>
       <c r="DZ9" s="7"/>
-      <c r="EA9" s="21"/>
-      <c r="EB9" s="21"/>
+      <c r="EA9" s="19"/>
+      <c r="EB9" s="19"/>
       <c r="EC9" s="7"/>
       <c r="ED9" s="7"/>
       <c r="EE9" s="7"/>
       <c r="EF9" s="7"/>
       <c r="EG9" s="7"/>
-      <c r="EH9" s="21"/>
-      <c r="EI9" s="21"/>
+      <c r="EH9" s="19"/>
+      <c r="EI9" s="19"/>
       <c r="EJ9" s="7"/>
       <c r="EK9" s="7"/>
       <c r="EL9" s="7"/>
       <c r="EM9" s="7"/>
       <c r="EN9" s="7"/>
-      <c r="EO9" s="21"/>
-      <c r="EP9" s="21"/>
+      <c r="EO9" s="19"/>
+      <c r="EP9" s="19"/>
       <c r="EQ9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5449,10 +5467,10 @@
       <c r="EU9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="EV9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="EW9" s="20" t="s">
+      <c r="EV9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EW9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="EX9" s="8" t="s">
@@ -5470,215 +5488,215 @@
       <c r="FB9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="FC9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FD9" s="20" t="s">
+      <c r="FC9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FD9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="FE9" s="7"/>
       <c r="FF9" s="7"/>
       <c r="FG9" s="7"/>
-      <c r="FH9" s="7"/>
+      <c r="FH9" s="5"/>
       <c r="FI9" s="7"/>
-      <c r="FJ9" s="21"/>
-      <c r="FK9" s="21"/>
+      <c r="FJ9" s="19"/>
+      <c r="FK9" s="19"/>
       <c r="FL9" s="7"/>
       <c r="FM9" s="7"/>
       <c r="FN9" s="7"/>
       <c r="FO9" s="7"/>
       <c r="FP9" s="7"/>
-      <c r="FQ9" s="21"/>
-      <c r="FR9" s="21"/>
+      <c r="FQ9" s="19"/>
+      <c r="FR9" s="19"/>
       <c r="FS9" s="7"/>
       <c r="FT9" s="7"/>
       <c r="FU9" s="7"/>
       <c r="FV9" s="7"/>
       <c r="FW9" s="7"/>
-      <c r="FX9" s="21"/>
-      <c r="FY9" s="21"/>
+      <c r="FX9" s="19"/>
+      <c r="FY9" s="19"/>
       <c r="FZ9" s="7"/>
       <c r="GA9" s="7"/>
       <c r="GB9" s="7"/>
       <c r="GC9" s="7"/>
       <c r="GD9" s="7"/>
-      <c r="GE9" s="21"/>
-      <c r="GF9" s="21"/>
+      <c r="GE9" s="19"/>
+      <c r="GF9" s="19"/>
       <c r="GG9" s="7"/>
       <c r="GH9" s="7"/>
       <c r="GI9" s="7"/>
       <c r="GJ9" s="7"/>
       <c r="GK9" s="7"/>
-      <c r="GL9" s="21"/>
-      <c r="GM9" s="21"/>
+      <c r="GL9" s="19"/>
+      <c r="GM9" s="19"/>
       <c r="GN9" s="7"/>
       <c r="GO9" s="7"/>
       <c r="GP9" s="7"/>
       <c r="GQ9" s="7"/>
       <c r="GR9" s="7"/>
-      <c r="GS9" s="21"/>
-      <c r="GT9" s="21"/>
+      <c r="GS9" s="19"/>
+      <c r="GT9" s="19"/>
       <c r="GU9" s="7"/>
       <c r="GV9" s="7"/>
       <c r="GW9" s="7"/>
       <c r="GX9" s="7"/>
       <c r="GY9" s="7"/>
-      <c r="GZ9" s="21"/>
-      <c r="HA9" s="21"/>
+      <c r="GZ9" s="19"/>
+      <c r="HA9" s="19"/>
       <c r="HB9" s="7"/>
       <c r="HC9" s="7"/>
       <c r="HD9" s="7"/>
       <c r="HE9" s="7"/>
       <c r="HF9" s="7"/>
-      <c r="HG9" s="21"/>
-      <c r="HH9" s="21"/>
+      <c r="HG9" s="19"/>
+      <c r="HH9" s="19"/>
       <c r="HI9" s="7"/>
       <c r="HJ9" s="7"/>
       <c r="HK9" s="7"/>
       <c r="HL9" s="7"/>
       <c r="HM9" s="7"/>
-      <c r="HN9" s="21"/>
-      <c r="HO9" s="21"/>
+      <c r="HN9" s="19"/>
+      <c r="HO9" s="19"/>
       <c r="HP9" s="7"/>
       <c r="HQ9" s="7"/>
       <c r="HR9" s="7"/>
       <c r="HS9" s="7"/>
       <c r="HT9" s="7"/>
-      <c r="HU9" s="21"/>
-      <c r="HV9" s="21"/>
+      <c r="HU9" s="19"/>
+      <c r="HV9" s="19"/>
       <c r="HW9" s="7"/>
       <c r="HX9" s="7"/>
       <c r="HY9" s="7"/>
       <c r="HZ9" s="7"/>
       <c r="IA9" s="7"/>
-      <c r="IB9" s="21"/>
-      <c r="IC9" s="21"/>
+      <c r="IB9" s="19"/>
+      <c r="IC9" s="19"/>
       <c r="ID9" s="7"/>
       <c r="IE9" s="7"/>
       <c r="IF9" s="7"/>
       <c r="IG9" s="7"/>
       <c r="IH9" s="7"/>
-      <c r="II9" s="21"/>
-      <c r="IJ9" s="21"/>
+      <c r="II9" s="19"/>
+      <c r="IJ9" s="19"/>
       <c r="IK9" s="7"/>
       <c r="IL9" s="7"/>
       <c r="IM9" s="7"/>
       <c r="IN9" s="7"/>
       <c r="IO9" s="7"/>
-      <c r="IP9" s="21"/>
-      <c r="IQ9" s="21"/>
+      <c r="IP9" s="19"/>
+      <c r="IQ9" s="19"/>
       <c r="IR9" s="7"/>
       <c r="IS9" s="7"/>
       <c r="IT9" s="7"/>
       <c r="IU9" s="7"/>
       <c r="IV9" s="7"/>
-      <c r="IW9" s="21"/>
-      <c r="IX9" s="21"/>
+      <c r="IW9" s="19"/>
+      <c r="IX9" s="19"/>
       <c r="IY9" s="7"/>
       <c r="IZ9" s="7"/>
       <c r="JA9" s="7"/>
       <c r="JB9" s="7"/>
       <c r="JC9" s="7"/>
-      <c r="JD9" s="21"/>
-      <c r="JE9" s="21"/>
+      <c r="JD9" s="19"/>
+      <c r="JE9" s="19"/>
       <c r="JF9" s="7"/>
       <c r="JG9" s="7"/>
       <c r="JH9" s="7"/>
       <c r="JI9" s="7"/>
       <c r="JJ9" s="7"/>
-      <c r="JK9" s="21"/>
-      <c r="JL9" s="21"/>
+      <c r="JK9" s="19"/>
+      <c r="JL9" s="19"/>
       <c r="JM9" s="7"/>
       <c r="JN9" s="7"/>
       <c r="JO9" s="7"/>
       <c r="JP9" s="7"/>
       <c r="JQ9" s="7"/>
-      <c r="JR9" s="21"/>
-      <c r="JS9" s="21"/>
+      <c r="JR9" s="19"/>
+      <c r="JS9" s="19"/>
       <c r="JT9" s="7"/>
       <c r="JU9" s="7"/>
       <c r="JV9" s="7"/>
       <c r="JW9" s="7"/>
       <c r="JX9" s="7"/>
-      <c r="JY9" s="21"/>
-      <c r="JZ9" s="21"/>
+      <c r="JY9" s="19"/>
+      <c r="JZ9" s="19"/>
       <c r="KA9" s="7"/>
       <c r="KB9" s="7"/>
       <c r="KC9" s="7"/>
       <c r="KD9" s="7"/>
       <c r="KE9" s="7"/>
-      <c r="KF9" s="21"/>
-      <c r="KG9" s="21"/>
+      <c r="KF9" s="19"/>
+      <c r="KG9" s="19"/>
       <c r="KH9" s="7"/>
       <c r="KI9" s="7"/>
       <c r="KJ9" s="7"/>
       <c r="KK9" s="7"/>
       <c r="KL9" s="7"/>
-      <c r="KM9" s="21"/>
-      <c r="KN9" s="21"/>
+      <c r="KM9" s="19"/>
+      <c r="KN9" s="19"/>
       <c r="KO9" s="7"/>
       <c r="KP9" s="7"/>
       <c r="KQ9" s="7"/>
       <c r="KR9" s="7"/>
       <c r="KS9" s="7"/>
-      <c r="KT9" s="21"/>
-      <c r="KU9" s="21"/>
+      <c r="KT9" s="19"/>
+      <c r="KU9" s="19"/>
       <c r="KV9" s="7"/>
       <c r="KW9" s="7"/>
       <c r="KX9" s="7"/>
       <c r="KY9" s="7"/>
       <c r="KZ9" s="7"/>
-      <c r="LA9" s="21"/>
-      <c r="LB9" s="21"/>
+      <c r="LA9" s="19"/>
+      <c r="LB9" s="19"/>
       <c r="LC9" s="7"/>
       <c r="LD9" s="7"/>
       <c r="LE9" s="7"/>
       <c r="LF9" s="7"/>
       <c r="LG9" s="7"/>
-      <c r="LH9" s="21"/>
-      <c r="LI9" s="21"/>
+      <c r="LH9" s="19"/>
+      <c r="LI9" s="19"/>
       <c r="LJ9" s="7"/>
       <c r="LK9" s="7"/>
       <c r="LL9" s="7"/>
       <c r="LM9" s="7"/>
       <c r="LN9" s="7"/>
-      <c r="LO9" s="21"/>
-      <c r="LP9" s="21"/>
+      <c r="LO9" s="19"/>
+      <c r="LP9" s="19"/>
       <c r="LQ9" s="7"/>
       <c r="LR9" s="7"/>
       <c r="LS9" s="7"/>
       <c r="LT9" s="7"/>
       <c r="LU9" s="7"/>
-      <c r="LV9" s="21"/>
-      <c r="LW9" s="21"/>
+      <c r="LV9" s="19"/>
+      <c r="LW9" s="19"/>
       <c r="LX9" s="7"/>
       <c r="LY9" s="7"/>
       <c r="LZ9" s="7"/>
       <c r="MA9" s="7"/>
       <c r="MB9" s="7"/>
-      <c r="MC9" s="21"/>
-      <c r="MD9" s="21"/>
+      <c r="MC9" s="19"/>
+      <c r="MD9" s="19"/>
       <c r="ME9" s="7"/>
       <c r="MF9" s="7"/>
       <c r="MG9" s="7"/>
       <c r="MH9" s="7"/>
       <c r="MI9" s="7"/>
-      <c r="MJ9" s="21"/>
-      <c r="MK9" s="21"/>
+      <c r="MJ9" s="19"/>
+      <c r="MK9" s="19"/>
       <c r="ML9" s="7"/>
       <c r="MM9" s="7"/>
       <c r="MN9" s="7"/>
       <c r="MO9" s="7"/>
       <c r="MP9" s="7"/>
-      <c r="MQ9" s="21"/>
-      <c r="MR9" s="21"/>
+      <c r="MQ9" s="19"/>
+      <c r="MR9" s="19"/>
       <c r="MS9" s="7"/>
       <c r="MT9" s="7"/>
       <c r="MU9" s="7"/>
       <c r="MV9" s="7"/>
       <c r="MW9" s="7"/>
-      <c r="MX9" s="21"/>
-      <c r="MY9" s="21"/>
+      <c r="MX9" s="19"/>
+      <c r="MY9" s="19"/>
       <c r="MZ9" s="7"/>
       <c r="NA9" s="7"/>
       <c r="NB9" s="7"/>
@@ -5767,288 +5785,288 @@
       <c r="CA10" s="1"/>
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="19"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
       <c r="CJ10" s="1"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
+      <c r="CK10" s="19"/>
+      <c r="CL10" s="19"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
       <c r="CQ10" s="1"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
+      <c r="CR10" s="19"/>
+      <c r="CS10" s="19"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
       <c r="CX10" s="1"/>
-      <c r="CY10" s="21"/>
-      <c r="CZ10" s="21"/>
+      <c r="CY10" s="19"/>
+      <c r="CZ10" s="19"/>
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
       <c r="DC10" s="1"/>
       <c r="DD10" s="1"/>
       <c r="DE10" s="1"/>
-      <c r="DF10" s="21"/>
-      <c r="DG10" s="21"/>
+      <c r="DF10" s="19"/>
+      <c r="DG10" s="19"/>
       <c r="DH10" s="1"/>
       <c r="DI10" s="1"/>
       <c r="DJ10" s="1"/>
       <c r="DK10" s="1"/>
       <c r="DL10" s="1"/>
-      <c r="DM10" s="21"/>
-      <c r="DN10" s="21"/>
+      <c r="DM10" s="19"/>
+      <c r="DN10" s="19"/>
       <c r="DO10" s="1"/>
       <c r="DP10" s="1"/>
       <c r="DQ10" s="1"/>
       <c r="DR10" s="1"/>
       <c r="DS10" s="1"/>
-      <c r="DT10" s="21"/>
-      <c r="DU10" s="21"/>
+      <c r="DT10" s="19"/>
+      <c r="DU10" s="19"/>
       <c r="DV10" s="1"/>
       <c r="DW10" s="1"/>
       <c r="DX10" s="1"/>
       <c r="DY10" s="1"/>
       <c r="DZ10" s="1"/>
-      <c r="EA10" s="21"/>
-      <c r="EB10" s="21"/>
+      <c r="EA10" s="19"/>
+      <c r="EB10" s="19"/>
       <c r="EC10" s="1"/>
       <c r="ED10" s="1"/>
       <c r="EE10" s="1"/>
       <c r="EF10" s="1"/>
       <c r="EG10" s="1"/>
-      <c r="EH10" s="21"/>
-      <c r="EI10" s="21"/>
+      <c r="EH10" s="19"/>
+      <c r="EI10" s="19"/>
       <c r="EJ10" s="1"/>
       <c r="EK10" s="1"/>
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="21"/>
-      <c r="EP10" s="21"/>
+      <c r="EO10" s="19"/>
+      <c r="EP10" s="19"/>
       <c r="EQ10" s="1"/>
       <c r="ER10" s="1"/>
       <c r="ES10" s="1"/>
       <c r="ET10" s="1"/>
       <c r="EU10" s="1"/>
-      <c r="EV10" s="21"/>
-      <c r="EW10" s="21"/>
+      <c r="EV10" s="19"/>
+      <c r="EW10" s="19"/>
       <c r="EX10" s="1"/>
       <c r="EY10" s="1"/>
       <c r="EZ10" s="1"/>
       <c r="FA10" s="1"/>
       <c r="FB10" s="1"/>
-      <c r="FC10" s="21"/>
-      <c r="FD10" s="21"/>
+      <c r="FC10" s="19"/>
+      <c r="FD10" s="19"/>
       <c r="FE10" s="1"/>
       <c r="FF10" s="1"/>
       <c r="FG10" s="1"/>
-      <c r="FH10" s="1"/>
+      <c r="FH10" s="5"/>
       <c r="FI10" s="1"/>
-      <c r="FJ10" s="21"/>
-      <c r="FK10" s="21"/>
+      <c r="FJ10" s="19"/>
+      <c r="FK10" s="19"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
       <c r="FN10" s="1"/>
       <c r="FO10" s="1"/>
       <c r="FP10" s="1"/>
-      <c r="FQ10" s="21"/>
-      <c r="FR10" s="21"/>
+      <c r="FQ10" s="19"/>
+      <c r="FR10" s="19"/>
       <c r="FS10" s="1"/>
       <c r="FT10" s="1"/>
       <c r="FU10" s="1"/>
       <c r="FV10" s="1"/>
       <c r="FW10" s="1"/>
-      <c r="FX10" s="21"/>
-      <c r="FY10" s="21"/>
+      <c r="FX10" s="19"/>
+      <c r="FY10" s="19"/>
       <c r="FZ10" s="1"/>
       <c r="GA10" s="1"/>
       <c r="GB10" s="1"/>
       <c r="GC10" s="1"/>
       <c r="GD10" s="1"/>
-      <c r="GE10" s="21"/>
-      <c r="GF10" s="21"/>
+      <c r="GE10" s="19"/>
+      <c r="GF10" s="19"/>
       <c r="GG10" s="1"/>
       <c r="GH10" s="1"/>
       <c r="GI10" s="1"/>
       <c r="GJ10" s="1"/>
       <c r="GK10" s="1"/>
-      <c r="GL10" s="21"/>
-      <c r="GM10" s="21"/>
+      <c r="GL10" s="19"/>
+      <c r="GM10" s="19"/>
       <c r="GN10" s="1"/>
       <c r="GO10" s="1"/>
       <c r="GP10" s="1"/>
       <c r="GQ10" s="1"/>
       <c r="GR10" s="1"/>
-      <c r="GS10" s="21"/>
-      <c r="GT10" s="21"/>
+      <c r="GS10" s="19"/>
+      <c r="GT10" s="19"/>
       <c r="GU10" s="1"/>
       <c r="GV10" s="1"/>
       <c r="GW10" s="1"/>
       <c r="GX10" s="1"/>
       <c r="GY10" s="1"/>
-      <c r="GZ10" s="21"/>
-      <c r="HA10" s="21"/>
+      <c r="GZ10" s="19"/>
+      <c r="HA10" s="19"/>
       <c r="HB10" s="1"/>
       <c r="HC10" s="1"/>
       <c r="HD10" s="1"/>
       <c r="HE10" s="1"/>
       <c r="HF10" s="1"/>
-      <c r="HG10" s="21"/>
-      <c r="HH10" s="21"/>
+      <c r="HG10" s="19"/>
+      <c r="HH10" s="19"/>
       <c r="HI10" s="1"/>
       <c r="HJ10" s="1"/>
       <c r="HK10" s="1"/>
       <c r="HL10" s="1"/>
       <c r="HM10" s="1"/>
-      <c r="HN10" s="21"/>
-      <c r="HO10" s="21"/>
+      <c r="HN10" s="19"/>
+      <c r="HO10" s="19"/>
       <c r="HP10" s="1"/>
       <c r="HQ10" s="1"/>
       <c r="HR10" s="1"/>
       <c r="HS10" s="1"/>
       <c r="HT10" s="1"/>
-      <c r="HU10" s="21"/>
-      <c r="HV10" s="21"/>
+      <c r="HU10" s="19"/>
+      <c r="HV10" s="19"/>
       <c r="HW10" s="1"/>
       <c r="HX10" s="1"/>
       <c r="HY10" s="1"/>
       <c r="HZ10" s="1"/>
       <c r="IA10" s="1"/>
-      <c r="IB10" s="21"/>
-      <c r="IC10" s="21"/>
+      <c r="IB10" s="19"/>
+      <c r="IC10" s="19"/>
       <c r="ID10" s="1"/>
       <c r="IE10" s="1"/>
       <c r="IF10" s="1"/>
       <c r="IG10" s="1"/>
       <c r="IH10" s="1"/>
-      <c r="II10" s="21"/>
-      <c r="IJ10" s="21"/>
+      <c r="II10" s="19"/>
+      <c r="IJ10" s="19"/>
       <c r="IK10" s="1"/>
       <c r="IL10" s="1"/>
       <c r="IM10" s="1"/>
       <c r="IN10" s="1"/>
       <c r="IO10" s="1"/>
-      <c r="IP10" s="21"/>
-      <c r="IQ10" s="21"/>
+      <c r="IP10" s="19"/>
+      <c r="IQ10" s="19"/>
       <c r="IR10" s="1"/>
       <c r="IS10" s="1"/>
       <c r="IT10" s="1"/>
       <c r="IU10" s="1"/>
       <c r="IV10" s="1"/>
-      <c r="IW10" s="21"/>
-      <c r="IX10" s="21"/>
+      <c r="IW10" s="19"/>
+      <c r="IX10" s="19"/>
       <c r="IY10" s="1"/>
       <c r="IZ10" s="1"/>
       <c r="JA10" s="1"/>
       <c r="JB10" s="1"/>
       <c r="JC10" s="1"/>
-      <c r="JD10" s="21"/>
-      <c r="JE10" s="21"/>
+      <c r="JD10" s="19"/>
+      <c r="JE10" s="19"/>
       <c r="JF10" s="1"/>
       <c r="JG10" s="1"/>
       <c r="JH10" s="1"/>
       <c r="JI10" s="1"/>
       <c r="JJ10" s="1"/>
-      <c r="JK10" s="21"/>
-      <c r="JL10" s="21"/>
+      <c r="JK10" s="19"/>
+      <c r="JL10" s="19"/>
       <c r="JM10" s="1"/>
       <c r="JN10" s="1"/>
       <c r="JO10" s="1"/>
       <c r="JP10" s="1"/>
       <c r="JQ10" s="1"/>
-      <c r="JR10" s="21"/>
-      <c r="JS10" s="21"/>
+      <c r="JR10" s="19"/>
+      <c r="JS10" s="19"/>
       <c r="JT10" s="1"/>
       <c r="JU10" s="1"/>
       <c r="JV10" s="1"/>
       <c r="JW10" s="1"/>
       <c r="JX10" s="1"/>
-      <c r="JY10" s="21"/>
-      <c r="JZ10" s="21"/>
+      <c r="JY10" s="19"/>
+      <c r="JZ10" s="19"/>
       <c r="KA10" s="1"/>
       <c r="KB10" s="1"/>
       <c r="KC10" s="1"/>
       <c r="KD10" s="1"/>
       <c r="KE10" s="1"/>
-      <c r="KF10" s="21"/>
-      <c r="KG10" s="21"/>
+      <c r="KF10" s="19"/>
+      <c r="KG10" s="19"/>
       <c r="KH10" s="1"/>
       <c r="KI10" s="1"/>
       <c r="KJ10" s="1"/>
       <c r="KK10" s="1"/>
       <c r="KL10" s="1"/>
-      <c r="KM10" s="21"/>
-      <c r="KN10" s="21"/>
+      <c r="KM10" s="19"/>
+      <c r="KN10" s="19"/>
       <c r="KO10" s="1"/>
       <c r="KP10" s="1"/>
       <c r="KQ10" s="1"/>
       <c r="KR10" s="1"/>
       <c r="KS10" s="1"/>
-      <c r="KT10" s="21"/>
-      <c r="KU10" s="21"/>
+      <c r="KT10" s="19"/>
+      <c r="KU10" s="19"/>
       <c r="KV10" s="1"/>
       <c r="KW10" s="1"/>
       <c r="KX10" s="1"/>
       <c r="KY10" s="1"/>
       <c r="KZ10" s="1"/>
-      <c r="LA10" s="21"/>
-      <c r="LB10" s="21"/>
+      <c r="LA10" s="19"/>
+      <c r="LB10" s="19"/>
       <c r="LC10" s="1"/>
       <c r="LD10" s="1"/>
       <c r="LE10" s="1"/>
       <c r="LF10" s="1"/>
       <c r="LG10" s="1"/>
-      <c r="LH10" s="21"/>
-      <c r="LI10" s="21"/>
+      <c r="LH10" s="19"/>
+      <c r="LI10" s="19"/>
       <c r="LJ10" s="1"/>
       <c r="LK10" s="1"/>
       <c r="LL10" s="1"/>
       <c r="LM10" s="1"/>
       <c r="LN10" s="1"/>
-      <c r="LO10" s="21"/>
-      <c r="LP10" s="21"/>
+      <c r="LO10" s="19"/>
+      <c r="LP10" s="19"/>
       <c r="LQ10" s="1"/>
       <c r="LR10" s="1"/>
       <c r="LS10" s="1"/>
       <c r="LT10" s="1"/>
       <c r="LU10" s="1"/>
-      <c r="LV10" s="21"/>
-      <c r="LW10" s="21"/>
+      <c r="LV10" s="19"/>
+      <c r="LW10" s="19"/>
       <c r="LX10" s="1"/>
       <c r="LY10" s="1"/>
       <c r="LZ10" s="1"/>
       <c r="MA10" s="1"/>
       <c r="MB10" s="1"/>
-      <c r="MC10" s="21"/>
-      <c r="MD10" s="21"/>
+      <c r="MC10" s="19"/>
+      <c r="MD10" s="19"/>
       <c r="ME10" s="1"/>
       <c r="MF10" s="1"/>
       <c r="MG10" s="1"/>
       <c r="MH10" s="1"/>
       <c r="MI10" s="1"/>
-      <c r="MJ10" s="21"/>
-      <c r="MK10" s="21"/>
+      <c r="MJ10" s="19"/>
+      <c r="MK10" s="19"/>
       <c r="ML10" s="1"/>
       <c r="MM10" s="1"/>
       <c r="MN10" s="1"/>
       <c r="MO10" s="1"/>
       <c r="MP10" s="1"/>
-      <c r="MQ10" s="21"/>
-      <c r="MR10" s="21"/>
+      <c r="MQ10" s="19"/>
+      <c r="MR10" s="19"/>
       <c r="MS10" s="1"/>
       <c r="MT10" s="1"/>
       <c r="MU10" s="1"/>
       <c r="MV10" s="1"/>
       <c r="MW10" s="1"/>
-      <c r="MX10" s="21"/>
-      <c r="MY10" s="21"/>
+      <c r="MX10" s="19"/>
+      <c r="MY10" s="19"/>
       <c r="MZ10" s="1"/>
       <c r="NA10" s="1"/>
       <c r="NB10" s="1"/>
@@ -6137,29 +6155,29 @@
       <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
       <c r="CC11" s="7"/>
-      <c r="CD11" s="21"/>
-      <c r="CE11" s="21"/>
+      <c r="CD11" s="19"/>
+      <c r="CE11" s="19"/>
       <c r="CF11" s="7"/>
       <c r="CG11" s="7"/>
       <c r="CH11" s="7"/>
       <c r="CI11" s="7"/>
       <c r="CJ11" s="7"/>
-      <c r="CK11" s="21"/>
-      <c r="CL11" s="21"/>
+      <c r="CK11" s="19"/>
+      <c r="CL11" s="19"/>
       <c r="CM11" s="7"/>
       <c r="CN11" s="7"/>
       <c r="CO11" s="7"/>
       <c r="CP11" s="7"/>
       <c r="CQ11" s="7"/>
-      <c r="CR11" s="21"/>
-      <c r="CS11" s="21"/>
+      <c r="CR11" s="19"/>
+      <c r="CS11" s="19"/>
       <c r="CT11" s="7"/>
       <c r="CU11" s="7"/>
       <c r="CV11" s="7"/>
       <c r="CW11" s="7"/>
       <c r="CX11" s="7"/>
-      <c r="CY11" s="21"/>
-      <c r="CZ11" s="21"/>
+      <c r="CY11" s="19"/>
+      <c r="CZ11" s="19"/>
       <c r="DA11" s="7"/>
       <c r="DB11" s="7"/>
       <c r="DC11" s="7"/>
@@ -6167,22 +6185,22 @@
       <c r="DE11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DF11" s="21"/>
-      <c r="DG11" s="21"/>
+      <c r="DF11" s="19"/>
+      <c r="DG11" s="19"/>
       <c r="DH11" s="7"/>
       <c r="DI11" s="7"/>
       <c r="DJ11" s="7"/>
       <c r="DK11" s="7"/>
       <c r="DL11" s="7"/>
-      <c r="DM11" s="21"/>
-      <c r="DN11" s="21"/>
+      <c r="DM11" s="19"/>
+      <c r="DN11" s="19"/>
       <c r="DO11" s="7"/>
       <c r="DP11" s="7"/>
       <c r="DQ11" s="7"/>
       <c r="DR11" s="7"/>
       <c r="DS11" s="7"/>
-      <c r="DT11" s="21"/>
-      <c r="DU11" s="21"/>
+      <c r="DT11" s="19"/>
+      <c r="DU11" s="19"/>
       <c r="DV11" s="8" t="s">
         <v>13</v>
       </c>
@@ -6196,57 +6214,57 @@
         <v>13</v>
       </c>
       <c r="DZ11" s="7"/>
-      <c r="EA11" s="21"/>
-      <c r="EB11" s="21"/>
+      <c r="EA11" s="19"/>
+      <c r="EB11" s="19"/>
       <c r="EC11" s="7"/>
       <c r="ED11" s="7"/>
       <c r="EE11" s="7"/>
       <c r="EF11" s="7"/>
       <c r="EG11" s="7"/>
-      <c r="EH11" s="21"/>
-      <c r="EI11" s="21"/>
+      <c r="EH11" s="19"/>
+      <c r="EI11" s="19"/>
       <c r="EJ11" s="7"/>
       <c r="EK11" s="7"/>
       <c r="EL11" s="7"/>
       <c r="EM11" s="7"/>
       <c r="EN11" s="7"/>
-      <c r="EO11" s="21"/>
-      <c r="EP11" s="21"/>
+      <c r="EO11" s="19"/>
+      <c r="EP11" s="19"/>
       <c r="EQ11" s="7"/>
       <c r="ER11" s="7"/>
       <c r="ES11" s="7"/>
       <c r="ET11" s="7"/>
       <c r="EU11" s="7"/>
-      <c r="EV11" s="21"/>
-      <c r="EW11" s="21"/>
+      <c r="EV11" s="19"/>
+      <c r="EW11" s="19"/>
       <c r="EX11" s="7"/>
       <c r="EY11" s="7"/>
       <c r="EZ11" s="7"/>
       <c r="FA11" s="7"/>
       <c r="FB11" s="7"/>
-      <c r="FC11" s="21"/>
-      <c r="FD11" s="21"/>
+      <c r="FC11" s="19"/>
+      <c r="FD11" s="19"/>
       <c r="FE11" s="7"/>
       <c r="FF11" s="7"/>
       <c r="FG11" s="7"/>
-      <c r="FH11" s="7"/>
+      <c r="FH11" s="5"/>
       <c r="FI11" s="7"/>
-      <c r="FJ11" s="21"/>
-      <c r="FK11" s="21"/>
+      <c r="FJ11" s="19"/>
+      <c r="FK11" s="19"/>
       <c r="FL11" s="7"/>
       <c r="FM11" s="7"/>
       <c r="FN11" s="7"/>
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
-      <c r="FQ11" s="21"/>
-      <c r="FR11" s="21"/>
+      <c r="FQ11" s="19"/>
+      <c r="FR11" s="19"/>
       <c r="FS11" s="7"/>
       <c r="FT11" s="7"/>
       <c r="FU11" s="7"/>
       <c r="FV11" s="7"/>
       <c r="FW11" s="7"/>
-      <c r="FX11" s="21"/>
-      <c r="FY11" s="21"/>
+      <c r="FX11" s="19"/>
+      <c r="FY11" s="19"/>
       <c r="FZ11" s="7"/>
       <c r="GA11" s="8" t="s">
         <v>13</v>
@@ -6260,10 +6278,10 @@
       <c r="GD11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="GE11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="GF11" s="20" t="s">
+      <c r="GE11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GF11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="GG11" s="8" t="s">
@@ -6277,64 +6295,64 @@
       </c>
       <c r="GJ11" s="7"/>
       <c r="GK11" s="7"/>
-      <c r="GL11" s="21"/>
-      <c r="GM11" s="21"/>
+      <c r="GL11" s="19"/>
+      <c r="GM11" s="19"/>
       <c r="GN11" s="7"/>
       <c r="GO11" s="7"/>
       <c r="GP11" s="7"/>
       <c r="GQ11" s="7"/>
       <c r="GR11" s="7"/>
-      <c r="GS11" s="21"/>
-      <c r="GT11" s="21"/>
+      <c r="GS11" s="19"/>
+      <c r="GT11" s="19"/>
       <c r="GU11" s="7"/>
       <c r="GV11" s="7"/>
       <c r="GW11" s="7"/>
       <c r="GX11" s="7"/>
       <c r="GY11" s="7"/>
-      <c r="GZ11" s="21"/>
-      <c r="HA11" s="21"/>
+      <c r="GZ11" s="19"/>
+      <c r="HA11" s="19"/>
       <c r="HB11" s="7"/>
       <c r="HC11" s="7"/>
       <c r="HD11" s="7"/>
       <c r="HE11" s="7"/>
       <c r="HF11" s="7"/>
-      <c r="HG11" s="21"/>
-      <c r="HH11" s="21"/>
+      <c r="HG11" s="19"/>
+      <c r="HH11" s="19"/>
       <c r="HI11" s="7"/>
       <c r="HJ11" s="7"/>
       <c r="HK11" s="7"/>
       <c r="HL11" s="7"/>
       <c r="HM11" s="7"/>
-      <c r="HN11" s="21"/>
-      <c r="HO11" s="21"/>
+      <c r="HN11" s="19"/>
+      <c r="HO11" s="19"/>
       <c r="HP11" s="7"/>
       <c r="HQ11" s="7"/>
       <c r="HR11" s="7"/>
       <c r="HS11" s="7"/>
       <c r="HT11" s="7"/>
-      <c r="HU11" s="21"/>
-      <c r="HV11" s="21"/>
+      <c r="HU11" s="19"/>
+      <c r="HV11" s="19"/>
       <c r="HW11" s="7"/>
       <c r="HX11" s="7"/>
       <c r="HY11" s="7"/>
       <c r="HZ11" s="7"/>
       <c r="IA11" s="7"/>
-      <c r="IB11" s="21"/>
-      <c r="IC11" s="21"/>
+      <c r="IB11" s="19"/>
+      <c r="IC11" s="19"/>
       <c r="ID11" s="7"/>
       <c r="IE11" s="7"/>
       <c r="IF11" s="7"/>
       <c r="IG11" s="7"/>
       <c r="IH11" s="7"/>
-      <c r="II11" s="21"/>
-      <c r="IJ11" s="21"/>
+      <c r="II11" s="19"/>
+      <c r="IJ11" s="19"/>
       <c r="IK11" s="7"/>
       <c r="IL11" s="7"/>
       <c r="IM11" s="7"/>
       <c r="IN11" s="7"/>
       <c r="IO11" s="7"/>
-      <c r="IP11" s="21"/>
-      <c r="IQ11" s="21"/>
+      <c r="IP11" s="19"/>
+      <c r="IQ11" s="19"/>
       <c r="IR11" s="8" t="s">
         <v>13</v>
       </c>
@@ -6350,10 +6368,10 @@
       <c r="IV11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="IW11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="IX11" s="20" t="s">
+      <c r="IW11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IX11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="IY11" s="7"/>
@@ -6361,106 +6379,106 @@
       <c r="JA11" s="7"/>
       <c r="JB11" s="7"/>
       <c r="JC11" s="7"/>
-      <c r="JD11" s="21"/>
-      <c r="JE11" s="21"/>
+      <c r="JD11" s="19"/>
+      <c r="JE11" s="19"/>
       <c r="JF11" s="7"/>
       <c r="JG11" s="7"/>
       <c r="JH11" s="7"/>
       <c r="JI11" s="7"/>
       <c r="JJ11" s="7"/>
-      <c r="JK11" s="21"/>
-      <c r="JL11" s="21"/>
+      <c r="JK11" s="19"/>
+      <c r="JL11" s="19"/>
       <c r="JM11" s="7"/>
       <c r="JN11" s="7"/>
       <c r="JO11" s="7"/>
       <c r="JP11" s="7"/>
       <c r="JQ11" s="7"/>
-      <c r="JR11" s="21"/>
-      <c r="JS11" s="21"/>
+      <c r="JR11" s="19"/>
+      <c r="JS11" s="19"/>
       <c r="JT11" s="7"/>
       <c r="JU11" s="7"/>
       <c r="JV11" s="7"/>
       <c r="JW11" s="7"/>
       <c r="JX11" s="7"/>
-      <c r="JY11" s="21"/>
-      <c r="JZ11" s="21"/>
+      <c r="JY11" s="19"/>
+      <c r="JZ11" s="19"/>
       <c r="KA11" s="7"/>
       <c r="KB11" s="7"/>
       <c r="KC11" s="7"/>
       <c r="KD11" s="7"/>
       <c r="KE11" s="7"/>
-      <c r="KF11" s="21"/>
-      <c r="KG11" s="21"/>
+      <c r="KF11" s="19"/>
+      <c r="KG11" s="19"/>
       <c r="KH11" s="7"/>
       <c r="KI11" s="7"/>
       <c r="KJ11" s="7"/>
       <c r="KK11" s="7"/>
       <c r="KL11" s="7"/>
-      <c r="KM11" s="21"/>
-      <c r="KN11" s="21"/>
+      <c r="KM11" s="19"/>
+      <c r="KN11" s="19"/>
       <c r="KO11" s="7"/>
       <c r="KP11" s="7"/>
       <c r="KQ11" s="7"/>
       <c r="KR11" s="7"/>
       <c r="KS11" s="7"/>
-      <c r="KT11" s="21"/>
-      <c r="KU11" s="21"/>
+      <c r="KT11" s="19"/>
+      <c r="KU11" s="19"/>
       <c r="KV11" s="7"/>
       <c r="KW11" s="7"/>
       <c r="KX11" s="7"/>
       <c r="KY11" s="7"/>
       <c r="KZ11" s="7"/>
-      <c r="LA11" s="21"/>
-      <c r="LB11" s="21"/>
+      <c r="LA11" s="19"/>
+      <c r="LB11" s="19"/>
       <c r="LC11" s="7"/>
       <c r="LD11" s="7"/>
       <c r="LE11" s="7"/>
       <c r="LF11" s="7"/>
       <c r="LG11" s="7"/>
-      <c r="LH11" s="21"/>
-      <c r="LI11" s="21"/>
+      <c r="LH11" s="19"/>
+      <c r="LI11" s="19"/>
       <c r="LJ11" s="7"/>
       <c r="LK11" s="7"/>
       <c r="LL11" s="7"/>
       <c r="LM11" s="7"/>
       <c r="LN11" s="7"/>
-      <c r="LO11" s="21"/>
-      <c r="LP11" s="21"/>
+      <c r="LO11" s="19"/>
+      <c r="LP11" s="19"/>
       <c r="LQ11" s="7"/>
       <c r="LR11" s="7"/>
       <c r="LS11" s="7"/>
       <c r="LT11" s="7"/>
       <c r="LU11" s="7"/>
-      <c r="LV11" s="21"/>
-      <c r="LW11" s="21"/>
+      <c r="LV11" s="19"/>
+      <c r="LW11" s="19"/>
       <c r="LX11" s="7"/>
       <c r="LY11" s="7"/>
       <c r="LZ11" s="7"/>
       <c r="MA11" s="7"/>
       <c r="MB11" s="7"/>
-      <c r="MC11" s="21"/>
-      <c r="MD11" s="21"/>
+      <c r="MC11" s="19"/>
+      <c r="MD11" s="19"/>
       <c r="ME11" s="7"/>
       <c r="MF11" s="7"/>
       <c r="MG11" s="7"/>
       <c r="MH11" s="7"/>
       <c r="MI11" s="7"/>
-      <c r="MJ11" s="21"/>
-      <c r="MK11" s="21"/>
+      <c r="MJ11" s="19"/>
+      <c r="MK11" s="19"/>
       <c r="ML11" s="7"/>
       <c r="MM11" s="7"/>
       <c r="MN11" s="7"/>
       <c r="MO11" s="7"/>
       <c r="MP11" s="7"/>
-      <c r="MQ11" s="21"/>
-      <c r="MR11" s="21"/>
+      <c r="MQ11" s="19"/>
+      <c r="MR11" s="19"/>
       <c r="MS11" s="7"/>
       <c r="MT11" s="7"/>
       <c r="MU11" s="7"/>
       <c r="MV11" s="7"/>
       <c r="MW11" s="7"/>
-      <c r="MX11" s="21"/>
-      <c r="MY11" s="21"/>
+      <c r="MX11" s="19"/>
+      <c r="MY11" s="19"/>
       <c r="MZ11" s="7"/>
       <c r="NA11" s="7"/>
       <c r="NB11" s="8" t="s">
@@ -6551,155 +6569,155 @@
       <c r="CA12" s="1"/>
       <c r="CB12" s="1"/>
       <c r="CC12" s="1"/>
-      <c r="CD12" s="21"/>
-      <c r="CE12" s="21"/>
+      <c r="CD12" s="19"/>
+      <c r="CE12" s="19"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
       <c r="CJ12" s="1"/>
-      <c r="CK12" s="21"/>
-      <c r="CL12" s="21"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1"/>
-      <c r="CR12" s="21"/>
-      <c r="CS12" s="21"/>
+      <c r="CR12" s="19"/>
+      <c r="CS12" s="19"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
       <c r="CW12" s="1"/>
       <c r="CX12" s="1"/>
-      <c r="CY12" s="21"/>
-      <c r="CZ12" s="21"/>
+      <c r="CY12" s="19"/>
+      <c r="CZ12" s="19"/>
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
       <c r="DD12" s="1"/>
       <c r="DE12" s="1"/>
-      <c r="DF12" s="21"/>
-      <c r="DG12" s="21"/>
+      <c r="DF12" s="19"/>
+      <c r="DG12" s="19"/>
       <c r="DH12" s="1"/>
       <c r="DI12" s="1"/>
       <c r="DJ12" s="1"/>
       <c r="DK12" s="1"/>
       <c r="DL12" s="1"/>
-      <c r="DM12" s="21"/>
-      <c r="DN12" s="21"/>
+      <c r="DM12" s="19"/>
+      <c r="DN12" s="19"/>
       <c r="DO12" s="1"/>
       <c r="DP12" s="1"/>
       <c r="DQ12" s="1"/>
       <c r="DR12" s="1"/>
       <c r="DS12" s="1"/>
-      <c r="DT12" s="21"/>
-      <c r="DU12" s="21"/>
+      <c r="DT12" s="19"/>
+      <c r="DU12" s="19"/>
       <c r="DV12" s="1"/>
       <c r="DW12" s="1"/>
       <c r="DX12" s="1"/>
       <c r="DY12" s="1"/>
       <c r="DZ12" s="1"/>
-      <c r="EA12" s="21"/>
-      <c r="EB12" s="21"/>
+      <c r="EA12" s="19"/>
+      <c r="EB12" s="19"/>
       <c r="EC12" s="1"/>
       <c r="ED12" s="1"/>
       <c r="EE12" s="1"/>
       <c r="EF12" s="1"/>
       <c r="EG12" s="1"/>
-      <c r="EH12" s="21"/>
-      <c r="EI12" s="21"/>
+      <c r="EH12" s="19"/>
+      <c r="EI12" s="19"/>
       <c r="EJ12" s="1"/>
       <c r="EK12" s="1"/>
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="21"/>
-      <c r="EP12" s="21"/>
+      <c r="EO12" s="19"/>
+      <c r="EP12" s="19"/>
       <c r="EQ12" s="1"/>
       <c r="ER12" s="1"/>
       <c r="ES12" s="1"/>
       <c r="ET12" s="1"/>
       <c r="EU12" s="1"/>
-      <c r="EV12" s="21"/>
-      <c r="EW12" s="21"/>
+      <c r="EV12" s="19"/>
+      <c r="EW12" s="19"/>
       <c r="EX12" s="1"/>
       <c r="EY12" s="1"/>
       <c r="EZ12" s="1"/>
       <c r="FA12" s="1"/>
       <c r="FB12" s="1"/>
-      <c r="FC12" s="21"/>
-      <c r="FD12" s="21"/>
+      <c r="FC12" s="19"/>
+      <c r="FD12" s="19"/>
       <c r="FE12" s="1"/>
       <c r="FF12" s="1"/>
       <c r="FG12" s="1"/>
-      <c r="FH12" s="1"/>
+      <c r="FH12" s="5"/>
       <c r="FI12" s="1"/>
-      <c r="FJ12" s="21"/>
-      <c r="FK12" s="21"/>
+      <c r="FJ12" s="19"/>
+      <c r="FK12" s="19"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
       <c r="FN12" s="1"/>
       <c r="FO12" s="1"/>
       <c r="FP12" s="1"/>
-      <c r="FQ12" s="21"/>
-      <c r="FR12" s="21"/>
+      <c r="FQ12" s="19"/>
+      <c r="FR12" s="19"/>
       <c r="FS12" s="1"/>
       <c r="FT12" s="1"/>
       <c r="FU12" s="1"/>
       <c r="FV12" s="1"/>
       <c r="FW12" s="1"/>
-      <c r="FX12" s="21"/>
-      <c r="FY12" s="21"/>
+      <c r="FX12" s="19"/>
+      <c r="FY12" s="19"/>
       <c r="FZ12" s="1"/>
       <c r="GA12" s="1"/>
       <c r="GB12" s="1"/>
       <c r="GC12" s="1"/>
       <c r="GD12" s="1"/>
-      <c r="GE12" s="21"/>
-      <c r="GF12" s="21"/>
+      <c r="GE12" s="19"/>
+      <c r="GF12" s="19"/>
       <c r="GG12" s="1"/>
       <c r="GH12" s="1"/>
       <c r="GI12" s="1"/>
       <c r="GJ12" s="1"/>
       <c r="GK12" s="1"/>
-      <c r="GL12" s="21"/>
-      <c r="GM12" s="21"/>
+      <c r="GL12" s="19"/>
+      <c r="GM12" s="19"/>
       <c r="GN12" s="1"/>
       <c r="GO12" s="1"/>
       <c r="GP12" s="1"/>
       <c r="GQ12" s="1"/>
       <c r="GR12" s="1"/>
-      <c r="GS12" s="21"/>
-      <c r="GT12" s="21"/>
+      <c r="GS12" s="19"/>
+      <c r="GT12" s="19"/>
       <c r="GU12" s="1"/>
       <c r="GV12" s="1"/>
       <c r="GW12" s="1"/>
       <c r="GX12" s="1"/>
       <c r="GY12" s="1"/>
-      <c r="GZ12" s="21"/>
-      <c r="HA12" s="21"/>
+      <c r="GZ12" s="19"/>
+      <c r="HA12" s="19"/>
       <c r="HB12" s="1"/>
       <c r="HC12" s="1"/>
       <c r="HD12" s="1"/>
       <c r="HE12" s="1"/>
       <c r="HF12" s="1"/>
-      <c r="HG12" s="21"/>
-      <c r="HH12" s="21"/>
+      <c r="HG12" s="19"/>
+      <c r="HH12" s="19"/>
       <c r="HI12" s="1"/>
       <c r="HJ12" s="1"/>
       <c r="HK12" s="1"/>
       <c r="HL12" s="1"/>
       <c r="HM12" s="1"/>
-      <c r="HN12" s="21"/>
-      <c r="HO12" s="21"/>
+      <c r="HN12" s="19"/>
+      <c r="HO12" s="19"/>
       <c r="HP12" s="1"/>
       <c r="HQ12" s="1"/>
       <c r="HR12" s="1"/>
       <c r="HS12" s="1"/>
       <c r="HT12" s="1"/>
-      <c r="HU12" s="21"/>
-      <c r="HV12" s="21"/>
+      <c r="HU12" s="19"/>
+      <c r="HV12" s="19"/>
       <c r="HW12" t="s">
         <v>13</v>
       </c>
@@ -6715,10 +6733,10 @@
       <c r="IA12" t="s">
         <v>13</v>
       </c>
-      <c r="IB12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="IC12" s="20" t="s">
+      <c r="IB12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="ID12" t="s">
@@ -6736,10 +6754,10 @@
       <c r="IH12" t="s">
         <v>13</v>
       </c>
-      <c r="II12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="IJ12" s="20" t="s">
+      <c r="II12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="IK12" s="1"/>
@@ -6747,106 +6765,106 @@
       <c r="IM12" s="1"/>
       <c r="IN12" s="1"/>
       <c r="IO12" s="1"/>
-      <c r="IP12" s="21"/>
-      <c r="IQ12" s="21"/>
+      <c r="IP12" s="19"/>
+      <c r="IQ12" s="19"/>
       <c r="IR12" s="1"/>
       <c r="IS12" s="1"/>
       <c r="IT12" s="1"/>
       <c r="IU12" s="1"/>
       <c r="IV12" s="1"/>
-      <c r="IW12" s="21"/>
-      <c r="IX12" s="21"/>
+      <c r="IW12" s="19"/>
+      <c r="IX12" s="19"/>
       <c r="IY12" s="1"/>
       <c r="IZ12" s="1"/>
       <c r="JA12" s="1"/>
       <c r="JB12" s="1"/>
       <c r="JC12" s="1"/>
-      <c r="JD12" s="21"/>
-      <c r="JE12" s="21"/>
+      <c r="JD12" s="19"/>
+      <c r="JE12" s="19"/>
       <c r="JF12" s="1"/>
       <c r="JG12" s="1"/>
       <c r="JH12" s="1"/>
       <c r="JI12" s="1"/>
       <c r="JJ12" s="1"/>
-      <c r="JK12" s="21"/>
-      <c r="JL12" s="21"/>
+      <c r="JK12" s="19"/>
+      <c r="JL12" s="19"/>
       <c r="JM12" s="1"/>
       <c r="JN12" s="1"/>
       <c r="JO12" s="1"/>
       <c r="JP12" s="1"/>
       <c r="JQ12" s="1"/>
-      <c r="JR12" s="21"/>
-      <c r="JS12" s="21"/>
+      <c r="JR12" s="19"/>
+      <c r="JS12" s="19"/>
       <c r="JT12" s="1"/>
       <c r="JU12" s="1"/>
       <c r="JV12" s="1"/>
       <c r="JW12" s="1"/>
       <c r="JX12" s="1"/>
-      <c r="JY12" s="21"/>
-      <c r="JZ12" s="21"/>
+      <c r="JY12" s="19"/>
+      <c r="JZ12" s="19"/>
       <c r="KA12" s="1"/>
       <c r="KB12" s="1"/>
       <c r="KC12" s="1"/>
       <c r="KD12" s="1"/>
       <c r="KE12" s="1"/>
-      <c r="KF12" s="21"/>
-      <c r="KG12" s="21"/>
+      <c r="KF12" s="19"/>
+      <c r="KG12" s="19"/>
       <c r="KH12" s="1"/>
       <c r="KI12" s="1"/>
       <c r="KJ12" s="1"/>
       <c r="KK12" s="1"/>
       <c r="KL12" s="1"/>
-      <c r="KM12" s="21"/>
-      <c r="KN12" s="21"/>
+      <c r="KM12" s="19"/>
+      <c r="KN12" s="19"/>
       <c r="KO12" s="1"/>
       <c r="KP12" s="1"/>
       <c r="KQ12" s="1"/>
       <c r="KR12" s="1"/>
       <c r="KS12" s="1"/>
-      <c r="KT12" s="21"/>
-      <c r="KU12" s="21"/>
+      <c r="KT12" s="19"/>
+      <c r="KU12" s="19"/>
       <c r="KV12" s="1"/>
       <c r="KW12" s="1"/>
       <c r="KX12" s="1"/>
       <c r="KY12" s="1"/>
       <c r="KZ12" s="1"/>
-      <c r="LA12" s="21"/>
-      <c r="LB12" s="21"/>
+      <c r="LA12" s="19"/>
+      <c r="LB12" s="19"/>
       <c r="LC12" s="1"/>
       <c r="LD12" s="1"/>
       <c r="LE12" s="1"/>
       <c r="LF12" s="1"/>
       <c r="LG12" s="1"/>
-      <c r="LH12" s="21"/>
-      <c r="LI12" s="21"/>
+      <c r="LH12" s="19"/>
+      <c r="LI12" s="19"/>
       <c r="LJ12" s="1"/>
       <c r="LK12" s="1"/>
       <c r="LL12" s="1"/>
       <c r="LM12" s="1"/>
       <c r="LN12" s="1"/>
-      <c r="LO12" s="21"/>
-      <c r="LP12" s="21"/>
+      <c r="LO12" s="19"/>
+      <c r="LP12" s="19"/>
       <c r="LQ12" s="1"/>
       <c r="LR12" s="1"/>
       <c r="LS12" s="1"/>
       <c r="LT12" s="1"/>
       <c r="LU12" s="1"/>
-      <c r="LV12" s="21"/>
-      <c r="LW12" s="21"/>
+      <c r="LV12" s="19"/>
+      <c r="LW12" s="19"/>
       <c r="LX12" s="1"/>
       <c r="LY12" s="1"/>
       <c r="LZ12" s="1"/>
       <c r="MA12" s="1"/>
       <c r="MB12" s="1"/>
-      <c r="MC12" s="21"/>
-      <c r="MD12" s="21"/>
+      <c r="MC12" s="19"/>
+      <c r="MD12" s="19"/>
       <c r="ME12" s="1"/>
       <c r="MF12" s="1"/>
       <c r="MG12" s="1"/>
       <c r="MH12" s="1"/>
       <c r="MI12" s="1"/>
-      <c r="MJ12" s="21"/>
-      <c r="MK12" s="21"/>
+      <c r="MJ12" s="19"/>
+      <c r="MK12" s="19"/>
       <c r="ML12" t="s">
         <v>13</v>
       </c>
@@ -6862,10 +6880,10 @@
       <c r="MP12" t="s">
         <v>13</v>
       </c>
-      <c r="MQ12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR12" s="20" t="s">
+      <c r="MQ12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="MS12" t="s">
@@ -6883,10 +6901,10 @@
       <c r="MW12" t="s">
         <v>13</v>
       </c>
-      <c r="MX12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="MY12" s="20" t="s">
+      <c r="MX12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MY12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="MZ12" s="1"/>
@@ -6977,8 +6995,8 @@
       <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
-      <c r="CD13" s="21"/>
-      <c r="CE13" s="21"/>
+      <c r="CD13" s="19"/>
+      <c r="CE13" s="19"/>
       <c r="CF13" s="8" t="s">
         <v>13</v>
       </c>
@@ -6994,10 +7012,10 @@
       <c r="CJ13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CK13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL13" s="20" t="s">
+      <c r="CK13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="CM13" s="7"/>
@@ -7005,183 +7023,183 @@
       <c r="CO13" s="7"/>
       <c r="CP13" s="7"/>
       <c r="CQ13" s="7"/>
-      <c r="CR13" s="21"/>
-      <c r="CS13" s="21"/>
+      <c r="CR13" s="19"/>
+      <c r="CS13" s="19"/>
       <c r="CT13" s="7"/>
       <c r="CU13" s="7"/>
       <c r="CV13" s="7"/>
       <c r="CW13" s="7"/>
       <c r="CX13" s="7"/>
-      <c r="CY13" s="21"/>
-      <c r="CZ13" s="21"/>
+      <c r="CY13" s="19"/>
+      <c r="CZ13" s="19"/>
       <c r="DA13" s="7"/>
       <c r="DB13" s="7"/>
       <c r="DC13" s="7"/>
       <c r="DD13" s="7"/>
       <c r="DE13" s="7"/>
-      <c r="DF13" s="21"/>
-      <c r="DG13" s="21"/>
+      <c r="DF13" s="19"/>
+      <c r="DG13" s="19"/>
       <c r="DH13" s="7"/>
       <c r="DI13" s="7"/>
       <c r="DJ13" s="7"/>
       <c r="DK13" s="7"/>
       <c r="DL13" s="7"/>
-      <c r="DM13" s="21"/>
-      <c r="DN13" s="21"/>
+      <c r="DM13" s="19"/>
+      <c r="DN13" s="19"/>
       <c r="DO13" s="7"/>
       <c r="DP13" s="7"/>
       <c r="DQ13" s="7"/>
       <c r="DR13" s="7"/>
       <c r="DS13" s="7"/>
-      <c r="DT13" s="21"/>
-      <c r="DU13" s="21"/>
+      <c r="DT13" s="19"/>
+      <c r="DU13" s="19"/>
       <c r="DV13" s="7"/>
       <c r="DW13" s="7"/>
       <c r="DX13" s="7"/>
       <c r="DY13" s="7"/>
       <c r="DZ13" s="7"/>
-      <c r="EA13" s="21"/>
-      <c r="EB13" s="21"/>
+      <c r="EA13" s="19"/>
+      <c r="EB13" s="19"/>
       <c r="EC13" s="7"/>
       <c r="ED13" s="7"/>
       <c r="EE13" s="7"/>
       <c r="EF13" s="7"/>
       <c r="EG13" s="7"/>
-      <c r="EH13" s="21"/>
-      <c r="EI13" s="21"/>
+      <c r="EH13" s="19"/>
+      <c r="EI13" s="19"/>
       <c r="EJ13" s="7"/>
       <c r="EK13" s="7"/>
       <c r="EL13" s="7"/>
       <c r="EM13" s="7"/>
       <c r="EN13" s="7"/>
-      <c r="EO13" s="21"/>
-      <c r="EP13" s="21"/>
+      <c r="EO13" s="19"/>
+      <c r="EP13" s="19"/>
       <c r="EQ13" s="7"/>
       <c r="ER13" s="7"/>
       <c r="ES13" s="7"/>
       <c r="ET13" s="7"/>
       <c r="EU13" s="7"/>
-      <c r="EV13" s="21"/>
-      <c r="EW13" s="21"/>
+      <c r="EV13" s="19"/>
+      <c r="EW13" s="19"/>
       <c r="EX13" s="7"/>
       <c r="EY13" s="7"/>
       <c r="EZ13" s="7"/>
       <c r="FA13" s="7"/>
       <c r="FB13" s="7"/>
-      <c r="FC13" s="21"/>
-      <c r="FD13" s="21"/>
+      <c r="FC13" s="19"/>
+      <c r="FD13" s="19"/>
       <c r="FE13" s="7"/>
       <c r="FF13" s="7"/>
       <c r="FG13" s="7"/>
-      <c r="FH13" s="7"/>
+      <c r="FH13" s="5"/>
       <c r="FI13" s="7"/>
-      <c r="FJ13" s="21"/>
-      <c r="FK13" s="21"/>
+      <c r="FJ13" s="19"/>
+      <c r="FK13" s="19"/>
       <c r="FL13" s="7"/>
       <c r="FM13" s="7"/>
       <c r="FN13" s="7"/>
       <c r="FO13" s="7"/>
       <c r="FP13" s="7"/>
-      <c r="FQ13" s="21"/>
-      <c r="FR13" s="21"/>
+      <c r="FQ13" s="19"/>
+      <c r="FR13" s="19"/>
       <c r="FS13" s="7"/>
       <c r="FT13" s="7"/>
       <c r="FU13" s="7"/>
       <c r="FV13" s="7"/>
       <c r="FW13" s="7"/>
-      <c r="FX13" s="21"/>
-      <c r="FY13" s="21"/>
+      <c r="FX13" s="19"/>
+      <c r="FY13" s="19"/>
       <c r="FZ13" s="7"/>
       <c r="GA13" s="7"/>
       <c r="GB13" s="7"/>
       <c r="GC13" s="7"/>
       <c r="GD13" s="7"/>
-      <c r="GE13" s="21"/>
-      <c r="GF13" s="21"/>
+      <c r="GE13" s="19"/>
+      <c r="GF13" s="19"/>
       <c r="GG13" s="7"/>
       <c r="GH13" s="7"/>
       <c r="GI13" s="7"/>
       <c r="GJ13" s="7"/>
       <c r="GK13" s="7"/>
-      <c r="GL13" s="21"/>
-      <c r="GM13" s="21"/>
+      <c r="GL13" s="19"/>
+      <c r="GM13" s="19"/>
       <c r="GN13" s="7"/>
       <c r="GO13" s="7"/>
       <c r="GP13" s="7"/>
       <c r="GQ13" s="7"/>
       <c r="GR13" s="7"/>
-      <c r="GS13" s="21"/>
-      <c r="GT13" s="21"/>
+      <c r="GS13" s="19"/>
+      <c r="GT13" s="19"/>
       <c r="GU13" s="7"/>
       <c r="GV13" s="7"/>
       <c r="GW13" s="7"/>
       <c r="GX13" s="7"/>
       <c r="GY13" s="7"/>
-      <c r="GZ13" s="21"/>
-      <c r="HA13" s="21"/>
+      <c r="GZ13" s="19"/>
+      <c r="HA13" s="19"/>
       <c r="HB13" s="7"/>
       <c r="HC13" s="7"/>
       <c r="HD13" s="7"/>
       <c r="HE13" s="7"/>
       <c r="HF13" s="7"/>
-      <c r="HG13" s="21"/>
-      <c r="HH13" s="21"/>
+      <c r="HG13" s="19"/>
+      <c r="HH13" s="19"/>
       <c r="HI13" s="7"/>
       <c r="HJ13" s="7"/>
       <c r="HK13" s="7"/>
       <c r="HL13" s="7"/>
       <c r="HM13" s="7"/>
-      <c r="HN13" s="21"/>
-      <c r="HO13" s="21"/>
+      <c r="HN13" s="19"/>
+      <c r="HO13" s="19"/>
       <c r="HP13" s="7"/>
       <c r="HQ13" s="7"/>
       <c r="HR13" s="7"/>
       <c r="HS13" s="7"/>
       <c r="HT13" s="7"/>
-      <c r="HU13" s="21"/>
-      <c r="HV13" s="21"/>
+      <c r="HU13" s="19"/>
+      <c r="HV13" s="19"/>
       <c r="HW13" s="7"/>
       <c r="HX13" s="7"/>
       <c r="HY13" s="7"/>
       <c r="HZ13" s="7"/>
       <c r="IA13" s="7"/>
-      <c r="IB13" s="21"/>
-      <c r="IC13" s="21"/>
+      <c r="IB13" s="19"/>
+      <c r="IC13" s="19"/>
       <c r="ID13" s="7"/>
       <c r="IE13" s="7"/>
       <c r="IF13" s="7"/>
       <c r="IG13" s="7"/>
       <c r="IH13" s="7"/>
-      <c r="II13" s="21"/>
-      <c r="IJ13" s="21"/>
+      <c r="II13" s="19"/>
+      <c r="IJ13" s="19"/>
       <c r="IK13" s="7"/>
       <c r="IL13" s="7"/>
       <c r="IM13" s="7"/>
       <c r="IN13" s="7"/>
       <c r="IO13" s="7"/>
-      <c r="IP13" s="21"/>
-      <c r="IQ13" s="21"/>
+      <c r="IP13" s="19"/>
+      <c r="IQ13" s="19"/>
       <c r="IR13" s="7"/>
       <c r="IS13" s="7"/>
       <c r="IT13" s="7"/>
       <c r="IU13" s="7"/>
       <c r="IV13" s="7"/>
-      <c r="IW13" s="21"/>
-      <c r="IX13" s="21"/>
+      <c r="IW13" s="19"/>
+      <c r="IX13" s="19"/>
       <c r="IY13" s="7"/>
       <c r="IZ13" s="7"/>
       <c r="JA13" s="7"/>
       <c r="JB13" s="7"/>
       <c r="JC13" s="7"/>
-      <c r="JD13" s="21"/>
-      <c r="JE13" s="21"/>
+      <c r="JD13" s="19"/>
+      <c r="JE13" s="19"/>
       <c r="JF13" s="7"/>
       <c r="JG13" s="7"/>
       <c r="JH13" s="7"/>
       <c r="JI13" s="7"/>
       <c r="JJ13" s="7"/>
-      <c r="JK13" s="21"/>
-      <c r="JL13" s="21"/>
+      <c r="JK13" s="19"/>
+      <c r="JL13" s="19"/>
       <c r="JM13" s="8" t="s">
         <v>13</v>
       </c>
@@ -7197,10 +7215,10 @@
       <c r="JQ13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="JR13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="JS13" s="20" t="s">
+      <c r="JR13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JS13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="JT13" s="8" t="s">
@@ -7218,10 +7236,10 @@
       <c r="JX13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="JY13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="JZ13" s="20" t="s">
+      <c r="JY13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JZ13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="KA13" s="7"/>
@@ -7229,78 +7247,78 @@
       <c r="KC13" s="7"/>
       <c r="KD13" s="7"/>
       <c r="KE13" s="7"/>
-      <c r="KF13" s="21"/>
-      <c r="KG13" s="21"/>
+      <c r="KF13" s="19"/>
+      <c r="KG13" s="19"/>
       <c r="KH13" s="7"/>
       <c r="KI13" s="7"/>
       <c r="KJ13" s="7"/>
       <c r="KK13" s="7"/>
       <c r="KL13" s="7"/>
-      <c r="KM13" s="21"/>
-      <c r="KN13" s="21"/>
+      <c r="KM13" s="19"/>
+      <c r="KN13" s="19"/>
       <c r="KO13" s="7"/>
       <c r="KP13" s="7"/>
       <c r="KQ13" s="7"/>
       <c r="KR13" s="7"/>
       <c r="KS13" s="7"/>
-      <c r="KT13" s="21"/>
-      <c r="KU13" s="21"/>
+      <c r="KT13" s="19"/>
+      <c r="KU13" s="19"/>
       <c r="KV13" s="7"/>
       <c r="KW13" s="7"/>
       <c r="KX13" s="7"/>
       <c r="KY13" s="7"/>
       <c r="KZ13" s="7"/>
-      <c r="LA13" s="21"/>
-      <c r="LB13" s="21"/>
+      <c r="LA13" s="19"/>
+      <c r="LB13" s="19"/>
       <c r="LC13" s="7"/>
       <c r="LD13" s="7"/>
       <c r="LE13" s="7"/>
       <c r="LF13" s="7"/>
       <c r="LG13" s="7"/>
-      <c r="LH13" s="21"/>
-      <c r="LI13" s="21"/>
+      <c r="LH13" s="19"/>
+      <c r="LI13" s="19"/>
       <c r="LJ13" s="7"/>
       <c r="LK13" s="7"/>
       <c r="LL13" s="7"/>
       <c r="LM13" s="7"/>
       <c r="LN13" s="7"/>
-      <c r="LO13" s="21"/>
-      <c r="LP13" s="21"/>
+      <c r="LO13" s="19"/>
+      <c r="LP13" s="19"/>
       <c r="LQ13" s="7"/>
       <c r="LR13" s="7"/>
       <c r="LS13" s="7"/>
       <c r="LT13" s="7"/>
       <c r="LU13" s="7"/>
-      <c r="LV13" s="21"/>
-      <c r="LW13" s="21"/>
+      <c r="LV13" s="19"/>
+      <c r="LW13" s="19"/>
       <c r="LX13" s="7"/>
       <c r="LY13" s="7"/>
       <c r="LZ13" s="7"/>
       <c r="MA13" s="7"/>
       <c r="MB13" s="7"/>
-      <c r="MC13" s="21"/>
-      <c r="MD13" s="21"/>
+      <c r="MC13" s="19"/>
+      <c r="MD13" s="19"/>
       <c r="ME13" s="7"/>
       <c r="MF13" s="7"/>
       <c r="MG13" s="7"/>
       <c r="MH13" s="7"/>
       <c r="MI13" s="7"/>
-      <c r="MJ13" s="21"/>
-      <c r="MK13" s="21"/>
+      <c r="MJ13" s="19"/>
+      <c r="MK13" s="19"/>
       <c r="ML13" s="7"/>
       <c r="MM13" s="7"/>
       <c r="MN13" s="7"/>
       <c r="MO13" s="7"/>
       <c r="MP13" s="7"/>
-      <c r="MQ13" s="21"/>
-      <c r="MR13" s="21"/>
+      <c r="MQ13" s="19"/>
+      <c r="MR13" s="19"/>
       <c r="MS13" s="7"/>
       <c r="MT13" s="7"/>
       <c r="MU13" s="7"/>
       <c r="MV13" s="7"/>
       <c r="MW13" s="7"/>
-      <c r="MX13" s="21"/>
-      <c r="MY13" s="21"/>
+      <c r="MX13" s="19"/>
+      <c r="MY13" s="19"/>
       <c r="MZ13" s="7"/>
       <c r="NA13" s="7"/>
       <c r="NB13" s="7"/>
@@ -7389,288 +7407,288 @@
       <c r="CA14" s="1"/>
       <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
+      <c r="CD14" s="19"/>
+      <c r="CE14" s="19"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
       <c r="CJ14" s="1"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
+      <c r="CK14" s="19"/>
+      <c r="CL14" s="19"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
       <c r="CO14" s="1"/>
       <c r="CP14" s="1"/>
       <c r="CQ14" s="1"/>
-      <c r="CR14" s="21"/>
-      <c r="CS14" s="21"/>
+      <c r="CR14" s="19"/>
+      <c r="CS14" s="19"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
       <c r="CW14" s="1"/>
       <c r="CX14" s="1"/>
-      <c r="CY14" s="21"/>
-      <c r="CZ14" s="21"/>
+      <c r="CY14" s="19"/>
+      <c r="CZ14" s="19"/>
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
       <c r="DD14" s="1"/>
       <c r="DE14" s="1"/>
-      <c r="DF14" s="21"/>
-      <c r="DG14" s="21"/>
+      <c r="DF14" s="19"/>
+      <c r="DG14" s="19"/>
       <c r="DH14" s="1"/>
       <c r="DI14" s="1"/>
       <c r="DJ14" s="1"/>
       <c r="DK14" s="1"/>
       <c r="DL14" s="1"/>
-      <c r="DM14" s="21"/>
-      <c r="DN14" s="21"/>
+      <c r="DM14" s="19"/>
+      <c r="DN14" s="19"/>
       <c r="DO14" s="1"/>
       <c r="DP14" s="1"/>
       <c r="DQ14" s="1"/>
       <c r="DR14" s="1"/>
       <c r="DS14" s="1"/>
-      <c r="DT14" s="21"/>
-      <c r="DU14" s="21"/>
+      <c r="DT14" s="19"/>
+      <c r="DU14" s="19"/>
       <c r="DV14" s="1"/>
       <c r="DW14" s="1"/>
       <c r="DX14" s="1"/>
       <c r="DY14" s="1"/>
       <c r="DZ14" s="1"/>
-      <c r="EA14" s="21"/>
-      <c r="EB14" s="21"/>
+      <c r="EA14" s="19"/>
+      <c r="EB14" s="19"/>
       <c r="EC14" s="1"/>
       <c r="ED14" s="1"/>
       <c r="EE14" s="1"/>
       <c r="EF14" s="1"/>
       <c r="EG14" s="1"/>
-      <c r="EH14" s="21"/>
-      <c r="EI14" s="21"/>
+      <c r="EH14" s="19"/>
+      <c r="EI14" s="19"/>
       <c r="EJ14" s="1"/>
       <c r="EK14" s="1"/>
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="21"/>
-      <c r="EP14" s="21"/>
+      <c r="EO14" s="19"/>
+      <c r="EP14" s="19"/>
       <c r="EQ14" s="1"/>
       <c r="ER14" s="1"/>
       <c r="ES14" s="1"/>
       <c r="ET14" s="1"/>
       <c r="EU14" s="1"/>
-      <c r="EV14" s="21"/>
-      <c r="EW14" s="21"/>
+      <c r="EV14" s="19"/>
+      <c r="EW14" s="19"/>
       <c r="EX14" s="1"/>
       <c r="EY14" s="1"/>
       <c r="EZ14" s="1"/>
       <c r="FA14" s="1"/>
       <c r="FB14" s="1"/>
-      <c r="FC14" s="21"/>
-      <c r="FD14" s="21"/>
+      <c r="FC14" s="19"/>
+      <c r="FD14" s="19"/>
       <c r="FE14" s="1"/>
       <c r="FF14" s="1"/>
       <c r="FG14" s="1"/>
-      <c r="FH14" s="1"/>
+      <c r="FH14" s="5"/>
       <c r="FI14" s="1"/>
-      <c r="FJ14" s="21"/>
-      <c r="FK14" s="21"/>
+      <c r="FJ14" s="19"/>
+      <c r="FK14" s="19"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
       <c r="FN14" s="1"/>
       <c r="FO14" s="1"/>
       <c r="FP14" s="1"/>
-      <c r="FQ14" s="21"/>
-      <c r="FR14" s="21"/>
+      <c r="FQ14" s="19"/>
+      <c r="FR14" s="19"/>
       <c r="FS14" s="1"/>
       <c r="FT14" s="1"/>
       <c r="FU14" s="1"/>
       <c r="FV14" s="1"/>
       <c r="FW14" s="1"/>
-      <c r="FX14" s="21"/>
-      <c r="FY14" s="21"/>
+      <c r="FX14" s="19"/>
+      <c r="FY14" s="19"/>
       <c r="FZ14" s="1"/>
       <c r="GA14" s="1"/>
       <c r="GB14" s="1"/>
       <c r="GC14" s="1"/>
       <c r="GD14" s="1"/>
-      <c r="GE14" s="21"/>
-      <c r="GF14" s="21"/>
+      <c r="GE14" s="19"/>
+      <c r="GF14" s="19"/>
       <c r="GG14" s="1"/>
       <c r="GH14" s="1"/>
       <c r="GI14" s="1"/>
       <c r="GJ14" s="1"/>
       <c r="GK14" s="1"/>
-      <c r="GL14" s="21"/>
-      <c r="GM14" s="21"/>
+      <c r="GL14" s="19"/>
+      <c r="GM14" s="19"/>
       <c r="GN14" s="1"/>
       <c r="GO14" s="1"/>
       <c r="GP14" s="1"/>
       <c r="GQ14" s="1"/>
       <c r="GR14" s="1"/>
-      <c r="GS14" s="21"/>
-      <c r="GT14" s="21"/>
+      <c r="GS14" s="19"/>
+      <c r="GT14" s="19"/>
       <c r="GU14" s="1"/>
       <c r="GV14" s="1"/>
       <c r="GW14" s="1"/>
       <c r="GX14" s="1"/>
       <c r="GY14" s="1"/>
-      <c r="GZ14" s="21"/>
-      <c r="HA14" s="21"/>
+      <c r="GZ14" s="19"/>
+      <c r="HA14" s="19"/>
       <c r="HB14" s="1"/>
       <c r="HC14" s="1"/>
       <c r="HD14" s="1"/>
       <c r="HE14" s="1"/>
       <c r="HF14" s="1"/>
-      <c r="HG14" s="21"/>
-      <c r="HH14" s="21"/>
+      <c r="HG14" s="19"/>
+      <c r="HH14" s="19"/>
       <c r="HI14" s="1"/>
       <c r="HJ14" s="1"/>
       <c r="HK14" s="1"/>
       <c r="HL14" s="1"/>
       <c r="HM14" s="1"/>
-      <c r="HN14" s="21"/>
-      <c r="HO14" s="21"/>
+      <c r="HN14" s="19"/>
+      <c r="HO14" s="19"/>
       <c r="HP14" s="1"/>
       <c r="HQ14" s="1"/>
       <c r="HR14" s="1"/>
       <c r="HS14" s="1"/>
       <c r="HT14" s="1"/>
-      <c r="HU14" s="21"/>
-      <c r="HV14" s="21"/>
+      <c r="HU14" s="19"/>
+      <c r="HV14" s="19"/>
       <c r="HW14" s="1"/>
       <c r="HX14" s="1"/>
       <c r="HY14" s="1"/>
       <c r="HZ14" s="1"/>
       <c r="IA14" s="1"/>
-      <c r="IB14" s="21"/>
-      <c r="IC14" s="21"/>
+      <c r="IB14" s="19"/>
+      <c r="IC14" s="19"/>
       <c r="ID14" s="1"/>
       <c r="IE14" s="1"/>
       <c r="IF14" s="1"/>
       <c r="IG14" s="1"/>
       <c r="IH14" s="1"/>
-      <c r="II14" s="21"/>
-      <c r="IJ14" s="21"/>
+      <c r="II14" s="19"/>
+      <c r="IJ14" s="19"/>
       <c r="IK14" s="1"/>
       <c r="IL14" s="1"/>
       <c r="IM14" s="1"/>
       <c r="IN14" s="1"/>
       <c r="IO14" s="1"/>
-      <c r="IP14" s="21"/>
-      <c r="IQ14" s="21"/>
+      <c r="IP14" s="19"/>
+      <c r="IQ14" s="19"/>
       <c r="IR14" s="1"/>
       <c r="IS14" s="1"/>
       <c r="IT14" s="1"/>
       <c r="IU14" s="1"/>
       <c r="IV14" s="1"/>
-      <c r="IW14" s="21"/>
-      <c r="IX14" s="21"/>
+      <c r="IW14" s="19"/>
+      <c r="IX14" s="19"/>
       <c r="IY14" s="1"/>
       <c r="IZ14" s="1"/>
       <c r="JA14" s="1"/>
       <c r="JB14" s="1"/>
       <c r="JC14" s="1"/>
-      <c r="JD14" s="21"/>
-      <c r="JE14" s="21"/>
+      <c r="JD14" s="19"/>
+      <c r="JE14" s="19"/>
       <c r="JF14" s="1"/>
       <c r="JG14" s="1"/>
       <c r="JH14" s="1"/>
       <c r="JI14" s="1"/>
       <c r="JJ14" s="1"/>
-      <c r="JK14" s="21"/>
-      <c r="JL14" s="21"/>
+      <c r="JK14" s="19"/>
+      <c r="JL14" s="19"/>
       <c r="JM14" s="1"/>
       <c r="JN14" s="1"/>
       <c r="JO14" s="1"/>
       <c r="JP14" s="1"/>
       <c r="JQ14" s="1"/>
-      <c r="JR14" s="21"/>
-      <c r="JS14" s="21"/>
+      <c r="JR14" s="19"/>
+      <c r="JS14" s="19"/>
       <c r="JT14" s="1"/>
       <c r="JU14" s="1"/>
       <c r="JV14" s="1"/>
       <c r="JW14" s="1"/>
       <c r="JX14" s="1"/>
-      <c r="JY14" s="21"/>
-      <c r="JZ14" s="21"/>
+      <c r="JY14" s="19"/>
+      <c r="JZ14" s="19"/>
       <c r="KA14" s="1"/>
       <c r="KB14" s="1"/>
       <c r="KC14" s="1"/>
       <c r="KD14" s="1"/>
       <c r="KE14" s="1"/>
-      <c r="KF14" s="21"/>
-      <c r="KG14" s="21"/>
+      <c r="KF14" s="19"/>
+      <c r="KG14" s="19"/>
       <c r="KH14" s="1"/>
       <c r="KI14" s="1"/>
       <c r="KJ14" s="1"/>
       <c r="KK14" s="1"/>
       <c r="KL14" s="1"/>
-      <c r="KM14" s="21"/>
-      <c r="KN14" s="21"/>
+      <c r="KM14" s="19"/>
+      <c r="KN14" s="19"/>
       <c r="KO14" s="1"/>
       <c r="KP14" s="1"/>
       <c r="KQ14" s="1"/>
       <c r="KR14" s="1"/>
       <c r="KS14" s="1"/>
-      <c r="KT14" s="21"/>
-      <c r="KU14" s="21"/>
+      <c r="KT14" s="19"/>
+      <c r="KU14" s="19"/>
       <c r="KV14" s="1"/>
       <c r="KW14" s="1"/>
       <c r="KX14" s="1"/>
       <c r="KY14" s="1"/>
       <c r="KZ14" s="1"/>
-      <c r="LA14" s="21"/>
-      <c r="LB14" s="21"/>
+      <c r="LA14" s="19"/>
+      <c r="LB14" s="19"/>
       <c r="LC14" s="1"/>
       <c r="LD14" s="1"/>
       <c r="LE14" s="1"/>
       <c r="LF14" s="1"/>
       <c r="LG14" s="1"/>
-      <c r="LH14" s="21"/>
-      <c r="LI14" s="21"/>
+      <c r="LH14" s="19"/>
+      <c r="LI14" s="19"/>
       <c r="LJ14" s="1"/>
       <c r="LK14" s="1"/>
       <c r="LL14" s="1"/>
       <c r="LM14" s="1"/>
       <c r="LN14" s="1"/>
-      <c r="LO14" s="21"/>
-      <c r="LP14" s="21"/>
+      <c r="LO14" s="19"/>
+      <c r="LP14" s="19"/>
       <c r="LQ14" s="1"/>
       <c r="LR14" s="1"/>
       <c r="LS14" s="1"/>
       <c r="LT14" s="1"/>
       <c r="LU14" s="1"/>
-      <c r="LV14" s="21"/>
-      <c r="LW14" s="21"/>
+      <c r="LV14" s="19"/>
+      <c r="LW14" s="19"/>
       <c r="LX14" s="1"/>
       <c r="LY14" s="1"/>
       <c r="LZ14" s="1"/>
       <c r="MA14" s="1"/>
       <c r="MB14" s="1"/>
-      <c r="MC14" s="21"/>
-      <c r="MD14" s="21"/>
+      <c r="MC14" s="19"/>
+      <c r="MD14" s="19"/>
       <c r="ME14" s="1"/>
       <c r="MF14" s="1"/>
       <c r="MG14" s="1"/>
       <c r="MH14" s="1"/>
       <c r="MI14" s="1"/>
-      <c r="MJ14" s="21"/>
-      <c r="MK14" s="21"/>
+      <c r="MJ14" s="19"/>
+      <c r="MK14" s="19"/>
       <c r="ML14" s="1"/>
       <c r="MM14" s="1"/>
       <c r="MN14" s="1"/>
       <c r="MO14" s="1"/>
       <c r="MP14" s="1"/>
-      <c r="MQ14" s="21"/>
-      <c r="MR14" s="21"/>
+      <c r="MQ14" s="19"/>
+      <c r="MR14" s="19"/>
       <c r="MS14" s="1"/>
       <c r="MT14" s="1"/>
       <c r="MU14" s="1"/>
       <c r="MV14" s="1"/>
       <c r="MW14" s="1"/>
-      <c r="MX14" s="21"/>
-      <c r="MY14" s="21"/>
+      <c r="MX14" s="19"/>
+      <c r="MY14" s="19"/>
       <c r="MZ14" s="1"/>
       <c r="NA14" s="1"/>
       <c r="NB14" s="1"/>
@@ -7759,288 +7777,288 @@
       <c r="CA15" s="7"/>
       <c r="CB15" s="7"/>
       <c r="CC15" s="7"/>
-      <c r="CD15" s="21"/>
-      <c r="CE15" s="21"/>
+      <c r="CD15" s="19"/>
+      <c r="CE15" s="19"/>
       <c r="CF15" s="7"/>
       <c r="CG15" s="7"/>
       <c r="CH15" s="7"/>
       <c r="CI15" s="7"/>
       <c r="CJ15" s="7"/>
-      <c r="CK15" s="21"/>
-      <c r="CL15" s="21"/>
+      <c r="CK15" s="19"/>
+      <c r="CL15" s="19"/>
       <c r="CM15" s="7"/>
       <c r="CN15" s="7"/>
       <c r="CO15" s="7"/>
       <c r="CP15" s="7"/>
       <c r="CQ15" s="7"/>
-      <c r="CR15" s="21"/>
-      <c r="CS15" s="21"/>
+      <c r="CR15" s="19"/>
+      <c r="CS15" s="19"/>
       <c r="CT15" s="7"/>
       <c r="CU15" s="7"/>
       <c r="CV15" s="7"/>
       <c r="CW15" s="7"/>
       <c r="CX15" s="7"/>
-      <c r="CY15" s="21"/>
-      <c r="CZ15" s="21"/>
+      <c r="CY15" s="19"/>
+      <c r="CZ15" s="19"/>
       <c r="DA15" s="7"/>
       <c r="DB15" s="7"/>
       <c r="DC15" s="7"/>
       <c r="DD15" s="7"/>
       <c r="DE15" s="7"/>
-      <c r="DF15" s="21"/>
-      <c r="DG15" s="21"/>
+      <c r="DF15" s="19"/>
+      <c r="DG15" s="19"/>
       <c r="DH15" s="7"/>
       <c r="DI15" s="7"/>
       <c r="DJ15" s="7"/>
       <c r="DK15" s="7"/>
       <c r="DL15" s="7"/>
-      <c r="DM15" s="21"/>
-      <c r="DN15" s="21"/>
+      <c r="DM15" s="19"/>
+      <c r="DN15" s="19"/>
       <c r="DO15" s="7"/>
       <c r="DP15" s="7"/>
       <c r="DQ15" s="7"/>
       <c r="DR15" s="7"/>
       <c r="DS15" s="7"/>
-      <c r="DT15" s="21"/>
-      <c r="DU15" s="21"/>
+      <c r="DT15" s="19"/>
+      <c r="DU15" s="19"/>
       <c r="DV15" s="7"/>
       <c r="DW15" s="7"/>
       <c r="DX15" s="7"/>
       <c r="DY15" s="7"/>
       <c r="DZ15" s="7"/>
-      <c r="EA15" s="21"/>
-      <c r="EB15" s="21"/>
+      <c r="EA15" s="19"/>
+      <c r="EB15" s="19"/>
       <c r="EC15" s="7"/>
       <c r="ED15" s="7"/>
       <c r="EE15" s="7"/>
       <c r="EF15" s="7"/>
       <c r="EG15" s="7"/>
-      <c r="EH15" s="21"/>
-      <c r="EI15" s="21"/>
+      <c r="EH15" s="19"/>
+      <c r="EI15" s="19"/>
       <c r="EJ15" s="7"/>
       <c r="EK15" s="7"/>
       <c r="EL15" s="7"/>
       <c r="EM15" s="7"/>
       <c r="EN15" s="7"/>
-      <c r="EO15" s="21"/>
-      <c r="EP15" s="21"/>
+      <c r="EO15" s="19"/>
+      <c r="EP15" s="19"/>
       <c r="EQ15" s="7"/>
       <c r="ER15" s="7"/>
       <c r="ES15" s="7"/>
       <c r="ET15" s="7"/>
       <c r="EU15" s="7"/>
-      <c r="EV15" s="21"/>
-      <c r="EW15" s="21"/>
+      <c r="EV15" s="19"/>
+      <c r="EW15" s="19"/>
       <c r="EX15" s="7"/>
       <c r="EY15" s="7"/>
       <c r="EZ15" s="7"/>
       <c r="FA15" s="7"/>
       <c r="FB15" s="7"/>
-      <c r="FC15" s="21"/>
-      <c r="FD15" s="21"/>
+      <c r="FC15" s="19"/>
+      <c r="FD15" s="19"/>
       <c r="FE15" s="7"/>
       <c r="FF15" s="7"/>
       <c r="FG15" s="7"/>
-      <c r="FH15" s="7"/>
+      <c r="FH15" s="5"/>
       <c r="FI15" s="7"/>
-      <c r="FJ15" s="21"/>
-      <c r="FK15" s="21"/>
+      <c r="FJ15" s="19"/>
+      <c r="FK15" s="19"/>
       <c r="FL15" s="7"/>
       <c r="FM15" s="7"/>
       <c r="FN15" s="7"/>
       <c r="FO15" s="7"/>
       <c r="FP15" s="7"/>
-      <c r="FQ15" s="21"/>
-      <c r="FR15" s="21"/>
+      <c r="FQ15" s="19"/>
+      <c r="FR15" s="19"/>
       <c r="FS15" s="7"/>
       <c r="FT15" s="7"/>
       <c r="FU15" s="7"/>
       <c r="FV15" s="7"/>
       <c r="FW15" s="7"/>
-      <c r="FX15" s="21"/>
-      <c r="FY15" s="21"/>
+      <c r="FX15" s="19"/>
+      <c r="FY15" s="19"/>
       <c r="FZ15" s="7"/>
       <c r="GA15" s="7"/>
       <c r="GB15" s="7"/>
       <c r="GC15" s="7"/>
       <c r="GD15" s="7"/>
-      <c r="GE15" s="21"/>
-      <c r="GF15" s="21"/>
+      <c r="GE15" s="19"/>
+      <c r="GF15" s="19"/>
       <c r="GG15" s="7"/>
       <c r="GH15" s="7"/>
       <c r="GI15" s="7"/>
       <c r="GJ15" s="7"/>
       <c r="GK15" s="7"/>
-      <c r="GL15" s="21"/>
-      <c r="GM15" s="21"/>
+      <c r="GL15" s="19"/>
+      <c r="GM15" s="19"/>
       <c r="GN15" s="7"/>
       <c r="GO15" s="7"/>
       <c r="GP15" s="7"/>
       <c r="GQ15" s="7"/>
       <c r="GR15" s="7"/>
-      <c r="GS15" s="21"/>
-      <c r="GT15" s="21"/>
+      <c r="GS15" s="19"/>
+      <c r="GT15" s="19"/>
       <c r="GU15" s="7"/>
       <c r="GV15" s="7"/>
       <c r="GW15" s="7"/>
       <c r="GX15" s="7"/>
       <c r="GY15" s="7"/>
-      <c r="GZ15" s="21"/>
-      <c r="HA15" s="21"/>
+      <c r="GZ15" s="19"/>
+      <c r="HA15" s="19"/>
       <c r="HB15" s="7"/>
       <c r="HC15" s="7"/>
       <c r="HD15" s="7"/>
       <c r="HE15" s="7"/>
       <c r="HF15" s="7"/>
-      <c r="HG15" s="21"/>
-      <c r="HH15" s="21"/>
+      <c r="HG15" s="19"/>
+      <c r="HH15" s="19"/>
       <c r="HI15" s="7"/>
       <c r="HJ15" s="7"/>
       <c r="HK15" s="7"/>
       <c r="HL15" s="7"/>
       <c r="HM15" s="7"/>
-      <c r="HN15" s="21"/>
-      <c r="HO15" s="21"/>
+      <c r="HN15" s="19"/>
+      <c r="HO15" s="19"/>
       <c r="HP15" s="7"/>
       <c r="HQ15" s="7"/>
       <c r="HR15" s="7"/>
       <c r="HS15" s="7"/>
       <c r="HT15" s="7"/>
-      <c r="HU15" s="21"/>
-      <c r="HV15" s="21"/>
+      <c r="HU15" s="19"/>
+      <c r="HV15" s="19"/>
       <c r="HW15" s="7"/>
       <c r="HX15" s="7"/>
       <c r="HY15" s="7"/>
       <c r="HZ15" s="7"/>
       <c r="IA15" s="7"/>
-      <c r="IB15" s="21"/>
-      <c r="IC15" s="21"/>
+      <c r="IB15" s="19"/>
+      <c r="IC15" s="19"/>
       <c r="ID15" s="7"/>
       <c r="IE15" s="7"/>
       <c r="IF15" s="7"/>
       <c r="IG15" s="7"/>
       <c r="IH15" s="7"/>
-      <c r="II15" s="21"/>
-      <c r="IJ15" s="21"/>
+      <c r="II15" s="19"/>
+      <c r="IJ15" s="19"/>
       <c r="IK15" s="7"/>
       <c r="IL15" s="7"/>
       <c r="IM15" s="7"/>
       <c r="IN15" s="7"/>
       <c r="IO15" s="7"/>
-      <c r="IP15" s="21"/>
-      <c r="IQ15" s="21"/>
+      <c r="IP15" s="19"/>
+      <c r="IQ15" s="19"/>
       <c r="IR15" s="7"/>
       <c r="IS15" s="7"/>
       <c r="IT15" s="7"/>
       <c r="IU15" s="7"/>
       <c r="IV15" s="7"/>
-      <c r="IW15" s="21"/>
-      <c r="IX15" s="21"/>
+      <c r="IW15" s="19"/>
+      <c r="IX15" s="19"/>
       <c r="IY15" s="7"/>
       <c r="IZ15" s="7"/>
       <c r="JA15" s="7"/>
       <c r="JB15" s="7"/>
       <c r="JC15" s="7"/>
-      <c r="JD15" s="21"/>
-      <c r="JE15" s="21"/>
+      <c r="JD15" s="19"/>
+      <c r="JE15" s="19"/>
       <c r="JF15" s="7"/>
       <c r="JG15" s="7"/>
       <c r="JH15" s="7"/>
       <c r="JI15" s="7"/>
       <c r="JJ15" s="7"/>
-      <c r="JK15" s="21"/>
-      <c r="JL15" s="21"/>
+      <c r="JK15" s="19"/>
+      <c r="JL15" s="19"/>
       <c r="JM15" s="7"/>
       <c r="JN15" s="7"/>
       <c r="JO15" s="7"/>
       <c r="JP15" s="7"/>
       <c r="JQ15" s="7"/>
-      <c r="JR15" s="21"/>
-      <c r="JS15" s="21"/>
+      <c r="JR15" s="19"/>
+      <c r="JS15" s="19"/>
       <c r="JT15" s="7"/>
       <c r="JU15" s="7"/>
       <c r="JV15" s="7"/>
       <c r="JW15" s="7"/>
       <c r="JX15" s="7"/>
-      <c r="JY15" s="21"/>
-      <c r="JZ15" s="21"/>
+      <c r="JY15" s="19"/>
+      <c r="JZ15" s="19"/>
       <c r="KA15" s="7"/>
       <c r="KB15" s="7"/>
       <c r="KC15" s="7"/>
       <c r="KD15" s="7"/>
       <c r="KE15" s="7"/>
-      <c r="KF15" s="21"/>
-      <c r="KG15" s="21"/>
+      <c r="KF15" s="19"/>
+      <c r="KG15" s="19"/>
       <c r="KH15" s="7"/>
       <c r="KI15" s="7"/>
       <c r="KJ15" s="7"/>
       <c r="KK15" s="7"/>
       <c r="KL15" s="7"/>
-      <c r="KM15" s="21"/>
-      <c r="KN15" s="21"/>
+      <c r="KM15" s="19"/>
+      <c r="KN15" s="19"/>
       <c r="KO15" s="7"/>
       <c r="KP15" s="7"/>
       <c r="KQ15" s="7"/>
       <c r="KR15" s="7"/>
       <c r="KS15" s="7"/>
-      <c r="KT15" s="21"/>
-      <c r="KU15" s="21"/>
+      <c r="KT15" s="19"/>
+      <c r="KU15" s="19"/>
       <c r="KV15" s="7"/>
       <c r="KW15" s="7"/>
       <c r="KX15" s="7"/>
       <c r="KY15" s="7"/>
       <c r="KZ15" s="7"/>
-      <c r="LA15" s="21"/>
-      <c r="LB15" s="21"/>
+      <c r="LA15" s="19"/>
+      <c r="LB15" s="19"/>
       <c r="LC15" s="7"/>
       <c r="LD15" s="7"/>
       <c r="LE15" s="7"/>
       <c r="LF15" s="7"/>
       <c r="LG15" s="7"/>
-      <c r="LH15" s="21"/>
-      <c r="LI15" s="21"/>
+      <c r="LH15" s="19"/>
+      <c r="LI15" s="19"/>
       <c r="LJ15" s="7"/>
       <c r="LK15" s="7"/>
       <c r="LL15" s="7"/>
       <c r="LM15" s="7"/>
       <c r="LN15" s="7"/>
-      <c r="LO15" s="21"/>
-      <c r="LP15" s="21"/>
+      <c r="LO15" s="19"/>
+      <c r="LP15" s="19"/>
       <c r="LQ15" s="7"/>
       <c r="LR15" s="7"/>
       <c r="LS15" s="7"/>
       <c r="LT15" s="7"/>
       <c r="LU15" s="7"/>
-      <c r="LV15" s="21"/>
-      <c r="LW15" s="21"/>
+      <c r="LV15" s="19"/>
+      <c r="LW15" s="19"/>
       <c r="LX15" s="7"/>
       <c r="LY15" s="7"/>
       <c r="LZ15" s="7"/>
       <c r="MA15" s="7"/>
       <c r="MB15" s="7"/>
-      <c r="MC15" s="21"/>
-      <c r="MD15" s="21"/>
+      <c r="MC15" s="19"/>
+      <c r="MD15" s="19"/>
       <c r="ME15" s="7"/>
       <c r="MF15" s="7"/>
       <c r="MG15" s="7"/>
       <c r="MH15" s="7"/>
       <c r="MI15" s="7"/>
-      <c r="MJ15" s="21"/>
-      <c r="MK15" s="21"/>
+      <c r="MJ15" s="19"/>
+      <c r="MK15" s="19"/>
       <c r="ML15" s="7"/>
       <c r="MM15" s="7"/>
       <c r="MN15" s="7"/>
       <c r="MO15" s="7"/>
       <c r="MP15" s="7"/>
-      <c r="MQ15" s="21"/>
-      <c r="MR15" s="21"/>
+      <c r="MQ15" s="19"/>
+      <c r="MR15" s="19"/>
       <c r="MS15" s="7"/>
       <c r="MT15" s="7"/>
       <c r="MU15" s="7"/>
       <c r="MV15" s="7"/>
       <c r="MW15" s="7"/>
-      <c r="MX15" s="21"/>
-      <c r="MY15" s="21"/>
+      <c r="MX15" s="19"/>
+      <c r="MY15" s="19"/>
       <c r="MZ15" s="7"/>
       <c r="NA15" s="7"/>
       <c r="NB15" s="7"/>
@@ -8129,288 +8147,288 @@
       <c r="CA16" s="1"/>
       <c r="CB16" s="1"/>
       <c r="CC16" s="1"/>
-      <c r="CD16" s="21"/>
-      <c r="CE16" s="21"/>
+      <c r="CD16" s="19"/>
+      <c r="CE16" s="19"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
       <c r="CJ16" s="1"/>
-      <c r="CK16" s="21"/>
-      <c r="CL16" s="21"/>
+      <c r="CK16" s="19"/>
+      <c r="CL16" s="19"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
       <c r="CO16" s="1"/>
       <c r="CP16" s="1"/>
       <c r="CQ16" s="1"/>
-      <c r="CR16" s="21"/>
-      <c r="CS16" s="21"/>
+      <c r="CR16" s="19"/>
+      <c r="CS16" s="19"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
       <c r="CW16" s="1"/>
       <c r="CX16" s="1"/>
-      <c r="CY16" s="21"/>
-      <c r="CZ16" s="21"/>
+      <c r="CY16" s="19"/>
+      <c r="CZ16" s="19"/>
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
       <c r="DD16" s="1"/>
       <c r="DE16" s="1"/>
-      <c r="DF16" s="21"/>
-      <c r="DG16" s="21"/>
+      <c r="DF16" s="19"/>
+      <c r="DG16" s="19"/>
       <c r="DH16" s="1"/>
       <c r="DI16" s="1"/>
       <c r="DJ16" s="1"/>
       <c r="DK16" s="1"/>
       <c r="DL16" s="1"/>
-      <c r="DM16" s="21"/>
-      <c r="DN16" s="21"/>
+      <c r="DM16" s="19"/>
+      <c r="DN16" s="19"/>
       <c r="DO16" s="1"/>
       <c r="DP16" s="1"/>
       <c r="DQ16" s="1"/>
       <c r="DR16" s="1"/>
       <c r="DS16" s="1"/>
-      <c r="DT16" s="21"/>
-      <c r="DU16" s="21"/>
+      <c r="DT16" s="19"/>
+      <c r="DU16" s="19"/>
       <c r="DV16" s="1"/>
       <c r="DW16" s="1"/>
       <c r="DX16" s="1"/>
       <c r="DY16" s="1"/>
       <c r="DZ16" s="1"/>
-      <c r="EA16" s="21"/>
-      <c r="EB16" s="21"/>
+      <c r="EA16" s="19"/>
+      <c r="EB16" s="19"/>
       <c r="EC16" s="1"/>
       <c r="ED16" s="1"/>
       <c r="EE16" s="1"/>
       <c r="EF16" s="1"/>
       <c r="EG16" s="1"/>
-      <c r="EH16" s="21"/>
-      <c r="EI16" s="21"/>
+      <c r="EH16" s="19"/>
+      <c r="EI16" s="19"/>
       <c r="EJ16" s="1"/>
       <c r="EK16" s="1"/>
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="21"/>
-      <c r="EP16" s="21"/>
+      <c r="EO16" s="19"/>
+      <c r="EP16" s="19"/>
       <c r="EQ16" s="1"/>
       <c r="ER16" s="1"/>
       <c r="ES16" s="1"/>
       <c r="ET16" s="1"/>
       <c r="EU16" s="1"/>
-      <c r="EV16" s="21"/>
-      <c r="EW16" s="21"/>
+      <c r="EV16" s="19"/>
+      <c r="EW16" s="19"/>
       <c r="EX16" s="1"/>
       <c r="EY16" s="1"/>
       <c r="EZ16" s="1"/>
       <c r="FA16" s="1"/>
       <c r="FB16" s="1"/>
-      <c r="FC16" s="21"/>
-      <c r="FD16" s="21"/>
+      <c r="FC16" s="19"/>
+      <c r="FD16" s="19"/>
       <c r="FE16" s="1"/>
       <c r="FF16" s="1"/>
       <c r="FG16" s="1"/>
-      <c r="FH16" s="1"/>
+      <c r="FH16" s="5"/>
       <c r="FI16" s="1"/>
-      <c r="FJ16" s="21"/>
-      <c r="FK16" s="21"/>
+      <c r="FJ16" s="19"/>
+      <c r="FK16" s="19"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
       <c r="FN16" s="1"/>
       <c r="FO16" s="1"/>
       <c r="FP16" s="1"/>
-      <c r="FQ16" s="21"/>
-      <c r="FR16" s="21"/>
+      <c r="FQ16" s="19"/>
+      <c r="FR16" s="19"/>
       <c r="FS16" s="1"/>
       <c r="FT16" s="1"/>
       <c r="FU16" s="1"/>
       <c r="FV16" s="1"/>
       <c r="FW16" s="1"/>
-      <c r="FX16" s="21"/>
-      <c r="FY16" s="21"/>
+      <c r="FX16" s="19"/>
+      <c r="FY16" s="19"/>
       <c r="FZ16" s="1"/>
       <c r="GA16" s="1"/>
       <c r="GB16" s="1"/>
       <c r="GC16" s="1"/>
       <c r="GD16" s="1"/>
-      <c r="GE16" s="21"/>
-      <c r="GF16" s="21"/>
+      <c r="GE16" s="19"/>
+      <c r="GF16" s="19"/>
       <c r="GG16" s="1"/>
       <c r="GH16" s="1"/>
       <c r="GI16" s="1"/>
       <c r="GJ16" s="1"/>
       <c r="GK16" s="1"/>
-      <c r="GL16" s="21"/>
-      <c r="GM16" s="21"/>
+      <c r="GL16" s="19"/>
+      <c r="GM16" s="19"/>
       <c r="GN16" s="1"/>
       <c r="GO16" s="1"/>
       <c r="GP16" s="1"/>
       <c r="GQ16" s="1"/>
       <c r="GR16" s="1"/>
-      <c r="GS16" s="21"/>
-      <c r="GT16" s="21"/>
+      <c r="GS16" s="19"/>
+      <c r="GT16" s="19"/>
       <c r="GU16" s="1"/>
       <c r="GV16" s="1"/>
       <c r="GW16" s="1"/>
       <c r="GX16" s="1"/>
       <c r="GY16" s="1"/>
-      <c r="GZ16" s="21"/>
-      <c r="HA16" s="21"/>
+      <c r="GZ16" s="19"/>
+      <c r="HA16" s="19"/>
       <c r="HB16" s="1"/>
       <c r="HC16" s="1"/>
       <c r="HD16" s="1"/>
       <c r="HE16" s="1"/>
       <c r="HF16" s="1"/>
-      <c r="HG16" s="21"/>
-      <c r="HH16" s="21"/>
+      <c r="HG16" s="19"/>
+      <c r="HH16" s="19"/>
       <c r="HI16" s="1"/>
       <c r="HJ16" s="1"/>
       <c r="HK16" s="1"/>
       <c r="HL16" s="1"/>
       <c r="HM16" s="1"/>
-      <c r="HN16" s="21"/>
-      <c r="HO16" s="21"/>
+      <c r="HN16" s="19"/>
+      <c r="HO16" s="19"/>
       <c r="HP16" s="1"/>
       <c r="HQ16" s="1"/>
       <c r="HR16" s="1"/>
       <c r="HS16" s="1"/>
       <c r="HT16" s="1"/>
-      <c r="HU16" s="21"/>
-      <c r="HV16" s="21"/>
+      <c r="HU16" s="19"/>
+      <c r="HV16" s="19"/>
       <c r="HW16" s="1"/>
       <c r="HX16" s="1"/>
       <c r="HY16" s="1"/>
       <c r="HZ16" s="1"/>
       <c r="IA16" s="1"/>
-      <c r="IB16" s="21"/>
-      <c r="IC16" s="21"/>
+      <c r="IB16" s="19"/>
+      <c r="IC16" s="19"/>
       <c r="ID16" s="1"/>
       <c r="IE16" s="1"/>
       <c r="IF16" s="1"/>
       <c r="IG16" s="1"/>
       <c r="IH16" s="1"/>
-      <c r="II16" s="21"/>
-      <c r="IJ16" s="21"/>
+      <c r="II16" s="19"/>
+      <c r="IJ16" s="19"/>
       <c r="IK16" s="1"/>
       <c r="IL16" s="1"/>
       <c r="IM16" s="1"/>
       <c r="IN16" s="1"/>
       <c r="IO16" s="1"/>
-      <c r="IP16" s="21"/>
-      <c r="IQ16" s="21"/>
+      <c r="IP16" s="19"/>
+      <c r="IQ16" s="19"/>
       <c r="IR16" s="1"/>
       <c r="IS16" s="1"/>
       <c r="IT16" s="1"/>
       <c r="IU16" s="1"/>
       <c r="IV16" s="1"/>
-      <c r="IW16" s="21"/>
-      <c r="IX16" s="21"/>
+      <c r="IW16" s="19"/>
+      <c r="IX16" s="19"/>
       <c r="IY16" s="1"/>
       <c r="IZ16" s="1"/>
       <c r="JA16" s="1"/>
       <c r="JB16" s="1"/>
       <c r="JC16" s="1"/>
-      <c r="JD16" s="21"/>
-      <c r="JE16" s="21"/>
+      <c r="JD16" s="19"/>
+      <c r="JE16" s="19"/>
       <c r="JF16" s="1"/>
       <c r="JG16" s="1"/>
       <c r="JH16" s="1"/>
       <c r="JI16" s="1"/>
       <c r="JJ16" s="1"/>
-      <c r="JK16" s="21"/>
-      <c r="JL16" s="21"/>
+      <c r="JK16" s="19"/>
+      <c r="JL16" s="19"/>
       <c r="JM16" s="1"/>
       <c r="JN16" s="1"/>
       <c r="JO16" s="1"/>
       <c r="JP16" s="1"/>
       <c r="JQ16" s="1"/>
-      <c r="JR16" s="21"/>
-      <c r="JS16" s="21"/>
+      <c r="JR16" s="19"/>
+      <c r="JS16" s="19"/>
       <c r="JT16" s="1"/>
       <c r="JU16" s="1"/>
       <c r="JV16" s="1"/>
       <c r="JW16" s="1"/>
       <c r="JX16" s="1"/>
-      <c r="JY16" s="21"/>
-      <c r="JZ16" s="21"/>
+      <c r="JY16" s="19"/>
+      <c r="JZ16" s="19"/>
       <c r="KA16" s="1"/>
       <c r="KB16" s="1"/>
       <c r="KC16" s="1"/>
       <c r="KD16" s="1"/>
       <c r="KE16" s="1"/>
-      <c r="KF16" s="21"/>
-      <c r="KG16" s="21"/>
+      <c r="KF16" s="19"/>
+      <c r="KG16" s="19"/>
       <c r="KH16" s="1"/>
       <c r="KI16" s="1"/>
       <c r="KJ16" s="1"/>
       <c r="KK16" s="1"/>
       <c r="KL16" s="1"/>
-      <c r="KM16" s="21"/>
-      <c r="KN16" s="21"/>
+      <c r="KM16" s="19"/>
+      <c r="KN16" s="19"/>
       <c r="KO16" s="1"/>
       <c r="KP16" s="1"/>
       <c r="KQ16" s="1"/>
       <c r="KR16" s="1"/>
       <c r="KS16" s="1"/>
-      <c r="KT16" s="21"/>
-      <c r="KU16" s="21"/>
+      <c r="KT16" s="19"/>
+      <c r="KU16" s="19"/>
       <c r="KV16" s="1"/>
       <c r="KW16" s="1"/>
       <c r="KX16" s="1"/>
       <c r="KY16" s="1"/>
       <c r="KZ16" s="1"/>
-      <c r="LA16" s="21"/>
-      <c r="LB16" s="21"/>
+      <c r="LA16" s="19"/>
+      <c r="LB16" s="19"/>
       <c r="LC16" s="1"/>
       <c r="LD16" s="1"/>
       <c r="LE16" s="1"/>
       <c r="LF16" s="1"/>
       <c r="LG16" s="1"/>
-      <c r="LH16" s="21"/>
-      <c r="LI16" s="21"/>
+      <c r="LH16" s="19"/>
+      <c r="LI16" s="19"/>
       <c r="LJ16" s="1"/>
       <c r="LK16" s="1"/>
       <c r="LL16" s="1"/>
       <c r="LM16" s="1"/>
       <c r="LN16" s="1"/>
-      <c r="LO16" s="21"/>
-      <c r="LP16" s="21"/>
+      <c r="LO16" s="19"/>
+      <c r="LP16" s="19"/>
       <c r="LQ16" s="1"/>
       <c r="LR16" s="1"/>
       <c r="LS16" s="1"/>
       <c r="LT16" s="1"/>
       <c r="LU16" s="1"/>
-      <c r="LV16" s="21"/>
-      <c r="LW16" s="21"/>
+      <c r="LV16" s="19"/>
+      <c r="LW16" s="19"/>
       <c r="LX16" s="1"/>
       <c r="LY16" s="1"/>
       <c r="LZ16" s="1"/>
       <c r="MA16" s="1"/>
       <c r="MB16" s="1"/>
-      <c r="MC16" s="21"/>
-      <c r="MD16" s="21"/>
+      <c r="MC16" s="19"/>
+      <c r="MD16" s="19"/>
       <c r="ME16" s="1"/>
       <c r="MF16" s="1"/>
       <c r="MG16" s="1"/>
       <c r="MH16" s="1"/>
       <c r="MI16" s="1"/>
-      <c r="MJ16" s="21"/>
-      <c r="MK16" s="21"/>
+      <c r="MJ16" s="19"/>
+      <c r="MK16" s="19"/>
       <c r="ML16" s="1"/>
       <c r="MM16" s="1"/>
       <c r="MN16" s="1"/>
       <c r="MO16" s="1"/>
       <c r="MP16" s="1"/>
-      <c r="MQ16" s="21"/>
-      <c r="MR16" s="21"/>
+      <c r="MQ16" s="19"/>
+      <c r="MR16" s="19"/>
       <c r="MS16" s="1"/>
       <c r="MT16" s="1"/>
       <c r="MU16" s="1"/>
       <c r="MV16" s="1"/>
       <c r="MW16" s="1"/>
-      <c r="MX16" s="21"/>
-      <c r="MY16" s="21"/>
+      <c r="MX16" s="19"/>
+      <c r="MY16" s="19"/>
       <c r="MZ16" s="1"/>
       <c r="NA16" s="1"/>
       <c r="NB16" s="1"/>
@@ -8499,288 +8517,288 @@
       <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
       <c r="CC17" s="7"/>
-      <c r="CD17" s="21"/>
-      <c r="CE17" s="21"/>
+      <c r="CD17" s="19"/>
+      <c r="CE17" s="19"/>
       <c r="CF17" s="7"/>
       <c r="CG17" s="7"/>
       <c r="CH17" s="7"/>
       <c r="CI17" s="7"/>
       <c r="CJ17" s="7"/>
-      <c r="CK17" s="21"/>
-      <c r="CL17" s="21"/>
+      <c r="CK17" s="19"/>
+      <c r="CL17" s="19"/>
       <c r="CM17" s="7"/>
       <c r="CN17" s="7"/>
       <c r="CO17" s="7"/>
       <c r="CP17" s="7"/>
       <c r="CQ17" s="7"/>
-      <c r="CR17" s="21"/>
-      <c r="CS17" s="21"/>
+      <c r="CR17" s="19"/>
+      <c r="CS17" s="19"/>
       <c r="CT17" s="7"/>
       <c r="CU17" s="7"/>
       <c r="CV17" s="7"/>
       <c r="CW17" s="7"/>
       <c r="CX17" s="7"/>
-      <c r="CY17" s="21"/>
-      <c r="CZ17" s="21"/>
+      <c r="CY17" s="19"/>
+      <c r="CZ17" s="19"/>
       <c r="DA17" s="7"/>
       <c r="DB17" s="7"/>
       <c r="DC17" s="7"/>
       <c r="DD17" s="7"/>
       <c r="DE17" s="7"/>
-      <c r="DF17" s="21"/>
-      <c r="DG17" s="21"/>
+      <c r="DF17" s="19"/>
+      <c r="DG17" s="19"/>
       <c r="DH17" s="7"/>
       <c r="DI17" s="7"/>
       <c r="DJ17" s="7"/>
       <c r="DK17" s="7"/>
       <c r="DL17" s="7"/>
-      <c r="DM17" s="21"/>
-      <c r="DN17" s="21"/>
+      <c r="DM17" s="19"/>
+      <c r="DN17" s="19"/>
       <c r="DO17" s="7"/>
       <c r="DP17" s="7"/>
       <c r="DQ17" s="7"/>
       <c r="DR17" s="7"/>
       <c r="DS17" s="7"/>
-      <c r="DT17" s="21"/>
-      <c r="DU17" s="21"/>
+      <c r="DT17" s="19"/>
+      <c r="DU17" s="19"/>
       <c r="DV17" s="7"/>
       <c r="DW17" s="7"/>
       <c r="DX17" s="7"/>
       <c r="DY17" s="7"/>
       <c r="DZ17" s="7"/>
-      <c r="EA17" s="21"/>
-      <c r="EB17" s="21"/>
+      <c r="EA17" s="19"/>
+      <c r="EB17" s="19"/>
       <c r="EC17" s="7"/>
       <c r="ED17" s="7"/>
       <c r="EE17" s="7"/>
       <c r="EF17" s="7"/>
       <c r="EG17" s="7"/>
-      <c r="EH17" s="21"/>
-      <c r="EI17" s="21"/>
+      <c r="EH17" s="19"/>
+      <c r="EI17" s="19"/>
       <c r="EJ17" s="7"/>
       <c r="EK17" s="7"/>
       <c r="EL17" s="7"/>
       <c r="EM17" s="7"/>
       <c r="EN17" s="7"/>
-      <c r="EO17" s="21"/>
-      <c r="EP17" s="21"/>
+      <c r="EO17" s="19"/>
+      <c r="EP17" s="19"/>
       <c r="EQ17" s="7"/>
       <c r="ER17" s="7"/>
       <c r="ES17" s="7"/>
       <c r="ET17" s="7"/>
       <c r="EU17" s="7"/>
-      <c r="EV17" s="21"/>
-      <c r="EW17" s="21"/>
+      <c r="EV17" s="19"/>
+      <c r="EW17" s="19"/>
       <c r="EX17" s="7"/>
       <c r="EY17" s="7"/>
       <c r="EZ17" s="7"/>
       <c r="FA17" s="7"/>
       <c r="FB17" s="7"/>
-      <c r="FC17" s="21"/>
-      <c r="FD17" s="21"/>
+      <c r="FC17" s="19"/>
+      <c r="FD17" s="19"/>
       <c r="FE17" s="7"/>
       <c r="FF17" s="7"/>
       <c r="FG17" s="7"/>
-      <c r="FH17" s="7"/>
+      <c r="FH17" s="5"/>
       <c r="FI17" s="7"/>
-      <c r="FJ17" s="21"/>
-      <c r="FK17" s="21"/>
+      <c r="FJ17" s="19"/>
+      <c r="FK17" s="19"/>
       <c r="FL17" s="7"/>
       <c r="FM17" s="7"/>
       <c r="FN17" s="7"/>
       <c r="FO17" s="7"/>
       <c r="FP17" s="7"/>
-      <c r="FQ17" s="21"/>
-      <c r="FR17" s="21"/>
+      <c r="FQ17" s="19"/>
+      <c r="FR17" s="19"/>
       <c r="FS17" s="7"/>
       <c r="FT17" s="7"/>
       <c r="FU17" s="7"/>
       <c r="FV17" s="7"/>
       <c r="FW17" s="7"/>
-      <c r="FX17" s="21"/>
-      <c r="FY17" s="21"/>
+      <c r="FX17" s="19"/>
+      <c r="FY17" s="19"/>
       <c r="FZ17" s="7"/>
       <c r="GA17" s="7"/>
       <c r="GB17" s="7"/>
       <c r="GC17" s="7"/>
       <c r="GD17" s="7"/>
-      <c r="GE17" s="21"/>
-      <c r="GF17" s="21"/>
+      <c r="GE17" s="19"/>
+      <c r="GF17" s="19"/>
       <c r="GG17" s="7"/>
       <c r="GH17" s="7"/>
       <c r="GI17" s="7"/>
       <c r="GJ17" s="7"/>
       <c r="GK17" s="7"/>
-      <c r="GL17" s="21"/>
-      <c r="GM17" s="21"/>
+      <c r="GL17" s="19"/>
+      <c r="GM17" s="19"/>
       <c r="GN17" s="7"/>
       <c r="GO17" s="7"/>
       <c r="GP17" s="7"/>
       <c r="GQ17" s="7"/>
       <c r="GR17" s="7"/>
-      <c r="GS17" s="21"/>
-      <c r="GT17" s="21"/>
+      <c r="GS17" s="19"/>
+      <c r="GT17" s="19"/>
       <c r="GU17" s="7"/>
       <c r="GV17" s="7"/>
       <c r="GW17" s="7"/>
       <c r="GX17" s="7"/>
       <c r="GY17" s="7"/>
-      <c r="GZ17" s="21"/>
-      <c r="HA17" s="21"/>
+      <c r="GZ17" s="19"/>
+      <c r="HA17" s="19"/>
       <c r="HB17" s="7"/>
       <c r="HC17" s="7"/>
       <c r="HD17" s="7"/>
       <c r="HE17" s="7"/>
       <c r="HF17" s="7"/>
-      <c r="HG17" s="21"/>
-      <c r="HH17" s="21"/>
+      <c r="HG17" s="19"/>
+      <c r="HH17" s="19"/>
       <c r="HI17" s="7"/>
       <c r="HJ17" s="7"/>
       <c r="HK17" s="7"/>
       <c r="HL17" s="7"/>
       <c r="HM17" s="7"/>
-      <c r="HN17" s="21"/>
-      <c r="HO17" s="21"/>
+      <c r="HN17" s="19"/>
+      <c r="HO17" s="19"/>
       <c r="HP17" s="7"/>
       <c r="HQ17" s="7"/>
       <c r="HR17" s="7"/>
       <c r="HS17" s="7"/>
       <c r="HT17" s="7"/>
-      <c r="HU17" s="21"/>
-      <c r="HV17" s="21"/>
+      <c r="HU17" s="19"/>
+      <c r="HV17" s="19"/>
       <c r="HW17" s="7"/>
       <c r="HX17" s="7"/>
       <c r="HY17" s="7"/>
       <c r="HZ17" s="7"/>
       <c r="IA17" s="7"/>
-      <c r="IB17" s="21"/>
-      <c r="IC17" s="21"/>
+      <c r="IB17" s="19"/>
+      <c r="IC17" s="19"/>
       <c r="ID17" s="7"/>
       <c r="IE17" s="7"/>
       <c r="IF17" s="7"/>
       <c r="IG17" s="7"/>
       <c r="IH17" s="7"/>
-      <c r="II17" s="21"/>
-      <c r="IJ17" s="21"/>
+      <c r="II17" s="19"/>
+      <c r="IJ17" s="19"/>
       <c r="IK17" s="7"/>
       <c r="IL17" s="7"/>
       <c r="IM17" s="7"/>
       <c r="IN17" s="7"/>
       <c r="IO17" s="7"/>
-      <c r="IP17" s="21"/>
-      <c r="IQ17" s="21"/>
+      <c r="IP17" s="19"/>
+      <c r="IQ17" s="19"/>
       <c r="IR17" s="7"/>
       <c r="IS17" s="7"/>
       <c r="IT17" s="7"/>
       <c r="IU17" s="7"/>
       <c r="IV17" s="7"/>
-      <c r="IW17" s="21"/>
-      <c r="IX17" s="21"/>
+      <c r="IW17" s="19"/>
+      <c r="IX17" s="19"/>
       <c r="IY17" s="7"/>
       <c r="IZ17" s="7"/>
       <c r="JA17" s="7"/>
       <c r="JB17" s="7"/>
       <c r="JC17" s="7"/>
-      <c r="JD17" s="21"/>
-      <c r="JE17" s="21"/>
+      <c r="JD17" s="19"/>
+      <c r="JE17" s="19"/>
       <c r="JF17" s="7"/>
       <c r="JG17" s="7"/>
       <c r="JH17" s="7"/>
       <c r="JI17" s="7"/>
       <c r="JJ17" s="7"/>
-      <c r="JK17" s="21"/>
-      <c r="JL17" s="21"/>
+      <c r="JK17" s="19"/>
+      <c r="JL17" s="19"/>
       <c r="JM17" s="7"/>
       <c r="JN17" s="7"/>
       <c r="JO17" s="7"/>
       <c r="JP17" s="7"/>
       <c r="JQ17" s="7"/>
-      <c r="JR17" s="21"/>
-      <c r="JS17" s="21"/>
+      <c r="JR17" s="19"/>
+      <c r="JS17" s="19"/>
       <c r="JT17" s="7"/>
       <c r="JU17" s="7"/>
       <c r="JV17" s="7"/>
       <c r="JW17" s="7"/>
       <c r="JX17" s="7"/>
-      <c r="JY17" s="21"/>
-      <c r="JZ17" s="21"/>
+      <c r="JY17" s="19"/>
+      <c r="JZ17" s="19"/>
       <c r="KA17" s="7"/>
       <c r="KB17" s="7"/>
       <c r="KC17" s="7"/>
       <c r="KD17" s="7"/>
       <c r="KE17" s="7"/>
-      <c r="KF17" s="21"/>
-      <c r="KG17" s="21"/>
+      <c r="KF17" s="19"/>
+      <c r="KG17" s="19"/>
       <c r="KH17" s="7"/>
       <c r="KI17" s="7"/>
       <c r="KJ17" s="7"/>
       <c r="KK17" s="7"/>
       <c r="KL17" s="7"/>
-      <c r="KM17" s="21"/>
-      <c r="KN17" s="21"/>
+      <c r="KM17" s="19"/>
+      <c r="KN17" s="19"/>
       <c r="KO17" s="7"/>
       <c r="KP17" s="7"/>
       <c r="KQ17" s="7"/>
       <c r="KR17" s="7"/>
       <c r="KS17" s="7"/>
-      <c r="KT17" s="21"/>
-      <c r="KU17" s="21"/>
+      <c r="KT17" s="19"/>
+      <c r="KU17" s="19"/>
       <c r="KV17" s="7"/>
       <c r="KW17" s="7"/>
       <c r="KX17" s="7"/>
       <c r="KY17" s="7"/>
       <c r="KZ17" s="7"/>
-      <c r="LA17" s="21"/>
-      <c r="LB17" s="21"/>
+      <c r="LA17" s="19"/>
+      <c r="LB17" s="19"/>
       <c r="LC17" s="7"/>
       <c r="LD17" s="7"/>
       <c r="LE17" s="7"/>
       <c r="LF17" s="7"/>
       <c r="LG17" s="7"/>
-      <c r="LH17" s="21"/>
-      <c r="LI17" s="21"/>
+      <c r="LH17" s="19"/>
+      <c r="LI17" s="19"/>
       <c r="LJ17" s="7"/>
       <c r="LK17" s="7"/>
       <c r="LL17" s="7"/>
       <c r="LM17" s="7"/>
       <c r="LN17" s="7"/>
-      <c r="LO17" s="21"/>
-      <c r="LP17" s="21"/>
+      <c r="LO17" s="19"/>
+      <c r="LP17" s="19"/>
       <c r="LQ17" s="7"/>
       <c r="LR17" s="7"/>
       <c r="LS17" s="7"/>
       <c r="LT17" s="7"/>
       <c r="LU17" s="7"/>
-      <c r="LV17" s="21"/>
-      <c r="LW17" s="21"/>
+      <c r="LV17" s="19"/>
+      <c r="LW17" s="19"/>
       <c r="LX17" s="7"/>
       <c r="LY17" s="7"/>
       <c r="LZ17" s="7"/>
       <c r="MA17" s="7"/>
       <c r="MB17" s="7"/>
-      <c r="MC17" s="21"/>
-      <c r="MD17" s="21"/>
+      <c r="MC17" s="19"/>
+      <c r="MD17" s="19"/>
       <c r="ME17" s="7"/>
       <c r="MF17" s="7"/>
       <c r="MG17" s="7"/>
       <c r="MH17" s="7"/>
       <c r="MI17" s="7"/>
-      <c r="MJ17" s="21"/>
-      <c r="MK17" s="21"/>
+      <c r="MJ17" s="19"/>
+      <c r="MK17" s="19"/>
       <c r="ML17" s="7"/>
       <c r="MM17" s="7"/>
       <c r="MN17" s="7"/>
       <c r="MO17" s="7"/>
       <c r="MP17" s="7"/>
-      <c r="MQ17" s="21"/>
-      <c r="MR17" s="21"/>
+      <c r="MQ17" s="19"/>
+      <c r="MR17" s="19"/>
       <c r="MS17" s="7"/>
       <c r="MT17" s="7"/>
       <c r="MU17" s="7"/>
       <c r="MV17" s="7"/>
       <c r="MW17" s="7"/>
-      <c r="MX17" s="21"/>
-      <c r="MY17" s="21"/>
+      <c r="MX17" s="19"/>
+      <c r="MY17" s="19"/>
       <c r="MZ17" s="7"/>
       <c r="NA17" s="7"/>
       <c r="NB17" s="7"/>
@@ -8868,288 +8886,288 @@
       <c r="CA18" s="1"/>
       <c r="CB18" s="1"/>
       <c r="CC18" s="1"/>
-      <c r="CD18" s="21"/>
-      <c r="CE18" s="21"/>
+      <c r="CD18" s="19"/>
+      <c r="CE18" s="19"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
-      <c r="CK18" s="21"/>
-      <c r="CL18" s="21"/>
+      <c r="CK18" s="19"/>
+      <c r="CL18" s="19"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
       <c r="CQ18" s="1"/>
-      <c r="CR18" s="21"/>
-      <c r="CS18" s="21"/>
+      <c r="CR18" s="19"/>
+      <c r="CS18" s="19"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
       <c r="CW18" s="1"/>
       <c r="CX18" s="1"/>
-      <c r="CY18" s="21"/>
-      <c r="CZ18" s="21"/>
+      <c r="CY18" s="19"/>
+      <c r="CZ18" s="19"/>
       <c r="DB18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="DC18" s="1"/>
       <c r="DD18" s="1"/>
       <c r="DE18" s="1"/>
-      <c r="DF18" s="21"/>
-      <c r="DG18" s="21"/>
+      <c r="DF18" s="19"/>
+      <c r="DG18" s="19"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
       <c r="DJ18" s="1"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
-      <c r="DM18" s="21"/>
-      <c r="DN18" s="21"/>
+      <c r="DM18" s="19"/>
+      <c r="DN18" s="19"/>
       <c r="DO18" s="1"/>
       <c r="DP18" s="1"/>
       <c r="DQ18" s="1"/>
       <c r="DR18" s="1"/>
       <c r="DS18" s="1"/>
-      <c r="DT18" s="21"/>
-      <c r="DU18" s="21"/>
+      <c r="DT18" s="19"/>
+      <c r="DU18" s="19"/>
       <c r="DV18" s="1"/>
       <c r="DW18" s="1"/>
       <c r="DX18" s="1"/>
       <c r="DY18" s="1"/>
       <c r="DZ18" s="1"/>
-      <c r="EA18" s="21"/>
-      <c r="EB18" s="21"/>
+      <c r="EA18" s="19"/>
+      <c r="EB18" s="19"/>
       <c r="EC18" s="1"/>
       <c r="ED18" s="1"/>
       <c r="EE18" s="1"/>
       <c r="EF18" s="1"/>
       <c r="EG18" s="1"/>
-      <c r="EH18" s="21"/>
-      <c r="EI18" s="21"/>
+      <c r="EH18" s="19"/>
+      <c r="EI18" s="19"/>
       <c r="EJ18" s="1"/>
       <c r="EK18" s="1"/>
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="21"/>
-      <c r="EP18" s="21"/>
+      <c r="EO18" s="19"/>
+      <c r="EP18" s="19"/>
       <c r="EQ18" s="1"/>
       <c r="ER18" s="1"/>
       <c r="ES18" s="1"/>
       <c r="ET18" s="1"/>
       <c r="EU18" s="1"/>
-      <c r="EV18" s="21"/>
-      <c r="EW18" s="21"/>
+      <c r="EV18" s="19"/>
+      <c r="EW18" s="19"/>
       <c r="EX18" s="1"/>
       <c r="EY18" s="1"/>
       <c r="EZ18" s="1"/>
       <c r="FA18" s="1"/>
       <c r="FB18" s="1"/>
-      <c r="FC18" s="21"/>
-      <c r="FD18" s="21"/>
+      <c r="FC18" s="19"/>
+      <c r="FD18" s="19"/>
       <c r="FE18" s="1"/>
       <c r="FF18" s="1"/>
       <c r="FG18" s="1"/>
-      <c r="FH18" s="1"/>
+      <c r="FH18" s="5"/>
       <c r="FI18" s="1"/>
-      <c r="FJ18" s="21"/>
-      <c r="FK18" s="21"/>
+      <c r="FJ18" s="19"/>
+      <c r="FK18" s="19"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
       <c r="FN18" s="1"/>
       <c r="FO18" s="1"/>
       <c r="FP18" s="1"/>
-      <c r="FQ18" s="21"/>
-      <c r="FR18" s="21"/>
+      <c r="FQ18" s="19"/>
+      <c r="FR18" s="19"/>
       <c r="FS18" s="1"/>
       <c r="FT18" s="1"/>
       <c r="FU18" s="1"/>
       <c r="FV18" s="1"/>
       <c r="FW18" s="1"/>
-      <c r="FX18" s="21"/>
-      <c r="FY18" s="21"/>
+      <c r="FX18" s="19"/>
+      <c r="FY18" s="19"/>
       <c r="FZ18" s="1"/>
       <c r="GA18" s="1"/>
       <c r="GB18" s="1"/>
       <c r="GC18" s="1"/>
       <c r="GD18" s="1"/>
-      <c r="GE18" s="21"/>
-      <c r="GF18" s="21"/>
+      <c r="GE18" s="19"/>
+      <c r="GF18" s="19"/>
       <c r="GG18" s="1"/>
       <c r="GH18" s="1"/>
       <c r="GI18" s="1"/>
       <c r="GJ18" s="1"/>
       <c r="GK18" s="1"/>
-      <c r="GL18" s="21"/>
-      <c r="GM18" s="21"/>
+      <c r="GL18" s="19"/>
+      <c r="GM18" s="19"/>
       <c r="GN18" s="1"/>
       <c r="GO18" s="1"/>
       <c r="GP18" s="1"/>
       <c r="GQ18" s="1"/>
       <c r="GR18" s="1"/>
-      <c r="GS18" s="21"/>
-      <c r="GT18" s="21"/>
+      <c r="GS18" s="19"/>
+      <c r="GT18" s="19"/>
       <c r="GU18" s="1"/>
       <c r="GV18" s="1"/>
       <c r="GW18" s="1"/>
       <c r="GX18" s="1"/>
       <c r="GY18" s="1"/>
-      <c r="GZ18" s="21"/>
-      <c r="HA18" s="21"/>
+      <c r="GZ18" s="19"/>
+      <c r="HA18" s="19"/>
       <c r="HB18" s="1"/>
       <c r="HC18" s="1"/>
       <c r="HD18" s="1"/>
       <c r="HE18" s="1"/>
       <c r="HF18" s="1"/>
-      <c r="HG18" s="21"/>
-      <c r="HH18" s="21"/>
+      <c r="HG18" s="19"/>
+      <c r="HH18" s="19"/>
       <c r="HI18" s="1"/>
       <c r="HJ18" s="1"/>
       <c r="HK18" s="1"/>
       <c r="HL18" s="1"/>
       <c r="HM18" s="1"/>
-      <c r="HN18" s="21"/>
-      <c r="HO18" s="21"/>
+      <c r="HN18" s="19"/>
+      <c r="HO18" s="19"/>
       <c r="HP18" s="1"/>
       <c r="HQ18" s="1"/>
       <c r="HR18" s="1"/>
       <c r="HS18" s="1"/>
       <c r="HT18" s="1"/>
-      <c r="HU18" s="21"/>
-      <c r="HV18" s="21"/>
+      <c r="HU18" s="19"/>
+      <c r="HV18" s="19"/>
       <c r="HW18" s="1"/>
       <c r="HX18" s="1"/>
       <c r="HY18" s="1"/>
       <c r="HZ18" s="1"/>
       <c r="IA18" s="1"/>
-      <c r="IB18" s="21"/>
-      <c r="IC18" s="21"/>
+      <c r="IB18" s="19"/>
+      <c r="IC18" s="19"/>
       <c r="ID18" s="1"/>
       <c r="IE18" s="1"/>
       <c r="IF18" s="1"/>
       <c r="IG18" s="1"/>
       <c r="IH18" s="1"/>
-      <c r="II18" s="21"/>
-      <c r="IJ18" s="21"/>
+      <c r="II18" s="19"/>
+      <c r="IJ18" s="19"/>
       <c r="IK18" s="1"/>
       <c r="IL18" s="1"/>
       <c r="IM18" s="1"/>
       <c r="IN18" s="1"/>
       <c r="IO18" s="1"/>
-      <c r="IP18" s="21"/>
-      <c r="IQ18" s="21"/>
+      <c r="IP18" s="19"/>
+      <c r="IQ18" s="19"/>
       <c r="IR18" s="1"/>
       <c r="IS18" s="1"/>
       <c r="IT18" s="1"/>
       <c r="IU18" s="1"/>
       <c r="IV18" s="1"/>
-      <c r="IW18" s="21"/>
-      <c r="IX18" s="21"/>
+      <c r="IW18" s="19"/>
+      <c r="IX18" s="19"/>
       <c r="IY18" s="1"/>
       <c r="IZ18" s="1"/>
       <c r="JA18" s="1"/>
       <c r="JB18" s="1"/>
       <c r="JC18" s="1"/>
-      <c r="JD18" s="21"/>
-      <c r="JE18" s="21"/>
+      <c r="JD18" s="19"/>
+      <c r="JE18" s="19"/>
       <c r="JF18" s="1"/>
       <c r="JG18" s="1"/>
       <c r="JH18" s="1"/>
       <c r="JI18" s="1"/>
       <c r="JJ18" s="1"/>
-      <c r="JK18" s="21"/>
-      <c r="JL18" s="21"/>
+      <c r="JK18" s="19"/>
+      <c r="JL18" s="19"/>
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
       <c r="JO18" s="1"/>
       <c r="JP18" s="1"/>
       <c r="JQ18" s="1"/>
-      <c r="JR18" s="21"/>
-      <c r="JS18" s="21"/>
+      <c r="JR18" s="19"/>
+      <c r="JS18" s="19"/>
       <c r="JT18" s="1"/>
       <c r="JU18" s="1"/>
       <c r="JV18" s="1"/>
       <c r="JW18" s="1"/>
       <c r="JX18" s="1"/>
-      <c r="JY18" s="21"/>
-      <c r="JZ18" s="21"/>
+      <c r="JY18" s="19"/>
+      <c r="JZ18" s="19"/>
       <c r="KA18" s="1"/>
       <c r="KB18" s="1"/>
       <c r="KC18" s="1"/>
       <c r="KD18" s="1"/>
       <c r="KE18" s="1"/>
-      <c r="KF18" s="21"/>
-      <c r="KG18" s="21"/>
+      <c r="KF18" s="19"/>
+      <c r="KG18" s="19"/>
       <c r="KH18" s="1"/>
       <c r="KI18" s="1"/>
       <c r="KJ18" s="1"/>
       <c r="KK18" s="1"/>
       <c r="KL18" s="1"/>
-      <c r="KM18" s="21"/>
-      <c r="KN18" s="21"/>
+      <c r="KM18" s="19"/>
+      <c r="KN18" s="19"/>
       <c r="KO18" s="1"/>
       <c r="KP18" s="1"/>
       <c r="KQ18" s="1"/>
       <c r="KR18" s="1"/>
       <c r="KS18" s="1"/>
-      <c r="KT18" s="21"/>
-      <c r="KU18" s="21"/>
+      <c r="KT18" s="19"/>
+      <c r="KU18" s="19"/>
       <c r="KV18" s="1"/>
       <c r="KW18" s="1"/>
       <c r="KX18" s="1"/>
       <c r="KY18" s="1"/>
       <c r="KZ18" s="1"/>
-      <c r="LA18" s="21"/>
-      <c r="LB18" s="21"/>
+      <c r="LA18" s="19"/>
+      <c r="LB18" s="19"/>
       <c r="LC18" s="1"/>
       <c r="LD18" s="1"/>
       <c r="LE18" s="1"/>
       <c r="LF18" s="1"/>
       <c r="LG18" s="1"/>
-      <c r="LH18" s="21"/>
-      <c r="LI18" s="21"/>
+      <c r="LH18" s="19"/>
+      <c r="LI18" s="19"/>
       <c r="LJ18" s="1"/>
       <c r="LK18" s="1"/>
       <c r="LL18" s="1"/>
       <c r="LM18" s="1"/>
       <c r="LN18" s="1"/>
-      <c r="LO18" s="21"/>
-      <c r="LP18" s="21"/>
+      <c r="LO18" s="19"/>
+      <c r="LP18" s="19"/>
       <c r="LQ18" s="1"/>
       <c r="LR18" s="1"/>
       <c r="LS18" s="1"/>
       <c r="LT18" s="1"/>
       <c r="LU18" s="1"/>
-      <c r="LV18" s="21"/>
-      <c r="LW18" s="21"/>
+      <c r="LV18" s="19"/>
+      <c r="LW18" s="19"/>
       <c r="LX18" s="1"/>
       <c r="LY18" s="1"/>
       <c r="LZ18" s="1"/>
       <c r="MA18" s="1"/>
       <c r="MB18" s="1"/>
-      <c r="MC18" s="21"/>
-      <c r="MD18" s="21"/>
+      <c r="MC18" s="19"/>
+      <c r="MD18" s="19"/>
       <c r="ME18" s="1"/>
       <c r="MF18" s="1"/>
       <c r="MG18" s="1"/>
       <c r="MH18" s="1"/>
       <c r="MI18" s="1"/>
-      <c r="MJ18" s="21"/>
-      <c r="MK18" s="21"/>
+      <c r="MJ18" s="19"/>
+      <c r="MK18" s="19"/>
       <c r="ML18" s="1"/>
       <c r="MM18" s="1"/>
       <c r="MN18" s="1"/>
       <c r="MO18" s="1"/>
       <c r="MP18" s="1"/>
-      <c r="MQ18" s="21"/>
-      <c r="MR18" s="21"/>
+      <c r="MQ18" s="19"/>
+      <c r="MR18" s="19"/>
       <c r="MS18" s="1"/>
       <c r="MT18" s="1"/>
       <c r="MU18" s="1"/>
       <c r="MV18" s="1"/>
       <c r="MW18" s="1"/>
-      <c r="MX18" s="21"/>
-      <c r="MY18" s="21"/>
+      <c r="MX18" s="19"/>
+      <c r="MY18" s="19"/>
       <c r="MZ18" s="1"/>
       <c r="NA18" s="1"/>
       <c r="NB18" s="1"/>
@@ -9236,288 +9254,288 @@
       <c r="CA19" s="7"/>
       <c r="CB19" s="7"/>
       <c r="CC19" s="7"/>
-      <c r="CD19" s="21"/>
-      <c r="CE19" s="21"/>
+      <c r="CD19" s="19"/>
+      <c r="CE19" s="19"/>
       <c r="CF19" s="7"/>
       <c r="CG19" s="7"/>
       <c r="CH19" s="7"/>
       <c r="CI19" s="7"/>
       <c r="CJ19" s="7"/>
-      <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
+      <c r="CK19" s="19"/>
+      <c r="CL19" s="19"/>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
       <c r="CO19" s="7"/>
       <c r="CP19" s="7"/>
       <c r="CQ19" s="7"/>
-      <c r="CR19" s="21"/>
-      <c r="CS19" s="21"/>
+      <c r="CR19" s="19"/>
+      <c r="CS19" s="19"/>
       <c r="CT19" s="7"/>
       <c r="CU19" s="7"/>
       <c r="CV19" s="7"/>
       <c r="CW19" s="7"/>
       <c r="CX19" s="7"/>
-      <c r="CY19" s="21"/>
-      <c r="CZ19" s="21"/>
+      <c r="CY19" s="19"/>
+      <c r="CZ19" s="19"/>
       <c r="DA19" s="7"/>
       <c r="DB19" s="7"/>
       <c r="DC19" s="7"/>
       <c r="DD19" s="7"/>
       <c r="DE19" s="7"/>
-      <c r="DF19" s="21"/>
-      <c r="DG19" s="21"/>
+      <c r="DF19" s="19"/>
+      <c r="DG19" s="19"/>
       <c r="DH19" s="7"/>
       <c r="DI19" s="7"/>
       <c r="DJ19" s="7"/>
       <c r="DK19" s="7"/>
       <c r="DL19" s="7"/>
-      <c r="DM19" s="21"/>
-      <c r="DN19" s="21"/>
+      <c r="DM19" s="19"/>
+      <c r="DN19" s="19"/>
       <c r="DO19" s="7"/>
       <c r="DP19" s="7"/>
       <c r="DQ19" s="7"/>
       <c r="DR19" s="7"/>
       <c r="DS19" s="7"/>
-      <c r="DT19" s="21"/>
-      <c r="DU19" s="21"/>
+      <c r="DT19" s="19"/>
+      <c r="DU19" s="19"/>
       <c r="DV19" s="7"/>
       <c r="DW19" s="7"/>
       <c r="DX19" s="7"/>
       <c r="DY19" s="7"/>
       <c r="DZ19" s="7"/>
-      <c r="EA19" s="21"/>
-      <c r="EB19" s="21"/>
+      <c r="EA19" s="19"/>
+      <c r="EB19" s="19"/>
       <c r="EC19" s="7"/>
       <c r="ED19" s="7"/>
       <c r="EE19" s="7"/>
       <c r="EF19" s="7"/>
       <c r="EG19" s="7"/>
-      <c r="EH19" s="21"/>
-      <c r="EI19" s="21"/>
+      <c r="EH19" s="19"/>
+      <c r="EI19" s="19"/>
       <c r="EJ19" s="7"/>
       <c r="EK19" s="7"/>
       <c r="EL19" s="7"/>
       <c r="EM19" s="7"/>
       <c r="EN19" s="7"/>
-      <c r="EO19" s="21"/>
-      <c r="EP19" s="21"/>
+      <c r="EO19" s="19"/>
+      <c r="EP19" s="19"/>
       <c r="EQ19" s="7"/>
       <c r="ER19" s="7"/>
       <c r="ES19" s="7"/>
       <c r="ET19" s="7"/>
       <c r="EU19" s="7"/>
-      <c r="EV19" s="21"/>
-      <c r="EW19" s="21"/>
+      <c r="EV19" s="19"/>
+      <c r="EW19" s="19"/>
       <c r="EX19" s="7"/>
       <c r="EY19" s="7"/>
       <c r="EZ19" s="7"/>
       <c r="FA19" s="7"/>
       <c r="FB19" s="7"/>
-      <c r="FC19" s="21"/>
-      <c r="FD19" s="21"/>
+      <c r="FC19" s="19"/>
+      <c r="FD19" s="19"/>
       <c r="FE19" s="7"/>
       <c r="FF19" s="7"/>
       <c r="FG19" s="7"/>
-      <c r="FH19" s="7"/>
+      <c r="FH19" s="5"/>
       <c r="FI19" s="7"/>
-      <c r="FJ19" s="21"/>
-      <c r="FK19" s="21"/>
+      <c r="FJ19" s="19"/>
+      <c r="FK19" s="19"/>
       <c r="FL19" s="7"/>
       <c r="FM19" s="7"/>
       <c r="FN19" s="7"/>
       <c r="FO19" s="7"/>
       <c r="FP19" s="7"/>
-      <c r="FQ19" s="21"/>
-      <c r="FR19" s="21"/>
+      <c r="FQ19" s="19"/>
+      <c r="FR19" s="19"/>
       <c r="FS19" s="7"/>
       <c r="FT19" s="7"/>
       <c r="FU19" s="7"/>
       <c r="FV19" s="7"/>
       <c r="FW19" s="7"/>
-      <c r="FX19" s="21"/>
-      <c r="FY19" s="21"/>
+      <c r="FX19" s="19"/>
+      <c r="FY19" s="19"/>
       <c r="FZ19" s="7"/>
       <c r="GA19" s="7"/>
       <c r="GB19" s="7"/>
       <c r="GC19" s="7"/>
       <c r="GD19" s="7"/>
-      <c r="GE19" s="21"/>
-      <c r="GF19" s="21"/>
+      <c r="GE19" s="19"/>
+      <c r="GF19" s="19"/>
       <c r="GG19" s="7"/>
       <c r="GH19" s="7"/>
       <c r="GI19" s="7"/>
       <c r="GJ19" s="7"/>
       <c r="GK19" s="7"/>
-      <c r="GL19" s="21"/>
-      <c r="GM19" s="21"/>
+      <c r="GL19" s="19"/>
+      <c r="GM19" s="19"/>
       <c r="GN19" s="7"/>
       <c r="GO19" s="7"/>
       <c r="GP19" s="7"/>
       <c r="GQ19" s="7"/>
       <c r="GR19" s="7"/>
-      <c r="GS19" s="21"/>
-      <c r="GT19" s="21"/>
+      <c r="GS19" s="19"/>
+      <c r="GT19" s="19"/>
       <c r="GU19" s="7"/>
       <c r="GV19" s="7"/>
       <c r="GW19" s="7"/>
       <c r="GX19" s="7"/>
       <c r="GY19" s="7"/>
-      <c r="GZ19" s="21"/>
-      <c r="HA19" s="21"/>
+      <c r="GZ19" s="19"/>
+      <c r="HA19" s="19"/>
       <c r="HB19" s="7"/>
       <c r="HC19" s="7"/>
       <c r="HD19" s="7"/>
       <c r="HE19" s="7"/>
       <c r="HF19" s="7"/>
-      <c r="HG19" s="21"/>
-      <c r="HH19" s="21"/>
+      <c r="HG19" s="19"/>
+      <c r="HH19" s="19"/>
       <c r="HI19" s="7"/>
       <c r="HJ19" s="7"/>
       <c r="HK19" s="7"/>
       <c r="HL19" s="7"/>
       <c r="HM19" s="7"/>
-      <c r="HN19" s="21"/>
-      <c r="HO19" s="21"/>
+      <c r="HN19" s="19"/>
+      <c r="HO19" s="19"/>
       <c r="HP19" s="7"/>
       <c r="HQ19" s="7"/>
       <c r="HR19" s="7"/>
       <c r="HS19" s="7"/>
       <c r="HT19" s="7"/>
-      <c r="HU19" s="21"/>
-      <c r="HV19" s="21"/>
+      <c r="HU19" s="19"/>
+      <c r="HV19" s="19"/>
       <c r="HW19" s="7"/>
       <c r="HX19" s="7"/>
       <c r="HY19" s="7"/>
       <c r="HZ19" s="7"/>
       <c r="IA19" s="7"/>
-      <c r="IB19" s="21"/>
-      <c r="IC19" s="21"/>
+      <c r="IB19" s="19"/>
+      <c r="IC19" s="19"/>
       <c r="ID19" s="7"/>
       <c r="IE19" s="7"/>
       <c r="IF19" s="7"/>
       <c r="IG19" s="7"/>
       <c r="IH19" s="7"/>
-      <c r="II19" s="21"/>
-      <c r="IJ19" s="21"/>
+      <c r="II19" s="19"/>
+      <c r="IJ19" s="19"/>
       <c r="IK19" s="7"/>
       <c r="IL19" s="7"/>
       <c r="IM19" s="7"/>
       <c r="IN19" s="7"/>
       <c r="IO19" s="7"/>
-      <c r="IP19" s="21"/>
-      <c r="IQ19" s="21"/>
+      <c r="IP19" s="19"/>
+      <c r="IQ19" s="19"/>
       <c r="IR19" s="7"/>
       <c r="IS19" s="7"/>
       <c r="IT19" s="7"/>
       <c r="IU19" s="7"/>
       <c r="IV19" s="7"/>
-      <c r="IW19" s="21"/>
-      <c r="IX19" s="21"/>
+      <c r="IW19" s="19"/>
+      <c r="IX19" s="19"/>
       <c r="IY19" s="7"/>
       <c r="IZ19" s="7"/>
       <c r="JA19" s="7"/>
       <c r="JB19" s="7"/>
       <c r="JC19" s="7"/>
-      <c r="JD19" s="21"/>
-      <c r="JE19" s="21"/>
+      <c r="JD19" s="19"/>
+      <c r="JE19" s="19"/>
       <c r="JF19" s="7"/>
       <c r="JG19" s="7"/>
       <c r="JH19" s="7"/>
       <c r="JI19" s="7"/>
       <c r="JJ19" s="7"/>
-      <c r="JK19" s="21"/>
-      <c r="JL19" s="21"/>
+      <c r="JK19" s="19"/>
+      <c r="JL19" s="19"/>
       <c r="JM19" s="7"/>
       <c r="JN19" s="7"/>
       <c r="JO19" s="7"/>
       <c r="JP19" s="7"/>
       <c r="JQ19" s="7"/>
-      <c r="JR19" s="21"/>
-      <c r="JS19" s="21"/>
+      <c r="JR19" s="19"/>
+      <c r="JS19" s="19"/>
       <c r="JT19" s="7"/>
       <c r="JU19" s="7"/>
       <c r="JV19" s="7"/>
       <c r="JW19" s="7"/>
       <c r="JX19" s="7"/>
-      <c r="JY19" s="21"/>
-      <c r="JZ19" s="21"/>
+      <c r="JY19" s="19"/>
+      <c r="JZ19" s="19"/>
       <c r="KA19" s="7"/>
       <c r="KB19" s="7"/>
       <c r="KC19" s="7"/>
       <c r="KD19" s="7"/>
       <c r="KE19" s="7"/>
-      <c r="KF19" s="21"/>
-      <c r="KG19" s="21"/>
+      <c r="KF19" s="19"/>
+      <c r="KG19" s="19"/>
       <c r="KH19" s="7"/>
       <c r="KI19" s="7"/>
       <c r="KJ19" s="7"/>
       <c r="KK19" s="7"/>
       <c r="KL19" s="7"/>
-      <c r="KM19" s="21"/>
-      <c r="KN19" s="21"/>
+      <c r="KM19" s="19"/>
+      <c r="KN19" s="19"/>
       <c r="KO19" s="7"/>
       <c r="KP19" s="7"/>
       <c r="KQ19" s="7"/>
       <c r="KR19" s="7"/>
       <c r="KS19" s="7"/>
-      <c r="KT19" s="21"/>
-      <c r="KU19" s="21"/>
+      <c r="KT19" s="19"/>
+      <c r="KU19" s="19"/>
       <c r="KV19" s="7"/>
       <c r="KW19" s="7"/>
       <c r="KX19" s="7"/>
       <c r="KY19" s="7"/>
       <c r="KZ19" s="7"/>
-      <c r="LA19" s="21"/>
-      <c r="LB19" s="21"/>
+      <c r="LA19" s="19"/>
+      <c r="LB19" s="19"/>
       <c r="LC19" s="7"/>
       <c r="LD19" s="7"/>
       <c r="LE19" s="7"/>
       <c r="LF19" s="7"/>
       <c r="LG19" s="7"/>
-      <c r="LH19" s="21"/>
-      <c r="LI19" s="21"/>
+      <c r="LH19" s="19"/>
+      <c r="LI19" s="19"/>
       <c r="LJ19" s="7"/>
       <c r="LK19" s="7"/>
       <c r="LL19" s="7"/>
       <c r="LM19" s="7"/>
       <c r="LN19" s="7"/>
-      <c r="LO19" s="21"/>
-      <c r="LP19" s="21"/>
+      <c r="LO19" s="19"/>
+      <c r="LP19" s="19"/>
       <c r="LQ19" s="7"/>
       <c r="LR19" s="7"/>
       <c r="LS19" s="7"/>
       <c r="LT19" s="7"/>
       <c r="LU19" s="7"/>
-      <c r="LV19" s="21"/>
-      <c r="LW19" s="21"/>
+      <c r="LV19" s="19"/>
+      <c r="LW19" s="19"/>
       <c r="LX19" s="7"/>
       <c r="LY19" s="7"/>
       <c r="LZ19" s="7"/>
       <c r="MA19" s="7"/>
       <c r="MB19" s="7"/>
-      <c r="MC19" s="21"/>
-      <c r="MD19" s="21"/>
+      <c r="MC19" s="19"/>
+      <c r="MD19" s="19"/>
       <c r="ME19" s="7"/>
       <c r="MF19" s="7"/>
       <c r="MG19" s="7"/>
       <c r="MH19" s="7"/>
       <c r="MI19" s="7"/>
-      <c r="MJ19" s="21"/>
-      <c r="MK19" s="21"/>
+      <c r="MJ19" s="19"/>
+      <c r="MK19" s="19"/>
       <c r="ML19" s="7"/>
       <c r="MM19" s="7"/>
       <c r="MN19" s="7"/>
       <c r="MO19" s="7"/>
       <c r="MP19" s="7"/>
-      <c r="MQ19" s="21"/>
-      <c r="MR19" s="21"/>
+      <c r="MQ19" s="19"/>
+      <c r="MR19" s="19"/>
       <c r="MS19" s="7"/>
       <c r="MT19" s="7"/>
       <c r="MU19" s="7"/>
       <c r="MV19" s="7"/>
       <c r="MW19" s="7"/>
-      <c r="MX19" s="21"/>
-      <c r="MY19" s="21"/>
+      <c r="MX19" s="19"/>
+      <c r="MY19" s="19"/>
       <c r="MZ19" s="7"/>
       <c r="NA19" s="7"/>
       <c r="NB19" s="7"/>
@@ -9553,10 +9571,10 @@
       <c r="CX20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="CY20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ20" s="23" t="s">
+      <c r="CY20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="DA20" s="16" t="s">
@@ -9574,10 +9592,10 @@
       <c r="DE20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="DF20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG20" s="20" t="s">
+      <c r="DF20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="FL20" t="s">
@@ -9595,10 +9613,10 @@
       <c r="FP20" t="s">
         <v>13</v>
       </c>
-      <c r="FQ20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR20" s="20" t="s">
+      <c r="FQ20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="FS20" t="s">
@@ -9616,10 +9634,10 @@
       <c r="FW20" t="s">
         <v>13</v>
       </c>
-      <c r="FX20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY20" s="20" t="s">
+      <c r="FX20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="HI20" s="11" t="s">
@@ -9637,10 +9655,10 @@
       <c r="HM20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="HN20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO20" s="20" t="s">
+      <c r="HN20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="HP20" s="2" t="s">
@@ -9669,8 +9687,8 @@
       </c>
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
-      <c r="CD21" s="22"/>
-      <c r="CE21" s="22"/>
+      <c r="CD21" s="20"/>
+      <c r="CE21" s="20"/>
       <c r="CG21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9683,10 +9701,10 @@
       <c r="CJ21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CK21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL21" s="22"/>
+      <c r="CK21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL21" s="20"/>
       <c r="CN21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9696,14 +9714,14 @@
       <c r="CP21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CR21" s="22"/>
-      <c r="CS21" s="22"/>
-      <c r="CY21" s="22"/>
-      <c r="CZ21" s="22"/>
+      <c r="CR21" s="20"/>
+      <c r="CS21" s="20"/>
+      <c r="CY21" s="20"/>
+      <c r="CZ21" s="20"/>
       <c r="DD21" s="13"/>
       <c r="DE21" s="13"/>
-      <c r="DF21" s="24"/>
-      <c r="DG21" s="24"/>
+      <c r="DF21" s="22"/>
+      <c r="DG21" s="22"/>
       <c r="DH21" s="13"/>
       <c r="DI21" s="13" t="s">
         <v>13</v>
@@ -9717,19 +9735,19 @@
       <c r="DL21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DM21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN21" s="24"/>
+      <c r="DM21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN21" s="22"/>
       <c r="DO21" s="13"/>
-      <c r="DT21" s="22"/>
-      <c r="DU21" s="22"/>
-      <c r="EA21" s="22"/>
-      <c r="EB21" s="22"/>
-      <c r="EH21" s="22"/>
-      <c r="EI21" s="22"/>
-      <c r="EO21" s="22"/>
-      <c r="EP21" s="22"/>
+      <c r="DT21" s="20"/>
+      <c r="DU21" s="20"/>
+      <c r="EA21" s="20"/>
+      <c r="EB21" s="20"/>
+      <c r="EH21" s="20"/>
+      <c r="EI21" s="20"/>
+      <c r="EO21" s="20"/>
+      <c r="EP21" s="20"/>
       <c r="ER21" s="12" t="s">
         <v>13</v>
       </c>
@@ -9742,77 +9760,77 @@
       <c r="EU21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="EV21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="EW21" s="22"/>
+      <c r="EV21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="EW21" s="20"/>
       <c r="FA21" s="13"/>
       <c r="FB21" s="13"/>
-      <c r="FC21" s="24"/>
-      <c r="FD21" s="24"/>
+      <c r="FC21" s="22"/>
+      <c r="FD21" s="22"/>
       <c r="FE21" s="13"/>
       <c r="FF21" s="13"/>
       <c r="FG21" s="13"/>
-      <c r="FH21" s="13"/>
+      <c r="FH21" s="26"/>
       <c r="FI21" s="13"/>
-      <c r="FJ21" s="24"/>
-      <c r="FK21" s="24"/>
-      <c r="FQ21" s="22"/>
-      <c r="FR21" s="22"/>
-      <c r="FX21" s="22"/>
-      <c r="FY21" s="22"/>
-      <c r="GE21" s="22"/>
-      <c r="GF21" s="22"/>
-      <c r="GL21" s="22"/>
-      <c r="GM21" s="22"/>
-      <c r="GS21" s="22"/>
-      <c r="GT21" s="22"/>
-      <c r="GZ21" s="22"/>
-      <c r="HA21" s="22"/>
-      <c r="HG21" s="22"/>
-      <c r="HH21" s="22"/>
-      <c r="HN21" s="22"/>
-      <c r="HO21" s="22"/>
-      <c r="HU21" s="22"/>
-      <c r="HV21" s="22"/>
-      <c r="IB21" s="22"/>
-      <c r="IC21" s="22"/>
-      <c r="II21" s="22"/>
-      <c r="IJ21" s="22"/>
-      <c r="IP21" s="22"/>
-      <c r="IQ21" s="22"/>
-      <c r="IW21" s="22"/>
-      <c r="IX21" s="22"/>
-      <c r="JD21" s="22"/>
-      <c r="JE21" s="22"/>
-      <c r="JK21" s="22"/>
-      <c r="JL21" s="22"/>
-      <c r="JR21" s="22"/>
-      <c r="JS21" s="22"/>
-      <c r="JY21" s="22"/>
-      <c r="JZ21" s="22"/>
-      <c r="KF21" s="22"/>
-      <c r="KG21" s="22"/>
-      <c r="KM21" s="22"/>
-      <c r="KN21" s="22"/>
-      <c r="KT21" s="22"/>
-      <c r="KU21" s="22"/>
-      <c r="LA21" s="22"/>
-      <c r="LB21" s="22"/>
-      <c r="LH21" s="22"/>
-      <c r="LI21" s="22"/>
-      <c r="LO21" s="22"/>
-      <c r="LP21" s="22"/>
-      <c r="LV21" s="22"/>
-      <c r="LW21" s="22"/>
-      <c r="MC21" s="22"/>
-      <c r="MD21" s="22"/>
-      <c r="MJ21" s="22"/>
-      <c r="MK21" s="22"/>
-      <c r="MQ21" s="22"/>
-      <c r="MR21" s="22"/>
-      <c r="MX21" s="22"/>
-      <c r="MY21" s="22"/>
+      <c r="FJ21" s="22"/>
+      <c r="FK21" s="22"/>
+      <c r="FQ21" s="20"/>
+      <c r="FR21" s="20"/>
+      <c r="FX21" s="20"/>
+      <c r="FY21" s="20"/>
+      <c r="GE21" s="20"/>
+      <c r="GF21" s="20"/>
+      <c r="GL21" s="20"/>
+      <c r="GM21" s="20"/>
+      <c r="GS21" s="20"/>
+      <c r="GT21" s="20"/>
+      <c r="GZ21" s="20"/>
+      <c r="HA21" s="20"/>
+      <c r="HG21" s="20"/>
+      <c r="HH21" s="20"/>
+      <c r="HN21" s="20"/>
+      <c r="HO21" s="20"/>
+      <c r="HU21" s="20"/>
+      <c r="HV21" s="20"/>
+      <c r="IB21" s="20"/>
+      <c r="IC21" s="20"/>
+      <c r="II21" s="20"/>
+      <c r="IJ21" s="20"/>
+      <c r="IP21" s="20"/>
+      <c r="IQ21" s="20"/>
+      <c r="IW21" s="20"/>
+      <c r="IX21" s="20"/>
+      <c r="JD21" s="20"/>
+      <c r="JE21" s="20"/>
+      <c r="JK21" s="20"/>
+      <c r="JL21" s="20"/>
+      <c r="JR21" s="20"/>
+      <c r="JS21" s="20"/>
+      <c r="JY21" s="20"/>
+      <c r="JZ21" s="20"/>
+      <c r="KF21" s="20"/>
+      <c r="KG21" s="20"/>
+      <c r="KM21" s="20"/>
+      <c r="KN21" s="20"/>
+      <c r="KT21" s="20"/>
+      <c r="KU21" s="20"/>
+      <c r="LA21" s="20"/>
+      <c r="LB21" s="20"/>
+      <c r="LH21" s="20"/>
+      <c r="LI21" s="20"/>
+      <c r="LO21" s="20"/>
+      <c r="LP21" s="20"/>
+      <c r="LV21" s="20"/>
+      <c r="LW21" s="20"/>
+      <c r="MC21" s="20"/>
+      <c r="MD21" s="20"/>
+      <c r="MJ21" s="20"/>
+      <c r="MK21" s="20"/>
+      <c r="MQ21" s="20"/>
+      <c r="MR21" s="20"/>
+      <c r="MX21" s="20"/>
+      <c r="MY21" s="20"/>
     </row>
     <row r="22" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -9843,10 +9861,10 @@
       <c r="FP26" t="s">
         <v>13</v>
       </c>
-      <c r="FQ26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR26" s="20" t="s">
+      <c r="FQ26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="FS26" t="s">
@@ -9864,10 +9882,10 @@
       <c r="FW26" t="s">
         <v>13</v>
       </c>
-      <c r="FX26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY26" s="20" t="s">
+      <c r="FX26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="HB26" t="s">
@@ -9885,10 +9903,10 @@
       <c r="HF26" t="s">
         <v>13</v>
       </c>
-      <c r="HG26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH26" s="20" t="s">
+      <c r="HG26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="HI26" t="s">
@@ -9906,10 +9924,10 @@
       <c r="HM26" t="s">
         <v>13</v>
       </c>
-      <c r="HN26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO26" s="20" t="s">
+      <c r="HN26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="ME26" t="s">
@@ -9927,10 +9945,10 @@
       <c r="MI26" t="s">
         <v>13</v>
       </c>
-      <c r="MJ26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="MK26" s="20" t="s">
+      <c r="MJ26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MK26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="ML26" t="s">
@@ -9948,10 +9966,10 @@
       <c r="MP26" t="s">
         <v>13</v>
       </c>
-      <c r="MQ26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR26" s="20" t="s">
+      <c r="MQ26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR26" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10028,13 +10046,923 @@
         <v>37</v>
       </c>
     </row>
+    <row r="30" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7"/>
+      <c r="BL30" s="7"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="7"/>
+      <c r="BO30" s="7"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+      <c r="BT30" s="7"/>
+      <c r="BU30" s="7"/>
+      <c r="BV30" s="7"/>
+      <c r="BW30" s="7"/>
+      <c r="BX30" s="7"/>
+      <c r="BY30" s="7"/>
+      <c r="BZ30" s="7"/>
+      <c r="CA30" s="7"/>
+      <c r="CB30" s="7"/>
+      <c r="CC30" s="7"/>
+      <c r="CD30" s="19"/>
+      <c r="CE30" s="19"/>
+      <c r="CF30" s="7"/>
+      <c r="CG30" s="7"/>
+      <c r="CH30" s="7"/>
+      <c r="CI30" s="7"/>
+      <c r="CJ30" s="7"/>
+      <c r="CK30" s="19"/>
+      <c r="CL30" s="19"/>
+      <c r="CM30" s="7"/>
+      <c r="CN30" s="7"/>
+      <c r="CO30" s="7"/>
+      <c r="CP30" s="7"/>
+      <c r="CQ30" s="7"/>
+      <c r="CR30" s="19"/>
+      <c r="CS30" s="19"/>
+      <c r="CT30" s="7"/>
+      <c r="CU30" s="7"/>
+      <c r="CV30" s="7"/>
+      <c r="CW30" s="7"/>
+      <c r="CX30" s="7"/>
+      <c r="CY30" s="19"/>
+      <c r="CZ30" s="19"/>
+      <c r="DA30" s="7"/>
+      <c r="DB30" s="7"/>
+      <c r="DC30" s="7"/>
+      <c r="DJ30" s="7"/>
+      <c r="DK30" s="7"/>
+      <c r="DL30" s="7"/>
+      <c r="DM30" s="19"/>
+      <c r="DN30" s="19"/>
+      <c r="DO30" s="7"/>
+      <c r="DP30" s="7"/>
+      <c r="DQ30" s="7"/>
+      <c r="DR30" s="7"/>
+      <c r="DS30" s="7"/>
+      <c r="DT30" s="19"/>
+      <c r="DU30" s="19"/>
+      <c r="DV30" s="7"/>
+      <c r="DW30" s="7"/>
+      <c r="DX30" s="7"/>
+      <c r="DY30" s="7"/>
+      <c r="DZ30" s="7"/>
+      <c r="EA30" s="19"/>
+      <c r="EB30" s="19"/>
+      <c r="EC30" s="7"/>
+      <c r="ED30" s="7"/>
+      <c r="EE30" s="7"/>
+      <c r="EF30" s="7"/>
+      <c r="EG30" s="7"/>
+      <c r="EH30" s="19"/>
+      <c r="EI30" s="19"/>
+      <c r="EJ30" s="7"/>
+      <c r="EK30" s="7"/>
+      <c r="EL30" s="7"/>
+      <c r="EM30" s="7"/>
+      <c r="EN30" s="7"/>
+      <c r="EO30" s="19"/>
+      <c r="EP30" s="19"/>
+      <c r="EQ30" s="7"/>
+      <c r="ER30" s="7"/>
+      <c r="ES30" s="7"/>
+      <c r="ET30" s="7"/>
+      <c r="EU30" s="7"/>
+      <c r="EV30" s="19"/>
+      <c r="EW30" s="19"/>
+      <c r="EX30" s="7"/>
+      <c r="EY30" s="7"/>
+      <c r="EZ30" s="7"/>
+      <c r="FA30" s="7"/>
+      <c r="FB30" s="7"/>
+      <c r="FC30" s="19"/>
+      <c r="FD30" s="19"/>
+      <c r="FE30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FH30" s="25"/>
+      <c r="FI30" s="7"/>
+      <c r="FJ30" s="19"/>
+      <c r="FK30" s="19"/>
+      <c r="FL30" s="7"/>
+      <c r="FM30" s="7"/>
+      <c r="FN30" s="7"/>
+      <c r="FO30" s="7"/>
+      <c r="FP30" s="7"/>
+      <c r="FQ30" s="19"/>
+      <c r="FR30" s="19"/>
+      <c r="FS30" s="7"/>
+      <c r="FT30" s="7"/>
+      <c r="FU30" s="7"/>
+      <c r="FV30" s="7"/>
+      <c r="FW30" s="7"/>
+      <c r="FX30" s="19"/>
+      <c r="FY30" s="19"/>
+      <c r="FZ30" s="7"/>
+      <c r="GA30" s="7"/>
+      <c r="GB30" s="7"/>
+      <c r="GC30" s="7"/>
+      <c r="GD30" s="7"/>
+      <c r="GE30" s="19"/>
+      <c r="GF30" s="19"/>
+      <c r="GG30" s="7"/>
+      <c r="GH30" s="7"/>
+      <c r="GI30" s="7"/>
+      <c r="GJ30" s="7"/>
+      <c r="GK30" s="7"/>
+      <c r="GL30" s="19"/>
+      <c r="GM30" s="19"/>
+      <c r="GN30" s="7"/>
+      <c r="GO30" s="7"/>
+      <c r="GP30" s="7"/>
+      <c r="GQ30" s="7"/>
+      <c r="GR30" s="7"/>
+      <c r="GS30" s="19"/>
+      <c r="GT30" s="19"/>
+      <c r="GU30" s="7"/>
+      <c r="GV30" s="7"/>
+      <c r="GW30" s="7"/>
+      <c r="GX30" s="7"/>
+      <c r="GY30" s="7"/>
+      <c r="GZ30" s="19"/>
+      <c r="HA30" s="19"/>
+      <c r="HB30" s="7"/>
+      <c r="HC30" s="7"/>
+      <c r="HD30" s="7"/>
+      <c r="HE30" s="7"/>
+      <c r="HF30" s="7"/>
+      <c r="HG30" s="19"/>
+      <c r="HH30" s="19"/>
+      <c r="HI30" s="7"/>
+      <c r="HJ30" s="7"/>
+      <c r="HK30" s="7"/>
+      <c r="HL30" s="7"/>
+      <c r="HM30" s="7"/>
+      <c r="HN30" s="19"/>
+      <c r="HO30" s="19"/>
+      <c r="HP30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HU30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HV30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HW30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HX30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HY30" t="s">
+        <v>13</v>
+      </c>
+      <c r="HZ30" t="s">
+        <v>13</v>
+      </c>
+      <c r="IA30" t="s">
+        <v>13</v>
+      </c>
+      <c r="IB30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="ID30" s="7"/>
+      <c r="IE30" s="7"/>
+      <c r="IF30" s="7"/>
+      <c r="IG30" s="7"/>
+      <c r="IH30" s="7"/>
+      <c r="II30" s="19"/>
+      <c r="IJ30" s="19"/>
+      <c r="IK30" s="7"/>
+      <c r="IL30" s="7"/>
+      <c r="IM30" s="7"/>
+      <c r="IN30" s="7"/>
+      <c r="IO30" s="7"/>
+      <c r="IP30" s="19"/>
+      <c r="IQ30" s="19"/>
+      <c r="IR30" s="7"/>
+      <c r="IS30" s="7"/>
+      <c r="IT30" s="7"/>
+      <c r="IU30" s="7"/>
+      <c r="IV30" s="7"/>
+      <c r="IW30" s="19"/>
+      <c r="IX30" s="19"/>
+      <c r="IY30" s="7"/>
+      <c r="IZ30" s="7"/>
+      <c r="JA30" s="7"/>
+      <c r="JB30" s="7"/>
+      <c r="JC30" s="7"/>
+      <c r="JD30" s="19"/>
+      <c r="JE30" s="19"/>
+      <c r="JF30" s="7"/>
+      <c r="JG30" s="7"/>
+      <c r="JH30" s="7"/>
+      <c r="JI30" s="7"/>
+      <c r="JJ30" s="7"/>
+      <c r="JK30" s="19"/>
+      <c r="JL30" s="19"/>
+      <c r="JM30" s="7"/>
+      <c r="JN30" s="7"/>
+      <c r="JO30" s="7"/>
+      <c r="JP30" s="7"/>
+      <c r="JQ30" s="7"/>
+      <c r="JR30" s="19"/>
+      <c r="JS30" s="19"/>
+      <c r="JT30" s="7"/>
+      <c r="JU30" s="7"/>
+      <c r="JV30" s="7"/>
+      <c r="JW30" s="7"/>
+      <c r="JX30" s="7"/>
+      <c r="JY30" s="19"/>
+      <c r="JZ30" s="19"/>
+      <c r="KA30" s="7"/>
+      <c r="KB30" s="7"/>
+      <c r="KC30" s="7"/>
+      <c r="KD30" s="7"/>
+      <c r="KE30" s="7"/>
+      <c r="KF30" s="19"/>
+      <c r="KG30" s="19"/>
+      <c r="KH30" s="7"/>
+      <c r="KI30" s="7"/>
+      <c r="KJ30" s="7"/>
+      <c r="KK30" s="7"/>
+      <c r="KL30" s="7"/>
+      <c r="KM30" s="19"/>
+      <c r="KN30" s="19"/>
+      <c r="KO30" s="7"/>
+      <c r="KP30" s="7"/>
+      <c r="KQ30" s="7"/>
+      <c r="KR30" s="7"/>
+      <c r="KS30" s="7"/>
+      <c r="KT30" s="19"/>
+      <c r="KU30" s="19"/>
+      <c r="KV30" s="7"/>
+      <c r="KW30" s="7"/>
+      <c r="KX30" t="s">
+        <v>13</v>
+      </c>
+      <c r="KY30" t="s">
+        <v>13</v>
+      </c>
+      <c r="KZ30" t="s">
+        <v>13</v>
+      </c>
+      <c r="LA30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="LB30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="LC30" t="s">
+        <v>13</v>
+      </c>
+      <c r="LD30"/>
+      <c r="LE30"/>
+      <c r="LF30"/>
+      <c r="LG30" s="7"/>
+      <c r="LH30" s="19"/>
+      <c r="LI30" s="19"/>
+      <c r="LJ30" s="7"/>
+      <c r="LK30" s="7"/>
+      <c r="LL30" s="7"/>
+      <c r="LM30" s="7"/>
+      <c r="LN30" s="7"/>
+      <c r="LO30" s="19"/>
+      <c r="LP30" s="19"/>
+      <c r="LQ30" s="7"/>
+      <c r="LR30" s="7"/>
+      <c r="LS30" s="7"/>
+      <c r="LT30" s="7"/>
+      <c r="LU30" s="7"/>
+      <c r="LV30" s="19"/>
+      <c r="LW30" s="19"/>
+      <c r="LX30" s="7"/>
+      <c r="LY30" s="7"/>
+      <c r="LZ30" s="7"/>
+      <c r="MA30" s="7"/>
+      <c r="MB30" s="7"/>
+      <c r="MC30" s="19"/>
+      <c r="MD30" s="19"/>
+      <c r="ME30" s="7"/>
+      <c r="MF30" s="7"/>
+      <c r="MG30" s="7"/>
+      <c r="MH30" s="7"/>
+      <c r="MI30" s="7"/>
+      <c r="MJ30" s="19"/>
+      <c r="MK30" s="19"/>
+      <c r="ML30" s="7"/>
+      <c r="MM30" s="7"/>
+      <c r="MN30" s="7"/>
+      <c r="MO30" s="7"/>
+      <c r="MP30" s="7"/>
+      <c r="MQ30" s="19"/>
+      <c r="MR30" s="19"/>
+      <c r="MS30" s="7"/>
+      <c r="MT30" s="7"/>
+      <c r="MU30" s="7"/>
+      <c r="MV30" s="7"/>
+      <c r="MW30" s="7"/>
+      <c r="MX30" s="19"/>
+      <c r="MY30" s="19"/>
+      <c r="MZ30" s="7"/>
+      <c r="NA30" s="7"/>
+      <c r="NB30" s="7"/>
+    </row>
+    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="DD31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DI31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="FE31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM31" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO31" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="7"/>
+      <c r="BL32" s="7"/>
+      <c r="BM32" s="7"/>
+      <c r="BN32" s="7"/>
+      <c r="BO32" s="7"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
+      <c r="BS32" s="7"/>
+      <c r="BT32" s="7"/>
+      <c r="BU32" s="7"/>
+      <c r="BV32" s="7"/>
+      <c r="BW32" s="7"/>
+      <c r="BX32" s="7"/>
+      <c r="BY32" s="7"/>
+      <c r="BZ32" s="7"/>
+      <c r="CA32" s="7"/>
+      <c r="CB32" s="7"/>
+      <c r="CC32" s="7"/>
+      <c r="CD32" s="19"/>
+      <c r="CE32" s="19"/>
+      <c r="CF32" s="7"/>
+      <c r="CG32" s="7"/>
+      <c r="CH32" s="7"/>
+      <c r="CI32" s="7"/>
+      <c r="CJ32" s="7"/>
+      <c r="CK32" s="19"/>
+      <c r="CL32" s="19"/>
+      <c r="CM32" s="7"/>
+      <c r="CN32" s="7"/>
+      <c r="CO32" s="7"/>
+      <c r="CP32" s="7"/>
+      <c r="CQ32" s="7"/>
+      <c r="CR32" s="19"/>
+      <c r="CS32" s="19"/>
+      <c r="CT32" s="7"/>
+      <c r="CU32" s="7"/>
+      <c r="CV32" s="7"/>
+      <c r="CW32" s="7"/>
+      <c r="CX32" s="7"/>
+      <c r="CY32" s="19"/>
+      <c r="CZ32" s="19"/>
+      <c r="DA32" s="7"/>
+      <c r="DB32" s="7"/>
+      <c r="DC32" s="7"/>
+      <c r="DD32" s="7"/>
+      <c r="DE32" s="7"/>
+      <c r="DF32" s="19"/>
+      <c r="DG32" s="19"/>
+      <c r="DH32" s="7"/>
+      <c r="DI32" s="7"/>
+      <c r="DJ32" s="7"/>
+      <c r="DK32" s="7"/>
+      <c r="DL32" s="7"/>
+      <c r="DM32" s="19"/>
+      <c r="DN32" s="19"/>
+      <c r="DO32" s="7"/>
+      <c r="DP32" s="7"/>
+      <c r="DQ32" s="7"/>
+      <c r="DR32" s="7"/>
+      <c r="DS32" s="7"/>
+      <c r="DT32" s="19"/>
+      <c r="DU32" s="19"/>
+      <c r="DV32" s="7"/>
+      <c r="DW32" s="7"/>
+      <c r="DX32" s="7"/>
+      <c r="DY32" s="7"/>
+      <c r="DZ32" s="7"/>
+      <c r="EA32" s="19"/>
+      <c r="EB32" s="19"/>
+      <c r="EC32" s="7"/>
+      <c r="ED32" s="7"/>
+      <c r="EE32" s="7"/>
+      <c r="EF32" s="7"/>
+      <c r="EG32" s="7"/>
+      <c r="EH32" s="19"/>
+      <c r="EI32" s="19"/>
+      <c r="EJ32" s="7"/>
+      <c r="EK32" s="7"/>
+      <c r="EL32" s="7"/>
+      <c r="EM32" s="7"/>
+      <c r="EN32" s="7"/>
+      <c r="EO32" s="19"/>
+      <c r="EP32" s="19"/>
+      <c r="EQ32" s="7"/>
+      <c r="ER32" s="7"/>
+      <c r="ES32" s="7"/>
+      <c r="ET32" s="7"/>
+      <c r="EU32" s="7"/>
+      <c r="EV32" s="19"/>
+      <c r="EW32" s="19"/>
+      <c r="EX32" s="7"/>
+      <c r="EY32" s="7"/>
+      <c r="EZ32" s="7"/>
+      <c r="FA32" s="7"/>
+      <c r="FB32" s="7"/>
+      <c r="FC32" s="19"/>
+      <c r="FD32" s="19"/>
+      <c r="FE32" s="7"/>
+      <c r="FF32" s="7"/>
+      <c r="FG32" s="7"/>
+      <c r="FH32" s="5"/>
+      <c r="FI32" s="7"/>
+      <c r="FJ32" s="19"/>
+      <c r="FK32" s="19"/>
+      <c r="FL32" s="7"/>
+      <c r="FM32" s="7"/>
+      <c r="FN32" s="7"/>
+      <c r="FO32" s="7"/>
+      <c r="FP32" s="7"/>
+      <c r="FQ32" s="19"/>
+      <c r="FR32" s="19"/>
+      <c r="FS32" s="7"/>
+      <c r="FT32" s="7"/>
+      <c r="FU32" s="7"/>
+      <c r="FV32" s="7"/>
+      <c r="FW32" s="7"/>
+      <c r="FX32" s="19"/>
+      <c r="FY32" s="19"/>
+      <c r="FZ32" s="7"/>
+      <c r="GA32" s="7"/>
+      <c r="GB32" s="7"/>
+      <c r="GC32" s="7"/>
+      <c r="GD32" s="7"/>
+      <c r="GE32" s="19"/>
+      <c r="GF32" s="19"/>
+      <c r="GG32" s="7"/>
+      <c r="GH32" s="7"/>
+      <c r="GI32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV32"/>
+      <c r="GY32" s="7"/>
+      <c r="GZ32" s="19"/>
+      <c r="HA32" s="19"/>
+      <c r="HB32" s="7"/>
+      <c r="HC32" s="7"/>
+      <c r="HD32" s="7"/>
+      <c r="HE32" s="7"/>
+      <c r="HF32" s="7"/>
+      <c r="HG32" s="19"/>
+      <c r="HH32" s="19"/>
+      <c r="HI32" s="7"/>
+      <c r="HJ32" s="7"/>
+      <c r="HK32" s="7"/>
+      <c r="HL32" s="7"/>
+      <c r="HN32" s="19"/>
+      <c r="HO32" s="19"/>
+      <c r="HU32" s="19"/>
+      <c r="HV32" s="19"/>
+      <c r="IA32" s="7"/>
+      <c r="IB32" s="19"/>
+      <c r="IC32" s="19"/>
+      <c r="ID32" s="7"/>
+      <c r="IE32" s="7"/>
+      <c r="IF32" s="7"/>
+      <c r="IG32" s="7"/>
+      <c r="IH32" s="7"/>
+      <c r="II32" s="19"/>
+      <c r="IJ32" s="19"/>
+      <c r="IK32" s="7"/>
+      <c r="IL32" s="7"/>
+      <c r="IM32" s="7"/>
+      <c r="IN32" s="7"/>
+      <c r="IO32" s="7"/>
+      <c r="IP32" s="19"/>
+      <c r="IQ32" s="19"/>
+      <c r="IR32" s="7"/>
+      <c r="IS32" s="7"/>
+      <c r="IT32" s="7"/>
+      <c r="IU32" s="7"/>
+      <c r="IV32" s="7"/>
+      <c r="IW32" s="19"/>
+      <c r="IX32" s="19"/>
+      <c r="IY32" s="7"/>
+      <c r="IZ32" s="7"/>
+      <c r="JA32" s="7"/>
+      <c r="JB32" s="7"/>
+      <c r="JC32" s="7"/>
+      <c r="JD32" s="19"/>
+      <c r="JE32" s="19"/>
+      <c r="JF32" s="7"/>
+      <c r="JG32" s="7"/>
+      <c r="JH32" s="7"/>
+      <c r="JI32" s="7"/>
+      <c r="JJ32" s="7"/>
+      <c r="JK32" s="19"/>
+      <c r="JL32" s="19"/>
+      <c r="JM32" s="7"/>
+      <c r="JN32" s="7"/>
+      <c r="JO32" s="7"/>
+      <c r="JP32" s="7"/>
+      <c r="JQ32" s="7"/>
+      <c r="JR32" s="19"/>
+      <c r="JS32" s="19"/>
+      <c r="JT32" s="7"/>
+      <c r="JU32" s="7"/>
+      <c r="JV32" s="7"/>
+      <c r="JW32" s="7"/>
+      <c r="JX32" s="7"/>
+      <c r="JY32" s="19"/>
+      <c r="JZ32" s="19"/>
+      <c r="KA32" s="7"/>
+      <c r="KB32" s="7"/>
+      <c r="KC32" s="7"/>
+      <c r="KD32" s="7"/>
+      <c r="KE32" s="7"/>
+      <c r="KF32" s="19"/>
+      <c r="KG32" s="19"/>
+      <c r="KH32" s="7"/>
+      <c r="KI32" s="7"/>
+      <c r="KJ32" s="7"/>
+      <c r="KK32" s="7"/>
+      <c r="KL32" s="7"/>
+      <c r="KM32" s="19"/>
+      <c r="KN32" s="19"/>
+      <c r="KO32" s="7"/>
+      <c r="KP32" s="7"/>
+      <c r="KQ32" s="7"/>
+      <c r="KR32" s="7"/>
+      <c r="KS32" s="7"/>
+      <c r="KT32" s="19"/>
+      <c r="KU32" s="19"/>
+      <c r="KV32" s="7"/>
+      <c r="KW32" s="7"/>
+      <c r="KX32" s="7"/>
+      <c r="KY32" s="7"/>
+      <c r="KZ32" s="7"/>
+      <c r="LA32" s="19"/>
+      <c r="LB32" s="19"/>
+      <c r="LC32" s="7"/>
+      <c r="LD32" s="7"/>
+      <c r="LE32" s="7"/>
+      <c r="LF32" s="7"/>
+      <c r="LG32" s="7"/>
+      <c r="LH32" s="19"/>
+      <c r="LI32" s="19"/>
+      <c r="LJ32" s="7"/>
+      <c r="LK32" s="7"/>
+      <c r="LL32" s="7"/>
+      <c r="LM32" s="7"/>
+      <c r="LN32" s="7"/>
+      <c r="LO32" s="19"/>
+      <c r="LP32" s="19"/>
+      <c r="LQ32" s="7"/>
+      <c r="LR32" s="7"/>
+      <c r="LS32" s="7"/>
+      <c r="LT32" s="7"/>
+      <c r="LU32" s="7"/>
+      <c r="LV32" s="19"/>
+      <c r="LW32" s="19"/>
+      <c r="LX32" s="7"/>
+      <c r="LY32" s="7"/>
+      <c r="LZ32" s="7"/>
+      <c r="MA32" s="7"/>
+      <c r="MB32" s="7"/>
+      <c r="MC32" s="19"/>
+      <c r="MD32" s="19"/>
+      <c r="ME32" s="7"/>
+      <c r="MF32" s="7"/>
+      <c r="MG32" s="7"/>
+      <c r="MH32" s="7"/>
+      <c r="MI32" s="7"/>
+      <c r="MJ32" s="19"/>
+      <c r="MK32" s="19"/>
+      <c r="ML32" s="7"/>
+      <c r="MM32" s="7"/>
+      <c r="MN32" s="7"/>
+      <c r="MO32" s="7"/>
+      <c r="MP32" s="7"/>
+      <c r="MQ32" s="19"/>
+      <c r="MR32" s="19"/>
+      <c r="MS32" s="7"/>
+      <c r="MT32" s="7"/>
+      <c r="MU32" s="7"/>
+      <c r="MV32" s="7"/>
+      <c r="MW32" s="7"/>
+      <c r="MX32" s="19"/>
+      <c r="MY32" s="19"/>
+      <c r="MZ32" s="7"/>
+      <c r="NA32" s="7"/>
+      <c r="NB32" s="7"/>
+    </row>
+    <row r="33" spans="1:216" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="GU33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH33" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -10042,6 +10970,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="47">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -369,12 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -647,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,11 +657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:PC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="FW13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="EC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="HT34" sqref="HT34"/>
+      <selection pane="bottomRight" activeCell="FH11" sqref="FH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
     <col min="154" max="158" width="3.7109375" customWidth="1"/>
     <col min="159" max="160" width="3.7109375" style="20" customWidth="1"/>
     <col min="161" max="163" width="3.7109375" customWidth="1"/>
-    <col min="164" max="164" width="3.7109375" style="25" customWidth="1"/>
+    <col min="164" max="164" width="3.7109375" style="23" customWidth="1"/>
     <col min="165" max="165" width="3.7109375" customWidth="1"/>
     <col min="166" max="167" width="3.7109375" style="20" customWidth="1"/>
     <col min="168" max="172" width="3.7109375" customWidth="1"/>
@@ -756,395 +756,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="23" t="s">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23"/>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
-      <c r="CH1" s="23"/>
-      <c r="CI1" s="23"/>
-      <c r="CJ1" s="23"/>
-      <c r="CK1" s="23"/>
-      <c r="CL1" s="23"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="23" t="s">
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="23"/>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="23"/>
-      <c r="CT1" s="23"/>
-      <c r="CU1" s="23"/>
-      <c r="CV1" s="23"/>
-      <c r="CW1" s="23"/>
-      <c r="CX1" s="23"/>
-      <c r="CY1" s="23"/>
-      <c r="CZ1" s="23"/>
-      <c r="DA1" s="23"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23"/>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23"/>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23"/>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="23"/>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="24" t="s">
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="24"/>
-      <c r="DT1" s="24"/>
-      <c r="DU1" s="24"/>
-      <c r="DV1" s="24"/>
-      <c r="DW1" s="24"/>
-      <c r="DX1" s="24"/>
-      <c r="DY1" s="24"/>
-      <c r="DZ1" s="24"/>
-      <c r="EA1" s="24"/>
-      <c r="EB1" s="24"/>
-      <c r="EC1" s="24"/>
-      <c r="ED1" s="24"/>
-      <c r="EE1" s="24"/>
-      <c r="EF1" s="24"/>
-      <c r="EG1" s="24"/>
-      <c r="EH1" s="24"/>
-      <c r="EI1" s="24"/>
-      <c r="EJ1" s="24"/>
-      <c r="EK1" s="24"/>
-      <c r="EL1" s="24"/>
-      <c r="EM1" s="24"/>
-      <c r="EN1" s="24"/>
-      <c r="EO1" s="24"/>
-      <c r="EP1" s="24"/>
-      <c r="EQ1" s="24"/>
-      <c r="ER1" s="24"/>
-      <c r="ES1" s="24"/>
-      <c r="ET1" s="24"/>
-      <c r="EU1" s="24"/>
-      <c r="EV1" s="24"/>
-      <c r="EW1" s="24" t="s">
+      <c r="DS1" s="26"/>
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DV1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26"/>
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="26"/>
+      <c r="EB1" s="26"/>
+      <c r="EC1" s="26"/>
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26"/>
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26"/>
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="EQ1" s="26"/>
+      <c r="ER1" s="26"/>
+      <c r="ES1" s="26"/>
+      <c r="ET1" s="26"/>
+      <c r="EU1" s="26"/>
+      <c r="EV1" s="26"/>
+      <c r="EW1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="24"/>
-      <c r="EY1" s="24"/>
-      <c r="EZ1" s="24"/>
-      <c r="FA1" s="24"/>
-      <c r="FB1" s="24"/>
-      <c r="FC1" s="24"/>
-      <c r="FD1" s="24"/>
-      <c r="FE1" s="24"/>
-      <c r="FF1" s="24"/>
-      <c r="FG1" s="24"/>
-      <c r="FH1" s="24"/>
-      <c r="FI1" s="24"/>
-      <c r="FJ1" s="24"/>
-      <c r="FK1" s="24"/>
-      <c r="FL1" s="24"/>
-      <c r="FM1" s="24"/>
-      <c r="FN1" s="24"/>
-      <c r="FO1" s="24"/>
-      <c r="FP1" s="24"/>
-      <c r="FQ1" s="24"/>
-      <c r="FR1" s="24"/>
-      <c r="FS1" s="24"/>
-      <c r="FT1" s="24"/>
-      <c r="FU1" s="24"/>
-      <c r="FV1" s="24"/>
-      <c r="FW1" s="24"/>
-      <c r="FX1" s="24"/>
-      <c r="FY1" s="24"/>
-      <c r="FZ1" s="24"/>
-      <c r="GA1" s="24" t="s">
+      <c r="EX1" s="26"/>
+      <c r="EY1" s="26"/>
+      <c r="EZ1" s="26"/>
+      <c r="FA1" s="26"/>
+      <c r="FB1" s="26"/>
+      <c r="FC1" s="26"/>
+      <c r="FD1" s="26"/>
+      <c r="FE1" s="26"/>
+      <c r="FF1" s="26"/>
+      <c r="FG1" s="26"/>
+      <c r="FH1" s="26"/>
+      <c r="FI1" s="26"/>
+      <c r="FJ1" s="26"/>
+      <c r="FK1" s="26"/>
+      <c r="FL1" s="26"/>
+      <c r="FM1" s="26"/>
+      <c r="FN1" s="26"/>
+      <c r="FO1" s="26"/>
+      <c r="FP1" s="26"/>
+      <c r="FQ1" s="26"/>
+      <c r="FR1" s="26"/>
+      <c r="FS1" s="26"/>
+      <c r="FT1" s="26"/>
+      <c r="FU1" s="26"/>
+      <c r="FV1" s="26"/>
+      <c r="FW1" s="26"/>
+      <c r="FX1" s="26"/>
+      <c r="FY1" s="26"/>
+      <c r="FZ1" s="26"/>
+      <c r="GA1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="24"/>
-      <c r="GC1" s="24"/>
-      <c r="GD1" s="24"/>
-      <c r="GE1" s="24"/>
-      <c r="GF1" s="24"/>
-      <c r="GG1" s="24"/>
-      <c r="GH1" s="24"/>
-      <c r="GI1" s="24"/>
-      <c r="GJ1" s="24"/>
-      <c r="GK1" s="24"/>
-      <c r="GL1" s="24"/>
-      <c r="GM1" s="24"/>
-      <c r="GN1" s="24"/>
-      <c r="GO1" s="24"/>
-      <c r="GP1" s="24"/>
-      <c r="GQ1" s="24"/>
-      <c r="GR1" s="24"/>
-      <c r="GS1" s="24"/>
-      <c r="GT1" s="24"/>
-      <c r="GU1" s="24"/>
-      <c r="GV1" s="24"/>
-      <c r="GW1" s="24"/>
-      <c r="GX1" s="24"/>
-      <c r="GY1" s="24"/>
-      <c r="GZ1" s="24"/>
-      <c r="HA1" s="24"/>
-      <c r="HB1" s="24"/>
-      <c r="HC1" s="24"/>
-      <c r="HD1" s="24"/>
-      <c r="HE1" s="24"/>
-      <c r="HF1" s="23" t="s">
+      <c r="GB1" s="26"/>
+      <c r="GC1" s="26"/>
+      <c r="GD1" s="26"/>
+      <c r="GE1" s="26"/>
+      <c r="GF1" s="26"/>
+      <c r="GG1" s="26"/>
+      <c r="GH1" s="26"/>
+      <c r="GI1" s="26"/>
+      <c r="GJ1" s="26"/>
+      <c r="GK1" s="26"/>
+      <c r="GL1" s="26"/>
+      <c r="GM1" s="26"/>
+      <c r="GN1" s="26"/>
+      <c r="GO1" s="26"/>
+      <c r="GP1" s="26"/>
+      <c r="GQ1" s="26"/>
+      <c r="GR1" s="26"/>
+      <c r="GS1" s="26"/>
+      <c r="GT1" s="26"/>
+      <c r="GU1" s="26"/>
+      <c r="GV1" s="26"/>
+      <c r="GW1" s="26"/>
+      <c r="GX1" s="26"/>
+      <c r="GY1" s="26"/>
+      <c r="GZ1" s="26"/>
+      <c r="HA1" s="26"/>
+      <c r="HB1" s="26"/>
+      <c r="HC1" s="26"/>
+      <c r="HD1" s="26"/>
+      <c r="HE1" s="26"/>
+      <c r="HF1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="23"/>
-      <c r="HH1" s="23"/>
-      <c r="HI1" s="23"/>
-      <c r="HJ1" s="23"/>
-      <c r="HK1" s="23"/>
-      <c r="HL1" s="23"/>
-      <c r="HM1" s="23"/>
-      <c r="HN1" s="23"/>
-      <c r="HO1" s="23"/>
-      <c r="HP1" s="23"/>
-      <c r="HQ1" s="23"/>
-      <c r="HR1" s="23"/>
-      <c r="HS1" s="23"/>
-      <c r="HT1" s="23"/>
-      <c r="HU1" s="23"/>
-      <c r="HV1" s="23"/>
-      <c r="HW1" s="23"/>
-      <c r="HX1" s="23"/>
-      <c r="HY1" s="23"/>
-      <c r="HZ1" s="23"/>
-      <c r="IA1" s="23"/>
-      <c r="IB1" s="23"/>
-      <c r="IC1" s="23"/>
-      <c r="ID1" s="23"/>
-      <c r="IE1" s="23"/>
-      <c r="IF1" s="23"/>
-      <c r="IG1" s="23"/>
-      <c r="IH1" s="23"/>
-      <c r="II1" s="23"/>
-      <c r="IJ1" s="23"/>
-      <c r="IK1" s="24" t="s">
+      <c r="HG1" s="25"/>
+      <c r="HH1" s="25"/>
+      <c r="HI1" s="25"/>
+      <c r="HJ1" s="25"/>
+      <c r="HK1" s="25"/>
+      <c r="HL1" s="25"/>
+      <c r="HM1" s="25"/>
+      <c r="HN1" s="25"/>
+      <c r="HO1" s="25"/>
+      <c r="HP1" s="25"/>
+      <c r="HQ1" s="25"/>
+      <c r="HR1" s="25"/>
+      <c r="HS1" s="25"/>
+      <c r="HT1" s="25"/>
+      <c r="HU1" s="25"/>
+      <c r="HV1" s="25"/>
+      <c r="HW1" s="25"/>
+      <c r="HX1" s="25"/>
+      <c r="HY1" s="25"/>
+      <c r="HZ1" s="25"/>
+      <c r="IA1" s="25"/>
+      <c r="IB1" s="25"/>
+      <c r="IC1" s="25"/>
+      <c r="ID1" s="25"/>
+      <c r="IE1" s="25"/>
+      <c r="IF1" s="25"/>
+      <c r="IG1" s="25"/>
+      <c r="IH1" s="25"/>
+      <c r="II1" s="25"/>
+      <c r="IJ1" s="25"/>
+      <c r="IK1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="24"/>
-      <c r="IM1" s="24"/>
-      <c r="IN1" s="24"/>
-      <c r="IO1" s="24"/>
-      <c r="IP1" s="24"/>
-      <c r="IQ1" s="24"/>
-      <c r="IR1" s="24"/>
-      <c r="IS1" s="24"/>
-      <c r="IT1" s="24"/>
-      <c r="IU1" s="24"/>
-      <c r="IV1" s="24"/>
-      <c r="IW1" s="24"/>
-      <c r="IX1" s="24"/>
-      <c r="IY1" s="24"/>
-      <c r="IZ1" s="24"/>
-      <c r="JA1" s="24"/>
-      <c r="JB1" s="24"/>
-      <c r="JC1" s="24"/>
-      <c r="JD1" s="24"/>
-      <c r="JE1" s="24"/>
-      <c r="JF1" s="24"/>
-      <c r="JG1" s="24"/>
-      <c r="JH1" s="24"/>
-      <c r="JI1" s="24"/>
-      <c r="JJ1" s="24"/>
-      <c r="JK1" s="24"/>
-      <c r="JL1" s="24"/>
-      <c r="JM1" s="24"/>
-      <c r="JN1" s="24"/>
-      <c r="JO1" s="23" t="s">
+      <c r="IL1" s="26"/>
+      <c r="IM1" s="26"/>
+      <c r="IN1" s="26"/>
+      <c r="IO1" s="26"/>
+      <c r="IP1" s="26"/>
+      <c r="IQ1" s="26"/>
+      <c r="IR1" s="26"/>
+      <c r="IS1" s="26"/>
+      <c r="IT1" s="26"/>
+      <c r="IU1" s="26"/>
+      <c r="IV1" s="26"/>
+      <c r="IW1" s="26"/>
+      <c r="IX1" s="26"/>
+      <c r="IY1" s="26"/>
+      <c r="IZ1" s="26"/>
+      <c r="JA1" s="26"/>
+      <c r="JB1" s="26"/>
+      <c r="JC1" s="26"/>
+      <c r="JD1" s="26"/>
+      <c r="JE1" s="26"/>
+      <c r="JF1" s="26"/>
+      <c r="JG1" s="26"/>
+      <c r="JH1" s="26"/>
+      <c r="JI1" s="26"/>
+      <c r="JJ1" s="26"/>
+      <c r="JK1" s="26"/>
+      <c r="JL1" s="26"/>
+      <c r="JM1" s="26"/>
+      <c r="JN1" s="26"/>
+      <c r="JO1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="23"/>
-      <c r="JQ1" s="23"/>
-      <c r="JR1" s="23"/>
-      <c r="JS1" s="23"/>
-      <c r="JT1" s="23"/>
-      <c r="JU1" s="23"/>
-      <c r="JV1" s="23"/>
-      <c r="JW1" s="23"/>
-      <c r="JX1" s="23"/>
-      <c r="JY1" s="23"/>
-      <c r="JZ1" s="23"/>
-      <c r="KA1" s="23"/>
-      <c r="KB1" s="23"/>
-      <c r="KC1" s="23"/>
-      <c r="KD1" s="23"/>
-      <c r="KE1" s="23"/>
-      <c r="KF1" s="23"/>
-      <c r="KG1" s="23"/>
-      <c r="KH1" s="23"/>
-      <c r="KI1" s="23"/>
-      <c r="KJ1" s="23"/>
-      <c r="KK1" s="23"/>
-      <c r="KL1" s="23"/>
-      <c r="KM1" s="23"/>
-      <c r="KN1" s="23"/>
-      <c r="KO1" s="23"/>
-      <c r="KP1" s="23"/>
-      <c r="KQ1" s="23"/>
-      <c r="KR1" s="23"/>
-      <c r="KS1" s="23"/>
-      <c r="KT1" s="23" t="s">
+      <c r="JP1" s="25"/>
+      <c r="JQ1" s="25"/>
+      <c r="JR1" s="25"/>
+      <c r="JS1" s="25"/>
+      <c r="JT1" s="25"/>
+      <c r="JU1" s="25"/>
+      <c r="JV1" s="25"/>
+      <c r="JW1" s="25"/>
+      <c r="JX1" s="25"/>
+      <c r="JY1" s="25"/>
+      <c r="JZ1" s="25"/>
+      <c r="KA1" s="25"/>
+      <c r="KB1" s="25"/>
+      <c r="KC1" s="25"/>
+      <c r="KD1" s="25"/>
+      <c r="KE1" s="25"/>
+      <c r="KF1" s="25"/>
+      <c r="KG1" s="25"/>
+      <c r="KH1" s="25"/>
+      <c r="KI1" s="25"/>
+      <c r="KJ1" s="25"/>
+      <c r="KK1" s="25"/>
+      <c r="KL1" s="25"/>
+      <c r="KM1" s="25"/>
+      <c r="KN1" s="25"/>
+      <c r="KO1" s="25"/>
+      <c r="KP1" s="25"/>
+      <c r="KQ1" s="25"/>
+      <c r="KR1" s="25"/>
+      <c r="KS1" s="25"/>
+      <c r="KT1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="23"/>
-      <c r="KV1" s="23"/>
-      <c r="KW1" s="23"/>
-      <c r="KX1" s="23"/>
-      <c r="KY1" s="23"/>
-      <c r="KZ1" s="23"/>
-      <c r="LA1" s="23"/>
-      <c r="LB1" s="23"/>
-      <c r="LC1" s="23"/>
-      <c r="LD1" s="23"/>
-      <c r="LE1" s="23"/>
-      <c r="LF1" s="23"/>
-      <c r="LG1" s="23"/>
-      <c r="LH1" s="23"/>
-      <c r="LI1" s="23"/>
-      <c r="LJ1" s="23"/>
-      <c r="LK1" s="23"/>
-      <c r="LL1" s="23"/>
-      <c r="LM1" s="23"/>
-      <c r="LN1" s="23"/>
-      <c r="LO1" s="23"/>
-      <c r="LP1" s="23"/>
-      <c r="LQ1" s="23"/>
-      <c r="LR1" s="23"/>
-      <c r="LS1" s="23"/>
-      <c r="LT1" s="23"/>
-      <c r="LU1" s="23"/>
-      <c r="LV1" s="23"/>
-      <c r="LW1" s="23"/>
-      <c r="LX1" s="23" t="s">
+      <c r="KU1" s="25"/>
+      <c r="KV1" s="25"/>
+      <c r="KW1" s="25"/>
+      <c r="KX1" s="25"/>
+      <c r="KY1" s="25"/>
+      <c r="KZ1" s="25"/>
+      <c r="LA1" s="25"/>
+      <c r="LB1" s="25"/>
+      <c r="LC1" s="25"/>
+      <c r="LD1" s="25"/>
+      <c r="LE1" s="25"/>
+      <c r="LF1" s="25"/>
+      <c r="LG1" s="25"/>
+      <c r="LH1" s="25"/>
+      <c r="LI1" s="25"/>
+      <c r="LJ1" s="25"/>
+      <c r="LK1" s="25"/>
+      <c r="LL1" s="25"/>
+      <c r="LM1" s="25"/>
+      <c r="LN1" s="25"/>
+      <c r="LO1" s="25"/>
+      <c r="LP1" s="25"/>
+      <c r="LQ1" s="25"/>
+      <c r="LR1" s="25"/>
+      <c r="LS1" s="25"/>
+      <c r="LT1" s="25"/>
+      <c r="LU1" s="25"/>
+      <c r="LV1" s="25"/>
+      <c r="LW1" s="25"/>
+      <c r="LX1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="23"/>
-      <c r="LZ1" s="23"/>
-      <c r="MA1" s="23"/>
-      <c r="MB1" s="23"/>
-      <c r="MC1" s="23"/>
-      <c r="MD1" s="23"/>
-      <c r="ME1" s="23"/>
-      <c r="MF1" s="23"/>
-      <c r="MG1" s="23"/>
-      <c r="MH1" s="23"/>
-      <c r="MI1" s="23"/>
-      <c r="MJ1" s="23"/>
-      <c r="MK1" s="23"/>
-      <c r="ML1" s="23"/>
-      <c r="MM1" s="23"/>
-      <c r="MN1" s="23"/>
-      <c r="MO1" s="23"/>
-      <c r="MP1" s="23"/>
-      <c r="MQ1" s="23"/>
-      <c r="MR1" s="23"/>
-      <c r="MS1" s="23"/>
-      <c r="MT1" s="23"/>
-      <c r="MU1" s="23"/>
-      <c r="MV1" s="23"/>
-      <c r="MW1" s="23"/>
-      <c r="MX1" s="23"/>
-      <c r="MY1" s="23"/>
-      <c r="MZ1" s="23"/>
-      <c r="NA1" s="23"/>
-      <c r="NB1" s="23"/>
+      <c r="LY1" s="25"/>
+      <c r="LZ1" s="25"/>
+      <c r="MA1" s="25"/>
+      <c r="MB1" s="25"/>
+      <c r="MC1" s="25"/>
+      <c r="MD1" s="25"/>
+      <c r="ME1" s="25"/>
+      <c r="MF1" s="25"/>
+      <c r="MG1" s="25"/>
+      <c r="MH1" s="25"/>
+      <c r="MI1" s="25"/>
+      <c r="MJ1" s="25"/>
+      <c r="MK1" s="25"/>
+      <c r="ML1" s="25"/>
+      <c r="MM1" s="25"/>
+      <c r="MN1" s="25"/>
+      <c r="MO1" s="25"/>
+      <c r="MP1" s="25"/>
+      <c r="MQ1" s="25"/>
+      <c r="MR1" s="25"/>
+      <c r="MS1" s="25"/>
+      <c r="MT1" s="25"/>
+      <c r="MU1" s="25"/>
+      <c r="MV1" s="25"/>
+      <c r="MW1" s="25"/>
+      <c r="MX1" s="25"/>
+      <c r="MY1" s="25"/>
+      <c r="MZ1" s="25"/>
+      <c r="NA1" s="25"/>
+      <c r="NB1" s="25"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1633,7 +1633,7 @@
       <c r="FG2" t="s">
         <v>19</v>
       </c>
-      <c r="FH2" s="25" t="s">
+      <c r="FH2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="FI2" t="s">
@@ -5295,7 +5295,7 @@
       <c r="NA8" s="1"/>
       <c r="NB8" s="1"/>
     </row>
-    <row r="9" spans="1:419" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:419" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5452,63 +5452,50 @@
       <c r="EN9" s="7"/>
       <c r="EO9" s="19"/>
       <c r="EP9" s="19"/>
-      <c r="EQ9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="ER9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="ET9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="EU9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="EV9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="EW9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="EX9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="EY9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="EZ9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="FA9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="FB9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="FC9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FD9" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="EV9" s="19"/>
+      <c r="EW9" s="19"/>
+      <c r="FC9" s="19"/>
+      <c r="FD9" s="19"/>
       <c r="FE9" s="7"/>
-      <c r="FF9" s="7"/>
-      <c r="FG9" s="7"/>
-      <c r="FH9" s="5"/>
-      <c r="FI9" s="7"/>
-      <c r="FJ9" s="19"/>
-      <c r="FK9" s="19"/>
-      <c r="FL9" s="7"/>
-      <c r="FM9" s="7"/>
-      <c r="FN9" s="7"/>
-      <c r="FO9" s="7"/>
-      <c r="FP9" s="7"/>
-      <c r="FQ9" s="19"/>
-      <c r="FR9" s="19"/>
-      <c r="FS9" s="7"/>
+      <c r="FF9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FH9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="FI9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FJ9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FK9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FL9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="FT9" s="7"/>
       <c r="FU9" s="7"/>
       <c r="FV9" s="7"/>
@@ -9771,7 +9758,7 @@
       <c r="FE21" s="13"/>
       <c r="FF21" s="13"/>
       <c r="FG21" s="13"/>
-      <c r="FH21" s="26"/>
+      <c r="FH21" s="24"/>
       <c r="FI21" s="13"/>
       <c r="FJ21" s="22"/>
       <c r="FK21" s="22"/>
@@ -10212,7 +10199,7 @@
       <c r="FG30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="FH30" s="25"/>
+      <c r="FH30" s="23"/>
       <c r="FI30" s="7"/>
       <c r="FJ30" s="19"/>
       <c r="FK30" s="19"/>
@@ -10963,6 +10950,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -10970,11 +10962,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="47">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -375,6 +381,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -647,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,10 +665,10 @@
   <dimension ref="A1:PC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="EC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="FZ10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="FH11" sqref="FH11"/>
+      <selection pane="bottomRight" activeCell="II21" sqref="II21:IJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9663,6 +9670,12 @@
       <c r="HT20" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="HU20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HV20" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:366" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -9735,21 +9748,7 @@
       <c r="EI21" s="20"/>
       <c r="EO21" s="20"/>
       <c r="EP21" s="20"/>
-      <c r="ER21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="ET21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="EU21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="EV21" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="EV21" s="20"/>
       <c r="EW21" s="20"/>
       <c r="FA21" s="13"/>
       <c r="FB21" s="13"/>
@@ -9766,24 +9765,90 @@
       <c r="FR21" s="20"/>
       <c r="FX21" s="20"/>
       <c r="FY21" s="20"/>
+      <c r="FZ21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GB21" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="GE21" s="20"/>
       <c r="GF21" s="20"/>
       <c r="GL21" s="20"/>
       <c r="GM21" s="20"/>
-      <c r="GS21" s="20"/>
-      <c r="GT21" s="20"/>
-      <c r="GZ21" s="20"/>
-      <c r="HA21" s="20"/>
+      <c r="GN21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA21" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="HG21" s="20"/>
       <c r="HH21" s="20"/>
-      <c r="HN21" s="20"/>
-      <c r="HO21" s="20"/>
+      <c r="HN21" s="19"/>
+      <c r="HO21" s="19"/>
       <c r="HU21" s="20"/>
       <c r="HV21" s="20"/>
       <c r="IB21" s="20"/>
       <c r="IC21" s="20"/>
-      <c r="II21" s="20"/>
-      <c r="IJ21" s="20"/>
+      <c r="ID21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IE21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IF21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IG21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IH21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="II21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ21" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="IP21" s="20"/>
       <c r="IQ21" s="20"/>
       <c r="IW21" s="20"/>
@@ -10950,11 +11015,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -10962,6 +11022,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10971,10 +11036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NB15"/>
+  <dimension ref="A1:NB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="II21" sqref="II21:IJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16163,6 +16228,64 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="182:242" x14ac:dyDescent="0.25">
+      <c r="FZ21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GB21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS21" s="1"/>
+      <c r="GT21" s="1"/>
+      <c r="GU21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX21" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY21" t="s">
+        <v>13</v>
+      </c>
+      <c r="ID21" t="s">
+        <v>13</v>
+      </c>
+      <c r="IE21" t="s">
+        <v>13</v>
+      </c>
+      <c r="IF21" t="s">
+        <v>13</v>
+      </c>
+      <c r="IG21" t="s">
+        <v>13</v>
+      </c>
+      <c r="IH21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="47">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -377,11 +377,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -654,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,10 +665,10 @@
   <dimension ref="A1:PC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="FZ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="EJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="II21" sqref="II21:IJ21"/>
+      <selection pane="bottomRight" activeCell="EX8" sqref="EX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,395 +763,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="25" t="s">
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25"/>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25"/>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25"/>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="25" t="s">
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26"/>
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26"/>
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26"/>
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="25"/>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25"/>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25"/>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25"/>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25"/>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25"/>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25"/>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="25"/>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="26" t="s">
+      <c r="CO1" s="26"/>
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26"/>
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="26"/>
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26"/>
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26"/>
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26"/>
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="26"/>
-      <c r="DT1" s="26"/>
-      <c r="DU1" s="26"/>
-      <c r="DV1" s="26"/>
-      <c r="DW1" s="26"/>
-      <c r="DX1" s="26"/>
-      <c r="DY1" s="26"/>
-      <c r="DZ1" s="26"/>
-      <c r="EA1" s="26"/>
-      <c r="EB1" s="26"/>
-      <c r="EC1" s="26"/>
-      <c r="ED1" s="26"/>
-      <c r="EE1" s="26"/>
-      <c r="EF1" s="26"/>
-      <c r="EG1" s="26"/>
-      <c r="EH1" s="26"/>
-      <c r="EI1" s="26"/>
-      <c r="EJ1" s="26"/>
-      <c r="EK1" s="26"/>
-      <c r="EL1" s="26"/>
-      <c r="EM1" s="26"/>
-      <c r="EN1" s="26"/>
-      <c r="EO1" s="26"/>
-      <c r="EP1" s="26"/>
-      <c r="EQ1" s="26"/>
-      <c r="ER1" s="26"/>
-      <c r="ES1" s="26"/>
-      <c r="ET1" s="26"/>
-      <c r="EU1" s="26"/>
-      <c r="EV1" s="26"/>
-      <c r="EW1" s="26" t="s">
+      <c r="DS1" s="27"/>
+      <c r="DT1" s="27"/>
+      <c r="DU1" s="27"/>
+      <c r="DV1" s="27"/>
+      <c r="DW1" s="27"/>
+      <c r="DX1" s="27"/>
+      <c r="DY1" s="27"/>
+      <c r="DZ1" s="27"/>
+      <c r="EA1" s="27"/>
+      <c r="EB1" s="27"/>
+      <c r="EC1" s="27"/>
+      <c r="ED1" s="27"/>
+      <c r="EE1" s="27"/>
+      <c r="EF1" s="27"/>
+      <c r="EG1" s="27"/>
+      <c r="EH1" s="27"/>
+      <c r="EI1" s="27"/>
+      <c r="EJ1" s="27"/>
+      <c r="EK1" s="27"/>
+      <c r="EL1" s="27"/>
+      <c r="EM1" s="27"/>
+      <c r="EN1" s="27"/>
+      <c r="EO1" s="27"/>
+      <c r="EP1" s="27"/>
+      <c r="EQ1" s="27"/>
+      <c r="ER1" s="27"/>
+      <c r="ES1" s="27"/>
+      <c r="ET1" s="27"/>
+      <c r="EU1" s="27"/>
+      <c r="EV1" s="27"/>
+      <c r="EW1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="26"/>
-      <c r="EY1" s="26"/>
-      <c r="EZ1" s="26"/>
-      <c r="FA1" s="26"/>
-      <c r="FB1" s="26"/>
-      <c r="FC1" s="26"/>
-      <c r="FD1" s="26"/>
-      <c r="FE1" s="26"/>
-      <c r="FF1" s="26"/>
-      <c r="FG1" s="26"/>
-      <c r="FH1" s="26"/>
-      <c r="FI1" s="26"/>
-      <c r="FJ1" s="26"/>
-      <c r="FK1" s="26"/>
-      <c r="FL1" s="26"/>
-      <c r="FM1" s="26"/>
-      <c r="FN1" s="26"/>
-      <c r="FO1" s="26"/>
-      <c r="FP1" s="26"/>
-      <c r="FQ1" s="26"/>
-      <c r="FR1" s="26"/>
-      <c r="FS1" s="26"/>
-      <c r="FT1" s="26"/>
-      <c r="FU1" s="26"/>
-      <c r="FV1" s="26"/>
-      <c r="FW1" s="26"/>
-      <c r="FX1" s="26"/>
-      <c r="FY1" s="26"/>
-      <c r="FZ1" s="26"/>
-      <c r="GA1" s="26" t="s">
+      <c r="EX1" s="27"/>
+      <c r="EY1" s="27"/>
+      <c r="EZ1" s="27"/>
+      <c r="FA1" s="27"/>
+      <c r="FB1" s="27"/>
+      <c r="FC1" s="27"/>
+      <c r="FD1" s="27"/>
+      <c r="FE1" s="27"/>
+      <c r="FF1" s="27"/>
+      <c r="FG1" s="27"/>
+      <c r="FH1" s="27"/>
+      <c r="FI1" s="27"/>
+      <c r="FJ1" s="27"/>
+      <c r="FK1" s="27"/>
+      <c r="FL1" s="27"/>
+      <c r="FM1" s="27"/>
+      <c r="FN1" s="27"/>
+      <c r="FO1" s="27"/>
+      <c r="FP1" s="27"/>
+      <c r="FQ1" s="27"/>
+      <c r="FR1" s="27"/>
+      <c r="FS1" s="27"/>
+      <c r="FT1" s="27"/>
+      <c r="FU1" s="27"/>
+      <c r="FV1" s="27"/>
+      <c r="FW1" s="27"/>
+      <c r="FX1" s="27"/>
+      <c r="FY1" s="27"/>
+      <c r="FZ1" s="27"/>
+      <c r="GA1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="26"/>
-      <c r="GC1" s="26"/>
-      <c r="GD1" s="26"/>
-      <c r="GE1" s="26"/>
-      <c r="GF1" s="26"/>
-      <c r="GG1" s="26"/>
-      <c r="GH1" s="26"/>
-      <c r="GI1" s="26"/>
-      <c r="GJ1" s="26"/>
-      <c r="GK1" s="26"/>
-      <c r="GL1" s="26"/>
-      <c r="GM1" s="26"/>
-      <c r="GN1" s="26"/>
-      <c r="GO1" s="26"/>
-      <c r="GP1" s="26"/>
-      <c r="GQ1" s="26"/>
-      <c r="GR1" s="26"/>
-      <c r="GS1" s="26"/>
-      <c r="GT1" s="26"/>
-      <c r="GU1" s="26"/>
-      <c r="GV1" s="26"/>
-      <c r="GW1" s="26"/>
-      <c r="GX1" s="26"/>
-      <c r="GY1" s="26"/>
-      <c r="GZ1" s="26"/>
-      <c r="HA1" s="26"/>
-      <c r="HB1" s="26"/>
-      <c r="HC1" s="26"/>
-      <c r="HD1" s="26"/>
-      <c r="HE1" s="26"/>
-      <c r="HF1" s="25" t="s">
+      <c r="GB1" s="27"/>
+      <c r="GC1" s="27"/>
+      <c r="GD1" s="27"/>
+      <c r="GE1" s="27"/>
+      <c r="GF1" s="27"/>
+      <c r="GG1" s="27"/>
+      <c r="GH1" s="27"/>
+      <c r="GI1" s="27"/>
+      <c r="GJ1" s="27"/>
+      <c r="GK1" s="27"/>
+      <c r="GL1" s="27"/>
+      <c r="GM1" s="27"/>
+      <c r="GN1" s="27"/>
+      <c r="GO1" s="27"/>
+      <c r="GP1" s="27"/>
+      <c r="GQ1" s="27"/>
+      <c r="GR1" s="27"/>
+      <c r="GS1" s="27"/>
+      <c r="GT1" s="27"/>
+      <c r="GU1" s="27"/>
+      <c r="GV1" s="27"/>
+      <c r="GW1" s="27"/>
+      <c r="GX1" s="27"/>
+      <c r="GY1" s="27"/>
+      <c r="GZ1" s="27"/>
+      <c r="HA1" s="27"/>
+      <c r="HB1" s="27"/>
+      <c r="HC1" s="27"/>
+      <c r="HD1" s="27"/>
+      <c r="HE1" s="27"/>
+      <c r="HF1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="25"/>
-      <c r="HH1" s="25"/>
-      <c r="HI1" s="25"/>
-      <c r="HJ1" s="25"/>
-      <c r="HK1" s="25"/>
-      <c r="HL1" s="25"/>
-      <c r="HM1" s="25"/>
-      <c r="HN1" s="25"/>
-      <c r="HO1" s="25"/>
-      <c r="HP1" s="25"/>
-      <c r="HQ1" s="25"/>
-      <c r="HR1" s="25"/>
-      <c r="HS1" s="25"/>
-      <c r="HT1" s="25"/>
-      <c r="HU1" s="25"/>
-      <c r="HV1" s="25"/>
-      <c r="HW1" s="25"/>
-      <c r="HX1" s="25"/>
-      <c r="HY1" s="25"/>
-      <c r="HZ1" s="25"/>
-      <c r="IA1" s="25"/>
-      <c r="IB1" s="25"/>
-      <c r="IC1" s="25"/>
-      <c r="ID1" s="25"/>
-      <c r="IE1" s="25"/>
-      <c r="IF1" s="25"/>
-      <c r="IG1" s="25"/>
-      <c r="IH1" s="25"/>
-      <c r="II1" s="25"/>
-      <c r="IJ1" s="25"/>
-      <c r="IK1" s="26" t="s">
+      <c r="HG1" s="26"/>
+      <c r="HH1" s="26"/>
+      <c r="HI1" s="26"/>
+      <c r="HJ1" s="26"/>
+      <c r="HK1" s="26"/>
+      <c r="HL1" s="26"/>
+      <c r="HM1" s="26"/>
+      <c r="HN1" s="26"/>
+      <c r="HO1" s="26"/>
+      <c r="HP1" s="26"/>
+      <c r="HQ1" s="26"/>
+      <c r="HR1" s="26"/>
+      <c r="HS1" s="26"/>
+      <c r="HT1" s="26"/>
+      <c r="HU1" s="26"/>
+      <c r="HV1" s="26"/>
+      <c r="HW1" s="26"/>
+      <c r="HX1" s="26"/>
+      <c r="HY1" s="26"/>
+      <c r="HZ1" s="26"/>
+      <c r="IA1" s="26"/>
+      <c r="IB1" s="26"/>
+      <c r="IC1" s="26"/>
+      <c r="ID1" s="26"/>
+      <c r="IE1" s="26"/>
+      <c r="IF1" s="26"/>
+      <c r="IG1" s="26"/>
+      <c r="IH1" s="26"/>
+      <c r="II1" s="26"/>
+      <c r="IJ1" s="26"/>
+      <c r="IK1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="26"/>
-      <c r="IM1" s="26"/>
-      <c r="IN1" s="26"/>
-      <c r="IO1" s="26"/>
-      <c r="IP1" s="26"/>
-      <c r="IQ1" s="26"/>
-      <c r="IR1" s="26"/>
-      <c r="IS1" s="26"/>
-      <c r="IT1" s="26"/>
-      <c r="IU1" s="26"/>
-      <c r="IV1" s="26"/>
-      <c r="IW1" s="26"/>
-      <c r="IX1" s="26"/>
-      <c r="IY1" s="26"/>
-      <c r="IZ1" s="26"/>
-      <c r="JA1" s="26"/>
-      <c r="JB1" s="26"/>
-      <c r="JC1" s="26"/>
-      <c r="JD1" s="26"/>
-      <c r="JE1" s="26"/>
-      <c r="JF1" s="26"/>
-      <c r="JG1" s="26"/>
-      <c r="JH1" s="26"/>
-      <c r="JI1" s="26"/>
-      <c r="JJ1" s="26"/>
-      <c r="JK1" s="26"/>
-      <c r="JL1" s="26"/>
-      <c r="JM1" s="26"/>
-      <c r="JN1" s="26"/>
-      <c r="JO1" s="25" t="s">
+      <c r="IL1" s="27"/>
+      <c r="IM1" s="27"/>
+      <c r="IN1" s="27"/>
+      <c r="IO1" s="27"/>
+      <c r="IP1" s="27"/>
+      <c r="IQ1" s="27"/>
+      <c r="IR1" s="27"/>
+      <c r="IS1" s="27"/>
+      <c r="IT1" s="27"/>
+      <c r="IU1" s="27"/>
+      <c r="IV1" s="27"/>
+      <c r="IW1" s="27"/>
+      <c r="IX1" s="27"/>
+      <c r="IY1" s="27"/>
+      <c r="IZ1" s="27"/>
+      <c r="JA1" s="27"/>
+      <c r="JB1" s="27"/>
+      <c r="JC1" s="27"/>
+      <c r="JD1" s="27"/>
+      <c r="JE1" s="27"/>
+      <c r="JF1" s="27"/>
+      <c r="JG1" s="27"/>
+      <c r="JH1" s="27"/>
+      <c r="JI1" s="27"/>
+      <c r="JJ1" s="27"/>
+      <c r="JK1" s="27"/>
+      <c r="JL1" s="27"/>
+      <c r="JM1" s="27"/>
+      <c r="JN1" s="27"/>
+      <c r="JO1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="25"/>
-      <c r="JQ1" s="25"/>
-      <c r="JR1" s="25"/>
-      <c r="JS1" s="25"/>
-      <c r="JT1" s="25"/>
-      <c r="JU1" s="25"/>
-      <c r="JV1" s="25"/>
-      <c r="JW1" s="25"/>
-      <c r="JX1" s="25"/>
-      <c r="JY1" s="25"/>
-      <c r="JZ1" s="25"/>
-      <c r="KA1" s="25"/>
-      <c r="KB1" s="25"/>
-      <c r="KC1" s="25"/>
-      <c r="KD1" s="25"/>
-      <c r="KE1" s="25"/>
-      <c r="KF1" s="25"/>
-      <c r="KG1" s="25"/>
-      <c r="KH1" s="25"/>
-      <c r="KI1" s="25"/>
-      <c r="KJ1" s="25"/>
-      <c r="KK1" s="25"/>
-      <c r="KL1" s="25"/>
-      <c r="KM1" s="25"/>
-      <c r="KN1" s="25"/>
-      <c r="KO1" s="25"/>
-      <c r="KP1" s="25"/>
-      <c r="KQ1" s="25"/>
-      <c r="KR1" s="25"/>
-      <c r="KS1" s="25"/>
-      <c r="KT1" s="25" t="s">
+      <c r="JP1" s="26"/>
+      <c r="JQ1" s="26"/>
+      <c r="JR1" s="26"/>
+      <c r="JS1" s="26"/>
+      <c r="JT1" s="26"/>
+      <c r="JU1" s="26"/>
+      <c r="JV1" s="26"/>
+      <c r="JW1" s="26"/>
+      <c r="JX1" s="26"/>
+      <c r="JY1" s="26"/>
+      <c r="JZ1" s="26"/>
+      <c r="KA1" s="26"/>
+      <c r="KB1" s="26"/>
+      <c r="KC1" s="26"/>
+      <c r="KD1" s="26"/>
+      <c r="KE1" s="26"/>
+      <c r="KF1" s="26"/>
+      <c r="KG1" s="26"/>
+      <c r="KH1" s="26"/>
+      <c r="KI1" s="26"/>
+      <c r="KJ1" s="26"/>
+      <c r="KK1" s="26"/>
+      <c r="KL1" s="26"/>
+      <c r="KM1" s="26"/>
+      <c r="KN1" s="26"/>
+      <c r="KO1" s="26"/>
+      <c r="KP1" s="26"/>
+      <c r="KQ1" s="26"/>
+      <c r="KR1" s="26"/>
+      <c r="KS1" s="26"/>
+      <c r="KT1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="25"/>
-      <c r="KV1" s="25"/>
-      <c r="KW1" s="25"/>
-      <c r="KX1" s="25"/>
-      <c r="KY1" s="25"/>
-      <c r="KZ1" s="25"/>
-      <c r="LA1" s="25"/>
-      <c r="LB1" s="25"/>
-      <c r="LC1" s="25"/>
-      <c r="LD1" s="25"/>
-      <c r="LE1" s="25"/>
-      <c r="LF1" s="25"/>
-      <c r="LG1" s="25"/>
-      <c r="LH1" s="25"/>
-      <c r="LI1" s="25"/>
-      <c r="LJ1" s="25"/>
-      <c r="LK1" s="25"/>
-      <c r="LL1" s="25"/>
-      <c r="LM1" s="25"/>
-      <c r="LN1" s="25"/>
-      <c r="LO1" s="25"/>
-      <c r="LP1" s="25"/>
-      <c r="LQ1" s="25"/>
-      <c r="LR1" s="25"/>
-      <c r="LS1" s="25"/>
-      <c r="LT1" s="25"/>
-      <c r="LU1" s="25"/>
-      <c r="LV1" s="25"/>
-      <c r="LW1" s="25"/>
-      <c r="LX1" s="25" t="s">
+      <c r="KU1" s="26"/>
+      <c r="KV1" s="26"/>
+      <c r="KW1" s="26"/>
+      <c r="KX1" s="26"/>
+      <c r="KY1" s="26"/>
+      <c r="KZ1" s="26"/>
+      <c r="LA1" s="26"/>
+      <c r="LB1" s="26"/>
+      <c r="LC1" s="26"/>
+      <c r="LD1" s="26"/>
+      <c r="LE1" s="26"/>
+      <c r="LF1" s="26"/>
+      <c r="LG1" s="26"/>
+      <c r="LH1" s="26"/>
+      <c r="LI1" s="26"/>
+      <c r="LJ1" s="26"/>
+      <c r="LK1" s="26"/>
+      <c r="LL1" s="26"/>
+      <c r="LM1" s="26"/>
+      <c r="LN1" s="26"/>
+      <c r="LO1" s="26"/>
+      <c r="LP1" s="26"/>
+      <c r="LQ1" s="26"/>
+      <c r="LR1" s="26"/>
+      <c r="LS1" s="26"/>
+      <c r="LT1" s="26"/>
+      <c r="LU1" s="26"/>
+      <c r="LV1" s="26"/>
+      <c r="LW1" s="26"/>
+      <c r="LX1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="25"/>
-      <c r="LZ1" s="25"/>
-      <c r="MA1" s="25"/>
-      <c r="MB1" s="25"/>
-      <c r="MC1" s="25"/>
-      <c r="MD1" s="25"/>
-      <c r="ME1" s="25"/>
-      <c r="MF1" s="25"/>
-      <c r="MG1" s="25"/>
-      <c r="MH1" s="25"/>
-      <c r="MI1" s="25"/>
-      <c r="MJ1" s="25"/>
-      <c r="MK1" s="25"/>
-      <c r="ML1" s="25"/>
-      <c r="MM1" s="25"/>
-      <c r="MN1" s="25"/>
-      <c r="MO1" s="25"/>
-      <c r="MP1" s="25"/>
-      <c r="MQ1" s="25"/>
-      <c r="MR1" s="25"/>
-      <c r="MS1" s="25"/>
-      <c r="MT1" s="25"/>
-      <c r="MU1" s="25"/>
-      <c r="MV1" s="25"/>
-      <c r="MW1" s="25"/>
-      <c r="MX1" s="25"/>
-      <c r="MY1" s="25"/>
-      <c r="MZ1" s="25"/>
-      <c r="NA1" s="25"/>
-      <c r="NB1" s="25"/>
+      <c r="LY1" s="26"/>
+      <c r="LZ1" s="26"/>
+      <c r="MA1" s="26"/>
+      <c r="MB1" s="26"/>
+      <c r="MC1" s="26"/>
+      <c r="MD1" s="26"/>
+      <c r="ME1" s="26"/>
+      <c r="MF1" s="26"/>
+      <c r="MG1" s="26"/>
+      <c r="MH1" s="26"/>
+      <c r="MI1" s="26"/>
+      <c r="MJ1" s="26"/>
+      <c r="MK1" s="26"/>
+      <c r="ML1" s="26"/>
+      <c r="MM1" s="26"/>
+      <c r="MN1" s="26"/>
+      <c r="MO1" s="26"/>
+      <c r="MP1" s="26"/>
+      <c r="MQ1" s="26"/>
+      <c r="MR1" s="26"/>
+      <c r="MS1" s="26"/>
+      <c r="MT1" s="26"/>
+      <c r="MU1" s="26"/>
+      <c r="MV1" s="26"/>
+      <c r="MW1" s="26"/>
+      <c r="MX1" s="26"/>
+      <c r="MY1" s="26"/>
+      <c r="MZ1" s="26"/>
+      <c r="NA1" s="26"/>
+      <c r="NB1" s="26"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5078,17 +5078,39 @@
       <c r="EK8" s="1"/>
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
-      <c r="EN8" s="1"/>
-      <c r="EO8" s="19"/>
-      <c r="EP8" s="19"/>
-      <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
-      <c r="ES8" s="1"/>
-      <c r="ET8" s="1"/>
-      <c r="EU8" s="1"/>
-      <c r="EV8" s="19"/>
-      <c r="EW8" s="19"/>
-      <c r="EX8" s="1"/>
+      <c r="EN8" t="s">
+        <v>13</v>
+      </c>
+      <c r="EO8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EP8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>13</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>13</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>13</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>13</v>
+      </c>
+      <c r="EV8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EW8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>13</v>
+      </c>
       <c r="EY8" s="1"/>
       <c r="EZ8" s="1"/>
       <c r="FA8" s="1"/>
@@ -11015,6 +11037,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11022,11 +11049,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11038,8 +11060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="II21" sqref="II21:IJ21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="FL8" sqref="FL8:FT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16258,7 +16280,7 @@
       <c r="GU21" t="s">
         <v>13</v>
       </c>
-      <c r="GV21" s="27" t="s">
+      <c r="GV21" s="25" t="s">
         <v>13</v>
       </c>
       <c r="GW21" t="s">

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="49">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -224,6 +224,12 @@
   <si>
     <t>Ларин Михаил</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ганчев </t>
+  </si>
+  <si>
+    <t>Смолянец</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +336,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -378,6 +390,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC33"/>
+  <dimension ref="A1:PC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="EJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="EV4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="EX8" sqref="EX8"/>
@@ -698,9 +715,9 @@
     <col min="152" max="153" width="3.7109375" style="20" customWidth="1"/>
     <col min="154" max="158" width="3.7109375" customWidth="1"/>
     <col min="159" max="160" width="3.7109375" style="20" customWidth="1"/>
-    <col min="161" max="163" width="3.7109375" customWidth="1"/>
-    <col min="164" max="164" width="3.7109375" style="23" customWidth="1"/>
-    <col min="165" max="165" width="3.7109375" customWidth="1"/>
+    <col min="161" max="161" width="3.7109375" style="26" customWidth="1"/>
+    <col min="162" max="163" width="3.7109375" customWidth="1"/>
+    <col min="164" max="165" width="3.7109375" style="23" customWidth="1"/>
     <col min="166" max="167" width="3.7109375" style="20" customWidth="1"/>
     <col min="168" max="172" width="3.7109375" customWidth="1"/>
     <col min="173" max="174" width="3.7109375" style="20" customWidth="1"/>
@@ -763,395 +780,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="26" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26"/>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26"/>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="26" t="s">
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="30"/>
+      <c r="CN1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="26"/>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26"/>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="26"/>
-      <c r="CZ1" s="26"/>
-      <c r="DA1" s="26"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26"/>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26"/>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="26"/>
-      <c r="DO1" s="26"/>
-      <c r="DP1" s="26"/>
-      <c r="DQ1" s="26"/>
-      <c r="DR1" s="27" t="s">
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="29"/>
+      <c r="DD1" s="29"/>
+      <c r="DE1" s="29"/>
+      <c r="DF1" s="29"/>
+      <c r="DG1" s="29"/>
+      <c r="DH1" s="29"/>
+      <c r="DI1" s="29"/>
+      <c r="DJ1" s="29"/>
+      <c r="DK1" s="29"/>
+      <c r="DL1" s="29"/>
+      <c r="DM1" s="29"/>
+      <c r="DN1" s="29"/>
+      <c r="DO1" s="29"/>
+      <c r="DP1" s="29"/>
+      <c r="DQ1" s="29"/>
+      <c r="DR1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="27"/>
-      <c r="DT1" s="27"/>
-      <c r="DU1" s="27"/>
-      <c r="DV1" s="27"/>
-      <c r="DW1" s="27"/>
-      <c r="DX1" s="27"/>
-      <c r="DY1" s="27"/>
-      <c r="DZ1" s="27"/>
-      <c r="EA1" s="27"/>
-      <c r="EB1" s="27"/>
-      <c r="EC1" s="27"/>
-      <c r="ED1" s="27"/>
-      <c r="EE1" s="27"/>
-      <c r="EF1" s="27"/>
-      <c r="EG1" s="27"/>
-      <c r="EH1" s="27"/>
-      <c r="EI1" s="27"/>
-      <c r="EJ1" s="27"/>
-      <c r="EK1" s="27"/>
-      <c r="EL1" s="27"/>
-      <c r="EM1" s="27"/>
-      <c r="EN1" s="27"/>
-      <c r="EO1" s="27"/>
-      <c r="EP1" s="27"/>
-      <c r="EQ1" s="27"/>
-      <c r="ER1" s="27"/>
-      <c r="ES1" s="27"/>
-      <c r="ET1" s="27"/>
-      <c r="EU1" s="27"/>
-      <c r="EV1" s="27"/>
-      <c r="EW1" s="27" t="s">
+      <c r="DS1" s="30"/>
+      <c r="DT1" s="30"/>
+      <c r="DU1" s="30"/>
+      <c r="DV1" s="30"/>
+      <c r="DW1" s="30"/>
+      <c r="DX1" s="30"/>
+      <c r="DY1" s="30"/>
+      <c r="DZ1" s="30"/>
+      <c r="EA1" s="30"/>
+      <c r="EB1" s="30"/>
+      <c r="EC1" s="30"/>
+      <c r="ED1" s="30"/>
+      <c r="EE1" s="30"/>
+      <c r="EF1" s="30"/>
+      <c r="EG1" s="30"/>
+      <c r="EH1" s="30"/>
+      <c r="EI1" s="30"/>
+      <c r="EJ1" s="30"/>
+      <c r="EK1" s="30"/>
+      <c r="EL1" s="30"/>
+      <c r="EM1" s="30"/>
+      <c r="EN1" s="30"/>
+      <c r="EO1" s="30"/>
+      <c r="EP1" s="30"/>
+      <c r="EQ1" s="30"/>
+      <c r="ER1" s="30"/>
+      <c r="ES1" s="30"/>
+      <c r="ET1" s="30"/>
+      <c r="EU1" s="30"/>
+      <c r="EV1" s="30"/>
+      <c r="EW1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="27"/>
-      <c r="EY1" s="27"/>
-      <c r="EZ1" s="27"/>
-      <c r="FA1" s="27"/>
-      <c r="FB1" s="27"/>
-      <c r="FC1" s="27"/>
-      <c r="FD1" s="27"/>
-      <c r="FE1" s="27"/>
-      <c r="FF1" s="27"/>
-      <c r="FG1" s="27"/>
-      <c r="FH1" s="27"/>
-      <c r="FI1" s="27"/>
-      <c r="FJ1" s="27"/>
-      <c r="FK1" s="27"/>
-      <c r="FL1" s="27"/>
-      <c r="FM1" s="27"/>
-      <c r="FN1" s="27"/>
-      <c r="FO1" s="27"/>
-      <c r="FP1" s="27"/>
-      <c r="FQ1" s="27"/>
-      <c r="FR1" s="27"/>
-      <c r="FS1" s="27"/>
-      <c r="FT1" s="27"/>
-      <c r="FU1" s="27"/>
-      <c r="FV1" s="27"/>
-      <c r="FW1" s="27"/>
-      <c r="FX1" s="27"/>
-      <c r="FY1" s="27"/>
-      <c r="FZ1" s="27"/>
-      <c r="GA1" s="27" t="s">
+      <c r="EX1" s="30"/>
+      <c r="EY1" s="30"/>
+      <c r="EZ1" s="30"/>
+      <c r="FA1" s="30"/>
+      <c r="FB1" s="30"/>
+      <c r="FC1" s="30"/>
+      <c r="FD1" s="30"/>
+      <c r="FE1" s="30"/>
+      <c r="FF1" s="30"/>
+      <c r="FG1" s="30"/>
+      <c r="FH1" s="30"/>
+      <c r="FI1" s="30"/>
+      <c r="FJ1" s="30"/>
+      <c r="FK1" s="30"/>
+      <c r="FL1" s="30"/>
+      <c r="FM1" s="30"/>
+      <c r="FN1" s="30"/>
+      <c r="FO1" s="30"/>
+      <c r="FP1" s="30"/>
+      <c r="FQ1" s="30"/>
+      <c r="FR1" s="30"/>
+      <c r="FS1" s="30"/>
+      <c r="FT1" s="30"/>
+      <c r="FU1" s="30"/>
+      <c r="FV1" s="30"/>
+      <c r="FW1" s="30"/>
+      <c r="FX1" s="30"/>
+      <c r="FY1" s="30"/>
+      <c r="FZ1" s="30"/>
+      <c r="GA1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="27"/>
-      <c r="GC1" s="27"/>
-      <c r="GD1" s="27"/>
-      <c r="GE1" s="27"/>
-      <c r="GF1" s="27"/>
-      <c r="GG1" s="27"/>
-      <c r="GH1" s="27"/>
-      <c r="GI1" s="27"/>
-      <c r="GJ1" s="27"/>
-      <c r="GK1" s="27"/>
-      <c r="GL1" s="27"/>
-      <c r="GM1" s="27"/>
-      <c r="GN1" s="27"/>
-      <c r="GO1" s="27"/>
-      <c r="GP1" s="27"/>
-      <c r="GQ1" s="27"/>
-      <c r="GR1" s="27"/>
-      <c r="GS1" s="27"/>
-      <c r="GT1" s="27"/>
-      <c r="GU1" s="27"/>
-      <c r="GV1" s="27"/>
-      <c r="GW1" s="27"/>
-      <c r="GX1" s="27"/>
-      <c r="GY1" s="27"/>
-      <c r="GZ1" s="27"/>
-      <c r="HA1" s="27"/>
-      <c r="HB1" s="27"/>
-      <c r="HC1" s="27"/>
-      <c r="HD1" s="27"/>
-      <c r="HE1" s="27"/>
-      <c r="HF1" s="26" t="s">
+      <c r="GB1" s="30"/>
+      <c r="GC1" s="30"/>
+      <c r="GD1" s="30"/>
+      <c r="GE1" s="30"/>
+      <c r="GF1" s="30"/>
+      <c r="GG1" s="30"/>
+      <c r="GH1" s="30"/>
+      <c r="GI1" s="30"/>
+      <c r="GJ1" s="30"/>
+      <c r="GK1" s="30"/>
+      <c r="GL1" s="30"/>
+      <c r="GM1" s="30"/>
+      <c r="GN1" s="30"/>
+      <c r="GO1" s="30"/>
+      <c r="GP1" s="30"/>
+      <c r="GQ1" s="30"/>
+      <c r="GR1" s="30"/>
+      <c r="GS1" s="30"/>
+      <c r="GT1" s="30"/>
+      <c r="GU1" s="30"/>
+      <c r="GV1" s="30"/>
+      <c r="GW1" s="30"/>
+      <c r="GX1" s="30"/>
+      <c r="GY1" s="30"/>
+      <c r="GZ1" s="30"/>
+      <c r="HA1" s="30"/>
+      <c r="HB1" s="30"/>
+      <c r="HC1" s="30"/>
+      <c r="HD1" s="30"/>
+      <c r="HE1" s="30"/>
+      <c r="HF1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="26"/>
-      <c r="HH1" s="26"/>
-      <c r="HI1" s="26"/>
-      <c r="HJ1" s="26"/>
-      <c r="HK1" s="26"/>
-      <c r="HL1" s="26"/>
-      <c r="HM1" s="26"/>
-      <c r="HN1" s="26"/>
-      <c r="HO1" s="26"/>
-      <c r="HP1" s="26"/>
-      <c r="HQ1" s="26"/>
-      <c r="HR1" s="26"/>
-      <c r="HS1" s="26"/>
-      <c r="HT1" s="26"/>
-      <c r="HU1" s="26"/>
-      <c r="HV1" s="26"/>
-      <c r="HW1" s="26"/>
-      <c r="HX1" s="26"/>
-      <c r="HY1" s="26"/>
-      <c r="HZ1" s="26"/>
-      <c r="IA1" s="26"/>
-      <c r="IB1" s="26"/>
-      <c r="IC1" s="26"/>
-      <c r="ID1" s="26"/>
-      <c r="IE1" s="26"/>
-      <c r="IF1" s="26"/>
-      <c r="IG1" s="26"/>
-      <c r="IH1" s="26"/>
-      <c r="II1" s="26"/>
-      <c r="IJ1" s="26"/>
-      <c r="IK1" s="27" t="s">
+      <c r="HG1" s="29"/>
+      <c r="HH1" s="29"/>
+      <c r="HI1" s="29"/>
+      <c r="HJ1" s="29"/>
+      <c r="HK1" s="29"/>
+      <c r="HL1" s="29"/>
+      <c r="HM1" s="29"/>
+      <c r="HN1" s="29"/>
+      <c r="HO1" s="29"/>
+      <c r="HP1" s="29"/>
+      <c r="HQ1" s="29"/>
+      <c r="HR1" s="29"/>
+      <c r="HS1" s="29"/>
+      <c r="HT1" s="29"/>
+      <c r="HU1" s="29"/>
+      <c r="HV1" s="29"/>
+      <c r="HW1" s="29"/>
+      <c r="HX1" s="29"/>
+      <c r="HY1" s="29"/>
+      <c r="HZ1" s="29"/>
+      <c r="IA1" s="29"/>
+      <c r="IB1" s="29"/>
+      <c r="IC1" s="29"/>
+      <c r="ID1" s="29"/>
+      <c r="IE1" s="29"/>
+      <c r="IF1" s="29"/>
+      <c r="IG1" s="29"/>
+      <c r="IH1" s="29"/>
+      <c r="II1" s="29"/>
+      <c r="IJ1" s="29"/>
+      <c r="IK1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="27"/>
-      <c r="IM1" s="27"/>
-      <c r="IN1" s="27"/>
-      <c r="IO1" s="27"/>
-      <c r="IP1" s="27"/>
-      <c r="IQ1" s="27"/>
-      <c r="IR1" s="27"/>
-      <c r="IS1" s="27"/>
-      <c r="IT1" s="27"/>
-      <c r="IU1" s="27"/>
-      <c r="IV1" s="27"/>
-      <c r="IW1" s="27"/>
-      <c r="IX1" s="27"/>
-      <c r="IY1" s="27"/>
-      <c r="IZ1" s="27"/>
-      <c r="JA1" s="27"/>
-      <c r="JB1" s="27"/>
-      <c r="JC1" s="27"/>
-      <c r="JD1" s="27"/>
-      <c r="JE1" s="27"/>
-      <c r="JF1" s="27"/>
-      <c r="JG1" s="27"/>
-      <c r="JH1" s="27"/>
-      <c r="JI1" s="27"/>
-      <c r="JJ1" s="27"/>
-      <c r="JK1" s="27"/>
-      <c r="JL1" s="27"/>
-      <c r="JM1" s="27"/>
-      <c r="JN1" s="27"/>
-      <c r="JO1" s="26" t="s">
+      <c r="IL1" s="30"/>
+      <c r="IM1" s="30"/>
+      <c r="IN1" s="30"/>
+      <c r="IO1" s="30"/>
+      <c r="IP1" s="30"/>
+      <c r="IQ1" s="30"/>
+      <c r="IR1" s="30"/>
+      <c r="IS1" s="30"/>
+      <c r="IT1" s="30"/>
+      <c r="IU1" s="30"/>
+      <c r="IV1" s="30"/>
+      <c r="IW1" s="30"/>
+      <c r="IX1" s="30"/>
+      <c r="IY1" s="30"/>
+      <c r="IZ1" s="30"/>
+      <c r="JA1" s="30"/>
+      <c r="JB1" s="30"/>
+      <c r="JC1" s="30"/>
+      <c r="JD1" s="30"/>
+      <c r="JE1" s="30"/>
+      <c r="JF1" s="30"/>
+      <c r="JG1" s="30"/>
+      <c r="JH1" s="30"/>
+      <c r="JI1" s="30"/>
+      <c r="JJ1" s="30"/>
+      <c r="JK1" s="30"/>
+      <c r="JL1" s="30"/>
+      <c r="JM1" s="30"/>
+      <c r="JN1" s="30"/>
+      <c r="JO1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="26"/>
-      <c r="JQ1" s="26"/>
-      <c r="JR1" s="26"/>
-      <c r="JS1" s="26"/>
-      <c r="JT1" s="26"/>
-      <c r="JU1" s="26"/>
-      <c r="JV1" s="26"/>
-      <c r="JW1" s="26"/>
-      <c r="JX1" s="26"/>
-      <c r="JY1" s="26"/>
-      <c r="JZ1" s="26"/>
-      <c r="KA1" s="26"/>
-      <c r="KB1" s="26"/>
-      <c r="KC1" s="26"/>
-      <c r="KD1" s="26"/>
-      <c r="KE1" s="26"/>
-      <c r="KF1" s="26"/>
-      <c r="KG1" s="26"/>
-      <c r="KH1" s="26"/>
-      <c r="KI1" s="26"/>
-      <c r="KJ1" s="26"/>
-      <c r="KK1" s="26"/>
-      <c r="KL1" s="26"/>
-      <c r="KM1" s="26"/>
-      <c r="KN1" s="26"/>
-      <c r="KO1" s="26"/>
-      <c r="KP1" s="26"/>
-      <c r="KQ1" s="26"/>
-      <c r="KR1" s="26"/>
-      <c r="KS1" s="26"/>
-      <c r="KT1" s="26" t="s">
+      <c r="JP1" s="29"/>
+      <c r="JQ1" s="29"/>
+      <c r="JR1" s="29"/>
+      <c r="JS1" s="29"/>
+      <c r="JT1" s="29"/>
+      <c r="JU1" s="29"/>
+      <c r="JV1" s="29"/>
+      <c r="JW1" s="29"/>
+      <c r="JX1" s="29"/>
+      <c r="JY1" s="29"/>
+      <c r="JZ1" s="29"/>
+      <c r="KA1" s="29"/>
+      <c r="KB1" s="29"/>
+      <c r="KC1" s="29"/>
+      <c r="KD1" s="29"/>
+      <c r="KE1" s="29"/>
+      <c r="KF1" s="29"/>
+      <c r="KG1" s="29"/>
+      <c r="KH1" s="29"/>
+      <c r="KI1" s="29"/>
+      <c r="KJ1" s="29"/>
+      <c r="KK1" s="29"/>
+      <c r="KL1" s="29"/>
+      <c r="KM1" s="29"/>
+      <c r="KN1" s="29"/>
+      <c r="KO1" s="29"/>
+      <c r="KP1" s="29"/>
+      <c r="KQ1" s="29"/>
+      <c r="KR1" s="29"/>
+      <c r="KS1" s="29"/>
+      <c r="KT1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="26"/>
-      <c r="KV1" s="26"/>
-      <c r="KW1" s="26"/>
-      <c r="KX1" s="26"/>
-      <c r="KY1" s="26"/>
-      <c r="KZ1" s="26"/>
-      <c r="LA1" s="26"/>
-      <c r="LB1" s="26"/>
-      <c r="LC1" s="26"/>
-      <c r="LD1" s="26"/>
-      <c r="LE1" s="26"/>
-      <c r="LF1" s="26"/>
-      <c r="LG1" s="26"/>
-      <c r="LH1" s="26"/>
-      <c r="LI1" s="26"/>
-      <c r="LJ1" s="26"/>
-      <c r="LK1" s="26"/>
-      <c r="LL1" s="26"/>
-      <c r="LM1" s="26"/>
-      <c r="LN1" s="26"/>
-      <c r="LO1" s="26"/>
-      <c r="LP1" s="26"/>
-      <c r="LQ1" s="26"/>
-      <c r="LR1" s="26"/>
-      <c r="LS1" s="26"/>
-      <c r="LT1" s="26"/>
-      <c r="LU1" s="26"/>
-      <c r="LV1" s="26"/>
-      <c r="LW1" s="26"/>
-      <c r="LX1" s="26" t="s">
+      <c r="KU1" s="29"/>
+      <c r="KV1" s="29"/>
+      <c r="KW1" s="29"/>
+      <c r="KX1" s="29"/>
+      <c r="KY1" s="29"/>
+      <c r="KZ1" s="29"/>
+      <c r="LA1" s="29"/>
+      <c r="LB1" s="29"/>
+      <c r="LC1" s="29"/>
+      <c r="LD1" s="29"/>
+      <c r="LE1" s="29"/>
+      <c r="LF1" s="29"/>
+      <c r="LG1" s="29"/>
+      <c r="LH1" s="29"/>
+      <c r="LI1" s="29"/>
+      <c r="LJ1" s="29"/>
+      <c r="LK1" s="29"/>
+      <c r="LL1" s="29"/>
+      <c r="LM1" s="29"/>
+      <c r="LN1" s="29"/>
+      <c r="LO1" s="29"/>
+      <c r="LP1" s="29"/>
+      <c r="LQ1" s="29"/>
+      <c r="LR1" s="29"/>
+      <c r="LS1" s="29"/>
+      <c r="LT1" s="29"/>
+      <c r="LU1" s="29"/>
+      <c r="LV1" s="29"/>
+      <c r="LW1" s="29"/>
+      <c r="LX1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="26"/>
-      <c r="LZ1" s="26"/>
-      <c r="MA1" s="26"/>
-      <c r="MB1" s="26"/>
-      <c r="MC1" s="26"/>
-      <c r="MD1" s="26"/>
-      <c r="ME1" s="26"/>
-      <c r="MF1" s="26"/>
-      <c r="MG1" s="26"/>
-      <c r="MH1" s="26"/>
-      <c r="MI1" s="26"/>
-      <c r="MJ1" s="26"/>
-      <c r="MK1" s="26"/>
-      <c r="ML1" s="26"/>
-      <c r="MM1" s="26"/>
-      <c r="MN1" s="26"/>
-      <c r="MO1" s="26"/>
-      <c r="MP1" s="26"/>
-      <c r="MQ1" s="26"/>
-      <c r="MR1" s="26"/>
-      <c r="MS1" s="26"/>
-      <c r="MT1" s="26"/>
-      <c r="MU1" s="26"/>
-      <c r="MV1" s="26"/>
-      <c r="MW1" s="26"/>
-      <c r="MX1" s="26"/>
-      <c r="MY1" s="26"/>
-      <c r="MZ1" s="26"/>
-      <c r="NA1" s="26"/>
-      <c r="NB1" s="26"/>
+      <c r="LY1" s="29"/>
+      <c r="LZ1" s="29"/>
+      <c r="MA1" s="29"/>
+      <c r="MB1" s="29"/>
+      <c r="MC1" s="29"/>
+      <c r="MD1" s="29"/>
+      <c r="ME1" s="29"/>
+      <c r="MF1" s="29"/>
+      <c r="MG1" s="29"/>
+      <c r="MH1" s="29"/>
+      <c r="MI1" s="29"/>
+      <c r="MJ1" s="29"/>
+      <c r="MK1" s="29"/>
+      <c r="ML1" s="29"/>
+      <c r="MM1" s="29"/>
+      <c r="MN1" s="29"/>
+      <c r="MO1" s="29"/>
+      <c r="MP1" s="29"/>
+      <c r="MQ1" s="29"/>
+      <c r="MR1" s="29"/>
+      <c r="MS1" s="29"/>
+      <c r="MT1" s="29"/>
+      <c r="MU1" s="29"/>
+      <c r="MV1" s="29"/>
+      <c r="MW1" s="29"/>
+      <c r="MX1" s="29"/>
+      <c r="MY1" s="29"/>
+      <c r="MZ1" s="29"/>
+      <c r="NA1" s="29"/>
+      <c r="NB1" s="29"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1631,7 +1648,7 @@
       <c r="FD2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FE2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="FF2" t="s">
@@ -1643,7 +1660,7 @@
       <c r="FH2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FI2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="FJ2" s="18" t="s">
@@ -2744,7 +2761,7 @@
       <c r="FD3" s="19">
         <v>41798</v>
       </c>
-      <c r="FE3" s="1">
+      <c r="FE3" s="27">
         <v>41799</v>
       </c>
       <c r="FF3" s="1">
@@ -2756,7 +2773,7 @@
       <c r="FH3" s="5">
         <v>41802</v>
       </c>
-      <c r="FI3" s="1">
+      <c r="FI3" s="5">
         <v>41803</v>
       </c>
       <c r="FJ3" s="19">
@@ -3526,11 +3543,11 @@
       <c r="FB4" s="1"/>
       <c r="FC4" s="19"/>
       <c r="FD4" s="19"/>
-      <c r="FE4" s="1"/>
+      <c r="FE4" s="27"/>
       <c r="FF4" s="1"/>
       <c r="FG4" s="1"/>
       <c r="FH4" s="5"/>
-      <c r="FI4" s="1"/>
+      <c r="FI4" s="5"/>
       <c r="FJ4" s="19"/>
       <c r="FK4" s="19"/>
       <c r="FL4" s="1"/>
@@ -3944,11 +3961,11 @@
       <c r="FB5" s="7"/>
       <c r="FC5" s="19"/>
       <c r="FD5" s="19"/>
-      <c r="FE5" s="7"/>
+      <c r="FE5" s="27"/>
       <c r="FF5" s="7"/>
       <c r="FG5" s="7"/>
       <c r="FH5" s="5"/>
-      <c r="FI5" s="7"/>
+      <c r="FI5" s="5"/>
       <c r="FJ5" s="19"/>
       <c r="FK5" s="19"/>
       <c r="FL5" s="7"/>
@@ -4316,11 +4333,11 @@
       <c r="FB6" s="1"/>
       <c r="FC6" s="19"/>
       <c r="FD6" s="19"/>
-      <c r="FE6" s="1"/>
+      <c r="FE6" s="27"/>
       <c r="FF6" s="1"/>
       <c r="FG6" s="1"/>
       <c r="FH6" s="5"/>
-      <c r="FI6" s="1"/>
+      <c r="FI6" s="5"/>
       <c r="FJ6" s="19"/>
       <c r="FK6" s="19"/>
       <c r="FL6" s="1"/>
@@ -4715,27 +4732,39 @@
       <c r="FB7" s="7"/>
       <c r="FC7" s="19"/>
       <c r="FD7" s="19"/>
-      <c r="FE7" s="7"/>
-      <c r="FF7" s="7"/>
-      <c r="FG7" s="7"/>
-      <c r="FH7" s="5"/>
-      <c r="FI7" s="7"/>
-      <c r="FJ7" s="19"/>
-      <c r="FK7" s="19"/>
-      <c r="FL7" s="7"/>
-      <c r="FM7" s="7"/>
-      <c r="FN7" s="7"/>
-      <c r="FO7" s="7"/>
-      <c r="FP7" s="7"/>
-      <c r="FQ7" s="19"/>
-      <c r="FR7" s="19"/>
-      <c r="FS7" s="7"/>
-      <c r="FT7" s="7"/>
-      <c r="FU7" s="7"/>
-      <c r="FV7" s="7"/>
-      <c r="FW7" s="7"/>
-      <c r="FX7" s="19"/>
-      <c r="FY7" s="19"/>
+      <c r="FE7" s="27"/>
+      <c r="FL7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU7" s="13"/>
+      <c r="FV7" s="13"/>
+      <c r="FW7" s="13"/>
+      <c r="FX7" s="18"/>
+      <c r="FY7" s="18"/>
       <c r="FZ7" s="7"/>
       <c r="GA7" s="7"/>
       <c r="GB7" s="7"/>
@@ -5117,11 +5146,11 @@
       <c r="FB8" s="1"/>
       <c r="FC8" s="19"/>
       <c r="FD8" s="19"/>
-      <c r="FE8" s="1"/>
+      <c r="FE8" s="27"/>
       <c r="FF8" s="1"/>
       <c r="FG8" s="1"/>
       <c r="FH8" s="5"/>
-      <c r="FI8" s="1"/>
+      <c r="FI8" s="5"/>
       <c r="FJ8" s="19"/>
       <c r="FK8" s="19"/>
       <c r="FL8" s="1"/>
@@ -5482,10 +5511,6 @@
       <c r="EO9" s="19"/>
       <c r="EP9" s="19"/>
       <c r="EV9" s="19"/>
-      <c r="EW9" s="19"/>
-      <c r="FC9" s="19"/>
-      <c r="FD9" s="19"/>
-      <c r="FE9" s="7"/>
       <c r="FF9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5495,7 +5520,7 @@
       <c r="FH9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="FI9" s="8" t="s">
+      <c r="FI9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="FJ9" s="18" t="s">
@@ -5880,11 +5905,11 @@
       <c r="FB10" s="1"/>
       <c r="FC10" s="19"/>
       <c r="FD10" s="19"/>
-      <c r="FE10" s="1"/>
+      <c r="FE10" s="27"/>
       <c r="FF10" s="1"/>
       <c r="FG10" s="1"/>
       <c r="FH10" s="5"/>
-      <c r="FI10" s="1"/>
+      <c r="FI10" s="5"/>
       <c r="FJ10" s="19"/>
       <c r="FK10" s="19"/>
       <c r="FL10" s="1"/>
@@ -6260,11 +6285,11 @@
       <c r="FB11" s="7"/>
       <c r="FC11" s="19"/>
       <c r="FD11" s="19"/>
-      <c r="FE11" s="7"/>
+      <c r="FE11" s="27"/>
       <c r="FF11" s="7"/>
       <c r="FG11" s="7"/>
       <c r="FH11" s="5"/>
-      <c r="FI11" s="7"/>
+      <c r="FI11" s="5"/>
       <c r="FJ11" s="19"/>
       <c r="FK11" s="19"/>
       <c r="FL11" s="7"/>
@@ -6664,11 +6689,11 @@
       <c r="FB12" s="1"/>
       <c r="FC12" s="19"/>
       <c r="FD12" s="19"/>
-      <c r="FE12" s="1"/>
+      <c r="FE12" s="27"/>
       <c r="FF12" s="1"/>
       <c r="FG12" s="1"/>
       <c r="FH12" s="5"/>
-      <c r="FI12" s="1"/>
+      <c r="FI12" s="5"/>
       <c r="FJ12" s="19"/>
       <c r="FK12" s="19"/>
       <c r="FL12" s="1"/>
@@ -7104,11 +7129,11 @@
       <c r="FB13" s="7"/>
       <c r="FC13" s="19"/>
       <c r="FD13" s="19"/>
-      <c r="FE13" s="7"/>
+      <c r="FE13" s="27"/>
       <c r="FF13" s="7"/>
       <c r="FG13" s="7"/>
       <c r="FH13" s="5"/>
-      <c r="FI13" s="7"/>
+      <c r="FI13" s="5"/>
       <c r="FJ13" s="19"/>
       <c r="FK13" s="19"/>
       <c r="FL13" s="7"/>
@@ -7502,11 +7527,11 @@
       <c r="FB14" s="1"/>
       <c r="FC14" s="19"/>
       <c r="FD14" s="19"/>
-      <c r="FE14" s="1"/>
+      <c r="FE14" s="27"/>
       <c r="FF14" s="1"/>
       <c r="FG14" s="1"/>
       <c r="FH14" s="5"/>
-      <c r="FI14" s="1"/>
+      <c r="FI14" s="5"/>
       <c r="FJ14" s="19"/>
       <c r="FK14" s="19"/>
       <c r="FL14" s="1"/>
@@ -7872,11 +7897,11 @@
       <c r="FB15" s="7"/>
       <c r="FC15" s="19"/>
       <c r="FD15" s="19"/>
-      <c r="FE15" s="7"/>
+      <c r="FE15" s="27"/>
       <c r="FF15" s="7"/>
       <c r="FG15" s="7"/>
       <c r="FH15" s="5"/>
-      <c r="FI15" s="7"/>
+      <c r="FI15" s="5"/>
       <c r="FJ15" s="19"/>
       <c r="FK15" s="19"/>
       <c r="FL15" s="7"/>
@@ -8079,7 +8104,7 @@
       <c r="NA15" s="7"/>
       <c r="NB15" s="7"/>
     </row>
-    <row r="16" spans="1:419" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:419" s="2" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -8242,18 +8267,20 @@
       <c r="FB16" s="1"/>
       <c r="FC16" s="19"/>
       <c r="FD16" s="19"/>
-      <c r="FE16" s="1"/>
+      <c r="FE16" s="27"/>
       <c r="FF16" s="1"/>
       <c r="FG16" s="1"/>
       <c r="FH16" s="5"/>
-      <c r="FI16" s="1"/>
+      <c r="FI16" s="5"/>
       <c r="FJ16" s="19"/>
       <c r="FK16" s="19"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
       <c r="FN16" s="1"/>
       <c r="FO16" s="1"/>
-      <c r="FP16" s="1"/>
+      <c r="FP16" s="1">
+        <v>2</v>
+      </c>
       <c r="FQ16" s="19"/>
       <c r="FR16" s="19"/>
       <c r="FS16" s="1"/>
@@ -8612,11 +8639,11 @@
       <c r="FB17" s="7"/>
       <c r="FC17" s="19"/>
       <c r="FD17" s="19"/>
-      <c r="FE17" s="7"/>
+      <c r="FE17" s="27"/>
       <c r="FF17" s="7"/>
       <c r="FG17" s="7"/>
       <c r="FH17" s="5"/>
-      <c r="FI17" s="7"/>
+      <c r="FI17" s="5"/>
       <c r="FJ17" s="19"/>
       <c r="FK17" s="19"/>
       <c r="FL17" s="7"/>
@@ -8981,11 +9008,11 @@
       <c r="FB18" s="1"/>
       <c r="FC18" s="19"/>
       <c r="FD18" s="19"/>
-      <c r="FE18" s="1"/>
+      <c r="FE18" s="27"/>
       <c r="FF18" s="1"/>
       <c r="FG18" s="1"/>
       <c r="FH18" s="5"/>
-      <c r="FI18" s="1"/>
+      <c r="FI18" s="5"/>
       <c r="FJ18" s="19"/>
       <c r="FK18" s="19"/>
       <c r="FL18" s="1"/>
@@ -9349,11 +9376,11 @@
       <c r="FB19" s="7"/>
       <c r="FC19" s="19"/>
       <c r="FD19" s="19"/>
-      <c r="FE19" s="7"/>
+      <c r="FE19" s="27"/>
       <c r="FF19" s="7"/>
       <c r="FG19" s="7"/>
       <c r="FH19" s="5"/>
-      <c r="FI19" s="7"/>
+      <c r="FI19" s="5"/>
       <c r="FJ19" s="19"/>
       <c r="FK19" s="19"/>
       <c r="FL19" s="7"/>
@@ -9776,11 +9803,11 @@
       <c r="FB21" s="13"/>
       <c r="FC21" s="22"/>
       <c r="FD21" s="22"/>
-      <c r="FE21" s="13"/>
+      <c r="FE21" s="28"/>
       <c r="FF21" s="13"/>
       <c r="FG21" s="13"/>
       <c r="FH21" s="24"/>
-      <c r="FI21" s="13"/>
+      <c r="FI21" s="24"/>
       <c r="FJ21" s="22"/>
       <c r="FK21" s="22"/>
       <c r="FQ21" s="20"/>
@@ -10277,7 +10304,7 @@
       <c r="FB30" s="7"/>
       <c r="FC30" s="19"/>
       <c r="FD30" s="19"/>
-      <c r="FE30" s="12" t="s">
+      <c r="FE30" s="26" t="s">
         <v>13</v>
       </c>
       <c r="FF30" s="12" t="s">
@@ -10287,7 +10314,7 @@
         <v>13</v>
       </c>
       <c r="FH30" s="23"/>
-      <c r="FI30" s="7"/>
+      <c r="FI30" s="5"/>
       <c r="FJ30" s="19"/>
       <c r="FK30" s="19"/>
       <c r="FL30" s="7"/>
@@ -10552,7 +10579,7 @@
       <c r="DI31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="FE31" s="12" t="s">
+      <c r="FE31" s="26" t="s">
         <v>13</v>
       </c>
       <c r="FF31" s="12" t="s">
@@ -10767,11 +10794,11 @@
       <c r="FB32" s="7"/>
       <c r="FC32" s="19"/>
       <c r="FD32" s="19"/>
-      <c r="FE32" s="7"/>
+      <c r="FE32" s="27"/>
       <c r="FF32" s="7"/>
       <c r="FG32" s="7"/>
       <c r="FH32" s="5"/>
-      <c r="FI32" s="7"/>
+      <c r="FI32" s="5"/>
       <c r="FJ32" s="19"/>
       <c r="FK32" s="19"/>
       <c r="FL32" s="7"/>
@@ -11033,6 +11060,16 @@
       </c>
       <c r="HH33" s="18" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:216" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:216" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="9615" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19440" windowHeight="9555" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Смолянец</t>
+  </si>
+  <si>
+    <t>Бабич</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC36"/>
+  <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="EV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="FU13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EX8" sqref="EX8"/>
+      <selection pane="bottomRight" activeCell="GR33" sqref="GR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,20 +3967,6 @@
       <c r="FE5" s="27"/>
       <c r="FF5" s="7"/>
       <c r="FG5" s="7"/>
-      <c r="FH5" s="5"/>
-      <c r="FI5" s="5"/>
-      <c r="FJ5" s="19"/>
-      <c r="FK5" s="19"/>
-      <c r="FL5" s="7"/>
-      <c r="FM5" s="7"/>
-      <c r="FN5" s="7"/>
-      <c r="FO5" s="7"/>
-      <c r="FP5" s="7"/>
-      <c r="FQ5" s="19"/>
-      <c r="FR5" s="19"/>
-      <c r="FS5" s="7"/>
-      <c r="FT5" s="7"/>
-      <c r="FU5" s="7"/>
       <c r="FV5" s="7"/>
       <c r="FW5" s="7"/>
       <c r="FX5" s="19"/>
@@ -4336,20 +4325,38 @@
       <c r="FE6" s="27"/>
       <c r="FF6" s="1"/>
       <c r="FG6" s="1"/>
-      <c r="FH6" s="5"/>
-      <c r="FI6" s="5"/>
-      <c r="FJ6" s="19"/>
-      <c r="FK6" s="19"/>
-      <c r="FL6" s="1"/>
-      <c r="FM6" s="1"/>
-      <c r="FN6" s="1"/>
-      <c r="FO6" s="1"/>
-      <c r="FP6" s="1"/>
-      <c r="FQ6" s="19"/>
-      <c r="FR6" s="19"/>
-      <c r="FS6" s="1"/>
-      <c r="FT6" s="1"/>
-      <c r="FU6" s="1"/>
+      <c r="FH6" s="6"/>
+      <c r="FI6" s="6"/>
+      <c r="FJ6" s="6"/>
+      <c r="FK6" s="6"/>
+      <c r="FL6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU6" s="13"/>
       <c r="FV6" s="1"/>
       <c r="FW6" s="1"/>
       <c r="FX6" s="19"/>
@@ -4733,34 +4740,6 @@
       <c r="FC7" s="19"/>
       <c r="FD7" s="19"/>
       <c r="FE7" s="27"/>
-      <c r="FL7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU7" s="13"/>
       <c r="FV7" s="13"/>
       <c r="FW7" s="13"/>
       <c r="FX7" s="18"/>
@@ -9641,48 +9620,10 @@
       <c r="DG20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="FL20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW20" t="s">
-        <v>13</v>
-      </c>
-      <c r="FX20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY20" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="FQ20" s="18"/>
+      <c r="FR20" s="18"/>
+      <c r="FX20" s="18"/>
+      <c r="FY20" s="18"/>
       <c r="HI20" s="11" t="s">
         <v>13</v>
       </c>
@@ -11066,19 +11007,112 @@
       <c r="A35" t="s">
         <v>47</v>
       </c>
+      <c r="GK35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT35" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="37" spans="1:216" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="GG37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GH37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GI37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GJ37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA37" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11086,6 +11120,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19440" windowHeight="9555" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19440" windowHeight="9495" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="FU13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="FY7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GR33" sqref="GR33"/>
+      <selection pane="bottomRight" activeCell="HF21" sqref="HF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9755,15 +9755,6 @@
       <c r="FR21" s="20"/>
       <c r="FX21" s="20"/>
       <c r="FY21" s="20"/>
-      <c r="FZ21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GA21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GB21" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="GE21" s="20"/>
       <c r="GF21" s="20"/>
       <c r="GL21" s="20"/>
@@ -9808,6 +9799,9 @@
         <v>13</v>
       </c>
       <c r="HA21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="HG21" s="20"/>
@@ -9816,8 +9810,21 @@
       <c r="HO21" s="19"/>
       <c r="HU21" s="20"/>
       <c r="HV21" s="20"/>
-      <c r="IB21" s="20"/>
-      <c r="IC21" s="20"/>
+      <c r="HY21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HZ21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IA21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IB21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC21" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="ID21" s="12" t="s">
         <v>13</v>
       </c>
@@ -11113,6 +11120,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11120,11 +11132,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="FY7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="GG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="HF21" sqref="HF21"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9889,6 +9889,48 @@
     <row r="25" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
+      </c>
+      <c r="GN25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA25" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:366" x14ac:dyDescent="0.25">

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19440" windowHeight="9495" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="GG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="HG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="HP12" sqref="HP12:IC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,33 +6286,6 @@
       <c r="FX11" s="19"/>
       <c r="FY11" s="19"/>
       <c r="FZ11" s="7"/>
-      <c r="GA11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GB11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GC11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GD11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GE11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GF11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GG11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GH11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="GI11" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="GJ11" s="7"/>
       <c r="GK11" s="7"/>
       <c r="GL11" s="19"/>
@@ -6320,29 +6293,32 @@
       <c r="GN11" s="7"/>
       <c r="GO11" s="7"/>
       <c r="GP11" s="7"/>
-      <c r="GQ11" s="7"/>
-      <c r="GR11" s="7"/>
-      <c r="GS11" s="19"/>
-      <c r="GT11" s="19"/>
-      <c r="GU11" s="7"/>
-      <c r="GV11" s="7"/>
-      <c r="GW11" s="7"/>
-      <c r="GX11" s="7"/>
-      <c r="GY11" s="7"/>
       <c r="GZ11" s="19"/>
       <c r="HA11" s="19"/>
       <c r="HB11" s="7"/>
       <c r="HC11" s="7"/>
       <c r="HD11" s="7"/>
-      <c r="HE11" s="7"/>
-      <c r="HF11" s="7"/>
-      <c r="HG11" s="19"/>
-      <c r="HH11" s="19"/>
-      <c r="HI11" s="7"/>
-      <c r="HJ11" s="7"/>
-      <c r="HK11" s="7"/>
-      <c r="HL11" s="7"/>
-      <c r="HM11" s="7"/>
+      <c r="HE11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="HN11" s="19"/>
       <c r="HO11" s="19"/>
       <c r="HP11" s="7"/>
@@ -6731,13 +6707,27 @@
       <c r="HM12" s="1"/>
       <c r="HN12" s="19"/>
       <c r="HO12" s="19"/>
-      <c r="HP12" s="1"/>
-      <c r="HQ12" s="1"/>
-      <c r="HR12" s="1"/>
-      <c r="HS12" s="1"/>
-      <c r="HT12" s="1"/>
-      <c r="HU12" s="19"/>
-      <c r="HV12" s="19"/>
+      <c r="HP12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HU12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HV12" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="HW12" t="s">
         <v>13</v>
       </c>
@@ -6757,27 +6747,6 @@
         <v>13</v>
       </c>
       <c r="IC12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ID12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IE12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IF12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IG12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IH12" t="s">
-        <v>13</v>
-      </c>
-      <c r="II12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IJ12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="IK12" s="1"/>
@@ -11162,11 +11131,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11174,6 +11138,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="HG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="GE22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="HP12" sqref="HP12:IC12"/>
+      <selection pane="bottomRight" activeCell="GJ35" sqref="GJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11025,6 +11025,9 @@
       <c r="A35" t="s">
         <v>47</v>
       </c>
+      <c r="GJ35" t="s">
+        <v>13</v>
+      </c>
       <c r="GK35" t="s">
         <v>13</v>
       </c>
@@ -11131,6 +11134,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11138,11 +11146,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="GE22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="GS22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GJ35" sqref="GJ35"/>
+      <selection pane="bottomRight" activeCell="KP39" sqref="KP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,7 +10974,7 @@
       <c r="NA32" s="7"/>
       <c r="NB32" s="7"/>
     </row>
-    <row r="33" spans="1:216" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:216" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -11058,13 +11058,124 @@
       <c r="GT35" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="IK35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IL35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IM35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IN35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IO35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IP35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IQ35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IR35" t="s">
+        <v>13</v>
+      </c>
+      <c r="IS35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JT35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JU35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JV35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JW35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JX35" t="s">
+        <v>13</v>
+      </c>
+      <c r="JY35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JZ35" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="36" spans="1:216" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
+      <c r="IY36" t="s">
+        <v>13</v>
+      </c>
+      <c r="IZ36" t="s">
+        <v>13</v>
+      </c>
+      <c r="JA36" t="s">
+        <v>13</v>
+      </c>
+      <c r="JB36" t="s">
+        <v>13</v>
+      </c>
+      <c r="JC36" t="s">
+        <v>13</v>
+      </c>
+      <c r="JD36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JE36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KH36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KI36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KJ36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KK36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KL36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KM36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KN36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KO36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KP36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KQ36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KR36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KS36" t="s">
+        <v>13</v>
+      </c>
+      <c r="KT36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KU36" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="37" spans="1:216" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -11110,35 +11221,11 @@
       <c r="GT37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="GU37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GW37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GX37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GY37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA37" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="GZ37" s="18"/>
+      <c r="HA37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11146,6 +11233,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="GS22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="GS10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="KP39" sqref="KP39"/>
+      <selection pane="bottomRight" activeCell="ID17" sqref="ID17:IJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,13 +8664,27 @@
       <c r="IA17" s="7"/>
       <c r="IB17" s="19"/>
       <c r="IC17" s="19"/>
-      <c r="ID17" s="7"/>
-      <c r="IE17" s="7"/>
-      <c r="IF17" s="7"/>
-      <c r="IG17" s="7"/>
-      <c r="IH17" s="7"/>
-      <c r="II17" s="19"/>
-      <c r="IJ17" s="19"/>
+      <c r="ID17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IE17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IF17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IG17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IH17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="II17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ17" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="IK17" s="7"/>
       <c r="IL17" s="7"/>
       <c r="IM17" s="7"/>
@@ -11226,6 +11240,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11233,11 +11252,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="50">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +685,10 @@
   <dimension ref="A1:PC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="GS10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="HW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="ID17" sqref="ID17:IJ17"/>
+      <selection pane="bottomRight" activeCell="JF18" sqref="JF18:JL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9075,13 +9075,27 @@
       <c r="JC18" s="1"/>
       <c r="JD18" s="19"/>
       <c r="JE18" s="19"/>
-      <c r="JF18" s="1"/>
-      <c r="JG18" s="1"/>
-      <c r="JH18" s="1"/>
-      <c r="JI18" s="1"/>
-      <c r="JJ18" s="1"/>
-      <c r="JK18" s="19"/>
-      <c r="JL18" s="19"/>
+      <c r="JF18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JG18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JH18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JI18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JJ18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JK18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JL18" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
       <c r="JO18" s="1"/>
@@ -11240,11 +11254,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11252,6 +11261,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
     <sheet name="Отсутствие" sheetId="1" r:id="rId2"/>
+    <sheet name="Профиль работ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="57">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -233,6 +234,27 @@
   <si>
     <t>Бабич</t>
   </si>
+  <si>
+    <t xml:space="preserve">Сотрудник </t>
+  </si>
+  <si>
+    <t>СМ 45</t>
+  </si>
+  <si>
+    <t>Платформа</t>
+  </si>
+  <si>
+    <t>НБР</t>
+  </si>
+  <si>
+    <t>Андрей Гуржий</t>
+  </si>
+  <si>
+    <t>Равиль Абдулкаримов</t>
+  </si>
+  <si>
+    <t>Константин Гордеев</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -354,11 +376,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -402,6 +453,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,11 +738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:PC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="HW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="JF18" sqref="JF18:JL18"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11254,6 +11308,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11261,11 +11320,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16528,4 +16582,333 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="33"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="33">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="33">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="33">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="33">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="33">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="33">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Roman Shilin</author>
   </authors>
   <commentList>
-    <comment ref="BD20" authorId="0">
+    <comment ref="BD22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HI20" authorId="0">
+    <comment ref="HI22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="59">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Константин Гордеев</t>
+  </si>
+  <si>
+    <t>Александр Гамза</t>
+  </si>
+  <si>
+    <t>Роговец Андрей</t>
   </si>
 </sst>
 </file>
@@ -449,13 +455,13 @@
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -728,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,13 +742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC37"/>
+  <dimension ref="A1:PC39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="HW4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="JF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A33"/>
+      <selection pane="bottomRight" activeCell="LG16" sqref="LG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,395 +843,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:419" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="30" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="29" t="s">
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="30"/>
-      <c r="CN1" s="29" t="s">
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="32"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
+      <c r="CB1" s="32"/>
+      <c r="CC1" s="32"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="32"/>
+      <c r="CF1" s="32"/>
+      <c r="CG1" s="32"/>
+      <c r="CH1" s="32"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="32"/>
+      <c r="CK1" s="32"/>
+      <c r="CL1" s="32"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="29"/>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="29"/>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="29"/>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="29"/>
-      <c r="CW1" s="29"/>
-      <c r="CX1" s="29"/>
-      <c r="CY1" s="29"/>
-      <c r="CZ1" s="29"/>
-      <c r="DA1" s="29"/>
-      <c r="DB1" s="29"/>
-      <c r="DC1" s="29"/>
-      <c r="DD1" s="29"/>
-      <c r="DE1" s="29"/>
-      <c r="DF1" s="29"/>
-      <c r="DG1" s="29"/>
-      <c r="DH1" s="29"/>
-      <c r="DI1" s="29"/>
-      <c r="DJ1" s="29"/>
-      <c r="DK1" s="29"/>
-      <c r="DL1" s="29"/>
-      <c r="DM1" s="29"/>
-      <c r="DN1" s="29"/>
-      <c r="DO1" s="29"/>
-      <c r="DP1" s="29"/>
-      <c r="DQ1" s="29"/>
-      <c r="DR1" s="30" t="s">
+      <c r="CO1" s="32"/>
+      <c r="CP1" s="32"/>
+      <c r="CQ1" s="32"/>
+      <c r="CR1" s="32"/>
+      <c r="CS1" s="32"/>
+      <c r="CT1" s="32"/>
+      <c r="CU1" s="32"/>
+      <c r="CV1" s="32"/>
+      <c r="CW1" s="32"/>
+      <c r="CX1" s="32"/>
+      <c r="CY1" s="32"/>
+      <c r="CZ1" s="32"/>
+      <c r="DA1" s="32"/>
+      <c r="DB1" s="32"/>
+      <c r="DC1" s="32"/>
+      <c r="DD1" s="32"/>
+      <c r="DE1" s="32"/>
+      <c r="DF1" s="32"/>
+      <c r="DG1" s="32"/>
+      <c r="DH1" s="32"/>
+      <c r="DI1" s="32"/>
+      <c r="DJ1" s="32"/>
+      <c r="DK1" s="32"/>
+      <c r="DL1" s="32"/>
+      <c r="DM1" s="32"/>
+      <c r="DN1" s="32"/>
+      <c r="DO1" s="32"/>
+      <c r="DP1" s="32"/>
+      <c r="DQ1" s="32"/>
+      <c r="DR1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="DS1" s="30"/>
-      <c r="DT1" s="30"/>
-      <c r="DU1" s="30"/>
-      <c r="DV1" s="30"/>
-      <c r="DW1" s="30"/>
-      <c r="DX1" s="30"/>
-      <c r="DY1" s="30"/>
-      <c r="DZ1" s="30"/>
-      <c r="EA1" s="30"/>
-      <c r="EB1" s="30"/>
-      <c r="EC1" s="30"/>
-      <c r="ED1" s="30"/>
-      <c r="EE1" s="30"/>
-      <c r="EF1" s="30"/>
-      <c r="EG1" s="30"/>
-      <c r="EH1" s="30"/>
-      <c r="EI1" s="30"/>
-      <c r="EJ1" s="30"/>
-      <c r="EK1" s="30"/>
-      <c r="EL1" s="30"/>
-      <c r="EM1" s="30"/>
-      <c r="EN1" s="30"/>
-      <c r="EO1" s="30"/>
-      <c r="EP1" s="30"/>
-      <c r="EQ1" s="30"/>
-      <c r="ER1" s="30"/>
-      <c r="ES1" s="30"/>
-      <c r="ET1" s="30"/>
-      <c r="EU1" s="30"/>
-      <c r="EV1" s="30"/>
-      <c r="EW1" s="30" t="s">
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
+      <c r="DZ1" s="33"/>
+      <c r="EA1" s="33"/>
+      <c r="EB1" s="33"/>
+      <c r="EC1" s="33"/>
+      <c r="ED1" s="33"/>
+      <c r="EE1" s="33"/>
+      <c r="EF1" s="33"/>
+      <c r="EG1" s="33"/>
+      <c r="EH1" s="33"/>
+      <c r="EI1" s="33"/>
+      <c r="EJ1" s="33"/>
+      <c r="EK1" s="33"/>
+      <c r="EL1" s="33"/>
+      <c r="EM1" s="33"/>
+      <c r="EN1" s="33"/>
+      <c r="EO1" s="33"/>
+      <c r="EP1" s="33"/>
+      <c r="EQ1" s="33"/>
+      <c r="ER1" s="33"/>
+      <c r="ES1" s="33"/>
+      <c r="ET1" s="33"/>
+      <c r="EU1" s="33"/>
+      <c r="EV1" s="33"/>
+      <c r="EW1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="EX1" s="30"/>
-      <c r="EY1" s="30"/>
-      <c r="EZ1" s="30"/>
-      <c r="FA1" s="30"/>
-      <c r="FB1" s="30"/>
-      <c r="FC1" s="30"/>
-      <c r="FD1" s="30"/>
-      <c r="FE1" s="30"/>
-      <c r="FF1" s="30"/>
-      <c r="FG1" s="30"/>
-      <c r="FH1" s="30"/>
-      <c r="FI1" s="30"/>
-      <c r="FJ1" s="30"/>
-      <c r="FK1" s="30"/>
-      <c r="FL1" s="30"/>
-      <c r="FM1" s="30"/>
-      <c r="FN1" s="30"/>
-      <c r="FO1" s="30"/>
-      <c r="FP1" s="30"/>
-      <c r="FQ1" s="30"/>
-      <c r="FR1" s="30"/>
-      <c r="FS1" s="30"/>
-      <c r="FT1" s="30"/>
-      <c r="FU1" s="30"/>
-      <c r="FV1" s="30"/>
-      <c r="FW1" s="30"/>
-      <c r="FX1" s="30"/>
-      <c r="FY1" s="30"/>
-      <c r="FZ1" s="30"/>
-      <c r="GA1" s="30" t="s">
+      <c r="EX1" s="33"/>
+      <c r="EY1" s="33"/>
+      <c r="EZ1" s="33"/>
+      <c r="FA1" s="33"/>
+      <c r="FB1" s="33"/>
+      <c r="FC1" s="33"/>
+      <c r="FD1" s="33"/>
+      <c r="FE1" s="33"/>
+      <c r="FF1" s="33"/>
+      <c r="FG1" s="33"/>
+      <c r="FH1" s="33"/>
+      <c r="FI1" s="33"/>
+      <c r="FJ1" s="33"/>
+      <c r="FK1" s="33"/>
+      <c r="FL1" s="33"/>
+      <c r="FM1" s="33"/>
+      <c r="FN1" s="33"/>
+      <c r="FO1" s="33"/>
+      <c r="FP1" s="33"/>
+      <c r="FQ1" s="33"/>
+      <c r="FR1" s="33"/>
+      <c r="FS1" s="33"/>
+      <c r="FT1" s="33"/>
+      <c r="FU1" s="33"/>
+      <c r="FV1" s="33"/>
+      <c r="FW1" s="33"/>
+      <c r="FX1" s="33"/>
+      <c r="FY1" s="33"/>
+      <c r="FZ1" s="33"/>
+      <c r="GA1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="GB1" s="30"/>
-      <c r="GC1" s="30"/>
-      <c r="GD1" s="30"/>
-      <c r="GE1" s="30"/>
-      <c r="GF1" s="30"/>
-      <c r="GG1" s="30"/>
-      <c r="GH1" s="30"/>
-      <c r="GI1" s="30"/>
-      <c r="GJ1" s="30"/>
-      <c r="GK1" s="30"/>
-      <c r="GL1" s="30"/>
-      <c r="GM1" s="30"/>
-      <c r="GN1" s="30"/>
-      <c r="GO1" s="30"/>
-      <c r="GP1" s="30"/>
-      <c r="GQ1" s="30"/>
-      <c r="GR1" s="30"/>
-      <c r="GS1" s="30"/>
-      <c r="GT1" s="30"/>
-      <c r="GU1" s="30"/>
-      <c r="GV1" s="30"/>
-      <c r="GW1" s="30"/>
-      <c r="GX1" s="30"/>
-      <c r="GY1" s="30"/>
-      <c r="GZ1" s="30"/>
-      <c r="HA1" s="30"/>
-      <c r="HB1" s="30"/>
-      <c r="HC1" s="30"/>
-      <c r="HD1" s="30"/>
-      <c r="HE1" s="30"/>
-      <c r="HF1" s="29" t="s">
+      <c r="GB1" s="33"/>
+      <c r="GC1" s="33"/>
+      <c r="GD1" s="33"/>
+      <c r="GE1" s="33"/>
+      <c r="GF1" s="33"/>
+      <c r="GG1" s="33"/>
+      <c r="GH1" s="33"/>
+      <c r="GI1" s="33"/>
+      <c r="GJ1" s="33"/>
+      <c r="GK1" s="33"/>
+      <c r="GL1" s="33"/>
+      <c r="GM1" s="33"/>
+      <c r="GN1" s="33"/>
+      <c r="GO1" s="33"/>
+      <c r="GP1" s="33"/>
+      <c r="GQ1" s="33"/>
+      <c r="GR1" s="33"/>
+      <c r="GS1" s="33"/>
+      <c r="GT1" s="33"/>
+      <c r="GU1" s="33"/>
+      <c r="GV1" s="33"/>
+      <c r="GW1" s="33"/>
+      <c r="GX1" s="33"/>
+      <c r="GY1" s="33"/>
+      <c r="GZ1" s="33"/>
+      <c r="HA1" s="33"/>
+      <c r="HB1" s="33"/>
+      <c r="HC1" s="33"/>
+      <c r="HD1" s="33"/>
+      <c r="HE1" s="33"/>
+      <c r="HF1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="HG1" s="29"/>
-      <c r="HH1" s="29"/>
-      <c r="HI1" s="29"/>
-      <c r="HJ1" s="29"/>
-      <c r="HK1" s="29"/>
-      <c r="HL1" s="29"/>
-      <c r="HM1" s="29"/>
-      <c r="HN1" s="29"/>
-      <c r="HO1" s="29"/>
-      <c r="HP1" s="29"/>
-      <c r="HQ1" s="29"/>
-      <c r="HR1" s="29"/>
-      <c r="HS1" s="29"/>
-      <c r="HT1" s="29"/>
-      <c r="HU1" s="29"/>
-      <c r="HV1" s="29"/>
-      <c r="HW1" s="29"/>
-      <c r="HX1" s="29"/>
-      <c r="HY1" s="29"/>
-      <c r="HZ1" s="29"/>
-      <c r="IA1" s="29"/>
-      <c r="IB1" s="29"/>
-      <c r="IC1" s="29"/>
-      <c r="ID1" s="29"/>
-      <c r="IE1" s="29"/>
-      <c r="IF1" s="29"/>
-      <c r="IG1" s="29"/>
-      <c r="IH1" s="29"/>
-      <c r="II1" s="29"/>
-      <c r="IJ1" s="29"/>
-      <c r="IK1" s="30" t="s">
+      <c r="HG1" s="32"/>
+      <c r="HH1" s="32"/>
+      <c r="HI1" s="32"/>
+      <c r="HJ1" s="32"/>
+      <c r="HK1" s="32"/>
+      <c r="HL1" s="32"/>
+      <c r="HM1" s="32"/>
+      <c r="HN1" s="32"/>
+      <c r="HO1" s="32"/>
+      <c r="HP1" s="32"/>
+      <c r="HQ1" s="32"/>
+      <c r="HR1" s="32"/>
+      <c r="HS1" s="32"/>
+      <c r="HT1" s="32"/>
+      <c r="HU1" s="32"/>
+      <c r="HV1" s="32"/>
+      <c r="HW1" s="32"/>
+      <c r="HX1" s="32"/>
+      <c r="HY1" s="32"/>
+      <c r="HZ1" s="32"/>
+      <c r="IA1" s="32"/>
+      <c r="IB1" s="32"/>
+      <c r="IC1" s="32"/>
+      <c r="ID1" s="32"/>
+      <c r="IE1" s="32"/>
+      <c r="IF1" s="32"/>
+      <c r="IG1" s="32"/>
+      <c r="IH1" s="32"/>
+      <c r="II1" s="32"/>
+      <c r="IJ1" s="32"/>
+      <c r="IK1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="IL1" s="30"/>
-      <c r="IM1" s="30"/>
-      <c r="IN1" s="30"/>
-      <c r="IO1" s="30"/>
-      <c r="IP1" s="30"/>
-      <c r="IQ1" s="30"/>
-      <c r="IR1" s="30"/>
-      <c r="IS1" s="30"/>
-      <c r="IT1" s="30"/>
-      <c r="IU1" s="30"/>
-      <c r="IV1" s="30"/>
-      <c r="IW1" s="30"/>
-      <c r="IX1" s="30"/>
-      <c r="IY1" s="30"/>
-      <c r="IZ1" s="30"/>
-      <c r="JA1" s="30"/>
-      <c r="JB1" s="30"/>
-      <c r="JC1" s="30"/>
-      <c r="JD1" s="30"/>
-      <c r="JE1" s="30"/>
-      <c r="JF1" s="30"/>
-      <c r="JG1" s="30"/>
-      <c r="JH1" s="30"/>
-      <c r="JI1" s="30"/>
-      <c r="JJ1" s="30"/>
-      <c r="JK1" s="30"/>
-      <c r="JL1" s="30"/>
-      <c r="JM1" s="30"/>
-      <c r="JN1" s="30"/>
-      <c r="JO1" s="29" t="s">
+      <c r="IL1" s="33"/>
+      <c r="IM1" s="33"/>
+      <c r="IN1" s="33"/>
+      <c r="IO1" s="33"/>
+      <c r="IP1" s="33"/>
+      <c r="IQ1" s="33"/>
+      <c r="IR1" s="33"/>
+      <c r="IS1" s="33"/>
+      <c r="IT1" s="33"/>
+      <c r="IU1" s="33"/>
+      <c r="IV1" s="33"/>
+      <c r="IW1" s="33"/>
+      <c r="IX1" s="33"/>
+      <c r="IY1" s="33"/>
+      <c r="IZ1" s="33"/>
+      <c r="JA1" s="33"/>
+      <c r="JB1" s="33"/>
+      <c r="JC1" s="33"/>
+      <c r="JD1" s="33"/>
+      <c r="JE1" s="33"/>
+      <c r="JF1" s="33"/>
+      <c r="JG1" s="33"/>
+      <c r="JH1" s="33"/>
+      <c r="JI1" s="33"/>
+      <c r="JJ1" s="33"/>
+      <c r="JK1" s="33"/>
+      <c r="JL1" s="33"/>
+      <c r="JM1" s="33"/>
+      <c r="JN1" s="33"/>
+      <c r="JO1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="JP1" s="29"/>
-      <c r="JQ1" s="29"/>
-      <c r="JR1" s="29"/>
-      <c r="JS1" s="29"/>
-      <c r="JT1" s="29"/>
-      <c r="JU1" s="29"/>
-      <c r="JV1" s="29"/>
-      <c r="JW1" s="29"/>
-      <c r="JX1" s="29"/>
-      <c r="JY1" s="29"/>
-      <c r="JZ1" s="29"/>
-      <c r="KA1" s="29"/>
-      <c r="KB1" s="29"/>
-      <c r="KC1" s="29"/>
-      <c r="KD1" s="29"/>
-      <c r="KE1" s="29"/>
-      <c r="KF1" s="29"/>
-      <c r="KG1" s="29"/>
-      <c r="KH1" s="29"/>
-      <c r="KI1" s="29"/>
-      <c r="KJ1" s="29"/>
-      <c r="KK1" s="29"/>
-      <c r="KL1" s="29"/>
-      <c r="KM1" s="29"/>
-      <c r="KN1" s="29"/>
-      <c r="KO1" s="29"/>
-      <c r="KP1" s="29"/>
-      <c r="KQ1" s="29"/>
-      <c r="KR1" s="29"/>
-      <c r="KS1" s="29"/>
-      <c r="KT1" s="29" t="s">
+      <c r="JP1" s="32"/>
+      <c r="JQ1" s="32"/>
+      <c r="JR1" s="32"/>
+      <c r="JS1" s="32"/>
+      <c r="JT1" s="32"/>
+      <c r="JU1" s="32"/>
+      <c r="JV1" s="32"/>
+      <c r="JW1" s="32"/>
+      <c r="JX1" s="32"/>
+      <c r="JY1" s="32"/>
+      <c r="JZ1" s="32"/>
+      <c r="KA1" s="32"/>
+      <c r="KB1" s="32"/>
+      <c r="KC1" s="32"/>
+      <c r="KD1" s="32"/>
+      <c r="KE1" s="32"/>
+      <c r="KF1" s="32"/>
+      <c r="KG1" s="32"/>
+      <c r="KH1" s="32"/>
+      <c r="KI1" s="32"/>
+      <c r="KJ1" s="32"/>
+      <c r="KK1" s="32"/>
+      <c r="KL1" s="32"/>
+      <c r="KM1" s="32"/>
+      <c r="KN1" s="32"/>
+      <c r="KO1" s="32"/>
+      <c r="KP1" s="32"/>
+      <c r="KQ1" s="32"/>
+      <c r="KR1" s="32"/>
+      <c r="KS1" s="32"/>
+      <c r="KT1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="KU1" s="29"/>
-      <c r="KV1" s="29"/>
-      <c r="KW1" s="29"/>
-      <c r="KX1" s="29"/>
-      <c r="KY1" s="29"/>
-      <c r="KZ1" s="29"/>
-      <c r="LA1" s="29"/>
-      <c r="LB1" s="29"/>
-      <c r="LC1" s="29"/>
-      <c r="LD1" s="29"/>
-      <c r="LE1" s="29"/>
-      <c r="LF1" s="29"/>
-      <c r="LG1" s="29"/>
-      <c r="LH1" s="29"/>
-      <c r="LI1" s="29"/>
-      <c r="LJ1" s="29"/>
-      <c r="LK1" s="29"/>
-      <c r="LL1" s="29"/>
-      <c r="LM1" s="29"/>
-      <c r="LN1" s="29"/>
-      <c r="LO1" s="29"/>
-      <c r="LP1" s="29"/>
-      <c r="LQ1" s="29"/>
-      <c r="LR1" s="29"/>
-      <c r="LS1" s="29"/>
-      <c r="LT1" s="29"/>
-      <c r="LU1" s="29"/>
-      <c r="LV1" s="29"/>
-      <c r="LW1" s="29"/>
-      <c r="LX1" s="29" t="s">
+      <c r="KU1" s="32"/>
+      <c r="KV1" s="32"/>
+      <c r="KW1" s="32"/>
+      <c r="KX1" s="32"/>
+      <c r="KY1" s="32"/>
+      <c r="KZ1" s="32"/>
+      <c r="LA1" s="32"/>
+      <c r="LB1" s="32"/>
+      <c r="LC1" s="32"/>
+      <c r="LD1" s="32"/>
+      <c r="LE1" s="32"/>
+      <c r="LF1" s="32"/>
+      <c r="LG1" s="32"/>
+      <c r="LH1" s="32"/>
+      <c r="LI1" s="32"/>
+      <c r="LJ1" s="32"/>
+      <c r="LK1" s="32"/>
+      <c r="LL1" s="32"/>
+      <c r="LM1" s="32"/>
+      <c r="LN1" s="32"/>
+      <c r="LO1" s="32"/>
+      <c r="LP1" s="32"/>
+      <c r="LQ1" s="32"/>
+      <c r="LR1" s="32"/>
+      <c r="LS1" s="32"/>
+      <c r="LT1" s="32"/>
+      <c r="LU1" s="32"/>
+      <c r="LV1" s="32"/>
+      <c r="LW1" s="32"/>
+      <c r="LX1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="LY1" s="29"/>
-      <c r="LZ1" s="29"/>
-      <c r="MA1" s="29"/>
-      <c r="MB1" s="29"/>
-      <c r="MC1" s="29"/>
-      <c r="MD1" s="29"/>
-      <c r="ME1" s="29"/>
-      <c r="MF1" s="29"/>
-      <c r="MG1" s="29"/>
-      <c r="MH1" s="29"/>
-      <c r="MI1" s="29"/>
-      <c r="MJ1" s="29"/>
-      <c r="MK1" s="29"/>
-      <c r="ML1" s="29"/>
-      <c r="MM1" s="29"/>
-      <c r="MN1" s="29"/>
-      <c r="MO1" s="29"/>
-      <c r="MP1" s="29"/>
-      <c r="MQ1" s="29"/>
-      <c r="MR1" s="29"/>
-      <c r="MS1" s="29"/>
-      <c r="MT1" s="29"/>
-      <c r="MU1" s="29"/>
-      <c r="MV1" s="29"/>
-      <c r="MW1" s="29"/>
-      <c r="MX1" s="29"/>
-      <c r="MY1" s="29"/>
-      <c r="MZ1" s="29"/>
-      <c r="NA1" s="29"/>
-      <c r="NB1" s="29"/>
+      <c r="LY1" s="32"/>
+      <c r="LZ1" s="32"/>
+      <c r="MA1" s="32"/>
+      <c r="MB1" s="32"/>
+      <c r="MC1" s="32"/>
+      <c r="MD1" s="32"/>
+      <c r="ME1" s="32"/>
+      <c r="MF1" s="32"/>
+      <c r="MG1" s="32"/>
+      <c r="MH1" s="32"/>
+      <c r="MI1" s="32"/>
+      <c r="MJ1" s="32"/>
+      <c r="MK1" s="32"/>
+      <c r="ML1" s="32"/>
+      <c r="MM1" s="32"/>
+      <c r="MN1" s="32"/>
+      <c r="MO1" s="32"/>
+      <c r="MP1" s="32"/>
+      <c r="MQ1" s="32"/>
+      <c r="MR1" s="32"/>
+      <c r="MS1" s="32"/>
+      <c r="MT1" s="32"/>
+      <c r="MU1" s="32"/>
+      <c r="MV1" s="32"/>
+      <c r="MW1" s="32"/>
+      <c r="MX1" s="32"/>
+      <c r="MY1" s="32"/>
+      <c r="MZ1" s="32"/>
+      <c r="NA1" s="32"/>
+      <c r="NB1" s="32"/>
     </row>
     <row r="2" spans="1:419" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8106,9 +8112,9 @@
       <c r="NA15" s="7"/>
       <c r="NB15" s="7"/>
     </row>
-    <row r="16" spans="1:419" s="2" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
+    <row r="16" spans="1:419" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8280,9 +8286,7 @@
       <c r="FM16" s="1"/>
       <c r="FN16" s="1"/>
       <c r="FO16" s="1"/>
-      <c r="FP16" s="1">
-        <v>2</v>
-      </c>
+      <c r="FP16" s="1"/>
       <c r="FQ16" s="19"/>
       <c r="FR16" s="19"/>
       <c r="FS16" s="1"/>
@@ -8418,18 +8422,39 @@
       <c r="KS16" s="1"/>
       <c r="KT16" s="19"/>
       <c r="KU16" s="19"/>
-      <c r="KV16" s="1"/>
-      <c r="KW16" s="1"/>
-      <c r="KX16" s="1"/>
-      <c r="KY16" s="1"/>
-      <c r="KZ16" s="1"/>
-      <c r="LA16" s="19"/>
-      <c r="LB16" s="19"/>
-      <c r="LC16" s="1"/>
-      <c r="LD16" s="1"/>
-      <c r="LE16" s="1"/>
-      <c r="LF16" s="1"/>
-      <c r="LG16" s="1"/>
+      <c r="KV16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="KW16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="KX16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="KY16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="KZ16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="LA16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LB16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="LD16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="LE16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="LF16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="LH16" s="19"/>
       <c r="LI16" s="19"/>
       <c r="LJ16" s="1"/>
@@ -8479,8 +8504,8 @@
       <c r="NB16" s="1"/>
     </row>
     <row r="17" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>41</v>
+      <c r="A17" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8718,27 +8743,13 @@
       <c r="IA17" s="7"/>
       <c r="IB17" s="19"/>
       <c r="IC17" s="19"/>
-      <c r="ID17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IE17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IF17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IG17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IH17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="II17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IJ17" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="ID17" s="7"/>
+      <c r="IE17" s="7"/>
+      <c r="IF17" s="7"/>
+      <c r="IG17" s="7"/>
+      <c r="IH17" s="7"/>
+      <c r="II17" s="19"/>
+      <c r="IJ17" s="19"/>
       <c r="IK17" s="7"/>
       <c r="IL17" s="7"/>
       <c r="IM17" s="7"/>
@@ -8862,9 +8873,9 @@
       <c r="NA17" s="7"/>
       <c r="NB17" s="7"/>
     </row>
-    <row r="18" spans="1:366" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8939,6 +8950,7 @@
       <c r="BT18" s="1"/>
       <c r="BU18" s="1"/>
       <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
       <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
       <c r="BZ18" s="1"/>
@@ -8957,6 +8969,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
       <c r="CQ18" s="1"/>
       <c r="CR18" s="19"/>
       <c r="CS18" s="19"/>
@@ -8967,9 +8980,8 @@
       <c r="CX18" s="1"/>
       <c r="CY18" s="19"/>
       <c r="CZ18" s="19"/>
-      <c r="DB18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
       <c r="DD18" s="1"/>
       <c r="DE18" s="1"/>
@@ -9035,7 +9047,9 @@
       <c r="FM18" s="1"/>
       <c r="FN18" s="1"/>
       <c r="FO18" s="1"/>
-      <c r="FP18" s="1"/>
+      <c r="FP18" s="1">
+        <v>2</v>
+      </c>
       <c r="FQ18" s="19"/>
       <c r="FR18" s="19"/>
       <c r="FS18" s="1"/>
@@ -9129,27 +9143,13 @@
       <c r="JC18" s="1"/>
       <c r="JD18" s="19"/>
       <c r="JE18" s="19"/>
-      <c r="JF18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="JG18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="JH18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="JI18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="JJ18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="JK18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="JL18" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="JF18" s="1"/>
+      <c r="JG18" s="1"/>
+      <c r="JH18" s="1"/>
+      <c r="JI18" s="1"/>
+      <c r="JJ18" s="1"/>
+      <c r="JK18" s="19"/>
+      <c r="JL18" s="19"/>
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
       <c r="JO18" s="1"/>
@@ -9246,7 +9246,9 @@
       <c r="NB18" s="1"/>
     </row>
     <row r="19" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -9483,13 +9485,27 @@
       <c r="IA19" s="7"/>
       <c r="IB19" s="19"/>
       <c r="IC19" s="19"/>
-      <c r="ID19" s="7"/>
-      <c r="IE19" s="7"/>
-      <c r="IF19" s="7"/>
-      <c r="IG19" s="7"/>
-      <c r="IH19" s="7"/>
-      <c r="II19" s="19"/>
-      <c r="IJ19" s="19"/>
+      <c r="ID19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IE19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IF19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IG19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IH19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="II19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ19" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="IK19" s="7"/>
       <c r="IL19" s="7"/>
       <c r="IM19" s="7"/>
@@ -9613,1068 +9629,1335 @@
       <c r="NA19" s="7"/>
       <c r="NB19" s="7"/>
     </row>
-    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="DB20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="DC20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="DE20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ20" s="18"/>
-      <c r="FR20" s="18"/>
-      <c r="FX20" s="18"/>
-      <c r="FY20" s="18"/>
-      <c r="HI20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="HN20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HP20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HQ20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HR20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HS20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HT20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HU20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HV20" s="18" t="s">
-        <v>13</v>
-      </c>
+    <row r="20" spans="1:366" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="19"/>
+      <c r="CE20" s="19"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="19"/>
+      <c r="CL20" s="19"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="19"/>
+      <c r="CS20" s="19"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="19"/>
+      <c r="CZ20" s="19"/>
+      <c r="DB20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="19"/>
+      <c r="DG20" s="19"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="19"/>
+      <c r="DN20" s="19"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="19"/>
+      <c r="DU20" s="19"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="19"/>
+      <c r="EB20" s="19"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="19"/>
+      <c r="EI20" s="19"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="19"/>
+      <c r="EP20" s="19"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="19"/>
+      <c r="EW20" s="19"/>
+      <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
+      <c r="FC20" s="19"/>
+      <c r="FD20" s="19"/>
+      <c r="FE20" s="27"/>
+      <c r="FF20" s="1"/>
+      <c r="FG20" s="1"/>
+      <c r="FH20" s="5"/>
+      <c r="FI20" s="5"/>
+      <c r="FJ20" s="19"/>
+      <c r="FK20" s="19"/>
+      <c r="FL20" s="1"/>
+      <c r="FM20" s="1"/>
+      <c r="FN20" s="1"/>
+      <c r="FO20" s="1"/>
+      <c r="FP20" s="1"/>
+      <c r="FQ20" s="19"/>
+      <c r="FR20" s="19"/>
+      <c r="FS20" s="1"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="19"/>
+      <c r="FY20" s="19"/>
+      <c r="FZ20" s="1"/>
+      <c r="GA20" s="1"/>
+      <c r="GB20" s="1"/>
+      <c r="GC20" s="1"/>
+      <c r="GD20" s="1"/>
+      <c r="GE20" s="19"/>
+      <c r="GF20" s="19"/>
+      <c r="GG20" s="1"/>
+      <c r="GH20" s="1"/>
+      <c r="GI20" s="1"/>
+      <c r="GJ20" s="1"/>
+      <c r="GK20" s="1"/>
+      <c r="GL20" s="19"/>
+      <c r="GM20" s="19"/>
+      <c r="GN20" s="1"/>
+      <c r="GO20" s="1"/>
+      <c r="GP20" s="1"/>
+      <c r="GQ20" s="1"/>
+      <c r="GR20" s="1"/>
+      <c r="GS20" s="19"/>
+      <c r="GT20" s="19"/>
+      <c r="GU20" s="1"/>
+      <c r="GV20" s="1"/>
+      <c r="GW20" s="1"/>
+      <c r="GX20" s="1"/>
+      <c r="GY20" s="1"/>
+      <c r="GZ20" s="19"/>
+      <c r="HA20" s="19"/>
+      <c r="HB20" s="1"/>
+      <c r="HC20" s="1"/>
+      <c r="HD20" s="1"/>
+      <c r="HE20" s="1"/>
+      <c r="HF20" s="1"/>
+      <c r="HG20" s="19"/>
+      <c r="HH20" s="19"/>
+      <c r="HI20" s="1"/>
+      <c r="HJ20" s="1"/>
+      <c r="HK20" s="1"/>
+      <c r="HL20" s="1"/>
+      <c r="HM20" s="1"/>
+      <c r="HN20" s="19"/>
+      <c r="HO20" s="19"/>
+      <c r="HP20" s="1"/>
+      <c r="HQ20" s="1"/>
+      <c r="HR20" s="1"/>
+      <c r="HS20" s="1"/>
+      <c r="HT20" s="1"/>
+      <c r="HU20" s="19"/>
+      <c r="HV20" s="19"/>
+      <c r="HW20" s="1"/>
+      <c r="HX20" s="1"/>
+      <c r="HY20" s="1"/>
+      <c r="HZ20" s="1"/>
+      <c r="IA20" s="1"/>
+      <c r="IB20" s="19"/>
+      <c r="IC20" s="19"/>
+      <c r="ID20" s="1"/>
+      <c r="IE20" s="1"/>
+      <c r="IF20" s="1"/>
+      <c r="IG20" s="1"/>
+      <c r="IH20" s="1"/>
+      <c r="II20" s="19"/>
+      <c r="IJ20" s="19"/>
+      <c r="IK20" s="1"/>
+      <c r="IL20" s="1"/>
+      <c r="IM20" s="1"/>
+      <c r="IN20" s="1"/>
+      <c r="IO20" s="1"/>
+      <c r="IP20" s="19"/>
+      <c r="IQ20" s="19"/>
+      <c r="IR20" s="1"/>
+      <c r="IS20" s="1"/>
+      <c r="IT20" s="1"/>
+      <c r="IU20" s="1"/>
+      <c r="IV20" s="1"/>
+      <c r="IW20" s="19"/>
+      <c r="IX20" s="19"/>
+      <c r="IY20" s="1"/>
+      <c r="IZ20" s="1"/>
+      <c r="JA20" s="1"/>
+      <c r="JB20" s="1"/>
+      <c r="JC20" s="1"/>
+      <c r="JD20" s="19"/>
+      <c r="JE20" s="19"/>
+      <c r="JF20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JG20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JH20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JI20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JJ20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JK20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JL20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JM20" s="1"/>
+      <c r="JN20" s="1"/>
+      <c r="JO20" s="1"/>
+      <c r="JP20" s="1"/>
+      <c r="JQ20" s="1"/>
+      <c r="JR20" s="19"/>
+      <c r="JS20" s="19"/>
+      <c r="JT20" s="1"/>
+      <c r="JU20" s="1"/>
+      <c r="JV20" s="1"/>
+      <c r="JW20" s="1"/>
+      <c r="JX20" s="1"/>
+      <c r="JY20" s="19"/>
+      <c r="JZ20" s="19"/>
+      <c r="KA20" s="1"/>
+      <c r="KB20" s="1"/>
+      <c r="KC20" s="1"/>
+      <c r="KD20" s="1"/>
+      <c r="KE20" s="1"/>
+      <c r="KF20" s="19"/>
+      <c r="KG20" s="19"/>
+      <c r="KH20" s="1"/>
+      <c r="KI20" s="1"/>
+      <c r="KJ20" s="1"/>
+      <c r="KK20" s="1"/>
+      <c r="KL20" s="1"/>
+      <c r="KM20" s="19"/>
+      <c r="KN20" s="19"/>
+      <c r="KO20" s="1"/>
+      <c r="KP20" s="1"/>
+      <c r="KQ20" s="1"/>
+      <c r="KR20" s="1"/>
+      <c r="KS20" s="1"/>
+      <c r="KT20" s="19"/>
+      <c r="KU20" s="19"/>
+      <c r="KV20" s="1"/>
+      <c r="KW20" s="1"/>
+      <c r="KX20" s="1"/>
+      <c r="KY20" s="1"/>
+      <c r="KZ20" s="1"/>
+      <c r="LA20" s="19"/>
+      <c r="LB20" s="19"/>
+      <c r="LC20" s="1"/>
+      <c r="LD20" s="1"/>
+      <c r="LE20" s="1"/>
+      <c r="LF20" s="1"/>
+      <c r="LG20" s="1"/>
+      <c r="LH20" s="19"/>
+      <c r="LI20" s="19"/>
+      <c r="LJ20" s="1"/>
+      <c r="LK20" s="1"/>
+      <c r="LL20" s="1"/>
+      <c r="LM20" s="1"/>
+      <c r="LN20" s="1"/>
+      <c r="LO20" s="19"/>
+      <c r="LP20" s="19"/>
+      <c r="LQ20" s="1"/>
+      <c r="LR20" s="1"/>
+      <c r="LS20" s="1"/>
+      <c r="LT20" s="1"/>
+      <c r="LU20" s="1"/>
+      <c r="LV20" s="19"/>
+      <c r="LW20" s="19"/>
+      <c r="LX20" s="1"/>
+      <c r="LY20" s="1"/>
+      <c r="LZ20" s="1"/>
+      <c r="MA20" s="1"/>
+      <c r="MB20" s="1"/>
+      <c r="MC20" s="19"/>
+      <c r="MD20" s="19"/>
+      <c r="ME20" s="1"/>
+      <c r="MF20" s="1"/>
+      <c r="MG20" s="1"/>
+      <c r="MH20" s="1"/>
+      <c r="MI20" s="1"/>
+      <c r="MJ20" s="19"/>
+      <c r="MK20" s="19"/>
+      <c r="ML20" s="1"/>
+      <c r="MM20" s="1"/>
+      <c r="MN20" s="1"/>
+      <c r="MO20" s="1"/>
+      <c r="MP20" s="1"/>
+      <c r="MQ20" s="19"/>
+      <c r="MR20" s="19"/>
+      <c r="MS20" s="1"/>
+      <c r="MT20" s="1"/>
+      <c r="MU20" s="1"/>
+      <c r="MV20" s="1"/>
+      <c r="MW20" s="1"/>
+      <c r="MX20" s="19"/>
+      <c r="MY20" s="19"/>
+      <c r="MZ20" s="1"/>
+      <c r="NA20" s="1"/>
+      <c r="NB20" s="1"/>
     </row>
-    <row r="21" spans="1:366" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="CD21" s="20"/>
-      <c r="CE21" s="20"/>
-      <c r="CG21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL21" s="20"/>
-      <c r="CN21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="CR21" s="20"/>
-      <c r="CS21" s="20"/>
-      <c r="CY21" s="20"/>
-      <c r="CZ21" s="20"/>
-      <c r="DD21" s="13"/>
-      <c r="DE21" s="13"/>
-      <c r="DF21" s="22"/>
-      <c r="DG21" s="22"/>
-      <c r="DH21" s="13"/>
-      <c r="DI21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DJ21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DL21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DM21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN21" s="22"/>
-      <c r="DO21" s="13"/>
-      <c r="DT21" s="20"/>
-      <c r="DU21" s="20"/>
-      <c r="EA21" s="20"/>
-      <c r="EB21" s="20"/>
-      <c r="EH21" s="20"/>
-      <c r="EI21" s="20"/>
-      <c r="EO21" s="20"/>
-      <c r="EP21" s="20"/>
-      <c r="EV21" s="20"/>
-      <c r="EW21" s="20"/>
-      <c r="FA21" s="13"/>
-      <c r="FB21" s="13"/>
-      <c r="FC21" s="22"/>
-      <c r="FD21" s="22"/>
-      <c r="FE21" s="28"/>
-      <c r="FF21" s="13"/>
-      <c r="FG21" s="13"/>
-      <c r="FH21" s="24"/>
-      <c r="FI21" s="24"/>
-      <c r="FJ21" s="22"/>
-      <c r="FK21" s="22"/>
-      <c r="FQ21" s="20"/>
-      <c r="FR21" s="20"/>
-      <c r="FX21" s="20"/>
-      <c r="FY21" s="20"/>
-      <c r="GE21" s="20"/>
-      <c r="GF21" s="20"/>
-      <c r="GL21" s="20"/>
-      <c r="GM21" s="20"/>
-      <c r="GN21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GP21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GR21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GS21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GT21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GU21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GW21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GX21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GY21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HF21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HG21" s="20"/>
-      <c r="HH21" s="20"/>
+    <row r="21" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+      <c r="BY21" s="7"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="19"/>
+      <c r="CE21" s="19"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="7"/>
+      <c r="CJ21" s="7"/>
+      <c r="CK21" s="19"/>
+      <c r="CL21" s="19"/>
+      <c r="CM21" s="7"/>
+      <c r="CN21" s="7"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="7"/>
+      <c r="CQ21" s="7"/>
+      <c r="CR21" s="19"/>
+      <c r="CS21" s="19"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="19"/>
+      <c r="CZ21" s="19"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="7"/>
+      <c r="DE21" s="7"/>
+      <c r="DF21" s="19"/>
+      <c r="DG21" s="19"/>
+      <c r="DH21" s="7"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="7"/>
+      <c r="DK21" s="7"/>
+      <c r="DL21" s="7"/>
+      <c r="DM21" s="19"/>
+      <c r="DN21" s="19"/>
+      <c r="DO21" s="7"/>
+      <c r="DP21" s="7"/>
+      <c r="DQ21" s="7"/>
+      <c r="DR21" s="7"/>
+      <c r="DS21" s="7"/>
+      <c r="DT21" s="19"/>
+      <c r="DU21" s="19"/>
+      <c r="DV21" s="7"/>
+      <c r="DW21" s="7"/>
+      <c r="DX21" s="7"/>
+      <c r="DY21" s="7"/>
+      <c r="DZ21" s="7"/>
+      <c r="EA21" s="19"/>
+      <c r="EB21" s="19"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="7"/>
+      <c r="EE21" s="7"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="7"/>
+      <c r="EH21" s="19"/>
+      <c r="EI21" s="19"/>
+      <c r="EJ21" s="7"/>
+      <c r="EK21" s="7"/>
+      <c r="EL21" s="7"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="7"/>
+      <c r="EO21" s="19"/>
+      <c r="EP21" s="19"/>
+      <c r="EQ21" s="7"/>
+      <c r="ER21" s="7"/>
+      <c r="ES21" s="7"/>
+      <c r="ET21" s="7"/>
+      <c r="EU21" s="7"/>
+      <c r="EV21" s="19"/>
+      <c r="EW21" s="19"/>
+      <c r="EX21" s="7"/>
+      <c r="EY21" s="7"/>
+      <c r="EZ21" s="7"/>
+      <c r="FA21" s="7"/>
+      <c r="FB21" s="7"/>
+      <c r="FC21" s="19"/>
+      <c r="FD21" s="19"/>
+      <c r="FE21" s="27"/>
+      <c r="FF21" s="7"/>
+      <c r="FG21" s="7"/>
+      <c r="FH21" s="5"/>
+      <c r="FI21" s="5"/>
+      <c r="FJ21" s="19"/>
+      <c r="FK21" s="19"/>
+      <c r="FL21" s="7"/>
+      <c r="FM21" s="7"/>
+      <c r="FN21" s="7"/>
+      <c r="FO21" s="7"/>
+      <c r="FP21" s="7"/>
+      <c r="FQ21" s="19"/>
+      <c r="FR21" s="19"/>
+      <c r="FS21" s="7"/>
+      <c r="FT21" s="7"/>
+      <c r="FU21" s="7"/>
+      <c r="FV21" s="7"/>
+      <c r="FW21" s="7"/>
+      <c r="FX21" s="19"/>
+      <c r="FY21" s="19"/>
+      <c r="FZ21" s="7"/>
+      <c r="GA21" s="7"/>
+      <c r="GB21" s="7"/>
+      <c r="GC21" s="7"/>
+      <c r="GD21" s="7"/>
+      <c r="GE21" s="19"/>
+      <c r="GF21" s="19"/>
+      <c r="GG21" s="7"/>
+      <c r="GH21" s="7"/>
+      <c r="GI21" s="7"/>
+      <c r="GJ21" s="7"/>
+      <c r="GK21" s="7"/>
+      <c r="GL21" s="19"/>
+      <c r="GM21" s="19"/>
+      <c r="GN21" s="7"/>
+      <c r="GO21" s="7"/>
+      <c r="GP21" s="7"/>
+      <c r="GQ21" s="7"/>
+      <c r="GR21" s="7"/>
+      <c r="GS21" s="19"/>
+      <c r="GT21" s="19"/>
+      <c r="GU21" s="7"/>
+      <c r="GV21" s="7"/>
+      <c r="GW21" s="7"/>
+      <c r="GX21" s="7"/>
+      <c r="GY21" s="7"/>
+      <c r="GZ21" s="19"/>
+      <c r="HA21" s="19"/>
+      <c r="HB21" s="7"/>
+      <c r="HC21" s="7"/>
+      <c r="HD21" s="7"/>
+      <c r="HE21" s="7"/>
+      <c r="HF21" s="7"/>
+      <c r="HG21" s="19"/>
+      <c r="HH21" s="19"/>
+      <c r="HI21" s="7"/>
+      <c r="HJ21" s="7"/>
+      <c r="HK21" s="7"/>
+      <c r="HL21" s="7"/>
+      <c r="HM21" s="7"/>
       <c r="HN21" s="19"/>
       <c r="HO21" s="19"/>
-      <c r="HU21" s="20"/>
-      <c r="HV21" s="20"/>
-      <c r="HY21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="HZ21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IA21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IB21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IC21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ID21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IE21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IF21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IG21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="IH21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="II21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IJ21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IP21" s="20"/>
-      <c r="IQ21" s="20"/>
-      <c r="IW21" s="20"/>
-      <c r="IX21" s="20"/>
-      <c r="JD21" s="20"/>
-      <c r="JE21" s="20"/>
-      <c r="JK21" s="20"/>
-      <c r="JL21" s="20"/>
-      <c r="JR21" s="20"/>
-      <c r="JS21" s="20"/>
-      <c r="JY21" s="20"/>
-      <c r="JZ21" s="20"/>
-      <c r="KF21" s="20"/>
-      <c r="KG21" s="20"/>
-      <c r="KM21" s="20"/>
-      <c r="KN21" s="20"/>
-      <c r="KT21" s="20"/>
-      <c r="KU21" s="20"/>
-      <c r="LA21" s="20"/>
-      <c r="LB21" s="20"/>
-      <c r="LH21" s="20"/>
-      <c r="LI21" s="20"/>
-      <c r="LO21" s="20"/>
-      <c r="LP21" s="20"/>
-      <c r="LV21" s="20"/>
-      <c r="LW21" s="20"/>
-      <c r="MC21" s="20"/>
-      <c r="MD21" s="20"/>
-      <c r="MJ21" s="20"/>
-      <c r="MK21" s="20"/>
-      <c r="MQ21" s="20"/>
-      <c r="MR21" s="20"/>
-      <c r="MX21" s="20"/>
-      <c r="MY21" s="20"/>
+      <c r="HP21" s="7"/>
+      <c r="HQ21" s="7"/>
+      <c r="HR21" s="7"/>
+      <c r="HS21" s="7"/>
+      <c r="HT21" s="7"/>
+      <c r="HU21" s="19"/>
+      <c r="HV21" s="19"/>
+      <c r="HW21" s="7"/>
+      <c r="HX21" s="7"/>
+      <c r="HY21" s="7"/>
+      <c r="HZ21" s="7"/>
+      <c r="IA21" s="7"/>
+      <c r="IB21" s="19"/>
+      <c r="IC21" s="19"/>
+      <c r="ID21" s="7"/>
+      <c r="IE21" s="7"/>
+      <c r="IF21" s="7"/>
+      <c r="IG21" s="7"/>
+      <c r="IH21" s="7"/>
+      <c r="II21" s="19"/>
+      <c r="IJ21" s="19"/>
+      <c r="IK21" s="7"/>
+      <c r="IL21" s="7"/>
+      <c r="IM21" s="7"/>
+      <c r="IN21" s="7"/>
+      <c r="IO21" s="7"/>
+      <c r="IP21" s="19"/>
+      <c r="IQ21" s="19"/>
+      <c r="IR21" s="7"/>
+      <c r="IS21" s="7"/>
+      <c r="IT21" s="7"/>
+      <c r="IU21" s="7"/>
+      <c r="IV21" s="7"/>
+      <c r="IW21" s="19"/>
+      <c r="IX21" s="19"/>
+      <c r="IY21" s="7"/>
+      <c r="IZ21" s="7"/>
+      <c r="JA21" s="7"/>
+      <c r="JB21" s="7"/>
+      <c r="JC21" s="7"/>
+      <c r="JD21" s="19"/>
+      <c r="JE21" s="19"/>
+      <c r="JF21" s="7"/>
+      <c r="JG21" s="7"/>
+      <c r="JH21" s="7"/>
+      <c r="JI21" s="7"/>
+      <c r="JJ21" s="7"/>
+      <c r="JK21" s="19"/>
+      <c r="JL21" s="19"/>
+      <c r="JM21" s="7"/>
+      <c r="JN21" s="7"/>
+      <c r="JO21" s="7"/>
+      <c r="JP21" s="7"/>
+      <c r="JQ21" s="7"/>
+      <c r="JR21" s="19"/>
+      <c r="JS21" s="19"/>
+      <c r="JT21" s="7"/>
+      <c r="JU21" s="7"/>
+      <c r="JV21" s="7"/>
+      <c r="JW21" s="7"/>
+      <c r="JX21" s="7"/>
+      <c r="JY21" s="19"/>
+      <c r="JZ21" s="19"/>
+      <c r="KA21" s="7"/>
+      <c r="KB21" s="7"/>
+      <c r="KC21" s="7"/>
+      <c r="KD21" s="7"/>
+      <c r="KE21" s="7"/>
+      <c r="KF21" s="19"/>
+      <c r="KG21" s="19"/>
+      <c r="KH21" s="7"/>
+      <c r="KI21" s="7"/>
+      <c r="KJ21" s="7"/>
+      <c r="KK21" s="7"/>
+      <c r="KL21" s="7"/>
+      <c r="KM21" s="19"/>
+      <c r="KN21" s="19"/>
+      <c r="KO21" s="7"/>
+      <c r="KP21" s="7"/>
+      <c r="KQ21" s="7"/>
+      <c r="KR21" s="7"/>
+      <c r="KS21" s="7"/>
+      <c r="KT21" s="19"/>
+      <c r="KU21" s="19"/>
+      <c r="KV21" s="7"/>
+      <c r="KW21" s="7"/>
+      <c r="KX21" s="7"/>
+      <c r="KY21" s="7"/>
+      <c r="KZ21" s="7"/>
+      <c r="LA21" s="19"/>
+      <c r="LB21" s="19"/>
+      <c r="LC21" s="7"/>
+      <c r="LD21" s="7"/>
+      <c r="LE21" s="7"/>
+      <c r="LF21" s="7"/>
+      <c r="LG21" s="7"/>
+      <c r="LH21" s="19"/>
+      <c r="LI21" s="19"/>
+      <c r="LJ21" s="7"/>
+      <c r="LK21" s="7"/>
+      <c r="LL21" s="7"/>
+      <c r="LM21" s="7"/>
+      <c r="LN21" s="7"/>
+      <c r="LO21" s="19"/>
+      <c r="LP21" s="19"/>
+      <c r="LQ21" s="7"/>
+      <c r="LR21" s="7"/>
+      <c r="LS21" s="7"/>
+      <c r="LT21" s="7"/>
+      <c r="LU21" s="7"/>
+      <c r="LV21" s="19"/>
+      <c r="LW21" s="19"/>
+      <c r="LX21" s="7"/>
+      <c r="LY21" s="7"/>
+      <c r="LZ21" s="7"/>
+      <c r="MA21" s="7"/>
+      <c r="MB21" s="7"/>
+      <c r="MC21" s="19"/>
+      <c r="MD21" s="19"/>
+      <c r="ME21" s="7"/>
+      <c r="MF21" s="7"/>
+      <c r="MG21" s="7"/>
+      <c r="MH21" s="7"/>
+      <c r="MI21" s="7"/>
+      <c r="MJ21" s="19"/>
+      <c r="MK21" s="19"/>
+      <c r="ML21" s="7"/>
+      <c r="MM21" s="7"/>
+      <c r="MN21" s="7"/>
+      <c r="MO21" s="7"/>
+      <c r="MP21" s="7"/>
+      <c r="MQ21" s="19"/>
+      <c r="MR21" s="19"/>
+      <c r="MS21" s="7"/>
+      <c r="MT21" s="7"/>
+      <c r="MU21" s="7"/>
+      <c r="MV21" s="7"/>
+      <c r="MW21" s="7"/>
+      <c r="MX21" s="19"/>
+      <c r="MY21" s="19"/>
+      <c r="MZ21" s="7"/>
+      <c r="NA21" s="7"/>
+      <c r="NB21" s="7"/>
     </row>
     <row r="22" spans="1:366" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ22" s="18"/>
+      <c r="FR22" s="18"/>
+      <c r="FX22" s="18"/>
+      <c r="FY22" s="18"/>
+      <c r="HI22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HP22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HU22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HV22" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:366" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CG23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL23" s="20"/>
+      <c r="CN23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR23" s="20"/>
+      <c r="CS23" s="20"/>
+      <c r="CY23" s="20"/>
+      <c r="CZ23" s="20"/>
+      <c r="DD23" s="13"/>
+      <c r="DE23" s="13"/>
+      <c r="DF23" s="22"/>
+      <c r="DG23" s="22"/>
+      <c r="DH23" s="13"/>
+      <c r="DI23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN23" s="22"/>
+      <c r="DO23" s="13"/>
+      <c r="DT23" s="20"/>
+      <c r="DU23" s="20"/>
+      <c r="EA23" s="20"/>
+      <c r="EB23" s="20"/>
+      <c r="EH23" s="20"/>
+      <c r="EI23" s="20"/>
+      <c r="EO23" s="20"/>
+      <c r="EP23" s="20"/>
+      <c r="EV23" s="20"/>
+      <c r="EW23" s="20"/>
+      <c r="FA23" s="13"/>
+      <c r="FB23" s="13"/>
+      <c r="FC23" s="22"/>
+      <c r="FD23" s="22"/>
+      <c r="FE23" s="28"/>
+      <c r="FF23" s="13"/>
+      <c r="FG23" s="13"/>
+      <c r="FH23" s="24"/>
+      <c r="FI23" s="24"/>
+      <c r="FJ23" s="22"/>
+      <c r="FK23" s="22"/>
+      <c r="FQ23" s="20"/>
+      <c r="FR23" s="20"/>
+      <c r="FX23" s="20"/>
+      <c r="FY23" s="20"/>
+      <c r="GE23" s="20"/>
+      <c r="GF23" s="20"/>
+      <c r="GL23" s="20"/>
+      <c r="GM23" s="20"/>
+      <c r="GN23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG23" s="20"/>
+      <c r="HH23" s="20"/>
+      <c r="HN23" s="19"/>
+      <c r="HO23" s="19"/>
+      <c r="HU23" s="20"/>
+      <c r="HV23" s="20"/>
+      <c r="HY23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HZ23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IA23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IB23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="ID23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IE23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IF23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IG23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="IH23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="II23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IJ23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IP23" s="20"/>
+      <c r="IQ23" s="20"/>
+      <c r="IW23" s="20"/>
+      <c r="IX23" s="20"/>
+      <c r="JD23" s="20"/>
+      <c r="JE23" s="20"/>
+      <c r="JK23" s="20"/>
+      <c r="JL23" s="20"/>
+      <c r="JR23" s="20"/>
+      <c r="JS23" s="20"/>
+      <c r="JY23" s="20"/>
+      <c r="JZ23" s="20"/>
+      <c r="KF23" s="20"/>
+      <c r="KG23" s="20"/>
+      <c r="KM23" s="20"/>
+      <c r="KN23" s="20"/>
+      <c r="KT23" s="20"/>
+      <c r="KU23" s="20"/>
+      <c r="LA23" s="20"/>
+      <c r="LB23" s="20"/>
+      <c r="LH23" s="20"/>
+      <c r="LI23" s="20"/>
+      <c r="LO23" s="20"/>
+      <c r="LP23" s="20"/>
+      <c r="LV23" s="20"/>
+      <c r="LW23" s="20"/>
+      <c r="MC23" s="20"/>
+      <c r="MD23" s="20"/>
+      <c r="MJ23" s="20"/>
+      <c r="MK23" s="20"/>
+      <c r="MQ23" s="20"/>
+      <c r="MR23" s="20"/>
+      <c r="MX23" s="20"/>
+      <c r="MY23" s="20"/>
+    </row>
+    <row r="24" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="GN25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GP25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GR25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GS25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GT25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GU25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="GW25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GX25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GY25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA25" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="FL26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FN26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FO26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FP26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FQ26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FR26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FS26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FU26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FV26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FW26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FX26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FY26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HB26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HC26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HD26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HE26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HF26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HG26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM26" t="s">
-        <v>13</v>
-      </c>
-      <c r="HN26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ME26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MF26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MG26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MH26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MI26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MJ26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="MK26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ML26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MM26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MN26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MO26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MP26" t="s">
-        <v>13</v>
-      </c>
-      <c r="MQ26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="MR26" s="18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BN27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BW27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="GN27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA27" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="FL28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FP28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FQ28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FS28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FV28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FW28" t="s">
+        <v>13</v>
+      </c>
+      <c r="FX28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="FY28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM28" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="ME28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MF28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MG28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MH28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MI28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MJ28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MK28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="ML28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MM28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MN28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MO28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MP28" t="s">
+        <v>13</v>
+      </c>
+      <c r="MQ28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="MR28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX29" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="7"/>
-      <c r="AX30" s="7"/>
-      <c r="AY30" s="7"/>
-      <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BG30" s="7"/>
-      <c r="BH30" s="7"/>
-      <c r="BI30" s="7"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="7"/>
-      <c r="BM30" s="7"/>
-      <c r="BN30" s="7"/>
-      <c r="BO30" s="7"/>
-      <c r="BP30" s="7"/>
-      <c r="BQ30" s="7"/>
-      <c r="BR30" s="7"/>
-      <c r="BS30" s="7"/>
-      <c r="BT30" s="7"/>
-      <c r="BU30" s="7"/>
-      <c r="BV30" s="7"/>
-      <c r="BW30" s="7"/>
-      <c r="BX30" s="7"/>
-      <c r="BY30" s="7"/>
-      <c r="BZ30" s="7"/>
-      <c r="CA30" s="7"/>
-      <c r="CB30" s="7"/>
-      <c r="CC30" s="7"/>
-      <c r="CD30" s="19"/>
-      <c r="CE30" s="19"/>
-      <c r="CF30" s="7"/>
-      <c r="CG30" s="7"/>
-      <c r="CH30" s="7"/>
-      <c r="CI30" s="7"/>
-      <c r="CJ30" s="7"/>
-      <c r="CK30" s="19"/>
-      <c r="CL30" s="19"/>
-      <c r="CM30" s="7"/>
-      <c r="CN30" s="7"/>
-      <c r="CO30" s="7"/>
-      <c r="CP30" s="7"/>
-      <c r="CQ30" s="7"/>
-      <c r="CR30" s="19"/>
-      <c r="CS30" s="19"/>
-      <c r="CT30" s="7"/>
-      <c r="CU30" s="7"/>
-      <c r="CV30" s="7"/>
-      <c r="CW30" s="7"/>
-      <c r="CX30" s="7"/>
-      <c r="CY30" s="19"/>
-      <c r="CZ30" s="19"/>
-      <c r="DA30" s="7"/>
-      <c r="DB30" s="7"/>
-      <c r="DC30" s="7"/>
-      <c r="DJ30" s="7"/>
-      <c r="DK30" s="7"/>
-      <c r="DL30" s="7"/>
-      <c r="DM30" s="19"/>
-      <c r="DN30" s="19"/>
-      <c r="DO30" s="7"/>
-      <c r="DP30" s="7"/>
-      <c r="DQ30" s="7"/>
-      <c r="DR30" s="7"/>
-      <c r="DS30" s="7"/>
-      <c r="DT30" s="19"/>
-      <c r="DU30" s="19"/>
-      <c r="DV30" s="7"/>
-      <c r="DW30" s="7"/>
-      <c r="DX30" s="7"/>
-      <c r="DY30" s="7"/>
-      <c r="DZ30" s="7"/>
-      <c r="EA30" s="19"/>
-      <c r="EB30" s="19"/>
-      <c r="EC30" s="7"/>
-      <c r="ED30" s="7"/>
-      <c r="EE30" s="7"/>
-      <c r="EF30" s="7"/>
-      <c r="EG30" s="7"/>
-      <c r="EH30" s="19"/>
-      <c r="EI30" s="19"/>
-      <c r="EJ30" s="7"/>
-      <c r="EK30" s="7"/>
-      <c r="EL30" s="7"/>
-      <c r="EM30" s="7"/>
-      <c r="EN30" s="7"/>
-      <c r="EO30" s="19"/>
-      <c r="EP30" s="19"/>
-      <c r="EQ30" s="7"/>
-      <c r="ER30" s="7"/>
-      <c r="ES30" s="7"/>
-      <c r="ET30" s="7"/>
-      <c r="EU30" s="7"/>
-      <c r="EV30" s="19"/>
-      <c r="EW30" s="19"/>
-      <c r="EX30" s="7"/>
-      <c r="EY30" s="7"/>
-      <c r="EZ30" s="7"/>
-      <c r="FA30" s="7"/>
-      <c r="FB30" s="7"/>
-      <c r="FC30" s="19"/>
-      <c r="FD30" s="19"/>
-      <c r="FE30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FF30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FG30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FH30" s="23"/>
-      <c r="FI30" s="5"/>
-      <c r="FJ30" s="19"/>
-      <c r="FK30" s="19"/>
-      <c r="FL30" s="7"/>
-      <c r="FM30" s="7"/>
-      <c r="FN30" s="7"/>
-      <c r="FO30" s="7"/>
-      <c r="FP30" s="7"/>
-      <c r="FQ30" s="19"/>
-      <c r="FR30" s="19"/>
-      <c r="FS30" s="7"/>
-      <c r="FT30" s="7"/>
-      <c r="FU30" s="7"/>
-      <c r="FV30" s="7"/>
-      <c r="FW30" s="7"/>
-      <c r="FX30" s="19"/>
-      <c r="FY30" s="19"/>
-      <c r="FZ30" s="7"/>
-      <c r="GA30" s="7"/>
-      <c r="GB30" s="7"/>
-      <c r="GC30" s="7"/>
-      <c r="GD30" s="7"/>
-      <c r="GE30" s="19"/>
-      <c r="GF30" s="19"/>
-      <c r="GG30" s="7"/>
-      <c r="GH30" s="7"/>
-      <c r="GI30" s="7"/>
-      <c r="GJ30" s="7"/>
-      <c r="GK30" s="7"/>
-      <c r="GL30" s="19"/>
-      <c r="GM30" s="19"/>
-      <c r="GN30" s="7"/>
-      <c r="GO30" s="7"/>
-      <c r="GP30" s="7"/>
-      <c r="GQ30" s="7"/>
-      <c r="GR30" s="7"/>
-      <c r="GS30" s="19"/>
-      <c r="GT30" s="19"/>
-      <c r="GU30" s="7"/>
-      <c r="GV30" s="7"/>
-      <c r="GW30" s="7"/>
-      <c r="GX30" s="7"/>
-      <c r="GY30" s="7"/>
-      <c r="GZ30" s="19"/>
-      <c r="HA30" s="19"/>
-      <c r="HB30" s="7"/>
-      <c r="HC30" s="7"/>
-      <c r="HD30" s="7"/>
-      <c r="HE30" s="7"/>
-      <c r="HF30" s="7"/>
-      <c r="HG30" s="19"/>
-      <c r="HH30" s="19"/>
-      <c r="HI30" s="7"/>
-      <c r="HJ30" s="7"/>
-      <c r="HK30" s="7"/>
-      <c r="HL30" s="7"/>
-      <c r="HM30" s="7"/>
-      <c r="HN30" s="19"/>
-      <c r="HO30" s="19"/>
-      <c r="HP30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HQ30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HR30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HS30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HT30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HU30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HV30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HW30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HX30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HY30" t="s">
-        <v>13</v>
-      </c>
-      <c r="HZ30" t="s">
-        <v>13</v>
-      </c>
-      <c r="IA30" t="s">
-        <v>13</v>
-      </c>
-      <c r="IB30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IC30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ID30" s="7"/>
-      <c r="IE30" s="7"/>
-      <c r="IF30" s="7"/>
-      <c r="IG30" s="7"/>
-      <c r="IH30" s="7"/>
-      <c r="II30" s="19"/>
-      <c r="IJ30" s="19"/>
-      <c r="IK30" s="7"/>
-      <c r="IL30" s="7"/>
-      <c r="IM30" s="7"/>
-      <c r="IN30" s="7"/>
-      <c r="IO30" s="7"/>
-      <c r="IP30" s="19"/>
-      <c r="IQ30" s="19"/>
-      <c r="IR30" s="7"/>
-      <c r="IS30" s="7"/>
-      <c r="IT30" s="7"/>
-      <c r="IU30" s="7"/>
-      <c r="IV30" s="7"/>
-      <c r="IW30" s="19"/>
-      <c r="IX30" s="19"/>
-      <c r="IY30" s="7"/>
-      <c r="IZ30" s="7"/>
-      <c r="JA30" s="7"/>
-      <c r="JB30" s="7"/>
-      <c r="JC30" s="7"/>
-      <c r="JD30" s="19"/>
-      <c r="JE30" s="19"/>
-      <c r="JF30" s="7"/>
-      <c r="JG30" s="7"/>
-      <c r="JH30" s="7"/>
-      <c r="JI30" s="7"/>
-      <c r="JJ30" s="7"/>
-      <c r="JK30" s="19"/>
-      <c r="JL30" s="19"/>
-      <c r="JM30" s="7"/>
-      <c r="JN30" s="7"/>
-      <c r="JO30" s="7"/>
-      <c r="JP30" s="7"/>
-      <c r="JQ30" s="7"/>
-      <c r="JR30" s="19"/>
-      <c r="JS30" s="19"/>
-      <c r="JT30" s="7"/>
-      <c r="JU30" s="7"/>
-      <c r="JV30" s="7"/>
-      <c r="JW30" s="7"/>
-      <c r="JX30" s="7"/>
-      <c r="JY30" s="19"/>
-      <c r="JZ30" s="19"/>
-      <c r="KA30" s="7"/>
-      <c r="KB30" s="7"/>
-      <c r="KC30" s="7"/>
-      <c r="KD30" s="7"/>
-      <c r="KE30" s="7"/>
-      <c r="KF30" s="19"/>
-      <c r="KG30" s="19"/>
-      <c r="KH30" s="7"/>
-      <c r="KI30" s="7"/>
-      <c r="KJ30" s="7"/>
-      <c r="KK30" s="7"/>
-      <c r="KL30" s="7"/>
-      <c r="KM30" s="19"/>
-      <c r="KN30" s="19"/>
-      <c r="KO30" s="7"/>
-      <c r="KP30" s="7"/>
-      <c r="KQ30" s="7"/>
-      <c r="KR30" s="7"/>
-      <c r="KS30" s="7"/>
-      <c r="KT30" s="19"/>
-      <c r="KU30" s="19"/>
-      <c r="KV30" s="7"/>
-      <c r="KW30" s="7"/>
-      <c r="KX30" t="s">
-        <v>13</v>
-      </c>
-      <c r="KY30" t="s">
-        <v>13</v>
-      </c>
-      <c r="KZ30" t="s">
-        <v>13</v>
-      </c>
-      <c r="LA30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="LB30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="LC30" t="s">
-        <v>13</v>
-      </c>
-      <c r="LD30"/>
-      <c r="LE30"/>
-      <c r="LF30"/>
-      <c r="LG30" s="7"/>
-      <c r="LH30" s="19"/>
-      <c r="LI30" s="19"/>
-      <c r="LJ30" s="7"/>
-      <c r="LK30" s="7"/>
-      <c r="LL30" s="7"/>
-      <c r="LM30" s="7"/>
-      <c r="LN30" s="7"/>
-      <c r="LO30" s="19"/>
-      <c r="LP30" s="19"/>
-      <c r="LQ30" s="7"/>
-      <c r="LR30" s="7"/>
-      <c r="LS30" s="7"/>
-      <c r="LT30" s="7"/>
-      <c r="LU30" s="7"/>
-      <c r="LV30" s="19"/>
-      <c r="LW30" s="19"/>
-      <c r="LX30" s="7"/>
-      <c r="LY30" s="7"/>
-      <c r="LZ30" s="7"/>
-      <c r="MA30" s="7"/>
-      <c r="MB30" s="7"/>
-      <c r="MC30" s="19"/>
-      <c r="MD30" s="19"/>
-      <c r="ME30" s="7"/>
-      <c r="MF30" s="7"/>
-      <c r="MG30" s="7"/>
-      <c r="MH30" s="7"/>
-      <c r="MI30" s="7"/>
-      <c r="MJ30" s="19"/>
-      <c r="MK30" s="19"/>
-      <c r="ML30" s="7"/>
-      <c r="MM30" s="7"/>
-      <c r="MN30" s="7"/>
-      <c r="MO30" s="7"/>
-      <c r="MP30" s="7"/>
-      <c r="MQ30" s="19"/>
-      <c r="MR30" s="19"/>
-      <c r="MS30" s="7"/>
-      <c r="MT30" s="7"/>
-      <c r="MU30" s="7"/>
-      <c r="MV30" s="7"/>
-      <c r="MW30" s="7"/>
-      <c r="MX30" s="19"/>
-      <c r="MY30" s="19"/>
-      <c r="MZ30" s="7"/>
-      <c r="NA30" s="7"/>
-      <c r="NB30" s="7"/>
-    </row>
-    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="DD31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="DE31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="DI31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="FE31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="FF31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="FG31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="HB31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HC31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HD31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HE31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HF31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HG31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HI31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HK31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HL31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HM31" t="s">
-        <v>13</v>
-      </c>
-      <c r="HN31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HO31" s="18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -10782,12 +11065,6 @@
       <c r="DA32" s="7"/>
       <c r="DB32" s="7"/>
       <c r="DC32" s="7"/>
-      <c r="DD32" s="7"/>
-      <c r="DE32" s="7"/>
-      <c r="DF32" s="19"/>
-      <c r="DG32" s="19"/>
-      <c r="DH32" s="7"/>
-      <c r="DI32" s="7"/>
       <c r="DJ32" s="7"/>
       <c r="DK32" s="7"/>
       <c r="DL32" s="7"/>
@@ -10835,10 +11112,16 @@
       <c r="FB32" s="7"/>
       <c r="FC32" s="19"/>
       <c r="FD32" s="19"/>
-      <c r="FE32" s="27"/>
-      <c r="FF32" s="7"/>
-      <c r="FG32" s="7"/>
-      <c r="FH32" s="5"/>
+      <c r="FE32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FH32" s="23"/>
       <c r="FI32" s="5"/>
       <c r="FJ32" s="19"/>
       <c r="FK32" s="19"/>
@@ -10865,46 +11148,22 @@
       <c r="GF32" s="19"/>
       <c r="GG32" s="7"/>
       <c r="GH32" s="7"/>
-      <c r="GI32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GL32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GM32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GR32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GS32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GT32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GU32" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV32"/>
+      <c r="GI32" s="7"/>
+      <c r="GJ32" s="7"/>
+      <c r="GK32" s="7"/>
+      <c r="GL32" s="19"/>
+      <c r="GM32" s="19"/>
+      <c r="GN32" s="7"/>
+      <c r="GO32" s="7"/>
+      <c r="GP32" s="7"/>
+      <c r="GQ32" s="7"/>
+      <c r="GR32" s="7"/>
+      <c r="GS32" s="19"/>
+      <c r="GT32" s="19"/>
+      <c r="GU32" s="7"/>
+      <c r="GV32" s="7"/>
+      <c r="GW32" s="7"/>
+      <c r="GX32" s="7"/>
       <c r="GY32" s="7"/>
       <c r="GZ32" s="19"/>
       <c r="HA32" s="19"/>
@@ -10919,13 +11178,51 @@
       <c r="HJ32" s="7"/>
       <c r="HK32" s="7"/>
       <c r="HL32" s="7"/>
+      <c r="HM32" s="7"/>
       <c r="HN32" s="19"/>
       <c r="HO32" s="19"/>
-      <c r="HU32" s="19"/>
-      <c r="HV32" s="19"/>
-      <c r="IA32" s="7"/>
-      <c r="IB32" s="19"/>
-      <c r="IC32" s="19"/>
+      <c r="HP32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HR32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HT32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HU32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HV32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HW32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HX32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HY32" t="s">
+        <v>13</v>
+      </c>
+      <c r="HZ32" t="s">
+        <v>13</v>
+      </c>
+      <c r="IA32" t="s">
+        <v>13</v>
+      </c>
+      <c r="IB32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IC32" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="ID32" s="7"/>
       <c r="IE32" s="7"/>
       <c r="IF32" s="7"/>
@@ -10998,15 +11295,27 @@
       <c r="KU32" s="19"/>
       <c r="KV32" s="7"/>
       <c r="KW32" s="7"/>
-      <c r="KX32" s="7"/>
-      <c r="KY32" s="7"/>
-      <c r="KZ32" s="7"/>
-      <c r="LA32" s="19"/>
-      <c r="LB32" s="19"/>
-      <c r="LC32" s="7"/>
-      <c r="LD32" s="7"/>
-      <c r="LE32" s="7"/>
-      <c r="LF32" s="7"/>
+      <c r="KX32" t="s">
+        <v>13</v>
+      </c>
+      <c r="KY32" t="s">
+        <v>13</v>
+      </c>
+      <c r="KZ32" t="s">
+        <v>13</v>
+      </c>
+      <c r="LA32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="LB32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="LC32" t="s">
+        <v>13</v>
+      </c>
+      <c r="LD32"/>
+      <c r="LE32"/>
+      <c r="LF32"/>
       <c r="LG32" s="7"/>
       <c r="LH32" s="19"/>
       <c r="LI32" s="19"/>
@@ -11056,263 +11365,716 @@
       <c r="NA32" s="7"/>
       <c r="NB32" s="7"/>
     </row>
-    <row r="33" spans="1:307" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="DD33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="DI33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="FE33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HI33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HK33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HL33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HM33" t="s">
+        <v>13</v>
+      </c>
+      <c r="HN33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HO33" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:366" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="7"/>
+      <c r="BL34" s="7"/>
+      <c r="BM34" s="7"/>
+      <c r="BN34" s="7"/>
+      <c r="BO34" s="7"/>
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+      <c r="BT34" s="7"/>
+      <c r="BU34" s="7"/>
+      <c r="BV34" s="7"/>
+      <c r="BW34" s="7"/>
+      <c r="BX34" s="7"/>
+      <c r="BY34" s="7"/>
+      <c r="BZ34" s="7"/>
+      <c r="CA34" s="7"/>
+      <c r="CB34" s="7"/>
+      <c r="CC34" s="7"/>
+      <c r="CD34" s="19"/>
+      <c r="CE34" s="19"/>
+      <c r="CF34" s="7"/>
+      <c r="CG34" s="7"/>
+      <c r="CH34" s="7"/>
+      <c r="CI34" s="7"/>
+      <c r="CJ34" s="7"/>
+      <c r="CK34" s="19"/>
+      <c r="CL34" s="19"/>
+      <c r="CM34" s="7"/>
+      <c r="CN34" s="7"/>
+      <c r="CO34" s="7"/>
+      <c r="CP34" s="7"/>
+      <c r="CQ34" s="7"/>
+      <c r="CR34" s="19"/>
+      <c r="CS34" s="19"/>
+      <c r="CT34" s="7"/>
+      <c r="CU34" s="7"/>
+      <c r="CV34" s="7"/>
+      <c r="CW34" s="7"/>
+      <c r="CX34" s="7"/>
+      <c r="CY34" s="19"/>
+      <c r="CZ34" s="19"/>
+      <c r="DA34" s="7"/>
+      <c r="DB34" s="7"/>
+      <c r="DC34" s="7"/>
+      <c r="DD34" s="7"/>
+      <c r="DE34" s="7"/>
+      <c r="DF34" s="19"/>
+      <c r="DG34" s="19"/>
+      <c r="DH34" s="7"/>
+      <c r="DI34" s="7"/>
+      <c r="DJ34" s="7"/>
+      <c r="DK34" s="7"/>
+      <c r="DL34" s="7"/>
+      <c r="DM34" s="19"/>
+      <c r="DN34" s="19"/>
+      <c r="DO34" s="7"/>
+      <c r="DP34" s="7"/>
+      <c r="DQ34" s="7"/>
+      <c r="DR34" s="7"/>
+      <c r="DS34" s="7"/>
+      <c r="DT34" s="19"/>
+      <c r="DU34" s="19"/>
+      <c r="DV34" s="7"/>
+      <c r="DW34" s="7"/>
+      <c r="DX34" s="7"/>
+      <c r="DY34" s="7"/>
+      <c r="DZ34" s="7"/>
+      <c r="EA34" s="19"/>
+      <c r="EB34" s="19"/>
+      <c r="EC34" s="7"/>
+      <c r="ED34" s="7"/>
+      <c r="EE34" s="7"/>
+      <c r="EF34" s="7"/>
+      <c r="EG34" s="7"/>
+      <c r="EH34" s="19"/>
+      <c r="EI34" s="19"/>
+      <c r="EJ34" s="7"/>
+      <c r="EK34" s="7"/>
+      <c r="EL34" s="7"/>
+      <c r="EM34" s="7"/>
+      <c r="EN34" s="7"/>
+      <c r="EO34" s="19"/>
+      <c r="EP34" s="19"/>
+      <c r="EQ34" s="7"/>
+      <c r="ER34" s="7"/>
+      <c r="ES34" s="7"/>
+      <c r="ET34" s="7"/>
+      <c r="EU34" s="7"/>
+      <c r="EV34" s="19"/>
+      <c r="EW34" s="19"/>
+      <c r="EX34" s="7"/>
+      <c r="EY34" s="7"/>
+      <c r="EZ34" s="7"/>
+      <c r="FA34" s="7"/>
+      <c r="FB34" s="7"/>
+      <c r="FC34" s="19"/>
+      <c r="FD34" s="19"/>
+      <c r="FE34" s="27"/>
+      <c r="FF34" s="7"/>
+      <c r="FG34" s="7"/>
+      <c r="FH34" s="5"/>
+      <c r="FI34" s="5"/>
+      <c r="FJ34" s="19"/>
+      <c r="FK34" s="19"/>
+      <c r="FL34" s="7"/>
+      <c r="FM34" s="7"/>
+      <c r="FN34" s="7"/>
+      <c r="FO34" s="7"/>
+      <c r="FP34" s="7"/>
+      <c r="FQ34" s="19"/>
+      <c r="FR34" s="19"/>
+      <c r="FS34" s="7"/>
+      <c r="FT34" s="7"/>
+      <c r="FU34" s="7"/>
+      <c r="FV34" s="7"/>
+      <c r="FW34" s="7"/>
+      <c r="FX34" s="19"/>
+      <c r="FY34" s="19"/>
+      <c r="FZ34" s="7"/>
+      <c r="GA34" s="7"/>
+      <c r="GB34" s="7"/>
+      <c r="GC34" s="7"/>
+      <c r="GD34" s="7"/>
+      <c r="GE34" s="19"/>
+      <c r="GF34" s="19"/>
+      <c r="GG34" s="7"/>
+      <c r="GH34" s="7"/>
+      <c r="GI34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GJ34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU34" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV34"/>
+      <c r="GY34" s="7"/>
+      <c r="GZ34" s="19"/>
+      <c r="HA34" s="19"/>
+      <c r="HB34" s="7"/>
+      <c r="HC34" s="7"/>
+      <c r="HD34" s="7"/>
+      <c r="HE34" s="7"/>
+      <c r="HF34" s="7"/>
+      <c r="HG34" s="19"/>
+      <c r="HH34" s="19"/>
+      <c r="HI34" s="7"/>
+      <c r="HJ34" s="7"/>
+      <c r="HK34" s="7"/>
+      <c r="HL34" s="7"/>
+      <c r="HN34" s="19"/>
+      <c r="HO34" s="19"/>
+      <c r="HU34" s="19"/>
+      <c r="HV34" s="19"/>
+      <c r="IA34" s="7"/>
+      <c r="IB34" s="19"/>
+      <c r="IC34" s="19"/>
+      <c r="ID34" s="7"/>
+      <c r="IE34" s="7"/>
+      <c r="IF34" s="7"/>
+      <c r="IG34" s="7"/>
+      <c r="IH34" s="7"/>
+      <c r="II34" s="19"/>
+      <c r="IJ34" s="19"/>
+      <c r="IK34" s="7"/>
+      <c r="IL34" s="7"/>
+      <c r="IM34" s="7"/>
+      <c r="IN34" s="7"/>
+      <c r="IO34" s="7"/>
+      <c r="IP34" s="19"/>
+      <c r="IQ34" s="19"/>
+      <c r="IR34" s="7"/>
+      <c r="IS34" s="7"/>
+      <c r="IT34" s="7"/>
+      <c r="IU34" s="7"/>
+      <c r="IV34" s="7"/>
+      <c r="IW34" s="19"/>
+      <c r="IX34" s="19"/>
+      <c r="IY34" s="7"/>
+      <c r="IZ34" s="7"/>
+      <c r="JA34" s="7"/>
+      <c r="JB34" s="7"/>
+      <c r="JC34" s="7"/>
+      <c r="JD34" s="19"/>
+      <c r="JE34" s="19"/>
+      <c r="JF34" s="7"/>
+      <c r="JG34" s="7"/>
+      <c r="JH34" s="7"/>
+      <c r="JI34" s="7"/>
+      <c r="JJ34" s="7"/>
+      <c r="JK34" s="19"/>
+      <c r="JL34" s="19"/>
+      <c r="JM34" s="7"/>
+      <c r="JN34" s="7"/>
+      <c r="JO34" s="7"/>
+      <c r="JP34" s="7"/>
+      <c r="JQ34" s="7"/>
+      <c r="JR34" s="19"/>
+      <c r="JS34" s="19"/>
+      <c r="JT34" s="7"/>
+      <c r="JU34" s="7"/>
+      <c r="JV34" s="7"/>
+      <c r="JW34" s="7"/>
+      <c r="JX34" s="7"/>
+      <c r="JY34" s="19"/>
+      <c r="JZ34" s="19"/>
+      <c r="KA34" s="7"/>
+      <c r="KB34" s="7"/>
+      <c r="KC34" s="7"/>
+      <c r="KD34" s="7"/>
+      <c r="KE34" s="7"/>
+      <c r="KF34" s="19"/>
+      <c r="KG34" s="19"/>
+      <c r="KH34" s="7"/>
+      <c r="KI34" s="7"/>
+      <c r="KJ34" s="7"/>
+      <c r="KK34" s="7"/>
+      <c r="KL34" s="7"/>
+      <c r="KM34" s="19"/>
+      <c r="KN34" s="19"/>
+      <c r="KO34" s="7"/>
+      <c r="KP34" s="7"/>
+      <c r="KQ34" s="7"/>
+      <c r="KR34" s="7"/>
+      <c r="KS34" s="7"/>
+      <c r="KT34" s="19"/>
+      <c r="KU34" s="19"/>
+      <c r="KV34" s="7"/>
+      <c r="KW34" s="7"/>
+      <c r="KX34" s="7"/>
+      <c r="KY34" s="7"/>
+      <c r="KZ34" s="7"/>
+      <c r="LA34" s="19"/>
+      <c r="LB34" s="19"/>
+      <c r="LC34" s="7"/>
+      <c r="LD34" s="7"/>
+      <c r="LE34" s="7"/>
+      <c r="LF34" s="7"/>
+      <c r="LG34" s="7"/>
+      <c r="LH34" s="19"/>
+      <c r="LI34" s="19"/>
+      <c r="LJ34" s="7"/>
+      <c r="LK34" s="7"/>
+      <c r="LL34" s="7"/>
+      <c r="LM34" s="7"/>
+      <c r="LN34" s="7"/>
+      <c r="LO34" s="19"/>
+      <c r="LP34" s="19"/>
+      <c r="LQ34" s="7"/>
+      <c r="LR34" s="7"/>
+      <c r="LS34" s="7"/>
+      <c r="LT34" s="7"/>
+      <c r="LU34" s="7"/>
+      <c r="LV34" s="19"/>
+      <c r="LW34" s="19"/>
+      <c r="LX34" s="7"/>
+      <c r="LY34" s="7"/>
+      <c r="LZ34" s="7"/>
+      <c r="MA34" s="7"/>
+      <c r="MB34" s="7"/>
+      <c r="MC34" s="19"/>
+      <c r="MD34" s="19"/>
+      <c r="ME34" s="7"/>
+      <c r="MF34" s="7"/>
+      <c r="MG34" s="7"/>
+      <c r="MH34" s="7"/>
+      <c r="MI34" s="7"/>
+      <c r="MJ34" s="19"/>
+      <c r="MK34" s="19"/>
+      <c r="ML34" s="7"/>
+      <c r="MM34" s="7"/>
+      <c r="MN34" s="7"/>
+      <c r="MO34" s="7"/>
+      <c r="MP34" s="7"/>
+      <c r="MQ34" s="19"/>
+      <c r="MR34" s="19"/>
+      <c r="MS34" s="7"/>
+      <c r="MT34" s="7"/>
+      <c r="MU34" s="7"/>
+      <c r="MV34" s="7"/>
+      <c r="MW34" s="7"/>
+      <c r="MX34" s="19"/>
+      <c r="MY34" s="19"/>
+      <c r="MZ34" s="7"/>
+      <c r="NA34" s="7"/>
+      <c r="NB34" s="7"/>
+    </row>
+    <row r="35" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="GU33" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV33" t="s">
-        <v>13</v>
-      </c>
-      <c r="GW33" t="s">
-        <v>13</v>
-      </c>
-      <c r="GX33" t="s">
-        <v>13</v>
-      </c>
-      <c r="GY33" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HB33" t="s">
-        <v>13</v>
-      </c>
-      <c r="HC33" t="s">
-        <v>13</v>
-      </c>
-      <c r="HD33" t="s">
-        <v>13</v>
-      </c>
-      <c r="HE33" t="s">
-        <v>13</v>
-      </c>
-      <c r="HF33" t="s">
-        <v>13</v>
-      </c>
-      <c r="HG33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HH33" s="18" t="s">
+      <c r="GU35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY35" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HB35" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC35" t="s">
+        <v>13</v>
+      </c>
+      <c r="HD35" t="s">
+        <v>13</v>
+      </c>
+      <c r="HE35" t="s">
+        <v>13</v>
+      </c>
+      <c r="HF35" t="s">
+        <v>13</v>
+      </c>
+      <c r="HG35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="HH35" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:307" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="GJ35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GK35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GL35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GM35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GN35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GP35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GR35" t="s">
-        <v>13</v>
-      </c>
-      <c r="GS35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GT35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IK35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IL35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IM35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IN35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IO35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IP35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IQ35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="IR35" t="s">
-        <v>13</v>
-      </c>
-      <c r="IS35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JT35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JU35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JV35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JW35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JX35" t="s">
-        <v>13</v>
-      </c>
-      <c r="JY35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="JZ35" s="18" t="s">
+      <c r="GJ37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR37" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IK37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IL37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IM37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IN37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IO37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IP37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IQ37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="IR37" t="s">
+        <v>13</v>
+      </c>
+      <c r="IS37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JT37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JU37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JV37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JW37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JX37" t="s">
+        <v>13</v>
+      </c>
+      <c r="JY37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JZ37" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:307" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="IY36" t="s">
-        <v>13</v>
-      </c>
-      <c r="IZ36" t="s">
-        <v>13</v>
-      </c>
-      <c r="JA36" t="s">
-        <v>13</v>
-      </c>
-      <c r="JB36" t="s">
-        <v>13</v>
-      </c>
-      <c r="JC36" t="s">
-        <v>13</v>
-      </c>
-      <c r="JD36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="JE36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="KH36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KI36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KJ36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KK36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KL36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KM36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="KN36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="KO36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KP36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KQ36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KR36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KS36" t="s">
-        <v>13</v>
-      </c>
-      <c r="KT36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="KU36" s="18" t="s">
+      <c r="IY38" t="s">
+        <v>13</v>
+      </c>
+      <c r="IZ38" t="s">
+        <v>13</v>
+      </c>
+      <c r="JA38" t="s">
+        <v>13</v>
+      </c>
+      <c r="JB38" t="s">
+        <v>13</v>
+      </c>
+      <c r="JC38" t="s">
+        <v>13</v>
+      </c>
+      <c r="JD38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JE38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KH38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KI38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KJ38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KK38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KL38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KM38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KN38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KO38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KP38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KQ38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KR38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KS38" t="s">
+        <v>13</v>
+      </c>
+      <c r="KT38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="KU38" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:307" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="GG37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GH37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GI37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GJ37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GK37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GL37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GM37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GN37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GP37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GR37" t="s">
-        <v>13</v>
-      </c>
-      <c r="GS37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GT37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ37" s="18"/>
-      <c r="HA37" s="18"/>
+      <c r="GG39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GH39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GI39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GJ39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GM39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GN39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GP39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GQ39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GR39" t="s">
+        <v>13</v>
+      </c>
+      <c r="GS39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GT39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="GZ39" s="18"/>
+      <c r="HA39" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -11320,6 +12082,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16588,29 +17355,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="33"/>
+    <col min="2" max="2" width="9.140625" style="31"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:4" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -16618,7 +17385,7 @@
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
       <c r="D4">
@@ -16629,7 +17396,7 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
       <c r="C5">
@@ -16643,7 +17410,7 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6">
@@ -16657,7 +17424,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="C7">
@@ -16671,7 +17438,7 @@
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
       <c r="D8">
@@ -16682,7 +17449,7 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
       <c r="D9">
@@ -16693,7 +17460,7 @@
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>1</v>
       </c>
       <c r="C10">
@@ -16707,7 +17474,7 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>1</v>
       </c>
       <c r="C11">
@@ -16721,7 +17488,7 @@
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>1</v>
       </c>
       <c r="C12">
@@ -16743,7 +17510,7 @@
       <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>1</v>
       </c>
       <c r="C15">
@@ -16757,7 +17524,7 @@
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>1</v>
       </c>
       <c r="C16">
@@ -16771,7 +17538,7 @@
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>1</v>
       </c>
       <c r="D17">
@@ -16785,7 +17552,7 @@
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>1</v>
       </c>
       <c r="C19">
@@ -16799,7 +17566,7 @@
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>1</v>
       </c>
       <c r="C20">
@@ -16813,7 +17580,7 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>1</v>
       </c>
       <c r="C21">
@@ -16824,7 +17591,7 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="31">
         <v>1</v>
       </c>
       <c r="C24">
@@ -16838,7 +17605,7 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="31">
         <v>1</v>
       </c>
       <c r="C25">
@@ -16849,7 +17616,7 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="31">
         <v>1</v>
       </c>
     </row>
@@ -16857,7 +17624,7 @@
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="31">
         <v>1</v>
       </c>
       <c r="C27">
@@ -16871,7 +17638,7 @@
       <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="31">
         <v>1</v>
       </c>
     </row>
@@ -16879,7 +17646,7 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="31">
         <v>1</v>
       </c>
     </row>
@@ -16887,7 +17654,7 @@
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="31">
         <v>1</v>
       </c>
       <c r="C31">
@@ -16898,7 +17665,7 @@
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="31">
         <v>1</v>
       </c>
       <c r="C32">

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19440" windowHeight="9435" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19440" windowHeight="9375" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="59">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -734,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +745,10 @@
   <dimension ref="A1:PC39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="II13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="LG16" sqref="LG16"/>
+      <selection pane="bottomRight" activeCell="JT27" sqref="JT27:JZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,8 +6833,12 @@
       <c r="JF12" s="1"/>
       <c r="JG12" s="1"/>
       <c r="JH12" s="1"/>
-      <c r="JI12" s="1"/>
-      <c r="JJ12" s="1"/>
+      <c r="JI12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="JJ12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="JK12" s="19"/>
       <c r="JL12" s="19"/>
       <c r="JM12" s="1"/>
@@ -10750,6 +10754,27 @@
       <c r="HA27" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="JT27" t="s">
+        <v>13</v>
+      </c>
+      <c r="JU27" t="s">
+        <v>13</v>
+      </c>
+      <c r="JV27" t="s">
+        <v>13</v>
+      </c>
+      <c r="JW27" t="s">
+        <v>13</v>
+      </c>
+      <c r="JX27" t="s">
+        <v>13</v>
+      </c>
+      <c r="JY27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="JZ27" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -10947,6 +10972,9 @@
         <v>13</v>
       </c>
       <c r="CX29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="JT29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12075,6 +12103,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -12082,11 +12115,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="60">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Роговец Андрей</t>
+  </si>
+  <si>
+    <t>Григоренко</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PC39"/>
+  <dimension ref="A1:PC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="II13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="JU13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="JT27" sqref="JT27:JZ27"/>
+      <selection pane="bottomRight" activeCell="LJ40" sqref="LJ40:LW40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12101,13 +12104,55 @@
       <c r="GZ39" s="18"/>
       <c r="HA39" s="18"/>
     </row>
+    <row r="40" spans="1:366" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="LJ40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LK40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LL40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LM40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LN40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LO40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LP40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LQ40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LR40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LS40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LT40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LU40" t="s">
+        <v>13</v>
+      </c>
+      <c r="LV40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LW40" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -12115,6 +12160,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="60">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -737,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,10 +748,10 @@
   <dimension ref="A1:PC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JU13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="JU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="LJ40" sqref="LJ40:LW40"/>
+      <selection pane="bottomRight" activeCell="KH11" sqref="KH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6468,7 +6468,9 @@
       <c r="KE11" s="7"/>
       <c r="KF11" s="19"/>
       <c r="KG11" s="19"/>
-      <c r="KH11" s="7"/>
+      <c r="KH11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="KI11" s="7"/>
       <c r="KJ11" s="7"/>
       <c r="KK11" s="7"/>
@@ -12153,6 +12155,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -12160,11 +12167,6 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Управление/Персонал/Отпуск 2014.xlsx
+++ b/Управление/Персонал/Отпуск 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19440" windowHeight="9375" tabRatio="207"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="19440" windowHeight="9315" tabRatio="207"/>
   </bookViews>
   <sheets>
     <sheet name="Отпуска" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="60">
   <si>
     <t>Алексей Львов</t>
   </si>
@@ -737,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,10 +748,10 @@
   <dimension ref="A1:PC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="KZ13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="KH11" sqref="KH11"/>
+      <selection pane="bottomRight" activeCell="LU27" sqref="LU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10780,6 +10780,9 @@
       <c r="JZ27" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="LU27" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -11967,25 +11970,27 @@
       <c r="IS37" t="s">
         <v>13</v>
       </c>
-      <c r="JT37" t="s">
-        <v>13</v>
-      </c>
-      <c r="JU37" t="s">
-        <v>13</v>
-      </c>
-      <c r="JV37" t="s">
-        <v>13</v>
-      </c>
-      <c r="JW37" t="s">
-        <v>13</v>
-      </c>
-      <c r="JX37" t="s">
-        <v>13</v>
-      </c>
-      <c r="JY37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="JZ37" s="18" t="s">
+      <c r="JY37" s="18"/>
+      <c r="JZ37" s="18"/>
+      <c r="LC37" t="s">
+        <v>13</v>
+      </c>
+      <c r="LD37" t="s">
+        <v>13</v>
+      </c>
+      <c r="LE37" t="s">
+        <v>13</v>
+      </c>
+      <c r="LF37" t="s">
+        <v>13</v>
+      </c>
+      <c r="LG37" t="s">
+        <v>13</v>
+      </c>
+      <c r="LH37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="LI37" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12155,11 +12160,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="BI1:CM1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="DR1:EV1"/>
@@ -12167,6 +12167,11 @@
     <mergeCell ref="GA1:HE1"/>
     <mergeCell ref="HF1:IJ1"/>
     <mergeCell ref="IK1:JN1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="BI1:CM1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="JO1:KS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
